--- a/testing/covid-testing-latest-data-source-details.xlsx
+++ b/testing/covid-testing-latest-data-source-details.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Argentina - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/30-04-20_reporte_matutino_covid_19.pdf</t>
+    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/09-05-20_reporte-matutino-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Argentina</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-6-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-9-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175135/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510104642/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175139/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200509192849/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-4-maya-vyzdoroveli-i-vypisany-3259-patsientov/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-8-maya-vyzdoroveli-i-vypisany-5-tys-484-patsienta/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -247,7 +247,7 @@
   </si>
   <si>
     <t xml:space="preserve">Official testing data from the Bolivian Ministry of Health is reported in [this dashboard](https://www.boliviasegura.gob.bo/datos-oficiales), which provides a breakdown of the cumulative number of confirmed, suspected, and discarded cases to date along with the number of deaths and recoveries. We assume that the number of discarded cases ("casos descartados") refers to the number of cases with negative test results. Under this assumption, we measure the total number of cases tested to date as the sum of the number of confirmed and discarded cases.
-Unfortunately, the official dashboard does not provide a time series of the number of cases tested each day since testing began. Instead, the dashboard only displays a daily snapshot of the total cases tested to date. Since we did not begin monitoring this dashboard until April 15th 2020, we construct a time series dating back to March 21st 2020 using data provided in [this unofficial Github repository](https://github.com/mauforonda/covid19-bolivia), which we have cross-referenced against data in the official dashboard for a sample of dates.</t>
+Unfortunately, the official dashboard does not provide a time series of the number of cases tested each day since testing began. Instead, the dashboard only displays a daily snapshot of the total cases tested to date. Since we did not begin monitoring this dashboard until April 15th 2020, we construct a time series dating back to March 21st 2020 using data provided in [this unofficial GitHub repository](https://github.com/mauforonda/covid19-bolivia), which we have cross-referenced against data in the official dashboard for a sample of dates.</t>
   </si>
   <si>
     <t xml:space="preserve">BRA</t>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175144/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510104647/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -300,7 +300,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175147/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510104649/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -336,13 +336,13 @@
     <t xml:space="preserve">https://www.gob.cl/coronavirus/cifrasoficiales/#reportes</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government of Chile release daily reports that include cumulative and daily totals for the number of PCR tests performed across private and public medical establishments. This data is collected by volunteers and [published on Github](https://github.com/jorgeperezrojas/covid19-data). We take our figures from this GitHub, which we regularly audit for accuracy.</t>
+    <t xml:space="preserve">The Government of Chile release daily reports that include cumulative and daily totals for the number of PCR tests performed across private and public medical establishments. This data is collected by volunteers and [published on GitHub](https://github.com/jorgeperezrojas/covid19-data). We take our figures from this GitHub, which we regularly audit for accuracy.</t>
   </si>
   <si>
     <t xml:space="preserve">COL</t>
   </si>
   <si>
-    <t xml:space="preserve">Colombia - samples processed</t>
+    <t xml:space="preserve">Colombia - samples tested</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ins.gov.co/Noticias/Paginas/Coronavirus.aspx#muestras</t>
@@ -388,7 +388,7 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175452/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200509164031/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -445,10 +445,10 @@
     <t xml:space="preserve">DNK</t>
   </si>
   <si>
-    <t xml:space="preserve">Denmark - People tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-06052020-pp5f</t>
+    <t xml:space="preserve">Denmark - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-09052020-hu51</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -475,7 +475,7 @@
     <t xml:space="preserve">Ecuador - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-04052020-08h00.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-08052020-08h0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -504,7 +504,7 @@
     <t xml:space="preserve">Government of El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">updated at 12:10am local time on 2020-05-06.</t>
+    <t xml:space="preserve">updated at 12:50pm local time on 2020-05-09.</t>
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
@@ -541,7 +541,7 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-6_-ENG-V4-1.pdf</t>
+    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-8_-ENG-V5.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopian Public Health Institute</t>
@@ -585,7 +585,7 @@
     <t xml:space="preserve">France - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.santepubliquefrance.fr/content/download/249184/2589560</t>
+    <t xml:space="preserve">https://www.santepubliquefrance.fr/content/download/250807/2596023</t>
   </si>
   <si>
     <t xml:space="preserve">Agence nationale de santé publique</t>
@@ -669,7 +669,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200506/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200509/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -739,7 +739,7 @@
     <t xml:space="preserve">ISL</t>
   </si>
   <si>
-    <t xml:space="preserve">Iceland - samples</t>
+    <t xml:space="preserve">Iceland - samples tested</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid.is/tolulegar-upplysingar</t>
@@ -771,7 +771,7 @@
   </si>
   <si>
     <t xml:space="preserve">The ICMR reports separate figures for both “samples tested” and “people tested” at press conferences and in press releases (shown separately in the charts above). No other details are provided.
-The press releases from ICMR do not always stay online for very long. The reason for this is unknown, but the releases are being backed up at this [Github repository](https://github.com/datameet/covid19).
+The press releases from ICMR do not always stay online for very long. The reason for this is unknown, but the releases are being backed up at this [GitHub repository](https://github.com/datameet/covid19).
 On some occasions there appear to have been more than one update released per day. Where we are aware of multiple observations for the day, we show the number for the earlier release.</t>
   </si>
   <si>
@@ -804,7 +804,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200506141329/http://irangov.ir/detail/338787</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200509000642/http://irangov.ir/detail/338857</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -856,7 +856,7 @@
     <t xml:space="preserve">https://t.me/s/MOHreport</t>
   </si>
   <si>
-    <t xml:space="preserve">The Israel Ministry of Health publishes COVID-19 updates on its official channel on Telegram. This data is published in a format that is extremely challenging to collect. We rely on the data as collected and made available [on Github](https://github.com/idandrd/israel-covid19-data/blob/master/Corona-Tests.csv).
+    <t xml:space="preserve">The Israel Ministry of Health publishes COVID-19 updates on its official channel on Telegram. This data is published in a format that is extremely challenging to collect. We rely on the data as collected and made available [on GitHub](https://github.com/idandrd/israel-covid19-data/blob/master/Corona-Tests.csv).
 On 19 April 2020, the person who maintains the GitHub repository confirmed to us that the units refer to the number of tests performed, after checking the information with the Ministry of Health.
 No further information on the geographical scope, number of labs, or types of test included are known.</t>
   </si>
@@ -924,7 +924,7 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000627634.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000628672.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
@@ -958,7 +958,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.go.ke/wp-content/uploads/2020/05/CamScanner-05-05-2020-15.48.16.pdf</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1259109013435940866</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -999,7 +999,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175614/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510104952/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -1015,7 +1015,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175621/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200509164113/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1036,7 +1036,7 @@
     <t xml:space="preserve">Malaysia - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175630/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510105003/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1145,10 +1145,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200506_1112.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 6 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200509_1018.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 9 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506175710/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200508200455/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1204,7 +1204,7 @@
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.06-dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.08-dagsrapport-norge-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1229,7 +1229,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180000/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510105025/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1259,7 +1259,7 @@
   <si>
     <t xml:space="preserve">The [Panama Ministry of Health](http://www.minsa.gob.pa) in collaboration with the [Gorgas Memorial Institute for Health Studies](http://www.gorgas.gob.pa) reports the cumulative number of tests performed to date in [this dashboard](http://minsa.gob.pa/coronavirus-covid-19). The reported figures include the total number of positive, negative, and "positive control" test results to date.
 It is unclear whether the total number of tests performed ("pruebas realizadas") refers to the number of people tested or the number of samples tested. The number of reported positive test results is equal to the number of confirmed cases of COVID-19, which suggests that the number of tests performed is equivalent to the number of people tested. However, because the data source does not provide a clear definition, we record the units as "unclear".
-Unfortunately, the Ministry of Health's official dashboard does not provide a time series of the number of tests performed each day since testing began. Instead, the dashboard only displays a daily snapshot of the total number of tests performed to date. Since we did not begin to monitor this dashboard until April 14th 2020, we construct a time series dating back to March 9th 2020 using data provided in [this unofficial Github repository](https://github.com/c0t088/DAP-Panama/blob/master/data_covid_pma_dia.csv), which we have cross-referenced against data in the official Ministry of Health dashboard for a sample of dates.</t>
+Unfortunately, the Ministry of Health's official dashboard does not provide a time series of the number of tests performed each day since testing began. Instead, the dashboard only displays a daily snapshot of the total number of tests performed to date. Since we did not begin to monitor this dashboard until April 14th 2020, we construct a time series dating back to March 9th 2020 using data provided in [this unofficial GitHub repository](https://github.com/c0t088/DAP-Panama/blob/master/data_covid_pma_dia.csv), which we have cross-referenced against data in the official Ministry of Health dashboard for a sample of dates.</t>
   </si>
   <si>
     <t xml:space="preserve">PRY</t>
@@ -1284,7 +1284,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Paraguay Ministry of Public Health and Social Welfare provides press releases of the daily number of samples tested, alongside the number of these samples that tested positive. It is unclear whether these figures include samples for which the results are still pending.
-We construct a time series of the daily number of samples tested using the data stored in [this unofficial Github repository](https://github.com/torresmateo/covidpy-rest). We have cross-checked a sample of the figures reported in this unofficial source against the data reported in official press releases.
+We construct a time series of the daily number of samples tested using the data stored in [this unofficial GitHub repository](https://github.com/torresmateo/covidpy-rest). We have cross-checked a sample of the figures reported in this unofficial source against the data reported in official press releases.
 It is possible that the figures are equivalent to the number of people tested, since the number of positive samples reported tend to be equal to the daily number of confirmed cases that the ministry reports. However, since the ministry uses the language "samples taken" ("muestras tomadas") in its press releases, we interpret the units as "sample tested" rather than "people tested".
 The reported figures are cumulative from March 7th 2020, when the first case in Paraguay was confirmed.</t>
   </si>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/147296-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-51-189-en-el-peru-comunicado-n-88</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/151163-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-65-015-en-el-peru-comunicado-n-95</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1336,7 +1336,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.06.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.09.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1381,7 +1381,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180008/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510105040/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1409,7 +1409,7 @@
     <t xml:space="preserve">Made available by Adrian-Tudor Panescu on Github</t>
   </si>
   <si>
-    <t xml:space="preserve">Data is collected and made available [on Github](https://github.com/adrianp/covid19romania). It includes a cumulative total of tests performed. No information is given on the geographical scope and number of labs included.
+    <t xml:space="preserve">Data is collected and made available [on GitHub](https://github.com/adrianp/covid19romania). It includes a cumulative total of tests performed. No information is given on the geographical scope and number of labs included.
 The main data source is the press office of the Ministry of Internal Affairs, which provides a daily report on most metrics. Data points are also sourced from the Romanian Ministry of Health and the Romanian National Institute of Public Health and occasionally from news outlets.</t>
   </si>
   <si>
@@ -1419,7 +1419,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14386</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14424</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1257748545744113665</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1259173285348204546</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1512,7 +1512,7 @@
     <t xml:space="preserve">https://www.zdravlje.gov.rs/sekcija/345852/covid-19.php</t>
   </si>
   <si>
-    <t xml:space="preserve">Reports are published daily by the Serbian Ministry of Health. The data is collected and aggregated by volunteers and [published on Github](https://github.com/aleksandar-jovicic/COVID19-Serbia). All labs in Serbia are included.</t>
+    <t xml:space="preserve">Reports are published daily by the Serbian Ministry of Health. The data is collected and aggregated by volunteers and [published on GitHub](https://github.com/aleksandar-jovicic/COVID19-Serbia). All labs in Serbia are included.</t>
   </si>
   <si>
     <t xml:space="preserve">SGP</t>
@@ -1546,7 +1546,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180204/https://korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510105056/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1620,7 +1620,7 @@
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367092&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367186&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1640,10 +1640,13 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/sanidadgob/status/1256993737340747782</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas_07_05_2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponding press release: https://www.mscbs.gob.es/gabinete/notasPrensa.do?id=4910</t>
   </si>
   <si>
     <t xml:space="preserve">Ministerio de Sanidad, Consumo y Bienestar Social</t>
@@ -1687,9 +1690,6 @@
     <t xml:space="preserve">https://covid-19-schweiz.bagapps.ch/de-3.html</t>
   </si>
   <si>
-    <t xml:space="preserve">BAG dashboard</t>
-  </si>
-  <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
   </si>
   <si>
@@ -1706,7 +1706,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/DZSBM654J3t3R35Rsh8KJA?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/EKvIxtZ0OwCUzeHXum1VBA?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1729,7 +1729,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180226/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510105142/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1776,7 +1776,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180231/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200509164243/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1800,7 +1800,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1257775905147105280</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1259006502502834181</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
@@ -1823,7 +1823,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180233/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200510105147/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1845,7 +1845,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180236/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200509164248/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1868,7 +1868,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180240/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200509164249/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1942,7 +1942,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-16</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-20</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -1981,7 +1981,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1257805665143226377</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1258995561090502657</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -1991,7 +1991,8 @@
   </si>
   <si>
     <t xml:space="preserve">The Zimbabwe Ministry of Health and Child Care provides daily press releases on its website and Twitter account ([@MoHCCZim](https://twitter.com/MoHCCZim)) that report the cumulative number of tests performed to date. The reported figures include positive, negative, and pending test results. It is not clear how many people have been tested, since the reported figures refer only to the number of tests conducted rather than the number of people tested.
-The earliest reported figure that we have been able to find is from March 15th 2020, at which point 14 tests had been conducted.</t>
+The press release for May 6th 2020 reported that 7,808 PCR and 8,244 "rapid screening" tests had been conducted to date. We exclude rapid screening tests from the daily time series that we construct, since we assume that these are antibody tests.
+Prior to May 6th 2020, the press releases either: (a) reported a combined cumulative total of PCR and rapid screening tests without providing a breakdown between the two types of tests; or (b) did not clearly specify whether the reported cumulative total was in reference to PCR tests, antibody tests, or both. For this reason, the daily time series we construct begins on May 6th 2020, at which point the press releases began to clearly indicate that the reported cumulative totals only include PCR tests.</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2397,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>43952</v>
+        <v>43960</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2406,20 +2407,32 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>58685</v>
+        <v>80729</v>
       </c>
       <c r="I2" t="n">
-        <v>1.298</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
+        <v>1.786</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2828</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2804.667</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2409</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.053</v>
+      </c>
       <c r="P2" t="s">
         <v>22</v>
       </c>
@@ -2441,7 +2454,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -2451,31 +2464,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>688656</v>
+        <v>795456</v>
       </c>
       <c r="I3" t="n">
-        <v>27.006</v>
+        <v>31.194</v>
       </c>
       <c r="J3" t="n">
-        <v>23900</v>
+        <v>38206</v>
       </c>
       <c r="K3" t="n">
-        <v>0.937</v>
+        <v>1.498</v>
       </c>
       <c r="L3" t="n">
-        <v>18516.333</v>
+        <v>35600</v>
       </c>
       <c r="M3" t="n">
-        <v>0.726</v>
+        <v>1.396</v>
       </c>
       <c r="N3" t="n">
-        <v>20606.571</v>
+        <v>26267.571</v>
       </c>
       <c r="O3" t="n">
-        <v>0.808</v>
+        <v>1.03</v>
       </c>
       <c r="P3" t="s">
         <v>29</v>
@@ -2498,7 +2511,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -2508,31 +2521,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H4" t="n">
-        <v>292254</v>
+        <v>316508</v>
       </c>
       <c r="I4" t="n">
-        <v>32.45</v>
+        <v>35.143</v>
       </c>
       <c r="J4" t="n">
-        <v>6371</v>
+        <v>4818</v>
       </c>
       <c r="K4" t="n">
-        <v>0.707</v>
+        <v>0.535</v>
       </c>
       <c r="L4" t="n">
-        <v>5966.333</v>
+        <v>6204.667</v>
       </c>
       <c r="M4" t="n">
-        <v>0.662</v>
+        <v>0.689</v>
       </c>
       <c r="N4" t="n">
-        <v>6357.143</v>
+        <v>6021.857</v>
       </c>
       <c r="O4" t="n">
-        <v>0.706</v>
+        <v>0.669</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -2555,7 +2568,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -2565,31 +2578,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H5" t="n">
-        <v>160341</v>
+        <v>178353</v>
       </c>
       <c r="I5" t="n">
-        <v>94.23</v>
+        <v>104.816</v>
       </c>
       <c r="J5" t="n">
-        <v>4840</v>
+        <v>6195</v>
       </c>
       <c r="K5" t="n">
-        <v>2.844</v>
+        <v>3.641</v>
       </c>
       <c r="L5" t="n">
-        <v>5395.333</v>
+        <v>6004</v>
       </c>
       <c r="M5" t="n">
-        <v>3.171</v>
+        <v>3.529</v>
       </c>
       <c r="N5" t="n">
-        <v>4776.571</v>
+        <v>5725</v>
       </c>
       <c r="O5" t="n">
-        <v>2.807</v>
+        <v>3.365</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
@@ -2612,7 +2625,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -2622,31 +2635,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H6" t="n">
-        <v>99644</v>
+        <v>116919</v>
       </c>
       <c r="I6" t="n">
-        <v>0.605</v>
+        <v>0.71</v>
       </c>
       <c r="J6" t="n">
-        <v>6241</v>
+        <v>5465</v>
       </c>
       <c r="K6" t="n">
-        <v>0.038</v>
+        <v>0.033</v>
       </c>
       <c r="L6" t="n">
-        <v>6063.333</v>
+        <v>5758.333</v>
       </c>
       <c r="M6" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="N6" t="n">
-        <v>5706.143</v>
+        <v>5836.143</v>
       </c>
       <c r="O6" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="P6" t="s">
         <v>51</v>
@@ -2669,7 +2682,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>43955</v>
+        <v>43959</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
@@ -2679,16 +2692,20 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" t="n">
-        <v>211369</v>
+        <v>240146</v>
       </c>
       <c r="I7" t="n">
-        <v>22.369</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
+        <v>25.414</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10680</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.13</v>
+      </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
@@ -2714,7 +2731,7 @@
         <v>62</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>43955</v>
+        <v>43959</v>
       </c>
       <c r="D8" t="s">
         <v>63</v>
@@ -2724,31 +2741,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H8" t="n">
-        <v>391314</v>
+        <v>461303</v>
       </c>
       <c r="I8" t="n">
-        <v>33.764</v>
+        <v>39.803</v>
       </c>
       <c r="J8" t="n">
-        <v>19721</v>
+        <v>21311</v>
       </c>
       <c r="K8" t="n">
-        <v>1.702</v>
+        <v>1.839</v>
       </c>
       <c r="L8" t="n">
-        <v>15552.667</v>
+        <v>18816.667</v>
       </c>
       <c r="M8" t="n">
-        <v>1.342</v>
+        <v>1.624</v>
       </c>
       <c r="N8" t="n">
-        <v>18086.286</v>
+        <v>17504.143</v>
       </c>
       <c r="O8" t="n">
-        <v>1.561</v>
+        <v>1.51</v>
       </c>
       <c r="P8" t="s">
         <v>64</v>
@@ -2771,7 +2788,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -2783,31 +2800,31 @@
         <v>71</v>
       </c>
       <c r="G9" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
-        <v>7888</v>
+        <v>8523</v>
       </c>
       <c r="I9" t="n">
-        <v>0.676</v>
+        <v>0.73</v>
       </c>
       <c r="J9" t="n">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="L9" t="n">
-        <v>110.667</v>
+        <v>183.667</v>
       </c>
       <c r="M9" t="n">
-        <v>0.009</v>
+        <v>0.016</v>
       </c>
       <c r="N9" t="n">
-        <v>252.429</v>
+        <v>138.143</v>
       </c>
       <c r="O9" t="n">
-        <v>0.022</v>
+        <v>0.012</v>
       </c>
       <c r="P9" t="s">
         <v>43</v>
@@ -2875,7 +2892,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -2885,28 +2902,32 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H11" t="n">
-        <v>51768</v>
+        <v>57231</v>
       </c>
       <c r="I11" t="n">
-        <v>7.45</v>
+        <v>8.237</v>
       </c>
       <c r="J11" t="n">
-        <v>1465</v>
+        <v>1126</v>
       </c>
       <c r="K11" t="n">
-        <v>0.211</v>
+        <v>0.162</v>
       </c>
       <c r="L11" t="n">
-        <v>1050</v>
+        <v>1433.333</v>
       </c>
       <c r="M11" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11"/>
+        <v>0.206</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1230.429</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.177</v>
+      </c>
       <c r="P11" t="s">
         <v>86</v>
       </c>
@@ -2928,7 +2949,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D12" t="s">
         <v>91</v>
@@ -2938,24 +2959,26 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H12" t="n">
-        <v>942526</v>
+        <v>1071379</v>
       </c>
       <c r="I12" t="n">
-        <v>24.973</v>
+        <v>28.387</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="n">
-        <v>0.052</v>
+        <v>0.1</v>
       </c>
       <c r="L12"/>
       <c r="M12" t="n">
-        <v>0.433</v>
+        <v>0.614</v>
       </c>
       <c r="N12"/>
-      <c r="O12"/>
+      <c r="O12" t="n">
+        <v>0.673</v>
+      </c>
       <c r="P12" t="s">
         <v>92</v>
       </c>
@@ -2977,7 +3000,7 @@
         <v>97</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D13" t="s">
         <v>98</v>
@@ -2989,31 +3012,31 @@
         <v>99</v>
       </c>
       <c r="G13" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H13" t="n">
-        <v>232108</v>
+        <v>267904</v>
       </c>
       <c r="I13" t="n">
-        <v>12.142</v>
+        <v>14.014</v>
       </c>
       <c r="J13" t="n">
-        <v>10013</v>
+        <v>11943</v>
       </c>
       <c r="K13" t="n">
-        <v>0.524</v>
+        <v>0.625</v>
       </c>
       <c r="L13" t="n">
-        <v>8630</v>
+        <v>11932</v>
       </c>
       <c r="M13" t="n">
-        <v>0.452</v>
+        <v>0.624</v>
       </c>
       <c r="N13" t="n">
-        <v>8498.429</v>
+        <v>9786.286</v>
       </c>
       <c r="O13" t="n">
-        <v>0.445</v>
+        <v>0.512</v>
       </c>
       <c r="P13" t="s">
         <v>100</v>
@@ -3036,7 +3059,7 @@
         <v>104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -3046,31 +3069,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H14" t="n">
-        <v>127105</v>
+        <v>144912</v>
       </c>
       <c r="I14" t="n">
-        <v>2.498</v>
+        <v>2.848</v>
       </c>
       <c r="J14" t="n">
-        <v>4076</v>
+        <v>5173</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08</v>
+        <v>0.102</v>
       </c>
       <c r="L14" t="n">
-        <v>4167.667</v>
+        <v>4600.667</v>
       </c>
       <c r="M14" t="n">
-        <v>0.082</v>
+        <v>0.09</v>
       </c>
       <c r="N14" t="n">
-        <v>4574.286</v>
+        <v>4330</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09</v>
+        <v>0.085</v>
       </c>
       <c r="P14" t="s">
         <v>106</v>
@@ -3093,7 +3116,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D15" t="s">
         <v>112</v>
@@ -3103,31 +3126,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H15" t="n">
-        <v>9892</v>
+        <v>11276</v>
       </c>
       <c r="I15" t="n">
-        <v>1.942</v>
+        <v>2.214</v>
       </c>
       <c r="J15" t="n">
-        <v>73</v>
+        <v>449</v>
       </c>
       <c r="K15" t="n">
-        <v>0.014</v>
+        <v>0.088</v>
       </c>
       <c r="L15" t="n">
-        <v>99.667</v>
+        <v>391.667</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02</v>
+        <v>0.077</v>
       </c>
       <c r="N15" t="n">
-        <v>129</v>
+        <v>240.429</v>
       </c>
       <c r="O15" t="n">
-        <v>0.025</v>
+        <v>0.047</v>
       </c>
       <c r="P15" t="s">
         <v>113</v>
@@ -3150,7 +3173,7 @@
         <v>117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D16" t="s">
         <v>118</v>
@@ -3160,28 +3183,32 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H16" t="n">
-        <v>41053</v>
+        <v>44218</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>10.771</v>
       </c>
       <c r="J16" t="n">
-        <v>1080</v>
+        <v>840</v>
       </c>
       <c r="K16" t="n">
-        <v>0.263</v>
+        <v>0.205</v>
       </c>
       <c r="L16" t="n">
-        <v>989.667</v>
+        <v>1055</v>
       </c>
       <c r="M16" t="n">
-        <v>0.241</v>
-      </c>
-      <c r="N16"/>
-      <c r="O16"/>
+        <v>0.257</v>
+      </c>
+      <c r="N16" t="n">
+        <v>951.571</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.232</v>
+      </c>
       <c r="P16" t="s">
         <v>119</v>
       </c>
@@ -3203,7 +3230,7 @@
         <v>124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>43956</v>
+        <v>43959</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>
@@ -3215,31 +3242,31 @@
         <v>127</v>
       </c>
       <c r="G17" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H17" t="n">
-        <v>59648</v>
+        <v>65509</v>
       </c>
       <c r="I17" t="n">
-        <v>5.266</v>
+        <v>5.784</v>
       </c>
       <c r="J17" t="n">
-        <v>1937</v>
+        <v>1949</v>
       </c>
       <c r="K17" t="n">
-        <v>0.171</v>
+        <v>0.172</v>
       </c>
       <c r="L17" t="n">
-        <v>2034.333</v>
+        <v>1953.667</v>
       </c>
       <c r="M17" t="n">
-        <v>0.179</v>
+        <v>0.172</v>
       </c>
       <c r="N17" t="n">
-        <v>2043.429</v>
+        <v>2000.429</v>
       </c>
       <c r="O17" t="n">
-        <v>0.18</v>
+        <v>0.176</v>
       </c>
       <c r="P17" t="s">
         <v>126</v>
@@ -3262,7 +3289,7 @@
         <v>131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D18" t="s">
         <v>132</v>
@@ -3272,31 +3299,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H18" t="n">
-        <v>278519</v>
+        <v>302493</v>
       </c>
       <c r="I18" t="n">
-        <v>26.008</v>
+        <v>28.247</v>
       </c>
       <c r="J18" t="n">
-        <v>9416</v>
+        <v>3717</v>
       </c>
       <c r="K18" t="n">
-        <v>0.879</v>
+        <v>0.347</v>
       </c>
       <c r="L18" t="n">
-        <v>6879.333</v>
+        <v>5193.333</v>
       </c>
       <c r="M18" t="n">
-        <v>0.642</v>
+        <v>0.485</v>
       </c>
       <c r="N18" t="n">
-        <v>6207.714</v>
+        <v>6373.143</v>
       </c>
       <c r="O18" t="n">
-        <v>0.58</v>
+        <v>0.595</v>
       </c>
       <c r="P18" t="s">
         <v>43</v>
@@ -3319,7 +3346,7 @@
         <v>136</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D19" t="s">
         <v>137</v>
@@ -3331,31 +3358,31 @@
         <v>139</v>
       </c>
       <c r="G19" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H19" t="n">
-        <v>270680</v>
+        <v>308984</v>
       </c>
       <c r="I19" t="n">
-        <v>46.732</v>
+        <v>53.345</v>
       </c>
       <c r="J19" t="n">
-        <v>12942</v>
+        <v>10496</v>
       </c>
       <c r="K19" t="n">
-        <v>2.234</v>
+        <v>1.812</v>
       </c>
       <c r="L19" t="n">
-        <v>12293.667</v>
+        <v>12768</v>
       </c>
       <c r="M19" t="n">
-        <v>2.122</v>
+        <v>2.204</v>
       </c>
       <c r="N19" t="n">
-        <v>12945.429</v>
+        <v>12438.857</v>
       </c>
       <c r="O19" t="n">
-        <v>2.235</v>
+        <v>2.147</v>
       </c>
       <c r="P19" t="s">
         <v>140</v>
@@ -3378,7 +3405,7 @@
         <v>144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>43955</v>
+        <v>43959</v>
       </c>
       <c r="D20" t="s">
         <v>145</v>
@@ -3390,26 +3417,22 @@
         <v>147</v>
       </c>
       <c r="G20" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H20" t="n">
-        <v>66160</v>
+        <v>40630</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>2.303</v>
       </c>
       <c r="J20"/>
       <c r="K20" t="n">
-        <v>0.211</v>
+        <v>-0.212</v>
       </c>
       <c r="L20"/>
-      <c r="M20" t="n">
-        <v>0.55</v>
-      </c>
+      <c r="M20"/>
       <c r="N20"/>
-      <c r="O20" t="n">
-        <v>0.284</v>
-      </c>
+      <c r="O20"/>
       <c r="P20" t="s">
         <v>146</v>
       </c>
@@ -3431,7 +3454,7 @@
         <v>151</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D21" t="s">
         <v>152</v>
@@ -3443,26 +3466,22 @@
         <v>154</v>
       </c>
       <c r="G21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H21" t="n">
-        <v>33628</v>
+        <v>39079</v>
       </c>
       <c r="I21" t="n">
-        <v>5.185</v>
+        <v>6.025</v>
       </c>
       <c r="J21" t="n">
-        <v>1598</v>
+        <v>1773</v>
       </c>
       <c r="K21" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1677.333</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.258</v>
-      </c>
+        <v>0.273</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="s">
@@ -3486,7 +3505,7 @@
         <v>157</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D22" t="s">
         <v>158</v>
@@ -3496,31 +3515,31 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H22" t="n">
-        <v>58955</v>
+        <v>63372</v>
       </c>
       <c r="I22" t="n">
-        <v>44.443</v>
+        <v>47.772</v>
       </c>
       <c r="J22" t="n">
-        <v>1541</v>
+        <v>654</v>
       </c>
       <c r="K22" t="n">
-        <v>1.162</v>
+        <v>0.493</v>
       </c>
       <c r="L22" t="n">
-        <v>1256.667</v>
+        <v>961.333</v>
       </c>
       <c r="M22" t="n">
-        <v>0.947</v>
+        <v>0.725</v>
       </c>
       <c r="N22" t="n">
-        <v>1112.143</v>
+        <v>1170.714</v>
       </c>
       <c r="O22" t="n">
-        <v>0.838</v>
+        <v>0.882</v>
       </c>
       <c r="P22" t="s">
         <v>160</v>
@@ -3543,7 +3562,7 @@
         <v>165</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D23" t="s">
         <v>166</v>
@@ -3553,16 +3572,20 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H23" t="n">
-        <v>26517</v>
+        <v>30306</v>
       </c>
       <c r="I23" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="J23"/>
-      <c r="K23"/>
+        <v>0.264</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1946</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.017</v>
+      </c>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
@@ -3588,7 +3611,7 @@
         <v>171</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>43956</v>
+        <v>43959</v>
       </c>
       <c r="D24" t="s">
         <v>172</v>
@@ -3598,25 +3621,25 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H24" t="n">
-        <v>108112</v>
+        <v>119054</v>
       </c>
       <c r="I24" t="n">
-        <v>19.512</v>
+        <v>21.487</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="n">
-        <v>0.098</v>
+        <v>0.116</v>
       </c>
       <c r="L24"/>
       <c r="M24" t="n">
-        <v>0.184</v>
+        <v>0.433</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="n">
-        <v>0.375</v>
+        <v>0.388</v>
       </c>
       <c r="P24" t="s">
         <v>174</v>
@@ -3639,7 +3662,7 @@
         <v>177</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>43949</v>
+        <v>43956</v>
       </c>
       <c r="D25" t="s">
         <v>178</v>
@@ -3651,13 +3674,13 @@
         <v>180</v>
       </c>
       <c r="G25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H25" t="n">
-        <v>724574</v>
+        <v>831174</v>
       </c>
       <c r="I25" t="n">
-        <v>11.101</v>
+        <v>12.734</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -3733,7 +3756,7 @@
         <v>192</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>43953</v>
+        <v>43958</v>
       </c>
       <c r="D27" t="s">
         <v>193</v>
@@ -3743,20 +3766,16 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H27" t="n">
-        <v>129461</v>
+        <v>149948</v>
       </c>
       <c r="I27" t="n">
-        <v>4.166</v>
-      </c>
-      <c r="J27" t="n">
-        <v>12412</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.399</v>
-      </c>
+        <v>4.826</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
@@ -3782,7 +3801,7 @@
         <v>200</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D28" t="s">
         <v>201</v>
@@ -3792,18 +3811,26 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H28" t="n">
-        <v>87052</v>
+        <v>97384</v>
       </c>
       <c r="I28" t="n">
-        <v>8.352</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
+        <v>9.343</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3093</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3444</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.331</v>
+      </c>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28" t="s">
@@ -3827,7 +3854,7 @@
         <v>207</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>43948</v>
+        <v>43956</v>
       </c>
       <c r="D29" t="s">
         <v>208</v>
@@ -3837,13 +3864,13 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>154989</v>
+        <v>168291</v>
       </c>
       <c r="I29" t="n">
-        <v>20.674</v>
+        <v>22.448</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -3872,7 +3899,7 @@
         <v>214</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D30" t="s">
         <v>215</v>
@@ -3884,31 +3911,31 @@
         <v>217</v>
       </c>
       <c r="G30" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H30" t="n">
-        <v>86743</v>
+        <v>108257</v>
       </c>
       <c r="I30" t="n">
-        <v>8.979</v>
+        <v>11.206</v>
       </c>
       <c r="J30" t="n">
-        <v>1186</v>
+        <v>4999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.123</v>
+        <v>0.517</v>
       </c>
       <c r="L30" t="n">
-        <v>1577.667</v>
+        <v>4740.333</v>
       </c>
       <c r="M30" t="n">
-        <v>0.164</v>
+        <v>0.491</v>
       </c>
       <c r="N30" t="n">
-        <v>2349</v>
+        <v>3749.571</v>
       </c>
       <c r="O30" t="n">
-        <v>0.243</v>
+        <v>0.388</v>
       </c>
       <c r="P30" t="s">
         <v>216</v>
@@ -3931,7 +3958,7 @@
         <v>222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>43956</v>
+        <v>43959</v>
       </c>
       <c r="D31" t="s">
         <v>223</v>
@@ -3941,25 +3968,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H31" t="n">
-        <v>51622</v>
+        <v>53219</v>
       </c>
       <c r="I31" t="n">
-        <v>151.273</v>
-      </c>
-      <c r="J31"/>
+        <v>155.953</v>
+      </c>
+      <c r="J31" t="n">
+        <v>515</v>
+      </c>
       <c r="K31" t="n">
-        <v>0.932</v>
-      </c>
-      <c r="L31"/>
+        <v>1.509</v>
+      </c>
+      <c r="L31" t="n">
+        <v>532.333</v>
+      </c>
       <c r="M31" t="n">
-        <v>1.228</v>
-      </c>
-      <c r="N31"/>
+        <v>1.56</v>
+      </c>
+      <c r="N31" t="n">
+        <v>465.429</v>
+      </c>
       <c r="O31" t="n">
-        <v>1.712</v>
+        <v>1.364</v>
       </c>
       <c r="P31" t="s">
         <v>224</v>
@@ -4033,7 +4066,7 @@
         <v>233</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D33" t="s">
         <v>229</v>
@@ -4045,31 +4078,31 @@
         <v>231</v>
       </c>
       <c r="G33" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H33" t="n">
-        <v>1276781</v>
+        <v>1609037</v>
       </c>
       <c r="I33" t="n">
-        <v>0.925</v>
+        <v>1.166</v>
       </c>
       <c r="J33" t="n">
-        <v>84835</v>
+        <v>85824</v>
       </c>
       <c r="K33" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="L33" t="n">
+        <v>83874.667</v>
+      </c>
+      <c r="M33" t="n">
         <v>0.061</v>
       </c>
-      <c r="L33" t="n">
-        <v>76777</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.055</v>
-      </c>
       <c r="N33" t="n">
-        <v>72288.143</v>
+        <v>80369.571</v>
       </c>
       <c r="O33" t="n">
-        <v>0.052</v>
+        <v>0.058</v>
       </c>
       <c r="P33" t="s">
         <v>230</v>
@@ -4092,7 +4125,7 @@
         <v>235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D34" t="s">
         <v>236</v>
@@ -4102,31 +4135,31 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H34" t="n">
-        <v>92976</v>
+        <v>113452</v>
       </c>
       <c r="I34" t="n">
-        <v>0.34</v>
+        <v>0.415</v>
       </c>
       <c r="J34" t="n">
-        <v>4052</v>
+        <v>4753</v>
       </c>
       <c r="K34" t="n">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="L34" t="n">
-        <v>3321.333</v>
+        <v>5578.333</v>
       </c>
       <c r="M34" t="n">
-        <v>0.012</v>
+        <v>0.02</v>
       </c>
       <c r="N34" t="n">
-        <v>3598.857</v>
+        <v>4348.571</v>
       </c>
       <c r="O34" t="n">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
       <c r="P34" t="s">
         <v>237</v>
@@ -4149,7 +4182,7 @@
         <v>241</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D35" t="s">
         <v>242</v>
@@ -4159,31 +4192,31 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H35" t="n">
-        <v>531275</v>
+        <v>558899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.325</v>
+        <v>6.654</v>
       </c>
       <c r="J35" t="n">
-        <v>11732</v>
+        <v>14107</v>
       </c>
       <c r="K35" t="n">
-        <v>0.14</v>
+        <v>0.168</v>
       </c>
       <c r="L35" t="n">
-        <v>11667.333</v>
+        <v>13118.667</v>
       </c>
       <c r="M35" t="n">
-        <v>0.139</v>
+        <v>0.156</v>
       </c>
       <c r="N35" t="n">
-        <v>11127</v>
+        <v>11982.286</v>
       </c>
       <c r="O35" t="n">
-        <v>0.133</v>
+        <v>0.143</v>
       </c>
       <c r="P35" t="s">
         <v>243</v>
@@ -4251,7 +4284,7 @@
         <v>253</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D37" t="s">
         <v>254</v>
@@ -4263,25 +4296,31 @@
         <v>256</v>
       </c>
       <c r="G37" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H37" t="n">
-        <v>413517</v>
+        <v>435790</v>
       </c>
       <c r="I37" t="n">
-        <v>47.775</v>
-      </c>
-      <c r="J37"/>
+        <v>50.348</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8876</v>
+      </c>
       <c r="K37" t="n">
-        <v>0.302</v>
-      </c>
-      <c r="L37"/>
+        <v>1.025</v>
+      </c>
+      <c r="L37" t="n">
+        <v>9003.333</v>
+      </c>
       <c r="M37" t="n">
-        <v>0.803</v>
-      </c>
-      <c r="N37"/>
+        <v>1.04</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8844</v>
+      </c>
       <c r="O37" t="n">
-        <v>0.968</v>
+        <v>1.022</v>
       </c>
       <c r="P37" t="s">
         <v>43</v>
@@ -4304,7 +4343,7 @@
         <v>260</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D38" t="s">
         <v>261</v>
@@ -4316,31 +4355,31 @@
         <v>263</v>
       </c>
       <c r="G38" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H38" t="n">
-        <v>1549892</v>
+        <v>1645076</v>
       </c>
       <c r="I38" t="n">
-        <v>25.634</v>
+        <v>27.209</v>
       </c>
       <c r="J38" t="n">
-        <v>37771</v>
+        <v>36091</v>
       </c>
       <c r="K38" t="n">
-        <v>0.625</v>
+        <v>0.597</v>
       </c>
       <c r="L38" t="n">
-        <v>30993.667</v>
+        <v>31728</v>
       </c>
       <c r="M38" t="n">
-        <v>0.513</v>
+        <v>0.525</v>
       </c>
       <c r="N38" t="n">
-        <v>33776</v>
+        <v>30744.571</v>
       </c>
       <c r="O38" t="n">
-        <v>0.559</v>
+        <v>0.508</v>
       </c>
       <c r="P38" t="s">
         <v>264</v>
@@ -4363,7 +4402,7 @@
         <v>267</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D39" t="s">
         <v>261</v>
@@ -4375,31 +4414,31 @@
         <v>263</v>
       </c>
       <c r="G39" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H39" t="n">
-        <v>2310929</v>
+        <v>2514234</v>
       </c>
       <c r="I39" t="n">
-        <v>38.221</v>
+        <v>41.584</v>
       </c>
       <c r="J39" t="n">
-        <v>64263</v>
+        <v>69171</v>
       </c>
       <c r="K39" t="n">
-        <v>1.063</v>
+        <v>1.144</v>
       </c>
       <c r="L39" t="n">
-        <v>52385.667</v>
+        <v>67768.333</v>
       </c>
       <c r="M39" t="n">
-        <v>0.866</v>
+        <v>1.121</v>
       </c>
       <c r="N39" t="n">
-        <v>57166.857</v>
+        <v>57913.857</v>
       </c>
       <c r="O39" t="n">
-        <v>0.945</v>
+        <v>0.958</v>
       </c>
       <c r="P39" t="s">
         <v>264</v>
@@ -4422,7 +4461,7 @@
         <v>270</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D40" t="s">
         <v>271</v>
@@ -4434,13 +4473,13 @@
         <v>273</v>
       </c>
       <c r="G40" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H40" t="n">
-        <v>188927</v>
+        <v>211997</v>
       </c>
       <c r="I40" t="n">
-        <v>1.494</v>
+        <v>1.676</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -4469,7 +4508,7 @@
         <v>276</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>43955</v>
+        <v>43958</v>
       </c>
       <c r="D41" t="s">
         <v>277</v>
@@ -4481,31 +4520,31 @@
         <v>278</v>
       </c>
       <c r="G41" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H41" t="n">
-        <v>285356</v>
+        <v>312728</v>
       </c>
       <c r="I41" t="n">
-        <v>2.256</v>
+        <v>2.473</v>
       </c>
       <c r="J41" t="n">
-        <v>2049</v>
+        <v>6061</v>
       </c>
       <c r="K41" t="n">
-        <v>0.016</v>
+        <v>0.048</v>
       </c>
       <c r="L41" t="n">
-        <v>2602.667</v>
+        <v>4768.667</v>
       </c>
       <c r="M41" t="n">
-        <v>0.02</v>
+        <v>0.038</v>
       </c>
       <c r="N41" t="n">
-        <v>4773.857</v>
+        <v>5210.143</v>
       </c>
       <c r="O41" t="n">
-        <v>0.038</v>
+        <v>0.041</v>
       </c>
       <c r="P41" t="s">
         <v>272</v>
@@ -4528,7 +4567,7 @@
         <v>281</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D42" t="s">
         <v>282</v>
@@ -4538,31 +4577,31 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H42" t="n">
-        <v>336480</v>
+        <v>385104</v>
       </c>
       <c r="I42" t="n">
-        <v>17.92</v>
+        <v>20.51</v>
       </c>
       <c r="J42" t="n">
-        <v>16069</v>
+        <v>13978</v>
       </c>
       <c r="K42" t="n">
-        <v>0.856</v>
+        <v>0.744</v>
       </c>
       <c r="L42" t="n">
-        <v>13448</v>
+        <v>16208</v>
       </c>
       <c r="M42" t="n">
-        <v>0.716</v>
+        <v>0.863</v>
       </c>
       <c r="N42" t="n">
-        <v>14866.429</v>
+        <v>14606</v>
       </c>
       <c r="O42" t="n">
-        <v>0.792</v>
+        <v>0.778</v>
       </c>
       <c r="P42" t="s">
         <v>283</v>
@@ -4585,7 +4624,7 @@
         <v>286</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D43" t="s">
         <v>287</v>
@@ -4595,26 +4634,22 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H43" t="n">
-        <v>25869</v>
+        <v>31041</v>
       </c>
       <c r="I43" t="n">
-        <v>0.481</v>
+        <v>0.577</v>
       </c>
       <c r="J43" t="n">
-        <v>1077</v>
+        <v>1611</v>
       </c>
       <c r="K43" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L43" t="n">
-        <v>990.667</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.018</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="L43"/>
+      <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43" t="s">
@@ -4638,7 +4673,7 @@
         <v>293</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D44" t="s">
         <v>294</v>
@@ -4650,31 +4685,25 @@
         <v>296</v>
       </c>
       <c r="G44" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H44" t="n">
-        <v>68627</v>
+        <v>76592</v>
       </c>
       <c r="I44" t="n">
-        <v>36.384</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2477</v>
-      </c>
+        <v>40.606</v>
+      </c>
+      <c r="J44"/>
       <c r="K44" t="n">
-        <v>1.313</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1460.667</v>
-      </c>
+        <v>0.541</v>
+      </c>
+      <c r="L44"/>
       <c r="M44" t="n">
-        <v>0.774</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1973.714</v>
-      </c>
+        <v>0.976</v>
+      </c>
+      <c r="N44"/>
       <c r="O44" t="n">
-        <v>1.046</v>
+        <v>0.935</v>
       </c>
       <c r="P44" t="s">
         <v>295</v>
@@ -4697,7 +4726,7 @@
         <v>299</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D45" t="s">
         <v>300</v>
@@ -4707,31 +4736,25 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>156493</v>
+        <v>183913</v>
       </c>
       <c r="I45" t="n">
-        <v>57.486</v>
-      </c>
-      <c r="J45" t="n">
-        <v>7387</v>
-      </c>
+        <v>67.558</v>
+      </c>
+      <c r="J45"/>
       <c r="K45" t="n">
-        <v>2.714</v>
-      </c>
-      <c r="L45" t="n">
-        <v>4938.333</v>
-      </c>
+        <v>1.315</v>
+      </c>
+      <c r="L45"/>
       <c r="M45" t="n">
-        <v>1.814</v>
-      </c>
-      <c r="N45" t="n">
-        <v>5470.286</v>
-      </c>
+        <v>2.427</v>
+      </c>
+      <c r="N45"/>
       <c r="O45" t="n">
-        <v>2.01</v>
+        <v>2.216</v>
       </c>
       <c r="P45" t="s">
         <v>43</v>
@@ -4754,7 +4777,7 @@
         <v>304</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D46" t="s">
         <v>305</v>
@@ -4764,31 +4787,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H46" t="n">
-        <v>50533</v>
+        <v>54463</v>
       </c>
       <c r="I46" t="n">
-        <v>80.727</v>
+        <v>87.005</v>
       </c>
       <c r="J46" t="n">
-        <v>1234</v>
+        <v>1206</v>
       </c>
       <c r="K46" t="n">
-        <v>1.971</v>
+        <v>1.927</v>
       </c>
       <c r="L46" t="n">
-        <v>805</v>
+        <v>1310</v>
       </c>
       <c r="M46" t="n">
-        <v>1.286</v>
+        <v>2.093</v>
       </c>
       <c r="N46" t="n">
-        <v>1253.571</v>
+        <v>1000.429</v>
       </c>
       <c r="O46" t="n">
-        <v>2.003</v>
+        <v>1.598</v>
       </c>
       <c r="P46" t="s">
         <v>306</v>
@@ -4811,7 +4834,7 @@
         <v>310</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D47" t="s">
         <v>311</v>
@@ -4821,26 +4844,18 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H47" t="n">
-        <v>222150</v>
+        <v>256937</v>
       </c>
       <c r="I47" t="n">
-        <v>6.864</v>
-      </c>
-      <c r="J47" t="n">
-        <v>8930</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="L47" t="n">
-        <v>8772.333</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.271</v>
-      </c>
+        <v>7.938</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47" t="s">
@@ -4864,7 +4879,7 @@
         <v>317</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D48" t="s">
         <v>318</v>
@@ -4874,13 +4889,13 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H48" t="n">
-        <v>89565</v>
+        <v>107261</v>
       </c>
       <c r="I48" t="n">
-        <v>0.695</v>
+        <v>0.832</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
@@ -4888,11 +4903,11 @@
       </c>
       <c r="L48"/>
       <c r="M48" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="P48" t="s">
         <v>319</v>
@@ -4974,7 +4989,7 @@
         <v>329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D50" t="s">
         <v>330</v>
@@ -4986,20 +5001,32 @@
         <v>332</v>
       </c>
       <c r="G50" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H50" t="n">
-        <v>9295</v>
+        <v>10848</v>
       </c>
       <c r="I50" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
+        <v>0.199</v>
+      </c>
+      <c r="J50" t="n">
+        <v>582</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="L50" t="n">
+        <v>517.667</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N50" t="n">
+        <v>372.571</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.007</v>
+      </c>
       <c r="P50" t="s">
         <v>331</v>
       </c>
@@ -5021,7 +5048,7 @@
         <v>336</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D51" t="s">
         <v>337</v>
@@ -5033,31 +5060,31 @@
         <v>339</v>
       </c>
       <c r="G51" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H51" t="n">
-        <v>13850</v>
+        <v>16309</v>
       </c>
       <c r="I51" t="n">
-        <v>0.475</v>
+        <v>0.56</v>
       </c>
       <c r="J51" t="n">
-        <v>210</v>
+        <v>817</v>
       </c>
       <c r="K51" t="n">
-        <v>0.007</v>
+        <v>0.028</v>
       </c>
       <c r="L51" t="n">
-        <v>250.667</v>
+        <v>737.667</v>
       </c>
       <c r="M51" t="n">
-        <v>0.008</v>
+        <v>0.025</v>
       </c>
       <c r="N51" t="n">
-        <v>434.714</v>
+        <v>458.714</v>
       </c>
       <c r="O51" t="n">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="P51" t="s">
         <v>338</v>
@@ -5080,7 +5107,7 @@
         <v>343</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>43956</v>
+        <v>43958</v>
       </c>
       <c r="D52" t="s">
         <v>344</v>
@@ -5090,22 +5117,26 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H52" t="n">
-        <v>243277</v>
+        <v>254456</v>
       </c>
       <c r="I52" t="n">
-        <v>14.198</v>
+        <v>14.85</v>
       </c>
       <c r="J52" t="n">
-        <v>2717</v>
+        <v>4442</v>
       </c>
       <c r="K52" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="L52"/>
-      <c r="M52"/>
+        <v>0.259</v>
+      </c>
+      <c r="L52" t="n">
+        <v>4035.667</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.235</v>
+      </c>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52" t="s">
@@ -5129,7 +5160,7 @@
         <v>350</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D53" t="s">
         <v>351</v>
@@ -5139,31 +5170,31 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H53" t="n">
-        <v>160700</v>
+        <v>190326</v>
       </c>
       <c r="I53" t="n">
-        <v>33.325</v>
+        <v>39.468</v>
       </c>
       <c r="J53" t="n">
-        <v>4772</v>
+        <v>7287</v>
       </c>
       <c r="K53" t="n">
-        <v>0.99</v>
+        <v>1.511</v>
       </c>
       <c r="L53" t="n">
-        <v>3492.333</v>
+        <v>7434.333</v>
       </c>
       <c r="M53" t="n">
-        <v>0.724</v>
+        <v>1.542</v>
       </c>
       <c r="N53" t="n">
-        <v>4571</v>
+        <v>5729</v>
       </c>
       <c r="O53" t="n">
-        <v>0.948</v>
+        <v>1.188</v>
       </c>
       <c r="P53" t="s">
         <v>352</v>
@@ -5186,7 +5217,7 @@
         <v>355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D54" t="s">
         <v>356</v>
@@ -5196,22 +5227,22 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H54" t="n">
-        <v>21208</v>
+        <v>23835</v>
       </c>
       <c r="I54" t="n">
-        <v>0.103</v>
+        <v>0.116</v>
       </c>
       <c r="J54" t="n">
-        <v>1696</v>
+        <v>1343</v>
       </c>
       <c r="K54" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="L54" t="n">
-        <v>1540</v>
+        <v>1441</v>
       </c>
       <c r="M54" t="n">
         <v>0.007</v>
@@ -5239,7 +5270,7 @@
         <v>361</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>43957</v>
+        <v>43959</v>
       </c>
       <c r="D55" t="s">
         <v>362</v>
@@ -5249,16 +5280,20 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H55" t="n">
-        <v>188236</v>
+        <v>195921</v>
       </c>
       <c r="I55" t="n">
-        <v>34.722</v>
-      </c>
-      <c r="J55"/>
-      <c r="K55"/>
+        <v>36.14</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3975</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.733</v>
+      </c>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
@@ -5284,7 +5319,7 @@
         <v>368</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D56" t="s">
         <v>369</v>
@@ -5294,31 +5329,31 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H56" t="n">
-        <v>232582</v>
+        <v>283517</v>
       </c>
       <c r="I56" t="n">
-        <v>1.053</v>
+        <v>1.284</v>
       </c>
       <c r="J56" t="n">
-        <v>10178</v>
+        <v>13492</v>
       </c>
       <c r="K56" t="n">
-        <v>0.046</v>
+        <v>0.061</v>
       </c>
       <c r="L56" t="n">
-        <v>9852.333</v>
+        <v>12913</v>
       </c>
       <c r="M56" t="n">
-        <v>0.045</v>
+        <v>0.058</v>
       </c>
       <c r="N56" t="n">
-        <v>9524.429</v>
+        <v>11498.857</v>
       </c>
       <c r="O56" t="n">
-        <v>0.043</v>
+        <v>0.052</v>
       </c>
       <c r="P56" t="s">
         <v>370</v>
@@ -5341,7 +5376,7 @@
         <v>374</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D57" t="s">
         <v>375</v>
@@ -5353,31 +5388,31 @@
         <v>376</v>
       </c>
       <c r="G57" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H57" t="n">
-        <v>36483</v>
+        <v>41649</v>
       </c>
       <c r="I57" t="n">
-        <v>8.455</v>
+        <v>9.653</v>
       </c>
       <c r="J57" t="n">
-        <v>927</v>
+        <v>1293</v>
       </c>
       <c r="K57" t="n">
-        <v>0.215</v>
+        <v>0.3</v>
       </c>
       <c r="L57" t="n">
-        <v>1043</v>
+        <v>1211.667</v>
       </c>
       <c r="M57" t="n">
-        <v>0.242</v>
+        <v>0.281</v>
       </c>
       <c r="N57" t="n">
-        <v>1098.286</v>
+        <v>1185</v>
       </c>
       <c r="O57" t="n">
-        <v>0.254</v>
+        <v>0.275</v>
       </c>
       <c r="P57" t="s">
         <v>43</v>
@@ -5400,7 +5435,7 @@
         <v>380</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D58" t="s">
         <v>381</v>
@@ -5412,31 +5447,31 @@
         <v>383</v>
       </c>
       <c r="G58" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H58" t="n">
-        <v>11898</v>
+        <v>14646</v>
       </c>
       <c r="I58" t="n">
-        <v>1.668</v>
+        <v>2.053</v>
       </c>
       <c r="J58" t="n">
-        <v>458</v>
+        <v>800</v>
       </c>
       <c r="K58" t="n">
-        <v>0.064</v>
+        <v>0.112</v>
       </c>
       <c r="L58" t="n">
-        <v>382.333</v>
+        <v>716.333</v>
       </c>
       <c r="M58" t="n">
-        <v>0.054</v>
+        <v>0.1</v>
       </c>
       <c r="N58" t="n">
-        <v>431.714</v>
+        <v>554.286</v>
       </c>
       <c r="O58" t="n">
-        <v>0.061</v>
+        <v>0.078</v>
       </c>
       <c r="P58" t="s">
         <v>384</v>
@@ -5459,7 +5494,7 @@
         <v>388</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="D59" t="s">
         <v>389</v>
@@ -5469,20 +5504,16 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H59" t="n">
-        <v>406579</v>
+        <v>494250</v>
       </c>
       <c r="I59" t="n">
-        <v>12.331</v>
-      </c>
-      <c r="J59" t="n">
-        <v>21087</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.64</v>
-      </c>
+        <v>14.99</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
@@ -5508,7 +5539,7 @@
         <v>395</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>43955</v>
+        <v>43958</v>
       </c>
       <c r="D60" t="s">
         <v>396</v>
@@ -5518,22 +5549,26 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H60" t="n">
-        <v>119512</v>
+        <v>136706</v>
       </c>
       <c r="I60" t="n">
-        <v>1.091</v>
+        <v>1.248</v>
       </c>
       <c r="J60" t="n">
-        <v>6179</v>
+        <v>5216</v>
       </c>
       <c r="K60" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="L60"/>
-      <c r="M60"/>
+        <v>0.048</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5731.333</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.053</v>
+      </c>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60" t="s">
@@ -5557,7 +5592,7 @@
         <v>400</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D61" t="s">
         <v>401</v>
@@ -5569,31 +5604,31 @@
         <v>403</v>
       </c>
       <c r="G61" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H61" t="n">
-        <v>410468</v>
+        <v>460686</v>
       </c>
       <c r="I61" t="n">
-        <v>10.846</v>
+        <v>12.172</v>
       </c>
       <c r="J61" t="n">
-        <v>16198</v>
+        <v>17180</v>
       </c>
       <c r="K61" t="n">
-        <v>0.428</v>
+        <v>0.454</v>
       </c>
       <c r="L61" t="n">
-        <v>11506.667</v>
+        <v>16739.333</v>
       </c>
       <c r="M61" t="n">
-        <v>0.304</v>
+        <v>0.442</v>
       </c>
       <c r="N61" t="n">
-        <v>12277.286</v>
+        <v>13524.714</v>
       </c>
       <c r="O61" t="n">
-        <v>0.325</v>
+        <v>0.358</v>
       </c>
       <c r="P61" t="s">
         <v>404</v>
@@ -5616,7 +5651,7 @@
         <v>408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="D62" t="s">
         <v>409</v>
@@ -5626,31 +5661,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H62" t="n">
-        <v>470234</v>
+        <v>485925</v>
       </c>
       <c r="I62" t="n">
-        <v>46.116</v>
+        <v>47.655</v>
       </c>
       <c r="J62" t="n">
-        <v>11532</v>
+        <v>15556</v>
       </c>
       <c r="K62" t="n">
-        <v>1.131</v>
+        <v>1.526</v>
       </c>
       <c r="L62" t="n">
-        <v>10172.333</v>
+        <v>11893.667</v>
       </c>
       <c r="M62" t="n">
-        <v>0.997</v>
+        <v>1.166</v>
       </c>
       <c r="N62" t="n">
-        <v>12808.857</v>
+        <v>12837.714</v>
       </c>
       <c r="O62" t="n">
-        <v>1.256</v>
+        <v>1.259</v>
       </c>
       <c r="P62" t="s">
         <v>410</v>
@@ -5673,7 +5708,7 @@
         <v>414</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D63" t="s">
         <v>415</v>
@@ -5683,31 +5718,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H63" t="n">
-        <v>112963</v>
+        <v>127769</v>
       </c>
       <c r="I63" t="n">
-        <v>39.209</v>
+        <v>44.348</v>
       </c>
       <c r="J63" t="n">
-        <v>3201</v>
+        <v>3215</v>
       </c>
       <c r="K63" t="n">
-        <v>1.111</v>
+        <v>1.116</v>
       </c>
       <c r="L63" t="n">
-        <v>2842.667</v>
+        <v>3758</v>
       </c>
       <c r="M63" t="n">
-        <v>0.987</v>
+        <v>1.305</v>
       </c>
       <c r="N63" t="n">
-        <v>3078.286</v>
+        <v>3333.429</v>
       </c>
       <c r="O63" t="n">
-        <v>1.069</v>
+        <v>1.157</v>
       </c>
       <c r="P63" t="s">
         <v>416</v>
@@ -5730,7 +5765,7 @@
         <v>420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D64" t="s">
         <v>421</v>
@@ -5742,31 +5777,31 @@
         <v>423</v>
       </c>
       <c r="G64" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H64" t="n">
-        <v>217139</v>
+        <v>248056</v>
       </c>
       <c r="I64" t="n">
-        <v>11.287</v>
+        <v>12.894</v>
       </c>
       <c r="J64" t="n">
-        <v>11297</v>
+        <v>10776</v>
       </c>
       <c r="K64" t="n">
-        <v>0.587</v>
+        <v>0.56</v>
       </c>
       <c r="L64" t="n">
-        <v>7210.333</v>
+        <v>10305.667</v>
       </c>
       <c r="M64" t="n">
-        <v>0.375</v>
+        <v>0.535</v>
       </c>
       <c r="N64" t="n">
-        <v>7163.714</v>
+        <v>8216.571</v>
       </c>
       <c r="O64" t="n">
-        <v>0.372</v>
+        <v>0.427</v>
       </c>
       <c r="P64" t="s">
         <v>422</v>
@@ -5789,7 +5824,7 @@
         <v>426</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D65" t="s">
         <v>427</v>
@@ -5799,31 +5834,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H65" t="n">
-        <v>4633731</v>
+        <v>5448463</v>
       </c>
       <c r="I65" t="n">
-        <v>31.752</v>
+        <v>37.335</v>
       </c>
       <c r="J65" t="n">
-        <v>173374</v>
+        <v>226499</v>
       </c>
       <c r="K65" t="n">
-        <v>1.188</v>
+        <v>1.552</v>
       </c>
       <c r="L65" t="n">
-        <v>177910.667</v>
+        <v>215090.333</v>
       </c>
       <c r="M65" t="n">
-        <v>1.219</v>
+        <v>1.474</v>
       </c>
       <c r="N65" t="n">
-        <v>190002</v>
+        <v>192637.714</v>
       </c>
       <c r="O65" t="n">
-        <v>1.302</v>
+        <v>1.32</v>
       </c>
       <c r="P65" t="s">
         <v>428</v>
@@ -5846,7 +5881,7 @@
         <v>432</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D66" t="s">
         <v>433</v>
@@ -5856,28 +5891,28 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H66" t="n">
-        <v>35992</v>
+        <v>41385</v>
       </c>
       <c r="I66" t="n">
-        <v>2.779</v>
+        <v>3.195</v>
       </c>
       <c r="J66" t="n">
-        <v>896</v>
+        <v>1198</v>
       </c>
       <c r="K66" t="n">
-        <v>0.069</v>
+        <v>0.092</v>
       </c>
       <c r="L66" t="n">
-        <v>896.333</v>
+        <v>1356.667</v>
       </c>
       <c r="M66" t="n">
-        <v>0.069</v>
+        <v>0.104</v>
       </c>
       <c r="N66" t="n">
-        <v>1156.571</v>
+        <v>1154.571</v>
       </c>
       <c r="O66" t="n">
         <v>0.089</v>
@@ -5903,7 +5938,7 @@
         <v>438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D67" t="s">
         <v>439</v>
@@ -5913,18 +5948,26 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H67" t="n">
-        <v>389659</v>
+        <v>433500</v>
       </c>
       <c r="I67" t="n">
-        <v>11.193</v>
-      </c>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
+        <v>12.452</v>
+      </c>
+      <c r="J67" t="n">
+        <v>14778</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="L67" t="n">
+        <v>14613.667</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.419</v>
+      </c>
       <c r="N67"/>
       <c r="O67"/>
       <c r="P67" t="s">
@@ -5948,7 +5991,7 @@
         <v>442</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D68" t="s">
         <v>443</v>
@@ -5960,31 +6003,31 @@
         <v>445</v>
       </c>
       <c r="G68" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H68" t="n">
-        <v>17461</v>
+        <v>20217</v>
       </c>
       <c r="I68" t="n">
-        <v>1.043</v>
+        <v>1.207</v>
       </c>
       <c r="J68" t="n">
-        <v>1182</v>
+        <v>848</v>
       </c>
       <c r="K68" t="n">
-        <v>0.071</v>
+        <v>0.051</v>
       </c>
       <c r="L68" t="n">
-        <v>897</v>
+        <v>915.667</v>
       </c>
       <c r="M68" t="n">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="N68" t="n">
-        <v>964.714</v>
+        <v>892.571</v>
       </c>
       <c r="O68" t="n">
-        <v>0.058</v>
+        <v>0.053</v>
       </c>
       <c r="P68" t="s">
         <v>446</v>
@@ -6007,7 +6050,7 @@
         <v>451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D69" t="s">
         <v>452</v>
@@ -6019,31 +6062,31 @@
         <v>453</v>
       </c>
       <c r="G69" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H69" t="n">
-        <v>117474</v>
+        <v>134533</v>
       </c>
       <c r="I69" t="n">
-        <v>17.264</v>
+        <v>19.771</v>
       </c>
       <c r="J69" t="n">
-        <v>6196</v>
+        <v>5728</v>
       </c>
       <c r="K69" t="n">
-        <v>0.911</v>
+        <v>0.842</v>
       </c>
       <c r="L69" t="n">
-        <v>5187.667</v>
+        <v>5686.333</v>
       </c>
       <c r="M69" t="n">
-        <v>0.763</v>
+        <v>0.836</v>
       </c>
       <c r="N69" t="n">
-        <v>5504.571</v>
+        <v>5413.714</v>
       </c>
       <c r="O69" t="n">
-        <v>0.809</v>
+        <v>0.796</v>
       </c>
       <c r="P69" t="s">
         <v>43</v>
@@ -6156,7 +6199,7 @@
         <v>465</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D72" t="s">
         <v>466</v>
@@ -6166,31 +6209,25 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H72" t="n">
-        <v>104606</v>
+        <v>119859</v>
       </c>
       <c r="I72" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4742</v>
-      </c>
+        <v>21.954</v>
+      </c>
+      <c r="J72"/>
       <c r="K72" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2795.333</v>
-      </c>
+        <v>0.273</v>
+      </c>
+      <c r="L72"/>
       <c r="M72" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="N72" t="n">
-        <v>3324</v>
-      </c>
+        <v>0.616</v>
+      </c>
+      <c r="N72"/>
       <c r="O72" t="n">
-        <v>0.609</v>
+        <v>0.619</v>
       </c>
       <c r="P72" t="s">
         <v>468</v>
@@ -6213,7 +6250,7 @@
         <v>473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D73" t="s">
         <v>474</v>
@@ -6223,31 +6260,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H73" t="n">
-        <v>58923</v>
+        <v>62828</v>
       </c>
       <c r="I73" t="n">
-        <v>28.343</v>
+        <v>30.221</v>
       </c>
       <c r="J73" t="n">
-        <v>1449</v>
+        <v>625</v>
       </c>
       <c r="K73" t="n">
-        <v>0.697</v>
+        <v>0.301</v>
       </c>
       <c r="L73" t="n">
-        <v>1134.333</v>
+        <v>950</v>
       </c>
       <c r="M73" t="n">
-        <v>0.546</v>
+        <v>0.457</v>
       </c>
       <c r="N73" t="n">
-        <v>1045.143</v>
+        <v>1044</v>
       </c>
       <c r="O73" t="n">
-        <v>0.503</v>
+        <v>0.502</v>
       </c>
       <c r="P73" t="s">
         <v>476</v>
@@ -6270,7 +6307,7 @@
         <v>480</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D74" t="s">
         <v>481</v>
@@ -6282,31 +6319,31 @@
         <v>483</v>
       </c>
       <c r="G74" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H74" t="n">
-        <v>268064</v>
+        <v>324079</v>
       </c>
       <c r="I74" t="n">
-        <v>4.52</v>
+        <v>5.464</v>
       </c>
       <c r="J74" t="n">
-        <v>10523</v>
+        <v>16327</v>
       </c>
       <c r="K74" t="n">
-        <v>0.177</v>
+        <v>0.275</v>
       </c>
       <c r="L74" t="n">
-        <v>12459.333</v>
+        <v>14900</v>
       </c>
       <c r="M74" t="n">
-        <v>0.21</v>
+        <v>0.251</v>
       </c>
       <c r="N74" t="n">
-        <v>11795.286</v>
+        <v>13341.857</v>
       </c>
       <c r="O74" t="n">
-        <v>0.199</v>
+        <v>0.225</v>
       </c>
       <c r="P74" t="s">
         <v>482</v>
@@ -6329,7 +6366,7 @@
         <v>487</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D75" t="s">
         <v>488</v>
@@ -6339,25 +6376,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H75" t="n">
-        <v>643095</v>
+        <v>663886</v>
       </c>
       <c r="I75" t="n">
-        <v>12.544</v>
-      </c>
-      <c r="J75"/>
+        <v>12.949</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3856</v>
+      </c>
       <c r="K75" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="L75"/>
+        <v>0.075</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4832.667</v>
+      </c>
       <c r="M75" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="N75"/>
+        <v>0.094</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4701.857</v>
+      </c>
       <c r="O75" t="n">
-        <v>0.081</v>
+        <v>0.092</v>
       </c>
       <c r="P75" t="s">
         <v>489</v>
@@ -6380,7 +6423,7 @@
         <v>493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="D76" t="s">
         <v>494</v>
@@ -6388,15 +6431,17 @@
       <c r="E76" t="s">
         <v>495</v>
       </c>
-      <c r="F76"/>
+      <c r="F76" t="s">
+        <v>496</v>
+      </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H76" t="n">
-        <v>1351130</v>
+        <v>1625211</v>
       </c>
       <c r="I76" t="n">
-        <v>28.898</v>
+        <v>34.76</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -6405,33 +6450,33 @@
       <c r="N76"/>
       <c r="O76"/>
       <c r="P76" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q76" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="R76" t="s">
         <v>24</v>
       </c>
       <c r="S76" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B77" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C77" s="1" t="n">
         <v>43954</v>
       </c>
       <c r="D77" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E77" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
@@ -6450,61 +6495,61 @@
       <c r="N77"/>
       <c r="O77"/>
       <c r="P77" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q77" t="s">
         <v>502</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>501</v>
       </c>
       <c r="R77" t="s">
         <v>94</v>
       </c>
       <c r="S77" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B78" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D78" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E78" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H78" t="n">
-        <v>290365</v>
+        <v>309595</v>
       </c>
       <c r="I78" t="n">
-        <v>33.55</v>
+        <v>35.772</v>
       </c>
       <c r="J78"/>
       <c r="K78" t="n">
-        <v>0.153</v>
+        <v>0.045</v>
       </c>
       <c r="L78"/>
       <c r="M78" t="n">
-        <v>0.272</v>
+        <v>0.336</v>
       </c>
       <c r="N78"/>
       <c r="O78" t="n">
-        <v>0.419</v>
+        <v>0.434</v>
       </c>
       <c r="P78" t="s">
         <v>508</v>
       </c>
       <c r="Q78" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="R78" t="s">
         <v>509</v>
@@ -6521,7 +6566,7 @@
         <v>512</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D79" t="s">
         <v>513</v>
@@ -6531,31 +6576,31 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H79" t="n">
-        <v>65589</v>
+        <v>67133</v>
       </c>
       <c r="I79" t="n">
-        <v>2.754</v>
+        <v>2.819</v>
       </c>
       <c r="J79" t="n">
-        <v>631</v>
+        <v>272</v>
       </c>
       <c r="K79" t="n">
-        <v>0.026</v>
+        <v>0.011</v>
       </c>
       <c r="L79" t="n">
-        <v>498.333</v>
+        <v>362.333</v>
       </c>
       <c r="M79" t="n">
-        <v>0.021</v>
+        <v>0.015</v>
       </c>
       <c r="N79" t="n">
-        <v>460.143</v>
+        <v>434.143</v>
       </c>
       <c r="O79" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="P79" t="s">
         <v>514</v>
@@ -6578,7 +6623,7 @@
         <v>519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D80" t="s">
         <v>520</v>
@@ -6588,31 +6633,25 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H80" t="n">
-        <v>86320</v>
+        <v>97177</v>
       </c>
       <c r="I80" t="n">
-        <v>1.237</v>
-      </c>
-      <c r="J80" t="n">
-        <v>3693</v>
-      </c>
+        <v>1.392</v>
+      </c>
+      <c r="J80"/>
       <c r="K80" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3684</v>
-      </c>
+        <v>0.003</v>
+      </c>
+      <c r="L80"/>
       <c r="M80" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="N80" t="n">
-        <v>3471.714</v>
-      </c>
+        <v>0.035</v>
+      </c>
+      <c r="N80"/>
       <c r="O80" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="P80" t="s">
         <v>522</v>
@@ -6635,7 +6674,7 @@
         <v>526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>43955</v>
+        <v>43958</v>
       </c>
       <c r="D81" t="s">
         <v>527</v>
@@ -6645,32 +6684,20 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H81" t="n">
-        <v>25165</v>
+        <v>27420</v>
       </c>
       <c r="I81" t="n">
-        <v>2.129</v>
-      </c>
-      <c r="J81" t="n">
-        <v>312</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="L81" t="n">
-        <v>370</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="N81" t="n">
-        <v>526.857</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.045</v>
-      </c>
+        <v>2.32</v>
+      </c>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
       <c r="P81" t="s">
         <v>528</v>
       </c>
@@ -6692,7 +6719,7 @@
         <v>533</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D82" t="s">
         <v>534</v>
@@ -6702,25 +6729,25 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H82" t="n">
-        <v>1234724</v>
+        <v>1334411</v>
       </c>
       <c r="I82" t="n">
-        <v>14.64</v>
+        <v>15.822</v>
       </c>
       <c r="J82" t="n">
-        <v>30303</v>
+        <v>35605</v>
       </c>
       <c r="K82" t="n">
-        <v>0.359</v>
+        <v>0.422</v>
       </c>
       <c r="L82" t="n">
-        <v>33119</v>
+        <v>33229</v>
       </c>
       <c r="M82" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
@@ -6745,7 +6772,7 @@
         <v>540</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>43956</v>
+        <v>43959</v>
       </c>
       <c r="D83" t="s">
         <v>541</v>
@@ -6757,31 +6784,31 @@
         <v>543</v>
       </c>
       <c r="G83" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H83" t="n">
-        <v>44094</v>
+        <v>55203</v>
       </c>
       <c r="I83" t="n">
-        <v>0.964</v>
+        <v>1.207</v>
       </c>
       <c r="J83" t="n">
-        <v>2632</v>
+        <v>3161</v>
       </c>
       <c r="K83" t="n">
-        <v>0.058</v>
+        <v>0.069</v>
       </c>
       <c r="L83" t="n">
-        <v>2602.667</v>
+        <v>3493</v>
       </c>
       <c r="M83" t="n">
-        <v>0.057</v>
+        <v>0.076</v>
       </c>
       <c r="N83" t="n">
-        <v>2402.714</v>
+        <v>2967.286</v>
       </c>
       <c r="O83" t="n">
-        <v>0.053</v>
+        <v>0.065</v>
       </c>
       <c r="P83" t="s">
         <v>542</v>
@@ -6804,7 +6831,7 @@
         <v>547</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D84" t="s">
         <v>548</v>
@@ -6814,31 +6841,31 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H84" t="n">
-        <v>144283</v>
+        <v>176403</v>
       </c>
       <c r="I84" t="n">
-        <v>3.299</v>
+        <v>4.034</v>
       </c>
       <c r="J84" t="n">
-        <v>4524</v>
+        <v>9296</v>
       </c>
       <c r="K84" t="n">
-        <v>0.103</v>
+        <v>0.213</v>
       </c>
       <c r="L84" t="n">
-        <v>4853.333</v>
+        <v>8278</v>
       </c>
       <c r="M84" t="n">
-        <v>0.111</v>
+        <v>0.189</v>
       </c>
       <c r="N84" t="n">
-        <v>5677</v>
+        <v>6668.571</v>
       </c>
       <c r="O84" t="n">
-        <v>0.13</v>
+        <v>0.152</v>
       </c>
       <c r="P84" t="s">
         <v>549</v>
@@ -6861,7 +6888,7 @@
         <v>554</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D85" t="s">
         <v>555</v>
@@ -6871,31 +6898,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H85" t="n">
-        <v>1072144</v>
+        <v>1270408</v>
       </c>
       <c r="I85" t="n">
-        <v>15.793</v>
+        <v>18.714</v>
       </c>
       <c r="J85" t="n">
-        <v>57006</v>
+        <v>63339</v>
       </c>
       <c r="K85" t="n">
-        <v>0.84</v>
+        <v>0.933</v>
       </c>
       <c r="L85" t="n">
-        <v>63267</v>
+        <v>65291.333</v>
       </c>
       <c r="M85" t="n">
-        <v>0.932</v>
+        <v>0.962</v>
       </c>
       <c r="N85" t="n">
-        <v>62518.714</v>
+        <v>63153.143</v>
       </c>
       <c r="O85" t="n">
-        <v>0.921</v>
+        <v>0.93</v>
       </c>
       <c r="P85" t="s">
         <v>556</v>
@@ -6918,7 +6945,7 @@
         <v>559</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>43957</v>
+        <v>43960</v>
       </c>
       <c r="D86" t="s">
         <v>560</v>
@@ -6928,31 +6955,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H86" t="n">
-        <v>1448010</v>
+        <v>1728443</v>
       </c>
       <c r="I86" t="n">
-        <v>21.33</v>
+        <v>25.461</v>
       </c>
       <c r="J86" t="n">
-        <v>69463</v>
+        <v>96878</v>
       </c>
       <c r="K86" t="n">
-        <v>1.023</v>
+        <v>1.427</v>
       </c>
       <c r="L86" t="n">
-        <v>79818.333</v>
+        <v>93496.667</v>
       </c>
       <c r="M86" t="n">
-        <v>1.176</v>
+        <v>1.377</v>
       </c>
       <c r="N86" t="n">
-        <v>89406.571</v>
+        <v>85205.857</v>
       </c>
       <c r="O86" t="n">
-        <v>1.317</v>
+        <v>1.255</v>
       </c>
       <c r="P86" t="s">
         <v>556</v>
@@ -6975,7 +7002,7 @@
         <v>564</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>43956</v>
+        <v>43960</v>
       </c>
       <c r="D87" t="s">
         <v>565</v>
@@ -6985,31 +7012,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H87" t="n">
-        <v>7544328</v>
+        <v>8709630</v>
       </c>
       <c r="I87" t="n">
-        <v>22.792</v>
+        <v>26.313</v>
       </c>
       <c r="J87" t="n">
-        <v>258954</v>
+        <v>300842</v>
       </c>
       <c r="K87" t="n">
-        <v>0.782</v>
+        <v>0.909</v>
       </c>
       <c r="L87" t="n">
-        <v>246362.333</v>
+        <v>307612.333</v>
       </c>
       <c r="M87" t="n">
-        <v>0.744</v>
+        <v>0.929</v>
       </c>
       <c r="N87" t="n">
-        <v>249771.857</v>
+        <v>272055.571</v>
       </c>
       <c r="O87" t="n">
-        <v>0.755</v>
+        <v>0.822</v>
       </c>
       <c r="P87" t="s">
         <v>566</v>
@@ -7032,7 +7059,7 @@
         <v>570</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>43949</v>
+        <v>43952</v>
       </c>
       <c r="D88" t="s">
         <v>571</v>
@@ -7042,31 +7069,31 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H88" t="n">
-        <v>606361</v>
+        <v>695283</v>
       </c>
       <c r="I88" t="n">
-        <v>1.832</v>
+        <v>2.101</v>
       </c>
       <c r="J88" t="n">
-        <v>23063</v>
+        <v>23633</v>
       </c>
       <c r="K88" t="n">
-        <v>0.07</v>
+        <v>0.071</v>
       </c>
       <c r="L88" t="n">
-        <v>18202.667</v>
+        <v>24423.333</v>
       </c>
       <c r="M88" t="n">
-        <v>0.055</v>
+        <v>0.074</v>
       </c>
       <c r="N88" t="n">
-        <v>19781.714</v>
+        <v>21015.714</v>
       </c>
       <c r="O88" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="P88" t="s">
         <v>573</v>
@@ -7089,7 +7116,7 @@
         <v>578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>43957</v>
+        <v>43961</v>
       </c>
       <c r="D89" t="s">
         <v>579</v>
@@ -7099,31 +7126,31 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H89" t="n">
-        <v>23811</v>
+        <v>27461</v>
       </c>
       <c r="I89" t="n">
-        <v>6.855</v>
+        <v>7.905</v>
       </c>
       <c r="J89" t="n">
-        <v>1006</v>
+        <v>623</v>
       </c>
       <c r="K89" t="n">
-        <v>0.29</v>
+        <v>0.179</v>
       </c>
       <c r="L89" t="n">
-        <v>882.333</v>
+        <v>935</v>
       </c>
       <c r="M89" t="n">
-        <v>0.254</v>
+        <v>0.269</v>
       </c>
       <c r="N89" t="n">
-        <v>810.143</v>
+        <v>899.571</v>
       </c>
       <c r="O89" t="n">
-        <v>0.233</v>
+        <v>0.259</v>
       </c>
       <c r="P89" t="s">
         <v>126</v>
@@ -7191,7 +7218,7 @@
         <v>590</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>43956</v>
+        <v>43959</v>
       </c>
       <c r="D91" t="s">
         <v>591</v>
@@ -7201,32 +7228,24 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="H91" t="n">
-        <v>14821</v>
+        <v>8741</v>
       </c>
       <c r="I91" t="n">
-        <v>0.997</v>
+        <v>0.588</v>
       </c>
       <c r="J91" t="n">
-        <v>1492</v>
+        <v>600</v>
       </c>
       <c r="K91" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L91" t="n">
-        <v>1364.667</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="N91" t="n">
-        <v>1076.286</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.072</v>
-      </c>
+        <v>0.04</v>
+      </c>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
       <c r="P91" t="s">
         <v>592</v>
       </c>

--- a/testing/covid-testing-latest-data-source-details.xlsx
+++ b/testing/covid-testing-latest-data-source-details.xlsx
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Argentina - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/09-05-20_reporte-matutino-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/12-05-20-reporte-matutino-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Argentina</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-9-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-12-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510104642/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512173912/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200509192849/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512173915/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-8-maya-vyzdoroveli-i-vypisany-5-tys-484-patsienta/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-vyzdoroveli-i-vypisany-6-tys-974-patsienta/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -225,7 +225,12 @@
     <t xml:space="preserve">The data is described both as the number of tests performed and as the number of tested patients.</t>
   </si>
   <si>
-    <t xml:space="preserve">There is some ambiguity as to the units. The testing data are labelled as 'the number of tests performed'. But in the [codebook](https://epistat.sciensano.be/COVID19BE_codebook.pdf) provided alongside the data the testing series is described as 'the number of tested patients'. The date of is the date of laboratory diagnosis, or when not available, the date of sampling is used.</t>
+    <t xml:space="preserve">Sciensano provides a daily time series of the number of tests conducted per day, which is updated retrospectively as new data becomes available each day.
+According to the [dataset codebook](https://epistat.sciensano.be/COVID19BE_codebook.pdf), dates for new testing figures correspond to the date of laboratory diagnosis (or when not available, date of sampling). 
+It appears that the reported testing figures represent the number of people tested, but this is not entirely clear. The official website describes the testing dataset as the "Dataset of total number of tests performed by date", yet the [dataset codebook](https://epistat.sciensano.be/COVID19BE_codebook.pdf) defines the "tests" variable as the "number of tested patients".
+It is also unclear whether the testing figures include antigen tests in addition to PCR tests. In a communication on April 3rd 2020, Sciensano indicates that antigen tests made by Coris Bioconcept may now be used for COVID-19 detection. The communication states that positive antigen test results do not have to be confirmed by a PCR test, but that negative or doubtful cases must be confirmed by a PCR test.
+Official figures reported in Sciensano's daily epidemiological bulletins do not help to clarify these ambiguities. For example, as of May 10th 2020, the [official time series dataset](https://epistat.sciensano.be/covid/covid19_historicaldata.html) reported a cumulative total of 465,201 tests performed between March 1st and May 9th. However, the epidemiological bulletin for [May 10th 2020](https://covid-19.sciensano.be/sites/default/files/Covid19/COVID-19_Daily%20report_20200510%20-%20FR.pdf) states that 325,796 cumulative tests had been performed by laboratories between the beginning of March and May 9th, while an additional 240,305 tests had been performed through the national testing platform (566,101 total tests).
+The bulletin indicates that these figures include both PCR and antigen tests, suggesting that the large discrepancy between the 465,201 figure and the 566,101 figure may be solely due to the fact that the official time series data only includes PCR tests, whereas the official bulletin figures include both PCR and antigen tests. However, it is also possible that the discrepancy is due solely to the fact that the official time series data is reported in terms of "people tested", whereas the bulletin figures represent "tests performed". We have been unable to find official documentation from Sciensano that resolves these ambiguities.</t>
   </si>
   <si>
     <t xml:space="preserve">BOL</t>
@@ -277,7 +282,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510104647/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191641/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -300,7 +305,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510104649/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191644/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -388,7 +393,7 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200509164031/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191650/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -448,7 +453,7 @@
     <t xml:space="preserve">Denmark - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-09052020-hu51</t>
+    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-12052020-2-8ft5</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -475,7 +480,7 @@
     <t xml:space="preserve">Ecuador - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-08052020-08h0.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-04052020-08h00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -504,7 +509,7 @@
     <t xml:space="preserve">Government of El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">updated at 12:50pm local time on 2020-05-09.</t>
+    <t xml:space="preserve">updated at 11:38pm local time on 2020-05-11.</t>
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
@@ -541,7 +546,7 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-8_-ENG-V5.pdf</t>
+    <t xml:space="preserve">https://www.ephi.gov.et/images/confirmed-case-Press-release-May-12--ENG-V1.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopian Public Health Institute</t>
@@ -669,7 +674,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200509/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200512/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -804,7 +809,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200509000642/http://irangov.ir/detail/338857</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200512153002/http://irangov.ir/detail/339131</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -823,7 +828,7 @@
     <t xml:space="preserve">Ireland - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gov.ie/en/press-release/6f789f-statement-from-the-national-public-health-emergency-team-tuesday-5-m/</t>
+    <t xml:space="preserve">https://www.gov.ie/en/press-release/bc6c86-statement-from-the-national-public-health-emergency-team-tuesday-12-/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gov.ie/en/publications/?&amp;type=press-releases&amp;organisation=department-of-health</t>
@@ -924,7 +929,7 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000628672.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000629555.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
@@ -958,7 +963,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1259109013435940866</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1260187015213187073</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -999,7 +1004,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510104952/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191746/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -1015,7 +1020,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200509164113/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191747/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1036,7 +1041,7 @@
     <t xml:space="preserve">Malaysia - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510105003/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200511162631/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1091,7 +1096,8 @@
   <si>
     <t xml:space="preserve">The Morocco Ministry of Health provides daily updates of the total number of confirmed cases and the number of cases dismissed following a negative test result. We construct a time series of the cumulative number of cases tested to date using the data stored in [this unofficial GitHub repository](https://github.com/RedaElmar/COVID-19_Morocco). 
 The cumulative number of cases tested to date includes positive and negative test results, while excluding pending results. We have cross-checked a sample of the figures reported in the unofficial source against data reported on the Ministry of Health website.
-The earliest reported figure is from March 2nd 2020, at which point 29 cases had been tested. It is unclear whether March 2nd was the first date on which tests were conducted.</t>
+The earliest reported figure is from March 2nd 2020, at which point 29 cases had been tested. It is unclear whether March 2nd was the first date on which tests were conducted.
+Since 1 May 2020, the [government website dedicated to COVID-19](http://www.covidmaroc.ma/Pages/AccueilAR.aspx) has been down, making it impossible to update our time series.</t>
   </si>
   <si>
     <t xml:space="preserve">MMR</t>
@@ -1145,10 +1151,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200509_1018.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 9 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200512_1143.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 12 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1184,7 +1190,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200508200455/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191905/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1204,7 +1210,7 @@
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.08-dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.12-dagsrapport-norge-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1229,7 +1235,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510105025/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191910/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1295,7 +1301,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/151163-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-65-015-en-el-peru-comunicado-n-95</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/152809-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-72-059-en-el-peru-comunicado-n-98</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1336,7 +1342,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.09.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.12.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1381,7 +1387,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510105040/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191924/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1419,7 +1425,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14424</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14429</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1439,7 +1445,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1259173285348204546</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1259905287420608513</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1546,7 +1552,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510105056/https://korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512191932/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1620,7 +1626,7 @@
     <t xml:space="preserve">South Korea - cases tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367186&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367200&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1706,7 +1712,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/EKvIxtZ0OwCUzeHXum1VBA?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/jTbxMFGoCtXzAWcjhfQtaA?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1729,7 +1735,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510105142/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200511162830/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1776,7 +1782,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200509164243/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512192345/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1800,13 +1806,13 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1259006502502834181</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1259934362721804290</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
   </si>
   <si>
-    <t xml:space="preserve">We sum the cumulative total provided for the previous day with the daily number of samples tested today.</t>
+    <t xml:space="preserve">We sum the cumulative total provided for the previous day with the daily number of samples tested today. Samples tested today at the Uganda Virus Research Institute. (UVRI)</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.health.go.ug/moh/resources/</t>
@@ -1823,7 +1829,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200510105147/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512192348/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1845,7 +1851,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200509164248/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512192350/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1868,7 +1874,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200509164249/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200512192351/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1942,7 +1948,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-20</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-22</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -1981,7 +1987,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1258995561090502657</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1260066306474356741</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2397,7 +2403,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2407,31 +2413,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>80729</v>
+        <v>87547</v>
       </c>
       <c r="I2" t="n">
-        <v>1.786</v>
+        <v>1.937</v>
       </c>
       <c r="J2" t="n">
-        <v>2828</v>
+        <v>2389</v>
       </c>
       <c r="K2" t="n">
-        <v>0.063</v>
+        <v>0.053</v>
       </c>
       <c r="L2" t="n">
-        <v>2804.667</v>
+        <v>2272.667</v>
       </c>
       <c r="M2" t="n">
-        <v>0.062</v>
+        <v>0.05</v>
       </c>
       <c r="N2" t="n">
-        <v>2409</v>
+        <v>2547</v>
       </c>
       <c r="O2" t="n">
-        <v>0.053</v>
+        <v>0.056</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -2454,7 +2460,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -2464,31 +2470,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>795456</v>
+        <v>877927</v>
       </c>
       <c r="I3" t="n">
-        <v>31.194</v>
+        <v>34.429</v>
       </c>
       <c r="J3" t="n">
-        <v>38206</v>
+        <v>22808</v>
       </c>
       <c r="K3" t="n">
-        <v>1.498</v>
+        <v>0.894</v>
       </c>
       <c r="L3" t="n">
-        <v>35600</v>
+        <v>27490.333</v>
       </c>
       <c r="M3" t="n">
-        <v>1.396</v>
+        <v>1.078</v>
       </c>
       <c r="N3" t="n">
-        <v>26267.571</v>
+        <v>30453</v>
       </c>
       <c r="O3" t="n">
-        <v>1.03</v>
+        <v>1.194</v>
       </c>
       <c r="P3" t="s">
         <v>29</v>
@@ -2511,7 +2517,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -2521,31 +2527,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" t="n">
-        <v>316508</v>
+        <v>329314</v>
       </c>
       <c r="I4" t="n">
-        <v>35.143</v>
+        <v>36.564</v>
       </c>
       <c r="J4" t="n">
-        <v>4818</v>
+        <v>9830</v>
       </c>
       <c r="K4" t="n">
-        <v>0.535</v>
+        <v>1.091</v>
       </c>
       <c r="L4" t="n">
-        <v>6204.667</v>
+        <v>5874.667</v>
       </c>
       <c r="M4" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6204.429</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.689</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6021.857</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.669</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -2568,7 +2574,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -2578,31 +2584,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
-        <v>178353</v>
+        <v>197898</v>
       </c>
       <c r="I5" t="n">
-        <v>104.816</v>
+        <v>116.302</v>
       </c>
       <c r="J5" t="n">
-        <v>6195</v>
+        <v>7118</v>
       </c>
       <c r="K5" t="n">
-        <v>3.641</v>
+        <v>4.183</v>
       </c>
       <c r="L5" t="n">
-        <v>6004</v>
+        <v>6515</v>
       </c>
       <c r="M5" t="n">
-        <v>3.529</v>
+        <v>3.829</v>
       </c>
       <c r="N5" t="n">
-        <v>5725</v>
+        <v>6056.714</v>
       </c>
       <c r="O5" t="n">
-        <v>3.365</v>
+        <v>3.559</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
@@ -2625,7 +2631,7 @@
         <v>49</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -2635,31 +2641,31 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H6" t="n">
-        <v>116919</v>
+        <v>136638</v>
       </c>
       <c r="I6" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="J6" t="n">
-        <v>5465</v>
+        <v>6773</v>
       </c>
       <c r="K6" t="n">
-        <v>0.033</v>
+        <v>0.041</v>
       </c>
       <c r="L6" t="n">
-        <v>5758.333</v>
+        <v>6573</v>
       </c>
       <c r="M6" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5836.143</v>
+        <v>6176.429</v>
       </c>
       <c r="O6" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="P6" t="s">
         <v>51</v>
@@ -2682,7 +2688,7 @@
         <v>56</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>43959</v>
+        <v>43963</v>
       </c>
       <c r="D7" t="s">
         <v>57</v>
@@ -2692,22 +2698,26 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
-        <v>240146</v>
+        <v>284445</v>
       </c>
       <c r="I7" t="n">
-        <v>25.414</v>
+        <v>30.102</v>
       </c>
       <c r="J7" t="n">
-        <v>10680</v>
+        <v>10385</v>
       </c>
       <c r="K7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L7"/>
-      <c r="M7"/>
+        <v>1.099</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10891.333</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.153</v>
+      </c>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7" t="s">
@@ -2731,7 +2741,7 @@
         <v>62</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>43959</v>
+        <v>43961</v>
       </c>
       <c r="D8" t="s">
         <v>63</v>
@@ -2741,31 +2751,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" t="n">
-        <v>461303</v>
+        <v>487863</v>
       </c>
       <c r="I8" t="n">
-        <v>39.803</v>
+        <v>42.095</v>
       </c>
       <c r="J8" t="n">
-        <v>21311</v>
+        <v>10044</v>
       </c>
       <c r="K8" t="n">
-        <v>1.839</v>
+        <v>0.867</v>
       </c>
       <c r="L8" t="n">
-        <v>18816.667</v>
+        <v>16559.667</v>
       </c>
       <c r="M8" t="n">
-        <v>1.624</v>
+        <v>1.429</v>
       </c>
       <c r="N8" t="n">
-        <v>17504.143</v>
+        <v>17648.143</v>
       </c>
       <c r="O8" t="n">
-        <v>1.51</v>
+        <v>1.523</v>
       </c>
       <c r="P8" t="s">
         <v>64</v>
@@ -2788,7 +2798,7 @@
         <v>69</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
@@ -2800,31 +2810,31 @@
         <v>71</v>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9" t="n">
-        <v>8523</v>
+        <v>8917</v>
       </c>
       <c r="I9" t="n">
-        <v>0.73</v>
+        <v>0.764</v>
       </c>
       <c r="J9" t="n">
-        <v>171</v>
+        <v>275</v>
       </c>
       <c r="K9" t="n">
-        <v>0.015</v>
+        <v>0.024</v>
       </c>
       <c r="L9" t="n">
-        <v>183.667</v>
+        <v>188.333</v>
       </c>
       <c r="M9" t="n">
         <v>0.016</v>
       </c>
       <c r="N9" t="n">
-        <v>138.143</v>
+        <v>164.286</v>
       </c>
       <c r="O9" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="P9" t="s">
         <v>43</v>
@@ -2892,7 +2902,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
@@ -2902,31 +2912,31 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>57231</v>
+        <v>58713</v>
       </c>
       <c r="I11" t="n">
-        <v>8.237</v>
+        <v>8.45</v>
       </c>
       <c r="J11" t="n">
-        <v>1126</v>
+        <v>1079</v>
       </c>
       <c r="K11" t="n">
-        <v>0.162</v>
+        <v>0.155</v>
       </c>
       <c r="L11" t="n">
-        <v>1433.333</v>
+        <v>869.333</v>
       </c>
       <c r="M11" t="n">
-        <v>0.206</v>
+        <v>0.125</v>
       </c>
       <c r="N11" t="n">
-        <v>1230.429</v>
+        <v>1201.429</v>
       </c>
       <c r="O11" t="n">
-        <v>0.177</v>
+        <v>0.173</v>
       </c>
       <c r="P11" t="s">
         <v>86</v>
@@ -2949,7 +2959,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D12" t="s">
         <v>91</v>
@@ -2959,25 +2969,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" t="n">
-        <v>1071379</v>
+        <v>1145683</v>
       </c>
       <c r="I12" t="n">
-        <v>28.387</v>
-      </c>
-      <c r="J12"/>
+        <v>30.356</v>
+      </c>
+      <c r="J12" t="n">
+        <v>26733</v>
+      </c>
       <c r="K12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L12"/>
+        <v>0.708</v>
+      </c>
+      <c r="L12" t="n">
+        <v>26029.333</v>
+      </c>
       <c r="M12" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="N12"/>
+        <v>0.69</v>
+      </c>
+      <c r="N12" t="n">
+        <v>29302.286</v>
+      </c>
       <c r="O12" t="n">
-        <v>0.673</v>
+        <v>0.776</v>
       </c>
       <c r="P12" t="s">
         <v>92</v>
@@ -3000,7 +3016,7 @@
         <v>97</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D13" t="s">
         <v>98</v>
@@ -3012,31 +3028,31 @@
         <v>99</v>
       </c>
       <c r="G13" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H13" t="n">
-        <v>267904</v>
+        <v>303340</v>
       </c>
       <c r="I13" t="n">
-        <v>14.014</v>
+        <v>15.868</v>
       </c>
       <c r="J13" t="n">
-        <v>11943</v>
+        <v>9283</v>
       </c>
       <c r="K13" t="n">
-        <v>0.625</v>
+        <v>0.486</v>
       </c>
       <c r="L13" t="n">
-        <v>11932</v>
+        <v>11812</v>
       </c>
       <c r="M13" t="n">
-        <v>0.624</v>
+        <v>0.618</v>
       </c>
       <c r="N13" t="n">
-        <v>9786.286</v>
+        <v>11606.429</v>
       </c>
       <c r="O13" t="n">
-        <v>0.512</v>
+        <v>0.607</v>
       </c>
       <c r="P13" t="s">
         <v>100</v>
@@ -3059,7 +3075,7 @@
         <v>104</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -3069,31 +3085,31 @@
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H14" t="n">
-        <v>144912</v>
+        <v>158933</v>
       </c>
       <c r="I14" t="n">
-        <v>2.848</v>
+        <v>3.124</v>
       </c>
       <c r="J14" t="n">
-        <v>5173</v>
+        <v>7537</v>
       </c>
       <c r="K14" t="n">
-        <v>0.102</v>
+        <v>0.148</v>
       </c>
       <c r="L14" t="n">
-        <v>4600.667</v>
+        <v>6398</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09</v>
+        <v>0.126</v>
       </c>
       <c r="N14" t="n">
-        <v>4330</v>
+        <v>5129.143</v>
       </c>
       <c r="O14" t="n">
-        <v>0.085</v>
+        <v>0.101</v>
       </c>
       <c r="P14" t="s">
         <v>106</v>
@@ -3116,7 +3132,7 @@
         <v>111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D15" t="s">
         <v>112</v>
@@ -3126,31 +3142,31 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H15" t="n">
-        <v>11276</v>
+        <v>12061</v>
       </c>
       <c r="I15" t="n">
-        <v>2.214</v>
+        <v>2.368</v>
       </c>
       <c r="J15" t="n">
-        <v>449</v>
+        <v>73</v>
       </c>
       <c r="K15" t="n">
-        <v>0.088</v>
+        <v>0.014</v>
       </c>
       <c r="L15" t="n">
-        <v>391.667</v>
+        <v>261.667</v>
       </c>
       <c r="M15" t="n">
-        <v>0.077</v>
+        <v>0.051</v>
       </c>
       <c r="N15" t="n">
-        <v>240.429</v>
+        <v>309.857</v>
       </c>
       <c r="O15" t="n">
-        <v>0.047</v>
+        <v>0.061</v>
       </c>
       <c r="P15" t="s">
         <v>113</v>
@@ -3173,7 +3189,7 @@
         <v>117</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D16" t="s">
         <v>118</v>
@@ -3183,31 +3199,31 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H16" t="n">
-        <v>44218</v>
+        <v>47480</v>
       </c>
       <c r="I16" t="n">
-        <v>10.771</v>
+        <v>11.566</v>
       </c>
       <c r="J16" t="n">
-        <v>840</v>
+        <v>1409</v>
       </c>
       <c r="K16" t="n">
-        <v>0.205</v>
+        <v>0.343</v>
       </c>
       <c r="L16" t="n">
-        <v>1055</v>
+        <v>1087.333</v>
       </c>
       <c r="M16" t="n">
-        <v>0.257</v>
+        <v>0.265</v>
       </c>
       <c r="N16" t="n">
-        <v>951.571</v>
+        <v>1072.429</v>
       </c>
       <c r="O16" t="n">
-        <v>0.232</v>
+        <v>0.261</v>
       </c>
       <c r="P16" t="s">
         <v>119</v>
@@ -3230,7 +3246,7 @@
         <v>124</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="D17" t="s">
         <v>125</v>
@@ -3242,31 +3258,31 @@
         <v>127</v>
       </c>
       <c r="G17" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H17" t="n">
-        <v>65509</v>
+        <v>71157</v>
       </c>
       <c r="I17" t="n">
-        <v>5.784</v>
+        <v>6.282</v>
       </c>
       <c r="J17" t="n">
-        <v>1949</v>
+        <v>1975</v>
       </c>
       <c r="K17" t="n">
-        <v>0.172</v>
+        <v>0.174</v>
       </c>
       <c r="L17" t="n">
-        <v>1953.667</v>
+        <v>1882.667</v>
       </c>
       <c r="M17" t="n">
-        <v>0.172</v>
+        <v>0.166</v>
       </c>
       <c r="N17" t="n">
-        <v>2000.429</v>
+        <v>1920.857</v>
       </c>
       <c r="O17" t="n">
-        <v>0.176</v>
+        <v>0.169</v>
       </c>
       <c r="P17" t="s">
         <v>126</v>
@@ -3289,7 +3305,7 @@
         <v>131</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D18" t="s">
         <v>132</v>
@@ -3299,31 +3315,31 @@
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H18" t="n">
-        <v>302493</v>
+        <v>314138</v>
       </c>
       <c r="I18" t="n">
-        <v>28.247</v>
+        <v>29.334</v>
       </c>
       <c r="J18" t="n">
-        <v>3717</v>
+        <v>7537</v>
       </c>
       <c r="K18" t="n">
-        <v>0.347</v>
+        <v>0.704</v>
       </c>
       <c r="L18" t="n">
-        <v>5193.333</v>
+        <v>5120.667</v>
       </c>
       <c r="M18" t="n">
-        <v>0.485</v>
+        <v>0.478</v>
       </c>
       <c r="N18" t="n">
-        <v>6373.143</v>
+        <v>6433.571</v>
       </c>
       <c r="O18" t="n">
-        <v>0.595</v>
+        <v>0.601</v>
       </c>
       <c r="P18" t="s">
         <v>43</v>
@@ -3346,7 +3362,7 @@
         <v>136</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D19" t="s">
         <v>137</v>
@@ -3358,31 +3374,31 @@
         <v>139</v>
       </c>
       <c r="G19" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H19" t="n">
-        <v>308984</v>
+        <v>334260</v>
       </c>
       <c r="I19" t="n">
-        <v>53.345</v>
+        <v>57.709</v>
       </c>
       <c r="J19" t="n">
-        <v>10496</v>
+        <v>7700</v>
       </c>
       <c r="K19" t="n">
-        <v>1.812</v>
+        <v>1.329</v>
       </c>
       <c r="L19" t="n">
-        <v>12768</v>
+        <v>8425.333</v>
       </c>
       <c r="M19" t="n">
-        <v>2.204</v>
+        <v>1.455</v>
       </c>
       <c r="N19" t="n">
-        <v>12438.857</v>
+        <v>10931.714</v>
       </c>
       <c r="O19" t="n">
-        <v>2.147</v>
+        <v>1.887</v>
       </c>
       <c r="P19" t="s">
         <v>140</v>
@@ -3405,7 +3421,7 @@
         <v>144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>43959</v>
+        <v>43955</v>
       </c>
       <c r="D20" t="s">
         <v>145</v>
@@ -3417,22 +3433,32 @@
         <v>147</v>
       </c>
       <c r="G20" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H20" t="n">
-        <v>40630</v>
+        <v>46260</v>
       </c>
       <c r="I20" t="n">
-        <v>2.303</v>
-      </c>
-      <c r="J20"/>
+        <v>2.622</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2533</v>
+      </c>
       <c r="K20" t="n">
-        <v>-0.212</v>
-      </c>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
+        <v>0.144</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3066.333</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2160.857</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.123</v>
+      </c>
       <c r="P20" t="s">
         <v>146</v>
       </c>
@@ -3454,7 +3480,7 @@
         <v>151</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D21" t="s">
         <v>152</v>
@@ -3466,22 +3492,22 @@
         <v>154</v>
       </c>
       <c r="G21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>39079</v>
+        <v>44926</v>
       </c>
       <c r="I21" t="n">
-        <v>6.025</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1773</v>
-      </c>
+        <v>6.926</v>
+      </c>
+      <c r="J21"/>
       <c r="K21" t="n">
-        <v>0.273</v>
+        <v>0.29</v>
       </c>
       <c r="L21"/>
-      <c r="M21"/>
+      <c r="M21" t="n">
+        <v>0.391</v>
+      </c>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="s">
@@ -3505,7 +3531,7 @@
         <v>157</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D22" t="s">
         <v>158</v>
@@ -3515,31 +3541,31 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H22" t="n">
-        <v>63372</v>
+        <v>64975</v>
       </c>
       <c r="I22" t="n">
-        <v>47.772</v>
+        <v>48.981</v>
       </c>
       <c r="J22" t="n">
-        <v>654</v>
+        <v>1018</v>
       </c>
       <c r="K22" t="n">
-        <v>0.493</v>
+        <v>0.767</v>
       </c>
       <c r="L22" t="n">
-        <v>961.333</v>
+        <v>753</v>
       </c>
       <c r="M22" t="n">
-        <v>0.725</v>
+        <v>0.567</v>
       </c>
       <c r="N22" t="n">
-        <v>1170.714</v>
+        <v>1081.714</v>
       </c>
       <c r="O22" t="n">
-        <v>0.882</v>
+        <v>0.815</v>
       </c>
       <c r="P22" t="s">
         <v>160</v>
@@ -3562,7 +3588,7 @@
         <v>165</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>43959</v>
+        <v>43963</v>
       </c>
       <c r="D23" t="s">
         <v>166</v>
@@ -3572,19 +3598,19 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23" t="n">
-        <v>30306</v>
+        <v>39048</v>
       </c>
       <c r="I23" t="n">
-        <v>0.264</v>
+        <v>0.34</v>
       </c>
       <c r="J23" t="n">
-        <v>1946</v>
+        <v>2424</v>
       </c>
       <c r="K23" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
@@ -3611,7 +3637,7 @@
         <v>171</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="D24" t="s">
         <v>172</v>
@@ -3621,25 +3647,25 @@
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H24" t="n">
-        <v>119054</v>
+        <v>126327</v>
       </c>
       <c r="I24" t="n">
-        <v>21.487</v>
+        <v>22.8</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="n">
-        <v>0.116</v>
+        <v>0.069</v>
       </c>
       <c r="L24"/>
       <c r="M24" t="n">
-        <v>0.433</v>
+        <v>0.243</v>
       </c>
       <c r="N24"/>
       <c r="O24" t="n">
-        <v>0.388</v>
+        <v>0.432</v>
       </c>
       <c r="P24" t="s">
         <v>174</v>
@@ -3756,7 +3782,7 @@
         <v>192</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>43958</v>
+        <v>43962</v>
       </c>
       <c r="D27" t="s">
         <v>193</v>
@@ -3766,16 +3792,20 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H27" t="n">
-        <v>149948</v>
+        <v>162184</v>
       </c>
       <c r="I27" t="n">
-        <v>4.826</v>
-      </c>
-      <c r="J27"/>
-      <c r="K27"/>
+        <v>5.219</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1683</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.054</v>
+      </c>
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
@@ -3801,7 +3831,7 @@
         <v>200</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D28" t="s">
         <v>201</v>
@@ -3811,25 +3841,25 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H28" t="n">
-        <v>97384</v>
+        <v>106054</v>
       </c>
       <c r="I28" t="n">
-        <v>9.343</v>
+        <v>10.175</v>
       </c>
       <c r="J28" t="n">
-        <v>3093</v>
+        <v>6691</v>
       </c>
       <c r="K28" t="n">
-        <v>0.297</v>
+        <v>0.642</v>
       </c>
       <c r="L28" t="n">
-        <v>3444</v>
+        <v>2890</v>
       </c>
       <c r="M28" t="n">
-        <v>0.331</v>
+        <v>0.277</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -3899,7 +3929,7 @@
         <v>214</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D30" t="s">
         <v>215</v>
@@ -3911,31 +3941,31 @@
         <v>217</v>
       </c>
       <c r="G30" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H30" t="n">
-        <v>108257</v>
+        <v>114719</v>
       </c>
       <c r="I30" t="n">
-        <v>11.206</v>
+        <v>11.875</v>
       </c>
       <c r="J30" t="n">
-        <v>4999</v>
+        <v>2554</v>
       </c>
       <c r="K30" t="n">
-        <v>0.517</v>
+        <v>0.264</v>
       </c>
       <c r="L30" t="n">
-        <v>4740.333</v>
+        <v>3820.333</v>
       </c>
       <c r="M30" t="n">
-        <v>0.491</v>
+        <v>0.395</v>
       </c>
       <c r="N30" t="n">
-        <v>3749.571</v>
+        <v>4166</v>
       </c>
       <c r="O30" t="n">
-        <v>0.388</v>
+        <v>0.431</v>
       </c>
       <c r="P30" t="s">
         <v>216</v>
@@ -3958,7 +3988,7 @@
         <v>222</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="D31" t="s">
         <v>223</v>
@@ -3968,31 +3998,31 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H31" t="n">
-        <v>53219</v>
+        <v>54750</v>
       </c>
       <c r="I31" t="n">
-        <v>155.953</v>
+        <v>160.44</v>
       </c>
       <c r="J31" t="n">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="K31" t="n">
-        <v>1.509</v>
+        <v>1.694</v>
       </c>
       <c r="L31" t="n">
-        <v>532.333</v>
+        <v>510.333</v>
       </c>
       <c r="M31" t="n">
-        <v>1.56</v>
+        <v>1.496</v>
       </c>
       <c r="N31" t="n">
-        <v>465.429</v>
+        <v>492.286</v>
       </c>
       <c r="O31" t="n">
-        <v>1.364</v>
+        <v>1.443</v>
       </c>
       <c r="P31" t="s">
         <v>224</v>
@@ -4066,7 +4096,7 @@
         <v>233</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D33" t="s">
         <v>229</v>
@@ -4078,31 +4108,31 @@
         <v>231</v>
       </c>
       <c r="G33" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H33" t="n">
-        <v>1609037</v>
+        <v>1759579</v>
       </c>
       <c r="I33" t="n">
-        <v>1.166</v>
+        <v>1.275</v>
       </c>
       <c r="J33" t="n">
-        <v>85824</v>
+        <v>85891</v>
       </c>
       <c r="K33" t="n">
         <v>0.062</v>
       </c>
       <c r="L33" t="n">
-        <v>83874.667</v>
+        <v>78788.667</v>
       </c>
       <c r="M33" t="n">
-        <v>0.061</v>
+        <v>0.057</v>
       </c>
       <c r="N33" t="n">
-        <v>80369.571</v>
+        <v>81090.429</v>
       </c>
       <c r="O33" t="n">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="P33" t="s">
         <v>230</v>
@@ -4125,7 +4155,7 @@
         <v>235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D34" t="s">
         <v>236</v>
@@ -4135,28 +4165,28 @@
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H34" t="n">
-        <v>113452</v>
+        <v>119728</v>
       </c>
       <c r="I34" t="n">
-        <v>0.415</v>
+        <v>0.438</v>
       </c>
       <c r="J34" t="n">
-        <v>4753</v>
+        <v>3370</v>
       </c>
       <c r="K34" t="n">
-        <v>0.017</v>
+        <v>0.012</v>
       </c>
       <c r="L34" t="n">
-        <v>5578.333</v>
+        <v>3676.333</v>
       </c>
       <c r="M34" t="n">
-        <v>0.02</v>
+        <v>0.013</v>
       </c>
       <c r="N34" t="n">
-        <v>4348.571</v>
+        <v>4400.571</v>
       </c>
       <c r="O34" t="n">
         <v>0.016</v>
@@ -4182,7 +4212,7 @@
         <v>241</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>43959</v>
+        <v>43963</v>
       </c>
       <c r="D35" t="s">
         <v>242</v>
@@ -4192,32 +4222,20 @@
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H35" t="n">
-        <v>558899</v>
+        <v>615477</v>
       </c>
       <c r="I35" t="n">
-        <v>6.654</v>
-      </c>
-      <c r="J35" t="n">
-        <v>14107</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.168</v>
-      </c>
-      <c r="L35" t="n">
-        <v>13118.667</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.156</v>
-      </c>
-      <c r="N35" t="n">
-        <v>11982.286</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0.143</v>
-      </c>
+        <v>7.328</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
       <c r="P35" t="s">
         <v>243</v>
       </c>
@@ -4239,7 +4257,7 @@
         <v>247</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>43956</v>
+        <v>43963</v>
       </c>
       <c r="D36" t="s">
         <v>248</v>
@@ -4249,13 +4267,13 @@
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
-        <v>214761</v>
+        <v>258808</v>
       </c>
       <c r="I36" t="n">
-        <v>43.493</v>
+        <v>52.414</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
@@ -4284,7 +4302,7 @@
         <v>253</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>43958</v>
+        <v>43962</v>
       </c>
       <c r="D37" t="s">
         <v>254</v>
@@ -4296,31 +4314,31 @@
         <v>256</v>
       </c>
       <c r="G37" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H37" t="n">
-        <v>435790</v>
+        <v>462580</v>
       </c>
       <c r="I37" t="n">
-        <v>50.348</v>
+        <v>53.443</v>
       </c>
       <c r="J37" t="n">
-        <v>8876</v>
+        <v>8291</v>
       </c>
       <c r="K37" t="n">
-        <v>1.025</v>
+        <v>0.958</v>
       </c>
       <c r="L37" t="n">
-        <v>9003.333</v>
+        <v>5704</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>0.659</v>
       </c>
       <c r="N37" t="n">
-        <v>8844</v>
+        <v>7685.714</v>
       </c>
       <c r="O37" t="n">
-        <v>1.022</v>
+        <v>0.888</v>
       </c>
       <c r="P37" t="s">
         <v>43</v>
@@ -4343,7 +4361,7 @@
         <v>260</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D38" t="s">
         <v>261</v>
@@ -4355,31 +4373,31 @@
         <v>263</v>
       </c>
       <c r="G38" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H38" t="n">
-        <v>1645076</v>
+        <v>1741903</v>
       </c>
       <c r="I38" t="n">
-        <v>27.209</v>
+        <v>28.81</v>
       </c>
       <c r="J38" t="n">
-        <v>36091</v>
+        <v>39620</v>
       </c>
       <c r="K38" t="n">
-        <v>0.597</v>
+        <v>0.655</v>
       </c>
       <c r="L38" t="n">
-        <v>31728</v>
+        <v>32275.667</v>
       </c>
       <c r="M38" t="n">
-        <v>0.525</v>
+        <v>0.534</v>
       </c>
       <c r="N38" t="n">
-        <v>30744.571</v>
+        <v>32826</v>
       </c>
       <c r="O38" t="n">
-        <v>0.508</v>
+        <v>0.543</v>
       </c>
       <c r="P38" t="s">
         <v>264</v>
@@ -4402,7 +4420,7 @@
         <v>267</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D39" t="s">
         <v>261</v>
@@ -4414,31 +4432,31 @@
         <v>263</v>
       </c>
       <c r="G39" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H39" t="n">
-        <v>2514234</v>
+        <v>2673655</v>
       </c>
       <c r="I39" t="n">
-        <v>41.584</v>
+        <v>44.221</v>
       </c>
       <c r="J39" t="n">
-        <v>69171</v>
+        <v>67003</v>
       </c>
       <c r="K39" t="n">
-        <v>1.144</v>
+        <v>1.108</v>
       </c>
       <c r="L39" t="n">
-        <v>67768.333</v>
+        <v>53140.333</v>
       </c>
       <c r="M39" t="n">
-        <v>1.121</v>
+        <v>0.879</v>
       </c>
       <c r="N39" t="n">
-        <v>57913.857</v>
+        <v>60998.429</v>
       </c>
       <c r="O39" t="n">
-        <v>0.958</v>
+        <v>1.009</v>
       </c>
       <c r="P39" t="s">
         <v>264</v>
@@ -4461,7 +4479,7 @@
         <v>270</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D40" t="s">
         <v>271</v>
@@ -4473,13 +4491,13 @@
         <v>273</v>
       </c>
       <c r="G40" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H40" t="n">
-        <v>211997</v>
+        <v>223649</v>
       </c>
       <c r="I40" t="n">
-        <v>1.676</v>
+        <v>1.768</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -4508,7 +4526,7 @@
         <v>276</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="D41" t="s">
         <v>277</v>
@@ -4520,31 +4538,25 @@
         <v>278</v>
       </c>
       <c r="G41" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H41" t="n">
-        <v>312728</v>
+        <v>333910</v>
       </c>
       <c r="I41" t="n">
-        <v>2.473</v>
-      </c>
-      <c r="J41" t="n">
-        <v>6061</v>
-      </c>
+        <v>2.64</v>
+      </c>
+      <c r="J41"/>
       <c r="K41" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4768.667</v>
-      </c>
+        <v>0.026</v>
+      </c>
+      <c r="L41"/>
       <c r="M41" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="N41" t="n">
-        <v>5210.143</v>
-      </c>
+        <v>0.049</v>
+      </c>
+      <c r="N41"/>
       <c r="O41" t="n">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="P41" t="s">
         <v>272</v>
@@ -4567,7 +4579,7 @@
         <v>281</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D42" t="s">
         <v>282</v>
@@ -4577,31 +4589,31 @@
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H42" t="n">
-        <v>385104</v>
+        <v>422011</v>
       </c>
       <c r="I42" t="n">
-        <v>20.51</v>
+        <v>22.475</v>
       </c>
       <c r="J42" t="n">
-        <v>13978</v>
+        <v>13298</v>
       </c>
       <c r="K42" t="n">
-        <v>0.744</v>
+        <v>0.708</v>
       </c>
       <c r="L42" t="n">
-        <v>16208</v>
+        <v>12302.333</v>
       </c>
       <c r="M42" t="n">
-        <v>0.863</v>
+        <v>0.655</v>
       </c>
       <c r="N42" t="n">
-        <v>14606</v>
+        <v>14514.286</v>
       </c>
       <c r="O42" t="n">
-        <v>0.778</v>
+        <v>0.773</v>
       </c>
       <c r="P42" t="s">
         <v>283</v>
@@ -4624,7 +4636,7 @@
         <v>286</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D43" t="s">
         <v>287</v>
@@ -4634,22 +4646,26 @@
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H43" t="n">
-        <v>31041</v>
+        <v>33916</v>
       </c>
       <c r="I43" t="n">
-        <v>0.577</v>
+        <v>0.631</v>
       </c>
       <c r="J43" t="n">
-        <v>1611</v>
+        <v>978</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L43"/>
-      <c r="M43"/>
+        <v>0.018</v>
+      </c>
+      <c r="L43" t="n">
+        <v>958.333</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.018</v>
+      </c>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43" t="s">
@@ -4673,7 +4689,7 @@
         <v>293</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D44" t="s">
         <v>294</v>
@@ -4685,25 +4701,31 @@
         <v>296</v>
       </c>
       <c r="G44" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H44" t="n">
-        <v>76592</v>
+        <v>79047</v>
       </c>
       <c r="I44" t="n">
-        <v>40.606</v>
-      </c>
-      <c r="J44"/>
+        <v>41.908</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1900</v>
+      </c>
       <c r="K44" t="n">
-        <v>0.541</v>
-      </c>
-      <c r="L44"/>
+        <v>1.007</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1158.667</v>
+      </c>
       <c r="M44" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="N44"/>
+        <v>0.614</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1842.429</v>
+      </c>
       <c r="O44" t="n">
-        <v>0.935</v>
+        <v>0.977</v>
       </c>
       <c r="P44" t="s">
         <v>295</v>
@@ -4726,7 +4748,7 @@
         <v>299</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D45" t="s">
         <v>300</v>
@@ -4736,25 +4758,31 @@
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H45" t="n">
-        <v>183913</v>
+        <v>192386</v>
       </c>
       <c r="I45" t="n">
-        <v>67.558</v>
-      </c>
-      <c r="J45"/>
+        <v>70.671</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5821</v>
+      </c>
       <c r="K45" t="n">
-        <v>1.315</v>
-      </c>
-      <c r="L45"/>
+        <v>2.138</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4018</v>
+      </c>
       <c r="M45" t="n">
-        <v>2.427</v>
-      </c>
-      <c r="N45"/>
+        <v>1.476</v>
+      </c>
+      <c r="N45" t="n">
+        <v>6182.857</v>
+      </c>
       <c r="O45" t="n">
-        <v>2.216</v>
+        <v>2.271</v>
       </c>
       <c r="P45" t="s">
         <v>43</v>
@@ -4777,7 +4805,7 @@
         <v>304</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D46" t="s">
         <v>305</v>
@@ -4787,31 +4815,31 @@
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H46" t="n">
-        <v>54463</v>
+        <v>56394</v>
       </c>
       <c r="I46" t="n">
-        <v>87.005</v>
+        <v>90.09</v>
       </c>
       <c r="J46" t="n">
-        <v>1206</v>
+        <v>979</v>
       </c>
       <c r="K46" t="n">
-        <v>1.927</v>
+        <v>1.564</v>
       </c>
       <c r="L46" t="n">
-        <v>1310</v>
+        <v>643.667</v>
       </c>
       <c r="M46" t="n">
-        <v>2.093</v>
+        <v>1.028</v>
       </c>
       <c r="N46" t="n">
-        <v>1000.429</v>
+        <v>1013.571</v>
       </c>
       <c r="O46" t="n">
-        <v>1.598</v>
+        <v>1.619</v>
       </c>
       <c r="P46" t="s">
         <v>306</v>
@@ -4834,7 +4862,7 @@
         <v>310</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="D47" t="s">
         <v>311</v>
@@ -4844,16 +4872,20 @@
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H47" t="n">
-        <v>256937</v>
+        <v>266048</v>
       </c>
       <c r="I47" t="n">
-        <v>7.938</v>
-      </c>
-      <c r="J47"/>
-      <c r="K47"/>
+        <v>8.22</v>
+      </c>
+      <c r="J47" t="n">
+        <v>9111</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.281</v>
+      </c>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47"/>
@@ -4879,7 +4911,7 @@
         <v>317</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D48" t="s">
         <v>318</v>
@@ -4889,13 +4921,13 @@
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H48" t="n">
-        <v>107261</v>
+        <v>114125</v>
       </c>
       <c r="I48" t="n">
-        <v>0.832</v>
+        <v>0.885</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
@@ -4903,11 +4935,11 @@
       </c>
       <c r="L48"/>
       <c r="M48" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="N48"/>
       <c r="O48" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="P48" t="s">
         <v>319</v>
@@ -4989,7 +5021,7 @@
         <v>329</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>43959</v>
+        <v>43963</v>
       </c>
       <c r="D50" t="s">
         <v>330</v>
@@ -5001,32 +5033,24 @@
         <v>332</v>
       </c>
       <c r="G50" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H50" t="n">
-        <v>10848</v>
+        <v>11822</v>
       </c>
       <c r="I50" t="n">
-        <v>0.199</v>
+        <v>0.217</v>
       </c>
       <c r="J50" t="n">
-        <v>582</v>
+        <v>340</v>
       </c>
       <c r="K50" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="L50" t="n">
-        <v>517.667</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N50" t="n">
-        <v>372.571</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0.007</v>
-      </c>
+        <v>0.006</v>
+      </c>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
       <c r="P50" t="s">
         <v>331</v>
       </c>
@@ -5048,7 +5072,7 @@
         <v>336</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D51" t="s">
         <v>337</v>
@@ -5060,31 +5084,31 @@
         <v>339</v>
       </c>
       <c r="G51" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H51" t="n">
-        <v>16309</v>
+        <v>17809</v>
       </c>
       <c r="I51" t="n">
-        <v>0.56</v>
+        <v>0.611</v>
       </c>
       <c r="J51" t="n">
-        <v>817</v>
+        <v>911</v>
       </c>
       <c r="K51" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="L51" t="n">
-        <v>737.667</v>
+        <v>772.333</v>
       </c>
       <c r="M51" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="N51" t="n">
-        <v>458.714</v>
+        <v>595.571</v>
       </c>
       <c r="O51" t="n">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="P51" t="s">
         <v>338</v>
@@ -5107,7 +5131,7 @@
         <v>343</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>43958</v>
+        <v>43962</v>
       </c>
       <c r="D52" t="s">
         <v>344</v>
@@ -5117,26 +5141,22 @@
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H52" t="n">
-        <v>254456</v>
+        <v>270351</v>
       </c>
       <c r="I52" t="n">
-        <v>14.85</v>
+        <v>15.778</v>
       </c>
       <c r="J52" t="n">
-        <v>4442</v>
+        <v>3192</v>
       </c>
       <c r="K52" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="L52" t="n">
-        <v>4035.667</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.235</v>
-      </c>
+        <v>0.186</v>
+      </c>
+      <c r="L52"/>
+      <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52" t="s">
@@ -5160,7 +5180,7 @@
         <v>350</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D53" t="s">
         <v>351</v>
@@ -5170,31 +5190,31 @@
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H53" t="n">
-        <v>190326</v>
+        <v>197084</v>
       </c>
       <c r="I53" t="n">
-        <v>39.468</v>
+        <v>40.87</v>
       </c>
       <c r="J53" t="n">
-        <v>7287</v>
+        <v>2893</v>
       </c>
       <c r="K53" t="n">
-        <v>1.511</v>
+        <v>0.6</v>
       </c>
       <c r="L53" t="n">
-        <v>7434.333</v>
+        <v>4681.667</v>
       </c>
       <c r="M53" t="n">
-        <v>1.542</v>
+        <v>0.971</v>
       </c>
       <c r="N53" t="n">
-        <v>5729</v>
+        <v>5879.429</v>
       </c>
       <c r="O53" t="n">
-        <v>1.188</v>
+        <v>1.219</v>
       </c>
       <c r="P53" t="s">
         <v>352</v>
@@ -5217,7 +5237,7 @@
         <v>355</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>43959</v>
+        <v>43963</v>
       </c>
       <c r="D54" t="s">
         <v>356</v>
@@ -5227,26 +5247,22 @@
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H54" t="n">
-        <v>23835</v>
+        <v>28418</v>
       </c>
       <c r="I54" t="n">
-        <v>0.116</v>
+        <v>0.138</v>
       </c>
       <c r="J54" t="n">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="K54" t="n">
         <v>0.007</v>
       </c>
-      <c r="L54" t="n">
-        <v>1441</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.007</v>
-      </c>
+      <c r="L54"/>
+      <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54" t="s">
@@ -5270,7 +5286,7 @@
         <v>361</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>43959</v>
+        <v>43963</v>
       </c>
       <c r="D55" t="s">
         <v>362</v>
@@ -5280,19 +5296,19 @@
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H55" t="n">
-        <v>195921</v>
+        <v>205239</v>
       </c>
       <c r="I55" t="n">
-        <v>36.14</v>
+        <v>37.858</v>
       </c>
       <c r="J55" t="n">
-        <v>3975</v>
+        <v>2488</v>
       </c>
       <c r="K55" t="n">
-        <v>0.733</v>
+        <v>0.459</v>
       </c>
       <c r="L55"/>
       <c r="M55"/>
@@ -5319,7 +5335,7 @@
         <v>368</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D56" t="s">
         <v>369</v>
@@ -5329,31 +5345,31 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H56" t="n">
-        <v>283517</v>
+        <v>305851</v>
       </c>
       <c r="I56" t="n">
-        <v>1.284</v>
+        <v>1.385</v>
       </c>
       <c r="J56" t="n">
-        <v>13492</v>
+        <v>10957</v>
       </c>
       <c r="K56" t="n">
-        <v>0.061</v>
+        <v>0.05</v>
       </c>
       <c r="L56" t="n">
-        <v>12913</v>
+        <v>11942</v>
       </c>
       <c r="M56" t="n">
-        <v>0.058</v>
+        <v>0.054</v>
       </c>
       <c r="N56" t="n">
-        <v>11498.857</v>
+        <v>11921</v>
       </c>
       <c r="O56" t="n">
-        <v>0.052</v>
+        <v>0.054</v>
       </c>
       <c r="P56" t="s">
         <v>370</v>
@@ -5376,7 +5392,7 @@
         <v>374</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="D57" t="s">
         <v>375</v>
@@ -5388,31 +5404,31 @@
         <v>376</v>
       </c>
       <c r="G57" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H57" t="n">
-        <v>41649</v>
+        <v>42657</v>
       </c>
       <c r="I57" t="n">
-        <v>9.653</v>
+        <v>9.886</v>
       </c>
       <c r="J57" t="n">
-        <v>1293</v>
+        <v>1008</v>
       </c>
       <c r="K57" t="n">
-        <v>0.3</v>
+        <v>0.234</v>
       </c>
       <c r="L57" t="n">
-        <v>1211.667</v>
+        <v>1188</v>
       </c>
       <c r="M57" t="n">
-        <v>0.281</v>
+        <v>0.276</v>
       </c>
       <c r="N57" t="n">
-        <v>1185</v>
+        <v>1171.143</v>
       </c>
       <c r="O57" t="n">
-        <v>0.275</v>
+        <v>0.272</v>
       </c>
       <c r="P57" t="s">
         <v>43</v>
@@ -5494,7 +5510,7 @@
         <v>388</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D59" t="s">
         <v>389</v>
@@ -5504,16 +5520,20 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H59" t="n">
-        <v>494250</v>
+        <v>532169</v>
       </c>
       <c r="I59" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="J59"/>
-      <c r="K59"/>
+        <v>16.14</v>
+      </c>
+      <c r="J59" t="n">
+        <v>19300</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.585</v>
+      </c>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
@@ -5539,7 +5559,7 @@
         <v>395</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="D60" t="s">
         <v>396</v>
@@ -5549,26 +5569,18 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H60" t="n">
-        <v>136706</v>
+        <v>157850</v>
       </c>
       <c r="I60" t="n">
-        <v>1.248</v>
-      </c>
-      <c r="J60" t="n">
-        <v>5216</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="L60" t="n">
-        <v>5731.333</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.053</v>
-      </c>
+        <v>1.44</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60" t="s">
@@ -5592,7 +5604,7 @@
         <v>400</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D61" t="s">
         <v>401</v>
@@ -5604,31 +5616,31 @@
         <v>403</v>
       </c>
       <c r="G61" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H61" t="n">
-        <v>460686</v>
+        <v>507778</v>
       </c>
       <c r="I61" t="n">
-        <v>12.172</v>
+        <v>13.417</v>
       </c>
       <c r="J61" t="n">
-        <v>17180</v>
+        <v>16562</v>
       </c>
       <c r="K61" t="n">
-        <v>0.454</v>
+        <v>0.438</v>
       </c>
       <c r="L61" t="n">
-        <v>16739.333</v>
+        <v>15697.333</v>
       </c>
       <c r="M61" t="n">
-        <v>0.442</v>
+        <v>0.415</v>
       </c>
       <c r="N61" t="n">
-        <v>13524.714</v>
+        <v>16215.429</v>
       </c>
       <c r="O61" t="n">
-        <v>0.358</v>
+        <v>0.429</v>
       </c>
       <c r="P61" t="s">
         <v>404</v>
@@ -5651,7 +5663,7 @@
         <v>408</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>43956</v>
+        <v>43961</v>
       </c>
       <c r="D62" t="s">
         <v>409</v>
@@ -5661,31 +5673,31 @@
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H62" t="n">
-        <v>485925</v>
+        <v>553855</v>
       </c>
       <c r="I62" t="n">
-        <v>47.655</v>
+        <v>54.317</v>
       </c>
       <c r="J62" t="n">
-        <v>15556</v>
+        <v>7472</v>
       </c>
       <c r="K62" t="n">
-        <v>1.526</v>
+        <v>0.733</v>
       </c>
       <c r="L62" t="n">
-        <v>11893.667</v>
+        <v>12041.667</v>
       </c>
       <c r="M62" t="n">
-        <v>1.166</v>
+        <v>1.181</v>
       </c>
       <c r="N62" t="n">
-        <v>12837.714</v>
+        <v>13602</v>
       </c>
       <c r="O62" t="n">
-        <v>1.259</v>
+        <v>1.334</v>
       </c>
       <c r="P62" t="s">
         <v>410</v>
@@ -5708,7 +5720,7 @@
         <v>414</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D63" t="s">
         <v>415</v>
@@ -5718,31 +5730,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H63" t="n">
-        <v>127769</v>
+        <v>135294</v>
       </c>
       <c r="I63" t="n">
-        <v>44.348</v>
+        <v>46.96</v>
       </c>
       <c r="J63" t="n">
-        <v>3215</v>
+        <v>4250</v>
       </c>
       <c r="K63" t="n">
-        <v>1.116</v>
+        <v>1.475</v>
       </c>
       <c r="L63" t="n">
-        <v>3758</v>
+        <v>3580</v>
       </c>
       <c r="M63" t="n">
-        <v>1.305</v>
+        <v>1.243</v>
       </c>
       <c r="N63" t="n">
-        <v>3333.429</v>
+        <v>3647.429</v>
       </c>
       <c r="O63" t="n">
-        <v>1.157</v>
+        <v>1.266</v>
       </c>
       <c r="P63" t="s">
         <v>416</v>
@@ -5765,7 +5777,7 @@
         <v>420</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D64" t="s">
         <v>421</v>
@@ -5777,31 +5789,31 @@
         <v>423</v>
       </c>
       <c r="G64" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H64" t="n">
-        <v>248056</v>
+        <v>269183</v>
       </c>
       <c r="I64" t="n">
-        <v>12.894</v>
+        <v>13.992</v>
       </c>
       <c r="J64" t="n">
-        <v>10776</v>
+        <v>6964</v>
       </c>
       <c r="K64" t="n">
-        <v>0.56</v>
+        <v>0.362</v>
       </c>
       <c r="L64" t="n">
-        <v>10305.667</v>
+        <v>7042.333</v>
       </c>
       <c r="M64" t="n">
-        <v>0.535</v>
+        <v>0.366</v>
       </c>
       <c r="N64" t="n">
-        <v>8216.571</v>
+        <v>9048.714</v>
       </c>
       <c r="O64" t="n">
-        <v>0.427</v>
+        <v>0.47</v>
       </c>
       <c r="P64" t="s">
         <v>422</v>
@@ -5824,7 +5836,7 @@
         <v>426</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D65" t="s">
         <v>427</v>
@@ -5834,31 +5846,31 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H65" t="n">
-        <v>5448463</v>
+        <v>5805404</v>
       </c>
       <c r="I65" t="n">
-        <v>37.335</v>
+        <v>39.781</v>
       </c>
       <c r="J65" t="n">
-        <v>226499</v>
+        <v>168641</v>
       </c>
       <c r="K65" t="n">
-        <v>1.552</v>
+        <v>1.156</v>
       </c>
       <c r="L65" t="n">
-        <v>215090.333</v>
+        <v>194480</v>
       </c>
       <c r="M65" t="n">
-        <v>1.474</v>
+        <v>1.333</v>
       </c>
       <c r="N65" t="n">
-        <v>192637.714</v>
+        <v>192149.571</v>
       </c>
       <c r="O65" t="n">
-        <v>1.32</v>
+        <v>1.317</v>
       </c>
       <c r="P65" t="s">
         <v>428</v>
@@ -5881,7 +5893,7 @@
         <v>432</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D66" t="s">
         <v>433</v>
@@ -5891,31 +5903,25 @@
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H66" t="n">
-        <v>41385</v>
+        <v>42805</v>
       </c>
       <c r="I66" t="n">
-        <v>3.195</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1198</v>
-      </c>
+        <v>3.305</v>
+      </c>
+      <c r="J66"/>
       <c r="K66" t="n">
-        <v>0.092</v>
-      </c>
-      <c r="L66" t="n">
-        <v>1356.667</v>
-      </c>
+        <v>0.029</v>
+      </c>
+      <c r="L66"/>
       <c r="M66" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="N66" t="n">
-        <v>1154.571</v>
-      </c>
+        <v>0.067</v>
+      </c>
+      <c r="N66"/>
       <c r="O66" t="n">
-        <v>0.089</v>
+        <v>0.085</v>
       </c>
       <c r="P66" t="s">
         <v>434</v>
@@ -5938,7 +5944,7 @@
         <v>438</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D67" t="s">
         <v>439</v>
@@ -5948,25 +5954,25 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H67" t="n">
-        <v>433500</v>
+        <v>482374</v>
       </c>
       <c r="I67" t="n">
-        <v>12.452</v>
+        <v>13.856</v>
       </c>
       <c r="J67" t="n">
-        <v>14778</v>
+        <v>15005</v>
       </c>
       <c r="K67" t="n">
-        <v>0.424</v>
+        <v>0.431</v>
       </c>
       <c r="L67" t="n">
-        <v>14613.667</v>
+        <v>16291.333</v>
       </c>
       <c r="M67" t="n">
-        <v>0.419</v>
+        <v>0.468</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
@@ -5991,7 +5997,7 @@
         <v>442</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D68" t="s">
         <v>443</v>
@@ -6003,31 +6009,31 @@
         <v>445</v>
       </c>
       <c r="G68" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H68" t="n">
-        <v>20217</v>
+        <v>23589</v>
       </c>
       <c r="I68" t="n">
-        <v>1.207</v>
+        <v>1.409</v>
       </c>
       <c r="J68" t="n">
-        <v>848</v>
+        <v>1099</v>
       </c>
       <c r="K68" t="n">
-        <v>0.051</v>
+        <v>0.066</v>
       </c>
       <c r="L68" t="n">
-        <v>915.667</v>
+        <v>1124</v>
       </c>
       <c r="M68" t="n">
-        <v>0.055</v>
+        <v>0.067</v>
       </c>
       <c r="N68" t="n">
-        <v>892.571</v>
+        <v>1043</v>
       </c>
       <c r="O68" t="n">
-        <v>0.053</v>
+        <v>0.062</v>
       </c>
       <c r="P68" t="s">
         <v>446</v>
@@ -6050,7 +6056,7 @@
         <v>451</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D69" t="s">
         <v>452</v>
@@ -6062,31 +6068,31 @@
         <v>453</v>
       </c>
       <c r="G69" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H69" t="n">
-        <v>134533</v>
+        <v>151304</v>
       </c>
       <c r="I69" t="n">
-        <v>19.771</v>
+        <v>22.236</v>
       </c>
       <c r="J69" t="n">
-        <v>5728</v>
+        <v>5700</v>
       </c>
       <c r="K69" t="n">
-        <v>0.842</v>
+        <v>0.838</v>
       </c>
       <c r="L69" t="n">
-        <v>5686.333</v>
+        <v>5590.333</v>
       </c>
       <c r="M69" t="n">
-        <v>0.836</v>
+        <v>0.822</v>
       </c>
       <c r="N69" t="n">
-        <v>5413.714</v>
+        <v>5718</v>
       </c>
       <c r="O69" t="n">
-        <v>0.796</v>
+        <v>0.84</v>
       </c>
       <c r="P69" t="s">
         <v>43</v>
@@ -6199,7 +6205,7 @@
         <v>465</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D72" t="s">
         <v>466</v>
@@ -6209,25 +6215,31 @@
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H72" t="n">
-        <v>119859</v>
+        <v>122708</v>
       </c>
       <c r="I72" t="n">
-        <v>21.954</v>
-      </c>
-      <c r="J72"/>
+        <v>22.475</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2063</v>
+      </c>
       <c r="K72" t="n">
-        <v>0.273</v>
-      </c>
-      <c r="L72"/>
+        <v>0.378</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1445.667</v>
+      </c>
       <c r="M72" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="N72"/>
+        <v>0.265</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3263.429</v>
+      </c>
       <c r="O72" t="n">
-        <v>0.619</v>
+        <v>0.598</v>
       </c>
       <c r="P72" t="s">
         <v>468</v>
@@ -6250,7 +6262,7 @@
         <v>473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D73" t="s">
         <v>474</v>
@@ -6260,31 +6272,31 @@
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H73" t="n">
-        <v>62828</v>
+        <v>64547</v>
       </c>
       <c r="I73" t="n">
-        <v>30.221</v>
+        <v>31.048</v>
       </c>
       <c r="J73" t="n">
-        <v>625</v>
+        <v>1182</v>
       </c>
       <c r="K73" t="n">
-        <v>0.301</v>
+        <v>0.569</v>
       </c>
       <c r="L73" t="n">
-        <v>950</v>
+        <v>781.333</v>
       </c>
       <c r="M73" t="n">
-        <v>0.457</v>
+        <v>0.376</v>
       </c>
       <c r="N73" t="n">
-        <v>1044</v>
+        <v>1010.429</v>
       </c>
       <c r="O73" t="n">
-        <v>0.502</v>
+        <v>0.486</v>
       </c>
       <c r="P73" t="s">
         <v>476</v>
@@ -6307,7 +6319,7 @@
         <v>480</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D74" t="s">
         <v>481</v>
@@ -6319,31 +6331,31 @@
         <v>483</v>
       </c>
       <c r="G74" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H74" t="n">
-        <v>324079</v>
+        <v>369697</v>
       </c>
       <c r="I74" t="n">
-        <v>5.464</v>
+        <v>6.233</v>
       </c>
       <c r="J74" t="n">
-        <v>16327</v>
+        <v>13630</v>
       </c>
       <c r="K74" t="n">
-        <v>0.275</v>
+        <v>0.23</v>
       </c>
       <c r="L74" t="n">
-        <v>14900</v>
+        <v>15206</v>
       </c>
       <c r="M74" t="n">
-        <v>0.251</v>
+        <v>0.256</v>
       </c>
       <c r="N74" t="n">
-        <v>13341.857</v>
+        <v>14519</v>
       </c>
       <c r="O74" t="n">
-        <v>0.225</v>
+        <v>0.245</v>
       </c>
       <c r="P74" t="s">
         <v>482</v>
@@ -6366,7 +6378,7 @@
         <v>487</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D75" t="s">
         <v>488</v>
@@ -6376,31 +6388,31 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H75" t="n">
-        <v>663886</v>
+        <v>680890</v>
       </c>
       <c r="I75" t="n">
-        <v>12.949</v>
+        <v>13.281</v>
       </c>
       <c r="J75" t="n">
-        <v>3856</v>
+        <v>12398</v>
       </c>
       <c r="K75" t="n">
-        <v>0.075</v>
+        <v>0.242</v>
       </c>
       <c r="L75" t="n">
-        <v>4832.667</v>
+        <v>6953.333</v>
       </c>
       <c r="M75" t="n">
-        <v>0.094</v>
+        <v>0.136</v>
       </c>
       <c r="N75" t="n">
-        <v>4701.857</v>
+        <v>5807.571</v>
       </c>
       <c r="O75" t="n">
-        <v>0.092</v>
+        <v>0.113</v>
       </c>
       <c r="P75" t="s">
         <v>489</v>
@@ -6470,7 +6482,7 @@
         <v>501</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>43954</v>
+        <v>43961</v>
       </c>
       <c r="D77" t="s">
         <v>502</v>
@@ -6480,13 +6492,13 @@
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H77" t="n">
-        <v>148500</v>
+        <v>177500</v>
       </c>
       <c r="I77" t="n">
-        <v>14.704</v>
+        <v>17.576</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
@@ -6515,7 +6527,7 @@
         <v>506</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D78" t="s">
         <v>507</v>
@@ -6525,25 +6537,31 @@
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H78" t="n">
-        <v>309595</v>
+        <v>316851</v>
       </c>
       <c r="I78" t="n">
-        <v>35.772</v>
-      </c>
-      <c r="J78"/>
+        <v>36.611</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2501</v>
+      </c>
       <c r="K78" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="L78"/>
+        <v>0.289</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2350.333</v>
+      </c>
       <c r="M78" t="n">
-        <v>0.336</v>
-      </c>
-      <c r="N78"/>
+        <v>0.272</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3884.143</v>
+      </c>
       <c r="O78" t="n">
-        <v>0.434</v>
+        <v>0.449</v>
       </c>
       <c r="P78" t="s">
         <v>508</v>
@@ -6566,7 +6584,7 @@
         <v>512</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D79" t="s">
         <v>513</v>
@@ -6576,31 +6594,31 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H79" t="n">
-        <v>67133</v>
+        <v>67758</v>
       </c>
       <c r="I79" t="n">
-        <v>2.819</v>
+        <v>2.845</v>
       </c>
       <c r="J79" t="n">
-        <v>272</v>
+        <v>358</v>
       </c>
       <c r="K79" t="n">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="L79" t="n">
-        <v>362.333</v>
+        <v>299</v>
       </c>
       <c r="M79" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="N79" t="n">
-        <v>434.143</v>
+        <v>400</v>
       </c>
       <c r="O79" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="P79" t="s">
         <v>514</v>
@@ -6623,7 +6641,7 @@
         <v>519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="D80" t="s">
         <v>520</v>
@@ -6633,25 +6651,31 @@
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H80" t="n">
-        <v>97177</v>
+        <v>103858</v>
       </c>
       <c r="I80" t="n">
-        <v>1.392</v>
-      </c>
-      <c r="J80"/>
+        <v>1.488</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3454</v>
+      </c>
       <c r="K80" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="L80"/>
+        <v>0.049</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3404.667</v>
+      </c>
       <c r="M80" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="N80"/>
+        <v>0.049</v>
+      </c>
+      <c r="N80" t="n">
+        <v>3584.286</v>
+      </c>
       <c r="O80" t="n">
-        <v>0.045</v>
+        <v>0.051</v>
       </c>
       <c r="P80" t="s">
         <v>522</v>
@@ -6674,7 +6698,7 @@
         <v>526</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>43958</v>
+        <v>43961</v>
       </c>
       <c r="D81" t="s">
         <v>527</v>
@@ -6684,18 +6708,22 @@
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H81" t="n">
-        <v>27420</v>
+        <v>33266</v>
       </c>
       <c r="I81" t="n">
-        <v>2.32</v>
+        <v>2.815</v>
       </c>
       <c r="J81"/>
-      <c r="K81"/>
+      <c r="K81" t="n">
+        <v>0.038</v>
+      </c>
       <c r="L81"/>
-      <c r="M81"/>
+      <c r="M81" t="n">
+        <v>0.165</v>
+      </c>
       <c r="N81"/>
       <c r="O81"/>
       <c r="P81" t="s">
@@ -6719,7 +6747,7 @@
         <v>533</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D82" t="s">
         <v>534</v>
@@ -6729,28 +6757,32 @@
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H82" t="n">
-        <v>1334411</v>
+        <v>1440671</v>
       </c>
       <c r="I82" t="n">
-        <v>15.822</v>
+        <v>17.082</v>
       </c>
       <c r="J82" t="n">
-        <v>35605</v>
+        <v>37351</v>
       </c>
       <c r="K82" t="n">
-        <v>0.422</v>
+        <v>0.443</v>
       </c>
       <c r="L82" t="n">
-        <v>33229</v>
+        <v>35420</v>
       </c>
       <c r="M82" t="n">
-        <v>0.394</v>
-      </c>
-      <c r="N82"/>
-      <c r="O82"/>
+        <v>0.42</v>
+      </c>
+      <c r="N82" t="n">
+        <v>33750</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0.4</v>
+      </c>
       <c r="P82" t="s">
         <v>535</v>
       </c>
@@ -6772,7 +6804,7 @@
         <v>540</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="D83" t="s">
         <v>541</v>
@@ -6784,31 +6816,31 @@
         <v>543</v>
       </c>
       <c r="G83" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H83" t="n">
-        <v>55203</v>
+        <v>62461</v>
       </c>
       <c r="I83" t="n">
-        <v>1.207</v>
+        <v>1.366</v>
       </c>
       <c r="J83" t="n">
-        <v>3161</v>
+        <v>2854</v>
       </c>
       <c r="K83" t="n">
-        <v>0.069</v>
+        <v>0.062</v>
       </c>
       <c r="L83" t="n">
-        <v>3493</v>
+        <v>2419.333</v>
       </c>
       <c r="M83" t="n">
-        <v>0.076</v>
+        <v>0.053</v>
       </c>
       <c r="N83" t="n">
-        <v>2967.286</v>
+        <v>2909.857</v>
       </c>
       <c r="O83" t="n">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
       <c r="P83" t="s">
         <v>542</v>
@@ -6831,7 +6863,7 @@
         <v>547</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>43961</v>
+        <v>43963</v>
       </c>
       <c r="D84" t="s">
         <v>548</v>
@@ -6841,31 +6873,31 @@
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H84" t="n">
-        <v>176403</v>
+        <v>187307</v>
       </c>
       <c r="I84" t="n">
-        <v>4.034</v>
+        <v>4.283</v>
       </c>
       <c r="J84" t="n">
-        <v>9296</v>
+        <v>5755</v>
       </c>
       <c r="K84" t="n">
-        <v>0.213</v>
+        <v>0.132</v>
       </c>
       <c r="L84" t="n">
-        <v>8278</v>
+        <v>6733.333</v>
       </c>
       <c r="M84" t="n">
-        <v>0.189</v>
+        <v>0.154</v>
       </c>
       <c r="N84" t="n">
-        <v>6668.571</v>
+        <v>6792.571</v>
       </c>
       <c r="O84" t="n">
-        <v>0.152</v>
+        <v>0.155</v>
       </c>
       <c r="P84" t="s">
         <v>549</v>
@@ -6888,7 +6920,7 @@
         <v>554</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D85" t="s">
         <v>555</v>
@@ -6898,31 +6930,31 @@
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H85" t="n">
-        <v>1270408</v>
+        <v>1460517</v>
       </c>
       <c r="I85" t="n">
-        <v>18.714</v>
+        <v>21.514</v>
       </c>
       <c r="J85" t="n">
-        <v>63339</v>
+        <v>60410</v>
       </c>
       <c r="K85" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L85" t="n">
+        <v>63369.667</v>
+      </c>
+      <c r="M85" t="n">
         <v>0.933</v>
       </c>
-      <c r="L85" t="n">
-        <v>65291.333</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.962</v>
-      </c>
       <c r="N85" t="n">
-        <v>63153.143</v>
+        <v>63284.143</v>
       </c>
       <c r="O85" t="n">
-        <v>0.93</v>
+        <v>0.932</v>
       </c>
       <c r="P85" t="s">
         <v>556</v>
@@ -6945,7 +6977,7 @@
         <v>559</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>43960</v>
+        <v>43963</v>
       </c>
       <c r="D86" t="s">
         <v>560</v>
@@ -6955,31 +6987,31 @@
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H86" t="n">
-        <v>1728443</v>
+        <v>2007146</v>
       </c>
       <c r="I86" t="n">
-        <v>25.461</v>
+        <v>29.566</v>
       </c>
       <c r="J86" t="n">
-        <v>96878</v>
+        <v>85293</v>
       </c>
       <c r="K86" t="n">
-        <v>1.427</v>
+        <v>1.256</v>
       </c>
       <c r="L86" t="n">
-        <v>93496.667</v>
+        <v>92873.333</v>
       </c>
       <c r="M86" t="n">
-        <v>1.377</v>
+        <v>1.368</v>
       </c>
       <c r="N86" t="n">
-        <v>85205.857</v>
+        <v>89796.143</v>
       </c>
       <c r="O86" t="n">
-        <v>1.255</v>
+        <v>1.323</v>
       </c>
       <c r="P86" t="s">
         <v>556</v>
@@ -7002,7 +7034,7 @@
         <v>564</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>43960</v>
+        <v>43962</v>
       </c>
       <c r="D87" t="s">
         <v>565</v>
@@ -7012,31 +7044,31 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H87" t="n">
-        <v>8709630</v>
+        <v>9348458</v>
       </c>
       <c r="I87" t="n">
-        <v>26.313</v>
+        <v>28.243</v>
       </c>
       <c r="J87" t="n">
-        <v>300842</v>
+        <v>388296</v>
       </c>
       <c r="K87" t="n">
-        <v>0.909</v>
+        <v>1.173</v>
       </c>
       <c r="L87" t="n">
-        <v>307612.333</v>
+        <v>319484</v>
       </c>
       <c r="M87" t="n">
-        <v>0.929</v>
+        <v>0.965</v>
       </c>
       <c r="N87" t="n">
-        <v>272055.571</v>
+        <v>294726.286</v>
       </c>
       <c r="O87" t="n">
-        <v>0.822</v>
+        <v>0.891</v>
       </c>
       <c r="P87" t="s">
         <v>566</v>
@@ -7059,7 +7091,7 @@
         <v>570</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>43952</v>
+        <v>43962</v>
       </c>
       <c r="D88" t="s">
         <v>571</v>
@@ -7069,31 +7101,25 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H88" t="n">
-        <v>695283</v>
+        <v>824957</v>
       </c>
       <c r="I88" t="n">
-        <v>2.101</v>
-      </c>
-      <c r="J88" t="n">
-        <v>23633</v>
-      </c>
+        <v>2.492</v>
+      </c>
+      <c r="J88"/>
       <c r="K88" t="n">
-        <v>0.071</v>
-      </c>
-      <c r="L88" t="n">
-        <v>24423.333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L88"/>
       <c r="M88" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="N88" t="n">
-        <v>21015.714</v>
-      </c>
+        <v>0.004</v>
+      </c>
+      <c r="N88"/>
       <c r="O88" t="n">
-        <v>0.063</v>
+        <v>0.036</v>
       </c>
       <c r="P88" t="s">
         <v>573</v>
@@ -7116,7 +7142,7 @@
         <v>578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="D89" t="s">
         <v>579</v>
@@ -7126,31 +7152,31 @@
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H89" t="n">
-        <v>27461</v>
+        <v>28697</v>
       </c>
       <c r="I89" t="n">
-        <v>7.905</v>
+        <v>8.261</v>
       </c>
       <c r="J89" t="n">
-        <v>623</v>
+        <v>1236</v>
       </c>
       <c r="K89" t="n">
-        <v>0.179</v>
+        <v>0.356</v>
       </c>
       <c r="L89" t="n">
-        <v>935</v>
+        <v>999.667</v>
       </c>
       <c r="M89" t="n">
-        <v>0.269</v>
+        <v>0.288</v>
       </c>
       <c r="N89" t="n">
-        <v>899.571</v>
+        <v>965.429</v>
       </c>
       <c r="O89" t="n">
-        <v>0.259</v>
+        <v>0.278</v>
       </c>
       <c r="P89" t="s">
         <v>126</v>
@@ -7218,7 +7244,7 @@
         <v>590</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="D91" t="s">
         <v>591</v>
@@ -7228,22 +7254,26 @@
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H91" t="n">
-        <v>8741</v>
+        <v>10598</v>
       </c>
       <c r="I91" t="n">
-        <v>0.588</v>
+        <v>0.713</v>
       </c>
       <c r="J91" t="n">
-        <v>600</v>
+        <v>726</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L91"/>
-      <c r="M91"/>
+        <v>0.049</v>
+      </c>
+      <c r="L91" t="n">
+        <v>619</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.042</v>
+      </c>
       <c r="N91"/>
       <c r="O91"/>
       <c r="P91" t="s">

--- a/testing/covid-testing-latest-data-source-details.xlsx
+++ b/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="610">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -47,16 +47,10 @@
     <t xml:space="preserve">Daily change in cumulative total per thousand</t>
   </si>
   <si>
-    <t xml:space="preserve">3-day rolling mean daily change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-day rolling mean daily change per thousand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-day rolling mean daily change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-day rolling mean daily change per thousand</t>
+    <t xml:space="preserve">7-day smoothed daily change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-day smoothed daily change per thousand</t>
   </si>
   <si>
     <t xml:space="preserve">General source label</t>
@@ -77,7 +71,7 @@
     <t xml:space="preserve">Argentina - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/12-05-20-reporte-matutino-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/20-05-20_reporte-matutino-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Argentina</t>
@@ -98,7 +92,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-12-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-20-may-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -118,7 +112,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512173912/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520181646/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -145,7 +139,7 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512173915/https://www.moh.gov.bh/COVID19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520201058/https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health</t>
@@ -193,7 +187,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-vyzdoroveli-i-vypisany-6-tys-974-patsienta/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-20-maya-vypisany-11-tys-415-patsientov/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -236,7 +230,7 @@
     <t xml:space="preserve">BOL</t>
   </si>
   <si>
-    <t xml:space="preserve">Bolivia - cases tested</t>
+    <t xml:space="preserve">Bolivia - people tested</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/mauforonda/covid19-bolivia/blob/master/data.json</t>
@@ -273,7 +267,9 @@
     <t xml:space="preserve">https://www.saude.gov.br/noticias/agencia-saude</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Health press releases published on its website intermittently include figures for the number of tests carried out for a range of respiratory infections, further specifying the figures carried out for the 'specific investigation of COVID-19'. The releases note that 'Tests for coronavirus began to be carried out from February 16 in public and private laboratories'.</t>
+    <t xml:space="preserve">The Ministry of Health press releases published on its website intermittently include figures for the number of tests carried out for a range of respiratory infections, further specifying the figures carried out for the 'specific investigation of COVID-19'. The releases note that 'Tests for coronavirus began to be carried out from February 16 in public and private laboratories'.
+More recently, the Ministry of Health has begun reporting figures for the number of PCR and 'rapid tests' on a dashboard on its [Panel of beds and inputs](https://covid-insumos.saude.gov.br/paineis/insumos/painel.php) webpage. However we do not include these figures because they appear to relate to the number of tests distributed, rather than the number of tests performed. This is not made clear from the dashboard itself. However, the figures observed at this dashboard on 11 May correspond to those provided in a Ministry of Health press release on [12 May](https://www.saude.gov.br/noticias/agencia-saude/46868-ministerio-da-saude-ja-distribuiu-6-9-milhoes-de-testes-para-covid-19) which explicitly describes the figure as referring to the number of tests distributed.
+The last press release that we have been able to find a clear estimate for the number of tests performed was made on [22 April](https://www.saude.gov.br/noticias/agencia-saude/46768-chega-ao-pais-mais-500-mil-testes-de-biologia-molecular) (the figures relate to 20 April). No such figures have been found in subsequent press releases.</t>
   </si>
   <si>
     <t xml:space="preserve">BGR</t>
@@ -282,7 +278,7 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191641/https://coronavirus.bg/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520181654/https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
@@ -305,7 +301,7 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191644/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520181655/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -393,7 +389,7 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191650/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520181701/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Croatia</t>
@@ -453,34 +449,36 @@
     <t xml:space="preserve">Denmark - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/COVID19-overvaagningsrapport-12052020-2-8ft5</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200520152818/https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
   </si>
   <si>
-    <t xml:space="preserve">Cumulative total begins from 27 Jan</t>
+    <t xml:space="preserve">The Statens Serum Institut no longer publishes daily epidemiological monitoring reports in pdf format.</t>
   </si>
   <si>
     <t xml:space="preserve">Danish Health Authority</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus/covid-19-i-danmark-epidemiologisk-overvaagningsrapport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Danish Statum Serum Institute provides epidemiological update reports on confirmed cases, deaths, testing and demographic details of each.
-It provides daily statistics on the number of people tested for COVID-19, and the number and share of people that tested positive.
-The most recent epidemiological status reports provides the daily data for the previous two weeks with a cumulative figure from 13 Jan given prior to that. We construct a longer time series by referring to earlier versions of this table, accessed via web archive.
-The daily data for earlier dates can also be seen in a chart that the Institute show in their [monitoring reports page](https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus/covid-19-i-danmark-epidemiologisk-overvaagningsrapport).</t>
+    <t xml:space="preserve">https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Danish Statum Serum Institute provides epidemiological update reports on confirmed cases, deaths, testing and demographic details of each up until 19th May. From 20 May, the Danish Statum Serum Institute reports testing figures via the [Monitoring of COVID-19 page](https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning).
+It provides daily statistics on the number of people tested for COVID-19 and the number of samples tested. 
+The most recent epidemiological status reports provided the daily data for the previous two weeks. We construct a longer time series by referring to earlier versions of this table, accessed via web archive. Note the cumulative total start date differs at various points in the time series. From 17/03-03/04 the cumulative total begins from 27 Jan; 04/04-20/04 from 7 Jan; and 21/04-today from 13 Jan. 
+The daily data for earlier dates can also be seen in a chart that the Institute show in their [monitoring reports page](https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus/covid-19-i-danmark-epidemiologisk-overvaagningsrapport). From 15 May, the Danish Statum Serum Institute provides figures on both people and samples tested.
+There is no explicit mention of whether the figures include only PCR tests or other kinds of test.
+Google Translate was used while compiling this data so this may affect our interpretation of the data.</t>
   </si>
   <si>
     <t xml:space="preserve">ECU</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecuador - samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-04052020-08h00.pdf</t>
+    <t xml:space="preserve">Ecuador - units unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-19052020-08h00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -490,11 +488,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/informes-de-situacion-covid-19-desde-el-13-de-marzo-del-2020/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units unclear.</t>
   </si>
   <si>
     <t xml:space="preserve">The Government of Ecuador publish daily updates in the form of situation reports and summary infographics. These report the number and status of confirmed cases, deaths and number of samples tested. This data is available daily from 18th March; reports and infographics prior to this date do not include the number of samples tested. But all figures are dated cumulative since 29th February.
 The source reports the number of confirmed ('confirmados') and negative ('descartados') cases, which we sum to get the number of cases tested.
-On 24 April 2020, the number of tests suddenly jumped from 23,383 to 45,857, because of what we assume to be the inclusion of rapid tests ("pruebas rápidas"), as made clear by the subsequent infographic published on 27 April. We therefore do not include the 24 April infographic in our time series; and from 27 April onwards, we include only PCR tests.</t>
+On 24 April 2020, the number of tests suddenly jumped from 23,383 to 45,857, because of what we assume to be the inclusion of rapid tests ("pruebas rápidas"), as made clear by the subsequent infographic published on 27 April. We therefore do not include the 24 April infographic in our time series; and from 27 April onwards, we include only PCR tests.
+On 11 May 2020, the Government of Ecuador published a [report](https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/BP-VARIACIONES-INFOGRAFIA-No.-074-11052020.pdf) detailing "a reclassification of the records by identity card of the persons and not by the number of tests that have been carried out" (via google translate). This suggests the government is moving towards reporting figures on the number of people tested, where previously they reported the number of cases tested. The reclassification partially explains the fall in the cumulative total after 4 May 2020.</t>
   </si>
   <si>
     <t xml:space="preserve">SLV</t>
@@ -503,16 +505,17 @@
     <t xml:space="preserve">El Salvador - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.facebook.com/nayibbukele/posts/2910958428990329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of El Salvador</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://covid19.gob.sv/</t>
   </si>
   <si>
-    <t xml:space="preserve">Government of El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updated at 11:38pm local time on 2020-05-11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The government of El Salvador publishes an online dashboard with figures and graphs about the epidemic, including the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.</t>
+    <t xml:space="preserve">The government of El Salvador publishes an online dashboard that reports the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.
+The official dashboard only provides a daily snapshot of the number of tests performed today, making it difficult to construct a historical time series. We construct a daily time series dating back to April 10th 2020 of the cumulative number of tests performed using data posted on President Nayib Bukele's [official Facebook page](https://www.facebook.com/nayibbukele), which match the daily snapshot figures reported in the official dashboard.</t>
   </si>
   <si>
     <t xml:space="preserve">EST</t>
@@ -546,7 +549,7 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/confirmed-case-Press-release-May-12--ENG-V1.pdf</t>
+    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-20-Eng-V2.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopian Public Health Institute</t>
@@ -602,7 +605,7 @@
     <t xml:space="preserve">https://www.santepubliquefrance.fr/recherche/#search=COVID-19%20:%20point%20epidemiologique&amp;sort=dat</t>
   </si>
   <si>
-    <t xml:space="preserve">The source publishes epidemiological updates at irregular intervals. The latest update, as of 24th April, was published on the 23rd April. The updates include a figure for the number of tests performed (‘Nombre de tests réalisés’). A breakdown into positive and negative results are given, along with a positive test rate.
+    <t xml:space="preserve">The source publishes epidemiological updates at irregular intervals. The latest update with testing figures, as of 16th May, was published on the 7th May. The updates include a figure for the number of tests performed (‘Nombre de tests réalisés’). A breakdown into positive and negative results are given, along with a positive test rate. The most recent epidemiological report, dated 14th May, does not provide the number of laboratory and hospital tests performed.
 The figures in the time series relate to tests performed since 24 February. Since the 24 March update, in addition to the previously reported hospital tests, laboratory tests are also reported. Only the total number of laboratory tests performed between 24 February and 24 March is presented, without a time series. Our figure for 24 March adds the cumulative number of laboratory tests since 24 February (6,500) to the hospital tests figure (101,046). As such 24 March represents a break in the series.</t>
   </si>
   <si>
@@ -612,13 +615,13 @@
     <t xml:space="preserve">Germany - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-05-06-de.pdf?__blob=publicationFile</t>
+    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-05-13-de.pdf?__blob=publicationFile</t>
   </si>
   <si>
     <t xml:space="preserve">Robert Koch Institut</t>
   </si>
   <si>
-    <t xml:space="preserve">Subtracting weekly changes from cumulative total of samples tested. When the test numbers for week 17 were collected, more tests (467,137) and positive tests (25,222) were originally accidentally counted (management report dated April 29, 2020). The numbers were corrected on 4.5.2020</t>
+    <t xml:space="preserve">Subtracting weekly changes from cumulative total of samples tested.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.rki.de/SiteGlobals/Forms/Suche/serviceSucheForm.html?nn=2725444&amp;input_=2375194&amp;gts=2725442_list%253DdateOfIssue_dt%252Bdesc&amp;resourceId=2390936&amp;submit.x=0&amp;submit.y=0&amp;searchEngineQueryString=T%C3%A4glicher+Lagebericht+des+RKI+zur+Coronavirus-Krankheit-2019&amp;pageLocale=de</t>
@@ -628,14 +631,17 @@
   </si>
   <si>
     <t xml:space="preserve">To determine how many laboratory tests regarding SARS-CoV-2 are carried out per calendar week in Germany and how many tests are positive or negative, the RKI has started a Germany-wide laboratory query. However, the number of laboratories reporting data seems to vary from week to week.
-The report published on 22 April states that “from the beginning of the collection up to and including calendar week 16/2020”:
-– The cumulative total of samples tested was 2,072,669;
-- For calendar week 16 (which ends on 19 April), 161 labs reported 323,449 samples tested;
-- For calendar week 15 (which ends on 12 April), 160 labs reported 378,881 samples tested;
-– For calendar week 14 (which ends on 5 April), 152 labs reported 408,173 samples tested;
-– For calendar week 13 (which ends on 29 March), 150 labs reported 361,374 samples tested;
-– For calendar week 12 (which ends on 22 March), 152 labs reported 348619 samples tested;
-– For calendar week 11 (which ends on 15 March), 114 labs reported 127457 samples tested.
+The report published on 13 May states that “from the beginning of the collection up to and including calendar week 19/2020”:
+– The cumulative total of samples tested was 3,147,771;
+- For calendar week 19 (which ends 10 May), 173 labs reported 382,154 samples tested;
+- For calendar week 18 (which ends on 3 May), 174 labs reported 325,259 samples tested;
+- For calendar week 17 (which ends on 26 April), 176 labs reported 360,443 samples tested;
+- For calendar week 16 (which ends on 19 April), 167 labs reported 330,027 samples tested;
+- For calendar week 15 (which ends on 12 April), 163 labs reported 379,233 samples tested;
+– For calendar week 14 (which ends on 5 April), 154 labs reported 408,348 samples tested;
+– For calendar week 13 (which ends on 29 March), 151 labs reported 361,515 samples tested;
+– For calendar week 12 (which ends on 22 March), 152 labs reported 348,619 samples tested;
+– For calendar week 11 (which ends on 15 March), 114 labs reported 127,457 samples tested.
 – Up to and including calendar week 10 (which ends on 8 March), 90 labs reported 124,716 samples tested.
 By subtracting each weekly change from the cumulative total, we retrospectively work out the cumulative totals by the end of each week.
 Since laboratories can post-check the tests of past calendar weeks in the RKI test number query, previous figures may be revised upwards slightly in subsequent reports. The source is explicit that these figures refer to tests performed and that this will not equal the number of people tested, because of multiple tests per person.</t>
@@ -644,7 +650,7 @@
     <t xml:space="preserve">GHA</t>
   </si>
   <si>
-    <t xml:space="preserve">Ghana - units unclear</t>
+    <t xml:space="preserve">Ghana - people tested</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ghanahealthservice.org/covid19/archive.php</t>
@@ -653,6 +659,9 @@
     <t xml:space="preserve">Outbreak Response Management Situation Update</t>
   </si>
   <si>
+    <t xml:space="preserve">persons tested</t>
+  </si>
+  <si>
     <t xml:space="preserve">Outbreak Response Management</t>
   </si>
   <si>
@@ -662,10 +671,15 @@
     <t xml:space="preserve">The units are unclear. Some press releases mention "people tested", while others give figures for "samples tested".</t>
   </si>
   <si>
-    <t xml:space="preserve">Outbreak Response Management provides daily situation updates on the total number of people or total samples tested for the coronavirus.
-Using web archives, we reconstruct a time series. Situation updates report the total number of people tested from 28th March, then the total number of samples tested from 18th April. However, the figures given from one period to the other seem to line up correctly, thus we are not certain what the true units are.
-On 24th April, the daily situation update in text format was replaced with an interactive dashboard, still [at the same URL](https://www.ghanahealthservice.org/covid19/). As far we know, this dashboard no longer reports testing data. 
-We are aware of Ghana's [archived situation reports](https://www.ghanahealthservice.org/covid19/archive.php) which provides a breakdown of the total number of tests.</t>
+    <t xml:space="preserve">Outbreak Response Management provides [daily situation updates](https://www.ghanahealthservice.org/covid19/archive.php) on the total number of people *or* total samples tested for the coronavirus.
+Using web archives, we reconstruct a time series. From 17 March 2020 to 8 May 2020, situation updates sometimes reported the total number of people tested, and other times the total number of samples tested. We are not certain what the true units were during that period.
+From 10 May 2020, the total number of tests and total persons tested figures are reported separately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of tests</t>
   </si>
   <si>
     <t xml:space="preserve">GRC</t>
@@ -674,7 +688,7 @@
     <t xml:space="preserve">Greece - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200512/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200520/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -809,7 +823,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200512153002/http://irangov.ir/detail/339131</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200519130712/http://irangov.ir/detail/339563</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -828,7 +842,7 @@
     <t xml:space="preserve">Ireland - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gov.ie/en/press-release/bc6c86-statement-from-the-national-public-health-emergency-team-tuesday-12-/</t>
+    <t xml:space="preserve">https://www.gov.ie/en/press-release/41d42e-statement-from-the-national-public-health-emergency-team-tuesday-19-/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gov.ie/en/publications/?&amp;type=press-releases&amp;organisation=department-of-health</t>
@@ -908,35 +922,39 @@
     <t xml:space="preserve">Japan - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/reustle/covid19japan-data</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_11417.html</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Labor and Welfare Press Release</t>
   </si>
   <si>
-    <t xml:space="preserve">Made available by Shane Reustle on Github</t>
+    <t xml:space="preserve">See Table: 国内の発生状況, column 1 '検査実施人数'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health, Labor and Welfare</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.mhlw.go.jp/stf/houdou/houdou_list_202004.html</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Health, Labor and Welfare issues daily reports for the total number of people tested. These are collated by a volunteer group on [GitHub](https://github.com/reustle/covid19japan-data/). We take our figures from this group, and regularly audit it for accuracy. Daily changes in the number of people tested are included in parentheses. For the 3rd April, the daily changes do not reconcile with the cumulative totals. Moreover, it is clear that revisions to past data are simply added to the new cumulative total, making the time series of 'daily tests' too erratic to be published.
+    <t xml:space="preserve">The Ministry of Health, Labor and Welfare issues daily reports for the total number of people tested. Daily changes in the number of people tested are included in parentheses. For the 3rd and 21st April, the daily changes do not reconcile with the cumulative totals. Moreover, it is clear that revisions to past data are simply added to the new cumulative total, making the time series of 'daily tests' too erratic to be published.
 This includes two cases where the cumulative number of people tested falls: (1) 19/03 and (2) 25/03. For case (1) see footnote 4 which indicates a past mistake has been noticed and the cumulative figure revised on the date to adjust for this. For case (2), we could not find the associated footnote.
 It isn't clear what exact date these cumulative tests date back to, but it is earlier than 10 Feb when the source reports 938 people had been tested. Prior to the 10 Feb, the press releases provide reports of coronavirus infections for the Diamond Princess cruise ship quarantined in Yokohama port. We do not report these numbers in the time series as it is unclear how they relate to the cumulative totals.
-Google Translate was used while compiling this data so this may affect our interpretation of the data.</t>
+Google translate was used while compiling this data so this may affect our interpretation of the data.</t>
   </si>
   <si>
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000629555.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation status of PCR tests for new coronavirus in Japan (based on the date on which the results were determined). Preliminary data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On 11th April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the date on which results were determined" (via Google translate). These are collated by a volunteer group on [GitHub](https://github.com/reustle/covid19japan-data/). We take our figures from this group, and regularly audit it for accuracy.
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000632206.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cumulative total reported in the press release (409,667) does not sum to the cumulative total calculated from the weekly and daily figures reported by the MOH.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On 11th April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the date on which results were determined" (via Google translate). 
 With each update, some daily totals are revised from earlier releases of the time series. 
+From 20th May, the MOH changed how it reports the number of tests performed. From 18th February to 25th March (as of 20/05/2020), the MOH reports the number of tests implemented each week, and the daily totals thereafter. We calculate the cumulative total from the weekly and daily figures. The cumulative total reported in the press release (409,667) does not sum to the cumulative total calculated from the weekly and daily figures. The source does not provide additional details about this discrepancy.
 Google translate was used while compiling this data so this may affect our interpretation of the data.</t>
   </si>
   <si>
@@ -963,7 +981,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1260187015213187073</t>
+    <t xml:space="preserve">https://www.health.go.ke/wp-content/uploads/2020/05/CamScanner-05-20-2020-15.32.51.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -1004,7 +1022,7 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191746/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520181946/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
@@ -1020,7 +1038,7 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191747/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520181951/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1038,10 +1056,10 @@
     <t xml:space="preserve">MYS</t>
   </si>
   <si>
-    <t xml:space="preserve">Malaysia - cases tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200511162631/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">Malaysia - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200520182204/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1058,10 +1076,34 @@
 In a previous version of this page, we reported total tests as the sum of positive, negative, and pending tests. However, since April 7th 2020, the source has not reported the number of pending tests each day. For this reason, we have updated the time series so that total tests is equal to the sum of positive and negative tests (excluding pending tests) for all days on which we report data.</t>
   </si>
   <si>
+    <t xml:space="preserve">MDV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/561317043971945/videos/717317629028998/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives Ministry of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numbers visible in video at time: 1:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives Ministry of Health Official Facebook page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/MinistryOfHealthMV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Maldives Ministry of Health posts almost-daily video updates (there are some missing days) to their official Facebook page. Toward the end of these videos they report "Laboratory Sample" numbers for positive, negative, pending, and total. The positive, negative, and total numbers are cumulative, while the pending numbers are current as of that day. We report here the total of positive and negative numbers rather than the reported total numbers, as those inconsistently include pending values and occasionally contain discrepant numbers that do not match any combination of the positive, negative, or pending numbers. It is not clear when testing first began; data is only available from 16th March where it was reported that 221 tests had been conducted.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEX</t>
   </si>
   <si>
-    <t xml:space="preserve">Mexico - cases tested</t>
+    <t xml:space="preserve">Mexico - people tested</t>
   </si>
   <si>
     <t xml:space="preserve">https://datos.gob.mx/busca/dataset/informacion-referente-a-casos-covid-19-en-mexico</t>
@@ -1094,10 +1136,8 @@
     <t xml:space="preserve">https://www.sante.gov.ma/Pages/Accueil.aspx</t>
   </si>
   <si>
-    <t xml:space="preserve">The Morocco Ministry of Health provides daily updates of the total number of confirmed cases and the number of cases dismissed following a negative test result. We construct a time series of the cumulative number of cases tested to date using the data stored in [this unofficial GitHub repository](https://github.com/RedaElmar/COVID-19_Morocco). 
-The cumulative number of cases tested to date includes positive and negative test results, while excluding pending results. We have cross-checked a sample of the figures reported in the unofficial source against data reported on the Ministry of Health website.
-The earliest reported figure is from March 2nd 2020, at which point 29 cases had been tested. It is unclear whether March 2nd was the first date on which tests were conducted.
-Since 1 May 2020, the [government website dedicated to COVID-19](http://www.covidmaroc.ma/Pages/AccueilAR.aspx) has been down, making it impossible to update our time series.</t>
+    <t xml:space="preserve">The Morocco Ministry of Health provides daily updates of the total number of confirmed cases and the number of cases dismissed following a negative test result. We construct a time series of the cumulative number of cases tested to date using the data stored in [this unofficial GitHub repository](https://github.com/RedaElmar/COVID-19_Morocco), supplemented by official updates from the Ministry of Health's twitter page ([@Ministere_Sante](https://twitter.com/Ministere_Sante)). We have cross-checked a sample of the figures reported in the unofficial source against official data reported by the Ministry of Health.
+The cumulative number of cases tested to date includes positive and negative test results, while excluding pending results. The earliest reported figure is from February 7th 2020, at which point 9 cases had been tested.</t>
   </si>
   <si>
     <t xml:space="preserve">MMR</t>
@@ -1110,9 +1150,6 @@
   </si>
   <si>
     <t xml:space="preserve">Myanmar Ministry of Health and Sports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This figure is taken from the live dashboard and should be updated using the PDF Situation Report once it is available</t>
   </si>
   <si>
     <t xml:space="preserve">https://mohs.gov.mm/Home</t>
@@ -1151,10 +1188,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200512_1143.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 12 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200520_1022.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 20 May 2020 update</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1190,7 +1227,7 @@
     <t xml:space="preserve">Nigeria - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191905/https://covid19.ncdc.gov.ng/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520182800/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1210,7 +1247,7 @@
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.12-dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.20-dagsrapport-norge-covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1235,7 +1272,7 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191910/http://www.covid.gov.pk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520182803/http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Pakistan</t>
@@ -1301,7 +1338,7 @@
     <t xml:space="preserve">Peru - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/152809-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-72-059-en-el-peru-comunicado-n-98</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/159364-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-104-020-en-el-peru-comunicado-n-106</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1315,7 +1352,7 @@
   <si>
     <t xml:space="preserve">The Peruvian Ministry of Health provides daily press releases of the cumulative number of positive and negative test results to date, but it is unclear whether the numbers reported reflect "samples tested" or "people tested". Some press releases report testing data using the language "...samples have been processed for ___ people..." (e.g. "Al 08 de abril de 2020 se han procesado muestras para 39 599 personas"), while other press releases report testing data using the language "...___ samples have been processed..." (e.g. "Al 18 de marzo de 2020 se han procesado 3 075 muestras").
 The reference date for the cumulative number of tests is not mentioned in the press releases. The earliest press release we are able to find is for March 4th, 2020, which reported 107 cumulative test results since an unmentioned date.
-The sudden acceleration from 8 April 2020 onwards seems to be related to the addition of serology tests ("Pruebas serológicas rápidas").</t>
+The sudden acceleration from 8 April 2020 onwards seems to be related to the addition of serology tests ("Pruebas serológicas rápidas"). In order to provide the data that is most comparable to the other countries in our database, we only include PCR tests ("Pruebas moleculares").</t>
   </si>
   <si>
     <t xml:space="preserve">PHL</t>
@@ -1328,12 +1365,16 @@
   </si>
   <si>
     <t xml:space="preserve">Department of Health (DOH) Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total individuals tested does not sum to positive + negative + equivocal + invalid individuals, as in past figures of the series.</t>
   </si>
   <si>
     <t xml:space="preserve">The Ministry of Health (MOH) provides a daily snapshot of testing capacity detailing the total number of individuals tested and the total number of tests conducted. 
 The total number of individuals tested is the sum of positive, negative, equivocal, and invalid individuals. No definitions of equivocal and invalid individual tests are given, hence our figures only report the sum of individuals who have tested positive or negative.
 The source provides a breakdown of both i) the number of individuals tested and ii) the total tests conducted, by laboratory. We are not aware of any aggregation issues. 
-The DOH used to report the number of cases tested in a previous dashboard, but stopped on 4th April. This previous breakdown of the test results and COVID-19 dashboard have both been removed. We became aware of this new tracker on the 13th April with data 'as of April 11 2020, 12am'. No previous snapshots of the dashboard are available using web archive, therefore the series starts from the 11th April - the earliest date from which we have access to the data.</t>
+The DOH used to report the number of cases tested in a previous dashboard, but stopped on 4th April. This previous breakdown of the test results and COVID-19 dashboard have both been removed. We became aware of this new tracker on the 13th April with data 'as of April 11 2020, 12am'. No previous snapshots of the dashboard are available using web archive, therefore the series starts from the 11th April - the earliest date from which we have access to the data. 
+No newly submitted reports as of 19 May. Latest testing data available is from 15 May 2020.</t>
   </si>
   <si>
     <t xml:space="preserve">POL</t>
@@ -1342,7 +1383,7 @@
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.12.csv</t>
+    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.20.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1387,7 +1428,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191924/https://www.moph.gov.qa/english/Pages/Coronavirus2019.aspx</t>
+    <t xml:space="preserve">http://web.archive.org/web/20200520160417/https://covid19.moph.gov.qa/EN/Pages/default.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1425,7 +1466,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14429</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14493</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1445,7 +1486,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1259905287420608513</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1262821068852559872</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1467,6 +1508,9 @@
     <t xml:space="preserve">Saudi Arabia - units unclear</t>
   </si>
   <si>
+    <t xml:space="preserve">http://web.archive.org/web/20200520160733/https://covid19.moh.gov.sa/en/</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://covid19.moh.gov.sa/en/</t>
   </si>
   <si>
@@ -1527,7 +1571,7 @@
     <t xml:space="preserve">Singapore - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180155/https://www.moh.gov.sg/covid-19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520182818/https://www.moh.gov.sg/covid-19</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.moh.gov.sg/covid-19</t>
@@ -1540,7 +1584,7 @@
     <t xml:space="preserve">Singapore - swabs tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200506180157/https://www.moh.gov.sg/covid-19</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520182819/https://www.moh.gov.sg/covid-19</t>
   </si>
   <si>
     <t xml:space="preserve">The number of swabs tested.</t>
@@ -1552,7 +1596,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512191932/https://korona.gov.sk/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520182823/https://korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
@@ -1623,10 +1667,10 @@
     <t xml:space="preserve">KOR</t>
   </si>
   <si>
-    <t xml:space="preserve">South Korea - cases tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367200&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">South Korea - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367275&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1646,13 +1690,10 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas_07_05_2020.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas_14_05_2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponding press release: https://www.mscbs.gob.es/gabinete/notasPrensa.do?id=4910</t>
   </si>
   <si>
     <t xml:space="preserve">Ministerio de Sanidad, Consumo y Bienestar Social</t>
@@ -1712,7 +1753,7 @@
     <t xml:space="preserve">Taiwan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/jTbxMFGoCtXzAWcjhfQtaA?typeid=9</t>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/EhkjYaEtGkRUo_mQC0WhPQ?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1735,7 +1776,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200511162830/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200518182134/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1747,9 +1788,29 @@
     <t xml:space="preserve">https://ddc.moph.go.th/viralpneumonia/eng/situation.php</t>
   </si>
   <si>
-    <t xml:space="preserve">The Thailand Department of Disease Control issues daily situation reports which detail the status of confirmed cases, deaths and people being assessed.
-We provide the figures reported as 'persons under investigation' (PUI). PUI is the sum of confirmed cases, the number of people who tested negative, and the number of people for whom results are still pending. All three figures are reported individually from 3rd March until 31st March. From 1st April onwards, the number of people who tested negative and the number for whom results are still pending are no longer reported separately.
-We have received communication from Thailand's Ministry of Health (MOH) that individuals who did not meet PUI criteria can pay out of pocket to have their samples tested, referred to as the "non-PUI" group. This "non-PUI" group is large in the context of Thailand. Daily figures are currently being consolidated by the MOH. At the moment, this "non-PUI" group is not reflected in our current figures.</t>
+    <t xml:space="preserve">The Thailand Department of Disease Control (DDC) issues daily situation reports which detail the status of confirmed cases, deaths and people being assessed.
+We provide the figures reported as "persons under investigation" (PUI). PUI is the sum of confirmed cases, the number of people who tested negative, and the number of people for whom results are still pending. All three figures are reported individually from 3rd March until 31st March. From 1st April onwards, the number of people who tested negative and the number for whom results are still pending are no longer reported separately.
+We have received communication from Thailand's Ministry of Public Health (MOPH) that individuals who did not meet PUI criteria can pay out of pocket to have their samples tested, referred to as the "non-PUI" group. This "non-PUI" group is large in the context of Thailand. This "non-PUI" group is not reflected in our current figures.
+The [World Health Organization Country Office for Thailand](https://www.who.int/thailand) also reports COVID-19 testing figures in daily situation reports. These figures are substantially larger than the DDC figures for two reasons. First, the DDC figures reflect "people tested", whereas the WHO Thailand figures reflect "samples tested". Second, the WHO Thailand figures appear to include all samples tested, regardless of whether the person being tested meets PUI criteria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.who.int/docs/default-source/searo/thailand/2020-05-12-tha-sitrep-79-covid-19-final.pdf?sfvrsn=31ce1b98_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Health Organization Country Office for Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.who.int/thailand/emergencies/novel-coronavirus-2019/situation-reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The [World Health Organization Country Office for Thailand](https://www.who.int/thailand) provides daily COVID-19 situation reports that periodically report the cumulative number of samples tested to date.
+The reported figures include PCR tests only. It is unclear whether pending test results are included. 
+The reported figures include samples tested in both public and private labs. However, reporting delays appear to affect the figures. For example, [the figures for May 1st 2020](https://www.who.int/docs/default-source/searo/thailand/2020-05-04-tha-sitrep-71-covid19-final.pdf) are drawn from only 121 of 142 public and private laboratories certified for PCR testing.
+The earliest figure we have found is for April 10th 2020, at which point 100,498 samples had been tested. The reported figures are cumulative since sometime in January or February 2020, but the situation reports do not state an exact date.
+The [Thailand Department of Disease Control (DDC)](https://ddc.moph.go.th/viralpneumonia/eng/situation.php) also reports COVID-19 testing figures in daily situation reports, which are reflected in the reported number of "persons under investigation" (PUI). These figures are substantially smaller than the WHO Thailand figures for two reasons. First, the DDC figures reflect "people tested", whereas the WHO Thailand figures reflect "samples tested". Second, we have received communication from Thailand's Ministry of Public Health (MOPH) that individuals who do not meet PUI criteria can pay out of pocket to have their samples tested, referred to as the "non-PUI" group. This "non-PUI" group is large in the context of Thailand and is not included in the DDC figures. In contrast, the WHO Thailand figures appear to include all samples tested, regardless of whether the person being tested meets PUI criteria.</t>
   </si>
   <si>
     <t xml:space="preserve">TUN</t>
@@ -1782,7 +1843,7 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512192345/https://covid19.saglik.gov.tr/</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520183008/https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
@@ -1806,21 +1867,22 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1259934362721804290</t>
+    <t xml:space="preserve">https://www.health.go.ug/cause/update-on-the-covid-19-outbreak-in-uganda-18/</t>
   </si>
   <si>
     <t xml:space="preserve">Press Release from the Office of the Director General</t>
   </si>
   <si>
-    <t xml:space="preserve">We sum the cumulative total provided for the previous day with the daily number of samples tested today. Samples tested today at the Uganda Virus Research Institute. (UVRI)</t>
+    <t xml:space="preserve">We sum the cumulative total provided for the previous day with the daily number of samples tested today.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.health.go.ug/moh/resources/</t>
   </si>
   <si>
     <t xml:space="preserve">The Office of the Director General publishes a daily press release detailing the cumulative number of samples tested to date, on the [MOH official twitter account](https://twitter.com/MinofHealthUG). The earliest press release that lists the cumulative total is 6th April. However, we cannot say with certainty when testing began and the precise date from which cumulative totals begin. 
-After the 14th April, press releases by the Office of the Director General publishes the daily number of samples tested. We sum the cumulative total number of samples tested for the previous day with the daily number of samples tested today. For example, the total number of samples tested on the 15th April is equal to the cumulative total up until the 14th April plus the number of samples tested on the 15th April. For the 18th April, we rely on the figure reported by the MOH official twitter account to calculate our cumulative totals.
-We are aware of Uganda's [MOH information portal](https://covid19.gou.go.ug/), however, it only lists the 'cumulative # tested' without specifying more precise units of measurement. Our cumulative totals for the number of samples tested from 19/04 matches the 'cumulative # tested' total in the Uganda information portal for 20/04. This suggests the 'cumulative # tested' refers to the samples tested up until the previous day.</t>
+After the 14th April, press releases by the Office of the Director General publishes the daily number of samples tested. We sum the cumulative total number of samples tested for the previous day with the daily number of samples tested today. For example, the total number of samples tested on the 15th April is equal to the cumulative total up until the 14th April plus the number of samples tested on the 15th April. 
+For the 18th April, we rely on the figure reported by the MOH official twitter account to calculate our cumulative totals. From the 5th May, we rely on the figures reported by the MOH official twitter account and check figures against press releases where they have been made available by the MOH.  
+We are aware of Uganda's [MOH information portal](https://covid19.gou.go.ug/), however, it only lists the 'cumulative # tested' without specifying more precise units of measurement. Our cumulative totals for the number of samples tested from 19/04 matches the 'cumulative # tested' total in the Uganda information portal for 20/04. This suggests the 'cumulative # tested' refers to the samples tested up until the previous day. However, the cumulative totals calculated via the daily press releases and the MOH information portal diverge from the 29th April.</t>
   </si>
   <si>
     <t xml:space="preserve">UKR</t>
@@ -1829,7 +1891,7 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512192348/https://covid19.gov.ua/en</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520183010/https://covid19.gov.ua/en</t>
   </si>
   <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
@@ -1851,7 +1913,7 @@
     <t xml:space="preserve">United Kingdom - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512192350/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520183012/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -1874,7 +1936,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200512192351/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">https://web.archive.org/web/20200520183013/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
@@ -1918,28 +1980,22 @@
 The Project documents their work in lots of detail. See the link provided above for full details.</t>
   </si>
   <si>
-    <t xml:space="preserve">United States - specimens tested (CDC)</t>
+    <t xml:space="preserve">United States - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://web.archive.org/web/20200520183014/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States CDC</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html</t>
   </si>
   <si>
-    <t xml:space="preserve">United States CDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US CDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html?CDC_AA_refVal=https%3A%2F%2Fwww.cdc.gov%2Fcoronavirus%2F2019-ncov%2Ftesting-in-us.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of specimens tested in public labs only.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In addition to CDCs labs, the figures include specimens tested at public health labs in 49 states, New York City, Puerto Rico, USAF, and 15 California Counties.
-As such the figures do not include private lab tests, which are occurring in significant numbers.2
-Daily figures are provided since 18 January. CDC suggest that figures within 7 days of the update “are incomplete because of the lag in time between when specimens are accessioned, testing is performed, and results are reported”. As such we only provide figures after this 7 day cut off.
-The CDC documents very well what is and is not included in its published testing figures. See the source linked to above for more details.</t>
+    <t xml:space="preserve">On 13 May 2020, the United States CDC's viral testing data was modified to include viral tests performed by commercial, hospital, public health, and CDC laboratories. This new data is available on the [Viral Testing Data in the US](https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html) page and [CDC COVID Data Tracker](https://www.cdc.gov/covid-data-tracker/index.html).
+No time series is published for this new version of the data. We therefore started collecting on 13 May 2020 the cumulative total of viral tests reported, which is updated daily.
+The CDC makes it clear that "data are provisional and subject to change. The data presented are aggregate data reported to CDC from state health departments and territorial jurisdictions and might not represent the most current counts for the most recent 3 days due the time it takes to report testing information. The data may also not include results from all potential testing sites within the jurisdiction (e.g., non-laboratory or point of care test sites) and therefore reflect the majority, but not all, of COVID-19 testing being conducted in the United States. If a state did not report laboratory data for a specific day, or if data reported by states are incomplete, data presented reflect what is reported on the state health department website or laboratory testing data reported to the Department of Health and Human Services."
+The CDC previously published a time series that only covered public health labs and did not include private lab tests, which were occurring in significant numbers. Daily figures were provided since 18 January. This data is still visible on [this page of the CDC website](https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/previous-testing-in-us.html).</t>
   </si>
   <si>
     <t xml:space="preserve">URY</t>
@@ -1948,7 +2004,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-22</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-30</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -1987,10 +2043,13 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1260066306474356741</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1262803418894270470</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The press release reports both the cumulative number of tests to date and number of tests conducted today. These figures are no consistent with one another. We use the cumulative number of reported tests as the ground truth.</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.mohcc.gov.zw</t>
@@ -2388,56 +2447,46 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H2" t="n">
-        <v>87547</v>
+        <v>112370</v>
       </c>
       <c r="I2" t="n">
-        <v>1.937</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2389</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.053</v>
-      </c>
+        <v>2.486</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
       <c r="L2" t="n">
-        <v>2272.667</v>
+        <v>3128</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.056</v>
+        <v>0.069</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -2445,113 +2494,101 @@
       <c r="Q2" t="s">
         <v>23</v>
       </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H3" t="n">
-        <v>877927</v>
+        <v>1111567</v>
       </c>
       <c r="I3" t="n">
-        <v>34.429</v>
+        <v>43.591</v>
       </c>
       <c r="J3" t="n">
-        <v>22808</v>
+        <v>25697</v>
       </c>
       <c r="K3" t="n">
-        <v>0.894</v>
+        <v>1.008</v>
       </c>
       <c r="L3" t="n">
-        <v>27490.333</v>
+        <v>28935</v>
       </c>
       <c r="M3" t="n">
-        <v>1.078</v>
-      </c>
-      <c r="N3" t="n">
-        <v>30453</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.194</v>
+        <v>1.135</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
       </c>
       <c r="P3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="s">
         <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H4" t="n">
-        <v>329314</v>
+        <v>379592</v>
       </c>
       <c r="I4" t="n">
-        <v>36.564</v>
+        <v>42.147</v>
       </c>
       <c r="J4" t="n">
-        <v>9830</v>
+        <v>7157</v>
       </c>
       <c r="K4" t="n">
-        <v>1.091</v>
+        <v>0.795</v>
       </c>
       <c r="L4" t="n">
-        <v>5874.667</v>
+        <v>6191</v>
       </c>
       <c r="M4" t="n">
-        <v>0.652</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6204.429</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.689</v>
+        <v>0.687</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -2559,56 +2596,50 @@
       <c r="Q4" t="s">
         <v>37</v>
       </c>
-      <c r="R4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H5" t="n">
-        <v>197898</v>
+        <v>255633</v>
       </c>
       <c r="I5" t="n">
-        <v>116.302</v>
+        <v>150.232</v>
       </c>
       <c r="J5" t="n">
-        <v>7118</v>
+        <v>7428</v>
       </c>
       <c r="K5" t="n">
-        <v>4.183</v>
+        <v>4.365</v>
       </c>
       <c r="L5" t="n">
-        <v>6515</v>
+        <v>7152</v>
       </c>
       <c r="M5" t="n">
-        <v>3.829</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6056.714</v>
-      </c>
-      <c r="O5" t="n">
-        <v>3.559</v>
+        <v>4.203</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
       </c>
       <c r="P5" t="s">
         <v>44</v>
@@ -2616,56 +2647,50 @@
       <c r="Q5" t="s">
         <v>45</v>
       </c>
-      <c r="R5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S5" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>49</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H6" t="n">
-        <v>136638</v>
+        <v>193645</v>
       </c>
       <c r="I6" t="n">
-        <v>0.83</v>
+        <v>1.176</v>
       </c>
       <c r="J6" t="n">
-        <v>6773</v>
+        <v>8449</v>
       </c>
       <c r="K6" t="n">
-        <v>0.041</v>
+        <v>0.051</v>
       </c>
       <c r="L6" t="n">
-        <v>6573</v>
+        <v>8144</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6176.429</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.038</v>
+        <v>0.049</v>
+      </c>
+      <c r="N6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
       </c>
       <c r="P6" t="s">
         <v>51</v>
@@ -2673,109 +2698,97 @@
       <c r="Q6" t="s">
         <v>52</v>
       </c>
-      <c r="R6" t="s">
-        <v>53</v>
-      </c>
-      <c r="S6" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>58</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H7" t="n">
-        <v>284445</v>
+        <v>387673</v>
       </c>
       <c r="I7" t="n">
-        <v>30.102</v>
-      </c>
-      <c r="J7" t="n">
-        <v>10385</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.099</v>
-      </c>
+        <v>41.027</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
       <c r="L7" t="n">
-        <v>10891.333</v>
+        <v>13042</v>
       </c>
       <c r="M7" t="n">
-        <v>1.153</v>
-      </c>
-      <c r="N7"/>
-      <c r="O7"/>
+        <v>1.38</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
       <c r="P7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>62</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>43961</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H8" t="n">
-        <v>487863</v>
+        <v>585806</v>
       </c>
       <c r="I8" t="n">
-        <v>42.095</v>
+        <v>50.546</v>
       </c>
       <c r="J8" t="n">
-        <v>10044</v>
+        <v>5853</v>
       </c>
       <c r="K8" t="n">
-        <v>0.867</v>
+        <v>0.505</v>
       </c>
       <c r="L8" t="n">
-        <v>16559.667</v>
+        <v>13406</v>
       </c>
       <c r="M8" t="n">
-        <v>1.429</v>
-      </c>
-      <c r="N8" t="n">
-        <v>17648.143</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.523</v>
+        <v>1.157</v>
+      </c>
+      <c r="N8" t="s">
+        <v>62</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
       </c>
       <c r="P8" t="s">
         <v>64</v>
@@ -2783,87 +2796,75 @@
       <c r="Q8" t="s">
         <v>65</v>
       </c>
-      <c r="R8" t="s">
-        <v>66</v>
-      </c>
-      <c r="S8" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G9" t="n">
+        <v>60</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10567</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="J9" t="n">
+        <v>218</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="L9" t="n">
+        <v>217</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="P9" t="s">
         <v>71</v>
-      </c>
-      <c r="G9" t="n">
-        <v>52</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8917</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.764</v>
-      </c>
-      <c r="J9" t="n">
-        <v>275</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="L9" t="n">
-        <v>188.333</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="N9" t="n">
-        <v>164.286</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="P9" t="s">
-        <v>43</v>
       </c>
       <c r="Q9" t="s">
         <v>72</v>
       </c>
-      <c r="R9" t="s">
-        <v>73</v>
-      </c>
-      <c r="S9" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>43941</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
@@ -2877,123 +2878,119 @@
       </c>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
+      <c r="L10" t="n">
+        <v>5345</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
       <c r="P10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" t="s">
         <v>79</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D11" t="s">
         <v>82</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H11" t="n">
-        <v>58713</v>
+        <v>68243</v>
       </c>
       <c r="I11" t="n">
-        <v>8.45</v>
+        <v>9.821</v>
       </c>
       <c r="J11" t="n">
-        <v>1079</v>
+        <v>1433</v>
       </c>
       <c r="K11" t="n">
-        <v>0.155</v>
+        <v>0.206</v>
       </c>
       <c r="L11" t="n">
-        <v>869.333</v>
+        <v>1163</v>
       </c>
       <c r="M11" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1201.429</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.173</v>
+        <v>0.167</v>
+      </c>
+      <c r="N11" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
       </c>
       <c r="P11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" t="s">
         <v>86</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>87</v>
-      </c>
-      <c r="R11" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D12" t="s">
         <v>89</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>90</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" t="s">
-        <v>92</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H12" t="n">
-        <v>1145683</v>
+        <v>1372929</v>
       </c>
       <c r="I12" t="n">
-        <v>30.356</v>
+        <v>36.377</v>
       </c>
       <c r="J12" t="n">
-        <v>26733</v>
+        <v>35962</v>
       </c>
       <c r="K12" t="n">
-        <v>0.708</v>
+        <v>0.953</v>
       </c>
       <c r="L12" t="n">
-        <v>26029.333</v>
+        <v>29078</v>
       </c>
       <c r="M12" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="N12" t="n">
-        <v>29302.286</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.776</v>
+        <v>0.77</v>
+      </c>
+      <c r="N12" t="s">
+        <v>90</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
       </c>
       <c r="P12" t="s">
         <v>92</v>
@@ -3001,115 +2998,103 @@
       <c r="Q12" t="s">
         <v>93</v>
       </c>
-      <c r="R12" t="s">
-        <v>94</v>
-      </c>
-      <c r="S12" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D13" t="s">
         <v>96</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G13" t="n">
+        <v>50</v>
+      </c>
+      <c r="H13" t="n">
+        <v>409669</v>
+      </c>
+      <c r="I13" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12469</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="L13" t="n">
+        <v>13703</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="N13" t="s">
         <v>98</v>
       </c>
-      <c r="E13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="O13" t="s">
         <v>99</v>
       </c>
-      <c r="G13" t="n">
-        <v>42</v>
-      </c>
-      <c r="H13" t="n">
-        <v>303340</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15.868</v>
-      </c>
-      <c r="J13" t="n">
-        <v>9283</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.486</v>
-      </c>
-      <c r="L13" t="n">
-        <v>11812</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.618</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11606.429</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.607</v>
-      </c>
       <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" t="s">
         <v>100</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>101</v>
-      </c>
-      <c r="R13" t="s">
-        <v>38</v>
-      </c>
-      <c r="S13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D14" t="s">
         <v>103</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>104</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" t="s">
-        <v>106</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H14" t="n">
-        <v>158933</v>
+        <v>196417</v>
       </c>
       <c r="I14" t="n">
-        <v>3.124</v>
+        <v>3.86</v>
       </c>
       <c r="J14" t="n">
-        <v>7537</v>
+        <v>6303</v>
       </c>
       <c r="K14" t="n">
-        <v>0.148</v>
+        <v>0.124</v>
       </c>
       <c r="L14" t="n">
-        <v>6398</v>
+        <v>6432</v>
       </c>
       <c r="M14" t="n">
         <v>0.126</v>
       </c>
-      <c r="N14" t="n">
-        <v>5129.143</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.101</v>
+      <c r="N14" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
       </c>
       <c r="P14" t="s">
         <v>106</v>
@@ -3117,113 +3102,101 @@
       <c r="Q14" t="s">
         <v>107</v>
       </c>
-      <c r="R14" t="s">
-        <v>108</v>
-      </c>
-      <c r="S14" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D15" t="s">
         <v>110</v>
       </c>
-      <c r="B15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D15" t="s">
-        <v>112</v>
-      </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="H15" t="n">
-        <v>12061</v>
+        <v>15050</v>
       </c>
       <c r="I15" t="n">
-        <v>2.368</v>
+        <v>2.954</v>
       </c>
       <c r="J15" t="n">
-        <v>73</v>
+        <v>434</v>
       </c>
       <c r="K15" t="n">
-        <v>0.014</v>
+        <v>0.085</v>
       </c>
       <c r="L15" t="n">
-        <v>261.667</v>
+        <v>363</v>
       </c>
       <c r="M15" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="N15" t="n">
-        <v>309.857</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.061</v>
+        <v>0.071</v>
+      </c>
+      <c r="N15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" t="s">
+        <v>112</v>
       </c>
       <c r="P15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q15" t="s">
         <v>113</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>114</v>
-      </c>
-      <c r="R15" t="s">
-        <v>94</v>
-      </c>
-      <c r="S15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D16" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>117</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" t="s">
-        <v>119</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H16" t="n">
-        <v>47480</v>
+        <v>57021</v>
       </c>
       <c r="I16" t="n">
-        <v>11.566</v>
+        <v>13.89</v>
       </c>
       <c r="J16" t="n">
-        <v>1409</v>
+        <v>1221</v>
       </c>
       <c r="K16" t="n">
-        <v>0.343</v>
+        <v>0.297</v>
       </c>
       <c r="L16" t="n">
-        <v>1087.333</v>
+        <v>1183</v>
       </c>
       <c r="M16" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1072.429</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.261</v>
+        <v>0.288</v>
+      </c>
+      <c r="N16" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" t="s">
+        <v>118</v>
       </c>
       <c r="P16" t="s">
         <v>119</v>
@@ -3231,473 +3204,435 @@
       <c r="Q16" t="s">
         <v>120</v>
       </c>
-      <c r="R16" t="s">
-        <v>121</v>
-      </c>
-      <c r="S16" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D17" t="s">
         <v>123</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>125</v>
       </c>
-      <c r="E17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" t="s">
-        <v>127</v>
-      </c>
       <c r="G17" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H17" t="n">
-        <v>71157</v>
+        <v>87288</v>
       </c>
       <c r="I17" t="n">
-        <v>6.282</v>
+        <v>7.706</v>
       </c>
       <c r="J17" t="n">
-        <v>1975</v>
+        <v>1732</v>
       </c>
       <c r="K17" t="n">
-        <v>0.174</v>
+        <v>0.153</v>
       </c>
       <c r="L17" t="n">
-        <v>1882.667</v>
+        <v>2023</v>
       </c>
       <c r="M17" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1920.857</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.169</v>
+        <v>0.179</v>
+      </c>
+      <c r="N17" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" t="s">
+        <v>123</v>
       </c>
       <c r="P17" t="s">
         <v>126</v>
       </c>
       <c r="Q17" t="s">
-        <v>125</v>
-      </c>
-      <c r="R17" t="s">
-        <v>128</v>
-      </c>
-      <c r="S17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D18" t="s">
         <v>130</v>
       </c>
-      <c r="B18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
-      </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H18" t="n">
-        <v>314138</v>
+        <v>372341</v>
       </c>
       <c r="I18" t="n">
-        <v>29.334</v>
+        <v>34.769</v>
       </c>
       <c r="J18" t="n">
-        <v>7537</v>
+        <v>8223</v>
       </c>
       <c r="K18" t="n">
-        <v>0.704</v>
+        <v>0.768</v>
       </c>
       <c r="L18" t="n">
-        <v>5120.667</v>
+        <v>6379</v>
       </c>
       <c r="M18" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6433.571</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.601</v>
+        <v>0.596</v>
+      </c>
+      <c r="N18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" t="s">
+        <v>131</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="Q18" t="s">
-        <v>133</v>
-      </c>
-      <c r="R18" t="s">
-        <v>24</v>
-      </c>
-      <c r="S18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D19" t="s">
         <v>135</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>137</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="n">
+        <v>63</v>
+      </c>
+      <c r="H19" t="n">
+        <v>412051</v>
+      </c>
+      <c r="I19" t="n">
+        <v>71.139</v>
+      </c>
+      <c r="J19" t="n">
+        <v>9857</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.702</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9477</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="N19" t="s">
         <v>138</v>
       </c>
-      <c r="F19" t="s">
+      <c r="O19" t="s">
         <v>139</v>
       </c>
-      <c r="G19" t="n">
-        <v>55</v>
-      </c>
-      <c r="H19" t="n">
-        <v>334260</v>
-      </c>
-      <c r="I19" t="n">
-        <v>57.709</v>
-      </c>
-      <c r="J19" t="n">
-        <v>7700</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.329</v>
-      </c>
-      <c r="L19" t="n">
-        <v>8425.333</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.455</v>
-      </c>
-      <c r="N19" t="n">
-        <v>10931.714</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.887</v>
-      </c>
       <c r="P19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>141</v>
-      </c>
-      <c r="R19" t="s">
-        <v>94</v>
-      </c>
-      <c r="S19" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D20" t="s">
         <v>143</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>145</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="n">
+        <v>59</v>
+      </c>
+      <c r="H20" t="n">
+        <v>53813</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20" t="n">
+        <v>1375</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="N20" t="s">
+        <v>144</v>
+      </c>
+      <c r="O20" t="s">
         <v>146</v>
       </c>
-      <c r="F20" t="s">
+      <c r="P20" t="s">
         <v>147</v>
-      </c>
-      <c r="G20" t="n">
-        <v>45</v>
-      </c>
-      <c r="H20" t="n">
-        <v>46260</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.622</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2533</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.144</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3066.333</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2160.857</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.123</v>
-      </c>
-      <c r="P20" t="s">
-        <v>146</v>
       </c>
       <c r="Q20" t="s">
         <v>148</v>
       </c>
-      <c r="R20" t="s">
-        <v>73</v>
-      </c>
-      <c r="S20" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
         <v>150</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D21" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>152</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21"/>
+      <c r="G21" t="n">
+        <v>40</v>
+      </c>
+      <c r="H21" t="n">
+        <v>62838</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9.688</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2497</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2287</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="N21" t="s">
+        <v>152</v>
+      </c>
+      <c r="O21" t="s">
         <v>153</v>
       </c>
-      <c r="F21" t="s">
+      <c r="P21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" t="s">
         <v>154</v>
-      </c>
-      <c r="G21" t="n">
-        <v>25</v>
-      </c>
-      <c r="H21" t="n">
-        <v>44926</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.926</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="L21"/>
-      <c r="M21" t="n">
-        <v>0.391</v>
-      </c>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>152</v>
-      </c>
-      <c r="R21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S21" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" t="s">
         <v>156</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D22" t="s">
         <v>157</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>158</v>
-      </c>
-      <c r="E22" t="s">
-        <v>159</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H22" t="n">
-        <v>64975</v>
+        <v>72465</v>
       </c>
       <c r="I22" t="n">
-        <v>48.981</v>
+        <v>54.627</v>
       </c>
       <c r="J22" t="n">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="K22" t="n">
-        <v>0.767</v>
+        <v>0.775</v>
       </c>
       <c r="L22" t="n">
-        <v>753</v>
+        <v>912</v>
       </c>
       <c r="M22" t="n">
-        <v>0.567</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1081.714</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.815</v>
+        <v>0.688</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>160</v>
       </c>
       <c r="P22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q22" t="s">
-        <v>161</v>
-      </c>
-      <c r="R22" t="s">
         <v>162</v>
-      </c>
-      <c r="S22" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" t="s">
         <v>164</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D23" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>166</v>
-      </c>
-      <c r="E23" t="s">
-        <v>167</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H23" t="n">
-        <v>39048</v>
+        <v>65760</v>
       </c>
       <c r="I23" t="n">
-        <v>0.34</v>
+        <v>0.572</v>
       </c>
       <c r="J23" t="n">
-        <v>2424</v>
+        <v>3460</v>
       </c>
       <c r="K23" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
+        <v>0.03</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3439</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O23" t="s">
+        <v>167</v>
+      </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>22</v>
       </c>
       <c r="Q23" t="s">
         <v>168</v>
       </c>
-      <c r="R23" t="s">
-        <v>24</v>
-      </c>
-      <c r="S23" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s">
         <v>170</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D24" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>172</v>
-      </c>
-      <c r="E24" t="s">
-        <v>173</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H24" t="n">
-        <v>126327</v>
+        <v>156206</v>
       </c>
       <c r="I24" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J24"/>
+        <v>28.192</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1403</v>
+      </c>
       <c r="K24" t="n">
-        <v>0.069</v>
-      </c>
-      <c r="L24"/>
+        <v>0.253</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2877</v>
+      </c>
       <c r="M24" t="n">
-        <v>0.243</v>
-      </c>
-      <c r="N24"/>
-      <c r="O24" t="n">
-        <v>0.432</v>
+        <v>0.519</v>
+      </c>
+      <c r="N24" t="s">
+        <v>173</v>
+      </c>
+      <c r="O24" t="s">
+        <v>171</v>
       </c>
       <c r="P24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" t="s">
         <v>174</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>172</v>
-      </c>
-      <c r="R24" t="s">
-        <v>53</v>
-      </c>
-      <c r="S24" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" t="s">
         <v>176</v>
-      </c>
-      <c r="B25" t="s">
-        <v>177</v>
       </c>
       <c r="C25" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="D25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" t="s">
         <v>178</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>179</v>
-      </c>
-      <c r="F25" t="s">
-        <v>180</v>
       </c>
       <c r="G25" t="n">
         <v>24</v>
@@ -3710,2869 +3645,2735 @@
       </c>
       <c r="J25"/>
       <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
+      <c r="L25" t="n">
+        <v>15229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="N25" t="s">
+        <v>178</v>
+      </c>
+      <c r="O25" t="s">
+        <v>180</v>
+      </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="Q25" t="s">
         <v>181</v>
       </c>
-      <c r="R25" t="s">
-        <v>24</v>
-      </c>
-      <c r="S25" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" t="s">
         <v>183</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="n">
+        <v>43961</v>
+      </c>
+      <c r="D26" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>43954</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>185</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>186</v>
       </c>
-      <c r="F26" t="s">
-        <v>187</v>
-      </c>
       <c r="G26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>2755770</v>
+        <v>3147771</v>
       </c>
       <c r="I26" t="n">
-        <v>32.891</v>
+        <v>37.57</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
+      <c r="L26" t="n">
+        <v>54593</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.652</v>
+      </c>
+      <c r="N26" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" t="s">
+        <v>187</v>
+      </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q26" t="s">
-        <v>188</v>
-      </c>
-      <c r="R26" t="s">
         <v>189</v>
-      </c>
-      <c r="S26" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
         <v>191</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D27" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>193</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>194</v>
       </c>
-      <c r="F27"/>
       <c r="G27" t="n">
         <v>18</v>
       </c>
       <c r="H27" t="n">
-        <v>162184</v>
+        <v>183362</v>
       </c>
       <c r="I27" t="n">
-        <v>5.219</v>
+        <v>5.901</v>
       </c>
       <c r="J27" t="n">
-        <v>1683</v>
+        <v>3776</v>
       </c>
       <c r="K27" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
+        <v>0.122</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3166</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+      <c r="O27" t="s">
+        <v>196</v>
+      </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q27" t="s">
-        <v>196</v>
-      </c>
-      <c r="R27" t="s">
-        <v>197</v>
-      </c>
-      <c r="S27" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s">
         <v>199</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" t="s">
         <v>200</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D28" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F28"/>
       <c r="G28" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="H28" t="n">
-        <v>106054</v>
+        <v>184343</v>
       </c>
       <c r="I28" t="n">
-        <v>10.175</v>
+        <v>5.933</v>
       </c>
       <c r="J28" t="n">
-        <v>6691</v>
+        <v>3776</v>
       </c>
       <c r="K28" t="n">
-        <v>0.642</v>
+        <v>0.122</v>
       </c>
       <c r="L28" t="n">
-        <v>2890</v>
+        <v>3166</v>
       </c>
       <c r="M28" t="n">
-        <v>0.277</v>
-      </c>
-      <c r="N28"/>
-      <c r="O28"/>
+        <v>0.102</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" t="s">
+        <v>196</v>
+      </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q28" t="s">
-        <v>204</v>
-      </c>
-      <c r="R28" t="s">
-        <v>94</v>
-      </c>
-      <c r="S28" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>43956</v>
+        <v>43971</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E29" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="H29" t="n">
-        <v>168291</v>
+        <v>139445</v>
       </c>
       <c r="I29" t="n">
-        <v>22.448</v>
-      </c>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
+        <v>13.379</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3444</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3915</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="N29" t="s">
+        <v>205</v>
+      </c>
+      <c r="O29" t="s">
+        <v>206</v>
+      </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>92</v>
       </c>
       <c r="Q29" t="s">
-        <v>211</v>
-      </c>
-      <c r="R29" t="s">
-        <v>24</v>
-      </c>
-      <c r="S29" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>43963</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E30" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" t="s">
-        <v>217</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="F30"/>
       <c r="G30" t="n">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="H30" t="n">
-        <v>114719</v>
+        <v>183491</v>
       </c>
       <c r="I30" t="n">
-        <v>11.875</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2554</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.264</v>
-      </c>
+        <v>24.475</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
       <c r="L30" t="n">
-        <v>3820.333</v>
+        <v>1953</v>
       </c>
       <c r="M30" t="n">
-        <v>0.395</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4166</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.431</v>
+        <v>0.261</v>
+      </c>
+      <c r="N30" t="s">
+        <v>212</v>
+      </c>
+      <c r="O30" t="s">
+        <v>213</v>
       </c>
       <c r="P30" t="s">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="Q30" t="s">
-        <v>218</v>
-      </c>
-      <c r="R30" t="s">
-        <v>219</v>
-      </c>
-      <c r="S30" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D31" t="s">
+        <v>217</v>
+      </c>
+      <c r="E31" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" t="n">
+        <v>76</v>
+      </c>
+      <c r="H31" t="n">
+        <v>142729</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.775</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4032</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3461</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="N31" t="s">
+        <v>218</v>
+      </c>
+      <c r="O31" t="s">
+        <v>220</v>
+      </c>
+      <c r="P31" t="s">
         <v>221</v>
       </c>
-      <c r="B31" t="s">
+      <c r="Q31" t="s">
         <v>222</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D31" t="s">
-        <v>223</v>
-      </c>
-      <c r="E31" t="s">
-        <v>224</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31" t="n">
-        <v>75</v>
-      </c>
-      <c r="H31" t="n">
-        <v>54750</v>
-      </c>
-      <c r="I31" t="n">
-        <v>160.44</v>
-      </c>
-      <c r="J31" t="n">
-        <v>578</v>
-      </c>
-      <c r="K31" t="n">
-        <v>1.694</v>
-      </c>
-      <c r="L31" t="n">
-        <v>510.333</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.496</v>
-      </c>
-      <c r="N31" t="n">
-        <v>492.286</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.443</v>
-      </c>
-      <c r="P31" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>223</v>
-      </c>
-      <c r="R31" t="s">
-        <v>225</v>
-      </c>
-      <c r="S31" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D32" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32" t="n">
+        <v>83</v>
+      </c>
+      <c r="H32" t="n">
+        <v>57587</v>
+      </c>
+      <c r="I32" t="n">
+        <v>168.753</v>
+      </c>
+      <c r="J32" t="n">
+        <v>441</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.292</v>
+      </c>
+      <c r="L32" t="n">
+        <v>365</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="s">
+        <v>226</v>
+      </c>
+      <c r="O32" t="s">
+        <v>225</v>
+      </c>
+      <c r="P32" t="s">
         <v>227</v>
       </c>
-      <c r="B32" t="s">
+      <c r="Q32" t="s">
         <v>228</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>43945</v>
-      </c>
-      <c r="D32" t="s">
-        <v>229</v>
-      </c>
-      <c r="E32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F32" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" t="n">
-        <v>24</v>
-      </c>
-      <c r="H32" t="n">
-        <v>525667</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="J32" t="n">
-        <v>40495</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>229</v>
-      </c>
-      <c r="R32" t="s">
-        <v>94</v>
-      </c>
-      <c r="S32" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>43945</v>
+      </c>
+      <c r="D33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" t="s">
+        <v>232</v>
+      </c>
+      <c r="F33" t="s">
         <v>233</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D33" t="s">
-        <v>229</v>
-      </c>
-      <c r="E33" t="s">
-        <v>230</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="G33" t="n">
+        <v>24</v>
+      </c>
+      <c r="H33" t="n">
+        <v>525667</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="J33" t="n">
+        <v>40495</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L33" t="n">
+        <v>29603</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N33" t="s">
+        <v>232</v>
+      </c>
+      <c r="O33" t="s">
         <v>231</v>
       </c>
-      <c r="G33" t="n">
-        <v>49</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1759579</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.275</v>
-      </c>
-      <c r="J33" t="n">
-        <v>85891</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="L33" t="n">
-        <v>78788.667</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="N33" t="n">
-        <v>81090.429</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.059</v>
-      </c>
       <c r="P33" t="s">
-        <v>230</v>
+        <v>92</v>
       </c>
       <c r="Q33" t="s">
-        <v>229</v>
-      </c>
-      <c r="R33" t="s">
-        <v>53</v>
-      </c>
-      <c r="S33" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B34" t="s">
         <v>235</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>43963</v>
+        <v>43971</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E34" t="s">
-        <v>237</v>
-      </c>
-      <c r="F34"/>
+        <v>232</v>
+      </c>
+      <c r="F34" t="s">
+        <v>233</v>
+      </c>
       <c r="G34" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H34" t="n">
-        <v>119728</v>
+        <v>2512388</v>
       </c>
       <c r="I34" t="n">
-        <v>0.438</v>
+        <v>1.821</v>
       </c>
       <c r="J34" t="n">
-        <v>3370</v>
+        <v>108121</v>
       </c>
       <c r="K34" t="n">
-        <v>0.012</v>
+        <v>0.078</v>
       </c>
       <c r="L34" t="n">
-        <v>3676.333</v>
+        <v>94020</v>
       </c>
       <c r="M34" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4400.571</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.016</v>
+        <v>0.068</v>
+      </c>
+      <c r="N34" t="s">
+        <v>232</v>
+      </c>
+      <c r="O34" t="s">
+        <v>231</v>
       </c>
       <c r="P34" t="s">
-        <v>237</v>
+        <v>51</v>
       </c>
       <c r="Q34" t="s">
-        <v>238</v>
-      </c>
-      <c r="R34" t="s">
-        <v>73</v>
-      </c>
-      <c r="S34" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>43963</v>
+        <v>43971</v>
       </c>
       <c r="D35" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E35" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="H35" t="n">
-        <v>615477</v>
+        <v>154139</v>
       </c>
       <c r="I35" t="n">
-        <v>7.328</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
+        <v>0.564</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6340</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4367</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="N35" t="s">
+        <v>239</v>
+      </c>
+      <c r="O35" t="s">
+        <v>240</v>
+      </c>
       <c r="P35" t="s">
-        <v>243</v>
+        <v>71</v>
       </c>
       <c r="Q35" t="s">
-        <v>244</v>
-      </c>
-      <c r="R35" t="s">
-        <v>24</v>
-      </c>
-      <c r="S35" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>43963</v>
+        <v>43970</v>
       </c>
       <c r="D36" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E36" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H36" t="n">
-        <v>258808</v>
+        <v>716176</v>
       </c>
       <c r="I36" t="n">
-        <v>52.414</v>
-      </c>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
+        <v>8.527</v>
+      </c>
+      <c r="J36" t="n">
+        <v>14536</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="L36" t="n">
+        <v>14386</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="N36" t="s">
+        <v>245</v>
+      </c>
+      <c r="O36" t="s">
+        <v>246</v>
+      </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>22</v>
       </c>
       <c r="Q36" t="s">
-        <v>249</v>
-      </c>
-      <c r="R36" t="s">
-        <v>250</v>
-      </c>
-      <c r="S36" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D37" t="s">
+        <v>250</v>
+      </c>
+      <c r="E37" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37" t="n">
+        <v>11</v>
+      </c>
+      <c r="H37" t="n">
+        <v>295626</v>
+      </c>
+      <c r="I37" t="n">
+        <v>59.87</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37" t="n">
+        <v>5260</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="N37" t="s">
+        <v>211</v>
+      </c>
+      <c r="O37" t="s">
+        <v>251</v>
+      </c>
+      <c r="P37" t="s">
         <v>252</v>
       </c>
-      <c r="B37" t="s">
+      <c r="Q37" t="s">
         <v>253</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D37" t="s">
-        <v>254</v>
-      </c>
-      <c r="E37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F37" t="s">
-        <v>256</v>
-      </c>
-      <c r="G37" t="n">
-        <v>81</v>
-      </c>
-      <c r="H37" t="n">
-        <v>462580</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53.443</v>
-      </c>
-      <c r="J37" t="n">
-        <v>8291</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5704</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.659</v>
-      </c>
-      <c r="N37" t="n">
-        <v>7685.714</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.888</v>
-      </c>
-      <c r="P37" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>257</v>
-      </c>
-      <c r="R37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S37" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>43968</v>
+      </c>
+      <c r="D38" t="s">
+        <v>256</v>
+      </c>
+      <c r="E38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" t="s">
+        <v>258</v>
+      </c>
+      <c r="G38" t="n">
+        <v>87</v>
+      </c>
+      <c r="H38" t="n">
+        <v>498969</v>
+      </c>
+      <c r="I38" t="n">
+        <v>57.647</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4344</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="L38" t="n">
+        <v>6381</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="N38" t="s">
+        <v>41</v>
+      </c>
+      <c r="O38" t="s">
         <v>259</v>
       </c>
-      <c r="B38" t="s">
+      <c r="P38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q38" t="s">
         <v>260</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D38" t="s">
-        <v>261</v>
-      </c>
-      <c r="E38" t="s">
-        <v>262</v>
-      </c>
-      <c r="F38" t="s">
-        <v>263</v>
-      </c>
-      <c r="G38" t="n">
-        <v>24</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1741903</v>
-      </c>
-      <c r="I38" t="n">
-        <v>28.81</v>
-      </c>
-      <c r="J38" t="n">
-        <v>39620</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="L38" t="n">
-        <v>32275.667</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.534</v>
-      </c>
-      <c r="N38" t="n">
-        <v>32826</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="P38" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>265</v>
-      </c>
-      <c r="R38" t="s">
-        <v>94</v>
-      </c>
-      <c r="S38" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" t="s">
+        <v>264</v>
+      </c>
+      <c r="F39" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" t="n">
+        <v>32</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2038216</v>
+      </c>
+      <c r="I39" t="n">
+        <v>33.711</v>
+      </c>
+      <c r="J39" t="n">
+        <v>38617</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="L39" t="n">
+        <v>37038</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="N39" t="s">
+        <v>266</v>
+      </c>
+      <c r="O39" t="s">
         <v>267</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D39" t="s">
-        <v>261</v>
-      </c>
-      <c r="E39" t="s">
-        <v>262</v>
-      </c>
-      <c r="F39" t="s">
-        <v>263</v>
-      </c>
-      <c r="G39" t="n">
-        <v>79</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2673655</v>
-      </c>
-      <c r="I39" t="n">
-        <v>44.221</v>
-      </c>
-      <c r="J39" t="n">
-        <v>67003</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1.108</v>
-      </c>
-      <c r="L39" t="n">
-        <v>53140.333</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.879</v>
-      </c>
-      <c r="N39" t="n">
-        <v>60998.429</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.009</v>
-      </c>
       <c r="P39" t="s">
-        <v>264</v>
+        <v>92</v>
       </c>
       <c r="Q39" t="s">
-        <v>265</v>
-      </c>
-      <c r="R39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S39" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" t="s">
         <v>269</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D40" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" t="s">
+        <v>264</v>
+      </c>
+      <c r="F40" t="s">
+        <v>265</v>
+      </c>
+      <c r="G40" t="n">
+        <v>87</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3171719</v>
+      </c>
+      <c r="I40" t="n">
+        <v>52.458</v>
+      </c>
+      <c r="J40" t="n">
+        <v>67195</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="L40" t="n">
+        <v>62299</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N40" t="s">
+        <v>266</v>
+      </c>
+      <c r="O40" t="s">
+        <v>267</v>
+      </c>
+      <c r="P40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q40" t="s">
         <v>270</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D40" t="s">
-        <v>271</v>
-      </c>
-      <c r="E40" t="s">
-        <v>272</v>
-      </c>
-      <c r="F40" t="s">
-        <v>273</v>
-      </c>
-      <c r="G40" t="n">
-        <v>76</v>
-      </c>
-      <c r="H40" t="n">
-        <v>223649</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>274</v>
-      </c>
-      <c r="R40" t="s">
-        <v>94</v>
-      </c>
-      <c r="S40" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D41" t="s">
+        <v>273</v>
+      </c>
+      <c r="E41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41" t="n">
+        <v>97</v>
+      </c>
+      <c r="H41" t="n">
+        <v>258277</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.042</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41" t="n">
+        <v>4944</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="N41" t="s">
         <v>276</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>43961</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="O41" t="s">
         <v>277</v>
       </c>
-      <c r="E41" t="s">
-        <v>272</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="P41" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q41" t="s">
         <v>278</v>
-      </c>
-      <c r="G41" t="n">
-        <v>83</v>
-      </c>
-      <c r="H41" t="n">
-        <v>333910</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="J41"/>
-      <c r="K41" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="L41"/>
-      <c r="M41" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="N41"/>
-      <c r="O41" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="P41" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>274</v>
-      </c>
-      <c r="R41" t="s">
-        <v>24</v>
-      </c>
-      <c r="S41" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>271</v>
+      </c>
+      <c r="B42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D42" t="s">
         <v>280</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
+        <v>274</v>
+      </c>
+      <c r="F42" t="s">
         <v>281</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D42" t="s">
-        <v>282</v>
-      </c>
-      <c r="E42" t="s">
-        <v>283</v>
-      </c>
-      <c r="F42"/>
       <c r="G42" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="H42" t="n">
-        <v>422011</v>
+        <v>405177</v>
       </c>
       <c r="I42" t="n">
-        <v>22.475</v>
+        <v>3.204</v>
       </c>
       <c r="J42" t="n">
-        <v>13298</v>
+        <v>4467</v>
       </c>
       <c r="K42" t="n">
-        <v>0.708</v>
+        <v>0.035</v>
       </c>
       <c r="L42" t="n">
-        <v>12302.333</v>
+        <v>6559</v>
       </c>
       <c r="M42" t="n">
-        <v>0.655</v>
-      </c>
-      <c r="N42" t="n">
-        <v>14514.286</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.773</v>
+        <v>0.052</v>
+      </c>
+      <c r="N42" t="s">
+        <v>276</v>
+      </c>
+      <c r="O42" t="s">
+        <v>277</v>
       </c>
       <c r="P42" t="s">
-        <v>283</v>
+        <v>22</v>
       </c>
       <c r="Q42" t="s">
         <v>282</v>
       </c>
-      <c r="R42" t="s">
-        <v>24</v>
-      </c>
-      <c r="S42" t="s">
-        <v>284</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>283</v>
+      </c>
+      <c r="B43" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D43" t="s">
         <v>285</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>286</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D43" t="s">
-        <v>287</v>
-      </c>
-      <c r="E43" t="s">
-        <v>288</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="H43" t="n">
-        <v>33916</v>
+        <v>571547</v>
       </c>
       <c r="I43" t="n">
-        <v>0.631</v>
+        <v>30.439</v>
       </c>
       <c r="J43" t="n">
-        <v>978</v>
+        <v>18485</v>
       </c>
       <c r="K43" t="n">
-        <v>0.018</v>
+        <v>0.984</v>
       </c>
       <c r="L43" t="n">
-        <v>958.333</v>
+        <v>18865</v>
       </c>
       <c r="M43" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="N43"/>
-      <c r="O43"/>
+        <v>1.005</v>
+      </c>
+      <c r="N43" t="s">
+        <v>286</v>
+      </c>
+      <c r="O43" t="s">
+        <v>285</v>
+      </c>
       <c r="P43" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="Q43" t="s">
-        <v>289</v>
-      </c>
-      <c r="R43" t="s">
-        <v>290</v>
-      </c>
-      <c r="S43" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D44" t="s">
+        <v>290</v>
+      </c>
+      <c r="E44" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44" t="n">
+        <v>51</v>
+      </c>
+      <c r="H44" t="n">
+        <v>49405</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2621</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1996</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="N44" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" t="s">
         <v>292</v>
       </c>
-      <c r="B44" t="s">
+      <c r="P44" t="s">
         <v>293</v>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D44" t="s">
-        <v>294</v>
-      </c>
-      <c r="E44" t="s">
-        <v>295</v>
-      </c>
-      <c r="F44" t="s">
-        <v>296</v>
-      </c>
-      <c r="G44" t="n">
-        <v>74</v>
-      </c>
-      <c r="H44" t="n">
-        <v>79047</v>
-      </c>
-      <c r="I44" t="n">
-        <v>41.908</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1900</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1.007</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1158.667</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.614</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1842.429</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="P44" t="s">
-        <v>295</v>
       </c>
       <c r="Q44" t="s">
         <v>294</v>
       </c>
-      <c r="R44" t="s">
-        <v>24</v>
-      </c>
-      <c r="S44" t="s">
-        <v>297</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>295</v>
+      </c>
+      <c r="B45" t="s">
+        <v>296</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D45" t="s">
+        <v>297</v>
+      </c>
+      <c r="E45" t="s">
         <v>298</v>
       </c>
-      <c r="B45" t="s">
+      <c r="F45" t="s">
         <v>299</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="G45" t="n">
+        <v>82</v>
+      </c>
+      <c r="H45" t="n">
+        <v>92751</v>
+      </c>
+      <c r="I45" t="n">
+        <v>49.173</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1783</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1644</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="N45" t="s">
+        <v>298</v>
+      </c>
+      <c r="O45" t="s">
+        <v>297</v>
+      </c>
+      <c r="P45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q45" t="s">
         <v>300</v>
-      </c>
-      <c r="E45" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45"/>
-      <c r="G45" t="n">
-        <v>52</v>
-      </c>
-      <c r="H45" t="n">
-        <v>192386</v>
-      </c>
-      <c r="I45" t="n">
-        <v>70.671</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5821</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2.138</v>
-      </c>
-      <c r="L45" t="n">
-        <v>4018</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.476</v>
-      </c>
-      <c r="N45" t="n">
-        <v>6182.857</v>
-      </c>
-      <c r="O45" t="n">
-        <v>2.271</v>
-      </c>
-      <c r="P45" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>301</v>
-      </c>
-      <c r="R45" t="s">
-        <v>53</v>
-      </c>
-      <c r="S45" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>301</v>
+      </c>
+      <c r="B46" t="s">
+        <v>302</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D46" t="s">
         <v>303</v>
       </c>
-      <c r="B46" t="s">
-        <v>304</v>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D46" t="s">
-        <v>305</v>
-      </c>
       <c r="E46" t="s">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H46" t="n">
-        <v>56394</v>
+        <v>245580</v>
       </c>
       <c r="I46" t="n">
-        <v>90.09</v>
+        <v>90.211</v>
       </c>
       <c r="J46" t="n">
-        <v>979</v>
+        <v>7980</v>
       </c>
       <c r="K46" t="n">
-        <v>1.564</v>
+        <v>2.931</v>
       </c>
       <c r="L46" t="n">
-        <v>643.667</v>
+        <v>6474</v>
       </c>
       <c r="M46" t="n">
-        <v>1.028</v>
-      </c>
-      <c r="N46" t="n">
-        <v>1013.571</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.619</v>
+        <v>2.378</v>
+      </c>
+      <c r="N46" t="s">
+        <v>41</v>
+      </c>
+      <c r="O46" t="s">
+        <v>304</v>
       </c>
       <c r="P46" t="s">
-        <v>306</v>
+        <v>51</v>
       </c>
       <c r="Q46" t="s">
-        <v>307</v>
-      </c>
-      <c r="R46" t="s">
-        <v>24</v>
-      </c>
-      <c r="S46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>306</v>
+      </c>
+      <c r="B47" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D47" t="s">
+        <v>308</v>
+      </c>
+      <c r="E47" t="s">
         <v>309</v>
-      </c>
-      <c r="B47" t="s">
-        <v>310</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D47" t="s">
-        <v>311</v>
-      </c>
-      <c r="E47" t="s">
-        <v>312</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H47" t="n">
-        <v>266048</v>
+        <v>64018</v>
       </c>
       <c r="I47" t="n">
-        <v>8.22</v>
+        <v>102.269</v>
       </c>
       <c r="J47" t="n">
-        <v>9111</v>
+        <v>1007</v>
       </c>
       <c r="K47" t="n">
-        <v>0.281</v>
-      </c>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
+        <v>1.609</v>
+      </c>
+      <c r="L47" t="n">
+        <v>904</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="N47" t="s">
+        <v>309</v>
+      </c>
+      <c r="O47" t="s">
+        <v>310</v>
+      </c>
       <c r="P47" t="s">
-        <v>312</v>
+        <v>22</v>
       </c>
       <c r="Q47" t="s">
-        <v>313</v>
-      </c>
-      <c r="R47" t="s">
-        <v>314</v>
-      </c>
-      <c r="S47" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>43962</v>
+        <v>43971</v>
       </c>
       <c r="D48" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E48" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="H48" t="n">
-        <v>114125</v>
+        <v>462257</v>
       </c>
       <c r="I48" t="n">
-        <v>0.885</v>
+        <v>14.282</v>
       </c>
       <c r="J48"/>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48"/>
+      <c r="K48"/>
+      <c r="L48" t="n">
+        <v>18425</v>
+      </c>
       <c r="M48" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="N48"/>
-      <c r="O48" t="n">
-        <v>0.013</v>
+        <v>0.569</v>
+      </c>
+      <c r="N48" t="s">
+        <v>315</v>
+      </c>
+      <c r="O48" t="s">
+        <v>316</v>
       </c>
       <c r="P48" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q48" t="s">
         <v>318</v>
       </c>
-      <c r="R48" t="s">
-        <v>73</v>
-      </c>
-      <c r="S48" t="s">
-        <v>320</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>319</v>
+      </c>
+      <c r="B49" t="s">
+        <v>320</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D49" t="s">
         <v>321</v>
       </c>
-      <c r="B49" t="s">
+      <c r="E49" t="s">
         <v>322</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <v>43952</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>323</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="n">
+        <v>51</v>
+      </c>
+      <c r="H49" t="n">
+        <v>15280</v>
+      </c>
+      <c r="I49" t="n">
+        <v>28.268</v>
+      </c>
+      <c r="J49" t="n">
+        <v>426</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="L49" t="n">
+        <v>433</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="N49" t="s">
         <v>324</v>
       </c>
-      <c r="F49" t="s">
+      <c r="O49" t="s">
         <v>325</v>
       </c>
-      <c r="G49" t="n">
-        <v>56</v>
-      </c>
-      <c r="H49" t="n">
-        <v>37006</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1.003</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2165</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1918.667</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1867.571</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0.051</v>
-      </c>
       <c r="P49" t="s">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="Q49" t="s">
         <v>326</v>
       </c>
-      <c r="R49" t="s">
-        <v>73</v>
-      </c>
-      <c r="S49" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>327</v>
+      </c>
+      <c r="B50" t="s">
         <v>328</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D50" t="s">
         <v>329</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>330</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50"/>
+      <c r="G50" t="n">
+        <v>139</v>
+      </c>
+      <c r="H50" t="n">
+        <v>156320</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.212</v>
+      </c>
+      <c r="J50" t="n">
+        <v>314</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3145</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="N50" t="s">
+        <v>330</v>
+      </c>
+      <c r="O50" t="s">
+        <v>329</v>
+      </c>
+      <c r="P50" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q50" t="s">
         <v>331</v>
-      </c>
-      <c r="F50" t="s">
-        <v>332</v>
-      </c>
-      <c r="G50" t="n">
-        <v>36</v>
-      </c>
-      <c r="H50" t="n">
-        <v>11822</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="J50" t="n">
-        <v>340</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>333</v>
-      </c>
-      <c r="R50" t="s">
-        <v>53</v>
-      </c>
-      <c r="S50" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>332</v>
+      </c>
+      <c r="B51" t="s">
+        <v>333</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D51" t="s">
+        <v>334</v>
+      </c>
+      <c r="E51" t="s">
         <v>335</v>
       </c>
-      <c r="B51" t="s">
+      <c r="F51" t="s">
         <v>336</v>
       </c>
-      <c r="C51" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="G51" t="n">
+        <v>87</v>
+      </c>
+      <c r="H51" t="n">
+        <v>95536</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.588</v>
+      </c>
+      <c r="J51" t="n">
+        <v>5579</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3794</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="N51" t="s">
+        <v>335</v>
+      </c>
+      <c r="O51" t="s">
         <v>337</v>
       </c>
-      <c r="E51" t="s">
+      <c r="P51" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q51" t="s">
         <v>338</v>
-      </c>
-      <c r="F51" t="s">
-        <v>339</v>
-      </c>
-      <c r="G51" t="n">
-        <v>81</v>
-      </c>
-      <c r="H51" t="n">
-        <v>17809</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="J51" t="n">
-        <v>911</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="L51" t="n">
-        <v>772.333</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="N51" t="n">
-        <v>595.571</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P51" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>340</v>
-      </c>
-      <c r="R51" t="s">
-        <v>94</v>
-      </c>
-      <c r="S51" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>339</v>
+      </c>
+      <c r="B52" t="s">
+        <v>340</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D52" t="s">
+        <v>341</v>
+      </c>
+      <c r="E52" t="s">
         <v>342</v>
-      </c>
-      <c r="B52" t="s">
-        <v>343</v>
-      </c>
-      <c r="C52" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D52" t="s">
-        <v>344</v>
-      </c>
-      <c r="E52" t="s">
-        <v>345</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="H52" t="n">
-        <v>270351</v>
+        <v>15838</v>
       </c>
       <c r="I52" t="n">
-        <v>15.778</v>
+        <v>0.291</v>
       </c>
       <c r="J52" t="n">
-        <v>3192</v>
+        <v>701</v>
       </c>
       <c r="K52" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
+        <v>0.013</v>
+      </c>
+      <c r="L52" t="n">
+        <v>539</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N52" t="s">
+        <v>342</v>
+      </c>
+      <c r="O52" t="s">
+        <v>343</v>
+      </c>
       <c r="P52" t="s">
-        <v>346</v>
+        <v>51</v>
       </c>
       <c r="Q52" t="s">
-        <v>347</v>
-      </c>
-      <c r="R52" t="s">
-        <v>94</v>
-      </c>
-      <c r="S52" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" t="s">
+        <v>346</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D53" t="s">
+        <v>347</v>
+      </c>
+      <c r="E53" t="s">
+        <v>348</v>
+      </c>
+      <c r="F53" t="s">
         <v>349</v>
       </c>
-      <c r="B53" t="s">
+      <c r="G53" t="n">
+        <v>89</v>
+      </c>
+      <c r="H53" t="n">
+        <v>33006</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2282</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2006</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="N53" t="s">
+        <v>348</v>
+      </c>
+      <c r="O53" t="s">
         <v>350</v>
       </c>
-      <c r="C53" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D53" t="s">
-        <v>351</v>
-      </c>
-      <c r="E53" t="s">
-        <v>43</v>
-      </c>
-      <c r="F53"/>
-      <c r="G53" t="n">
-        <v>64</v>
-      </c>
-      <c r="H53" t="n">
-        <v>197084</v>
-      </c>
-      <c r="I53" t="n">
-        <v>40.87</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2893</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L53" t="n">
-        <v>4681.667</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.971</v>
-      </c>
-      <c r="N53" t="n">
-        <v>5879.429</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.219</v>
-      </c>
       <c r="P53" t="s">
-        <v>352</v>
+        <v>92</v>
       </c>
       <c r="Q53" t="s">
         <v>351</v>
       </c>
-      <c r="R53" t="s">
-        <v>24</v>
-      </c>
-      <c r="S53" t="s">
-        <v>353</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>352</v>
+      </c>
+      <c r="B54" t="s">
+        <v>353</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D54" t="s">
         <v>354</v>
       </c>
-      <c r="B54" t="s">
+      <c r="E54" t="s">
         <v>355</v>
-      </c>
-      <c r="C54" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D54" t="s">
-        <v>356</v>
-      </c>
-      <c r="E54" t="s">
-        <v>357</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H54" t="n">
-        <v>28418</v>
+        <v>306460</v>
       </c>
       <c r="I54" t="n">
-        <v>0.138</v>
+        <v>17.885</v>
       </c>
       <c r="J54" t="n">
-        <v>1340</v>
+        <v>3688</v>
       </c>
       <c r="K54" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
+        <v>0.215</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4270</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="N54" t="s">
+        <v>356</v>
+      </c>
+      <c r="O54" t="s">
+        <v>357</v>
+      </c>
       <c r="P54" t="s">
-        <v>357</v>
+        <v>92</v>
       </c>
       <c r="Q54" t="s">
         <v>358</v>
       </c>
-      <c r="R54" t="s">
-        <v>53</v>
-      </c>
-      <c r="S54" t="s">
-        <v>359</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>359</v>
+      </c>
+      <c r="B55" t="s">
         <v>360</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D55" t="s">
         <v>361</v>
       </c>
-      <c r="C55" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D55" t="s">
-        <v>362</v>
-      </c>
       <c r="E55" t="s">
-        <v>363</v>
+        <v>41</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H55" t="n">
-        <v>205239</v>
+        <v>238745</v>
       </c>
       <c r="I55" t="n">
-        <v>37.858</v>
+        <v>49.509</v>
       </c>
       <c r="J55" t="n">
-        <v>2488</v>
+        <v>4902</v>
       </c>
       <c r="K55" t="n">
-        <v>0.459</v>
-      </c>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
+        <v>1.017</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5100</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.058</v>
+      </c>
+      <c r="N55" t="s">
+        <v>362</v>
+      </c>
+      <c r="O55" t="s">
+        <v>361</v>
+      </c>
       <c r="P55" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q55" t="s">
         <v>363</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>364</v>
-      </c>
-      <c r="R55" t="s">
-        <v>365</v>
-      </c>
-      <c r="S55" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>364</v>
+      </c>
+      <c r="B56" t="s">
+        <v>365</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D56" t="s">
+        <v>366</v>
+      </c>
+      <c r="E56" t="s">
         <v>367</v>
-      </c>
-      <c r="B56" t="s">
-        <v>368</v>
-      </c>
-      <c r="C56" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D56" t="s">
-        <v>369</v>
-      </c>
-      <c r="E56" t="s">
-        <v>370</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="H56" t="n">
-        <v>305851</v>
+        <v>38231</v>
       </c>
       <c r="I56" t="n">
-        <v>1.385</v>
+        <v>0.185</v>
       </c>
       <c r="J56" t="n">
-        <v>10957</v>
+        <v>1332</v>
       </c>
       <c r="K56" t="n">
-        <v>0.05</v>
+        <v>0.006</v>
       </c>
       <c r="L56" t="n">
-        <v>11942</v>
+        <v>1260</v>
       </c>
       <c r="M56" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="N56" t="n">
-        <v>11921</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0.054</v>
+        <v>0.006</v>
+      </c>
+      <c r="N56" t="s">
+        <v>367</v>
+      </c>
+      <c r="O56" t="s">
+        <v>368</v>
       </c>
       <c r="P56" t="s">
-        <v>370</v>
+        <v>51</v>
       </c>
       <c r="Q56" t="s">
-        <v>371</v>
-      </c>
-      <c r="R56" t="s">
-        <v>24</v>
-      </c>
-      <c r="S56" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>370</v>
+      </c>
+      <c r="B57" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D57" t="s">
+        <v>372</v>
+      </c>
+      <c r="E57" t="s">
         <v>373</v>
       </c>
-      <c r="B57" t="s">
+      <c r="F57"/>
+      <c r="G57" t="n">
+        <v>56</v>
+      </c>
+      <c r="H57" t="n">
+        <v>223045</v>
+      </c>
+      <c r="I57" t="n">
+        <v>41.143</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3061</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.565</v>
+      </c>
+      <c r="L57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="N57" t="s">
+        <v>373</v>
+      </c>
+      <c r="O57" t="s">
         <v>374</v>
       </c>
-      <c r="C57" s="1" t="n">
-        <v>43961</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="P57" t="s">
         <v>375</v>
       </c>
-      <c r="E57" t="s">
-        <v>43</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="Q57" t="s">
         <v>376</v>
-      </c>
-      <c r="G57" t="n">
-        <v>63</v>
-      </c>
-      <c r="H57" t="n">
-        <v>42657</v>
-      </c>
-      <c r="I57" t="n">
-        <v>9.886</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1008</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.234</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1188</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="N57" t="n">
-        <v>1171.143</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="P57" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>377</v>
-      </c>
-      <c r="R57" t="s">
-        <v>128</v>
-      </c>
-      <c r="S57" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>377</v>
+      </c>
+      <c r="B58" t="s">
+        <v>378</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D58" t="s">
         <v>379</v>
       </c>
-      <c r="B58" t="s">
+      <c r="E58" t="s">
         <v>380</v>
       </c>
-      <c r="C58" s="1" t="n">
-        <v>43960</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="F58"/>
+      <c r="G58" t="n">
+        <v>70</v>
+      </c>
+      <c r="H58" t="n">
+        <v>414254</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="J58" t="n">
+        <v>13962</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="L58" t="n">
+        <v>13794</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="N58" t="s">
+        <v>380</v>
+      </c>
+      <c r="O58" t="s">
         <v>381</v>
       </c>
-      <c r="E58" t="s">
+      <c r="P58" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q58" t="s">
         <v>382</v>
-      </c>
-      <c r="F58" t="s">
-        <v>383</v>
-      </c>
-      <c r="G58" t="n">
-        <v>62</v>
-      </c>
-      <c r="H58" t="n">
-        <v>14646</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.053</v>
-      </c>
-      <c r="J58" t="n">
-        <v>800</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="L58" t="n">
-        <v>716.333</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N58" t="n">
-        <v>554.286</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="P58" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>385</v>
-      </c>
-      <c r="R58" t="s">
-        <v>53</v>
-      </c>
-      <c r="S58" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>383</v>
+      </c>
+      <c r="B59" t="s">
+        <v>384</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E59" t="s">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s">
+        <v>386</v>
+      </c>
+      <c r="G59" t="n">
+        <v>71</v>
+      </c>
+      <c r="H59" t="n">
+        <v>51105</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11.844</v>
+      </c>
+      <c r="J59" t="n">
+        <v>757</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1063</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="N59" t="s">
+        <v>41</v>
+      </c>
+      <c r="O59" t="s">
         <v>387</v>
       </c>
-      <c r="B59" t="s">
+      <c r="P59" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q59" t="s">
         <v>388</v>
-      </c>
-      <c r="C59" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D59" t="s">
-        <v>389</v>
-      </c>
-      <c r="E59" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59"/>
-      <c r="G59" t="n">
-        <v>62</v>
-      </c>
-      <c r="H59" t="n">
-        <v>532169</v>
-      </c>
-      <c r="I59" t="n">
-        <v>16.14</v>
-      </c>
-      <c r="J59" t="n">
-        <v>19300</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.585</v>
-      </c>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>391</v>
-      </c>
-      <c r="R59" t="s">
-        <v>392</v>
-      </c>
-      <c r="S59" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>389</v>
+      </c>
+      <c r="B60" t="s">
+        <v>390</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>43960</v>
+      </c>
+      <c r="D60" t="s">
+        <v>391</v>
+      </c>
+      <c r="E60" t="s">
+        <v>392</v>
+      </c>
+      <c r="F60" t="s">
+        <v>393</v>
+      </c>
+      <c r="G60" t="n">
+        <v>62</v>
+      </c>
+      <c r="H60" t="n">
+        <v>14646</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.053</v>
+      </c>
+      <c r="J60" t="n">
+        <v>800</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="L60" t="n">
+        <v>554</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="N60" t="s">
         <v>394</v>
       </c>
-      <c r="B60" t="s">
+      <c r="O60" t="s">
         <v>395</v>
       </c>
-      <c r="C60" s="1" t="n">
-        <v>43961</v>
-      </c>
-      <c r="D60" t="s">
-        <v>396</v>
-      </c>
-      <c r="E60" t="s">
-        <v>397</v>
-      </c>
-      <c r="F60"/>
-      <c r="G60" t="n">
-        <v>21</v>
-      </c>
-      <c r="H60" t="n">
-        <v>157850</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="Q60" t="s">
         <v>396</v>
       </c>
-      <c r="R60" t="s">
-        <v>94</v>
-      </c>
-      <c r="S60" t="s">
-        <v>398</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>397</v>
+      </c>
+      <c r="B61" t="s">
+        <v>398</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D61" t="s">
         <v>399</v>
       </c>
-      <c r="B61" t="s">
-        <v>400</v>
-      </c>
-      <c r="C61" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D61" t="s">
-        <v>401</v>
-      </c>
       <c r="E61" t="s">
-        <v>402</v>
-      </c>
-      <c r="F61" t="s">
-        <v>403</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F61"/>
       <c r="G61" t="n">
         <v>69</v>
       </c>
       <c r="H61" t="n">
-        <v>507778</v>
+        <v>108481</v>
       </c>
       <c r="I61" t="n">
-        <v>13.417</v>
+        <v>3.29</v>
       </c>
       <c r="J61" t="n">
-        <v>16562</v>
+        <v>2854</v>
       </c>
       <c r="K61" t="n">
-        <v>0.438</v>
+        <v>0.087</v>
       </c>
       <c r="L61" t="n">
-        <v>15697.333</v>
+        <v>2956</v>
       </c>
       <c r="M61" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="N61" t="n">
-        <v>16215.429</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0.429</v>
+        <v>0.09</v>
+      </c>
+      <c r="N61" t="s">
+        <v>400</v>
+      </c>
+      <c r="O61" t="s">
+        <v>401</v>
       </c>
       <c r="P61" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q61" t="s">
-        <v>405</v>
-      </c>
-      <c r="R61" t="s">
-        <v>53</v>
-      </c>
-      <c r="S61" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>404</v>
+      </c>
+      <c r="B62" t="s">
+        <v>405</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>43966</v>
+      </c>
+      <c r="D62" t="s">
+        <v>406</v>
+      </c>
+      <c r="E62" t="s">
         <v>407</v>
       </c>
-      <c r="B62" t="s">
+      <c r="F62" t="s">
         <v>408</v>
       </c>
-      <c r="C62" s="1" t="n">
-        <v>43961</v>
-      </c>
-      <c r="D62" t="s">
-        <v>409</v>
-      </c>
-      <c r="E62" t="s">
-        <v>43</v>
-      </c>
-      <c r="F62"/>
       <c r="G62" t="n">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="H62" t="n">
-        <v>553855</v>
+        <v>188024</v>
       </c>
       <c r="I62" t="n">
-        <v>54.317</v>
-      </c>
-      <c r="J62" t="n">
-        <v>7472</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.733</v>
-      </c>
+        <v>1.716</v>
+      </c>
+      <c r="J62"/>
+      <c r="K62"/>
       <c r="L62" t="n">
-        <v>12041.667</v>
+        <v>6324</v>
       </c>
       <c r="M62" t="n">
-        <v>1.181</v>
-      </c>
-      <c r="N62" t="n">
-        <v>13602</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.334</v>
+        <v>0.058</v>
+      </c>
+      <c r="N62" t="s">
+        <v>211</v>
+      </c>
+      <c r="O62" t="s">
+        <v>406</v>
       </c>
       <c r="P62" t="s">
-        <v>410</v>
+        <v>92</v>
       </c>
       <c r="Q62" t="s">
         <v>409</v>
       </c>
-      <c r="R62" t="s">
-        <v>411</v>
-      </c>
-      <c r="S62" t="s">
-        <v>412</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>410</v>
+      </c>
+      <c r="B63" t="s">
+        <v>411</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D63" t="s">
+        <v>412</v>
+      </c>
+      <c r="E63" t="s">
         <v>413</v>
       </c>
-      <c r="B63" t="s">
+      <c r="F63" t="s">
         <v>414</v>
       </c>
-      <c r="C63" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="G63" t="n">
+        <v>77</v>
+      </c>
+      <c r="H63" t="n">
+        <v>674861</v>
+      </c>
+      <c r="I63" t="n">
+        <v>17.831</v>
+      </c>
+      <c r="J63" t="n">
+        <v>21637</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="L63" t="n">
+        <v>20963</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="N63" t="s">
         <v>415</v>
       </c>
-      <c r="E63" t="s">
+      <c r="O63" t="s">
         <v>416</v>
       </c>
-      <c r="F63"/>
-      <c r="G63" t="n">
-        <v>55</v>
-      </c>
-      <c r="H63" t="n">
-        <v>135294</v>
-      </c>
-      <c r="I63" t="n">
-        <v>46.96</v>
-      </c>
-      <c r="J63" t="n">
-        <v>4250</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1.475</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3580</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.243</v>
-      </c>
-      <c r="N63" t="n">
-        <v>3647.429</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1.266</v>
-      </c>
       <c r="P63" t="s">
-        <v>416</v>
+        <v>51</v>
       </c>
       <c r="Q63" t="s">
         <v>417</v>
       </c>
-      <c r="R63" t="s">
-        <v>94</v>
-      </c>
-      <c r="S63" t="s">
-        <v>418</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>418</v>
+      </c>
+      <c r="B64" t="s">
         <v>419</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D64" t="s">
         <v>420</v>
       </c>
-      <c r="C64" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64" t="n">
+        <v>79</v>
+      </c>
+      <c r="H64" t="n">
+        <v>674001</v>
+      </c>
+      <c r="I64" t="n">
+        <v>66.1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>11621</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L64" t="n">
+        <v>15375</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.508</v>
+      </c>
+      <c r="N64" t="s">
         <v>421</v>
       </c>
-      <c r="E64" t="s">
-        <v>422</v>
-      </c>
-      <c r="F64" t="s">
-        <v>423</v>
-      </c>
-      <c r="G64" t="n">
-        <v>62</v>
-      </c>
-      <c r="H64" t="n">
-        <v>269183</v>
-      </c>
-      <c r="I64" t="n">
-        <v>13.992</v>
-      </c>
-      <c r="J64" t="n">
-        <v>6964</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.362</v>
-      </c>
-      <c r="L64" t="n">
-        <v>7042.333</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="N64" t="n">
-        <v>9048.714</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0.47</v>
+      <c r="O64" t="s">
+        <v>420</v>
       </c>
       <c r="P64" t="s">
         <v>422</v>
       </c>
       <c r="Q64" t="s">
-        <v>421</v>
-      </c>
-      <c r="R64" t="s">
-        <v>24</v>
-      </c>
-      <c r="S64" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>424</v>
+      </c>
+      <c r="B65" t="s">
         <v>425</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D65" t="s">
         <v>426</v>
       </c>
-      <c r="C65" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>427</v>
-      </c>
-      <c r="E65" t="s">
-        <v>428</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H65" t="n">
-        <v>5805404</v>
+        <v>170437</v>
       </c>
       <c r="I65" t="n">
-        <v>39.781</v>
+        <v>59.158</v>
       </c>
       <c r="J65" t="n">
-        <v>168641</v>
+        <v>4255</v>
       </c>
       <c r="K65" t="n">
-        <v>1.156</v>
+        <v>1.477</v>
       </c>
       <c r="L65" t="n">
-        <v>194480</v>
+        <v>4473</v>
       </c>
       <c r="M65" t="n">
-        <v>1.333</v>
-      </c>
-      <c r="N65" t="n">
-        <v>192149.571</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1.317</v>
+        <v>1.553</v>
+      </c>
+      <c r="N65" t="s">
+        <v>427</v>
+      </c>
+      <c r="O65" t="s">
+        <v>428</v>
       </c>
       <c r="P65" t="s">
-        <v>428</v>
+        <v>92</v>
       </c>
       <c r="Q65" t="s">
         <v>429</v>
       </c>
-      <c r="R65" t="s">
-        <v>24</v>
-      </c>
-      <c r="S65" t="s">
-        <v>430</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>430</v>
+      </c>
+      <c r="B66" t="s">
         <v>431</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D66" t="s">
         <v>432</v>
       </c>
-      <c r="C66" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>433</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>434</v>
       </c>
-      <c r="F66"/>
       <c r="G66" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="H66" t="n">
-        <v>42805</v>
+        <v>332487</v>
       </c>
       <c r="I66" t="n">
-        <v>3.305</v>
-      </c>
-      <c r="J66"/>
+        <v>17.283</v>
+      </c>
+      <c r="J66" t="n">
+        <v>10413</v>
+      </c>
       <c r="K66" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="L66"/>
+        <v>0.541</v>
+      </c>
+      <c r="L66" t="n">
+        <v>7812</v>
+      </c>
       <c r="M66" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="N66"/>
-      <c r="O66" t="n">
-        <v>0.085</v>
+        <v>0.406</v>
+      </c>
+      <c r="N66" t="s">
+        <v>433</v>
+      </c>
+      <c r="O66" t="s">
+        <v>432</v>
       </c>
       <c r="P66" t="s">
-        <v>434</v>
+        <v>22</v>
       </c>
       <c r="Q66" t="s">
         <v>435</v>
       </c>
-      <c r="R66" t="s">
-        <v>53</v>
-      </c>
-      <c r="S66" t="s">
-        <v>436</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>436</v>
+      </c>
+      <c r="B67" t="s">
         <v>437</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D67" t="s">
         <v>438</v>
       </c>
-      <c r="C67" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>439</v>
-      </c>
-      <c r="E67" t="s">
-        <v>43</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="H67" t="n">
-        <v>482374</v>
+        <v>7578029</v>
       </c>
       <c r="I67" t="n">
-        <v>13.856</v>
+        <v>51.928</v>
       </c>
       <c r="J67" t="n">
-        <v>15005</v>
+        <v>225713</v>
       </c>
       <c r="K67" t="n">
-        <v>0.431</v>
+        <v>1.547</v>
       </c>
       <c r="L67" t="n">
-        <v>16291.333</v>
+        <v>227924</v>
       </c>
       <c r="M67" t="n">
-        <v>0.468</v>
-      </c>
-      <c r="N67"/>
-      <c r="O67"/>
+        <v>1.562</v>
+      </c>
+      <c r="N67" t="s">
+        <v>439</v>
+      </c>
+      <c r="O67" t="s">
+        <v>440</v>
+      </c>
       <c r="P67" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="Q67" t="s">
-        <v>439</v>
-      </c>
-      <c r="R67" t="s">
-        <v>128</v>
-      </c>
-      <c r="S67" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>43963</v>
+        <v>43970</v>
       </c>
       <c r="D68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E68" t="s">
-        <v>444</v>
-      </c>
-      <c r="F68" t="s">
         <v>445</v>
       </c>
+      <c r="F68"/>
       <c r="G68" t="n">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H68" t="n">
-        <v>23589</v>
+        <v>52335</v>
       </c>
       <c r="I68" t="n">
-        <v>1.409</v>
+        <v>4.041</v>
       </c>
       <c r="J68" t="n">
-        <v>1099</v>
+        <v>1217</v>
       </c>
       <c r="K68" t="n">
-        <v>0.066</v>
+        <v>0.094</v>
       </c>
       <c r="L68" t="n">
-        <v>1124</v>
+        <v>1279</v>
       </c>
       <c r="M68" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1043</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.062</v>
+        <v>0.099</v>
+      </c>
+      <c r="N68" t="s">
+        <v>445</v>
+      </c>
+      <c r="O68" t="s">
+        <v>446</v>
       </c>
       <c r="P68" t="s">
-        <v>446</v>
+        <v>51</v>
       </c>
       <c r="Q68" t="s">
         <v>447</v>
       </c>
-      <c r="R68" t="s">
-        <v>448</v>
-      </c>
-      <c r="S68" t="s">
-        <v>449</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>448</v>
+      </c>
+      <c r="B69" t="s">
+        <v>449</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D69" t="s">
         <v>450</v>
       </c>
-      <c r="B69" t="s">
+      <c r="E69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69" t="n">
+        <v>14</v>
+      </c>
+      <c r="H69" t="n">
+        <v>618084</v>
+      </c>
+      <c r="I69" t="n">
+        <v>17.754</v>
+      </c>
+      <c r="J69" t="n">
+        <v>16130</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="L69" t="n">
+        <v>19387</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.557</v>
+      </c>
+      <c r="N69" t="s">
+        <v>41</v>
+      </c>
+      <c r="O69" t="s">
         <v>451</v>
       </c>
-      <c r="C69" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="P69" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q69" t="s">
         <v>452</v>
-      </c>
-      <c r="E69" t="s">
-        <v>43</v>
-      </c>
-      <c r="F69" t="s">
-        <v>453</v>
-      </c>
-      <c r="G69" t="n">
-        <v>76</v>
-      </c>
-      <c r="H69" t="n">
-        <v>151304</v>
-      </c>
-      <c r="I69" t="n">
-        <v>22.236</v>
-      </c>
-      <c r="J69" t="n">
-        <v>5700</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.838</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5590.333</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.822</v>
-      </c>
-      <c r="N69" t="n">
-        <v>5718</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="P69" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>454</v>
-      </c>
-      <c r="R69" t="s">
-        <v>94</v>
-      </c>
-      <c r="S69" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>453</v>
+      </c>
+      <c r="B70" t="s">
+        <v>454</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D70" t="s">
+        <v>455</v>
+      </c>
+      <c r="E70" t="s">
         <v>456</v>
       </c>
-      <c r="B70" t="s">
+      <c r="F70" t="s">
         <v>457</v>
       </c>
-      <c r="C70" s="1" t="n">
-        <v>43955</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="G70" t="n">
+        <v>79</v>
+      </c>
+      <c r="H70" t="n">
+        <v>31478</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1042</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="L70" t="n">
+        <v>996</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="N70" t="s">
         <v>458</v>
       </c>
-      <c r="E70" t="s">
-        <v>43</v>
-      </c>
-      <c r="F70"/>
-      <c r="G70" t="n">
-        <v>5</v>
-      </c>
-      <c r="H70" t="n">
-        <v>123525</v>
-      </c>
-      <c r="I70" t="n">
-        <v>21.114</v>
-      </c>
-      <c r="J70"/>
-      <c r="K70"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
+      <c r="O70" t="s">
+        <v>459</v>
+      </c>
       <c r="P70" t="s">
-        <v>43</v>
+        <v>460</v>
       </c>
       <c r="Q70" t="s">
-        <v>459</v>
-      </c>
-      <c r="R70" t="s">
-        <v>94</v>
-      </c>
-      <c r="S70" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B71" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>43955</v>
+        <v>43971</v>
       </c>
       <c r="D71" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
-      </c>
-      <c r="F71"/>
+        <v>41</v>
+      </c>
+      <c r="F71" t="s">
+        <v>465</v>
+      </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="H71" t="n">
-        <v>175604</v>
+        <v>196881</v>
       </c>
       <c r="I71" t="n">
-        <v>30.016</v>
-      </c>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
+        <v>28.934</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6198</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="L71" t="n">
+        <v>5754</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="N71" t="s">
+        <v>41</v>
+      </c>
+      <c r="O71" t="s">
+        <v>466</v>
+      </c>
       <c r="P71" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="Q71" t="s">
-        <v>459</v>
-      </c>
-      <c r="R71" t="s">
-        <v>463</v>
-      </c>
-      <c r="S71" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B72" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>43963</v>
+        <v>43969</v>
       </c>
       <c r="D72" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="E72" t="s">
-        <v>467</v>
+        <v>41</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="H72" t="n">
-        <v>122708</v>
+        <v>191260</v>
       </c>
       <c r="I72" t="n">
-        <v>22.475</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2063</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.378</v>
-      </c>
+        <v>32.692</v>
+      </c>
+      <c r="J72"/>
+      <c r="K72"/>
       <c r="L72" t="n">
-        <v>1445.667</v>
+        <v>635</v>
       </c>
       <c r="M72" t="n">
-        <v>0.265</v>
-      </c>
-      <c r="N72" t="n">
-        <v>3263.429</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.598</v>
+        <v>0.109</v>
+      </c>
+      <c r="N72" t="s">
+        <v>41</v>
+      </c>
+      <c r="O72" t="s">
+        <v>471</v>
       </c>
       <c r="P72" t="s">
-        <v>468</v>
+        <v>92</v>
       </c>
       <c r="Q72" t="s">
-        <v>469</v>
-      </c>
-      <c r="R72" t="s">
-        <v>470</v>
-      </c>
-      <c r="S72" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B73" t="s">
         <v>473</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>43962</v>
+        <v>43969</v>
       </c>
       <c r="D73" t="s">
         <v>474</v>
       </c>
       <c r="E73" t="s">
-        <v>475</v>
+        <v>41</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="H73" t="n">
-        <v>64547</v>
+        <v>294414</v>
       </c>
       <c r="I73" t="n">
-        <v>31.048</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1182</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.569</v>
-      </c>
+        <v>50.324</v>
+      </c>
+      <c r="J73"/>
+      <c r="K73"/>
       <c r="L73" t="n">
-        <v>781.333</v>
+        <v>6020</v>
       </c>
       <c r="M73" t="n">
-        <v>0.376</v>
-      </c>
-      <c r="N73" t="n">
-        <v>1010.429</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0.486</v>
+        <v>1.029</v>
+      </c>
+      <c r="N73" t="s">
+        <v>41</v>
+      </c>
+      <c r="O73" t="s">
+        <v>471</v>
       </c>
       <c r="P73" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="Q73" t="s">
-        <v>477</v>
-      </c>
-      <c r="R73" t="s">
-        <v>24</v>
-      </c>
-      <c r="S73" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>476</v>
+      </c>
+      <c r="B74" t="s">
+        <v>477</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D74" t="s">
+        <v>478</v>
+      </c>
+      <c r="E74" t="s">
         <v>479</v>
       </c>
-      <c r="B74" t="s">
+      <c r="F74"/>
+      <c r="G74" t="n">
+        <v>55</v>
+      </c>
+      <c r="H74" t="n">
+        <v>148845</v>
+      </c>
+      <c r="I74" t="n">
+        <v>27.263</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3371</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="L74" t="n">
+        <v>3116</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="N74" t="s">
         <v>480</v>
       </c>
-      <c r="C74" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="O74" t="s">
         <v>481</v>
-      </c>
-      <c r="E74" t="s">
-        <v>482</v>
-      </c>
-      <c r="F74" t="s">
-        <v>483</v>
-      </c>
-      <c r="G74" t="n">
-        <v>73</v>
-      </c>
-      <c r="H74" t="n">
-        <v>369697</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6.233</v>
-      </c>
-      <c r="J74" t="n">
-        <v>13630</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15206</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="N74" t="n">
-        <v>14519</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.245</v>
       </c>
       <c r="P74" t="s">
         <v>482</v>
       </c>
       <c r="Q74" t="s">
-        <v>484</v>
-      </c>
-      <c r="R74" t="s">
-        <v>94</v>
-      </c>
-      <c r="S74" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>484</v>
+      </c>
+      <c r="B75" t="s">
+        <v>485</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D75" t="s">
         <v>486</v>
       </c>
-      <c r="B75" t="s">
+      <c r="E75" t="s">
         <v>487</v>
-      </c>
-      <c r="C75" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D75" t="s">
-        <v>488</v>
-      </c>
-      <c r="E75" t="s">
-        <v>489</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="H75" t="n">
-        <v>680890</v>
+        <v>71951</v>
       </c>
       <c r="I75" t="n">
-        <v>13.281</v>
+        <v>34.61</v>
       </c>
       <c r="J75" t="n">
-        <v>12398</v>
+        <v>981</v>
       </c>
       <c r="K75" t="n">
-        <v>0.242</v>
+        <v>0.472</v>
       </c>
       <c r="L75" t="n">
-        <v>6953.333</v>
+        <v>894</v>
       </c>
       <c r="M75" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="N75" t="n">
-        <v>5807.571</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.113</v>
+        <v>0.43</v>
+      </c>
+      <c r="N75" t="s">
+        <v>488</v>
+      </c>
+      <c r="O75" t="s">
+        <v>489</v>
       </c>
       <c r="P75" t="s">
-        <v>489</v>
+        <v>22</v>
       </c>
       <c r="Q75" t="s">
         <v>490</v>
       </c>
-      <c r="R75" t="s">
-        <v>73</v>
-      </c>
-      <c r="S75" t="s">
-        <v>491</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>491</v>
+      </c>
+      <c r="B76" t="s">
         <v>492</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D76" t="s">
         <v>493</v>
       </c>
-      <c r="C76" s="1" t="n">
-        <v>43958</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>494</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>495</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="n">
+        <v>80</v>
+      </c>
+      <c r="H76" t="n">
+        <v>488609</v>
+      </c>
+      <c r="I76" t="n">
+        <v>8.238</v>
+      </c>
+      <c r="J76" t="n">
+        <v>13538</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="L76" t="n">
+        <v>16987</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="N76" t="s">
+        <v>494</v>
+      </c>
+      <c r="O76" t="s">
         <v>496</v>
       </c>
-      <c r="G76" t="n">
-        <v>4</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1625211</v>
-      </c>
-      <c r="I76" t="n">
-        <v>34.76</v>
-      </c>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
       <c r="P76" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q76" t="s">
         <v>497</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>498</v>
-      </c>
-      <c r="R76" t="s">
-        <v>24</v>
-      </c>
-      <c r="S76" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>498</v>
+      </c>
+      <c r="B77" t="s">
+        <v>499</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D77" t="s">
         <v>500</v>
       </c>
-      <c r="B77" t="s">
+      <c r="E77" t="s">
         <v>501</v>
-      </c>
-      <c r="C77" s="1" t="n">
-        <v>43961</v>
-      </c>
-      <c r="D77" t="s">
-        <v>502</v>
-      </c>
-      <c r="E77" t="s">
-        <v>503</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="H77" t="n">
-        <v>177500</v>
+        <v>776433</v>
       </c>
       <c r="I77" t="n">
-        <v>17.576</v>
-      </c>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
+        <v>15.144</v>
+      </c>
+      <c r="J77" t="n">
+        <v>10859</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="L77" t="n">
+        <v>11502</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="N77" t="s">
+        <v>501</v>
+      </c>
+      <c r="O77" t="s">
+        <v>502</v>
+      </c>
       <c r="P77" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q77" t="s">
         <v>503</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>502</v>
-      </c>
-      <c r="R77" t="s">
-        <v>94</v>
-      </c>
-      <c r="S77" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>504</v>
+      </c>
+      <c r="B78" t="s">
         <v>505</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" s="1" t="n">
+        <v>43965</v>
+      </c>
+      <c r="D78" t="s">
         <v>506</v>
       </c>
-      <c r="C78" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>507</v>
-      </c>
-      <c r="E78" t="s">
-        <v>508</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="H78" t="n">
-        <v>316851</v>
+        <v>1919411</v>
       </c>
       <c r="I78" t="n">
-        <v>36.611</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2501</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.289</v>
-      </c>
+        <v>41.053</v>
+      </c>
+      <c r="J78"/>
+      <c r="K78"/>
       <c r="L78" t="n">
-        <v>2350.333</v>
+        <v>42029</v>
       </c>
       <c r="M78" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="N78" t="n">
-        <v>3884.143</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.449</v>
+        <v>0.899</v>
+      </c>
+      <c r="N78" t="s">
+        <v>508</v>
+      </c>
+      <c r="O78" t="s">
+        <v>509</v>
       </c>
       <c r="P78" t="s">
-        <v>508</v>
+        <v>22</v>
       </c>
       <c r="Q78" t="s">
-        <v>507</v>
-      </c>
-      <c r="R78" t="s">
-        <v>509</v>
-      </c>
-      <c r="S78" t="s">
         <v>510</v>
       </c>
     </row>
@@ -6584,7 +6385,7 @@
         <v>512</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>43962</v>
+        <v>43968</v>
       </c>
       <c r="D79" t="s">
         <v>513</v>
@@ -6594,504 +6395,450 @@
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="H79" t="n">
-        <v>67758</v>
+        <v>209900</v>
       </c>
       <c r="I79" t="n">
-        <v>2.845</v>
-      </c>
-      <c r="J79" t="n">
-        <v>358</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.015</v>
-      </c>
+        <v>20.784</v>
+      </c>
+      <c r="J79"/>
+      <c r="K79"/>
       <c r="L79" t="n">
-        <v>299</v>
+        <v>4671</v>
       </c>
       <c r="M79" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="N79" t="n">
-        <v>400</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.017</v>
+        <v>0.463</v>
+      </c>
+      <c r="N79" t="s">
+        <v>514</v>
+      </c>
+      <c r="O79" t="s">
+        <v>513</v>
       </c>
       <c r="P79" t="s">
-        <v>514</v>
+        <v>92</v>
       </c>
       <c r="Q79" t="s">
         <v>515</v>
       </c>
-      <c r="R79" t="s">
-        <v>516</v>
-      </c>
-      <c r="S79" t="s">
-        <v>517</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>516</v>
+      </c>
+      <c r="B80" t="s">
+        <v>517</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D80" t="s">
         <v>518</v>
       </c>
-      <c r="B80" t="s">
+      <c r="E80" t="s">
         <v>519</v>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D80" t="s">
-        <v>520</v>
-      </c>
-      <c r="E80" t="s">
-        <v>521</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="H80" t="n">
-        <v>103858</v>
+        <v>355386</v>
       </c>
       <c r="I80" t="n">
-        <v>1.488</v>
+        <v>41.063</v>
       </c>
       <c r="J80" t="n">
-        <v>3454</v>
+        <v>3721</v>
       </c>
       <c r="K80" t="n">
-        <v>0.049</v>
+        <v>0.43</v>
       </c>
       <c r="L80" t="n">
-        <v>3404.667</v>
+        <v>4334</v>
       </c>
       <c r="M80" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="N80" t="n">
-        <v>3584.286</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.051</v>
+        <v>0.501</v>
+      </c>
+      <c r="N80" t="s">
+        <v>519</v>
+      </c>
+      <c r="O80" t="s">
+        <v>518</v>
       </c>
       <c r="P80" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Q80" t="s">
-        <v>523</v>
-      </c>
-      <c r="R80" t="s">
-        <v>94</v>
-      </c>
-      <c r="S80" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>522</v>
+      </c>
+      <c r="B81" t="s">
+        <v>523</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D81" t="s">
+        <v>524</v>
+      </c>
+      <c r="E81" t="s">
         <v>525</v>
-      </c>
-      <c r="B81" t="s">
-        <v>526</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>43961</v>
-      </c>
-      <c r="D81" t="s">
-        <v>527</v>
-      </c>
-      <c r="E81" t="s">
-        <v>528</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H81" t="n">
-        <v>33266</v>
+        <v>69876</v>
       </c>
       <c r="I81" t="n">
-        <v>2.815</v>
-      </c>
-      <c r="J81"/>
+        <v>2.934</v>
+      </c>
+      <c r="J81" t="n">
+        <v>219</v>
+      </c>
       <c r="K81" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="L81"/>
+        <v>0.009</v>
+      </c>
+      <c r="L81" t="n">
+        <v>253</v>
+      </c>
       <c r="M81" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="N81"/>
-      <c r="O81"/>
+        <v>0.011</v>
+      </c>
+      <c r="N81" t="s">
+        <v>525</v>
+      </c>
+      <c r="O81" t="s">
+        <v>526</v>
+      </c>
       <c r="P81" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q81" t="s">
         <v>528</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>529</v>
-      </c>
-      <c r="R81" t="s">
-        <v>530</v>
-      </c>
-      <c r="S81" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>529</v>
+      </c>
+      <c r="B82" t="s">
+        <v>530</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>43969</v>
+      </c>
+      <c r="D82" t="s">
+        <v>531</v>
+      </c>
+      <c r="E82" t="s">
         <v>532</v>
-      </c>
-      <c r="B82" t="s">
-        <v>533</v>
-      </c>
-      <c r="C82" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D82" t="s">
-        <v>534</v>
-      </c>
-      <c r="E82" t="s">
-        <v>535</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H82" t="n">
-        <v>1440671</v>
+        <v>127108</v>
       </c>
       <c r="I82" t="n">
-        <v>17.082</v>
+        <v>1.821</v>
       </c>
       <c r="J82" t="n">
-        <v>37351</v>
+        <v>4016</v>
       </c>
       <c r="K82" t="n">
-        <v>0.443</v>
+        <v>0.058</v>
       </c>
       <c r="L82" t="n">
-        <v>35420</v>
+        <v>3321</v>
       </c>
       <c r="M82" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="N82" t="n">
-        <v>33750</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.4</v>
+        <v>0.048</v>
+      </c>
+      <c r="N82" t="s">
+        <v>533</v>
+      </c>
+      <c r="O82" t="s">
+        <v>534</v>
       </c>
       <c r="P82" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q82" t="s">
         <v>535</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>536</v>
-      </c>
-      <c r="R82" t="s">
-        <v>537</v>
-      </c>
-      <c r="S82" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>529</v>
+      </c>
+      <c r="B83" t="s">
+        <v>536</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>43959</v>
+      </c>
+      <c r="D83" t="s">
+        <v>537</v>
+      </c>
+      <c r="E83" t="s">
+        <v>538</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83" t="n">
+        <v>6</v>
+      </c>
+      <c r="H83" t="n">
+        <v>286008</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4.098</v>
+      </c>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83" t="n">
+        <v>8307</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="N83" t="s">
+        <v>538</v>
+      </c>
+      <c r="O83" t="s">
         <v>539</v>
       </c>
-      <c r="B83" t="s">
+      <c r="P83" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q83" t="s">
         <v>540</v>
-      </c>
-      <c r="C83" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D83" t="s">
-        <v>541</v>
-      </c>
-      <c r="E83" t="s">
-        <v>542</v>
-      </c>
-      <c r="F83" t="s">
-        <v>543</v>
-      </c>
-      <c r="G83" t="n">
-        <v>35</v>
-      </c>
-      <c r="H83" t="n">
-        <v>62461</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1.366</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2854</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2419.333</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="N83" t="n">
-        <v>2909.857</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="P83" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>544</v>
-      </c>
-      <c r="R83" t="s">
-        <v>53</v>
-      </c>
-      <c r="S83" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B84" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>43963</v>
+        <v>43969</v>
       </c>
       <c r="D84" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E84" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="H84" t="n">
-        <v>187307</v>
+        <v>42489</v>
       </c>
       <c r="I84" t="n">
-        <v>4.283</v>
+        <v>3.595</v>
       </c>
       <c r="J84" t="n">
-        <v>5755</v>
+        <v>869</v>
       </c>
       <c r="K84" t="n">
-        <v>0.132</v>
+        <v>0.074</v>
       </c>
       <c r="L84" t="n">
-        <v>6733.333</v>
+        <v>1230</v>
       </c>
       <c r="M84" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="N84" t="n">
-        <v>6792.571</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.155</v>
+        <v>0.104</v>
+      </c>
+      <c r="N84" t="s">
+        <v>544</v>
+      </c>
+      <c r="O84" t="s">
+        <v>545</v>
       </c>
       <c r="P84" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="Q84" t="s">
-        <v>550</v>
-      </c>
-      <c r="R84" t="s">
-        <v>551</v>
-      </c>
-      <c r="S84" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B85" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>43963</v>
+        <v>43971</v>
       </c>
       <c r="D85" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E85" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="H85" t="n">
-        <v>1460517</v>
+        <v>1696355</v>
       </c>
       <c r="I85" t="n">
-        <v>21.514</v>
+        <v>20.114</v>
       </c>
       <c r="J85" t="n">
-        <v>60410</v>
+        <v>20838</v>
       </c>
       <c r="K85" t="n">
-        <v>0.89</v>
+        <v>0.247</v>
       </c>
       <c r="L85" t="n">
-        <v>63369.667</v>
+        <v>31765</v>
       </c>
       <c r="M85" t="n">
-        <v>0.933</v>
-      </c>
-      <c r="N85" t="n">
-        <v>63284.143</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.932</v>
+        <v>0.377</v>
+      </c>
+      <c r="N85" t="s">
+        <v>551</v>
+      </c>
+      <c r="O85" t="s">
+        <v>552</v>
       </c>
       <c r="P85" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Q85" t="s">
-        <v>557</v>
-      </c>
-      <c r="R85" t="s">
-        <v>94</v>
-      </c>
-      <c r="S85" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B86" t="s">
+        <v>556</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D86" t="s">
+        <v>557</v>
+      </c>
+      <c r="E86" t="s">
+        <v>558</v>
+      </c>
+      <c r="F86" t="s">
         <v>559</v>
       </c>
-      <c r="C86" s="1" t="n">
-        <v>43963</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="G86" t="n">
+        <v>42</v>
+      </c>
+      <c r="H86" t="n">
+        <v>76326</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1.669</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2228</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1736</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="N86" t="s">
+        <v>558</v>
+      </c>
+      <c r="O86" t="s">
         <v>560</v>
       </c>
-      <c r="E86" t="s">
-        <v>556</v>
-      </c>
-      <c r="F86"/>
-      <c r="G86" t="n">
-        <v>37</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2007146</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29.566</v>
-      </c>
-      <c r="J86" t="n">
-        <v>85293</v>
-      </c>
-      <c r="K86" t="n">
-        <v>1.256</v>
-      </c>
-      <c r="L86" t="n">
-        <v>92873.333</v>
-      </c>
-      <c r="M86" t="n">
-        <v>1.368</v>
-      </c>
-      <c r="N86" t="n">
-        <v>89796.143</v>
-      </c>
-      <c r="O86" t="n">
-        <v>1.323</v>
-      </c>
       <c r="P86" t="s">
-        <v>556</v>
+        <v>51</v>
       </c>
       <c r="Q86" t="s">
-        <v>557</v>
-      </c>
-      <c r="R86" t="s">
         <v>561</v>
-      </c>
-      <c r="S86" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>562</v>
+      </c>
+      <c r="B87" t="s">
         <v>563</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D87" t="s">
         <v>564</v>
       </c>
-      <c r="C87" s="1" t="n">
-        <v>43962</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>565</v>
-      </c>
-      <c r="E87" t="s">
-        <v>566</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="H87" t="n">
-        <v>9348458</v>
+        <v>248529</v>
       </c>
       <c r="I87" t="n">
-        <v>28.243</v>
+        <v>5.683</v>
       </c>
       <c r="J87" t="n">
-        <v>388296</v>
+        <v>8568</v>
       </c>
       <c r="K87" t="n">
-        <v>1.173</v>
+        <v>0.196</v>
       </c>
       <c r="L87" t="n">
-        <v>319484</v>
+        <v>8040</v>
       </c>
       <c r="M87" t="n">
-        <v>0.965</v>
-      </c>
-      <c r="N87" t="n">
-        <v>294726.286</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.891</v>
+        <v>0.184</v>
+      </c>
+      <c r="N87" t="s">
+        <v>565</v>
+      </c>
+      <c r="O87" t="s">
+        <v>566</v>
       </c>
       <c r="P87" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q87" t="s">
-        <v>567</v>
-      </c>
-      <c r="R87" t="s">
         <v>568</v>
-      </c>
-      <c r="S87" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B88" t="s">
         <v>570</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>43962</v>
+        <v>43971</v>
       </c>
       <c r="D88" t="s">
         <v>571</v>
@@ -7101,192 +6848,341 @@
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H88" t="n">
-        <v>824957</v>
+        <v>1996648</v>
       </c>
       <c r="I88" t="n">
-        <v>2.492</v>
-      </c>
-      <c r="J88"/>
+        <v>29.412</v>
+      </c>
+      <c r="J88" t="n">
+        <v>60744</v>
+      </c>
       <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88"/>
+        <v>0.895</v>
+      </c>
+      <c r="L88" t="n">
+        <v>67770</v>
+      </c>
       <c r="M88" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="N88"/>
-      <c r="O88" t="n">
-        <v>0.036</v>
+        <v>0.998</v>
+      </c>
+      <c r="N88" t="s">
+        <v>572</v>
+      </c>
+      <c r="O88" t="s">
+        <v>573</v>
       </c>
       <c r="P88" t="s">
-        <v>573</v>
+        <v>92</v>
       </c>
       <c r="Q88" t="s">
         <v>574</v>
       </c>
-      <c r="R88" t="s">
-        <v>575</v>
-      </c>
-      <c r="S88" t="s">
-        <v>576</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B89" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>43962</v>
+        <v>43971</v>
       </c>
       <c r="D89" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E89" t="s">
-        <v>126</v>
+        <v>572</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H89" t="n">
-        <v>28697</v>
+        <v>2962227</v>
       </c>
       <c r="I89" t="n">
-        <v>8.261</v>
+        <v>43.635</v>
       </c>
       <c r="J89" t="n">
-        <v>1236</v>
+        <v>177216</v>
       </c>
       <c r="K89" t="n">
-        <v>0.356</v>
+        <v>2.61</v>
       </c>
       <c r="L89" t="n">
-        <v>999.667</v>
+        <v>124003</v>
       </c>
       <c r="M89" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="N89" t="n">
-        <v>965.429</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.278</v>
+        <v>1.827</v>
+      </c>
+      <c r="N89" t="s">
+        <v>572</v>
+      </c>
+      <c r="O89" t="s">
+        <v>573</v>
       </c>
       <c r="P89" t="s">
-        <v>126</v>
+        <v>577</v>
       </c>
       <c r="Q89" t="s">
-        <v>580</v>
-      </c>
-      <c r="R89" t="s">
-        <v>24</v>
-      </c>
-      <c r="S89" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>579</v>
+      </c>
+      <c r="B90" t="s">
+        <v>580</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D90" t="s">
+        <v>581</v>
+      </c>
+      <c r="E90" t="s">
         <v>582</v>
-      </c>
-      <c r="B90" t="s">
-        <v>583</v>
-      </c>
-      <c r="C90" s="1" t="n">
-        <v>43950</v>
-      </c>
-      <c r="D90" t="s">
-        <v>584</v>
-      </c>
-      <c r="E90" t="s">
-        <v>585</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H90" t="n">
-        <v>261004</v>
+        <v>12233987</v>
       </c>
       <c r="I90" t="n">
-        <v>2.681</v>
-      </c>
-      <c r="J90"/>
-      <c r="K90"/>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
+        <v>36.96</v>
+      </c>
+      <c r="J90" t="n">
+        <v>399479</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.207</v>
+      </c>
+      <c r="L90" t="n">
+        <v>366278</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.107</v>
+      </c>
+      <c r="N90" t="s">
+        <v>582</v>
+      </c>
+      <c r="O90" t="s">
+        <v>583</v>
+      </c>
       <c r="P90" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q90" t="s">
         <v>585</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>586</v>
-      </c>
-      <c r="R90" t="s">
-        <v>587</v>
-      </c>
-      <c r="S90" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B91" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>43962</v>
+        <v>43970</v>
       </c>
       <c r="D91" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E91" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H91" t="n">
-        <v>10598</v>
+        <v>12601143</v>
       </c>
       <c r="I91" t="n">
-        <v>0.713</v>
+        <v>38.07</v>
       </c>
       <c r="J91" t="n">
-        <v>726</v>
+        <v>1318362</v>
       </c>
       <c r="K91" t="n">
-        <v>0.049</v>
+        <v>3.983</v>
       </c>
       <c r="L91" t="n">
-        <v>619</v>
+        <v>410895</v>
       </c>
       <c r="M91" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="N91"/>
-      <c r="O91"/>
+        <v>1.241</v>
+      </c>
+      <c r="N91" t="s">
+        <v>588</v>
+      </c>
+      <c r="O91" t="s">
+        <v>589</v>
+      </c>
       <c r="P91" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>591</v>
+      </c>
+      <c r="B92" t="s">
         <v>592</v>
       </c>
-      <c r="Q91" t="s">
+      <c r="C92" s="1" t="n">
+        <v>43971</v>
+      </c>
+      <c r="D92" t="s">
         <v>593</v>
       </c>
-      <c r="R91" t="s">
-        <v>24</v>
-      </c>
-      <c r="S91" t="s">
+      <c r="E92" t="s">
+        <v>124</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92" t="n">
+        <v>52</v>
+      </c>
+      <c r="H92" t="n">
+        <v>34794</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10.016</v>
+      </c>
+      <c r="J92" t="n">
+        <v>410</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="L92" t="n">
+        <v>756</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="N92" t="s">
+        <v>124</v>
+      </c>
+      <c r="O92" t="s">
         <v>594</v>
+      </c>
+      <c r="P92" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>596</v>
+      </c>
+      <c r="B93" t="s">
+        <v>597</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>43950</v>
+      </c>
+      <c r="D93" t="s">
+        <v>598</v>
+      </c>
+      <c r="E93" t="s">
+        <v>599</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93" t="n">
+        <v>37</v>
+      </c>
+      <c r="H93" t="n">
+        <v>261004</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2.681</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93" t="n">
+        <v>10906</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="N93" t="s">
+        <v>599</v>
+      </c>
+      <c r="O93" t="s">
+        <v>600</v>
+      </c>
+      <c r="P93" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>603</v>
+      </c>
+      <c r="B94" t="s">
+        <v>604</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>43970</v>
+      </c>
+      <c r="D94" t="s">
+        <v>605</v>
+      </c>
+      <c r="E94" t="s">
+        <v>606</v>
+      </c>
+      <c r="F94" t="s">
+        <v>607</v>
+      </c>
+      <c r="G94" t="n">
+        <v>13</v>
+      </c>
+      <c r="H94" t="n">
+        <v>14175</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1071</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="L94" t="n">
+        <v>445</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="N94" t="s">
+        <v>606</v>
+      </c>
+      <c r="O94" t="s">
+        <v>608</v>
+      </c>
+      <c r="P94" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/testing/covid-testing-latest-data-source-details.xlsx
+++ b/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="629">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Argentina - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/20-05-20_reporte-matutino-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/18-07-20_reporte-matutino_covid-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Argentina</t>
@@ -83,7 +83,8 @@
     <t xml:space="preserve">The number of tests performed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Two reports are published daily by the government of Argentina. Since 8th April the morning report gives the cumulative total of "tests carried out" in the country. No information is given on the geographical scope and number of labs included.</t>
+    <t xml:space="preserve">Two reports are published daily by the Government of Argentina. Since 8th April the morning report gives the cumulative total of "tests carried out" in the country. No information is given on the geographical scope and number of labs included.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">AUS</t>
@@ -92,7 +93,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/05/coronavirus-covid-19-at-a-glance-20-may-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/07/coronavirus-covid-19-at-a-glance-14-july-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -103,7 +104,8 @@
   <si>
     <t xml:space="preserve">We construct a time series of the cumulative number of tests performed to date using data provided by the Australian Government Department of Health through [daily health alerts](https://www.health.gov.au/news/health-alerts/novel-coronavirus-2019-ncov-health-alert/coronavirus-covid-19-current-situation-and-case-numbers) and [weekly epidemiological reports](https://www1.health.gov.au/internet/main/publishing.nsf/Content/novel_coronavirus_2019_ncov_weekly_epidemiology_reports_australia_2020.htm).
 The weekly epidemiological reports make it clear that the figures relate to diagnostic testing. It is unclear whether the reported figures include pending test results. It is also unclear when the first test was conducted, since we have not been able to find official data prior to March 22nd 2020 (at which point 143,056 tests had been performed).
-The daily health alerts have provided testing figures since April 5th 2020, whereas the weekly epidemiological reports have provided testing figures since March 22nd 2020. In the daily health alerts, testing figures are reported within the "Coronavirus (COVID-19) at a glance" infographic. The entire collection of these infographics dating back to April 5th 2020 can be viewed [here](https://www.health.gov.au/resources/collections/coronavirus-covid-19-at-a-glance-infographic-collection).</t>
+The daily health alerts have provided testing figures since April 5th 2020, whereas the weekly epidemiological reports have provided testing figures since March 22nd 2020. In the daily health alerts, testing figures are reported within the "Coronavirus (COVID-19) at a glance" infographic. [View the entire collection of these infographics](https://www.health.gov.au/resources/collections/coronavirus-covid-19-at-a-glance-infographic-collection) dating back to April 5th 2020.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">AUT</t>
@@ -112,7 +114,7 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520181646/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
+    <t xml:space="preserve">https://web.archive.org</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
@@ -127,10 +129,11 @@
     <t xml:space="preserve">The number of tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry for Health publishes daily updates of the COVID-19 situation [here](https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html), which include data on the cumulative number of tests performed to date. We construct a daily time series using [Web Archive snapshots](http://web.archive.org/web/*/https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html) of these updates.
+    <t xml:space="preserve">The Ministry for Health publishes daily updates of the COVID-19 situation at www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html, which include data on the cumulative number of tests performed to date. We construct a daily time series using Web Archive snapshots of these updates.
 It is unclear whether the reported figures include pending test results.
 A footnote explains that "The number 'testing' is the total number of all Covid tests carried out. The data for this are largely reported by the performing laboratories."
-The same figures are also provided by the Ministry for Health in [this official dashboard](https://info.gesundheitsministerium.at/dashboard_Hosp.html?l=en).</t>
+The same figures are also provided by the Ministry for Health in [this official dashboard](https://info.gesundheitsministerium.at/dashboard_Hosp.html?l=en).
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">BHR</t>
@@ -139,9 +142,6 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520201058/https://www.moh.gov.bh/COVID19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ministry of Health</t>
   </si>
   <si>
@@ -154,9 +154,10 @@
     <t xml:space="preserve">The source reports the 'number of assessments' conducted. It is unclear whether this refers to the total number of tests conducted, or the number of people tested.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Bahrainian Ministry of Health publishes frequent updates (not daily, but with high frequency) on the number of confirmed cases, status of existing cases and number of assessments conducted.
+    <t xml:space="preserve">The Bahrainian Ministry of Health publishes frequent updates on the number of confirmed cases, status of existing cases and number of assessments conducted.
 These figures represent the cumulative tests to that given date. It is not clear whether this refers to the total number of tests conducted, or the number of people tested.
-These updates are not provided daily – typically every few days, so a daily time-series is not available. However, using web archives we can construct a time-series of tests conducted over time based on these frequent updates. It is not clear when testing first began; data is only available from 5th March where it was reported that 5334 tests had been conducted.</t>
+Using web archives we can construct a time-series of tests conducted over time based on these frequent updates. It is not clear when testing first began; data is only available from 5th March where it was reported that 5334 tests had been conducted.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">BGD</t>
@@ -187,7 +188,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-20-maya-vypisany-11-tys-415-patsientov/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-17-iyulya-vyzdoroveli-i-vypisany-57-tys-370-patsientov/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -198,7 +199,8 @@
   <si>
     <t xml:space="preserve">The Belarus Ministry of Health provides daily press releases that report the cumulative number of tests conducted to date. It is unclear whether the reported figures include pending tests.
 Prior to April 14th 2020, the Ministry reported imprecise testing figures (e.g. "...more than 64 thousand tests..."). We include these imprecise figures so that our time series extends back to March 3rd 2020.
-The earliest reported figure that we have been able to find is from March 3rd 2020, at which point approximately 5,000 cumulative tests were reported. The number of tests are cumulative since late January 2020, but the press releases do not specify the exact date on which the first test was conducted.</t>
+The earliest reported figure that we have been able to find is from March 3rd 2020, at which point approximately 5,000 cumulative tests were reported. The number of tests are cumulative since late January 2020, but the press releases do not specify the exact date on which the first test was conducted.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">BEL</t>
@@ -222,7 +224,7 @@
     <t xml:space="preserve">Sciensano provides a daily time series of the number of tests conducted per day, which is updated retrospectively as new data becomes available each day.
 According to the [dataset codebook](https://epistat.sciensano.be/COVID19BE_codebook.pdf), dates for new testing figures correspond to the date of laboratory diagnosis (or when not available, date of sampling). 
 It appears that the reported testing figures represent the number of people tested, but this is not entirely clear. The official website describes the testing dataset as the "Dataset of total number of tests performed by date", yet the [dataset codebook](https://epistat.sciensano.be/COVID19BE_codebook.pdf) defines the "tests" variable as the "number of tested patients".
-It is also unclear whether the testing figures include antigen tests in addition to PCR tests. In a communication on April 3rd 2020, Sciensano indicates that antigen tests made by Coris Bioconcept may now be used for COVID-19 detection. The communication states that positive antigen test results do not have to be confirmed by a PCR test, but that negative or doubtful cases must be confirmed by a PCR test.
+It is also unclear whether the testing figures include technologies other than PCR tests. In a communication on April 3rd 2020, Sciensano indicates that an antigen test made by Coris Bioconcept may now be used for COVID-19 detection. The communication states that positive antigen test results do not have to be confirmed by a PCR test, but that negative or doubtful cases must be confirmed by a PCR test.
 Official figures reported in Sciensano's daily epidemiological bulletins do not help to clarify these ambiguities. For example, as of May 10th 2020, the [official time series dataset](https://epistat.sciensano.be/covid/covid19_historicaldata.html) reported a cumulative total of 465,201 tests performed between March 1st and May 9th. However, the epidemiological bulletin for [May 10th 2020](https://covid-19.sciensano.be/sites/default/files/Covid19/COVID-19_Daily%20report_20200510%20-%20FR.pdf) states that 325,796 cumulative tests had been performed by laboratories between the beginning of March and May 9th, while an additional 240,305 tests had been performed through the national testing platform (566,101 total tests).
 The bulletin indicates that these figures include both PCR and antigen tests, suggesting that the large discrepancy between the 465,201 figure and the 566,101 figure may be solely due to the fact that the official time series data only includes PCR tests, whereas the official bulletin figures include both PCR and antigen tests. However, it is also possible that the discrepancy is due solely to the fact that the official time series data is reported in terms of "people tested", whereas the bulletin figures represent "tests performed". We have been unable to find official documentation from Sciensano that resolves these ambiguities.</t>
   </si>
@@ -230,23 +232,22 @@
     <t xml:space="preserve">BOL</t>
   </si>
   <si>
-    <t xml:space="preserve">Bolivia - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/mauforonda/covid19-bolivia/blob/master/data.json</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Made available on Github by Mau Foronda</t>
+    <t xml:space="preserve">Bolivia - units unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://minsalud.gob.bo/4399-bolivia-acumula-54-156-contagios-de-covid-19-tras-registrar-un-record-diario-de-1-938-nuevos-infectados</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
   </si>
   <si>
-    <t xml:space="preserve">The number of cases tested.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Official testing data from the Bolivian Ministry of Health is reported in [this dashboard](https://www.boliviasegura.gob.bo/datos-oficiales), which provides a breakdown of the cumulative number of confirmed, suspected, and discarded cases to date along with the number of deaths and recoveries. We assume that the number of discarded cases ("casos descartados") refers to the number of cases with negative test results. Under this assumption, we measure the total number of cases tested to date as the sum of the number of confirmed and discarded cases.
-Unfortunately, the official dashboard does not provide a time series of the number of cases tested each day since testing began. Instead, the dashboard only displays a daily snapshot of the total cases tested to date. Since we did not begin monitoring this dashboard until April 15th 2020, we construct a time series dating back to March 21st 2020 using data provided in [this unofficial GitHub repository](https://github.com/mauforonda/covid19-bolivia), which we have cross-referenced against data in the official dashboard for a sample of dates.</t>
+    <t xml:space="preserve">Units unclear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Official testing data from the Bolivian Ministry of Health is reported in daily briefs [on their website](https://www.minsalud.gob.bo/). The briefs often (but do not always) provide a breakdown of the cumulative number of confirmed, suspected, and negative (also called discarded) tests to date. We measure the total number of tests to date as the sum of the number of confirmed and negative tests.
+The units for the testing numbers are unclear. They are variously referred to as tests (“pruebas”), samples (“muestras”), or people who have undergone tests (”personas, que fueron sometidas a pruebas”).
+In 10 briefs the number of negative tests was not reported, preventing us from calculating a total for that date. For these dates with missing official data, we use data provided in this [unofficial GitHub repository](https://github.com/mauforonda/covid19-bolivia), which we have cross-referenced against the official data for all dates.
+Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">BRA</t>
@@ -255,21 +256,25 @@
     <t xml:space="preserve">Brazil - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.saude.gov.br/noticias/agencia-saude/46768-chega-ao-pais-mais-500-mil-testes-de-biologia-molecular</t>
+    <t xml:space="preserve">https://www.saude.gov.br/noticias/agencia-saude/47151-laboratorios-publicos-ampliam-em-869-capacidade-de-testagem-para-covid-19-no-brasil</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health press release</t>
   </si>
   <si>
+    <t xml:space="preserve">Until June 30, 1.4 million RT-PCR exams were performed for Covid-19, 860,604 of which in the national network of public health laboratories and 618,067 in the main private laboratories in the country.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brazil Ministry of Health</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.saude.gov.br/noticias/agencia-saude</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Health press releases published on its website intermittently include figures for the number of tests carried out for a range of respiratory infections, further specifying the figures carried out for the 'specific investigation of COVID-19'. The releases note that 'Tests for coronavirus began to be carried out from February 16 in public and private laboratories'.
+    <t xml:space="preserve">The Ministry of Health press releases published on its website intermittently include figures for the number of PCR tests carried out for COVID-19.
+The most recent figure, for 29th May, explicitly relates to the number of PCR tests carried out in public laboratories. Two earlier press releases – for [20 April](https://www.saude.gov.br/noticias/agencia-saude/46768-chega-ao-pais-mais-500-mil-testes-de-biologia-molecular) and [7 April](https://www.saude.gov.br/noticias/agencia-saude/46707-saude-ja-distribuiu-quase-1-milhao-de-testes-para-coronavirus) are not explicit as to whether the figures they provide include or excluded private laboratories. The two April releases imply that the figure provided relates to the cumulative since February 16, stating that 'Tests for coronavirus began to be carried out from February 16 in public and private laboratories'.
 More recently, the Ministry of Health has begun reporting figures for the number of PCR and 'rapid tests' on a dashboard on its [Panel of beds and inputs](https://covid-insumos.saude.gov.br/paineis/insumos/painel.php) webpage. However we do not include these figures because they appear to relate to the number of tests distributed, rather than the number of tests performed. This is not made clear from the dashboard itself. However, the figures observed at this dashboard on 11 May correspond to those provided in a Ministry of Health press release on [12 May](https://www.saude.gov.br/noticias/agencia-saude/46868-ministerio-da-saude-ja-distribuiu-6-9-milhoes-de-testes-para-covid-19) which explicitly describes the figure as referring to the number of tests distributed.
-The last press release that we have been able to find a clear estimate for the number of tests performed was made on [22 April](https://www.saude.gov.br/noticias/agencia-saude/46768-chega-ao-pais-mais-500-mil-testes-de-biologia-molecular) (the figures relate to 20 April). No such figures have been found in subsequent press releases.</t>
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">BGR</t>
@@ -278,9 +283,6 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520181654/https://coronavirus.bg/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
   </si>
   <si>
@@ -290,18 +292,15 @@
     <t xml:space="preserve">https://coronavirus.bg/</t>
   </si>
   <si>
-    <t xml:space="preserve">Bulgaria's official COVID-19 information portal provides irregular updates of the cumulative number of 'tests done'.
+    <t xml:space="preserve">Bulgaria's official COVID-19 information portal provides irregular updates of the cumulative number of 'PCR tests done'.
 Using web archives we reconstruct the testing time series starting from 11th April.  We cannot say with certainty when testing began, only that the earliest observation available to us begins from the 11th April. For 19th April, we take the figure provided in Bulgaria's [COVID-19 dashboard](https://coronavirus.bg/arcgis/apps/opsdashboard/index.html#/ecacd239ee7e4fba956f7948f586af93) as no snapshot was available using web archives. The test figures provided in the dashboard match the figures provided by the information portal for all other dates available.
-Google Translate was used while compiling this data so this may affect our interpretation of the data.</t>
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">CAN</t>
   </si>
   <si>
     <t xml:space="preserve">Canada - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520181655/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Canada</t>
@@ -316,7 +315,8 @@
     <t xml:space="preserve">The Government of Canada provides daily updates of the COVID-19 outbreak [here](https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html), which report the cumulative number of people tested to date. 
 We construct a daily time series of the cumulative number of people tested to date using [Web Archive snapshots](http://web.archive.org/web/*/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html) of these daily updates. The figures include positive and negative test results, while excluding pending test results.
 The figures relate to diagnostic testing completed in laboratories.
-We only report data since March 18th 2020 due to a large jump in the time series that occurred between March 17th ([1,018 people tested](http://web.archive.org/web/20200318193441/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html)) and March 18th ([53,975 people tested](http://web.archive.org/web/20200319151005/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html)). We suspect this jump was the result of a backlog in tests waiting to be processed, but the Government of Canada website does not provide an explanation. For comparability over time, we therefore exclude data prior to March 18th 2020.</t>
+We only report data since March 18th 2020 due to a large jump in the time series that occurred between March 17th ([1,018 people tested](http://web.archive.org/web/20200318193441/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html)) and March 18th ([53,975 people tested](http://web.archive.org/web/20200319151005/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html)). We suspect this jump was the result of a backlog in tests waiting to be processed, but the Government of Canada website does not provide an explanation. For comparability over time, we therefore exclude data prior to March 18th 2020.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">CHL</t>
@@ -337,7 +337,8 @@
     <t xml:space="preserve">https://www.gob.cl/coronavirus/cifrasoficiales/#reportes</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government of Chile release daily reports that include cumulative and daily totals for the number of PCR tests performed across private and public medical establishments. This data is collected by volunteers and [published on GitHub](https://github.com/jorgeperezrojas/covid19-data). We take our figures from this GitHub, which we regularly audit for accuracy.</t>
+    <t xml:space="preserve">The Government of Chile release daily reports that include cumulative and daily totals for the number of PCR tests performed across private and public medical establishments. This data is collected by volunteers and [published on GitHub](https://github.com/jorgeperezrojas/covid19-data). We take our figures from this GitHub, which we regularly audit for accuracy.
+Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">COL</t>
@@ -379,8 +380,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Costa Rican Ministry of Health produce daily update reports of confirmed cases, deaths and test results.
-These daily reports state the daily number of people who have been tested – given as the number of confirmed cases (‘Confirma contagio’) and number of people with negative results (‘Descarta contagio’) (thus the figures do not include pending tests). We can use these daily updates to construct a full time-series. [This has been made downloadable](https://observador.cr/covid19-estadisticas/).
-Daily reports with figures on testing are only available dating back to 11th March. We therefore do not know the first date of testing, or daily figures prior to this date.</t>
+These daily reports state the daily number of people who have been tested – given as the number of confirmed cases (‘Confirma contagio’) and number of people with negative results (‘Descarta contagio’) (thus the figures do not include pending tests). We can use these daily updates to construct a full time-series. This figures have been collected and are made available for download by the news website [El Observador](https://observador.cr/covid19-estadisticas/), from which we take our data.
+Daily reports with figures on testing are only available dating back to 11th March. We therefore do not know the first date of testing, or daily figures prior to this date.
+Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">HRV</t>
@@ -389,9 +391,6 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520181701/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
-  </si>
-  <si>
     <t xml:space="preserve">Government of Croatia</t>
   </si>
   <si>
@@ -401,9 +400,10 @@
     <t xml:space="preserve">Testing figures were reported as "samples tested" prior to 24 March 2020, then as "tests performed", then as "people tested" from 6 May 2020.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government of Croatia provides daily updates of confirmed cases, deaths, and testing figures [here](https://www.koronavirus.hr). It is unclear whether the reported figures include tests for which the results are pending.
+    <t xml:space="preserve">The Government of Croatia provides daily updates of confirmed cases, deaths, and testing figures [here](https://www.koronavirus.hr). We construct a time series based on the cumulative figures reported in [web archives of the latest koronavirus.hr press release](https://web.archive.org/web/20200706160835/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35). It is unclear whether the reported figures include tests for which the results are pending.
 Data may not be fully comparable over time. Prior to March 24th, testing figures were reported in terms of "samples tested" (e.g. "Ukupno je 317 testiranih uzoraka..."). From March 24th to May 6th, testing figures were reported in terms of "tests performed" (e.g. "Dosad je obavljeno ukupno 3.159 testiranja"). Since May 6th they have been reported in terms of "people tested" (e.g. "Dosad je testirano ukupno 41.053 osoba") It is unclear whether this change in wording reflects an actual change in which figures are reported.
-We have found testing data dating back to March 3rd 2020, at which point 247 samples had been tested to date. It is not clear when the first sample was tested.</t>
+We have found testing data dating back to March 3rd 2020, at which point 247 samples had been tested to date. It is not clear when the first sample was tested.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">CUB</t>
@@ -421,11 +421,15 @@
     <t xml:space="preserve">Made available on GitHub by covid19cubadata</t>
   </si>
   <si>
+    <t xml:space="preserve">https://salud.msp.gob.cu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Units are unclear, and could refer to the number of tests performed, or people tested.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Public Health publishes data on its website, which is collected and republished by the COVID-19 Cuba Data project [in a dashboard](https://covid19cubadata.github.io/#cuba) and [on GitHub](https://github.com/covid19cubadata/covid19cubadata.github.io/). It includes a time series for the number of tests.
-However the context in which the figures are published suggests that these numbers may actually refer to the number of individuals tested. A breakdown into positive and negative results is given, along with a positive test rate. It is also unclear whether the reported figures include tests for which the results are pending.</t>
+    <t xml:space="preserve">The Ministry of Public Health publishes data on [its official website](https://salud.msp.gob.cu), which is collected and republished by the COVID-19 Cuba Data project [in a dashboard](https://covid19cubadata.github.io/#cuba) and [on GitHub](https://github.com/covid19cubadata/covid19cubadata.github.io/). It includes a time series for the number of tests.
+However the context in which the figures are published suggests that these numbers may actually refer to the number of individuals tested. A breakdown into positive and negative results is given, along with a positive test rate. It is also unclear whether the reported figures include tests for which the results are pending.
+Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels.</t>
   </si>
   <si>
     <t xml:space="preserve">CZE</t>
@@ -443,33 +447,40 @@
     <t xml:space="preserve">The Ministry of Health publishes a data set containing incremental and cumulative daily numbers of COVID-19 tests performed according to laboratory reports. It is updated daily and accessible in CSV and JSON format. No other information about the figures could be found.</t>
   </si>
   <si>
+    <t xml:space="preserve">COD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/CMR_Covid19_RDC/status/1284100058619797505/photo/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/CMR_Covid19_RDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The DRC COVID-19 Pandemic Response Multisectoral Committee publishes daily bulletins on [their official Twitter page](https://twitter.com/CMR_Covid19_RDC). These bulletins include the daily new samples tested ("échantillons testés"), but no cumulative total; thus it is unclear how many samples have been tested to date. No other information is provided about the reported testing numbers, such as whether they include pending or non-PCR tests.</t>
+  </si>
+  <si>
     <t xml:space="preserve">DNK</t>
   </si>
   <si>
-    <t xml:space="preserve">Denmark - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200520152818/https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning</t>
+    <t xml:space="preserve">Denmark - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://files.ssi.dk/Data-epidemiologisk-rapport-17072020-ki84</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
   </si>
   <si>
-    <t xml:space="preserve">The Statens Serum Institut no longer publishes daily epidemiological monitoring reports in pdf format.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danish Health Authority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Danish Statum Serum Institute provides epidemiological update reports on confirmed cases, deaths, testing and demographic details of each up until 19th May. From 20 May, the Danish Statum Serum Institute reports testing figures via the [Monitoring of COVID-19 page](https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning).
-It provides daily statistics on the number of people tested for COVID-19 and the number of samples tested. 
-The most recent epidemiological status reports provided the daily data for the previous two weeks. We construct a longer time series by referring to earlier versions of this table, accessed via web archive. Note the cumulative total start date differs at various points in the time series. From 17/03-03/04 the cumulative total begins from 27 Jan; 04/04-20/04 from 7 Jan; and 21/04-today from 13 Jan. 
-The daily data for earlier dates can also be seen in a chart that the Institute show in their [monitoring reports page](https://www.ssi.dk/aktuelt/sygdomsudbrud/coronavirus/covid-19-i-danmark-epidemiologisk-overvaagningsrapport). From 15 May, the Danish Statum Serum Institute provides figures on both people and samples tested.
-There is no explicit mention of whether the figures include only PCR tests or other kinds of test.
-Google Translate was used while compiling this data so this may affect our interpretation of the data.</t>
+    <t xml:space="preserve">https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning/arkiv-med-overvaagningsdata-for-covid19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Danish Statum Serum Institute provides epidemiological update reports on confirmed cases, deaths, testing and demographic details. An archive of .zip files is available [on its website](https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning/arkiv-med-overvaagningsdata-for-covid19). Each contains a .csv file (Test_pos_over_time.csv) with the time series of daily ("Tested") and cumulative ("Tested_kumulativ") tests performed, going back to 27 January.</t>
   </si>
   <si>
     <t xml:space="preserve">ECU</t>
@@ -478,7 +489,7 @@
     <t xml:space="preserve">Ecuador - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-19052020-08h00.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/07/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-17072020-08h00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -488,15 +499,13 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/informes-de-situacion-covid-19-desde-el-13-de-marzo-del-2020/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units unclear.</t>
   </si>
   <si>
     <t xml:space="preserve">The Government of Ecuador publish daily updates in the form of situation reports and summary infographics. These report the number and status of confirmed cases, deaths and number of samples tested. This data is available daily from 18th March; reports and infographics prior to this date do not include the number of samples tested. But all figures are dated cumulative since 29th February.
 The source reports the number of confirmed ('confirmados') and negative ('descartados') cases, which we sum to get the number of cases tested.
 On 24 April 2020, the number of tests suddenly jumped from 23,383 to 45,857, because of what we assume to be the inclusion of rapid tests ("pruebas rápidas"), as made clear by the subsequent infographic published on 27 April. We therefore do not include the 24 April infographic in our time series; and from 27 April onwards, we include only PCR tests.
-On 11 May 2020, the Government of Ecuador published a [report](https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/BP-VARIACIONES-INFOGRAFIA-No.-074-11052020.pdf) detailing "a reclassification of the records by identity card of the persons and not by the number of tests that have been carried out" (via google translate). This suggests the government is moving towards reporting figures on the number of people tested, where previously they reported the number of cases tested. The reclassification partially explains the fall in the cumulative total after 4 May 2020.</t>
+On 11 May 2020, the Government of Ecuador published a [report](https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/BP-VARIACIONES-INFOGRAFIA-No.-074-11052020.pdf) detailing "a reclassification of the records by identity card of the persons and not by the number of tests that have been carried out". This suggests the government is moving towards reporting figures on the number of people tested, where previously they reported the number of cases tested. The reclassification partially explains the fall in the cumulative total after 4 May 2020.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">SLV</t>
@@ -505,7 +514,7 @@
     <t xml:space="preserve">El Salvador - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/nayibbukele/posts/2910958428990329</t>
+    <t xml:space="preserve">https://www.facebook.com/nayibbukele/posts/3056118301141007</t>
   </si>
   <si>
     <t xml:space="preserve">Government of El Salvador</t>
@@ -515,7 +524,8 @@
   </si>
   <si>
     <t xml:space="preserve">The government of El Salvador publishes an online dashboard that reports the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.
-The official dashboard only provides a daily snapshot of the number of tests performed today, making it difficult to construct a historical time series. We construct a daily time series dating back to April 10th 2020 of the cumulative number of tests performed using data posted on President Nayib Bukele's [official Facebook page](https://www.facebook.com/nayibbukele), which match the daily snapshot figures reported in the official dashboard.</t>
+The official dashboard only provides a daily snapshot of the number of tests performed today, making it difficult to construct a historical time series. We construct a daily time series dating back to April 10th 2020 of the cumulative number of tests performed using data posted on President Nayib Bukele's [official Facebook page](https://www.facebook.com/nayibbukele), which match the daily snapshot figures reported in the official dashboard.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">EST</t>
@@ -527,10 +537,10 @@
     <t xml:space="preserve">https://www.koroonakaart.ee/en</t>
   </si>
   <si>
-    <t xml:space="preserve">Estonian Central Health Information System and Patient Portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social Ministry</t>
+    <t xml:space="preserve">Central Health Information System and Patient Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonian Health Board</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.terviseamet.ee/et/koroonaviirus/koroonakaart</t>
@@ -539,8 +549,7 @@
     <t xml:space="preserve">The number of tests performed ("Testide koguarv")</t>
   </si>
   <si>
-    <t xml:space="preserve">The Social Ministry embeds the [Koroonakaart dashboard](https://www.koroonakaart.ee/en) maintained by Open Data Estonia. The Ministry notes that past data may be revised. No other descriptions can be found.
-A complete time-series from 25th February is available, and is updated daily.</t>
+    <t xml:space="preserve">The [Estonian Health Board (“Terviseamet”)](https://www.terviseamet.ee/en) is the source of and links to testing data visualized by Open Data Estonia on the [Koroonakaart dashboard](https://www.koroonakaart.ee/en). The dashboard contains a time series of tests per day and cumulative tests dating back to 25 February 2020, among other data. The Health Board provides [further description of the data](https://www.terviseamet.ee/et/koroonaviirus/avaandmed), including noting that past data may be revised if test results are retroactively corrected or new results are received.</t>
   </si>
   <si>
     <t xml:space="preserve">ETH</t>
@@ -549,7 +558,7 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_May-20-Eng-V2.pdf</t>
+    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_June-29-Eng_V2-1.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopian Public Health Institute</t>
@@ -559,7 +568,24 @@
   </si>
   <si>
     <t xml:space="preserve">The [Ethiopian Public Health Institute](https://www.ephi.gov.et) in collaboration with the [Ethiopian Ministry of Health](http://www.moh.gov.et) provides daily press releases of the number of tests performed to date. It is not clear whether these figures refer to the number of samples tested or the number of people tested. It is also unclear whether the reported figures include tests for which the results are pending.
-The earliest record we have found is for March 17th 2020, at which point 79 tests had been performed to date. It is unclear when the first test was performed.</t>
+The earliest record we have found is for March 17th 2020, at which point 79 tests had been performed to date. It is unclear when the first test was performed.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.health.gov.fj/covid-19-updates/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fiji Ministry of Health &amp; Medical Services provides a series for the number of tests per day, the number of tests per week, and the cumulative number of tests.
+The source notes "Laboratory testing for COVID-19 in Fiji began on 28 January 2020 with samples shipped to the WHO collaborating center reference laboratory – the Victorian Infectious Disease Reference Laboratory (VIDRL) at the Peter Doherty Institute for Infection and Immunity in Melbourne, Australia. Local testing for COVID-19 started at the Fiji Centre for Disease Control (Fiji CDC) on 11 March 2020 using the gold standard method for COVID-19 testing – realtime RT-PCR. Samples are sent from health facilities around the country to Fiji CDC for testing."</t>
   </si>
   <si>
     <t xml:space="preserve">FIN</t>
@@ -577,36 +603,50 @@
     <t xml:space="preserve">Finnish Department of Health and Welfare COVID-19 data dashboard</t>
   </si>
   <si>
-    <t xml:space="preserve">The Finnish Department of Health and Welfare publishes a dashboard of confirmed cases, deaths and samples tested.
-The dashboard provides daily figures and cumulative test numbers on a separate tab. We have copied this time-series as presented in the original source. It's important to note that when figures exceed 1000, the Finnish Department of Health and Welfare report samples to the nearest hundred (e.g. 1.6k). 
+    <t xml:space="preserve">The Finnish Department of Health and Welfare publishes a dashboard of confirmed cases, deaths and samples tested. The dashboard provides both daily and cumulative test numbers. We extract the complete daily time series using the [official API](https://thl.fi/fi/tilastot-ja-data/aineistot-ja-palvelut/avoin-data/varmistetut-koronatapaukset-suomessa-covid-19-).
 Further descriptions of the testing data are provided [here](https://thl.fi/fi/web/infektiotaudit-ja-rokotukset/ajankohtaista/ajankohtaista-koronaviruksesta-covid-19/tilannekatsaus-koronaviruksesta). In this document it notes that:
 - "Public and private sector laboratories report to THL (health authority) the number of samples tested per hospital district"
 - "The actual number of infections in Finland is probably higher than reported, as not all mild symptoms have been tested so far and no information is available on the number of asymptomatic infections."
 - "Coronavirus testing is performed in both the public and private sectors in several laboratories."
 The data description notes that tests are being rationed and allocated according to the following strategy: "Samples are taken primarily from patients with severe symptoms of respiratory infection and from health and social care staff to ensure staff health and labor adequacy....Attention has also been paid to vulnerable groups of patients with some underlying disease and to those over 70 years of age."
-This data series extends to the 27th February, when test figures were very low (9 tests per day). It is likely this is was the first day, or close to the first day of testing.</t>
+This data series extends to the 30th January, when test figures were very low (73 tests per day). It is likely this is was the first day, or close to the first day of testing.</t>
   </si>
   <si>
     <t xml:space="preserve">FRA</t>
   </si>
   <si>
+    <t xml:space="preserve">France - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.santepubliquefrance.fr/content/download/268121/2679369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Public Health Agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dividing 346,035 (weekly total) by 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.santepubliquefrance.fr/recherche/#search=COVID-19%20:%20point%20epidemiologique&amp;sort=dat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since 29 May 2020, the National Public Health Agency has replaced its previous weekly updates of the number of tests performed (not updated since 5 May) with the weekly count of people tested.
+This data does not allow us to publish any cumulative total, since no data is available on how many people had been tested prior to the first week of reporting. However, we integrate this data into our "daily tests" time series by dividing each weekly total by 7, thereby estimating the average daily number of people tested.
+The [4 June situation report](https://www.santepubliquefrance.fr/content/download/257630/2628879) reports 236,098 people were tested from 24 to 30 May. As the two periods overlap for 24 May, we use the more recent average testing figure for this date. 
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+  </si>
+  <si>
     <t xml:space="preserve">France - tests performed</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.santepubliquefrance.fr/content/download/250807/2596023</t>
   </si>
   <si>
-    <t xml:space="preserve">Agence nationale de santé publique</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adding up hospital and laboratory tests.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.santepubliquefrance.fr/recherche/#search=COVID-19%20:%20point%20epidemiologique&amp;sort=dat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The source publishes epidemiological updates at irregular intervals. The latest update with testing figures, as of 16th May, was published on the 7th May. The updates include a figure for the number of tests performed (‘Nombre de tests réalisés’). A breakdown into positive and negative results are given, along with a positive test rate. The most recent epidemiological report, dated 14th May, does not provide the number of laboratory and hospital tests performed.
-The figures in the time series relate to tests performed since 24 February. Since the 24 March update, in addition to the previously reported hospital tests, laboratory tests are also reported. Only the total number of laboratory tests performed between 24 February and 24 March is presented, without a time series. Our figure for 24 March adds the cumulative number of laboratory tests since 24 February (6,500) to the hospital tests figure (101,046). As such 24 March represents a break in the series.</t>
+    <t xml:space="preserve">The National Public Health Agency published updates for the number of tests performed until early May. The figures in the time series relate to tests performed since 24 February. Since the 24 March update, in addition to the previously reported hospital tests, laboratory tests are also reported. Only the total number of laboratory tests performed between 24 February and 24 March is presented, without a time series. Our figure for 24 March adds the cumulative number of laboratory tests since 24 February (6,500) to the hospital tests figure (101,046). As such 24 March represents a break in the series.
+The report [dated 21 May](https://www.santepubliquefrance.fr/content/download/254170/2609369) specified a new screening information system (SI-DEP) had been deployed from week 20 (11-17 May) and that epidemiological trends and test positivity rates would be available from 28 May. The report published in late May reported the number of people tested instead of the number of tests performed, we therefore created a second time series for France.</t>
   </si>
   <si>
     <t xml:space="preserve">DEU</t>
@@ -615,7 +655,7 @@
     <t xml:space="preserve">Germany - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-05-13-de.pdf?__blob=publicationFile</t>
+    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-07-15-de.pdf?__blob=publicationFile</t>
   </si>
   <si>
     <t xml:space="preserve">Robert Koch Institut</t>
@@ -631,13 +671,22 @@
   </si>
   <si>
     <t xml:space="preserve">To determine how many laboratory tests regarding SARS-CoV-2 are carried out per calendar week in Germany and how many tests are positive or negative, the RKI has started a Germany-wide laboratory query. However, the number of laboratories reporting data seems to vary from week to week.
-The report published on 13 May states that “from the beginning of the collection up to and including calendar week 19/2020”:
-– The cumulative total of samples tested was 3,147,771;
-- For calendar week 19 (which ends 10 May), 173 labs reported 382,154 samples tested;
-- For calendar week 18 (which ends on 3 May), 174 labs reported 325,259 samples tested;
-- For calendar week 17 (which ends on 26 April), 176 labs reported 360,443 samples tested;
-- For calendar week 16 (which ends on 19 April), 167 labs reported 330,027 samples tested;
-- For calendar week 15 (which ends on 12 April), 163 labs reported 379,233 samples tested;
+The report published on 15th July states that “from the beginning of the collection up to and including calendar week 28/2020”:
+– The cumulative total of samples tested was 6,884,614;
+- For calendar week 28 (which ends 12th July), 171 labs reported 503,220 samples tested;
+- For calendar week 27 (which ends 5th July), 146 labs reported 499,486 samples tested;
+- For calendar week 26 (which ends 28 June), 176 labs reported 462,641 samples tested;
+- For calendar week 25 (which ends 21 June), 172 labs reported 384,142 samples tested;
+- For calendar week 24 (which ends 14 June), 170 labs reported 325,430 samples tested;
+- For calendar week 23 (which ends 7 June), 176 labs reported 340,986 samples tested;
+- For calendar week 22 (which ends 31 May), 178 labs reported 405,269 samples tested;
+- For calendar week 21( which ends 24 May), 179 labs reported 353,467 samples tested;
+- For calendar week 20 (which ends 17 May), 183 labs reported 432,666 samples tested;
+- For calendar week 19 (which ends 10 May), 182 labs reported 403,875 samples tested;
+- For calendar week 18 (which ends on 3 May), 175 labs reported 326,788 samples tested;
+- For calendar week 17 (which ends on 26 April), 178 labs reported 363,890 samples tested;
+- For calendar week 16 (which ends on 19 April), 168 labs reported 331,902 samples tested;
+- For calendar week 15 (which ends on 12 April), 164 labs reported 380,197 samples tested;
 – For calendar week 14 (which ends on 5 April), 154 labs reported 408,348 samples tested;
 – For calendar week 13 (which ends on 29 March), 151 labs reported 361,515 samples tested;
 – For calendar week 12 (which ends on 22 March), 152 labs reported 348,619 samples tested;
@@ -650,7 +699,7 @@
     <t xml:space="preserve">GHA</t>
   </si>
   <si>
-    <t xml:space="preserve">Ghana - people tested</t>
+    <t xml:space="preserve">Ghana - units unclear</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ghanahealthservice.org/covid19/archive.php</t>
@@ -659,9 +708,6 @@
     <t xml:space="preserve">Outbreak Response Management Situation Update</t>
   </si>
   <si>
-    <t xml:space="preserve">persons tested</t>
-  </si>
-  <si>
     <t xml:space="preserve">Outbreak Response Management</t>
   </si>
   <si>
@@ -671,24 +717,19 @@
     <t xml:space="preserve">The units are unclear. Some press releases mention "people tested", while others give figures for "samples tested".</t>
   </si>
   <si>
-    <t xml:space="preserve">Outbreak Response Management provides [daily situation updates](https://www.ghanahealthservice.org/covid19/archive.php) on the total number of people *or* total samples tested for the coronavirus.
-Using web archives, we reconstruct a time series. From 17 March 2020 to 8 May 2020, situation updates sometimes reported the total number of people tested, and other times the total number of samples tested. We are not certain what the true units were during that period.
-From 10 May 2020, the total number of tests and total persons tested figures are reported separately.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana - samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number of tests</t>
+    <t xml:space="preserve">Ghana's Outbreak Response Management provides [daily situation updates](https://www.ghanahealthservice.org/covid19/archive.php) on the total number of people *or* total samples tested for the coronavirus. 
+Between 10 and 26 May 2020, the reports explicitly include figures for both the number of samples tested and the number of persons tested. Over this period the two figures presented are very close to each other, with the number of persons tested around 0.5% lower than the number of samples tested.
+Prior to this period, a single testing figure was provided in each report labeled variously as the number of persons tested, suspected cases tested, samples tested, or without a clear label either way. It is not clear whether this reflects only an inconsistent labelling of a consistent unit of measurement, or whether the reported units were varying in accordance with the provided labels. In either case, the similarity between the number of persons tested and samples tested apparent between 10 and 26 May suggests this issue is unlikely to have a meaningful impact on the series.
+For this reason we include all observations prior to 10 May in this series, regardless of the label applied in the report. From the 10 May onwards we use the figures that have been consistently labeled as the number of samples tested.</t>
   </si>
   <si>
     <t xml:space="preserve">GRC</t>
   </si>
   <si>
-    <t xml:space="preserve">Greece - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200520/</t>
+    <t xml:space="preserve">Greece - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eody.gov.gr/en/imerisia-ekthesi-covid-19_17-07-2020/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -697,14 +738,14 @@
     <t xml:space="preserve">The National Organization of Public Health</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/epidimiologika-statistika-dedomena/imerisies-ektheseis-covid-19/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Greek National Organization of Public Health publishes daily COVID-19 reports on confirmed cases, deaths and samples tested. 
-The report refers to its testing data as the number of people who have tested positive and negative since January 1: this means figures represent the number of people tested, excluding those pending results.
-More recent reports are explicit that the figures relate to samples tested rather than the number of people: The note mentioned that the figures are "including more than one sample per person tested" ("συμπεριλαμβάνονται και περισσότερα από ένα δείγματα ανά άτομο που ελέγχθηκε").
-It is not totally explicit whether the figures cover all testing in Greece: the figures are labelled as "Samples that have been tested in the laboratories cooperating with EODY" ("Δείγματα που έχουν ελεγχθεί στα συνεργαζόμενα με τον ΕΟΔΥ εργαστήρια").
-The official website provides a [list of daily reports](https://eody.gov.gr/epidimiologika-statistika-dedomena/imerisies-ektheseis-covid-19/). Unfortunately many reports are missing meaning a full daily time-series cannot be constructed. It is unclear how far back testing extends; the earliest available report is on 20th March when 7172 people had been tested.</t>
+    <t xml:space="preserve">https://eody.gov.gr/category/covid-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Greek National Organization of Public Health publishes daily COVID-19 press releases detailing the number of confirmed cases, deaths and samples tested. 
+The report refers to the number of clinical samples that have been tested to date since 1st January 2020. This includes the number of samples that tested either positive or negative. Reports are also explicit that the figures relate to samples tested and not the number of people, with figures "including more than one sample per person tested" ("συμπεριλαμβάνονται και περισσότερα από ένα δείγματα ανά άτομο που ελέγχθηκε").
+It is not clear whether the data covers all testing in Greece as the source report notes these are "Samples that have been tested in the laboratories cooperating with EODY" ("Δείγματα που έχουν ελεγχθεί στα συνεργαζόμενα με τον ΕΟΔΥ εργαστήρια").
+The archived official website provides a [list of daily reports](http://web.archive.org/web/20200531055629/https://eody.gov.gr/epidimiologika-statistika-dedomena/imerisies-ektheseis-covid-19/). The earliest archived report available is from 20th March when 7172 clinical samples had been tested since 1st January 2020 with the most recent dated 30th May. From 3rd April, daily reports are available via the Greek National Organization of Public Health's [COVID-19 Announcements and press releases](https://eody.gov.gr/category/covid-19).
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">HKG</t>
@@ -726,8 +767,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Hong Kong Centre for Health Protection, Department of Health provides monthly numbers of the COVID-19 viral tests performed. We calculate the cumulative number of tests performed each month in our series. The last update with provisional data is up until 14th April 2020, this information is updated once a week by the Centre for Health Protection. 
-Tests performed are conducted by the Public Health Laboratory Services Branch of the Department of Health and Hospital Authority. We are not aware of any aggregation issues.
-The cumulative total begins from 01/01/2020.</t>
+Tests performed are conducted by the Public Health Laboratory Services Branch of the Department of Health and Hospital Authority.
+The cumulative total begins from 01/01/2020.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">HUN</t>
@@ -752,26 +794,24 @@
   </si>
   <si>
     <t xml:space="preserve">A figure for the 'number of samples tested in an accredited laboratory' ("akkreditált laboratóriumban vizsgált minták száma") is provided in a graphic in the govenrment's coronavirus information website. No other information about the data is provided.
-We use these official data as collected by the [visual and data journalism team](https://atlo.team/koronamonitor/) of Budapest-based investigative center Atlatszo, made accessible in a [public spreadsheet](https://docs.google.com/spreadsheets/d/1e4VEZL1xvsALoOIq9V2SQuICeQrT5MtWfBm32ad7i8Q/edit#gid=311133316). We have cross-checked a sample of the figures in this unofficial spreadsheet against official figures.</t>
+We use these official data as collected by the [visual and data journalism team](https://atlo.team/koronamonitor/) of Budapest-based investigative center Atlatszo, made accessible in a [public spreadsheet](https://docs.google.com/spreadsheets/d/1e4VEZL1xvsALoOIq9V2SQuICeQrT5MtWfBm32ad7i8Q/edit#gid=311133316). We have cross-checked a sample of the figures in this unofficial spreadsheet against official figures.
+Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">ISL</t>
   </si>
   <si>
-    <t xml:space="preserve">Iceland - samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.covid.is/tolulegar-upplysingar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office of the Director of Public Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of samples ("Fjöldi sýna").</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Icelandic Office of Public Health publishes a complete time-series of daily samples ("Fjöldi sýna"). This time-series is broken down into two labs where these samples are tested. No other information is provided. It is not clear whether these figures include samples that are pending test results.
-The daily time-series data only extends back to 27th February. However, the source shows clearly via annotation on the testing chart that between 1st and 26th February, 41 samples had been tested. We do therefore not know the days across which these samples were taken, only that as of 26th February, the total cumulative number of samples tested was 41.</t>
+    <t xml:space="preserve">Iceland - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.covid.is/data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Icelandic Office of Public Health publishes a complete time series of tests performed, broken down into two labs where these samples are tested. No other information is provided. It is not clear whether these figures include samples that are pending test results. The daily time-series data only extends back to 27 February 2020.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">IND</t>
@@ -786,12 +826,14 @@
     <t xml:space="preserve">Indian Council of Medical Research</t>
   </si>
   <si>
-    <t xml:space="preserve">Made available by DataMeet on Github</t>
+    <t xml:space="preserve">Made available by DataMeet on GitHub</t>
   </si>
   <si>
     <t xml:space="preserve">The ICMR reports separate figures for both “samples tested” and “people tested” at press conferences and in press releases (shown separately in the charts above). No other details are provided.
 The press releases from ICMR do not always stay online for very long. The reason for this is unknown, but the releases are being backed up at this [GitHub repository](https://github.com/datameet/covid19).
-On some occasions there appear to have been more than one update released per day. Where we are aware of multiple observations for the day, we show the number for the earlier release.</t>
+On some occasions there appear to have been more than one update released per day. Where we are aware of multiple observations for the day, we show the number for the earlier release.
+The ICMR website does not explicitly state whether the reported figures refer to PCR tests only. From contextual information, it appears that the reported figures may also include samples that were tested using a TrueNat non-PCR test. ICMR communications on [May 21st 2020](https://www.icmr.gov.in/pdf/press_realease_files/ICMR_Press_Release_TruNat_21052020.pdf) and [April 19th 2020](https://www.icmr.gov.in/pdf/covid/labs/Additional_guidance_on_TrueNat_based_COVID19_testing.pdf) indicate that TrueNat tests are being used in diagnostic testing. These TrueNat tests likely account for a small minority of all samples tested.
+Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">India - samples tested</t>
@@ -803,18 +845,25 @@
     <t xml:space="preserve">Indonesia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org</t>
+    <t xml:space="preserve">https://covid19.disiplin.id/</t>
   </si>
   <si>
     <t xml:space="preserve">Emerging infections, Indonesian Ministry of Health</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.kemkes.go.id/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of cases tested.</t>
   </si>
   <si>
     <t xml:space="preserve">The Indonesian Ministry of Health updates its COVID-19 dashboard twice a day but doesn't keep time series of past data. The two URLs ([1](https://infeksiemerging.kemkes.go.id/), [2](https://covid19.kemkes.go.id/)) seem to lead to the exact same dashboard.
 The dashboard shows the latest number of "Kasus dg Spesimen Diperiksa", which translates to "Cases with Specimens Checked".
-We found past values using Internet Archive's Wayback Machine.</t>
+We found past values using Internet Archive's Wayback Machine.
+There is some reason to believe that non-PCR tests are included in the cumulative number of specimens checked to date. [Official COVID-19 diagnostic guidelines](https://covid19.kemkes.go.id/download/Pedoman_Penanganan_Cepat_Medis_dan_Kesehatan_Masyarakat_COVID-19_di_Indonesia.pdf.pdf) published on March 23rd 2020 state that: 
+"Handling of COVID-19 in Indonesia uses antibodies and / or antigen Rapid Tests (RT) in case of contact from a positive patient. RT antibodies are also used for case detection...in areas that do not have facilities for RT-PCR inspection. RT antibody examination results are confirmed using RT-PCR." (translated)
+We cannot find explicit confirmation of whether the reported testing figures include or exclude non-PCR tests.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">IRN</t>
@@ -823,7 +872,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200519130712/http://irangov.ir/detail/339563</t>
+    <t xml:space="preserve">http://irangov.ir/detail/343348</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -833,28 +882,25 @@
   </si>
   <si>
     <t xml:space="preserve">The Government of Iran provides daily press releases of the cumulative number of tests performed to date. It is not clear whether the reported figures refer to the number of samples tested or number of people tested. It is also unclear whether the reported figures include tests for which the results are pending.
-We have found testing data dating back to April 5th 2020, at which point 189,790 tests had been conducted to date. It is not clear when the first test was conducted.</t>
+We have found testing data dating back to April 5th 2020, at which point 189,790 tests had been conducted to date. It is not clear when the first test was conducted.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">IRL</t>
   </si>
   <si>
-    <t xml:space="preserve">Ireland - units unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gov.ie/en/press-release/41d42e-statement-from-the-national-public-health-emergency-team-tuesday-19-/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gov.ie/en/publications/?&amp;type=press-releases&amp;organisation=department-of-health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The units are unclear. Some press releases mention "tests carried out", while others give figures for "people tested".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Irish Department of Health publishes daily press releases, which sometimes (about once a week) include an updated cumulative total for national tests.
-The [10 March release](https://www.gov.ie/en/press-release/a4016f-statement-from-the-national-public-health-emergency-team-tuesday-10-/) was unclear as to the units: It states both that "1,784 people have been tested" and that "There have been 1,784 suspected cases tested in Ireland, to date - an increase of 1,387 tests in one week." Subsequent releases refer to "tests carried out". Overall it remains unclear whether the figures relate to people tested or the number of tests performed.
-Occassionally, the press release states that these figures relate to tests "carried out in laboratories across the country".
-No other details about what the numbers refer to are known.</t>
+    <t xml:space="preserve">Ireland - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://covid19ireland-geohive.hub.arcgis.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Government of Ireland has released a data hub on 18 June 2020 that provides updates on the number of tests completed. The earliest observation is from 18 March 2020, however, the exact date these cumulative figures date back to is unclear.
+The total we report is the sum of total tests completed in hospitals and all other labs (NVRL and Cherry Orchard). 
+The source notes "Data presented are reported by the Health Protection Surveillance Centre (HPSC) at 3pm each day (data as of midnight previous day). This data will be updated on a daily basis from Monday to Saturday. As some cases are tested multiple times over the duration of the illness (with positive results) the total number of positive tests does not correspond to the confirmed COVID-19 cases reported by the HPSC."</t>
   </si>
   <si>
     <t xml:space="preserve">ISR</t>
@@ -863,21 +909,19 @@
     <t xml:space="preserve">Israel - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/idandrd/israel-covid19-data/</t>
+    <t xml:space="preserve">https://govextra.gov.il/media/22494/covid19-data-israel-11072020.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Israel Ministry of Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Made available by Idan Dardikman on Github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://t.me/s/MOHreport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Israel Ministry of Health publishes COVID-19 updates on its official channel on Telegram. This data is published in a format that is extremely challenging to collect. We rely on the data as collected and made available [on GitHub](https://github.com/idandrd/israel-covid19-data/blob/master/Corona-Tests.csv).
-On 19 April 2020, the person who maintains the GitHub repository confirmed to us that the units refer to the number of tests performed, after checking the information with the Ministry of Health.
-No further information on the geographical scope, number of labs, or types of test included are known.</t>
+    <t xml:space="preserve">https://datadashboard.health.gov.il/COVID-19/?utm_source=go.gov.il&amp;utm_medium=referral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Israel Ministry of Health publishes a coronavirus dashboard on its [website](https://govextra.gov.il/ministry-of-health/corona/corona-virus/). It includes a downloadable data file which includes the cumulative number of coronavirus detection tests conducted. This data file is updated daily and includes data up to one week before publication. 
+The first observation in the time series is from 26th January which covers most, if not all, of the relevant period. 
+No further information on the geographical scope, number of labs, or types of test included are known.
+The MOH also publishes COVID-19 updates on its official channel on Telegram. However, this data is published in a format that is extremely challenging to collect. We previously relied on the data collected and made available [on GitHub](https://github.com/idandrd/israel-covid19-data/blob/master/Corona-Tests.csv). On 19 April 2020, the person who maintains the GitHub repository confirmed to us that the units refer to the number of tests performed, after checking the information with the Ministry of Health. However, on 29 May we became aware of the easily accessible Israel MOH series which we now report.</t>
   </si>
   <si>
     <t xml:space="preserve">ITA</t>
@@ -902,33 +946,35 @@
   </si>
   <si>
     <t xml:space="preserve">The official data provided by the Ministry of Health is compiled by the Department of Civil Protection on [GitHub](https://github.com/pcm-dpc/COVID-19). Figures relate to the total number of people tested. This figure is available for each individual region separately at the source indicated. However it appears that data is missing for individual regions for particular dates – we assume that these are also missing from the aggregate total for Italy that we provide. The list of missing data, in English, can be seen at the bottom of [this data dashboard built by Franco Mossotto](https://datastudio.google.com/u/0/reporting/91350339-2c97-49b5-92b8-965996530f00/page/RdlHB). 
-It is clear that there are delays in timeline running up to a test being reported – both in terms of the time it takes for a symptomatic person to receive a test, and in the time for that test to then get reported in the data. For one region, Lombardy, an investigation found the latter delay to be around 3-4 days.
+It is clear that there are delays in timeline running up to a test being reported – both in terms of the time it takes for a symptomatic person to receive a test, and in the time for that test to then get reported in the data. For one region, Lombardy, [an investigation](https://arxiv.org/ftp/arxiv/papers/2003/2003.09320.pdf) found the latter delay in the early period of the outbreak to be around 3-4 days.
 There is significant variation in testing practices – in terms of how many tests are conducted and how they are allocated across the population – across regions and these practices have also changed over time. The extent to which tests pending results are included appears to vary across regions.
-Pietro Monticone and Riccardo Valperga have written a very helpful and detailed description of these data quality issues [here in GitHub](https://pitmonticone.github.io/covid-italy/owid-testing-italy.html).</t>
+Pietro Monticone and Riccardo Valperga have written a very helpful and detailed description of these data quality issues [here in GitHub](https://pitmonticone.github.io/covid-italy/owid-testing-italy.html). 
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">Italy - tests performed</t>
   </si>
   <si>
     <t xml:space="preserve">The official data provided by the Ministry of Health is compiled by the Department of Civil Protection on [GitHub](https://github.com/pcm-dpc/COVID-19). Figures relate to the total number of tests performed. This figure is available for each individual region separately at the source indicated. However it appears that data is missing for individual regions for particular dates – we assume that these are also missing from the aggregate total for Italy that we provide. The list of missing data, in English, can be seen at the bottom of [this data dashboard built by Franco Mossotto](https://datastudio.google.com/u/0/reporting/91350339-2c97-49b5-92b8-965996530f00/page/RdlHB). 
-It is clear that there are delays in timeline running up to a test being reported – both in terms of the time it takes for a symptomatic person to receive a test, and in the time for that test to then get reported in the data. For one region, Lombardy, an investigation found the latter delay to be around 3-4 days.
+It is clear that there are delays in timeline running up to a test being reported – both in terms of the time it takes for a symptomatic person to receive a test, and in the time for that test to then get reported in the data. For one region, Lombardy,  [an investigation](https://arxiv.org/ftp/arxiv/papers/2003/2003.09320.pdf) found the latter delay in the early period of the outbreak to be around 3-4 days.
 There is significant variation in testing practices – in terms of how many tests are conducted and how they are allocated across the population – across regions and these practices have also changed over time. The extent to which tests pending results are included appears to vary across regions.
-Pietro Monticone and Riccardo Valperga have written a very helpful and detailed description of these data quality issues [here in GitHub](https://pitmonticone.github.io/covid-italy/owid-testing-italy.html).</t>
+Pietro Monticone and Riccardo Valperga have written a very helpful and detailed description of these data quality issues [here in GitHub](https://pitmonticone.github.io/covid-italy/owid-testing-italy.html). 
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">JPN</t>
   </si>
   <si>
-    <t xml:space="preserve">Japan - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_11417.html</t>
+    <t xml:space="preserve">Japan - people tested (incl. non-PCR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_12515.html</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Labor and Welfare Press Release</t>
   </si>
   <si>
-    <t xml:space="preserve">See Table: 国内の発生状況, column 1 '検査実施人数'.</t>
+    <t xml:space="preserve">See Table: 国内の発生状況, column 1 '検査実施人数'. Daily change figure provided for this date is not consistent with the cumulative totals for today and the previous day.</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Labor and Welfare</t>
@@ -937,25 +983,25 @@
     <t xml:space="preserve">https://www.mhlw.go.jp/stf/houdou/houdou_list_202004.html</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Health, Labor and Welfare issues daily reports for the total number of people tested. Daily changes in the number of people tested are included in parentheses. For the 3rd and 21st April, the daily changes do not reconcile with the cumulative totals. Moreover, it is clear that revisions to past data are simply added to the new cumulative total, making the time series of 'daily tests' too erratic to be published.
-This includes two cases where the cumulative number of people tested falls: (1) 19/03 and (2) 25/03. For case (1) see footnote 4 which indicates a past mistake has been noticed and the cumulative figure revised on the date to adjust for this. For case (2), we could not find the associated footnote.
+    <t xml:space="preserve">The Ministry of Health, Labor and Welfare issues daily reports for the total number of people tested. Daily changes in the number of people tested are included in parentheses. For the 3rd and 21st April, the daily changes do not reconcile with the cumulative totals. Moreover, it is clear that revisions to past data are simply added to the new cumulative total, making the time series of 'daily tests' very erratic.
+This includes three cases where the cumulative number of people tested falls: (1) 19/03; (2) 25/03; and (3) 15/05. For case (1) see footnote 4 which indicates a past mistake has been noticed and the cumulative figure revised on the date to adjust for this. For case (2), we could not find the associated footnote. For case (3), see footnote 3 of the press release which indicates a past mistake has been noticed and the cumulative figure revised on the date to adjust for this.
 It isn't clear what exact date these cumulative tests date back to, but it is earlier than 10 Feb when the source reports 938 people had been tested. Prior to the 10 Feb, the press releases provide reports of coronavirus infections for the Diamond Princess cruise ship quarantined in Yokohama port. We do not report these numbers in the time series as it is unclear how they relate to the cumulative totals.
-Google translate was used while compiling this data so this may affect our interpretation of the data.</t>
+The MOH's press release dated 10/07 notes "The Tokyo Metropolitan Government has retroactively changed the number of people who perform tests after July 9, and the number of people after May 13 includes the number of antigen tests in addition to PCR tests. (4,000 or more) is increasing" via google translate. The MOH's 15/07 press release, see footnote 3 which also notes "For some local governments, the number of antigen testers is included." via google translate.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000632206.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cumulative total reported in the press release (409,667) does not sum to the cumulative total calculated from the weekly and daily figures reported by the MOH.</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000650215.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cumulative total reported in the press release (870,432) does not sum to the cumulative total calculated from the weekly and daily figures reported by the MOH. See: https://www.mhlw.go.jp/content/10906000/000650215.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">On 11th April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the date on which results were determined" (via Google translate). 
 With each update, some daily totals are revised from earlier releases of the time series. 
-From 20th May, the MOH changed how it reports the number of tests performed. From 18th February to 25th March (as of 20/05/2020), the MOH reports the number of tests implemented each week, and the daily totals thereafter. We calculate the cumulative total from the weekly and daily figures. The cumulative total reported in the press release (409,667) does not sum to the cumulative total calculated from the weekly and daily figures. The source does not provide additional details about this discrepancy.
-Google translate was used while compiling this data so this may affect our interpretation of the data.</t>
+From 20th May, the MOH changed how it reports the number of tests performed. From 18th February to 25th March (as of 20/05/2020), the MOH reports the number of tests implemented each week, and the daily totals thereafter. We calculate the cumulative total from the weekly and daily figures. There are instances where the cumulative totals reported in the press releases do not sum to the cumulative total calculated from the weekly and daily figures. This includes the series released on 20/21 and 24/25 May. The source does not provide additional details about this discrepancy.</t>
   </si>
   <si>
     <t xml:space="preserve">KAZ</t>
@@ -971,7 +1017,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Kazakhstan National Center for Public Health provides an official time series of the total number of tests performed to date. It is unclear whether the reported figures include tests for which the results are pending.
-The website explicitly states that "one person could be tested several times", indicating that the number of tests performed ("Проведено тестов") is not equivalent to the number of people tested.
+The website explicitly states that "one person could be tested several times", indicating that the number of tests performed ("Проведено тестов") is not equivalent to the number of people tested. The reported number of tests performed may include non-PCR tests. [Official COVID-19 prevention guidelines](https://hls.kz/uploads/covid/%D0%9F%D0%93%D0%93%D0%A1%D0%92%20%E2%84%9636%20%D0%BA%D0%B0%D0%B7.docx) indicate that antibody (non-PCR) tests are an important aspect of the country's screening and diagnostic process (see pages 48-54). But the source does not explicitly state whether these non-PCR tests are included in the reported cumulative number of tests performed to date.
 The earliest reported figure is from March 13th 2020, at which point 126 tests had been conducted. It is unclear whether March 13th was the first date on which tests were conducted.</t>
   </si>
   <si>
@@ -981,7 +1027,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.go.ke/wp-content/uploads/2020/05/CamScanner-05-20-2020-15.32.51.pdf</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1283030716612325377</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -995,7 +1041,27 @@
   <si>
     <t xml:space="preserve">The Kenya Ministry of Health provides daily press releases and tweets ([@MOH_Kenya](https://twitter.com/MOH_Kenya)), sometimes reporting the number of tests conducted in the past 24 hours and sometimes reporting the total number of tests conducted to date.
 It is not clear whether the reported figures refer to the number of samples tested or number of people tested, since the press releases and tweets variably use the terminology "samples tested", "tests conducted", and "people tested" at different points in time. It is also unclear whether the reported figures include tests for which the results are pending.
-We have found testing data dating back to March 6th 2020, at which point 31 tests had been conducted to date. It is not clear when the first test was conducted.</t>
+We have found testing data dating back to March 6th 2020, at which point 31 tests had been conducted to date. It is not clear when the first test was conducted.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1284080484633513987/photo/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait Ministry of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Kuwait Ministry of Health provides daily reports of the daily ("NEW TESTS") and cumulative ("Total") number of tests performed on [their official Twitter account](https://twitter.com/KUWAIT_MOH). COVID-19 reports date back to early March 2020 but did not begin including testing numbers until 13 May; the cumulative total then was already 227,000. From 13 to 29 May, the daily number was termed "NP swab last 24 h" and the cumulative number "Total Investigations."
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">LVA</t>
@@ -1013,7 +1079,7 @@
     <t xml:space="preserve">Collected from the Latvian Open Data Portal</t>
   </si>
   <si>
-    <t xml:space="preserve">The Center for Disease Prevention and Control publishes the number of laboratory tests performed to detect SARS-CoV-2 virus ("Veikto laboratorisko testu skaits, lai noteiktu SARS-CoV-2 vīrusu") on the Latvian Government's Open Data Portal. No information is given on the geographical scope and number of labs included.</t>
+    <t xml:space="preserve">The Center for Disease Prevention and Control publishes a timeseries of the number of laboratory tests performed to detect SARS-CoV-2 virus ("Veikto laboratorisko testu skaits, lai noteiktu SARS-CoV-2 vīrusu") on the Latvian Government's Open Data Portal. No information is given on the geographical scope and number of labs included.</t>
   </si>
   <si>
     <t xml:space="preserve">LTU</t>
@@ -1022,23 +1088,18 @@
     <t xml:space="preserve">Lithuania - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520181946/http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Health provides fairly regular updates of the number of samples that have been analyzed/tested for suspected coronavirus, to date ("Iki šiol iš viso ištirta ėminių dėl įtariamo koronaviruso"). The figures are broken down by. A time series is not available. As such it is not clear the exact date these cumulative figures date back to.
-The figures exclude samples that remain untested (i.e. tests pending results).</t>
+    <t xml:space="preserve">The Ministry of Health provides fairly regular updates of the number of samples that have been analyzed/tested for suspected coronavirus, to date ("Iki šiol iš viso ištirta ėminių dėl įtariamo koronaviruso"). It is not clear the exact date these cumulative figures date back to. Using web archives, we construct a time series by looking at earlier snapshots of the website.
+The figures exclude samples that remain untested (i.e. tests pending results).
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">LUX</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520181951/https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1050,7 +1111,7 @@
     <t xml:space="preserve">The Luxembourg government provides a daily situation update listing the 'number of persons tested since the beginning of the crisis'.
 Using web archives, we construct a time series by looking at earlier snapshots of the website. Gaps in the series are due to the lack of archived pages for those particular dates. Archives dating back to April 1st are available.
 Earlier updates listed their figures as 'tests carried out'. Given that there is no visible break in the series, we assume that the figures have always related to the number of people tested and the change in label reflects only a clarification of this.
-In the FAQs beneath the figures, the website states that "Only a test on respiratory secretions is currently available to detect the presence of the new coronavirus."</t>
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">MYS</t>
@@ -1059,21 +1120,24 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520182204/https://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/072020/situasi-terkini-18-julai-2020</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.moh.gov.my/index.php/pages/view/2019-ncov-wuhan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of cases tested, including pending.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A time series has not yet been released. The figures provided are daily updates to the total number of cases tested. It is not clear the exact date these cumulative figures date back to. The earliest release we have been able to find begins from the 14th February.
-The source provides a breakdown of the number of positive, negative, and still pending tests. We report total tests as the sum of positive and negative tests, excluding pending tests. The title of the table indicates that these figures relate to cases. As far as we are aware, cases are equivalent to individuals tested.
-In a previous version of this page, we reported total tests as the sum of positive, negative, and pending tests. However, since April 7th 2020, the source has not reported the number of pending tests each day. For this reason, we have updated the time series so that total tests is equal to the sum of positive and negative tests (excluding pending tests) for all days on which we report data.</t>
+    <t xml:space="preserve">Jumlah individu disampel' via google translate is interpreted to be the number of individuals sampled. See the 'Taburan Kes' tab at the very bottom of the update.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Malaysian Ministry of Health provides daily [situation updates](http://covid-19.moh.gov.my/terkini), including the cumulative number of individuals sampled, available from 19th May. This figure can be found in the infographic titled 'Jumlah Keseluruhan Taburan Kes COVID-19 di Malaysia' labelled as 'Jumlah Individu Disampel'. Since 19th April 2020, we are not aware of this source reporting positive, negative, and pending test figures separately, as was the case before. 
+The situation updates for 27/28 May and 2 June onwards do not include the infographic detailing the total number of people tested. In these instances, we rely on the MOH daily press conference livestreams uploaded to the official facebook page. The sum of positive and negative tests reported in the livestream match the total people tested figures reported in the situation updates. 
+For 14/15 May, we use the Director General of Health, [daily press statement figures](https://kpkesihatan.com/2020/05/15/kenyataan-akhbar-kpk-15-mei-2020-situasi-semasa-jangkitan-penyakit-coronavirus-2019-covid-19-di-malaysia/). It details the jump in people tested from 14th to 15th May was due to data consolidation efforts and an improved data collection system.
+Prior to 19th May, we relied on MOH web archives to reconstruct the time series. The MOH provided daily updates to the total number of cases tested. It is not clear the exact date these cumulative figures date back to. The earliest release we have been able to find begins from the 14th February. This MOH web archive provides a breakdown of the number of positive, negative, and still pending tests. We report total tests as the sum of positive and negative tests, excluding pending tests. The title of the table indicates that these figures relate to cases. As far as we are aware, cases are equivalent to individuals tested.
+In a previous version of this page, we reported total tests as the sum of positive, negative, and pending tests. However, since April 7th 2020, the source has not reported the number of pending tests each day. For this reason, we have updated the time series so that total tests is equal to the sum of positive and negative tests (excluding pending tests) for all days on which we report data.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">MDV</t>
@@ -1082,22 +1146,41 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/561317043971945/videos/717317629028998/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives Ministry of Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numbers visible in video at time: 1:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives Ministry of Health Official Facebook page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/MinistryOfHealthMV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Maldives Ministry of Health posts almost-daily video updates (there are some missing days) to their official Facebook page. Toward the end of these videos they report "Laboratory Sample" numbers for positive, negative, pending, and total. The positive, negative, and total numbers are cumulative, while the pending numbers are current as of that day. We report here the total of positive and negative numbers rather than the reported total numbers, as those inconsistently include pending values and occasionally contain discrepant numbers that do not match any combination of the positive, negative, or pending numbers. It is not clear when testing first began; data is only available from 16th March where it was reported that 221 tests had been conducted.</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1284171237221175297/photo/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives Health Protection Agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives Ministry of Health Official Twitter page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/HPA_MV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Maldives Health Protection Agency, part of the Ministry of Health, provides daily updates on their official Twitter page ([@HPA_MV](https://twitter.com/HPA_MV)) with the cumulative total of samples tested. They note that the total includes “repeated samples,” and likely also includes pending tests. This is our source starting 26 June 2020.
+Before the 26th, our source was daily update videos posted to the Maldives Ministry of Health [official Facebook page](https://www.facebook.com/MinistryOfHealthMV). Toward the end of these videos they report the number of positive, pending, and total “Laboratory Sample[s]” tested; before 16 June the number of negative samples was also reported. The positive, negative, and total numbers are cumulative, while the pending numbers are current as of that day.
+From 16-25 June, we used the reported total, which likely includes pending tests. Before the 16th when negative numbers were reported, we used the total of positive and negative numbers rather than the reported total, since the latter generally included pending values and occasionally contained discrepant numbers that did not match any combination of the positive, negative, or pending numbers. It is not clear when testing first began; data is only available from 16 March where it was reported that 221 tests had been conducted.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/COVID19-Malta/COVID19-Cases/blob/master/COVID-19%20Malta%20-%20Number%20of%20PCR%20Tests%20by%20Date.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID-19 Malta Public Health Response Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://covid19dashboard.gov.mt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The COVID-19 Malta Public Health Response Team provides updates on the number of tests performed in the last 24 hours and the cumulative total number of tests performed, on [its dedicated dashboard](https://covid19dashboard.gov.mt) and on [GitHub](https://github.com/COVID19-Malta/COVID19-Cases). This time series only includes PCR tests. The earliest observation available is from 6 February 2020.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">MEX</t>
@@ -1112,10 +1195,16 @@
     <t xml:space="preserve">Health Secretary</t>
   </si>
   <si>
-    <t xml:space="preserve">The Mexican Health Secretary publishes a dataset on [datos.gob.mx](https://datos.gob.mx/busca/dataset/informacion-referente-a-casos-covid-19-en-mexico), the open data platform of the Mexican government.
-The file can be downloaded in CSV format, and gives detailed information on each case (1 row per case). The RESULTADO column gives the status of the case, with 1 = CONFIRMED and 2 = NEGATIVE. The resulting tally can also be found on the [government's COVID-19 dashboard](https://coronavirus.gob.mx/datos/).
-While geographical coverage is complete, there is a time lag in the publication of the data, and recent days systematically show temporary low figures. Data starts on 1 January 2020; we do now know if this is because tests started on that date or because earlier data is not available.
-The notes to the data provide the following note "Information from the Epidemiological Surveillance System for Viral Respiratory Diseases, reported by the 475 viral respiratory disease monitoring units (USMER) throughout the country in the entire health sector (IMSS, ISSSTE, SEDENA, SEMAR, ETC).... Preliminary data subject to validation by the Ministry of Health through the General Directorate of Epidemiology. The information contained corresponds only to the data obtained from the epidemiological study of a suspected case of viral respiratory disease at the time it is identified in the medical units of the Health Sector". (via Google translate)</t>
+    <t xml:space="preserve">Government of Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://coronavirus.gob.mx/datos/#DownZCSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Government of Mexico makes a dataset available along with [its COVID-19 dashboard](https://coronavirus.gob.mx/datos/#DownZCSV).
+The file can be downloaded in CSV format, and gives detailed information on each case (1 row per case). The RESULTADO column gives the status of the case, with 1 = POSITIVE, 2 = NEGATIVE, 3 = PENDING. We do not include pending tests in our time series, and we remove recent days where the proportion of pending tests (RESULTADO = 3) is above 50%, to avoid publishing a time series that drops substantially in the last few days.
+Data starts on 1 January 2020; we do not know if this is because tests started on that date or because earlier data is not available.
+The notes to the data provide the following note "Information from the Epidemiological Surveillance System for Viral Respiratory Diseases, reported by the 475 viral respiratory disease monitoring units (USMER) throughout the country in the entire health sector (IMSS, ISSSTE, SEDENA, SEMAR, ETC).... Preliminary data subject to validation by the Ministry of Health through the General Directorate of Epidemiology. The information contained corresponds only to the data obtained from the epidemiological study of a suspected case of viral respiratory disease at the time it is identified in the medical units of the Health Sector".</t>
   </si>
   <si>
     <t xml:space="preserve">MAR</t>
@@ -1124,20 +1213,18 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/RedaElmar/COVID-19_Morocco/blob/master/COVIDMA.csv</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1284185485867450368/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Made available by Reda Elmar on GitHub</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.sante.gov.ma/Pages/Accueil.aspx</t>
   </si>
   <si>
-    <t xml:space="preserve">The Morocco Ministry of Health provides daily updates of the total number of confirmed cases and the number of cases dismissed following a negative test result. We construct a time series of the cumulative number of cases tested to date using the data stored in [this unofficial GitHub repository](https://github.com/RedaElmar/COVID-19_Morocco), supplemented by official updates from the Ministry of Health's twitter page ([@Ministere_Sante](https://twitter.com/Ministere_Sante)). We have cross-checked a sample of the figures reported in the unofficial source against official data reported by the Ministry of Health.
-The cumulative number of cases tested to date includes positive and negative test results, while excluding pending results. The earliest reported figure is from February 7th 2020, at which point 9 cases had been tested.</t>
+    <t xml:space="preserve">The Morocco Ministry of Health [provides daily updates](http://www.covidmaroc.ma/pages/Accueil.aspx) of the cumulative number of both confirmed cases (“Cas confirmés”) and cases excluded following a negative laboratory result (“Cas exclus suite à un résultat négatif du laboratoire”); we add these two numbers together to derive a cumulative total. We construct a time series of the cumulative total number of cases tested to date using updates from the Ministry of Health's official Twitter page, ([@Ministere_Sante](https://twitter.com/Ministere_Sante)). There are usually two updates per day, and we use the later one. The earliest reported numbers are from 7 February 2020, at which point 9 cases had been tested.
+From 2 March to 18 May we used data stored in [this unofficial GitHub repository](https://github.com/RedaElmar/COVID-19_Morocco) instead of the official source to automate data collection. We have cross-checked a sample of the figures reported in the unofficial source against official data reported by the Ministry of Health to ensure accuracy.
+Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">MMR</t>
@@ -1156,30 +1243,28 @@
   </si>
   <si>
     <t xml:space="preserve">The Myanmar Ministry of Health and Sports provides a daily snapshot of the total number of specimens tested to date. These figures include positive and negative test results, but exclude pending results.
-The earliest reported figure that we have been able to find on the ministry website is from April 3rd 2020, at which point 1183 specimens had been tested.</t>
+The earliest reported figure that we have been able to find on the ministry website is from April 3rd 2020, at which point 1183 specimens had been tested.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">NPL</t>
   </si>
   <si>
-    <t xml:space="preserve">Nepal - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/raunakms/covid19nepal/blob/master/data/data_total.tsv</t>
+    <t xml:space="preserve">Nepal - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1Vra6kB7rw1DWsiskFOEw0Hohy4CAa5ed</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
   </si>
   <si>
-    <t xml:space="preserve">Made available on GitHub by Raunak Shrestha</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://covid19.mohp.gov.np/#/</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Health and Population publishes daily reports on COVID-19, including a table with the number of people tested in each lab. It also differentiates between positive tests, negative tests, and tests pending, allowing to remove pending tests from the total.
-We collect the data directly from [this GitHub repository](https://github.com/raunakms/covid19nepal).
-According to the reports, including the National Public Health Laboratory in Teku, the COVID-19 lab test through PCR is available in 13 institutions across the country with a minimum of one lab in each province.</t>
+    <t xml:space="preserve">The Nepal Ministry of Health and Population publishes daily reports on COVID-19, including the number of RT-PCR tests performed nationally and in different labs.
+Before 11 May 2020, the reports differentiated between positive, negative, and pending tests, allowing removal of pending tests from the total. Since 11 May the number of pending tests is no longer reported and thus it is unclear if they are included in the reported total.
+Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">NLD</t>
@@ -1188,10 +1273,10 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-05/COVID-19_WebSite_rapport_20200520_1022.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dutch National Institute for Public Health and the Environment - 20 May 2020 update</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-07/COVID-19_WebSite_rapport_wekelijks_20200714_1040.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Institute for Public Health and the Environment</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch National Institute for Public Health and the Environment</t>
@@ -1218,16 +1303,13 @@
   </si>
   <si>
     <t xml:space="preserve">The New Zealand Ministry of Health provide a time series for tests per day and cumulative tests. The daily figures begin on 9 March, and the cumulative figures date back to 22 January when testing began.
-No further details about the data are available.</t>
+A note to the data states that "The total number of tests conducted is greater than the number of people tested, because some people are tested more than once."</t>
   </si>
   <si>
     <t xml:space="preserve">NGA</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria - samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520182800/https://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1238,7 +1320,8 @@
   <si>
     <t xml:space="preserve">The Nigeria Centre for Disease Control, on the homepage of the website dedicated to COVID-19, publishes a number of samples tested.
 This table often displays figures in a format such as "&gt; 7153". When this is the case, we have taken the raw number (in our example 7153) as the cumulative total for that day.
-No information is given on the geographical scope and number of labs included. It is also unclear whether the reported figures include tests for which the results are pending.</t>
+No information is given on the geographical scope and number of labs included. It is also unclear whether the reported figures include tests for which the results are pending.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">NOR</t>
@@ -1247,7 +1330,7 @@
     <t xml:space="preserve">Norway - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.fhi.no/contentassets/ca5914bd0aa14e15a17f8a7d48fa306a/2020.05.20-dagsrapport-norge-covid-19.pdf</t>
+    <t xml:space="preserve">https://www.fhi.no/en/id/infectious-diseases/coronavirus/daily-reports/daily-reports-COVID19/</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian Institute of Public Health</t>
@@ -1263,7 +1346,31 @@
 These daily reports state the cumulative number of people who have been tested – including the number and share who tested positive. We can use these daily updates to construct a full time-series. Note that the source states that "Data for the last few days is incomplete and will be updated in upcoming daily reports", that the "Number of tested and proportion of positive findings among the tested is affected by changes in test criteria". It also notes that "Laboratory data is now retrieved from the new national laboratory database, which gives us [a] more complete data set with regard to sampling date". Earlier reports noted that "The figure contains only numbers from laboratories that have reports that include the sampling date" [all via Google Translate]. As such, this seems to imply an increase in coverage across laboratories over time.
 In addition to the aggregate number of people tested, the source provides a regional breakdown, in which it is noted that tests in 'private labs that analyze tests across the country' are excluded. The sum of this breakdown is lower than the aggregate figure provided. We take this as an indication that the main aggregate figure we report includes all private testing.
 Daily reports with figures on testing are only available dating back to 16th March. We therefore do not know the first date of testing, only that as of 16th March, 18062 people had been tested.
-The time of day to which the testing figures relate appears to have changed. Earlier daily reports refers to those tested up until 3pm (local time) of the previous day. More recent reports relate to those tested up until midnight (local time) of the previous day.</t>
+The time of day to which the testing figures relate appears to have changed. Earlier daily reports refers to those tested up until 3pm (local time) of the previous day. More recent reports relate to those tested up until midnight (local time) of the previous day.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman - units unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/OmanVSCovid19/status/1284412747183198209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman Ministry of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/OmanVSCovid19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is unclear whether the number of tests refers to samples or individuals tested.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Oman Ministry of Health provides daily statements, including the total number of tests within the last 24 hours. It is unclear whether tests refer to samples or individuals tested. 
+The earliest observation on testing figures begins from 4 June. No cumulative total is provided by the source, therefore this time series is only visible on our graphs for daily tests.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">PAK</t>
@@ -1272,9 +1379,6 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520182803/http://www.covid.gov.pk/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Government of Pakistan</t>
   </si>
   <si>
@@ -1282,42 +1386,32 @@
   </si>
   <si>
     <t xml:space="preserve">The government of Pakistan publishes a [dashboard showing up-to-date national data](http://www.covid.gov.pk/).
-The figures sometimes shows important 1-day increases due to the inclusion of more labs.</t>
+The figures sometimes shows important 1-day increases due to the inclusion of more labs.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">PAN</t>
   </si>
   <si>
-    <t xml:space="preserve">Panama - units unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/c0t088/DAP-Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Made available by c0t088 on Github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://minsa.gob.pa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The [Panama Ministry of Health](http://www.minsa.gob.pa) in collaboration with the [Gorgas Memorial Institute for Health Studies](http://www.gorgas.gob.pa) reports the cumulative number of tests performed to date in [this dashboard](http://minsa.gob.pa/coronavirus-covid-19). The reported figures include the total number of positive, negative, and "positive control" test results to date.
-It is unclear whether the total number of tests performed ("pruebas realizadas") refers to the number of people tested or the number of samples tested. The number of reported positive test results is equal to the number of confirmed cases of COVID-19, which suggests that the number of tests performed is equivalent to the number of people tested. However, because the data source does not provide a clear definition, we record the units as "unclear".
-Unfortunately, the Ministry of Health's official dashboard does not provide a time series of the number of tests performed each day since testing began. Instead, the dashboard only displays a daily snapshot of the total number of tests performed to date. Since we did not begin to monitor this dashboard until April 14th 2020, we construct a time series dating back to March 9th 2020 using data provided in [this unofficial GitHub repository](https://github.com/c0t088/DAP-Panama/blob/master/data_covid_pma_dia.csv), which we have cross-referenced against data in the official Ministry of Health dashboard for a sample of dates.</t>
+    <t xml:space="preserve">Panama - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://minsa.gob.pa/covid-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama Ministry of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Panama Ministry of Health reports the cumulative number of tests performed ("pruebas realizadas") on [their official dashboard](http://minsa.gob.pa/covid-19) with a time series dating back to 9 March 2020. The page with testing numbers is not the first one shown but can be navigated to with the arrows at the bottom of the dashboard. The dashboard shows the cumulative number of total, positive, negative, and control tests ("prueba de control") performed. We report here the total of positive and negative numbers because: 1) the time series only includes positive and negative test numbers; and 2) the total they provide seems to include control tests, which we understand to be used for testing quality control.</t>
   </si>
   <si>
     <t xml:space="preserve">PRY</t>
   </si>
   <si>
-    <t xml:space="preserve">Paraguay - samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/torresmateo/covidpy-rest/blob/master/data/covidpy.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Public Health and Social Welfare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Made available on Github by Mateo Torres</t>
+    <t xml:space="preserve">Paraguay - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mspbs.gov.py/reporte-covid19.html</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
@@ -1326,19 +1420,21 @@
     <t xml:space="preserve">https://www.mspbs.gov.py</t>
   </si>
   <si>
-    <t xml:space="preserve">The Paraguay Ministry of Public Health and Social Welfare provides press releases of the daily number of samples tested, alongside the number of these samples that tested positive. It is unclear whether these figures include samples for which the results are still pending.
-We construct a time series of the daily number of samples tested using the data stored in [this unofficial GitHub repository](https://github.com/torresmateo/covidpy-rest). We have cross-checked a sample of the figures reported in this unofficial source against the data reported in official press releases.
-It is possible that the figures are equivalent to the number of people tested, since the number of positive samples reported tend to be equal to the daily number of confirmed cases that the ministry reports. However, since the ministry uses the language "samples taken" ("muestras tomadas") in its press releases, we interpret the units as "sample tested" rather than "people tested".
+    <t xml:space="preserve">The figures are labelled as the number of tests performed ("pruebas realizadas") but may equate to the number of people tested.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Paraguay Ministry of Public Health and Social Welfare maintains an [official dashboard](https://www.mspbs.gov.py/reporte-covid19.html) that reports the weekly and daily number of PCR tests conducted, alongside the percentage of postive tests ('confirmados'). Weekly figures are provided in the chart titled "Cantidad de pruebas vs confirmados". Daily figures are available by clicking on the "+" symbol that appears when hovering over the bottom-left corner of this chart.
+The fact that the percentage shown equates to the number of confirmed case suggests that the testing figures equate to the number of people tested and do not include tests pending results.
 The reported figures are cumulative from March 7th 2020, when the first case in Paraguay was confirmed.</t>
   </si>
   <si>
     <t xml:space="preserve">PER</t>
   </si>
   <si>
-    <t xml:space="preserve">Peru - units unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/159364-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-104-020-en-el-peru-comunicado-n-106</t>
+    <t xml:space="preserve">Peru - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/212348-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-345-537-en-el-peru-comunicado-n-174</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1347,12 +1443,11 @@
     <t xml:space="preserve">https://www.gob.pe/minsa</t>
   </si>
   <si>
-    <t xml:space="preserve">Units are unclear, and could refer to the number of samples performed, or people tested.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Peruvian Ministry of Health provides daily press releases of the cumulative number of positive and negative test results to date, but it is unclear whether the numbers reported reflect "samples tested" or "people tested". Some press releases report testing data using the language "...samples have been processed for ___ people..." (e.g. "Al 08 de abril de 2020 se han procesado muestras para 39 599 personas"), while other press releases report testing data using the language "...___ samples have been processed..." (e.g. "Al 18 de marzo de 2020 se han procesado 3 075 muestras").
-The reference date for the cumulative number of tests is not mentioned in the press releases. The earliest press release we are able to find is for March 4th, 2020, which reported 107 cumulative test results since an unmentioned date.
-The sudden acceleration from 8 April 2020 onwards seems to be related to the addition of serology tests ("Pruebas serológicas rápidas"). In order to provide the data that is most comparable to the other countries in our database, we only include PCR tests ("Pruebas moleculares").</t>
+    <t xml:space="preserve">The Peruvian Ministry of Health provides daily press releases of the cumulative number of positively and negatively tested people to date ('Personas muestreadas'). As such, the series will not include tests pending results.
+Note that earlier releases, such as that on the [6 March](https://www.gob.pe/institucion/minsa/noticias/108937-minsa-proceso-155-muestras-por-coronavirus-covid-19-y-una-resulto-positivo), referred to the figures as the number of samples processed ('se han procesado 155 muestras por coronavirus COVID-19'). Given the continuity observed in the series however, it seems likely that this change in the description reflects only a clarification, rather than actual change in methodology.
+The date from which the cumulative number of tests is counted is not mentioned in the press releases. The earliest press release we are able to find is for March 4th, 2020, which reported 107 cumulative test results since an unmentioned date.
+The releases provide figures for serology tests ("Pruebas serológicas rápidas") as well as PCR tests ("Pruebas moleculares"). In order to provide the data that is most comparable to the other countries in our database, we only include PCR tests ("Pruebas moleculares").
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">PHL</t>
@@ -1367,40 +1462,36 @@
     <t xml:space="preserve">Department of Health (DOH) Philippines</t>
   </si>
   <si>
-    <t xml:space="preserve">Total individuals tested does not sum to positive + negative + equivocal + invalid individuals, as in past figures of the series.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Ministry of Health (MOH) provides a daily snapshot of testing capacity detailing the total number of individuals tested and the total number of tests conducted. 
-The total number of individuals tested is the sum of positive, negative, equivocal, and invalid individuals. No definitions of equivocal and invalid individual tests are given, hence our figures only report the sum of individuals who have tested positive or negative.
-The source provides a breakdown of both i) the number of individuals tested and ii) the total tests conducted, by laboratory. We are not aware of any aggregation issues. 
-The DOH used to report the number of cases tested in a previous dashboard, but stopped on 4th April. This previous breakdown of the test results and COVID-19 dashboard have both been removed. We became aware of this new tracker on the 13th April with data 'as of April 11 2020, 12am'. No previous snapshots of the dashboard are available using web archive, therefore the series starts from the 11th April - the earliest date from which we have access to the data. 
-No newly submitted reports as of 19 May. Latest testing data available is from 15 May 2020.</t>
+    <t xml:space="preserve">The Department of Health (DOH) [dashboard](http://www.doh.gov.ph/covid19tracker) provides a time series of both individuals tested and samples tested dating back to 3rd April.
+The source provides a breakdown by laboratory. Data for recent days may be incomplete due to delays in reporting.</t>
   </si>
   <si>
     <t xml:space="preserve">POL</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1284412595970211841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland Ministry of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Polish Ministry of Health provides a daily diagnostics reports on their official Twitter account that gives the cumulative number of samples tested and people tested.
+The earliest observation on figures for people tested is from the 28 April.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://raw.githubusercontent.com/anuszka/COVID-19-MZ_GOV_PL/master/data/cor.2020.05.20.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland Ministry of Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Made available on GitHub by Anna Ochab-Marcinek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Health of the Republic of Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Polish Ministry of Health ([@MZ_GOV_PL](https://twitter.com/MZ_GOV_PL)) tweets daily reports of the cumulative number of samples tested ("liczba przebadanych próbek"). The figures reported in these tweets are collected by an [unofficial source](https://github.com/anuszka/COVID-19-MZ_GOV_PL), from which we take our figures, but regularly audit for accuracy.
-The first date for which we have found data is March 3rd 2020, in which 559 cumulative samples were tested since an unknown date.
-No other information about the figures is known.</t>
+    <t xml:space="preserve">The Polish Ministry of Health provides a daily diagnostics reports on their official Twitter account that gives the cumulative number of samples tested and people tested.
+The earliest observation for the number of samples tested begins from 6 March. Between 12 and 27 April, the number of samples tested is split into the number of positive and negative results. There are some dates for which we could not find the MOH tweets and these gaps are filled in using observations taken from this [unoffical repository](https://github.com/anuszka/COVID-19-MZ_GOV_PL) of the MOH figures.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">PRT</t>
@@ -1428,7 +1519,7 @@
     <t xml:space="preserve">Qatar - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200520160417/https://covid19.moph.gov.qa/EN/Pages/default.aspx</t>
+    <t xml:space="preserve">https://covid19.moph.gov.qa/EN/Pages/default.aspx#</t>
   </si>
   <si>
     <t xml:space="preserve">Qatar Ministry of Public Health</t>
@@ -1438,7 +1529,8 @@
   </si>
   <si>
     <t xml:space="preserve">The Qatar Ministry of Public Health provides daily updates on its website of the cumulative number of people tested to date. It is not clear whether these figures include people for which test results are pending.
-The earliest reported figure that we have been able to find is from March 14th 2020, at which point 6,788 tests had been conducted.</t>
+The earliest reported figure that we have been able to find is from March 14th 2020, at which point 6,788 tests had been conducted.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">ROU</t>
@@ -1447,17 +1539,21 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/adrianp/covid19romania</t>
+    <t xml:space="preserve">https://gov.ro/ro/media/comunicate/buletin-de-presa-18-iulie-2020-ora-13-00&amp;page=1</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
   </si>
   <si>
-    <t xml:space="preserve">Made available by Adrian-Tudor Panescu on Github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data is collected and made available [on GitHub](https://github.com/adrianp/covid19romania). It includes a cumulative total of tests performed. No information is given on the geographical scope and number of labs included.
-The main data source is the press office of the Ministry of Internal Affairs, which provides a daily report on most metrics. Data points are also sourced from the Romanian Ministry of Health and the Romanian National Institute of Public Health and occasionally from news outlets.</t>
+    <t xml:space="preserve">Romanian Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gov.ro/ro/media/comunicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We construct a time series from daily press releases on the [Romanian Government website](https://gov.ro/ro/media/comunicate) which includes a cumulative figure of the number of tests processed to date (e.g. "Până la această dată, la nivel național, au fost prelucrate 484.782 de teste."). No other information is provided. 
+Where unavailable at this main source, some earlier observations were sourced from the press office of the [Ministry of Internal Affairs](https://www.mai.gov.ro/category/comunicate-de-presa/).
+Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">RUS</t>
@@ -1466,7 +1562,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14493</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14956</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1475,9 +1571,9 @@
     <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/</t>
   </si>
   <si>
-    <t xml:space="preserve">A dedicated website publishes a daily report giving the cumulative total of tests performed in Russia. No information is given on the geographical scope and number of labs included.
-We didn't include cumulative totals reported on 30th March and 31st March, as they seemed inconsistent with numbers given on 29th March and 1st April.
-Our figures for the cumulative number of tests performed refer to tests performed up until the previous day. E.g. total tests for 17/04 daily report refer to test data up until 16/04.</t>
+    <t xml:space="preserve">The [Federal Service for Supervision of Consumer Rights Protection and Human Well-Being](https://www.rospotrebnadzor.ru/about/info/news/) publishes a daily report giving the cumulative total of tests performed in Russia. No information is given on the geographical scope and number of labs included.
+We do not include cumulative totals reported on 30th March and 31st March, as they seemed inconsistent with numbers given on 29th March and 1st April.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">RWA</t>
@@ -1486,7 +1582,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1262821068852559872</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1282764894325166087</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1499,16 +1595,14 @@
 The earliest press release we have found containing testing figures is from April 7th 2020. Between April 7th 2020 and May 1st 2020 (inclusive), the press releases reported the number of samples tested today, but not the cumulative number of samples tested to date. Since May 2nd 2020, the press releases have reported the cumulative number of samples tested to date as well as the number of samples tested today. We construct a daily time series since April 6th 2020 of the cumulative number of samples tested to date by subtracting daily tests between April 7th - May 2nd from the May 2nd 2020 cumulative total.
 As of April 6th 2020, 5,701 samples had been tested to date. It is unclear when the first samples were tested.
 It is unclear whether the reported figures include tests for which the results are pending.
-Prior to April 17th 2020, the press releases reported testing figures using the language "samples tested". From April 17th onwards, the press releases have used the ambiguous language "tests today". We assume that "tests today" still refers to the number of samples tested.</t>
+Prior to April 17th 2020, the press releases reported testing figures using the language "samples tested". From April 17th onwards, the press releases have used the ambiguous language "tests today". We assume that "tests today" still refers to the number of samples tested.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">SAU</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia - units unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://web.archive.org/web/20200520160733/https://covid19.moh.gov.sa/en/</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.moh.gov.sa/en/</t>
@@ -1516,7 +1610,7 @@
   <si>
     <t xml:space="preserve">The Saudi Arabian Ministry of Health provides a dashboard detailing the total number of tests. Whether units refer to people or tests conducted is unclear.
 The exact date these cumulative figures date back to is also unknown.
-There is no explicit mention of whether the figures include only PCR tests or other kinds of test.</t>
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">SEN</t>
@@ -1540,11 +1634,12 @@
     <t xml:space="preserve">http://www.sante.gouv.sn/actualites</t>
   </si>
   <si>
-    <t xml:space="preserve">The figures are labelled as the number of 'tests performed'. Note that from other countries, we see that such a label can be consistent with figures relating to the number of individuals tested.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Senegalese Ministry for Health and Social Action publishes daily press releases detailing the number of tests performed and the number of positive confirmed cases. It is not totally clear whether the number of tests performed is equivalent to the number of people tested. It is also unclear whether the reported figures include pending test results.
-The daily press releases date back to February 28th 2020. We construct a daily time series of the number of tests performed using data contained in [this unofficial github repository](https://github.com/senegalouvert/COVID-19), which we have cross-checked against official data for a sample of dates.</t>
+    <t xml:space="preserve">The figures are labelled as the number of 'tests performed', but this appears to equate to the number of people tested.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Senegalese Ministry for Health and Social Action publishes daily press releases detailing the number of tests performed (tests réalisés) and the number of positive confirmed cases (cas positifs). The fact that the number of tests with positive results (son revenus positifs) equals the number ofn confirmed cases implies that the testing figures equal the number of people tested.
+The daily press releases date back to February 28th 2020. We construct a daily time series of the number of tests performed using data contained in [this unofficial github repository](https://github.com/senegalouvert/COVID-19), which we have cross-checked against official data for a sample of dates.
+Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">SRB</t>
@@ -1562,7 +1657,8 @@
     <t xml:space="preserve">https://www.zdravlje.gov.rs/sekcija/345852/covid-19.php</t>
   </si>
   <si>
-    <t xml:space="preserve">Reports are published daily by the Serbian Ministry of Health. The data is collected and aggregated by volunteers and [published on GitHub](https://github.com/aleksandar-jovicic/COVID19-Serbia). All labs in Serbia are included.</t>
+    <t xml:space="preserve">Reports are published daily by the Serbian Ministry of Health. The data is collected and aggregated by volunteers and [published on GitHub](https://github.com/aleksandar-jovicic/COVID19-Serbia). All labs in Serbia are included.
+Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">SGP</t>
@@ -1571,20 +1667,15 @@
     <t xml:space="preserve">Singapore - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520182818/https://www.moh.gov.sg/covid-19</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.moh.gov.sg/covid-19</t>
   </si>
   <si>
-    <t xml:space="preserve">Singapore's Ministry of Health has started reporting testing numbers since 10 April 2020. The dashboard gives a cumulative total of swabs tested, and unique persons tested.
-No other information is given on how the data was collected and aggregated, and whether coverage was complete.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singapore - swabs tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520182819/https://www.moh.gov.sg/covid-19</t>
+    <t xml:space="preserve">The Ministry of Health dashboard gives a cumulative total of swabs tested, and unique persons tested.
+No other information is provided.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singapore - samples tested</t>
   </si>
   <si>
     <t xml:space="preserve">The number of swabs tested.</t>
@@ -1596,10 +1687,7 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520182823/https://korona.gov.sk/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">National Center of Health Information and the Office of the Government of the Slovak Republic</t>
+    <t xml:space="preserve">National Health Information Centre</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Slovak Republic Government coronavirus information website</t>
@@ -1614,7 +1702,8 @@
     <t xml:space="preserve">Slovakia's National Center of Health Information provides a dashboard with figures for 'all tests performed' ("Všetkých vykonaných testov").
 Using web archives, we construct a daily time series of total samples by looking at earlier snapshots of the website. These archives begin from the 15th March. We are unable to determine when testing began, only that on the 15th March a total of 1545 tests had been conducted. Earlier archives make it clear that the figures relate to the sum of positive and negative tests (i.e. tests pending results are not included).
 We found the total number of negative and positive samples was identical for the 26/03 and 27/03. The reason for this is not clear. We include only the former date as an observation. From the 29/03 - 01/04 and  05/04 - 07/04 no web archives could be retreived.
-From the 14th April, we became aware of a [short term dashboard](https://covid-19.nczisk.sk/en/) by the National Centre of Health and Information providing the same figures over the last 6 days. We have used this source to supplement testing data for the 10th April where web archives were not available. The notes to this dashboard provide further elaboration. They state that the figures relate to the "number of completed laboratory tests... The number contains all positive and negative results also retests of previously tested positive patients" (via Google translate).</t>
+From the 14th April, we became aware of a [short term dashboard](https://covid-19.nczisk.sk/en/) by the National Centre of Health and Information providing the same figures over the last 6 days. We have used this source to supplement testing data for the 10th April where web archives were not available. The notes to this dashboard provide further elaboration. They state that the figures relate to the "number of completed laboratory tests... The number contains all positive and negative results also retests of previously tested positive patients" (via Google translate).
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">SVN</t>
@@ -1635,16 +1724,16 @@
     <t xml:space="preserve">https://www.gov.si/teme/koronavirus</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government information website provides figures for the number of tests completed ("Opravljeni testi"). A time series of both cumulative and daily tests is available to download. This date back to the 12 March, where 3863 tests are reported to have already been performed (it is not known from which date this first cumulative figure dates back to).
+    <t xml:space="preserve">The Government information website provides figures for the number of tests completed ("Opravljeni testi"). A time series of both cumulative and daily tests is available to download. This dates back to the 12 March, where 3863 tests are reported to have already been performed (it is not known from which date this first cumulative figure dates back to).
 The same cumulative figure is published each day by the [National Insitute for Public Health (NIJZ)](https://www.nijz.si/sl/dnevno-spremljanje-okuzb-s-sars-cov-2-covid-19). Here they clarify that figures relate to the number of tests – including those for people who were tested several times.
-A footnote states that the figures relate to "Laboratory tests performed as part of routine testing and the COVID-19 National Survey are included." The later appears to refer to the prevalence study described on this [Government page](https://www.gov.si/en/news/2020-04-24-national-covid-19-prevalence-survey/). The description of the study states that "The survey is being conducted on a random sample of 3,000 persons" and that people will be tested with both a PCR and a serological test.
+A footnote states that the figures relate to "Laboratory tests performed as part of routine testing and the COVID-19 National Survey are included." The later appears to refer to the prevalence study described on this [Government page](https://www.gov.si/en/news/2020-04-24-national-covid-19-prevalence-survey/). The description of the study states that "The survey is being conducted on a random sample of 3,000 persons" and that people will be tested with both a PCR and a serological test. For this reason, the reported testing figures may include serological tests in addition to PCR tests.
 The volunteer-led [Sledilnik.org project](https://covid-19.sledilnik.org/#/) also presents the official data in a helpful website.</t>
   </si>
   <si>
     <t xml:space="preserve">ZAF</t>
   </si>
   <si>
-    <t xml:space="preserve">South Africa - units unclear</t>
+    <t xml:space="preserve">South Africa - people tested</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/dsfsi/covid19za</t>
@@ -1660,8 +1749,10 @@
   </si>
   <si>
     <t xml:space="preserve">The South African National Institute for Communicable Diseases (NICD) publishes daily updates on the number of confirmed cases, deaths and tests conducted nationally and by province. These updates are published on its [website](https://www.nicd.ac.za/media/alerts/) and on its offical Twitter account ([@nicd_sa](https://twitter.com/nicd_sa)).
-The NICD reports the number of 'tests conducted' in addition to the number of 'positive cases' (and sometimes the number of 'negative cases'). This is suggestive that 'tests conducted' refers to the number of people tested, but this was unclear from the available documentation until April 18th 2020. On April 18th, the official twitter account for the [Department for Health](https://twitter.com/HealthZA/status/1251605326681575427) clarified that repeat tests for COVID-19 are not counted and that the number 'tests conducted' refers to people tested.
-The NICD began publishing daily updates on 7th February 2020, allowing us to develop a time series from this date forward. We do not know the first date of testing. As of 7th February, 42 people had been tested.</t>
+The NICD reports the number of 'tests processed', which is also labelled as 'total tested'. On April 18th, the official twitter account for the [Department for Health](https://twitter.com/HealthZA/status/1251605326681575427) clarified that repeat tests for COVID-19 are not counted and that the testing figures refer to the number of people tested.
+The NICD began publishing daily updates on 7th February 2020, allowing us to develop a time series from this date forward. We do not know the first date of testing. As of 7th February, 42 people had been tested.
+We source this data from the [Data Repository for South Africa](https://github.com/dsfsi/covid19za) repo – created, maintained and hosted by Data Science for Social Impact research group, led by Dr. Vukosi Marivate, at the University of Pretoria.
+Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">KOR</t>
@@ -1670,7 +1761,7 @@
     <t xml:space="preserve">South Korea - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367275&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367835&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1679,9 +1770,9 @@
     <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030</t>
   </si>
   <si>
-    <t xml:space="preserve">KCDC have provided daily updates in English since 21 January. The figures they provide relate to ‘cases’, where this signifies an individual considered eligible for testing due to their symptoms, travel history or contact history.
-The figures shown below include those cases pending test results. The daily updates show the change each day and the current totals. These form a consistent chain all the way back to 21 January. The daily test figures we provide relate to the daily change in the number of tests with results. As such it includes both the number of tests performed in that day and the change in the stock of tests pending results.
- We are not aware of any significant issues affecting comparisons over time.</t>
+    <t xml:space="preserve">KCDC have provided daily updates in English since 21 January.
+The daily updates show the change each day and the current total. These form a consistent chain all the way back to 21 January. The daily test figures we provide relate to the daily change in the number of tests with results (the figures do not include those cases pending test results).
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">ESP</t>
@@ -1690,7 +1781,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas_14_05_2020.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas_09_07_2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -1707,7 +1798,8 @@
 The second is another Ministry of Health press release published on 27 April and relating to testing conducted up to 23 April. It provides a breakdown across Autonomous Communities (regions), with a total for Spain of 1,035,522 PCR tests. The same release provides a figure of 310,038 antibody tests conducted nationwide. These are different to the PCR tests, as we discuss [here](https://ourworldindata.org/covid-testing#different-types-of-tests-for-covid-19). Our database aims to not include antibody tests. So in order to provide the data that is most comparable to the other countries in our database, we include only the PCR tests count for this observation.
 One aspect of the 27 April press release that is not totally clear is whether the figures provided for each Autonomous Community relate to the 23 April. Comparing the regional breakdowns provided in the Ministry of Health release to those collected from official sources by CIVIO (as of 28 April) suggests that the figure of 203,892 provided for Madrid in the Ministry of Health update—ostensibly dating to the 23 April—may date back to 14 April.
 Further data points are collected from the [Ministry of Health's press releases](https://www.mscbs.gob.es/gabinete/notasPrensa.do?metodo=verHistorico) or [its Twitter account](https://twitter.com/sanidadgob).
-[CIVIO](https://datos.civio.es/dataset/pcr-coronavirus-covid19-espana-comunidades-autonomas/) is a non-profit investigative data journalism organisation who are collating information on tests performed within each Autonomous Community, as released through official channels (communication offices, web pages, press releases and social networks of the different regions). We do not report these figures because their data are not complete: For some autonomous communities, figures are available only irregular intervals. The figures they provide are broadly in-line with those of the Ministry of Health releases, although with somewhat lower figures for some Autonomous Communities. This may be due to the Ministry of Health having access to more recent estimates for these Autonomous Communities.</t>
+[CIVIO](https://datos.civio.es/dataset/pcr-coronavirus-covid19-espana-comunidades-autonomas/) is a non-profit investigative data journalism organisation who are collating information on tests performed within each Autonomous Community, as released through official channels (communication offices, web pages, press releases and social networks of the different regions).
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">SWE</t>
@@ -1716,16 +1808,29 @@
     <t xml:space="preserve">Sweden - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.folkhalsomyndigheten.se/smittskydd-beredskap/utbrott/aktuella-utbrott/covid-19/bekraftade-fall-i-sverige</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public Health Agency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The weekly report gives the cumulative total of individuals "analyzed for the virus that causes covid-19 in Sweden", along with weekly totals.
-By subtracting each weekly change from the cumulative total, we can retrospectively work out the cumulative totals by the end of each week.
-Figures are often rounded off to the nearest hundred, indicating that they might not be extremely precise. The report does not indicate whether pending tests are included in the counts.
-A note is provided at the same website indicating that the testing strategy has changed over time: "Initially, people who were living in areas with known spread of covid-19 were sampled. But since mid-March, people with symptoms consistent with covid-19 infection who are in need of inpatient hospital care, healthcare personnel and elderly care, and people who are being tested in sentinel testing are primarily being tested. This means that people with mild symptoms are not asked to contact the health care and therefore do not end up in the statistics of reported cases." (via Google Translate)</t>
+    <t xml:space="preserve">https://www.folkhalsomyndigheten.se/globalassets/statistik-uppfoljning/smittsamma-sjukdomar/veckorapporter-covid-19/2020/covid-19-veckorapport-vecka-27-final.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swedish Public Health Agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden Public Health Agency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.folkhalsomyndigheten.se/folkhalsorapportering-statistik/statistik-a-o/sjukdomsstatistik/covid-19-veckorapporter/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the start of the pandemic up until July 2020, the Swedish Public Health Agency provided weekly reports on COVID-19 on the number of people tested. 
+The first observation in the series is the total people tested from week 4 (calendar week: 20 - 26 January) to week 8 (calendar week: 17 - 23 February).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.folkhalsomyndigheten.se/smittskydd-beredskap/utbrott/aktuella-utbrott/covid-19/antal-individer-som-har-testats-for-covid-19/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since July 2020, the Public Health Agency has replaced its previous weekly updates of the number of people tested with the weekly count of samples tested. This data does not allow us to publish any cumulative total, since no data is available on how many samples had been tested prior to the first week of reporting. However, we integrate this data into our "daily tests" time series by dividing each weekly total by 7, thereby estimating the average daily number of samples tested.</t>
   </si>
   <si>
     <t xml:space="preserve">CHE</t>
@@ -1743,17 +1848,18 @@
     <t xml:space="preserve">The number of tests perfomed.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Federal Office of Public Health presents a time series of daily positive and negative tests as a graphic. The data can be accessed by downloading the graphic software file. The graphic notes that "Since several tests can be taken and reported per person, the number of positive tests is higher than the number of positively tested people". (via Googl translate).
-The Federal Office of Public Health also publishes a [daily report](https://www.bag.admin.ch/bag/de/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/situation-schweiz-und-international.html#316168418) on the epidemiological situation, in which very similar cumulative figures are provided, but often rounded-off. These reports present the figures as "The number of tests carried out on SARS-CoV-2, the causative agent of COVID-19".</t>
+    <t xml:space="preserve">The Federal Office of Public Health presents a time series of daily positive and negative tests, downloadable as a csv file on [their website](https://www.bag.admin.ch/bag/de/home/krankheiten/ausbrueche-epidemien-pandemien/aktuelle-ausbrueche-epidemien/novel-cov/situation-schweiz-und-international.html). A note states that: "The data published here is based on information that laboratories, doctors and hospitals have given us. They refer to reports that we received this morning and can therefore deviate from the figures that the cantons communicate." (via Google translate).
+At this page they also make available daily situation reports, which present the same figures, making it explicit that the numbers refer to PCR tests. 
+The data can also be accessed by downloading the graphic software file in their [visualization here](https://covid-19-schweiz.bagapps.ch/de-3.html). This graphic notes that "Since several tests can be taken and reported per person, the number of positive tests is higher than the number of positively tested people". (via Google translate).</t>
   </si>
   <si>
     <t xml:space="preserve">TWN</t>
   </si>
   <si>
-    <t xml:space="preserve">Taiwan - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/EhkjYaEtGkRUo_mQC0WhPQ?typeid=9</t>
+    <t xml:space="preserve">Taiwan - units unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/XPpmmo4mofTng-lR7cG2yw?typeid=9</t>
   </si>
   <si>
     <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
@@ -1765,18 +1871,16 @@
     <t xml:space="preserve">The figures are labelled in the source only as 'tested'. It is unclear whether this relates to the number of individuals tested, or the number of samples tested.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Taiwanese Centers for Disease Control (CDC) host a dashboard in which they publish the total 'tested' to date, and 'new from yesterday'. It is not clear whether this represents the total number of tests performed, or the number of people tested. The number 'tested' is greater than the sum of confirmed cases and 'excluded' (i.e. negative) test results. This would suggest it does not equal the total number of people tested, or if it does, pending results without a reported outcome are also included.
-Although the CDC only show the last day's figures on this dashboard, we can construct a time-series by looking at previous versions on web archive. Where possible we have tried to take the total test counts at the same time every day (those published at 00:30h). Unfortunately this time of publishing from CDC was not always completely consistent. This may lead to small discrepancies between 'total tested' and 'new from 'yesterday' figures. Wherever possible we took the total test count as of 00:30 as the prefered figure; where a day of data was missing we used the 'new from yesterday' figure to calculate the total for the previous day. If there are small discrepancies with other sources, this timing issue is likely to be the cause. In any case it is likely to be minor.
-The date from which the total test figures date back to is not known; the CDC dashboard is unavailable in web archives prior to 21st March.</t>
+    <t xml:space="preserve">The Taiwanese Centers for Disease Control (CDC) host a dashboard in which they publish the total 'tested' to date, and 'new from yesterday'. It is not clear whether this represents the total number of tests performed, or the number of people tested. The number 'tested' appears to be somewhat greater than the sum of confirmed cases and 'excluded' (i.e. negative) test results. This either suggests that the figure relates to the number of tests performed, or that it relates to the number of people tested but includes some pending results or is affected by reporting delays.
+Although the CDC only show the last day's figures on this dashboard, we can construct a time-series of cumulative tests by looking at previous versions on web archive. Where possible we have tried to take the total test counts at the same time every day (those published at 00:30h), but a complete sequence of archives are not available on this basis. As such, day-to-day variation will be affected by differences in the time of publishing of the data used. Where no data was retreivable for a day, we used the 'new from yesterday' figure to calculate the total for the previous day.
+The date from which the total test figures date back to is not known; the CDC dashboard is unavailable in web archives prior to 21st March.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">THA</t>
   </si>
   <si>
     <t xml:space="preserve">Thailand - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200518182134/https://ddc.moph.go.th/viralpneumonia/eng/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1791,13 +1895,14 @@
     <t xml:space="preserve">The Thailand Department of Disease Control (DDC) issues daily situation reports which detail the status of confirmed cases, deaths and people being assessed.
 We provide the figures reported as "persons under investigation" (PUI). PUI is the sum of confirmed cases, the number of people who tested negative, and the number of people for whom results are still pending. All three figures are reported individually from 3rd March until 31st March. From 1st April onwards, the number of people who tested negative and the number for whom results are still pending are no longer reported separately.
 We have received communication from Thailand's Ministry of Public Health (MOPH) that individuals who did not meet PUI criteria can pay out of pocket to have their samples tested, referred to as the "non-PUI" group. This "non-PUI" group is large in the context of Thailand. This "non-PUI" group is not reflected in our current figures.
-The [World Health Organization Country Office for Thailand](https://www.who.int/thailand) also reports COVID-19 testing figures in daily situation reports. These figures are substantially larger than the DDC figures for two reasons. First, the DDC figures reflect "people tested", whereas the WHO Thailand figures reflect "samples tested". Second, the WHO Thailand figures appear to include all samples tested, regardless of whether the person being tested meets PUI criteria.</t>
+The [World Health Organization Country Office for Thailand](https://www.who.int/thailand) also reports COVID-19 testing figures in daily situation reports. These figures are substantially larger than the DDC figures for two reasons. First, the DDC figures reflect "people tested", whereas the WHO Thailand figures reflect "samples tested". Second, the WHO Thailand figures appear to include all samples tested, regardless of whether the person being tested meets PUI criteria.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">Thailand - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.who.int/docs/default-source/searo/thailand/2020-05-12-tha-sitrep-79-covid-19-final.pdf?sfvrsn=31ce1b98_0</t>
+    <t xml:space="preserve">https://www.who.int/docs/default-source/searo/thailand/2020-06-29-tha-sitrep-94-covid19-r02.pdf?sfvrsn=56491ec5_2</t>
   </si>
   <si>
     <t xml:space="preserve">World Health Organization Country Office for Thailand</t>
@@ -1808,33 +1913,54 @@
   <si>
     <t xml:space="preserve">The [World Health Organization Country Office for Thailand](https://www.who.int/thailand) provides daily COVID-19 situation reports that periodically report the cumulative number of samples tested to date.
 The reported figures include PCR tests only. It is unclear whether pending test results are included. 
-The reported figures include samples tested in both public and private labs. However, reporting delays appear to affect the figures. For example, [the figures for May 1st 2020](https://www.who.int/docs/default-source/searo/thailand/2020-05-04-tha-sitrep-71-covid19-final.pdf) are drawn from only 121 of 142 public and private laboratories certified for PCR testing.
-The earliest figure we have found is for April 10th 2020, at which point 100,498 samples had been tested. The reported figures are cumulative since sometime in January or February 2020, but the situation reports do not state an exact date.
-The [Thailand Department of Disease Control (DDC)](https://ddc.moph.go.th/viralpneumonia/eng/situation.php) also reports COVID-19 testing figures in daily situation reports, which are reflected in the reported number of "persons under investigation" (PUI). These figures are substantially smaller than the WHO Thailand figures for two reasons. First, the DDC figures reflect "people tested", whereas the WHO Thailand figures reflect "samples tested". Second, we have received communication from Thailand's Ministry of Public Health (MOPH) that individuals who do not meet PUI criteria can pay out of pocket to have their samples tested, referred to as the "non-PUI" group. This "non-PUI" group is large in the context of Thailand and is not included in the DDC figures. In contrast, the WHO Thailand figures appear to include all samples tested, regardless of whether the person being tested meets PUI criteria.</t>
+The reported figures include samples tested in both public and private labs. However, reporting delays appear to affect the figures. For example, [the figures for May 1st 2020](https://www.who.int/docs/default-source/searo/thailand/2020-05-04-tha-sitrep-71-covid19-final.pdf) reflect only 121 of 142 public and private laboratories certified for PCR testing.
+The earliest figure we have found is for April 10th 2020, at which point 100,498 samples had been tested. The reported figures are cumulative, but the situation reports do not state an exact date.
+The [Thailand Department of Disease Control (DDC)](https://ddc.moph.go.th/viralpneumonia/eng/situation.php) also reports COVID-19 testing figures in daily situation reports, which are reflected in the reported number of "persons under investigation" (PUI). These figures are substantially smaller than the WHO Thailand figures for two reasons. First, the DDC figures reflect "people tested", whereas the WHO Thailand figures reflect "samples tested". Second, we have received communication from Thailand's Ministry of Public Health (MOPH) that individuals who do not meet PUI criteria can pay out of pocket to have their samples tested, referred to as the "non-PUI" group. This "non-PUI" group is large in the context of Thailand and is not included in the DDC figures. In contrast, the WHO Thailand figures appear to include all samples tested, regardless of whether the person being tested meets PUI criteria.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo Ministry of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provided to OWID directly by MOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://covid19.gouv.tg/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Togo Ministry of Health provides daily updates on the number of samples tested via their [official government portal](https://covid19.gouv.tg/) and affiliated social media accounts on [Facebook](https://www.facebook.com/Covid19TG/) and [Twitter](https://twitter.com/Covid19TG).
+We are in direct contact with the MOH who provide daily updates on the number of samples tested. These figures are very similar to the sources listed above but differs a little due to internal MOH reporting delays. Our figures are more up-to-date. For example, for the 28 June 2020 the cumulative total of samples tested on [Twitter](https://twitter.com/Covid19TG/status/1277362183840636929) is reported to be 30,316 samples while in the internal MOH figures it is 30,333. Please see the notes for each observation where we include a link to the corresponding MOH tweet for comparison, where available. 
+The earliest observation is available from 4 March 2020.
+The figures refer to the number of PCR tests performed each day.</t>
   </si>
   <si>
     <t xml:space="preserve">TUN</t>
   </si>
   <si>
-    <t xml:space="preserve">Tunisia - units unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/kik00/TnCovid-19/blob/master/data/latest.json</t>
+    <t xml:space="preserve">Tunisia - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/kik00/TnCovid-19/blob/master/data/daily.json</t>
   </si>
   <si>
     <t xml:space="preserve">Tunisian Ministry of Health</t>
   </si>
   <si>
+    <t xml:space="preserve">Made available by Kiko on GitHub</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://covid-19.tn/fr/tableau-de-bord/</t>
   </si>
   <si>
-    <t xml:space="preserve">Figures are provided both in terms of the number of cases tested and the number of tests. It may be that in the case of Tunisia the distinction between the number of individuals tested and the number of tests performed is less significant, if few people are tested more than once.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Tunisian Ministry of Health dashboard provides daily figures of the total number of cases tested ('Cas testés'). They also provide a time series for the number of tests per day ('Nombre de tests journaliers'). The figures we provide relate to the latter.
-The time series figures sum up to a number slightly higher than the cumulative figure provided for cases tested. We understand this to be equivalent to the number of individuals tested. It is unclear whether the difference between the numbers relates to a genuine distinction in the two figures between the number of indivudals tested and the number of tests performed, or if the differences are due instead to reporting delays or other unintended discrepancies. 
-It's important to note that when figures exceed 1000, the Tunisian Ministry of Health report the number of tests per day to the nearest hundred (e.g. 1.6k). 
-The first date in the time series of daily tests is 10th March, for which 28 tests were reported.</t>
+The time series figures sum up to a number slightly higher than the cumulative figure provided for cases tested. We understand this to be equivalent to the number of individuals tested. It is unclear whether the difference between the numbers relates to a genuine distinction in the two figures between the number of individuals tested and the number of tests performed, or if the differences are due instead to reporting delays or other unintended discrepancies. 
+Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels.</t>
   </si>
   <si>
     <t xml:space="preserve">TUR</t>
@@ -1843,22 +1969,17 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520183008/https://covid19.saglik.gov.tr/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.saglik.gov.tr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The total number of tests.</t>
   </si>
   <si>
     <t xml:space="preserve">The Turkish Ministry of Health now publishes a daily chart of Coronavirus confirmed cases, deaths, recoveries, total tests ("TOPLAM TEST SAYISI"), and tests today ("BUGÜNKÜ TEST SAYISI").
 These daily charts are published on the Turkish Ministry of Health's website – previous versions can be found on Web Archive. This only extends back to 27th March. Prior to this date, we rely on figures reported by the Turkish Minister for Health at daily press conferences. In these reports they detail the latest update of confirmed cases, deaths and tests conducted.
 We are not aware of the date that testing began: only that as of 18th March – the first data point in our series – 10,018 tests had been conducted.
-No other information concerning the figures is known.</t>
+No other information concerning the figures is known.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">UGA</t>
@@ -1867,22 +1988,19 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.go.ug/cause/update-on-the-covid-19-outbreak-in-uganda-18/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Press Release from the Office of the Director General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We sum the cumulative total provided for the previous day with the daily number of samples tested today.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.health.go.ug/moh/resources/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Office of the Director General publishes a daily press release detailing the cumulative number of samples tested to date, on the [MOH official twitter account](https://twitter.com/MinofHealthUG). The earliest press release that lists the cumulative total is 6th April. However, we cannot say with certainty when testing began and the precise date from which cumulative totals begin. 
-After the 14th April, press releases by the Office of the Director General publishes the daily number of samples tested. We sum the cumulative total number of samples tested for the previous day with the daily number of samples tested today. For example, the total number of samples tested on the 15th April is equal to the cumulative total up until the 14th April plus the number of samples tested on the 15th April. 
-For the 18th April, we rely on the figure reported by the MOH official twitter account to calculate our cumulative totals. From the 5th May, we rely on the figures reported by the MOH official twitter account and check figures against press releases where they have been made available by the MOH.  
-We are aware of Uganda's [MOH information portal](https://covid19.gou.go.ug/), however, it only lists the 'cumulative # tested' without specifying more precise units of measurement. Our cumulative totals for the number of samples tested from 19/04 matches the 'cumulative # tested' total in the Uganda information portal for 20/04. This suggests the 'cumulative # tested' refers to the samples tested up until the previous day. However, the cumulative totals calculated via the daily press releases and the MOH information portal diverge from the 29th April.</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1284399085257142272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda Ministry of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Uganda Ministry of Health publishes a daily press release detailing the number of cumulative and daily samples tested. As a result of missing daily testing figures (for 17/05, 03/06, 14/07) and retrospective revisions by the MOH to cumulative totals, we report only the daily number of samples tested.  
+From 12 June, the press releases regularly include the official cumulative number of samples tested. Prior to this date, only daily testing figures were reported - with the exception of reports from 06-14/04. 
+The earliest press release we could find that lists the cumulative and daily figures is for 1st April. However, we cannot say with certainty when testing began and the precise date from which cumulative totals begin.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">UKR</t>
@@ -1891,72 +2009,96 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520183010/https://covid19.gov.ua/en</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.kmu.gov.ua/en</t>
   </si>
   <si>
-    <t xml:space="preserve">It is unclear whether the reported figures represent the number of cases tested, number of samples tested, or number of people tested.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Cabinet of Ministers of Ukraine reports daily snapshots [here](https://covid19.gov.ua) of the total number of tests to date. The unit of testing is unclear, since the figures are merely reported as "[N] tested" ("протестовано"). For this reason, it is unclear whether the reported figures represent the number of cases tested, the number of samples tested, or the number of people tested. It is also unclear whether the reported figures include pending test results.
-The earliest reported figure that we have been able to find is from April 9th 2020, at which point 20,608 cumulative tests were reported.</t>
+    <t xml:space="preserve">It is unclear whether the reported figures relate to the number of people tested or the number of tests performed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cabinet of Ministers of Ukraine reports daily snapshots [here](https://covid19.gov.ua) that include the cumulative number "tested" (протестовано). As such it is unclear whether this refers to the number of people tested or the number of tests performed. Similarly, it is unclear whether this includes tests pending results.
+The earliest reported figure that we have been able to find is from April 9th 2020, at which point 20,608 cumulative tests were reported.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fcsa.gov.ae/en-us/Pages/Covid19/UAE-Covid-19-Updates.aspx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAE Federal Competitiveness and Statistics Authority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.doh.gov.ae/en/covid-19/Media%20Center/news/News%20Listing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The UAE Federal Competitiveness and Statistics Authority provides a time series dataset (available to download), including the number of daily tests conducted from 29 January 2020 to today.
+The source notes "To ensure the highest possible quality and accuracy of the COVID-19 numbers, these data are regularly reviewed by UAE governmental authorities concerned. Numbers may change as the data are continuously refined."
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">GBR</t>
   </si>
   <si>
-    <t xml:space="preserve">United Kingdom - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520183012/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
+    <t xml:space="preserve">United Kingdom - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/901750/2020-07-17-COVID-19-UK-testing-time-series.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
   </si>
   <si>
+    <t xml:space="preserve">Sum of tests processed for pillars 1 and 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public#number-of-cases</t>
   </si>
   <si>
-    <t xml:space="preserve">A time series is not yet released. The figures we provide relate to the daily updates provided for the cumulative total and daily number of people tested. It is not clear the exact date that the cumulative figures date back to.
-We were [informed on 26 April 2020](https://github.com/owid/covid-19-data/issues/29) that the daily changes in cumulative total, which we previously calculated by subtracting one day's running total from the next one, couldn't in fact be calculated in this way, and were provided directly on the page instead. We thus readjusted our time series using [Tom White's archives on GitHub](https://github.com/tomwhite/covid-19-uk-data/tree/master/data/raw), and from 26 April 2020 onwards we collect both figures directly from the official page.
-The UK now provides its figures according to the 'pillars' of it's testing strategy, as follows:
-Pillar 1: swab testing in PHE labs and NHS hospitals for those with a clinical need, and health and care workers
-Pillar 2: swab testing for health, social care and other essential workers and their households
-Pillar 4: serology and swab testing: a national surveillance programme supported by PHE, ONS and Biobank to learn more about the prevalence and spread of the virus
-As of 30 April, there were no people tested under Pillar 4 included in this series.
-(As discussed in the Govenerment's [national testing strategy document](https://www.gov.uk/government/publications/coronavirus-covid-19-scaling-up-testing-programmes), Pillar 3 relates to antibody tests – but these are currently not reported within the figures above).
-The Health Service Journal highlighted in [an article published on 1 May 2020](https://www.hsj.co.uk/quality-and-performance/revealed-how-government-changed-the-rules-to-hit-100000-tests-target/7027544.article) that “the Department of Health and Social Care [was] now including tests that have been posted or delivered to people’s homes in its figures. This means tests which are sent to people are counted before the recipient has provided and returned their sample to a laboratory.” No data is made available by the UK government on how many of these mailed tests have been returned and processed, but this could represent a significant number for recent days. As far as we know, the “People tested” figures are not affected by this issue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520183013/https://www.gov.uk/guidance/coronavirus-covid-19-information-for-the-public</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of tests performed, including tests posted or delivered but not yet returned and/or processed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A time series is not yet released. The figures we provide relate to the daily updates provided for the cumulative total and daily number of tests performed. It is not clear the exact date that the cumulative figures date back to.
-We were [informed on 26 April 2020](https://github.com/owid/covid-19-data/issues/29) that the daily changes in cumulative total, which we previously calculated by subtracting one day's running total from the next one, couldn't in fact be calculated in this way, and were provided directly on the page instead. We thus readjusted our time series using [Tom White's archives on GitHub](https://github.com/tomwhite/covid-19-uk-data/tree/master/data/raw), and from 26 April 2020 onwards we collect both figures directly from the official page.
-The UK now provides its figures according to the 'pillars' of it's testing strategy, as follows:
-Pillar 1: swab testing in PHE labs and NHS hospitals for those with a clinical need, and health and care workers
-Pillar 2: swab testing for health, social care and other essential workers and their households
-Pillar 4: serology and swab testing: a national surveillance programme supported by PHE, ONS and Biobank to learn more about the prevalence and spread of the virus
-As of 30 April, around 10% of the total number of tests were reported under Pillar 4. How these further breakdown between serology and swab testing is not known.
-As discussed in the Govenerment's [national testing strategy document](https://www.gov.uk/government/publications/coronavirus-covid-19-scaling-up-testing-programmes), Pillar 3 relates to antibody tests – but these are currently not reported within the figures above.
-The Health Service Journal highlighted in [an article published on 1 May 2020](https://www.hsj.co.uk/quality-and-performance/revealed-how-government-changed-the-rules-to-hit-100000-tests-target/7027544.article) that “the Department of Health and Social Care [was] now including tests that have been posted or delivered to people’s homes in its figures. This means tests which are sent to people are counted before the recipient has provided and returned their sample to a laboratory.” No data is made available by the UK government on how many of these mailed tests have been returned and processed, but this could represent a significant number for recent days. As far as we know, the “People tested” figures are not affected by this issue.</t>
+    <t xml:space="preserve">Since early June 2020, the United Kingdom has been publishing a full retrospective time series in CSV format, with testing data going back to March 2020. We aggregate the data for the United Kingdom based only on two 'pillars':
+- Pillar 1: swab (antigen) testing in Public Health England (PHE) labs and NHS hospitals for those with a clinical need and health and care workers;
+- Pillar 2: swab (antigen) testing for the wider population.
+For both pillars, we use the 'Daily number of tests processed' and 'Cumulative number of tests processed' columns to create of time series of PCR tests performed in the United Kingdom. We do not include tests delivered or sent out that have not been recorded as having been processed.
+We do not include other pillars, i.e.:
+- Pillar 3: this pillar consists (fully) of serology tests, which we aim not to include;
+- Pillar 4: this pillar consists (partly) of serology tests, which we aim not to include, and positive tests results from this pillar seem not to be included in the government's total for positive cases.
+The source notes that 'data on UK tests is updated daily. The figures for test results are compiled from different sources. Daily totals reflect actual counts reported for the previous day. Each day there may be corrections to previous reported figures. This means that previously published daily counts will not necessarily sum to the latest cumulative figure. It also means that today’s cumulative count may not match the previous day’s cumulative count plus today’s daily count.'</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">United States - inconsistent units (COVID Tracking Project)</t>
+    <t xml:space="preserve">United States - tests performed (CDC) (incl. non-PCR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States CDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of tests performed. The figures are the sum across states, some of which appear to include antibody tests in addition to PCR tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On 13 May 2020, the United States CDC's testing data was modified to include tests performed by commercial, hospital, public health, and CDC laboratories. This new data is available on the [Testing Data in the US](https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html) page and [CDC COVID Data Tracker](https://www.cdc.gov/covid-data-tracker/index.html).
+Initially, this data was explicitly described by the CDC as only including viral tests and excluding antibody tests. As recently as [18 May](https://web.archive.org/web/20200518050707/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html) the site stated that 'These data only represent viral tests. Antibody tests are not currently captured in these data.'
+However, as of 26 May, there have been a number of media reports noting that the testing figures released by some states – which are aggregated by the CDC – include antibody tests in addition to PCR tests, as discussed in [this article](https://www.theatlantic.com/health/archive/2020/05/cdc-and-states-are-misreporting-covid-19-test-data-pennsylvania-georgia-texas/611935/) in The Atlantic. 
+Within this time, the CDC have also changed the way it described the data to be ambiguous as to whether anitbody tests may be included in their figures (see [26 May update](http://web.archive.org/web/20200526082029/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html)). Our dataset aims to report only PCR tests. But because any antibody tests in the CDC data are not disaggregated, we are unable to exclude them.
+No time series is published for this new version of the data. We therefore started collecting on 13 May 2020 the cumulative total of viral tests reported, which is updated daily.
+As of [26 May](http://web.archive.org/web/20200526082029/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html), the notes to the data provided by the CDC are limited. They state:
+- These data are compiled from a number of sources. Not all tests are reported to CDC.
+- The number of positive tests in a state is not equal to the number of cases, as one person may be tested more than once.
+The CDC previously published a time series that only covered public health labs and did not include private lab tests, which were occurring in significant numbers. Daily figures were provided since 18 January. This data is still visible on [this page of the CDC website](https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/previous-testing-in-us.html).
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States - units unclear (incl. non-PCR)</t>
   </si>
   <si>
     <t xml:space="preserve">https://covidtracking.com/api/us/daily.csv</t>
@@ -1968,50 +2110,34 @@
     <t xml:space="preserve">http://covidtracking.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">The data are an aggregation of figures released by individual states. The Project aim to report on the number of people tested, including private labs, but not all states report their figures in this way.</t>
+    <t xml:space="preserve">The data are an aggregation of figures released by individual states. The Project aim to report on the number of people tested, including private labs, but not all states report their figures in this way. The figures for some states appear to include antibody tests in addition to PCR tests.</t>
   </si>
   <si>
     <t xml:space="preserve">This is a collaborative project launched in order to fill some of the important gaps in the testing figures being collated by the CDC.
 Testing data is gathered from individual states, as reported in state health department websites, data dashboards and press releases from officials.
-States currently report testing figures in a range of different ways: some report the number of tests performed, others the number of people tested; some include private labs, others not; some report negative test results, others only positive test results; some include pending tests, others do not (below we show figures that exclude explicitly pending results).
+As of 26 May, there have been a number of media reports noting that the testing figures released by some states include antibody tests in addition to PCR tests – as discussed in [this article](https://www.theatlantic.com/health/archive/2020/05/cdc-and-states-are-misreporting-covid-19-test-data-pennsylvania-georgia-texas/611935/) in The Atlantic. Our dataset aims to report only PCR tests. But because some states do not disaggregate these types of tests we are not currently able to exclude the antibody tests.
+Other differences across states include: some report the number of tests performed, others the number of people tested; some include private labs, others not; some report negative test results, others only positive test results; some include pending tests, others do not (below we show figures that exclude explicitly pending results).
 Moreover, many states do not explicitly provide details about these important factors needed to interpret the data they provide. 
 There are issues in comparing the figures over time. The totals given for early on in the outbreak do not include all states. One significant uncertainty is the extent to which the rapid rise in tests seen from the mid-March in part reflects states beginning to report private lab tests.
 Overall the figures should be seen as providing a general indication of testing output, rather than a specific count of a given indicator. Given the very incomplete coverage and reporting delays of the CDC data, it provides a very important additional perspective.
 The Project documents their work in lots of detail. See the link provided above for full details.</t>
   </si>
   <si>
-    <t xml:space="preserve">United States - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://web.archive.org/web/20200520183014/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States CDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On 13 May 2020, the United States CDC's viral testing data was modified to include viral tests performed by commercial, hospital, public health, and CDC laboratories. This new data is available on the [Viral Testing Data in the US](https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html) page and [CDC COVID Data Tracker](https://www.cdc.gov/covid-data-tracker/index.html).
-No time series is published for this new version of the data. We therefore started collecting on 13 May 2020 the cumulative total of viral tests reported, which is updated daily.
-The CDC makes it clear that "data are provisional and subject to change. The data presented are aggregate data reported to CDC from state health departments and territorial jurisdictions and might not represent the most current counts for the most recent 3 days due the time it takes to report testing information. The data may also not include results from all potential testing sites within the jurisdiction (e.g., non-laboratory or point of care test sites) and therefore reflect the majority, but not all, of COVID-19 testing being conducted in the United States. If a state did not report laboratory data for a specific day, or if data reported by states are incomplete, data presented reflect what is reported on the state health department website or laboratory testing data reported to the Department of Health and Human Services."
-The CDC previously published a time series that only covered public health labs and did not include private lab tests, which were occurring in significant numbers. Daily figures were provided since 18 January. This data is still visible on [this page of the CDC website](https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/previous-testing-in-us.html).</t>
-  </si>
-  <si>
     <t xml:space="preserve">URY</t>
   </si>
   <si>
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/actualizacion-informacion-relacion-coronavirus-covid-19-uruguay-30</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-interes-actualizada-sobre-coronavirus-covid-19-uruguay-15072020</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Public Health in Uruguay publishes daily reports providing the cumulative total of tests performed. [We received confirmation](https://twitter.com/FedericoGanz/status/1252248930118766593) that the figures refer to tests, and not people. The source notes that "there are people who have been tested more than once. This explains why the total number of positive tests does not coincide with that of people with positive tests."
-We previously reported testing data from a [dashboard maintained by El Observador](https://observador.cr/covid19-estadisticas/), but on 20 April 2020 we replaced the entire time series based on the reports from the Ministry of Health.</t>
+    <t xml:space="preserve">The Ministry of Public Health in Uruguay publishes daily reports providing the cumulative total of tests performed. These figures are also made available on the [Sistema Nacional de Emergencias dashboard](https://www.gub.uy/sistema-nacional-emergencias/pagina-embebida/visualizador-casos-coronavirus-covid-19-uruguay), in which the figures are presented as the number of tests processed since 13 March ("Desde el 13 de marzo se han procesado: [N] test").
+We previously reported testing data from a [dashboard maintained by El Observador](https://observador.cr/covid19-estadisticas/), but on 20 April 2020 we replaced the entire time series based on the reports from the Ministry of Health.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">VNM</t>
@@ -2032,9 +2158,10 @@
     <t xml:space="preserve">The source reports this as the 'number of samples tested'. However, based on the context, it is unclear whether this refers to the total number of tests conducted, or number of people who have been tested.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Vietnamese Ministry of Health update its disease situation statistics page daily with the latest data on confirmed cases, deaths and samples tested. 
-It refers to its testing data as 'samples tested', and reports confirmed cases and negative samples separately; 'sample tested' generally matches the sum of confirmed cases and negative samples (though there are occasionally some small discrepancies – we report the sum of positive and negative in this case). This would suggest that 'samples tested' is equivalent to the number of people tested. However, it's unclear whether 'negative samples' includes some instances of resampling for the same person. We therefore cannot say with certainty that these are equivalent.
-Using web archives we can reconstruct a daily time-series of total samples by looking at previous versions of the updated website. These daily updates extend back to 2nd March. We cannot say with certainty when testing began, only that as of 2nd March 1753 samples had been tested.</t>
+    <t xml:space="preserve">Until the end of April, the Vietnamese Ministry of Health were updating a figure for tests on its disease situation statistics page daily. 
+The dashboard referred to its testing data as 'samples tested'. This figure generally matched up to the sum of confirmed cases and negative samples (though there are occasionally some small discrepancies – we report the sum of positive and negative in this case). However, it's unclear whether 'negative samples' includes some instances of resampling for the same person. We therefore cannot say with certainty that these figures are equivalent to the numebr of people tested.
+Using web archives we can reconstruct a daily time-series of total samples. These daily updates extend back to 2nd March. We cannot say with certainty when testing began, only that as of 2nd March 1753 samples had been tested. More recently the website stopped updating its testing data, and finally stopped reporting the figures altogether. The last date we were able to collect testing data was on the 29th April.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">ZWE</t>
@@ -2043,21 +2170,19 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1262803418894270470</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1282783346448379904</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
   </si>
   <si>
-    <t xml:space="preserve">The press release reports both the cumulative number of tests to date and number of tests conducted today. These figures are no consistent with one another. We use the cumulative number of reported tests as the ground truth.</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.mohcc.gov.zw</t>
   </si>
   <si>
-    <t xml:space="preserve">The Zimbabwe Ministry of Health and Child Care provides daily press releases on its website and Twitter account ([@MoHCCZim](https://twitter.com/MoHCCZim)) that report the cumulative number of tests performed to date. The reported figures include positive, negative, and pending test results. It is not clear how many people have been tested, since the reported figures refer only to the number of tests conducted rather than the number of people tested.
+    <t xml:space="preserve">The Zimbabwe Ministry of Health and Child Care provides daily press releases on its website and Twitter account ([@MoHCCZim](https://twitter.com/MoHCCZim)) that report the cumulative number of tests performed to date. The reported figures include positive, negative, and pending test results.
 The press release for May 6th 2020 reported that 7,808 PCR and 8,244 "rapid screening" tests had been conducted to date. We exclude rapid screening tests from the daily time series that we construct, since we assume that these are antibody tests.
-Prior to May 6th 2020, the press releases either: (a) reported a combined cumulative total of PCR and rapid screening tests without providing a breakdown between the two types of tests; or (b) did not clearly specify whether the reported cumulative total was in reference to PCR tests, antibody tests, or both. For this reason, the daily time series we construct begins on May 6th 2020, at which point the press releases began to clearly indicate that the reported cumulative totals only include PCR tests.</t>
+Prior to May 6th 2020, the press releases either: (a) reported a combined cumulative total of PCR and rapid screening tests without providing a breakdown between the two types of tests; or (b) did not clearly specify whether the reported cumulative total was in reference to PCR tests, antibody tests, or both. For this reason, the daily time series we construct begins on May 6th 2020, at which point the press releases began to clearly indicate that the reported cumulative totals only include PCR tests.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
 </sst>
 </file>
@@ -2456,7 +2581,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>43971</v>
+        <v>44030</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2466,21 +2591,25 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="H2" t="n">
-        <v>112370</v>
+        <v>531753</v>
       </c>
       <c r="I2" t="n">
-        <v>2.486</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2"/>
+        <v>11.766</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12472</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.276</v>
+      </c>
       <c r="L2" t="n">
-        <v>3128</v>
+        <v>10816</v>
       </c>
       <c r="M2" t="n">
-        <v>0.069</v>
+        <v>0.239</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
@@ -2503,7 +2632,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>43971</v>
+        <v>44026</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -2513,25 +2642,25 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="H3" t="n">
-        <v>1111567</v>
+        <v>3162237</v>
       </c>
       <c r="I3" t="n">
-        <v>43.591</v>
+        <v>124.01</v>
       </c>
       <c r="J3" t="n">
-        <v>25697</v>
+        <v>44449</v>
       </c>
       <c r="K3" t="n">
-        <v>1.008</v>
+        <v>1.743</v>
       </c>
       <c r="L3" t="n">
-        <v>28935</v>
+        <v>51590</v>
       </c>
       <c r="M3" t="n">
-        <v>1.135</v>
+        <v>2.023</v>
       </c>
       <c r="N3" t="s">
         <v>27</v>
@@ -2554,7 +2683,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>43971</v>
+        <v>44030</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -2564,25 +2693,25 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="H4" t="n">
-        <v>379592</v>
+        <v>743090</v>
       </c>
       <c r="I4" t="n">
-        <v>42.147</v>
+        <v>82.507</v>
       </c>
       <c r="J4" t="n">
-        <v>7157</v>
+        <v>8677</v>
       </c>
       <c r="K4" t="n">
-        <v>0.795</v>
+        <v>0.963</v>
       </c>
       <c r="L4" t="n">
-        <v>6191</v>
+        <v>7340</v>
       </c>
       <c r="M4" t="n">
-        <v>0.687</v>
+        <v>0.815</v>
       </c>
       <c r="N4" t="s">
         <v>34</v>
@@ -2605,1473 +2734,1459 @@
         <v>39</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>43971</v>
+        <v>44030</v>
       </c>
       <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
         <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="H5" t="n">
-        <v>255633</v>
+        <v>710686</v>
       </c>
       <c r="I5" t="n">
-        <v>150.232</v>
+        <v>417.662</v>
       </c>
       <c r="J5" t="n">
-        <v>7428</v>
+        <v>7684</v>
       </c>
       <c r="K5" t="n">
-        <v>4.365</v>
+        <v>4.516</v>
       </c>
       <c r="L5" t="n">
-        <v>7152</v>
+        <v>8809</v>
       </c>
       <c r="M5" t="n">
-        <v>4.203</v>
+        <v>5.177</v>
       </c>
       <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
         <v>42</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>43</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>44</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="n">
+        <v>44026</v>
+      </c>
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="H6" t="n">
-        <v>193645</v>
+        <v>966400</v>
       </c>
       <c r="I6" t="n">
-        <v>1.176</v>
+        <v>5.868</v>
       </c>
       <c r="J6" t="n">
-        <v>8449</v>
+        <v>13453</v>
       </c>
       <c r="K6" t="n">
-        <v>0.051</v>
+        <v>0.082</v>
       </c>
       <c r="L6" t="n">
-        <v>8144</v>
+        <v>12846</v>
       </c>
       <c r="M6" t="n">
-        <v>0.049</v>
+        <v>0.078</v>
       </c>
       <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" t="s">
         <v>49</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>50</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>51</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>55</v>
-      </c>
-      <c r="E7" t="s">
-        <v>56</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H7" t="n">
-        <v>387673</v>
+        <v>1172880</v>
       </c>
       <c r="I7" t="n">
-        <v>41.027</v>
+        <v>124.123</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="n">
-        <v>13042</v>
+        <v>8338</v>
       </c>
       <c r="M7" t="n">
-        <v>1.38</v>
+        <v>0.882</v>
       </c>
       <c r="N7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" t="s">
         <v>56</v>
-      </c>
-      <c r="O7" t="s">
-        <v>57</v>
       </c>
       <c r="P7" t="s">
         <v>22</v>
       </c>
       <c r="Q7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="n">
+        <v>44028</v>
+      </c>
+      <c r="D8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>61</v>
-      </c>
-      <c r="E8" t="s">
-        <v>62</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="H8" t="n">
-        <v>585806</v>
+        <v>1110824</v>
       </c>
       <c r="I8" t="n">
-        <v>50.546</v>
+        <v>95.846</v>
       </c>
       <c r="J8" t="n">
-        <v>5853</v>
+        <v>8754</v>
       </c>
       <c r="K8" t="n">
-        <v>0.505</v>
+        <v>0.755</v>
       </c>
       <c r="L8" t="n">
-        <v>13406</v>
+        <v>8089</v>
       </c>
       <c r="M8" t="n">
-        <v>1.157</v>
+        <v>0.698</v>
       </c>
       <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
         <v>62</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>63</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>64</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
         <v>66</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1" t="n">
+        <v>44028</v>
+      </c>
+      <c r="D9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="n">
+        <v>124</v>
+      </c>
+      <c r="H9" t="n">
+        <v>111112</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9.519</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2875</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2322</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
         <v>68</v>
       </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="P9" t="s">
         <v>69</v>
       </c>
-      <c r="G9" t="n">
-        <v>60</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10567</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="J9" t="n">
-        <v>218</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="L9" t="n">
-        <v>217</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="N9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>70</v>
-      </c>
-      <c r="P9" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>44012</v>
+      </c>
+      <c r="D10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>43941</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>75</v>
       </c>
-      <c r="E10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10"/>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>132467</v>
+        <v>1478671</v>
       </c>
       <c r="I10" t="n">
-        <v>0.623</v>
+        <v>6.957</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10" t="n">
-        <v>5345</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.025</v>
-      </c>
+      <c r="L10"/>
+      <c r="M10"/>
       <c r="N10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" t="s">
         <v>77</v>
-      </c>
-      <c r="O10" t="s">
-        <v>78</v>
       </c>
       <c r="P10" t="s">
         <v>22</v>
       </c>
       <c r="Q10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
         <v>81</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" t="s">
-        <v>83</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
-        <v>68243</v>
+        <v>201363</v>
       </c>
       <c r="I11" t="n">
-        <v>9.821</v>
+        <v>28.98</v>
       </c>
       <c r="J11" t="n">
-        <v>1433</v>
+        <v>4884</v>
       </c>
       <c r="K11" t="n">
-        <v>0.206</v>
+        <v>0.703</v>
       </c>
       <c r="L11" t="n">
-        <v>1163</v>
+        <v>4148</v>
       </c>
       <c r="M11" t="n">
-        <v>0.167</v>
+        <v>0.597</v>
       </c>
       <c r="N11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P11" t="s">
         <v>22</v>
       </c>
       <c r="Q11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
         <v>87</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" t="s">
-        <v>90</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="H12" t="n">
-        <v>1372929</v>
+        <v>3437965</v>
       </c>
       <c r="I12" t="n">
-        <v>36.377</v>
+        <v>91.091</v>
       </c>
       <c r="J12" t="n">
-        <v>35962</v>
+        <v>50286</v>
       </c>
       <c r="K12" t="n">
-        <v>0.953</v>
+        <v>1.332</v>
       </c>
       <c r="L12" t="n">
-        <v>29078</v>
+        <v>42191</v>
       </c>
       <c r="M12" t="n">
-        <v>0.77</v>
+        <v>1.118</v>
       </c>
       <c r="N12" t="s">
+        <v>87</v>
+      </c>
+      <c r="O12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" t="s">
         <v>90</v>
-      </c>
-      <c r="O12" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
         <v>94</v>
       </c>
-      <c r="B13" t="s">
+      <c r="G13" t="n">
+        <v>108</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1370603</v>
+      </c>
+      <c r="I13" t="n">
+        <v>71.698</v>
+      </c>
+      <c r="J13" t="n">
+        <v>18699</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="L13" t="n">
+        <v>16463</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="N13" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="O13" t="s">
         <v>96</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" t="n">
-        <v>50</v>
-      </c>
-      <c r="H13" t="n">
-        <v>409669</v>
-      </c>
-      <c r="I13" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="J13" t="n">
-        <v>12469</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.652</v>
-      </c>
-      <c r="L13" t="n">
-        <v>13703</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.717</v>
-      </c>
-      <c r="N13" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" t="s">
-        <v>99</v>
       </c>
       <c r="P13" t="s">
         <v>36</v>
       </c>
       <c r="Q13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
         <v>101</v>
-      </c>
-      <c r="B14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>43968</v>
-      </c>
-      <c r="D14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" t="s">
-        <v>104</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="H14" t="n">
-        <v>196417</v>
+        <v>1159562</v>
       </c>
       <c r="I14" t="n">
-        <v>3.86</v>
+        <v>22.789</v>
       </c>
       <c r="J14" t="n">
-        <v>6303</v>
+        <v>26055</v>
       </c>
       <c r="K14" t="n">
-        <v>0.124</v>
+        <v>0.512</v>
       </c>
       <c r="L14" t="n">
-        <v>6432</v>
+        <v>27300</v>
       </c>
       <c r="M14" t="n">
-        <v>0.126</v>
+        <v>0.537</v>
       </c>
       <c r="N14" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" t="s">
         <v>104</v>
-      </c>
-      <c r="O14" t="s">
-        <v>105</v>
-      </c>
-      <c r="P14" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>43971</v>
+        <v>44028</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>15050</v>
+        <v>53824</v>
       </c>
       <c r="I15" t="n">
-        <v>2.954</v>
+        <v>10.566</v>
       </c>
       <c r="J15" t="n">
-        <v>434</v>
+        <v>1503</v>
       </c>
       <c r="K15" t="n">
-        <v>0.085</v>
+        <v>0.295</v>
       </c>
       <c r="L15" t="n">
-        <v>363</v>
+        <v>1562</v>
       </c>
       <c r="M15" t="n">
-        <v>0.071</v>
+        <v>0.307</v>
       </c>
       <c r="N15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>43971</v>
+        <v>44030</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="H16" t="n">
-        <v>57021</v>
+        <v>102189</v>
       </c>
       <c r="I16" t="n">
-        <v>13.89</v>
+        <v>24.892</v>
       </c>
       <c r="J16" t="n">
-        <v>1221</v>
+        <v>1338</v>
       </c>
       <c r="K16" t="n">
-        <v>0.297</v>
+        <v>0.326</v>
       </c>
       <c r="L16" t="n">
-        <v>1183</v>
+        <v>1340</v>
       </c>
       <c r="M16" t="n">
-        <v>0.288</v>
+        <v>0.326</v>
       </c>
       <c r="N16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="O16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>44028</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" t="s">
         <v>121</v>
       </c>
-      <c r="B17" t="s">
+      <c r="G17" t="n">
+        <v>117</v>
+      </c>
+      <c r="H17" t="n">
+        <v>220739</v>
+      </c>
+      <c r="I17" t="n">
+        <v>19.489</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3179</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="N17" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="P17" t="s">
         <v>123</v>
       </c>
-      <c r="E17" t="s">
+      <c r="Q17" t="s">
         <v>124</v>
-      </c>
-      <c r="F17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" t="n">
-        <v>59</v>
-      </c>
-      <c r="H17" t="n">
-        <v>87288</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7.706</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1732</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2023</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.179</v>
-      </c>
-      <c r="N17" t="s">
-        <v>124</v>
-      </c>
-      <c r="O17" t="s">
-        <v>123</v>
-      </c>
-      <c r="P17" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>43970</v>
+        <v>44028</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="H18" t="n">
-        <v>372341</v>
+        <v>614297</v>
       </c>
       <c r="I18" t="n">
-        <v>34.769</v>
+        <v>57.363</v>
       </c>
       <c r="J18" t="n">
-        <v>8223</v>
+        <v>3655</v>
       </c>
       <c r="K18" t="n">
-        <v>0.768</v>
+        <v>0.341</v>
       </c>
       <c r="L18" t="n">
-        <v>6379</v>
+        <v>3524</v>
       </c>
       <c r="M18" t="n">
-        <v>0.596</v>
+        <v>0.329</v>
       </c>
       <c r="N18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P18" t="s">
         <v>22</v>
       </c>
       <c r="Q18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>44028</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
         <v>133</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F19"/>
+      <c r="G19" t="n">
+        <v>78</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" t="n">
+        <v>464</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L19" t="n">
+        <v>562</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="N19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="P19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" t="s">
         <v>135</v>
-      </c>
-      <c r="E19" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" t="n">
-        <v>63</v>
-      </c>
-      <c r="H19" t="n">
-        <v>412051</v>
-      </c>
-      <c r="I19" t="n">
-        <v>71.139</v>
-      </c>
-      <c r="J19" t="n">
-        <v>9857</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.702</v>
-      </c>
-      <c r="L19" t="n">
-        <v>9477</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.636</v>
-      </c>
-      <c r="N19" t="s">
-        <v>138</v>
-      </c>
-      <c r="O19" t="s">
-        <v>139</v>
-      </c>
-      <c r="P19" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>44028</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" t="n">
+        <v>158</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1282638</v>
+      </c>
+      <c r="I20" t="n">
+        <v>221.442</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3842</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="L20" t="n">
+        <v>12396</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="N20" t="s">
+        <v>139</v>
+      </c>
+      <c r="O20" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" t="s">
         <v>141</v>
-      </c>
-      <c r="B20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D20" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" t="n">
-        <v>59</v>
-      </c>
-      <c r="H20" t="n">
-        <v>53813</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20" t="n">
-        <v>1375</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="N20" t="s">
-        <v>144</v>
-      </c>
-      <c r="O20" t="s">
-        <v>146</v>
-      </c>
-      <c r="P20" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>43970</v>
+        <v>44029</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21"/>
+        <v>145</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
       <c r="G21" t="n">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="H21" t="n">
-        <v>62838</v>
+        <v>150361</v>
       </c>
       <c r="I21" t="n">
-        <v>9.688</v>
+        <v>8.522</v>
       </c>
       <c r="J21" t="n">
-        <v>2497</v>
+        <v>2368</v>
       </c>
       <c r="K21" t="n">
-        <v>0.385</v>
+        <v>0.134</v>
       </c>
       <c r="L21" t="n">
-        <v>2287</v>
+        <v>2221</v>
       </c>
       <c r="M21" t="n">
-        <v>0.353</v>
+        <v>0.126</v>
       </c>
       <c r="N21" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="O21" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P21" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="Q21" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>43970</v>
+        <v>44025</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H22" t="n">
-        <v>72465</v>
+        <v>197151</v>
       </c>
       <c r="I22" t="n">
-        <v>54.627</v>
+        <v>30.395</v>
       </c>
       <c r="J22" t="n">
-        <v>1028</v>
+        <v>2496</v>
       </c>
       <c r="K22" t="n">
-        <v>0.775</v>
+        <v>0.385</v>
       </c>
       <c r="L22" t="n">
-        <v>912</v>
+        <v>2470</v>
       </c>
       <c r="M22" t="n">
-        <v>0.688</v>
+        <v>0.381</v>
       </c>
       <c r="N22" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="O22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="Q22" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>43971</v>
+        <v>44029</v>
       </c>
       <c r="D23" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>36</v>
+        <v>144</v>
       </c>
       <c r="H23" t="n">
-        <v>65760</v>
+        <v>114279</v>
       </c>
       <c r="I23" t="n">
-        <v>0.572</v>
+        <v>86.148</v>
       </c>
       <c r="J23" t="n">
-        <v>3460</v>
+        <v>294</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03</v>
+        <v>0.222</v>
       </c>
       <c r="L23" t="n">
-        <v>3439</v>
+        <v>354</v>
       </c>
       <c r="M23" t="n">
-        <v>0.03</v>
+        <v>0.267</v>
       </c>
       <c r="N23" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="O23" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="P23" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="Q23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>43970</v>
+        <v>44011</v>
       </c>
       <c r="D24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H24" t="n">
-        <v>156206</v>
+        <v>250604</v>
       </c>
       <c r="I24" t="n">
-        <v>28.192</v>
+        <v>2.18</v>
       </c>
       <c r="J24" t="n">
-        <v>1403</v>
+        <v>3693</v>
       </c>
       <c r="K24" t="n">
-        <v>0.253</v>
+        <v>0.032</v>
       </c>
       <c r="L24" t="n">
-        <v>2877</v>
+        <v>4434</v>
       </c>
       <c r="M24" t="n">
-        <v>0.519</v>
+        <v>0.039</v>
       </c>
       <c r="N24" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="O24" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P24" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="Q24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>43956</v>
+        <v>44024</v>
       </c>
       <c r="D25" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E25" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" t="s">
-        <v>179</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="F25"/>
       <c r="G25" t="n">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="H25" t="n">
-        <v>831174</v>
+        <v>5937</v>
       </c>
       <c r="I25" t="n">
-        <v>12.734</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25"/>
+        <v>6.623</v>
+      </c>
+      <c r="J25" t="n">
+        <v>97</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.108</v>
+      </c>
       <c r="L25" t="n">
-        <v>15229</v>
+        <v>89</v>
       </c>
       <c r="M25" t="n">
-        <v>0.233</v>
+        <v>0.099</v>
       </c>
       <c r="N25" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O25" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="P25" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="Q25" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>43961</v>
+        <v>44030</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
-      </c>
-      <c r="F26" t="s">
-        <v>186</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="H26" t="n">
-        <v>3147771</v>
+        <v>305908</v>
       </c>
       <c r="I26" t="n">
-        <v>37.57</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26"/>
+        <v>55.211</v>
+      </c>
+      <c r="J26" t="n">
+        <v>62</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.011</v>
+      </c>
       <c r="L26" t="n">
-        <v>54593</v>
+        <v>2676</v>
       </c>
       <c r="M26" t="n">
-        <v>0.652</v>
+        <v>0.483</v>
       </c>
       <c r="N26" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="O26" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="P26" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="Q26" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>43969</v>
+        <v>44023</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F27" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G27" t="n">
-        <v>18</v>
-      </c>
-      <c r="H27" t="n">
-        <v>183362</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.901</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27"/>
       <c r="J27" t="n">
-        <v>3776</v>
+        <v>49434</v>
       </c>
       <c r="K27" t="n">
-        <v>0.122</v>
+        <v>0.757</v>
       </c>
       <c r="L27" t="n">
-        <v>3166</v>
+        <v>49434</v>
       </c>
       <c r="M27" t="n">
-        <v>0.102</v>
+        <v>0.757</v>
       </c>
       <c r="N27" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="O27" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="Q27" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="D28" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" t="n">
+        <v>24</v>
+      </c>
+      <c r="H28" t="n">
+        <v>831174</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.734</v>
+      </c>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28" t="n">
+        <v>15229</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="N28" t="s">
+        <v>183</v>
+      </c>
+      <c r="O28" t="s">
+        <v>185</v>
+      </c>
+      <c r="P28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" t="s">
         <v>190</v>
-      </c>
-      <c r="B28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D28" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28" t="s">
-        <v>200</v>
-      </c>
-      <c r="G28" t="n">
-        <v>12</v>
-      </c>
-      <c r="H28" t="n">
-        <v>184343</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.933</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3776</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3166</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="N28" t="s">
-        <v>195</v>
-      </c>
-      <c r="O28" t="s">
-        <v>196</v>
-      </c>
-      <c r="P28" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>43971</v>
+        <v>44024</v>
       </c>
       <c r="D29" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E29" t="s">
-        <v>204</v>
-      </c>
-      <c r="F29"/>
+        <v>194</v>
+      </c>
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
       <c r="G29" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="H29" t="n">
-        <v>139445</v>
+        <v>6884614</v>
       </c>
       <c r="I29" t="n">
-        <v>13.379</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3444</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.33</v>
-      </c>
+        <v>82.171</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
       <c r="L29" t="n">
-        <v>3915</v>
+        <v>71889</v>
       </c>
       <c r="M29" t="n">
-        <v>0.376</v>
+        <v>0.858</v>
       </c>
       <c r="N29" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="O29" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="P29" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="Q29" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>43963</v>
+        <v>44026</v>
       </c>
       <c r="D30" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="H30" t="n">
-        <v>183491</v>
+        <v>341919</v>
       </c>
       <c r="I30" t="n">
-        <v>24.475</v>
-      </c>
-      <c r="J30"/>
-      <c r="K30"/>
+        <v>11.004</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2428</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.078</v>
+      </c>
       <c r="L30" t="n">
-        <v>1953</v>
+        <v>2353</v>
       </c>
       <c r="M30" t="n">
-        <v>0.261</v>
+        <v>0.076</v>
       </c>
       <c r="N30" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="O30" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="P30" t="s">
-        <v>22</v>
+        <v>205</v>
       </c>
       <c r="Q30" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>43971</v>
+        <v>44029</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E31" t="s">
-        <v>218</v>
-      </c>
-      <c r="F31" t="s">
-        <v>219</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="F31"/>
       <c r="G31" t="n">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="H31" t="n">
-        <v>142729</v>
+        <v>402672</v>
       </c>
       <c r="I31" t="n">
-        <v>14.775</v>
+        <v>38.633</v>
       </c>
       <c r="J31" t="n">
-        <v>4032</v>
+        <v>4325</v>
       </c>
       <c r="K31" t="n">
-        <v>0.417</v>
+        <v>0.415</v>
       </c>
       <c r="L31" t="n">
-        <v>3461</v>
+        <v>5609</v>
       </c>
       <c r="M31" t="n">
-        <v>0.358</v>
+        <v>0.538</v>
       </c>
       <c r="N31" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O31" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P31" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="Q31" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>43970</v>
+        <v>44026</v>
       </c>
       <c r="D32" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E32" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="H32" t="n">
-        <v>57587</v>
+        <v>442256</v>
       </c>
       <c r="I32" t="n">
-        <v>168.753</v>
-      </c>
-      <c r="J32" t="n">
-        <v>441</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1.292</v>
-      </c>
+        <v>58.991</v>
+      </c>
+      <c r="J32"/>
+      <c r="K32"/>
       <c r="L32" t="n">
-        <v>365</v>
+        <v>6773</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>0.903</v>
       </c>
       <c r="N32" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="O32" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P32" t="s">
-        <v>227</v>
+        <v>22</v>
       </c>
       <c r="Q32" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B33" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>43945</v>
+        <v>44025</v>
       </c>
       <c r="D33" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E33" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G33" t="n">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="H33" t="n">
-        <v>525667</v>
+        <v>295561</v>
       </c>
       <c r="I33" t="n">
-        <v>0.381</v>
+        <v>30.595</v>
       </c>
       <c r="J33" t="n">
-        <v>40495</v>
+        <v>1136</v>
       </c>
       <c r="K33" t="n">
-        <v>0.029</v>
+        <v>0.118</v>
       </c>
       <c r="L33" t="n">
-        <v>29603</v>
+        <v>1354</v>
       </c>
       <c r="M33" t="n">
-        <v>0.021</v>
+        <v>0.14</v>
       </c>
       <c r="N33" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="O33" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P33" t="s">
-        <v>92</v>
+        <v>227</v>
       </c>
       <c r="Q33" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34">
@@ -4079,10 +4194,10 @@
         <v>229</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>43971</v>
+        <v>44029</v>
       </c>
       <c r="D34" t="s">
         <v>231</v>
@@ -4090,29 +4205,27 @@
       <c r="E34" t="s">
         <v>232</v>
       </c>
-      <c r="F34" t="s">
-        <v>233</v>
-      </c>
+      <c r="F34"/>
       <c r="G34" t="n">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="H34" t="n">
-        <v>2512388</v>
+        <v>68511</v>
       </c>
       <c r="I34" t="n">
-        <v>1.821</v>
+        <v>200.765</v>
       </c>
       <c r="J34" t="n">
-        <v>108121</v>
+        <v>189</v>
       </c>
       <c r="K34" t="n">
-        <v>0.078</v>
+        <v>0.554</v>
       </c>
       <c r="L34" t="n">
-        <v>94020</v>
+        <v>112</v>
       </c>
       <c r="M34" t="n">
-        <v>0.068</v>
+        <v>0.328</v>
       </c>
       <c r="N34" t="s">
         <v>232</v>
@@ -4121,3068 +4234,3456 @@
         <v>231</v>
       </c>
       <c r="P34" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="Q34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B35" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>43945</v>
+      </c>
+      <c r="D35" t="s">
         <v>236</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E35" t="s">
         <v>237</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>238</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="n">
+        <v>24</v>
+      </c>
+      <c r="H35" t="n">
+        <v>525667</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="J35" t="n">
+        <v>40495</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L35" t="n">
+        <v>29603</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N35" t="s">
+        <v>237</v>
+      </c>
+      <c r="O35" t="s">
+        <v>236</v>
+      </c>
+      <c r="P35" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q35" t="s">
         <v>239</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35" t="n">
-        <v>61</v>
-      </c>
-      <c r="H35" t="n">
-        <v>154139</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.564</v>
-      </c>
-      <c r="J35" t="n">
-        <v>6340</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4367</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="N35" t="s">
-        <v>239</v>
-      </c>
-      <c r="O35" t="s">
-        <v>240</v>
-      </c>
-      <c r="P35" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>43970</v>
+        <v>44030</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F36"/>
+        <v>237</v>
+      </c>
+      <c r="F36" t="s">
+        <v>238</v>
+      </c>
       <c r="G36" t="n">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="H36" t="n">
-        <v>716176</v>
+        <v>13433742</v>
       </c>
       <c r="I36" t="n">
-        <v>8.527</v>
+        <v>9.735</v>
       </c>
       <c r="J36" t="n">
-        <v>14536</v>
+        <v>361024</v>
       </c>
       <c r="K36" t="n">
-        <v>0.173</v>
+        <v>0.262</v>
       </c>
       <c r="L36" t="n">
-        <v>14386</v>
+        <v>303820</v>
       </c>
       <c r="M36" t="n">
-        <v>0.171</v>
+        <v>0.22</v>
       </c>
       <c r="N36" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="O36" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="P36" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="Q36" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B37" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>43970</v>
+        <v>44030</v>
       </c>
       <c r="D37" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="H37" t="n">
-        <v>295626</v>
+        <v>697043</v>
       </c>
       <c r="I37" t="n">
-        <v>59.87</v>
-      </c>
-      <c r="J37"/>
-      <c r="K37"/>
+        <v>2.548</v>
+      </c>
+      <c r="J37" t="n">
+        <v>13238</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.048</v>
+      </c>
       <c r="L37" t="n">
-        <v>5260</v>
+        <v>12421</v>
       </c>
       <c r="M37" t="n">
-        <v>1.065</v>
+        <v>0.045</v>
       </c>
       <c r="N37" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="O37" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P37" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q37" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B38" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>43968</v>
+        <v>44029</v>
       </c>
       <c r="D38" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E38" t="s">
-        <v>257</v>
-      </c>
-      <c r="F38" t="s">
-        <v>258</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="F38"/>
       <c r="G38" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H38" t="n">
-        <v>498969</v>
+        <v>2098985</v>
       </c>
       <c r="I38" t="n">
-        <v>57.647</v>
+        <v>24.99</v>
       </c>
       <c r="J38" t="n">
-        <v>4344</v>
+        <v>25194</v>
       </c>
       <c r="K38" t="n">
-        <v>0.502</v>
+        <v>0.3</v>
       </c>
       <c r="L38" t="n">
-        <v>6381</v>
+        <v>25212</v>
       </c>
       <c r="M38" t="n">
-        <v>0.737</v>
+        <v>0.3</v>
       </c>
       <c r="N38" t="s">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="O38" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="P38" t="s">
         <v>22</v>
       </c>
       <c r="Q38" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>43971</v>
+        <v>44030</v>
       </c>
       <c r="D39" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E39" t="s">
-        <v>264</v>
-      </c>
-      <c r="F39" t="s">
-        <v>265</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="F39"/>
       <c r="G39" t="n">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="H39" t="n">
-        <v>2038216</v>
+        <v>550728</v>
       </c>
       <c r="I39" t="n">
-        <v>33.711</v>
+        <v>111.533</v>
       </c>
       <c r="J39" t="n">
-        <v>38617</v>
+        <v>9154</v>
       </c>
       <c r="K39" t="n">
-        <v>0.639</v>
+        <v>1.854</v>
       </c>
       <c r="L39" t="n">
-        <v>37038</v>
+        <v>7164</v>
       </c>
       <c r="M39" t="n">
-        <v>0.613</v>
+        <v>1.451</v>
       </c>
       <c r="N39" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="O39" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="P39" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="Q39" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>44023</v>
+      </c>
+      <c r="D40" t="s">
         <v>261</v>
       </c>
-      <c r="B40" t="s">
-        <v>269</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
+        <v>262</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40" t="n">
+        <v>161</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1266627</v>
+      </c>
+      <c r="I40" t="n">
+        <v>146.337</v>
+      </c>
+      <c r="J40" t="n">
+        <v>20377</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.354</v>
+      </c>
+      <c r="L40" t="n">
+        <v>25835</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2.985</v>
+      </c>
+      <c r="N40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O40" t="s">
         <v>263</v>
-      </c>
-      <c r="E40" t="s">
-        <v>264</v>
-      </c>
-      <c r="F40" t="s">
-        <v>265</v>
-      </c>
-      <c r="G40" t="n">
-        <v>87</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3171719</v>
-      </c>
-      <c r="I40" t="n">
-        <v>52.458</v>
-      </c>
-      <c r="J40" t="n">
-        <v>67195</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1.111</v>
-      </c>
-      <c r="L40" t="n">
-        <v>62299</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N40" t="s">
-        <v>266</v>
-      </c>
-      <c r="O40" t="s">
-        <v>267</v>
       </c>
       <c r="P40" t="s">
         <v>22</v>
       </c>
       <c r="Q40" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>265</v>
+      </c>
+      <c r="B41" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="D41" t="s">
+        <v>267</v>
+      </c>
+      <c r="E41" t="s">
+        <v>268</v>
+      </c>
+      <c r="F41" t="s">
+        <v>269</v>
+      </c>
+      <c r="G41" t="n">
+        <v>90</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3692257</v>
+      </c>
+      <c r="I41" t="n">
+        <v>61.068</v>
+      </c>
+      <c r="J41" t="n">
+        <v>28661</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="L41" t="n">
+        <v>24554</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="N41" t="s">
+        <v>270</v>
+      </c>
+      <c r="O41" t="s">
         <v>271</v>
       </c>
-      <c r="B41" t="s">
+      <c r="P41" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q41" t="s">
         <v>272</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>43971</v>
-      </c>
-      <c r="D41" t="s">
-        <v>273</v>
-      </c>
-      <c r="E41" t="s">
-        <v>274</v>
-      </c>
-      <c r="F41" t="s">
-        <v>275</v>
-      </c>
-      <c r="G41" t="n">
-        <v>97</v>
-      </c>
-      <c r="H41" t="n">
-        <v>258277</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.042</v>
-      </c>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41" t="n">
-        <v>4944</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="N41" t="s">
-        <v>276</v>
-      </c>
-      <c r="O41" t="s">
-        <v>277</v>
-      </c>
-      <c r="P41" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="D42" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F42" t="s">
+        <v>269</v>
+      </c>
+      <c r="G42" t="n">
+        <v>145</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6154259</v>
+      </c>
+      <c r="I42" t="n">
+        <v>101.788</v>
+      </c>
+      <c r="J42" t="n">
+        <v>50767</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L42" t="n">
+        <v>42805</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="N42" t="s">
+        <v>270</v>
+      </c>
+      <c r="O42" t="s">
         <v>271</v>
-      </c>
-      <c r="B42" t="s">
-        <v>279</v>
-      </c>
-      <c r="C42" s="1" t="n">
-        <v>43969</v>
-      </c>
-      <c r="D42" t="s">
-        <v>280</v>
-      </c>
-      <c r="E42" t="s">
-        <v>274</v>
-      </c>
-      <c r="F42" t="s">
-        <v>281</v>
-      </c>
-      <c r="G42" t="n">
-        <v>33</v>
-      </c>
-      <c r="H42" t="n">
-        <v>405177</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.204</v>
-      </c>
-      <c r="J42" t="n">
-        <v>4467</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="L42" t="n">
-        <v>6559</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="N42" t="s">
-        <v>276</v>
-      </c>
-      <c r="O42" t="s">
-        <v>277</v>
       </c>
       <c r="P42" t="s">
         <v>22</v>
       </c>
       <c r="Q42" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B43" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>43971</v>
+        <v>44030</v>
       </c>
       <c r="D43" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E43" t="s">
-        <v>286</v>
-      </c>
-      <c r="F43"/>
+        <v>278</v>
+      </c>
+      <c r="F43" t="s">
+        <v>279</v>
+      </c>
       <c r="G43" t="n">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="H43" t="n">
-        <v>571547</v>
+        <v>626149</v>
       </c>
       <c r="I43" t="n">
-        <v>30.439</v>
+        <v>4.951</v>
       </c>
       <c r="J43" t="n">
-        <v>18485</v>
+        <v>9100</v>
       </c>
       <c r="K43" t="n">
-        <v>0.984</v>
+        <v>0.072</v>
       </c>
       <c r="L43" t="n">
-        <v>18865</v>
+        <v>10642</v>
       </c>
       <c r="M43" t="n">
-        <v>1.005</v>
+        <v>0.084</v>
       </c>
       <c r="N43" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O43" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P43" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="Q43" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B44" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>43971</v>
+        <v>44028</v>
       </c>
       <c r="D44" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E44" t="s">
-        <v>291</v>
-      </c>
-      <c r="F44"/>
+        <v>278</v>
+      </c>
+      <c r="F44" t="s">
+        <v>285</v>
+      </c>
       <c r="G44" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="H44" t="n">
-        <v>49405</v>
+        <v>860512</v>
       </c>
       <c r="I44" t="n">
-        <v>0.919</v>
+        <v>6.804</v>
       </c>
       <c r="J44" t="n">
-        <v>2621</v>
+        <v>13537</v>
       </c>
       <c r="K44" t="n">
-        <v>0.049</v>
+        <v>0.107</v>
       </c>
       <c r="L44" t="n">
-        <v>1996</v>
+        <v>12313</v>
       </c>
       <c r="M44" t="n">
-        <v>0.037</v>
+        <v>0.097</v>
       </c>
       <c r="N44" t="s">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="O44" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="P44" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="Q44" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>43971</v>
+        <v>44027</v>
       </c>
       <c r="D45" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E45" t="s">
-        <v>298</v>
-      </c>
-      <c r="F45" t="s">
-        <v>299</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="F45"/>
       <c r="G45" t="n">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="H45" t="n">
-        <v>92751</v>
+        <v>1737546</v>
       </c>
       <c r="I45" t="n">
-        <v>49.173</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1783</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.945</v>
-      </c>
+        <v>92.537</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45"/>
       <c r="L45" t="n">
-        <v>1644</v>
+        <v>11143</v>
       </c>
       <c r="M45" t="n">
-        <v>0.872</v>
+        <v>0.593</v>
       </c>
       <c r="N45" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="O45" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P45" t="s">
         <v>22</v>
       </c>
       <c r="Q45" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>43971</v>
+        <v>44026</v>
       </c>
       <c r="D46" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="H46" t="n">
-        <v>245580</v>
+        <v>221234</v>
       </c>
       <c r="I46" t="n">
-        <v>90.211</v>
+        <v>4.114</v>
       </c>
       <c r="J46" t="n">
-        <v>7980</v>
+        <v>4992</v>
       </c>
       <c r="K46" t="n">
-        <v>2.931</v>
+        <v>0.093</v>
       </c>
       <c r="L46" t="n">
-        <v>6474</v>
+        <v>3968</v>
       </c>
       <c r="M46" t="n">
-        <v>2.378</v>
+        <v>0.074</v>
       </c>
       <c r="N46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O46" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P46" t="s">
-        <v>51</v>
+        <v>297</v>
       </c>
       <c r="Q46" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B47" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>43971</v>
+        <v>44029</v>
       </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="H47" t="n">
-        <v>64018</v>
+        <v>452970</v>
       </c>
       <c r="I47" t="n">
-        <v>102.269</v>
+        <v>106.068</v>
       </c>
       <c r="J47" t="n">
-        <v>1007</v>
+        <v>3445</v>
       </c>
       <c r="K47" t="n">
-        <v>1.609</v>
+        <v>0.807</v>
       </c>
       <c r="L47" t="n">
-        <v>904</v>
+        <v>3709</v>
       </c>
       <c r="M47" t="n">
-        <v>1.444</v>
+        <v>0.869</v>
       </c>
       <c r="N47" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="O47" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="P47" t="s">
         <v>22</v>
       </c>
       <c r="Q47" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>43971</v>
+        <v>44030</v>
       </c>
       <c r="D48" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E48" t="s">
-        <v>315</v>
-      </c>
-      <c r="F48"/>
+        <v>308</v>
+      </c>
+      <c r="F48" t="s">
+        <v>309</v>
+      </c>
       <c r="G48" t="n">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="H48" t="n">
-        <v>462257</v>
+        <v>179636</v>
       </c>
       <c r="I48" t="n">
-        <v>14.282</v>
-      </c>
-      <c r="J48"/>
-      <c r="K48"/>
+        <v>95.237</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1751</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.928</v>
+      </c>
       <c r="L48" t="n">
-        <v>18425</v>
+        <v>1737</v>
       </c>
       <c r="M48" t="n">
-        <v>0.569</v>
+        <v>0.921</v>
       </c>
       <c r="N48" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="O48" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="P48" t="s">
-        <v>317</v>
+        <v>22</v>
       </c>
       <c r="Q48" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B49" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>43969</v>
+        <v>44029</v>
       </c>
       <c r="D49" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="E49" t="s">
-        <v>322</v>
-      </c>
-      <c r="F49" t="s">
-        <v>323</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F49"/>
       <c r="G49" t="n">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="H49" t="n">
-        <v>15280</v>
+        <v>476121</v>
       </c>
       <c r="I49" t="n">
-        <v>28.268</v>
+        <v>174.897</v>
       </c>
       <c r="J49" t="n">
-        <v>426</v>
+        <v>3317</v>
       </c>
       <c r="K49" t="n">
-        <v>0.788</v>
+        <v>1.218</v>
       </c>
       <c r="L49" t="n">
-        <v>433</v>
+        <v>2898</v>
       </c>
       <c r="M49" t="n">
-        <v>0.801</v>
+        <v>1.065</v>
       </c>
       <c r="N49" t="s">
-        <v>324</v>
+        <v>40</v>
       </c>
       <c r="O49" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="P49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q49" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>43969</v>
+        <v>44029</v>
       </c>
       <c r="D50" t="s">
-        <v>329</v>
+        <v>32</v>
       </c>
       <c r="E50" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="H50" t="n">
-        <v>156320</v>
+        <v>325741</v>
       </c>
       <c r="I50" t="n">
-        <v>1.212</v>
+        <v>520.373</v>
       </c>
       <c r="J50" t="n">
-        <v>314</v>
+        <v>10785</v>
       </c>
       <c r="K50" t="n">
-        <v>0.002</v>
+        <v>17.229</v>
       </c>
       <c r="L50" t="n">
-        <v>3145</v>
+        <v>8472</v>
       </c>
       <c r="M50" t="n">
-        <v>0.024</v>
+        <v>13.534</v>
       </c>
       <c r="N50" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="O50" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="P50" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="Q50" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>43969</v>
+        <v>44030</v>
       </c>
       <c r="D51" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="E51" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="F51" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="G51" t="n">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="H51" t="n">
-        <v>95536</v>
+        <v>884170</v>
       </c>
       <c r="I51" t="n">
-        <v>2.588</v>
+        <v>27.318</v>
       </c>
       <c r="J51" t="n">
-        <v>5579</v>
+        <v>7948</v>
       </c>
       <c r="K51" t="n">
-        <v>0.151</v>
+        <v>0.246</v>
       </c>
       <c r="L51" t="n">
-        <v>3794</v>
+        <v>5956</v>
       </c>
       <c r="M51" t="n">
-        <v>0.103</v>
+        <v>0.184</v>
       </c>
       <c r="N51" t="s">
-        <v>335</v>
+        <v>40</v>
       </c>
       <c r="O51" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="P51" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="Q51" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>43970</v>
+        <v>44029</v>
       </c>
       <c r="D52" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="E52" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="H52" t="n">
-        <v>15838</v>
+        <v>65799</v>
       </c>
       <c r="I52" t="n">
-        <v>0.291</v>
+        <v>121.728</v>
       </c>
       <c r="J52" t="n">
-        <v>701</v>
+        <v>623</v>
       </c>
       <c r="K52" t="n">
-        <v>0.013</v>
+        <v>1.153</v>
       </c>
       <c r="L52" t="n">
-        <v>539</v>
+        <v>831</v>
       </c>
       <c r="M52" t="n">
-        <v>0.01</v>
+        <v>1.537</v>
       </c>
       <c r="N52" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="O52" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="P52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q52" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B53" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>43970</v>
+        <v>44025</v>
       </c>
       <c r="D53" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E53" t="s">
-        <v>348</v>
-      </c>
-      <c r="F53" t="s">
-        <v>349</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="F53"/>
       <c r="G53" t="n">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="H53" t="n">
-        <v>33006</v>
+        <v>108553</v>
       </c>
       <c r="I53" t="n">
-        <v>1.133</v>
+        <v>245.851</v>
       </c>
       <c r="J53" t="n">
-        <v>2282</v>
+        <v>931</v>
       </c>
       <c r="K53" t="n">
-        <v>0.078</v>
+        <v>2.109</v>
       </c>
       <c r="L53" t="n">
-        <v>2006</v>
+        <v>747</v>
       </c>
       <c r="M53" t="n">
-        <v>0.069</v>
+        <v>1.692</v>
       </c>
       <c r="N53" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="O53" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="P53" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="Q53" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>43970</v>
+        <v>44025</v>
       </c>
       <c r="D54" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E54" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="H54" t="n">
-        <v>306460</v>
+        <v>703791</v>
       </c>
       <c r="I54" t="n">
-        <v>17.885</v>
+        <v>5.459</v>
       </c>
       <c r="J54" t="n">
-        <v>3688</v>
+        <v>9575</v>
       </c>
       <c r="K54" t="n">
-        <v>0.215</v>
+        <v>0.074</v>
       </c>
       <c r="L54" t="n">
-        <v>4270</v>
+        <v>9490</v>
       </c>
       <c r="M54" t="n">
-        <v>0.249</v>
+        <v>0.074</v>
       </c>
       <c r="N54" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="O54" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="P54" t="s">
-        <v>92</v>
+        <v>246</v>
       </c>
       <c r="Q54" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>43970</v>
+        <v>44029</v>
       </c>
       <c r="D55" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="H55" t="n">
-        <v>238745</v>
+        <v>973404</v>
       </c>
       <c r="I55" t="n">
-        <v>49.509</v>
+        <v>26.372</v>
       </c>
       <c r="J55" t="n">
-        <v>4902</v>
+        <v>19689</v>
       </c>
       <c r="K55" t="n">
-        <v>1.017</v>
+        <v>0.533</v>
       </c>
       <c r="L55" t="n">
-        <v>5100</v>
+        <v>17758</v>
       </c>
       <c r="M55" t="n">
-        <v>1.058</v>
+        <v>0.481</v>
       </c>
       <c r="N55" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="O55" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="P55" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="Q55" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>43971</v>
+        <v>44025</v>
       </c>
       <c r="D56" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E56" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="H56" t="n">
-        <v>38231</v>
+        <v>94872</v>
       </c>
       <c r="I56" t="n">
-        <v>0.185</v>
+        <v>1.744</v>
       </c>
       <c r="J56" t="n">
-        <v>1332</v>
+        <v>704</v>
       </c>
       <c r="K56" t="n">
-        <v>0.006</v>
+        <v>0.013</v>
       </c>
       <c r="L56" t="n">
-        <v>1260</v>
+        <v>1318</v>
       </c>
       <c r="M56" t="n">
-        <v>0.006</v>
+        <v>0.024</v>
       </c>
       <c r="N56" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="O56" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="P56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q56" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B57" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>43971</v>
+        <v>44028</v>
       </c>
       <c r="D57" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E57" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="H57" t="n">
-        <v>223045</v>
+        <v>303810</v>
       </c>
       <c r="I57" t="n">
-        <v>41.143</v>
+        <v>10.427</v>
       </c>
       <c r="J57" t="n">
-        <v>3061</v>
+        <v>4981</v>
       </c>
       <c r="K57" t="n">
-        <v>0.565</v>
+        <v>0.171</v>
       </c>
       <c r="L57" t="n">
-        <v>2024</v>
+        <v>4666</v>
       </c>
       <c r="M57" t="n">
-        <v>0.373</v>
+        <v>0.16</v>
       </c>
       <c r="N57" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="O57" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="P57" t="s">
-        <v>375</v>
+        <v>22</v>
       </c>
       <c r="Q57" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B58" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>43971</v>
+        <v>44025</v>
       </c>
       <c r="D58" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E58" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="H58" t="n">
-        <v>414254</v>
+        <v>764079</v>
       </c>
       <c r="I58" t="n">
-        <v>1.875</v>
+        <v>44.592</v>
       </c>
       <c r="J58" t="n">
-        <v>13962</v>
+        <v>5361</v>
       </c>
       <c r="K58" t="n">
-        <v>0.063</v>
+        <v>0.313</v>
       </c>
       <c r="L58" t="n">
-        <v>13794</v>
+        <v>9990</v>
       </c>
       <c r="M58" t="n">
-        <v>0.062</v>
+        <v>0.583</v>
       </c>
       <c r="N58" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="O58" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="P58" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="Q58" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B59" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>43969</v>
+        <v>44029</v>
       </c>
       <c r="D59" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
-      </c>
-      <c r="F59" t="s">
-        <v>386</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F59"/>
       <c r="G59" t="n">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="H59" t="n">
-        <v>51105</v>
+        <v>441123</v>
       </c>
       <c r="I59" t="n">
-        <v>11.844</v>
+        <v>91.477</v>
       </c>
       <c r="J59" t="n">
-        <v>757</v>
+        <v>2403</v>
       </c>
       <c r="K59" t="n">
-        <v>0.175</v>
+        <v>0.498</v>
       </c>
       <c r="L59" t="n">
-        <v>1063</v>
+        <v>2050</v>
       </c>
       <c r="M59" t="n">
-        <v>0.246</v>
+        <v>0.425</v>
       </c>
       <c r="N59" t="s">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="O59" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="P59" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="Q59" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B60" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>43960</v>
+        <v>44029</v>
       </c>
       <c r="D60" t="s">
-        <v>391</v>
+        <v>32</v>
       </c>
       <c r="E60" t="s">
-        <v>392</v>
-      </c>
-      <c r="F60" t="s">
-        <v>393</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="F60"/>
       <c r="G60" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H60" t="n">
-        <v>14646</v>
+        <v>206422</v>
       </c>
       <c r="I60" t="n">
-        <v>2.053</v>
+        <v>1.001</v>
       </c>
       <c r="J60" t="n">
-        <v>800</v>
+        <v>4325</v>
       </c>
       <c r="K60" t="n">
-        <v>0.112</v>
+        <v>0.021</v>
       </c>
       <c r="L60" t="n">
-        <v>554</v>
+        <v>4395</v>
       </c>
       <c r="M60" t="n">
-        <v>0.078</v>
+        <v>0.021</v>
       </c>
       <c r="N60" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="O60" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="P60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q60" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="B61" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>43971</v>
+        <v>44026</v>
       </c>
       <c r="D61" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>385</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="H61" t="n">
-        <v>108481</v>
+        <v>371767</v>
       </c>
       <c r="I61" t="n">
-        <v>3.29</v>
+        <v>68.576</v>
       </c>
       <c r="J61" t="n">
-        <v>2854</v>
+        <v>3791</v>
       </c>
       <c r="K61" t="n">
-        <v>0.087</v>
+        <v>0.699</v>
       </c>
       <c r="L61" t="n">
-        <v>2956</v>
+        <v>3381</v>
       </c>
       <c r="M61" t="n">
-        <v>0.09</v>
+        <v>0.624</v>
       </c>
       <c r="N61" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="O61" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="P61" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="Q61" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B62" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>43966</v>
+        <v>44030</v>
       </c>
       <c r="D62" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="E62" t="s">
-        <v>407</v>
-      </c>
-      <c r="F62" t="s">
-        <v>408</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="F62"/>
       <c r="G62" t="n">
-        <v>24</v>
-      </c>
-      <c r="H62" t="n">
-        <v>188024</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.716</v>
-      </c>
-      <c r="J62"/>
-      <c r="K62"/>
+        <v>45</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62" t="n">
+        <v>3976</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.779</v>
+      </c>
       <c r="L62" t="n">
-        <v>6324</v>
+        <v>4543</v>
       </c>
       <c r="M62" t="n">
-        <v>0.058</v>
+        <v>0.89</v>
       </c>
       <c r="N62" t="s">
-        <v>211</v>
+        <v>392</v>
       </c>
       <c r="O62" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="P62" t="s">
-        <v>92</v>
+        <v>394</v>
       </c>
       <c r="Q62" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>43971</v>
+        <v>44030</v>
       </c>
       <c r="D63" t="s">
-        <v>412</v>
+        <v>32</v>
       </c>
       <c r="E63" t="s">
-        <v>413</v>
-      </c>
-      <c r="F63" t="s">
-        <v>414</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="F63"/>
       <c r="G63" t="n">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="H63" t="n">
-        <v>674861</v>
+        <v>1699101</v>
       </c>
       <c r="I63" t="n">
-        <v>17.831</v>
+        <v>7.692</v>
       </c>
       <c r="J63" t="n">
-        <v>21637</v>
+        <v>23011</v>
       </c>
       <c r="K63" t="n">
-        <v>0.572</v>
+        <v>0.104</v>
       </c>
       <c r="L63" t="n">
-        <v>20963</v>
+        <v>22953</v>
       </c>
       <c r="M63" t="n">
-        <v>0.554</v>
+        <v>0.104</v>
       </c>
       <c r="N63" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="O63" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="P63" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="Q63" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="B64" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>43969</v>
+        <v>44028</v>
       </c>
       <c r="D64" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>404</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="H64" t="n">
-        <v>674001</v>
+        <v>174877</v>
       </c>
       <c r="I64" t="n">
-        <v>66.1</v>
+        <v>40.53</v>
       </c>
       <c r="J64" t="n">
-        <v>11621</v>
+        <v>3435</v>
       </c>
       <c r="K64" t="n">
-        <v>1.14</v>
+        <v>0.796</v>
       </c>
       <c r="L64" t="n">
-        <v>15375</v>
+        <v>3176</v>
       </c>
       <c r="M64" t="n">
-        <v>1.508</v>
+        <v>0.736</v>
       </c>
       <c r="N64" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="O64" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="P64" t="s">
-        <v>422</v>
+        <v>22</v>
       </c>
       <c r="Q64" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="B65" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>43971</v>
+        <v>44025</v>
       </c>
       <c r="D65" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="E65" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="H65" t="n">
-        <v>170437</v>
+        <v>92442</v>
       </c>
       <c r="I65" t="n">
-        <v>59.158</v>
+        <v>12.961</v>
       </c>
       <c r="J65" t="n">
-        <v>4255</v>
+        <v>1161</v>
       </c>
       <c r="K65" t="n">
-        <v>1.477</v>
+        <v>0.163</v>
       </c>
       <c r="L65" t="n">
-        <v>4473</v>
+        <v>1868</v>
       </c>
       <c r="M65" t="n">
-        <v>1.553</v>
+        <v>0.262</v>
       </c>
       <c r="N65" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="O65" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="P65" t="s">
-        <v>92</v>
+        <v>411</v>
       </c>
       <c r="Q65" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="B66" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>43971</v>
+        <v>44030</v>
       </c>
       <c r="D66" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="E66" t="s">
-        <v>433</v>
-      </c>
-      <c r="F66" t="s">
-        <v>434</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F66"/>
       <c r="G66" t="n">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="H66" t="n">
-        <v>332487</v>
+        <v>315846</v>
       </c>
       <c r="I66" t="n">
-        <v>17.283</v>
+        <v>9.579</v>
       </c>
       <c r="J66" t="n">
-        <v>10413</v>
+        <v>6100</v>
       </c>
       <c r="K66" t="n">
-        <v>0.541</v>
+        <v>0.185</v>
       </c>
       <c r="L66" t="n">
-        <v>7812</v>
+        <v>4566</v>
       </c>
       <c r="M66" t="n">
-        <v>0.406</v>
+        <v>0.138</v>
       </c>
       <c r="N66" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="O66" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="P66" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="Q66" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>43971</v>
+        <v>44028</v>
       </c>
       <c r="D67" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="E67" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="H67" t="n">
-        <v>7578029</v>
+        <v>1014149</v>
       </c>
       <c r="I67" t="n">
-        <v>51.928</v>
+        <v>9.255</v>
       </c>
       <c r="J67" t="n">
-        <v>225713</v>
+        <v>26772</v>
       </c>
       <c r="K67" t="n">
-        <v>1.547</v>
+        <v>0.244</v>
       </c>
       <c r="L67" t="n">
-        <v>227924</v>
+        <v>20570</v>
       </c>
       <c r="M67" t="n">
-        <v>1.562</v>
+        <v>0.188</v>
       </c>
       <c r="N67" t="s">
-        <v>439</v>
+        <v>217</v>
       </c>
       <c r="O67" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="P67" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="Q67" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="B68" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>43970</v>
+        <v>44030</v>
       </c>
       <c r="D68" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E68" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="H68" t="n">
-        <v>52335</v>
+        <v>1701400</v>
       </c>
       <c r="I68" t="n">
-        <v>4.041</v>
+        <v>44.955</v>
       </c>
       <c r="J68" t="n">
-        <v>1217</v>
+        <v>18927</v>
       </c>
       <c r="K68" t="n">
-        <v>0.094</v>
+        <v>0.5</v>
       </c>
       <c r="L68" t="n">
-        <v>1279</v>
+        <v>17137</v>
       </c>
       <c r="M68" t="n">
-        <v>0.099</v>
+        <v>0.453</v>
       </c>
       <c r="N68" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="O68" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="P68" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="Q68" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="B69" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>43970</v>
+        <v>44030</v>
       </c>
       <c r="D69" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>427</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="H69" t="n">
-        <v>618084</v>
+        <v>1936889</v>
       </c>
       <c r="I69" t="n">
-        <v>17.754</v>
+        <v>51.177</v>
       </c>
       <c r="J69" t="n">
-        <v>16130</v>
+        <v>24546</v>
       </c>
       <c r="K69" t="n">
-        <v>0.463</v>
+        <v>0.649</v>
       </c>
       <c r="L69" t="n">
-        <v>19387</v>
+        <v>22464</v>
       </c>
       <c r="M69" t="n">
-        <v>0.557</v>
+        <v>0.594</v>
       </c>
       <c r="N69" t="s">
-        <v>41</v>
+        <v>427</v>
       </c>
       <c r="O69" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="P69" t="s">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="Q69" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="B70" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>43971</v>
+        <v>44023</v>
       </c>
       <c r="D70" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="E70" t="s">
-        <v>456</v>
-      </c>
-      <c r="F70" t="s">
-        <v>457</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F70"/>
       <c r="G70" t="n">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="H70" t="n">
-        <v>31478</v>
+        <v>1360164</v>
       </c>
       <c r="I70" t="n">
-        <v>1.88</v>
+        <v>133.392</v>
       </c>
       <c r="J70" t="n">
-        <v>1042</v>
+        <v>11992</v>
       </c>
       <c r="K70" t="n">
-        <v>0.062</v>
+        <v>1.176</v>
       </c>
       <c r="L70" t="n">
-        <v>996</v>
+        <v>13593</v>
       </c>
       <c r="M70" t="n">
-        <v>0.059</v>
+        <v>1.333</v>
       </c>
       <c r="N70" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="O70" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="P70" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="Q70" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="B71" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>43971</v>
+        <v>44030</v>
       </c>
       <c r="D71" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
-      </c>
-      <c r="F71" t="s">
-        <v>465</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="F71"/>
       <c r="G71" t="n">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H71" t="n">
-        <v>196881</v>
+        <v>438990</v>
       </c>
       <c r="I71" t="n">
-        <v>28.934</v>
+        <v>152.371</v>
       </c>
       <c r="J71" t="n">
-        <v>6198</v>
+        <v>3406</v>
       </c>
       <c r="K71" t="n">
-        <v>0.911</v>
+        <v>1.182</v>
       </c>
       <c r="L71" t="n">
-        <v>5754</v>
+        <v>4256</v>
       </c>
       <c r="M71" t="n">
-        <v>0.846</v>
+        <v>1.477</v>
       </c>
       <c r="N71" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="O71" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="P71" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q71" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="B72" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>43969</v>
+        <v>44030</v>
       </c>
       <c r="D72" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>447</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="H72" t="n">
-        <v>191260</v>
+        <v>943733</v>
       </c>
       <c r="I72" t="n">
-        <v>32.692</v>
-      </c>
-      <c r="J72"/>
-      <c r="K72"/>
+        <v>49.056</v>
+      </c>
+      <c r="J72" t="n">
+        <v>18732</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.974</v>
+      </c>
       <c r="L72" t="n">
-        <v>635</v>
+        <v>14969</v>
       </c>
       <c r="M72" t="n">
-        <v>0.109</v>
+        <v>0.778</v>
       </c>
       <c r="N72" t="s">
-        <v>41</v>
+        <v>448</v>
       </c>
       <c r="O72" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="P72" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="Q72" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="B73" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>43969</v>
+        <v>44029</v>
       </c>
       <c r="D73" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>454</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="H73" t="n">
-        <v>294414</v>
+        <v>24676930</v>
       </c>
       <c r="I73" t="n">
-        <v>50.324</v>
-      </c>
-      <c r="J73"/>
-      <c r="K73"/>
+        <v>169.096</v>
+      </c>
+      <c r="J73" t="n">
+        <v>312362</v>
+      </c>
+      <c r="K73" t="n">
+        <v>2.14</v>
+      </c>
       <c r="L73" t="n">
-        <v>6020</v>
+        <v>281216</v>
       </c>
       <c r="M73" t="n">
-        <v>1.029</v>
+        <v>1.927</v>
       </c>
       <c r="N73" t="s">
-        <v>41</v>
+        <v>454</v>
       </c>
       <c r="O73" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="P73" t="s">
-        <v>475</v>
+        <v>22</v>
       </c>
       <c r="Q73" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="B74" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>43971</v>
+        <v>44025</v>
       </c>
       <c r="D74" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="E74" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="H74" t="n">
-        <v>148845</v>
+        <v>186674</v>
       </c>
       <c r="I74" t="n">
-        <v>27.263</v>
+        <v>14.413</v>
       </c>
       <c r="J74" t="n">
-        <v>3371</v>
+        <v>3333</v>
       </c>
       <c r="K74" t="n">
-        <v>0.617</v>
+        <v>0.257</v>
       </c>
       <c r="L74" t="n">
-        <v>3116</v>
+        <v>3327</v>
       </c>
       <c r="M74" t="n">
-        <v>0.571</v>
+        <v>0.257</v>
       </c>
       <c r="N74" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="O74" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="P74" t="s">
-        <v>482</v>
+        <v>50</v>
       </c>
       <c r="Q74" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="B75" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>43970</v>
+        <v>44030</v>
       </c>
       <c r="D75" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="E75" t="s">
-        <v>487</v>
+        <v>40</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H75" t="n">
-        <v>71951</v>
+        <v>2613498</v>
       </c>
       <c r="I75" t="n">
-        <v>34.61</v>
+        <v>75.071</v>
       </c>
       <c r="J75" t="n">
-        <v>981</v>
+        <v>62364</v>
       </c>
       <c r="K75" t="n">
-        <v>0.472</v>
+        <v>1.791</v>
       </c>
       <c r="L75" t="n">
-        <v>894</v>
+        <v>56642</v>
       </c>
       <c r="M75" t="n">
-        <v>0.43</v>
+        <v>1.627</v>
       </c>
       <c r="N75" t="s">
-        <v>488</v>
+        <v>40</v>
       </c>
       <c r="O75" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="P75" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="Q75" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="B76" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>43970</v>
+        <v>44029</v>
       </c>
       <c r="D76" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="E76" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="F76" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="G76" t="n">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="H76" t="n">
-        <v>488609</v>
+        <v>94862</v>
       </c>
       <c r="I76" t="n">
-        <v>8.238</v>
+        <v>5.665</v>
       </c>
       <c r="J76" t="n">
-        <v>13538</v>
+        <v>1074</v>
       </c>
       <c r="K76" t="n">
-        <v>0.228</v>
+        <v>0.064</v>
       </c>
       <c r="L76" t="n">
-        <v>16987</v>
+        <v>905</v>
       </c>
       <c r="M76" t="n">
-        <v>0.286</v>
+        <v>0.054</v>
       </c>
       <c r="N76" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="O76" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="P76" t="s">
-        <v>92</v>
+        <v>474</v>
       </c>
       <c r="Q76" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="B77" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>43971</v>
+        <v>44029</v>
       </c>
       <c r="D77" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="E77" t="s">
-        <v>501</v>
-      </c>
-      <c r="F77"/>
+        <v>40</v>
+      </c>
+      <c r="F77" t="s">
+        <v>479</v>
+      </c>
       <c r="G77" t="n">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="H77" t="n">
-        <v>776433</v>
+        <v>534488</v>
       </c>
       <c r="I77" t="n">
-        <v>15.144</v>
+        <v>78.548</v>
       </c>
       <c r="J77" t="n">
-        <v>10859</v>
+        <v>9910</v>
       </c>
       <c r="K77" t="n">
-        <v>0.212</v>
+        <v>1.456</v>
       </c>
       <c r="L77" t="n">
-        <v>11502</v>
+        <v>7735</v>
       </c>
       <c r="M77" t="n">
-        <v>0.224</v>
+        <v>1.137</v>
       </c>
       <c r="N77" t="s">
-        <v>501</v>
+        <v>40</v>
       </c>
       <c r="O77" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="P77" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="Q77" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="B78" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>43965</v>
+        <v>44025</v>
       </c>
       <c r="D78" t="s">
-        <v>506</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
-        <v>507</v>
+        <v>40</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H78" t="n">
-        <v>1919411</v>
+        <v>519911</v>
       </c>
       <c r="I78" t="n">
-        <v>41.053</v>
+        <v>88.868</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
       <c r="L78" t="n">
-        <v>42029</v>
+        <v>7558</v>
       </c>
       <c r="M78" t="n">
-        <v>0.899</v>
+        <v>1.292</v>
       </c>
       <c r="N78" t="s">
-        <v>508</v>
+        <v>40</v>
       </c>
       <c r="O78" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="P78" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="Q78" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="B79" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>43968</v>
+        <v>44025</v>
       </c>
       <c r="D79" t="s">
-        <v>513</v>
+        <v>32</v>
       </c>
       <c r="E79" t="s">
-        <v>514</v>
+        <v>40</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H79" t="n">
-        <v>209900</v>
+        <v>1009532</v>
       </c>
       <c r="I79" t="n">
-        <v>20.784</v>
+        <v>172.559</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79" t="n">
-        <v>4671</v>
+        <v>20445</v>
       </c>
       <c r="M79" t="n">
-        <v>0.463</v>
+        <v>3.495</v>
       </c>
       <c r="N79" t="s">
-        <v>514</v>
+        <v>40</v>
       </c>
       <c r="O79" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="P79" t="s">
-        <v>92</v>
+        <v>487</v>
       </c>
       <c r="Q79" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>516</v>
+        <v>488</v>
       </c>
       <c r="B80" t="s">
-        <v>517</v>
+        <v>489</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>43970</v>
+        <v>44030</v>
       </c>
       <c r="D80" t="s">
-        <v>518</v>
+        <v>32</v>
       </c>
       <c r="E80" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
         <v>113</v>
       </c>
       <c r="H80" t="n">
-        <v>355386</v>
+        <v>239795</v>
       </c>
       <c r="I80" t="n">
-        <v>41.063</v>
+        <v>43.921</v>
       </c>
       <c r="J80" t="n">
-        <v>3721</v>
+        <v>2161</v>
       </c>
       <c r="K80" t="n">
-        <v>0.43</v>
+        <v>0.396</v>
       </c>
       <c r="L80" t="n">
-        <v>4334</v>
+        <v>1567</v>
       </c>
       <c r="M80" t="n">
-        <v>0.501</v>
+        <v>0.287</v>
       </c>
       <c r="N80" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="O80" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="P80" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="Q80" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="B81" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>43970</v>
+        <v>44029</v>
       </c>
       <c r="D81" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="E81" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="H81" t="n">
-        <v>69876</v>
+        <v>120056</v>
       </c>
       <c r="I81" t="n">
-        <v>2.934</v>
+        <v>57.749</v>
       </c>
       <c r="J81" t="n">
-        <v>219</v>
+        <v>1027</v>
       </c>
       <c r="K81" t="n">
-        <v>0.009</v>
+        <v>0.494</v>
       </c>
       <c r="L81" t="n">
-        <v>253</v>
+        <v>913</v>
       </c>
       <c r="M81" t="n">
-        <v>0.011</v>
+        <v>0.439</v>
       </c>
       <c r="N81" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="O81" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="P81" t="s">
-        <v>527</v>
+        <v>22</v>
       </c>
       <c r="Q81" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="B82" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>43969</v>
+        <v>44029</v>
       </c>
       <c r="D82" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="E82" t="s">
-        <v>532</v>
-      </c>
-      <c r="F82"/>
+        <v>505</v>
+      </c>
+      <c r="F82" t="s">
+        <v>506</v>
+      </c>
       <c r="G82" t="n">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="H82" t="n">
-        <v>127108</v>
+        <v>2373053</v>
       </c>
       <c r="I82" t="n">
-        <v>1.821</v>
+        <v>40.012</v>
       </c>
       <c r="J82" t="n">
-        <v>4016</v>
+        <v>48130</v>
       </c>
       <c r="K82" t="n">
-        <v>0.058</v>
+        <v>0.812</v>
       </c>
       <c r="L82" t="n">
-        <v>3321</v>
+        <v>45117</v>
       </c>
       <c r="M82" t="n">
-        <v>0.048</v>
+        <v>0.761</v>
       </c>
       <c r="N82" t="s">
-        <v>533</v>
+        <v>505</v>
       </c>
       <c r="O82" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="P82" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q82" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="B83" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>43959</v>
+        <v>44030</v>
       </c>
       <c r="D83" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="E83" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="H83" t="n">
-        <v>286008</v>
+        <v>1437281</v>
       </c>
       <c r="I83" t="n">
-        <v>4.098</v>
-      </c>
-      <c r="J83"/>
-      <c r="K83"/>
+        <v>28.034</v>
+      </c>
+      <c r="J83" t="n">
+        <v>9374</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.183</v>
+      </c>
       <c r="L83" t="n">
-        <v>8307</v>
+        <v>9492</v>
       </c>
       <c r="M83" t="n">
-        <v>0.119</v>
+        <v>0.185</v>
       </c>
       <c r="N83" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="O83" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="P83" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="Q83" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B84" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>43969</v>
+        <v>44021</v>
       </c>
       <c r="D84" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="E84" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="H84" t="n">
-        <v>42489</v>
+        <v>3849701</v>
       </c>
       <c r="I84" t="n">
-        <v>3.595</v>
-      </c>
-      <c r="J84" t="n">
-        <v>869</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.074</v>
-      </c>
+        <v>82.338</v>
+      </c>
+      <c r="J84"/>
+      <c r="K84"/>
       <c r="L84" t="n">
-        <v>1230</v>
+        <v>29320</v>
       </c>
       <c r="M84" t="n">
-        <v>0.104</v>
+        <v>0.627</v>
       </c>
       <c r="N84" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="O84" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="P84" t="s">
-        <v>546</v>
+        <v>22</v>
       </c>
       <c r="Q84" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="B85" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>43971</v>
+        <v>44017</v>
       </c>
       <c r="D85" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="E85" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H85" t="n">
-        <v>1696355</v>
+        <v>597850</v>
       </c>
       <c r="I85" t="n">
-        <v>20.114</v>
-      </c>
-      <c r="J85" t="n">
-        <v>20838</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.247</v>
-      </c>
+        <v>59.197</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85"/>
       <c r="L85" t="n">
-        <v>31765</v>
+        <v>11092</v>
       </c>
       <c r="M85" t="n">
-        <v>0.377</v>
+        <v>1.098</v>
       </c>
       <c r="N85" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="O85" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="P85" t="s">
-        <v>553</v>
+        <v>89</v>
       </c>
       <c r="Q85" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="B86" t="s">
-        <v>556</v>
+        <v>529</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>43970</v>
+        <v>44024</v>
       </c>
       <c r="D86" t="s">
-        <v>557</v>
+        <v>530</v>
       </c>
       <c r="E86" t="s">
-        <v>558</v>
-      </c>
-      <c r="F86" t="s">
-        <v>559</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="F86"/>
       <c r="G86" t="n">
-        <v>42</v>
-      </c>
-      <c r="H86" t="n">
-        <v>76326</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1.669</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H86"/>
+      <c r="I86"/>
       <c r="J86" t="n">
-        <v>2228</v>
+        <v>11686</v>
       </c>
       <c r="K86" t="n">
-        <v>0.049</v>
+        <v>1.157</v>
       </c>
       <c r="L86" t="n">
-        <v>1736</v>
+        <v>11686</v>
       </c>
       <c r="M86" t="n">
-        <v>0.038</v>
+        <v>1.157</v>
       </c>
       <c r="N86" t="s">
-        <v>558</v>
+        <v>526</v>
       </c>
       <c r="O86" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="P86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q86" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="B87" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>43971</v>
+        <v>44029</v>
       </c>
       <c r="D87" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="E87" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>32</v>
+        <v>174</v>
       </c>
       <c r="H87" t="n">
-        <v>248529</v>
+        <v>722116</v>
       </c>
       <c r="I87" t="n">
-        <v>5.683</v>
+        <v>83.437</v>
       </c>
       <c r="J87" t="n">
-        <v>8568</v>
+        <v>4677</v>
       </c>
       <c r="K87" t="n">
-        <v>0.196</v>
+        <v>0.54</v>
       </c>
       <c r="L87" t="n">
-        <v>8040</v>
+        <v>5931</v>
       </c>
       <c r="M87" t="n">
-        <v>0.184</v>
+        <v>0.685</v>
       </c>
       <c r="N87" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="O87" t="s">
-        <v>566</v>
+        <v>534</v>
       </c>
       <c r="P87" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="Q87" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="B88" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>43971</v>
+        <v>44028</v>
       </c>
       <c r="D88" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="E88" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H88" t="n">
-        <v>1996648</v>
+        <v>79256</v>
       </c>
       <c r="I88" t="n">
-        <v>29.412</v>
+        <v>3.328</v>
       </c>
       <c r="J88" t="n">
-        <v>60744</v>
+        <v>191</v>
       </c>
       <c r="K88" t="n">
-        <v>0.895</v>
+        <v>0.008</v>
       </c>
       <c r="L88" t="n">
-        <v>67770</v>
+        <v>155</v>
       </c>
       <c r="M88" t="n">
-        <v>0.998</v>
+        <v>0.007</v>
       </c>
       <c r="N88" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="O88" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="P88" t="s">
-        <v>92</v>
+        <v>543</v>
       </c>
       <c r="Q88" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="B89" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>43971</v>
+        <v>44029</v>
       </c>
       <c r="D89" t="s">
-        <v>576</v>
+        <v>32</v>
       </c>
       <c r="E89" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="H89" t="n">
-        <v>2962227</v>
+        <v>342698</v>
       </c>
       <c r="I89" t="n">
-        <v>43.635</v>
+        <v>4.91</v>
       </c>
       <c r="J89" t="n">
-        <v>177216</v>
+        <v>4738</v>
       </c>
       <c r="K89" t="n">
-        <v>2.61</v>
+        <v>0.068</v>
       </c>
       <c r="L89" t="n">
-        <v>124003</v>
+        <v>2036</v>
       </c>
       <c r="M89" t="n">
-        <v>1.827</v>
+        <v>0.029</v>
       </c>
       <c r="N89" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="O89" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="P89" t="s">
-        <v>577</v>
+        <v>89</v>
       </c>
       <c r="Q89" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>579</v>
+        <v>545</v>
       </c>
       <c r="B90" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>43970</v>
+        <v>44008</v>
       </c>
       <c r="D90" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="E90" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H90" t="n">
-        <v>12233987</v>
+        <v>603657</v>
       </c>
       <c r="I90" t="n">
-        <v>36.96</v>
-      </c>
-      <c r="J90" t="n">
-        <v>399479</v>
-      </c>
-      <c r="K90" t="n">
-        <v>1.207</v>
-      </c>
+        <v>8.648</v>
+      </c>
+      <c r="J90"/>
+      <c r="K90"/>
       <c r="L90" t="n">
-        <v>366278</v>
+        <v>5052</v>
       </c>
       <c r="M90" t="n">
-        <v>1.107</v>
+        <v>0.072</v>
       </c>
       <c r="N90" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="O90" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
       <c r="P90" t="s">
-        <v>584</v>
+        <v>50</v>
       </c>
       <c r="Q90" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="B91" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D91" t="s">
-        <v>587</v>
-      </c>
+        <v>44029</v>
+      </c>
+      <c r="D91"/>
       <c r="E91" t="s">
-        <v>588</v>
-      </c>
-      <c r="F91"/>
+        <v>558</v>
+      </c>
+      <c r="F91" t="s">
+        <v>559</v>
+      </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="H91" t="n">
-        <v>12601143</v>
+        <v>37404</v>
       </c>
       <c r="I91" t="n">
-        <v>38.07</v>
+        <v>4.518</v>
       </c>
       <c r="J91" t="n">
-        <v>1318362</v>
+        <v>302</v>
       </c>
       <c r="K91" t="n">
-        <v>3.983</v>
+        <v>0.036</v>
       </c>
       <c r="L91" t="n">
-        <v>410895</v>
+        <v>397</v>
       </c>
       <c r="M91" t="n">
-        <v>1.241</v>
+        <v>0.048</v>
       </c>
       <c r="N91" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="O91" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="P91" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="Q91" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="B92" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>43971</v>
+        <v>44004</v>
       </c>
       <c r="D92" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
-      </c>
-      <c r="F92"/>
+        <v>565</v>
+      </c>
+      <c r="F92" t="s">
+        <v>566</v>
+      </c>
       <c r="G92" t="n">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="H92" t="n">
-        <v>34794</v>
+        <v>68104</v>
       </c>
       <c r="I92" t="n">
-        <v>10.016</v>
+        <v>5.762</v>
       </c>
       <c r="J92" t="n">
-        <v>410</v>
+        <v>648</v>
       </c>
       <c r="K92" t="n">
-        <v>0.118</v>
+        <v>0.055</v>
       </c>
       <c r="L92" t="n">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="M92" t="n">
-        <v>0.218</v>
+        <v>0.063</v>
       </c>
       <c r="N92" t="s">
-        <v>124</v>
+        <v>565</v>
       </c>
       <c r="O92" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="P92" t="s">
         <v>22</v>
       </c>
       <c r="Q92" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="B93" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>43950</v>
+        <v>44030</v>
       </c>
       <c r="D93" t="s">
-        <v>598</v>
+        <v>32</v>
       </c>
       <c r="E93" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="n">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="H93" t="n">
-        <v>261004</v>
+        <v>4191124</v>
       </c>
       <c r="I93" t="n">
-        <v>2.681</v>
-      </c>
-      <c r="J93"/>
-      <c r="K93"/>
+        <v>49.694</v>
+      </c>
+      <c r="J93" t="n">
+        <v>41215</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.489</v>
+      </c>
       <c r="L93" t="n">
-        <v>10906</v>
+        <v>37272</v>
       </c>
       <c r="M93" t="n">
-        <v>0.112</v>
+        <v>0.442</v>
       </c>
       <c r="N93" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="O93" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="P93" t="s">
-        <v>601</v>
+        <v>22</v>
       </c>
       <c r="Q93" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>574</v>
+      </c>
+      <c r="B94" t="s">
+        <v>575</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="D94" t="s">
+        <v>576</v>
+      </c>
+      <c r="E94" t="s">
+        <v>577</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94" t="n">
+        <v>100</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94" t="n">
+        <v>3696</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94" t="s">
+        <v>577</v>
+      </c>
+      <c r="O94" t="s">
+        <v>578</v>
+      </c>
+      <c r="P94" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>580</v>
+      </c>
+      <c r="B95" t="s">
+        <v>581</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E95" t="s">
+        <v>582</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95" t="n">
+        <v>86</v>
+      </c>
+      <c r="H95" t="n">
+        <v>864596</v>
+      </c>
+      <c r="I95" t="n">
+        <v>19.77</v>
+      </c>
+      <c r="J95" t="n">
+        <v>10532</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="L95" t="n">
+        <v>11108</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="N95" t="s">
+        <v>582</v>
+      </c>
+      <c r="O95" t="s">
+        <v>583</v>
+      </c>
+      <c r="P95" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>586</v>
+      </c>
+      <c r="B96" t="s">
+        <v>587</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="D96" t="s">
+        <v>588</v>
+      </c>
+      <c r="E96" t="s">
+        <v>589</v>
+      </c>
+      <c r="F96"/>
+      <c r="G96" t="n">
+        <v>141</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4461205</v>
+      </c>
+      <c r="I96" t="n">
+        <v>451.064</v>
+      </c>
+      <c r="J96" t="n">
+        <v>46950</v>
+      </c>
+      <c r="K96" t="n">
+        <v>4.747</v>
+      </c>
+      <c r="L96" t="n">
+        <v>47223</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4.775</v>
+      </c>
+      <c r="N96" t="s">
+        <v>589</v>
+      </c>
+      <c r="O96" t="s">
+        <v>590</v>
+      </c>
+      <c r="P96" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>592</v>
+      </c>
+      <c r="B97" t="s">
+        <v>593</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>44028</v>
+      </c>
+      <c r="D97" t="s">
+        <v>594</v>
+      </c>
+      <c r="E97" t="s">
+        <v>595</v>
+      </c>
+      <c r="F97" t="s">
+        <v>596</v>
+      </c>
+      <c r="G97" t="n">
+        <v>108</v>
+      </c>
+      <c r="H97" t="n">
+        <v>7658207</v>
+      </c>
+      <c r="I97" t="n">
+        <v>112.81</v>
+      </c>
+      <c r="J97" t="n">
+        <v>149215</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2.198</v>
+      </c>
+      <c r="L97" t="n">
+        <v>115528</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.702</v>
+      </c>
+      <c r="N97" t="s">
+        <v>595</v>
+      </c>
+      <c r="O97" t="s">
+        <v>597</v>
+      </c>
+      <c r="P97" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>599</v>
+      </c>
+      <c r="B98" t="s">
+        <v>600</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="D98" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" t="s">
+        <v>601</v>
+      </c>
+      <c r="F98"/>
+      <c r="G98" t="n">
+        <v>44</v>
+      </c>
+      <c r="H98" t="n">
+        <v>47313367</v>
+      </c>
+      <c r="I98" t="n">
+        <v>142.94</v>
+      </c>
+      <c r="J98" t="n">
+        <v>761762</v>
+      </c>
+      <c r="K98" t="n">
+        <v>2.301</v>
+      </c>
+      <c r="L98" t="n">
+        <v>932216</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2.816</v>
+      </c>
+      <c r="N98" t="s">
+        <v>601</v>
+      </c>
+      <c r="O98" t="s">
+        <v>602</v>
+      </c>
+      <c r="P98" t="s">
         <v>603</v>
       </c>
-      <c r="B94" t="s">
+      <c r="Q98" t="s">
         <v>604</v>
       </c>
-      <c r="C94" s="1" t="n">
-        <v>43970</v>
-      </c>
-      <c r="D94" t="s">
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>599</v>
+      </c>
+      <c r="B99" t="s">
         <v>605</v>
       </c>
-      <c r="E94" t="s">
+      <c r="C99" s="1" t="n">
+        <v>44029</v>
+      </c>
+      <c r="D99" t="s">
         <v>606</v>
       </c>
-      <c r="F94" t="s">
+      <c r="E99" t="s">
         <v>607</v>
       </c>
-      <c r="G94" t="n">
-        <v>13</v>
-      </c>
-      <c r="H94" t="n">
-        <v>14175</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.954</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1071</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.072</v>
-      </c>
-      <c r="L94" t="n">
-        <v>445</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N94" t="s">
-        <v>606</v>
-      </c>
-      <c r="O94" t="s">
+      <c r="F99"/>
+      <c r="G99" t="n">
+        <v>133</v>
+      </c>
+      <c r="H99" t="n">
+        <v>44203733</v>
+      </c>
+      <c r="I99" t="n">
+        <v>133.545</v>
+      </c>
+      <c r="J99" t="n">
+        <v>851788</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2.573</v>
+      </c>
+      <c r="L99" t="n">
+        <v>754902</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2.281</v>
+      </c>
+      <c r="N99" t="s">
+        <v>607</v>
+      </c>
+      <c r="O99" t="s">
         <v>608</v>
       </c>
-      <c r="P94" t="s">
+      <c r="P99" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>611</v>
+      </c>
+      <c r="B100" t="s">
+        <v>612</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>44028</v>
+      </c>
+      <c r="D100" t="s">
+        <v>613</v>
+      </c>
+      <c r="E100" t="s">
+        <v>120</v>
+      </c>
+      <c r="F100"/>
+      <c r="G100" t="n">
+        <v>101</v>
+      </c>
+      <c r="H100" t="n">
+        <v>82772</v>
+      </c>
+      <c r="I100" t="n">
+        <v>23.828</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100" t="n">
+        <v>962</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="N100" t="s">
+        <v>120</v>
+      </c>
+      <c r="O100" t="s">
+        <v>614</v>
+      </c>
+      <c r="P100" t="s">
         <v>22</v>
       </c>
-      <c r="Q94" t="s">
-        <v>609</v>
+      <c r="Q100" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>616</v>
+      </c>
+      <c r="B101" t="s">
+        <v>617</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>43950</v>
+      </c>
+      <c r="D101" t="s">
+        <v>618</v>
+      </c>
+      <c r="E101" t="s">
+        <v>619</v>
+      </c>
+      <c r="F101"/>
+      <c r="G101" t="n">
+        <v>37</v>
+      </c>
+      <c r="H101" t="n">
+        <v>261004</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2.681</v>
+      </c>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101" t="n">
+        <v>10906</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="N101" t="s">
+        <v>619</v>
+      </c>
+      <c r="O101" t="s">
+        <v>620</v>
+      </c>
+      <c r="P101" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>623</v>
+      </c>
+      <c r="B102" t="s">
+        <v>624</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>44025</v>
+      </c>
+      <c r="D102" t="s">
+        <v>625</v>
+      </c>
+      <c r="E102" t="s">
+        <v>626</v>
+      </c>
+      <c r="F102"/>
+      <c r="G102" t="n">
+        <v>67</v>
+      </c>
+      <c r="H102" t="n">
+        <v>37328</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2.511</v>
+      </c>
+      <c r="J102" t="n">
+        <v>412</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="L102" t="n">
+        <v>537</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="N102" t="s">
+        <v>626</v>
+      </c>
+      <c r="O102" t="s">
+        <v>627</v>
+      </c>
+      <c r="P102" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>628</v>
       </c>
     </row>
   </sheetData>

--- a/testing/covid-testing-latest-data-source-details.xlsx
+++ b/testing/covid-testing-latest-data-source-details.xlsx
@@ -68,23 +68,34 @@
     <t xml:space="preserve">ARG</t>
   </si>
   <si>
+    <t xml:space="preserve">Argentina - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://datos.gob.ar/dataset/salud-covid-19-casos-registrados-republica-argentina/archivo/salud_fd657d02-a33a-498b-a91b-2ef1a68b8d16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of people tested.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The government of Argentina publishes a complete time series of people tested on its open data portal: "Information updated daily at 8:00 p.m. notifying COVID-19 CASES registered in the country with a cut of the day at 5:45 p.m.".
+The dataset contains one row per person. We only keep rows with a non-empty diagnosis date ("fecha_diagnostico"), thereby filtering out people who were not tested. We then create a daily time series by calculating the number of rows for each date.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Argentina - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.argentina.gob.ar/sites/default/files/18-07-20_reporte-matutino_covid-19.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government of Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.argentina.gob.ar/coronavirus/informe-diario</t>
+    <t xml:space="preserve">https://datos.gob.ar/dataset/salud-covid-19-determinaciones-registradas-republica-argentina/archivo/salud_0de942d4-d106-4c74-b6b2-3654b0c53a3a</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed.</t>
   </si>
   <si>
-    <t xml:space="preserve">Two reports are published daily by the Government of Argentina. Since 8th April the morning report gives the cumulative total of "tests carried out" in the country. No information is given on the geographical scope and number of labs included.
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+    <t xml:space="preserve">The government of Argentina publishes a complete time series of tests performed on its open data portal: "Information updated daily at 8:00 p.m. notifying COVID-19 [tests] registered in the country at 17:45."
+The dataset is split by geographical location. We therefore create a daily time series by calculating the total number of tests ("total") for each date ("fecha").
+It is unclear whether the reported figures include pending test results.</t>
   </si>
   <si>
     <t xml:space="preserve">AUS</t>
@@ -93,7 +104,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/07/coronavirus-covid-19-at-a-glance-14-july-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/07/coronavirus-covid-19-at-a-glance-22-july-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -114,16 +125,13 @@
     <t xml:space="preserve">Austria - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://web.archive.org</t>
+    <t xml:space="preserve">https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">Austrian Ministry for Health</t>
   </si>
   <si>
     <t xml:space="preserve">Austria Health Ministry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sozialministerium.at/Informationen-zum-Coronavirus/Neuartiges-Coronavirus-(2019-nCov).html</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed</t>
@@ -142,13 +150,13 @@
     <t xml:space="preserve">Bahrain - units unclear</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.moh.gov.bh/COVID19</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ministry of Health</t>
   </si>
   <si>
     <t xml:space="preserve">Bahrain Ministry of Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.moh.gov.bh/COVID19</t>
   </si>
   <si>
     <t xml:space="preserve">The source reports the 'number of assessments' conducted. It is unclear whether this refers to the total number of tests conducted, or the number of people tested.</t>
@@ -188,7 +196,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-na-17-iyulya-vyzdoroveli-i-vypisany-57-tys-370-patsientov/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-vyzdoroveli-i-vypisany-59-755-patsientov/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -235,7 +243,7 @@
     <t xml:space="preserve">Bolivia - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/4399-bolivia-acumula-54-156-contagios-de-covid-19-tras-registrar-un-record-diario-de-1-938-nuevos-infectados</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/4418-bolivia-registra-1-778-contagios-nuevos-de-coronavirus-y-la-cifra-de-recuperados-asciende-a-19-721</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -256,13 +264,13 @@
     <t xml:space="preserve">Brazil - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.saude.gov.br/noticias/agencia-saude/47151-laboratorios-publicos-ampliam-em-869-capacidade-de-testagem-para-covid-19-no-brasil</t>
+    <t xml:space="preserve">https://www.saude.gov.br/noticias/agencia-saude/47230-portaria-torna-obrigatoria-notificacao-de-resultados-de-testes-da-covid-19</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health press release</t>
   </si>
   <si>
-    <t xml:space="preserve">Until June 30, 1.4 million RT-PCR exams were performed for Covid-19, 860,604 of which in the national network of public health laboratories and 618,067 in the main private laboratories in the country.</t>
+    <t xml:space="preserve">Until July 21, 2,536,552 million RT-PCR exams were performed for Covid-19, with 1,406,132 in the national network of public health laboratories and 1,130,420 in the main private laboratories in the country.</t>
   </si>
   <si>
     <t xml:space="preserve">Brazil Ministry of Health</t>
@@ -272,8 +280,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Ministry of Health press releases published on its website intermittently include figures for the number of PCR tests carried out for COVID-19.
-The most recent figure, for 29th May, explicitly relates to the number of PCR tests carried out in public laboratories. Two earlier press releases – for [20 April](https://www.saude.gov.br/noticias/agencia-saude/46768-chega-ao-pais-mais-500-mil-testes-de-biologia-molecular) and [7 April](https://www.saude.gov.br/noticias/agencia-saude/46707-saude-ja-distribuiu-quase-1-milhao-de-testes-para-coronavirus) are not explicit as to whether the figures they provide include or excluded private laboratories. The two April releases imply that the figure provided relates to the cumulative since February 16, stating that 'Tests for coronavirus began to be carried out from February 16 in public and private laboratories'.
-More recently, the Ministry of Health has begun reporting figures for the number of PCR and 'rapid tests' on a dashboard on its [Panel of beds and inputs](https://covid-insumos.saude.gov.br/paineis/insumos/painel.php) webpage. However we do not include these figures because they appear to relate to the number of tests distributed, rather than the number of tests performed. This is not made clear from the dashboard itself. However, the figures observed at this dashboard on 11 May correspond to those provided in a Ministry of Health press release on [12 May](https://www.saude.gov.br/noticias/agencia-saude/46868-ministerio-da-saude-ja-distribuiu-6-9-milhoes-de-testes-para-covid-19) which explicitly describes the figure as referring to the number of tests distributed.
+The most recent figures explicitly relate to the number of PCR tests carried out in public laboratories. Two earlier press releases – for [20 April](https://www.saude.gov.br/noticias/agencia-saude/46768-chega-ao-pais-mais-500-mil-testes-de-biologia-molecular) and [7 April](https://www.saude.gov.br/noticias/agencia-saude/46707-saude-ja-distribuiu-quase-1-milhao-de-testes-para-coronavirus) are not explicit as to whether the figures they provide include or excluded private laboratories. The two April releases imply that the figure provided relates to the cumulative since February 16, stating that 'Tests for coronavirus began to be carried out from February 16 in public and private laboratories'.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -283,13 +290,13 @@
     <t xml:space="preserve">Bulgaria - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://coronavirus.bg/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bulgaria COVID-10 Information Portal</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria COVID-19 Information Portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://coronavirus.bg/</t>
   </si>
   <si>
     <t xml:space="preserve">Bulgaria's official COVID-19 information portal provides irregular updates of the cumulative number of 'PCR tests done'.
@@ -303,13 +310,10 @@
     <t xml:space="preserve">Canada - people tested</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">Government of Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of people tested.</t>
   </si>
   <si>
     <t xml:space="preserve">The Government of Canada provides daily updates of the COVID-19 outbreak [here](https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html), which report the cumulative number of people tested to date. 
@@ -391,6 +395,9 @@
     <t xml:space="preserve">Croatia - people tested</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35</t>
+  </si>
+  <si>
     <t xml:space="preserve">Government of Croatia</t>
   </si>
   <si>
@@ -453,7 +460,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/CMR_Covid19_RDC/status/1284100058619797505/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/CMR_Covid19_RDC/status/1285933536210325509/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -471,7 +478,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/Data-epidemiologisk-rapport-17072020-ki84</t>
+    <t xml:space="preserve">https://files.ssi.dk/Data-Epidemiologiske-Rapport-24072020-ks34</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -489,7 +496,7 @@
     <t xml:space="preserve">Ecuador - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/07/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-17072020-08h00.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/07/INFOGRAFIA-NACIONALCOVID-19-147-COE-NACIONAL-08h00-23072020-ALM.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -514,7 +521,7 @@
     <t xml:space="preserve">El Salvador - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/nayibbukele/posts/3056118301141007</t>
+    <t xml:space="preserve">https://www.facebook.com/nayibbukele/posts/3083199355099568</t>
   </si>
   <si>
     <t xml:space="preserve">Government of El Salvador</t>
@@ -618,13 +625,13 @@
     <t xml:space="preserve">France - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.santepubliquefrance.fr/content/download/268121/2679369</t>
+    <t xml:space="preserve">https://www.santepubliquefrance.fr/content/download/269451/2684823</t>
   </si>
   <si>
     <t xml:space="preserve">National Public Health Agency</t>
   </si>
   <si>
-    <t xml:space="preserve">Dividing 346,035 (weekly total) by 7</t>
+    <t xml:space="preserve">Dividing 360,956 (weekly total) by 7</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.santepubliquefrance.fr/recherche/#search=COVID-19%20:%20point%20epidemiologique&amp;sort=dat</t>
@@ -655,7 +662,7 @@
     <t xml:space="preserve">Germany - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-07-15-de.pdf?__blob=publicationFile</t>
+    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-07-22-de.pdf?__blob=publicationFile</t>
   </si>
   <si>
     <t xml:space="preserve">Robert Koch Institut</t>
@@ -671,13 +678,14 @@
   </si>
   <si>
     <t xml:space="preserve">To determine how many laboratory tests regarding SARS-CoV-2 are carried out per calendar week in Germany and how many tests are positive or negative, the RKI has started a Germany-wide laboratory query. However, the number of laboratories reporting data seems to vary from week to week.
-The report published on 15th July states that “from the beginning of the collection up to and including calendar week 28/2020”:
-– The cumulative total of samples tested was 6,884,614;
-- For calendar week 28 (which ends 12th July), 171 labs reported 503,220 samples tested;
-- For calendar week 27 (which ends 5th July), 146 labs reported 499,486 samples tested;
-- For calendar week 26 (which ends 28 June), 176 labs reported 462,641 samples tested;
-- For calendar week 25 (which ends 21 June), 172 labs reported 384,142 samples tested;
-- For calendar week 24 (which ends 14 June), 170 labs reported 325,430 samples tested;
+The report published on 22nd July states that “from the beginning of the collection up to and including calendar week 29/2020”:
+– The cumulative total of samples tested was 7,418,812;
+- For calendar week 29 (which ends 19th July), 168 labs reported 531,571 samples tested;
+- For calendar week 28 (which ends 12th July), 175 labs reported 504,596 samples tested;
+- For calendar week 27 (which ends 5th July), 148 labs reported 500,122 samples tested;
+- For calendar week 26 (which ends 28 June), 177 labs reported 462,942 samples tested;
+- For calendar week 25 (which ends 21 June), 173 labs reported 384,311 samples tested;
+- For calendar week 24 (which ends 14 June), 171 labs reported 325,575 samples tested;
 - For calendar week 23 (which ends 7 June), 176 labs reported 340,986 samples tested;
 - For calendar week 22 (which ends 31 May), 178 labs reported 405,269 samples tested;
 - For calendar week 21( which ends 24 May), 179 labs reported 353,467 samples tested;
@@ -729,7 +737,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/en/imerisia-ekthesi-covid-19_17-07-2020/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200724/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -872,7 +880,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/343348</t>
+    <t xml:space="preserve">http://irangov.ir/detail/343812</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -909,7 +917,7 @@
     <t xml:space="preserve">Israel - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://govextra.gov.il/media/22494/covid19-data-israel-11072020.csv</t>
+    <t xml:space="preserve">https://govextra.gov.il/media/23021/covid19-data-israel-17072020.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Israel Ministry of Health</t>
@@ -968,13 +976,13 @@
     <t xml:space="preserve">Japan - people tested (incl. non-PCR)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_12515.html</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_12616.html</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Labor and Welfare Press Release</t>
   </si>
   <si>
-    <t xml:space="preserve">See Table: 国内の発生状況, column 1 '検査実施人数'. Daily change figure provided for this date is not consistent with the cumulative totals for today and the previous day.</t>
+    <t xml:space="preserve">See Table: 国内の発生状況, column 1 '検査実施人数'.</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Labor and Welfare</t>
@@ -993,10 +1001,10 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000650215.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cumulative total reported in the press release (870,432) does not sum to the cumulative total calculated from the weekly and daily figures reported by the MOH. See: https://www.mhlw.go.jp/content/10906000/000650215.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000651927.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cumulative total reported in the press release (943,692) does not sum to the cumulative total calculated from the weekly and daily figures reported by the MOH. See: https://www.mhlw.go.jp/content/10906000/000651927.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">On 11th April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the date on which results were determined" (via Google translate). 
@@ -1027,7 +1035,7 @@
     <t xml:space="preserve">Kenya - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1283030716612325377</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1286301199650762752</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -1051,7 +1059,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1284080484633513987/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1286269952035639296/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1100,6 +1108,9 @@
   </si>
   <si>
     <t xml:space="preserve">Luxembourg - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
@@ -1120,7 +1131,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/072020/situasi-terkini-18-julai-2020</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/072020/situasi-terkini-24-julai-2020</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1146,7 +1157,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1284171237221175297/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1285984866354573312/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1213,7 +1224,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1284185485867450368/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1285986731226005507/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1253,7 +1264,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1Vra6kB7rw1DWsiskFOEw0Hohy4CAa5ed</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1G0cbyBZzwdwg1ANtRlOq_2Z0r5UbVwcf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1273,7 +1284,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-07/COVID-19_WebSite_rapport_wekelijks_20200714_1040.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-07/COVID-19_WebSite_rapport_wekelijks_20200721_1135.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1310,6 +1321,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nigeria - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://covid19.ncdc.gov.ng/</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria Centre for Disease Control</t>
@@ -1356,7 +1370,7 @@
     <t xml:space="preserve">Oman - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/OmanVSCovid19/status/1284412747183198209</t>
+    <t xml:space="preserve">https://twitter.com/OmanVSCovid19/status/1286587083197485056</t>
   </si>
   <si>
     <t xml:space="preserve">Oman Ministry of Health</t>
@@ -1379,10 +1393,10 @@
     <t xml:space="preserve">Pakistan - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.covid.gov.pk/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Government of Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.covid.gov.pk/</t>
   </si>
   <si>
     <t xml:space="preserve">The government of Pakistan publishes a [dashboard showing up-to-date national data](http://www.covid.gov.pk/).
@@ -1434,7 +1448,7 @@
     <t xml:space="preserve">Peru - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/212348-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-345-537-en-el-peru-comunicado-n-174</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/215539-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-371-096-en-el-peru-comunicado-n-181</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1472,7 +1486,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1284412595970211841</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1286586924854120451</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1539,7 +1553,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/ro/media/comunicate/buletin-de-presa-18-iulie-2020-ora-13-00&amp;page=1</t>
+    <t xml:space="preserve">https://gov.ro/ro/media/comunicate/buletin-de-presa-24-iulie-2020-ora-13-00&amp;page=1</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -1562,7 +1576,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14956</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14998</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1582,7 +1596,7 @@
     <t xml:space="preserve">Rwanda - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1282764894325166087</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1286017266593734657</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1687,13 +1701,13 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.korona.gov.sk/</t>
+  </si>
+  <si>
     <t xml:space="preserve">National Health Information Centre</t>
   </si>
   <si>
     <t xml:space="preserve">National Center of Health Information and the Slovak Republic Government coronavirus information website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.korona.gov.sk/</t>
   </si>
   <si>
     <t xml:space="preserve">The number of completed laboratory tests.</t>
@@ -1761,7 +1775,7 @@
     <t xml:space="preserve">South Korea - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367835&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367894&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1781,7 +1795,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas_09_07_2020.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/en/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas_16_07_2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -1856,24 +1870,17 @@
     <t xml:space="preserve">TWN</t>
   </si>
   <si>
-    <t xml:space="preserve">Taiwan - units unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/Bulletin/Detail/XPpmmo4mofTng-lR7cG2yw?typeid=9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan Centers for Disease Control (CDC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cdc.gov.tw/en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The figures are labelled in the source only as 'tested'. It is unclear whether this relates to the number of individuals tested, or the number of samples tested.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Taiwanese Centers for Disease Control (CDC) host a dashboard in which they publish the total 'tested' to date, and 'new from yesterday'. It is not clear whether this represents the total number of tests performed, or the number of people tested. The number 'tested' appears to be somewhat greater than the sum of confirmed cases and 'excluded' (i.e. negative) test results. This either suggests that the figure relates to the number of tests performed, or that it relates to the number of people tested but includes some pending results or is affected by reporting delays.
-Although the CDC only show the last day's figures on this dashboard, we can construct a time-series of cumulative tests by looking at previous versions on web archive. Where possible we have tried to take the total test counts at the same time every day (those published at 00:30h), but a complete sequence of archives are not available on this basis. As such, day-to-day variation will be affected by differences in the time of publishing of the data used. Where no data was retreivable for a day, we used the 'new from yesterday' figure to calculate the total for the previous day.
-The date from which the total test figures date back to is not known; the CDC dashboard is unavailable in web archives prior to 21st March.
+    <t xml:space="preserve">Taiwan - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://data.cdc.gov.tw/en/dataset/daily-cases-suspected-sars-cov-2-infection_tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan CDC Open Data Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Taiwan Centers for Disease Control (CDC) publishes a complete time series of the number of cases tested on its open data portal.
+A technical specialist from the Taiwan CDC confirmed to Our World in Data that "in Taiwan, every notified case tests for SARS-CoV-2. The number of tests performed per notified case relate to the criteria for releasing COVID-19 confirmed cases from isolation, and the disease status of notified cases. There are three reporting portals provided for medical workers and public health workers to report a COVID-19 suspected case: "法定傳染病通報",  "居家檢疫送驗",  "擴大監測送驗". The number of COVID-19 related tests is the sum of column B(法定傳染病通報), C(居家檢疫送驗), and D(擴大監測送驗)."
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1883,39 +1890,27 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
+    <t xml:space="preserve">https://ddc.moph.go.th/viralpneumonia/file/situation/situation-no203-240763.pdf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Department of Disease Control</t>
   </si>
   <si>
-    <t xml:space="preserve">Thailand, Department of Disease Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ddc.moph.go.th/viralpneumonia/eng/situation.php</t>
+    <t xml:space="preserve">https://ddc.moph.go.th/viralpneumonia/situation.php</t>
   </si>
   <si>
     <t xml:space="preserve">The Thailand Department of Disease Control (DDC) issues daily situation reports which detail the status of confirmed cases, deaths and people being assessed.
 We provide the figures reported as "persons under investigation" (PUI). PUI is the sum of confirmed cases, the number of people who tested negative, and the number of people for whom results are still pending. All three figures are reported individually from 3rd March until 31st March. From 1st April onwards, the number of people who tested negative and the number for whom results are still pending are no longer reported separately.
 We have received communication from Thailand's Ministry of Public Health (MOPH) that individuals who did not meet PUI criteria can pay out of pocket to have their samples tested, referred to as the "non-PUI" group. This "non-PUI" group is large in the context of Thailand. This "non-PUI" group is not reflected in our current figures.
-The [World Health Organization Country Office for Thailand](https://www.who.int/thailand) also reports COVID-19 testing figures in daily situation reports. These figures are substantially larger than the DDC figures for two reasons. First, the DDC figures reflect "people tested", whereas the WHO Thailand figures reflect "samples tested". Second, the WHO Thailand figures appear to include all samples tested, regardless of whether the person being tested meets PUI criteria.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
-    <t xml:space="preserve">Thailand - samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.who.int/docs/default-source/searo/thailand/2020-06-29-tha-sitrep-94-covid19-r02.pdf?sfvrsn=56491ec5_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Health Organization Country Office for Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.who.int/thailand/emergencies/novel-coronavirus-2019/situation-reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The [World Health Organization Country Office for Thailand](https://www.who.int/thailand) provides daily COVID-19 situation reports that periodically report the cumulative number of samples tested to date.
-The reported figures include PCR tests only. It is unclear whether pending test results are included. 
-The reported figures include samples tested in both public and private labs. However, reporting delays appear to affect the figures. For example, [the figures for May 1st 2020](https://www.who.int/docs/default-source/searo/thailand/2020-05-04-tha-sitrep-71-covid19-final.pdf) reflect only 121 of 142 public and private laboratories certified for PCR testing.
-The earliest figure we have found is for April 10th 2020, at which point 100,498 samples had been tested. The reported figures are cumulative, but the situation reports do not state an exact date.
-The [Thailand Department of Disease Control (DDC)](https://ddc.moph.go.th/viralpneumonia/eng/situation.php) also reports COVID-19 testing figures in daily situation reports, which are reflected in the reported number of "persons under investigation" (PUI). These figures are substantially smaller than the WHO Thailand figures for two reasons. First, the DDC figures reflect "people tested", whereas the WHO Thailand figures reflect "samples tested". Second, we have received communication from Thailand's Ministry of Public Health (MOPH) that individuals who do not meet PUI criteria can pay out of pocket to have their samples tested, referred to as the "non-PUI" group. This "non-PUI" group is large in the context of Thailand and is not included in the DDC figures. In contrast, the WHO Thailand figures appear to include all samples tested, regardless of whether the person being tested meets PUI criteria.
+    <t xml:space="preserve">Thailand - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Thailand Department of Disease Control (DDC) issues daily situation reports which detail the status of confirmed cases, deaths and people being assessed.
+We provide the figures reported as "number of laboratory examinations". The reported figures include PCR tests only. It is unclear whether pending test results are included. 
+Prior to 1 July 2020, we collected data from the [World Health Organization Country Office for Thailand](https://www.who.int/thailand), which provides COVID-19 situation reports that periodically report the cumulative number of samples tested to date. The reported figures include samples tested in both public and private labs. However, reporting delays appear to affect the figures. For example, [the figures for May 1st 2020](https://www.who.int/docs/default-source/searo/thailand/2020-05-04-tha-sitrep-71-covid19-final.pdf) reflect only 121 of 142 public and private laboratories certified for PCR testing. The earliest figure we have found is for April 10th 2020, at which point 100,498 samples had been tested. The reported figures are cumulative, but the situation reports do not state an exact date.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1969,10 +1964,10 @@
     <t xml:space="preserve">Turkey - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://covid19.saglik.gov.tr/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Turkish Ministry of Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://covid19.saglik.gov.tr/</t>
   </si>
   <si>
     <t xml:space="preserve">The Turkish Ministry of Health now publishes a daily chart of Coronavirus confirmed cases, deaths, recoveries, total tests ("TOPLAM TEST SAYISI"), and tests today ("BUGÜNKÜ TEST SAYISI").
@@ -1988,7 +1983,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1284399085257142272</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1286602491161976834</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2009,6 +2004,9 @@
     <t xml:space="preserve">Ukraine - units unclear</t>
   </si>
   <si>
+    <t xml:space="preserve">https://covid19.gov.ua/en</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
   </si>
   <si>
@@ -2049,7 +2047,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/901750/2020-07-17-COVID-19-UK-testing-time-series.csv</t>
+    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/903777/2020-07-24-COVID-19-UK-testing-time-series.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -2077,10 +2075,10 @@
     <t xml:space="preserve">United States - tests performed (CDC) (incl. non-PCR)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States CDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed. The figures are the sum across states, some of which appear to include antibody tests in addition to PCR tests.</t>
@@ -2129,7 +2127,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-interes-actualizada-sobre-coronavirus-covid-19-uruguay-15072020</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-interes-actualizada-sobre-coronavirus-covid-19-uruguay-33</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2170,7 +2168,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1282783346448379904</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1285999775872098304</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2581,7 +2579,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44030</v>
+        <v>44034</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -2591,2066 +2589,2068 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="H2" t="n">
-        <v>531753</v>
+        <v>503860</v>
       </c>
       <c r="I2" t="n">
-        <v>11.766</v>
+        <v>11.148</v>
       </c>
       <c r="J2" t="n">
-        <v>12472</v>
+        <v>10122</v>
       </c>
       <c r="K2" t="n">
-        <v>0.276</v>
+        <v>0.224</v>
       </c>
       <c r="L2" t="n">
-        <v>10816</v>
+        <v>9798</v>
       </c>
       <c r="M2" t="n">
-        <v>0.239</v>
+        <v>0.217</v>
       </c>
       <c r="N2" t="s">
         <v>20</v>
       </c>
       <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>44026</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="H3" t="n">
-        <v>3162237</v>
+        <v>618415</v>
       </c>
       <c r="I3" t="n">
-        <v>124.01</v>
+        <v>13.683</v>
       </c>
       <c r="J3" t="n">
-        <v>44449</v>
+        <v>12078</v>
       </c>
       <c r="K3" t="n">
-        <v>1.743</v>
+        <v>0.267</v>
       </c>
       <c r="L3" t="n">
-        <v>51590</v>
+        <v>11735</v>
       </c>
       <c r="M3" t="n">
-        <v>2.023</v>
+        <v>0.26</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="H4" t="n">
-        <v>743090</v>
+        <v>3650529</v>
       </c>
       <c r="I4" t="n">
-        <v>82.507</v>
+        <v>143.159</v>
       </c>
       <c r="J4" t="n">
-        <v>8677</v>
+        <v>59794</v>
       </c>
       <c r="K4" t="n">
-        <v>0.963</v>
+        <v>2.345</v>
       </c>
       <c r="L4" t="n">
-        <v>7340</v>
+        <v>61198</v>
       </c>
       <c r="M4" t="n">
-        <v>0.815</v>
+        <v>2.4</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44030</v>
+        <v>44036</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="H5" t="n">
-        <v>710686</v>
+        <v>833841</v>
       </c>
       <c r="I5" t="n">
-        <v>417.662</v>
+        <v>92.583</v>
       </c>
       <c r="J5" t="n">
-        <v>7684</v>
+        <v>7810</v>
       </c>
       <c r="K5" t="n">
-        <v>4.516</v>
+        <v>0.867</v>
       </c>
       <c r="L5" t="n">
-        <v>8809</v>
+        <v>14204</v>
       </c>
       <c r="M5" t="n">
-        <v>5.177</v>
+        <v>1.577</v>
       </c>
       <c r="N5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44026</v>
+        <v>44035</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="H6" t="n">
-        <v>966400</v>
+        <v>760733</v>
       </c>
       <c r="I6" t="n">
-        <v>5.868</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13453</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.082</v>
-      </c>
+        <v>447.074</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6"/>
       <c r="L6" t="n">
-        <v>12846</v>
+        <v>9599</v>
       </c>
       <c r="M6" t="n">
-        <v>0.078</v>
+        <v>5.641</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44029</v>
+        <v>44035</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="H7" t="n">
-        <v>1172880</v>
+        <v>1079007</v>
       </c>
       <c r="I7" t="n">
-        <v>124.123</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
+        <v>6.552</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12398</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.075</v>
+      </c>
       <c r="L7" t="n">
-        <v>8338</v>
+        <v>12254</v>
       </c>
       <c r="M7" t="n">
-        <v>0.882</v>
+        <v>0.074</v>
       </c>
       <c r="N7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="O7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Q7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44028</v>
+        <v>44036</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="H8" t="n">
-        <v>1110824</v>
+        <v>1230684</v>
       </c>
       <c r="I8" t="n">
-        <v>95.846</v>
+        <v>130.24</v>
       </c>
       <c r="J8" t="n">
-        <v>8754</v>
+        <v>10979</v>
       </c>
       <c r="K8" t="n">
-        <v>0.755</v>
+        <v>1.162</v>
       </c>
       <c r="L8" t="n">
-        <v>8089</v>
+        <v>8258</v>
       </c>
       <c r="M8" t="n">
-        <v>0.698</v>
+        <v>0.874</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P8" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44028</v>
+        <v>44034</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H9" t="n">
-        <v>111112</v>
+        <v>1158585</v>
       </c>
       <c r="I9" t="n">
-        <v>9.519</v>
+        <v>99.968</v>
       </c>
       <c r="J9" t="n">
-        <v>2875</v>
+        <v>7136</v>
       </c>
       <c r="K9" t="n">
-        <v>0.246</v>
+        <v>0.616</v>
       </c>
       <c r="L9" t="n">
-        <v>2322</v>
+        <v>7793</v>
       </c>
       <c r="M9" t="n">
-        <v>0.199</v>
+        <v>0.672</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" t="n">
+        <v>130</v>
+      </c>
+      <c r="H10" t="n">
+        <v>127167</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10.894</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2832</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2704</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s">
         <v>71</v>
       </c>
-      <c r="B10" t="s">
+      <c r="Q10" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>44012</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1478671</v>
-      </c>
-      <c r="I10" t="n">
-        <v>6.957</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2536552</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.933</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11" t="n">
+        <v>50375</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="N11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" t="s">
         <v>79</v>
       </c>
-      <c r="B11" t="s">
+      <c r="P11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" t="s">
         <v>80</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11" t="n">
-        <v>78</v>
-      </c>
-      <c r="H11" t="n">
-        <v>201363</v>
-      </c>
-      <c r="I11" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4884</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.703</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4148</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44030</v>
+        <v>44036</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="H12" t="n">
-        <v>3437965</v>
+        <v>227668</v>
       </c>
       <c r="I12" t="n">
-        <v>91.091</v>
+        <v>32.765</v>
       </c>
       <c r="J12" t="n">
-        <v>50286</v>
+        <v>5913</v>
       </c>
       <c r="K12" t="n">
-        <v>1.332</v>
+        <v>0.851</v>
       </c>
       <c r="L12" t="n">
-        <v>42191</v>
+        <v>4456</v>
       </c>
       <c r="M12" t="n">
-        <v>1.118</v>
+        <v>0.641</v>
       </c>
       <c r="N12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P12" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" t="n">
+        <v>126</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3697322</v>
+      </c>
+      <c r="I13" t="n">
+        <v>97.963</v>
+      </c>
+      <c r="J13" t="n">
+        <v>37544</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="L13" t="n">
+        <v>44235</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.172</v>
+      </c>
+      <c r="N13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" t="s">
         <v>91</v>
-      </c>
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" t="n">
-        <v>108</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1370603</v>
-      </c>
-      <c r="I13" t="n">
-        <v>71.698</v>
-      </c>
-      <c r="J13" t="n">
-        <v>18699</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="L13" t="n">
-        <v>16463</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.861</v>
-      </c>
-      <c r="N13" t="s">
-        <v>95</v>
-      </c>
-      <c r="O13" t="s">
-        <v>96</v>
-      </c>
-      <c r="P13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" t="n">
+        <v>114</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1464640</v>
+      </c>
+      <c r="I14" t="n">
+        <v>76.618</v>
+      </c>
+      <c r="J14" t="n">
+        <v>18867</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16105</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="N14" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" t="s">
         <v>98</v>
-      </c>
-      <c r="B14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14" t="n">
-        <v>135</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1159562</v>
-      </c>
-      <c r="I14" t="n">
-        <v>22.789</v>
-      </c>
-      <c r="J14" t="n">
-        <v>26055</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.512</v>
-      </c>
-      <c r="L14" t="n">
-        <v>27300</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.537</v>
-      </c>
-      <c r="N14" t="s">
-        <v>101</v>
-      </c>
-      <c r="O14" t="s">
-        <v>102</v>
-      </c>
-      <c r="P14" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44028</v>
+        <v>44034</v>
       </c>
       <c r="D15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H15" t="n">
-        <v>53824</v>
+        <v>1292501</v>
       </c>
       <c r="I15" t="n">
-        <v>10.566</v>
+        <v>25.401</v>
       </c>
       <c r="J15" t="n">
-        <v>1503</v>
+        <v>28801</v>
       </c>
       <c r="K15" t="n">
-        <v>0.295</v>
+        <v>0.566</v>
       </c>
       <c r="L15" t="n">
-        <v>1562</v>
+        <v>26336</v>
       </c>
       <c r="M15" t="n">
-        <v>0.307</v>
+        <v>0.518</v>
       </c>
       <c r="N15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O15" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="Q15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44030</v>
+        <v>44034</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H16" t="n">
-        <v>102189</v>
+        <v>61481</v>
       </c>
       <c r="I16" t="n">
-        <v>24.892</v>
+        <v>12.069</v>
       </c>
       <c r="J16" t="n">
-        <v>1338</v>
+        <v>1228</v>
       </c>
       <c r="K16" t="n">
-        <v>0.326</v>
+        <v>0.241</v>
       </c>
       <c r="L16" t="n">
-        <v>1340</v>
+        <v>1309</v>
       </c>
       <c r="M16" t="n">
-        <v>0.326</v>
+        <v>0.257</v>
       </c>
       <c r="N16" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" t="n">
+        <v>135</v>
+      </c>
+      <c r="H17" t="n">
+        <v>109358</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26.638</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1136</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1215</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="N17" t="s">
+        <v>115</v>
+      </c>
+      <c r="O17" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" t="s">
         <v>117</v>
       </c>
-      <c r="B17" t="s">
+      <c r="Q17" t="s">
         <v>118</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>44028</v>
-      </c>
-      <c r="D17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" t="n">
-        <v>117</v>
-      </c>
-      <c r="H17" t="n">
-        <v>220739</v>
-      </c>
-      <c r="I17" t="n">
-        <v>19.489</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3179</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.281</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3152</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="N17" t="s">
-        <v>120</v>
-      </c>
-      <c r="O17" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="n">
+        <v>124</v>
+      </c>
+      <c r="H18" t="n">
+        <v>240894</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21.268</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3075</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2879</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="N18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" t="s">
         <v>125</v>
       </c>
-      <c r="B18" t="s">
+      <c r="Q18" t="s">
         <v>126</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>44028</v>
-      </c>
-      <c r="D18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18" t="n">
-        <v>166</v>
-      </c>
-      <c r="H18" t="n">
-        <v>614297</v>
-      </c>
-      <c r="I18" t="n">
-        <v>57.363</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3655</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3524</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="N18" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" t="s">
-        <v>128</v>
-      </c>
-      <c r="P18" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44028</v>
+        <v>44035</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>78</v>
-      </c>
-      <c r="H19"/>
-      <c r="I19"/>
+        <v>173</v>
+      </c>
+      <c r="H19" t="n">
+        <v>650650</v>
+      </c>
+      <c r="I19" t="n">
+        <v>60.757</v>
+      </c>
       <c r="J19" t="n">
-        <v>464</v>
+        <v>5557</v>
       </c>
       <c r="K19" t="n">
-        <v>0.005</v>
+        <v>0.519</v>
       </c>
       <c r="L19" t="n">
-        <v>562</v>
+        <v>4704</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006</v>
+        <v>0.439</v>
       </c>
       <c r="N19" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="O19" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P19" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44028</v>
+        <v>44033</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>158</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1282638</v>
-      </c>
-      <c r="I20" t="n">
-        <v>221.442</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
       <c r="J20" t="n">
-        <v>3842</v>
+        <v>741</v>
       </c>
       <c r="K20" t="n">
-        <v>0.663</v>
+        <v>0.008</v>
       </c>
       <c r="L20" t="n">
-        <v>12396</v>
+        <v>582</v>
       </c>
       <c r="M20" t="n">
-        <v>2.14</v>
+        <v>0.006</v>
       </c>
       <c r="N20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P20" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Q20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21" t="n">
+        <v>166</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1386501</v>
+      </c>
+      <c r="I21" t="n">
+        <v>239.374</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4024</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="L21" t="n">
+        <v>13018</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="N21" t="s">
+        <v>141</v>
+      </c>
+      <c r="O21" t="s">
         <v>142</v>
       </c>
-      <c r="B21" t="s">
+      <c r="P21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" t="s">
         <v>143</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" t="s">
-        <v>146</v>
-      </c>
-      <c r="G21" t="n">
-        <v>118</v>
-      </c>
-      <c r="H21" t="n">
-        <v>150361</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8.522</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2368</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2221</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="N21" t="s">
-        <v>145</v>
-      </c>
-      <c r="O21" t="s">
-        <v>147</v>
-      </c>
-      <c r="P21" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" t="n">
+        <v>124</v>
+      </c>
+      <c r="H22" t="n">
+        <v>163598</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9.273</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2155</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2229</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="N22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O22" t="s">
         <v>149</v>
       </c>
-      <c r="B22" t="s">
+      <c r="P22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q22" t="s">
         <v>150</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>44025</v>
-      </c>
-      <c r="D22" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22"/>
-      <c r="G22" t="n">
-        <v>95</v>
-      </c>
-      <c r="H22" t="n">
-        <v>197151</v>
-      </c>
-      <c r="I22" t="n">
-        <v>30.395</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2496</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2470</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="N22" t="s">
-        <v>152</v>
-      </c>
-      <c r="O22" t="s">
-        <v>153</v>
-      </c>
-      <c r="P22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44029</v>
+        <v>44034</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="H23" t="n">
-        <v>114279</v>
+        <v>219391</v>
       </c>
       <c r="I23" t="n">
-        <v>86.148</v>
+        <v>33.824</v>
       </c>
       <c r="J23" t="n">
-        <v>294</v>
+        <v>2475</v>
       </c>
       <c r="K23" t="n">
-        <v>0.222</v>
+        <v>0.382</v>
       </c>
       <c r="L23" t="n">
-        <v>354</v>
+        <v>2466</v>
       </c>
       <c r="M23" t="n">
-        <v>0.267</v>
+        <v>0.38</v>
       </c>
       <c r="N23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O23" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="Q23" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44011</v>
+        <v>44035</v>
       </c>
       <c r="D24" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="H24" t="n">
-        <v>250604</v>
+        <v>116333</v>
       </c>
       <c r="I24" t="n">
-        <v>2.18</v>
+        <v>87.697</v>
       </c>
       <c r="J24" t="n">
-        <v>3693</v>
+        <v>383</v>
       </c>
       <c r="K24" t="n">
-        <v>0.032</v>
+        <v>0.289</v>
       </c>
       <c r="L24" t="n">
-        <v>4434</v>
+        <v>336</v>
       </c>
       <c r="M24" t="n">
-        <v>0.039</v>
+        <v>0.253</v>
       </c>
       <c r="N24" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O24" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P24" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="Q24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44024</v>
+        <v>44011</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="H25" t="n">
-        <v>5937</v>
+        <v>250604</v>
       </c>
       <c r="I25" t="n">
-        <v>6.623</v>
+        <v>2.18</v>
       </c>
       <c r="J25" t="n">
-        <v>97</v>
+        <v>3693</v>
       </c>
       <c r="K25" t="n">
-        <v>0.108</v>
+        <v>0.032</v>
       </c>
       <c r="L25" t="n">
-        <v>89</v>
+        <v>4434</v>
       </c>
       <c r="M25" t="n">
-        <v>0.099</v>
+        <v>0.039</v>
       </c>
       <c r="N25" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P25" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="D26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" t="s">
         <v>174</v>
-      </c>
-      <c r="B26" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D26" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" t="s">
-        <v>177</v>
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H26" t="n">
-        <v>305908</v>
+        <v>6414</v>
       </c>
       <c r="I26" t="n">
-        <v>55.211</v>
+        <v>7.155</v>
       </c>
       <c r="J26" t="n">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="K26" t="n">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="L26" t="n">
-        <v>2676</v>
+        <v>68</v>
       </c>
       <c r="M26" t="n">
-        <v>0.483</v>
+        <v>0.076</v>
       </c>
       <c r="N26" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="O26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q26" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="D27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27"/>
+      <c r="G27" t="n">
+        <v>149</v>
+      </c>
+      <c r="H27" t="n">
+        <v>330094</v>
+      </c>
+      <c r="I27" t="n">
+        <v>59.576</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4305</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3900</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="N27" t="s">
         <v>180</v>
       </c>
-      <c r="B27" t="s">
+      <c r="O27" t="s">
+        <v>178</v>
+      </c>
+      <c r="P27" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q27" t="s">
         <v>181</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>44023</v>
-      </c>
-      <c r="D27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" t="s">
-        <v>183</v>
-      </c>
-      <c r="F27" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27" t="n">
-        <v>55</v>
-      </c>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27" t="n">
-        <v>49434</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="L27" t="n">
-        <v>49434</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.757</v>
-      </c>
-      <c r="N27" t="s">
-        <v>183</v>
-      </c>
-      <c r="O27" t="s">
-        <v>185</v>
-      </c>
-      <c r="P27" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="D28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E28" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" t="n">
+        <v>63</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28" t="n">
+        <v>51565</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L28" t="n">
+        <v>51565</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="N28" t="s">
+        <v>185</v>
+      </c>
+      <c r="O28" t="s">
         <v>187</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>43956</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="P28" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q28" t="s">
         <v>188</v>
-      </c>
-      <c r="E28" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" t="s">
-        <v>189</v>
-      </c>
-      <c r="G28" t="n">
-        <v>24</v>
-      </c>
-      <c r="H28" t="n">
-        <v>831174</v>
-      </c>
-      <c r="I28" t="n">
-        <v>12.734</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28" t="n">
-        <v>15229</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="N28" t="s">
-        <v>183</v>
-      </c>
-      <c r="O28" t="s">
-        <v>185</v>
-      </c>
-      <c r="P28" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>43956</v>
+      </c>
+      <c r="D29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" t="s">
         <v>191</v>
       </c>
-      <c r="B29" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>44024</v>
-      </c>
-      <c r="D29" t="s">
-        <v>193</v>
-      </c>
-      <c r="E29" t="s">
-        <v>194</v>
-      </c>
-      <c r="F29" t="s">
-        <v>195</v>
-      </c>
       <c r="G29" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H29" t="n">
-        <v>6884614</v>
+        <v>831174</v>
       </c>
       <c r="I29" t="n">
-        <v>82.171</v>
+        <v>12.734</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>71889</v>
+        <v>15229</v>
       </c>
       <c r="M29" t="n">
-        <v>0.858</v>
+        <v>0.233</v>
       </c>
       <c r="N29" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="O29" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
       <c r="Q29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>44031</v>
+      </c>
+      <c r="D30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" t="n">
+        <v>20</v>
+      </c>
+      <c r="H30" t="n">
+        <v>7418812</v>
+      </c>
+      <c r="I30" t="n">
+        <v>88.547</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30" t="n">
+        <v>75939</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="N30" t="s">
+        <v>196</v>
+      </c>
+      <c r="O30" t="s">
+        <v>198</v>
+      </c>
+      <c r="P30" t="s">
         <v>199</v>
       </c>
-      <c r="B30" t="s">
+      <c r="Q30" t="s">
         <v>200</v>
-      </c>
-      <c r="C30" s="1" t="n">
-        <v>44026</v>
-      </c>
-      <c r="D30" t="s">
-        <v>201</v>
-      </c>
-      <c r="E30" t="s">
-        <v>202</v>
-      </c>
-      <c r="F30"/>
-      <c r="G30" t="n">
-        <v>83</v>
-      </c>
-      <c r="H30" t="n">
-        <v>341919</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11.004</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2428</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2353</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="N30" t="s">
-        <v>203</v>
-      </c>
-      <c r="O30" t="s">
-        <v>204</v>
-      </c>
-      <c r="P30" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="D31" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E31" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="H31" t="n">
-        <v>402672</v>
+        <v>361542</v>
       </c>
       <c r="I31" t="n">
-        <v>38.633</v>
+        <v>11.635</v>
       </c>
       <c r="J31" t="n">
-        <v>4325</v>
+        <v>4322</v>
       </c>
       <c r="K31" t="n">
-        <v>0.415</v>
+        <v>0.139</v>
       </c>
       <c r="L31" t="n">
-        <v>5609</v>
+        <v>3150</v>
       </c>
       <c r="M31" t="n">
-        <v>0.538</v>
+        <v>0.101</v>
       </c>
       <c r="N31" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="O31" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P31" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="Q31" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44026</v>
+        <v>44036</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E32" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="H32" t="n">
-        <v>442256</v>
+        <v>436510</v>
       </c>
       <c r="I32" t="n">
-        <v>58.991</v>
-      </c>
-      <c r="J32"/>
-      <c r="K32"/>
+        <v>41.879</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5646</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.542</v>
+      </c>
       <c r="L32" t="n">
-        <v>6773</v>
+        <v>4834</v>
       </c>
       <c r="M32" t="n">
-        <v>0.903</v>
+        <v>0.464</v>
       </c>
       <c r="N32" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O32" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P32" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Q32" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="D33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33" t="n">
+        <v>7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>524969</v>
+      </c>
+      <c r="I33" t="n">
+        <v>70.024</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33" t="n">
+        <v>8454</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="N33" t="s">
+        <v>220</v>
+      </c>
+      <c r="O33" t="s">
         <v>221</v>
       </c>
-      <c r="B33" t="s">
+      <c r="P33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" t="s">
         <v>222</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>44025</v>
-      </c>
-      <c r="D33" t="s">
-        <v>223</v>
-      </c>
-      <c r="E33" t="s">
-        <v>224</v>
-      </c>
-      <c r="F33" t="s">
-        <v>225</v>
-      </c>
-      <c r="G33" t="n">
-        <v>130</v>
-      </c>
-      <c r="H33" t="n">
-        <v>295561</v>
-      </c>
-      <c r="I33" t="n">
-        <v>30.595</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1136</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1354</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N33" t="s">
-        <v>224</v>
-      </c>
-      <c r="O33" t="s">
-        <v>226</v>
-      </c>
-      <c r="P33" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="D34" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" t="n">
+        <v>138</v>
+      </c>
+      <c r="H34" t="n">
+        <v>310830</v>
+      </c>
+      <c r="I34" t="n">
+        <v>32.176</v>
+      </c>
+      <c r="J34" t="n">
+        <v>760</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2067</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="N34" t="s">
+        <v>226</v>
+      </c>
+      <c r="O34" t="s">
+        <v>228</v>
+      </c>
+      <c r="P34" t="s">
         <v>229</v>
       </c>
-      <c r="B34" t="s">
+      <c r="Q34" t="s">
         <v>230</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D34" t="s">
-        <v>231</v>
-      </c>
-      <c r="E34" t="s">
-        <v>232</v>
-      </c>
-      <c r="F34"/>
-      <c r="G34" t="n">
-        <v>142</v>
-      </c>
-      <c r="H34" t="n">
-        <v>68511</v>
-      </c>
-      <c r="I34" t="n">
-        <v>200.765</v>
-      </c>
-      <c r="J34" t="n">
-        <v>189</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.554</v>
-      </c>
-      <c r="L34" t="n">
-        <v>112</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.328</v>
-      </c>
-      <c r="N34" t="s">
-        <v>232</v>
-      </c>
-      <c r="O34" t="s">
-        <v>231</v>
-      </c>
-      <c r="P34" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E35" t="s">
         <v>234</v>
       </c>
-      <c r="B35" t="s">
+      <c r="F35"/>
+      <c r="G35" t="n">
+        <v>148</v>
+      </c>
+      <c r="H35" t="n">
+        <v>68808</v>
+      </c>
+      <c r="I35" t="n">
+        <v>201.635</v>
+      </c>
+      <c r="J35" t="n">
+        <v>53</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="L35" t="n">
+        <v>69</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="N35" t="s">
+        <v>234</v>
+      </c>
+      <c r="O35" t="s">
+        <v>233</v>
+      </c>
+      <c r="P35" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" t="s">
         <v>235</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>43945</v>
-      </c>
-      <c r="D35" t="s">
-        <v>236</v>
-      </c>
-      <c r="E35" t="s">
-        <v>237</v>
-      </c>
-      <c r="F35" t="s">
-        <v>238</v>
-      </c>
-      <c r="G35" t="n">
-        <v>24</v>
-      </c>
-      <c r="H35" t="n">
-        <v>525667</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="J35" t="n">
-        <v>40495</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="L35" t="n">
-        <v>29603</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="N35" t="s">
-        <v>237</v>
-      </c>
-      <c r="O35" t="s">
-        <v>236</v>
-      </c>
-      <c r="P35" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>43945</v>
+      </c>
+      <c r="D36" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" t="s">
         <v>240</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D36" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36" t="s">
-        <v>237</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" t="n">
+        <v>24</v>
+      </c>
+      <c r="H36" t="n">
+        <v>525667</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="J36" t="n">
+        <v>40495</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L36" t="n">
+        <v>29603</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N36" t="s">
+        <v>239</v>
+      </c>
+      <c r="O36" t="s">
         <v>238</v>
       </c>
-      <c r="G36" t="n">
-        <v>116</v>
-      </c>
-      <c r="H36" t="n">
-        <v>13433742</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9.735</v>
-      </c>
-      <c r="J36" t="n">
-        <v>361024</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="L36" t="n">
-        <v>303820</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="N36" t="s">
-        <v>237</v>
-      </c>
-      <c r="O36" t="s">
-        <v>236</v>
-      </c>
       <c r="P36" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q36" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s">
         <v>242</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44030</v>
+        <v>44036</v>
       </c>
       <c r="D37" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>244</v>
-      </c>
-      <c r="F37"/>
+        <v>239</v>
+      </c>
+      <c r="F37" t="s">
+        <v>240</v>
+      </c>
       <c r="G37" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H37" t="n">
-        <v>697043</v>
+        <v>15428170</v>
       </c>
       <c r="I37" t="n">
-        <v>2.548</v>
+        <v>11.18</v>
       </c>
       <c r="J37" t="n">
-        <v>13238</v>
+        <v>352801</v>
       </c>
       <c r="K37" t="n">
-        <v>0.048</v>
+        <v>0.256</v>
       </c>
       <c r="L37" t="n">
-        <v>12421</v>
+        <v>336493</v>
       </c>
       <c r="M37" t="n">
-        <v>0.045</v>
+        <v>0.244</v>
       </c>
       <c r="N37" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O37" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P37" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="Q37" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44029</v>
+        <v>44036</v>
       </c>
       <c r="D38" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E38" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="H38" t="n">
-        <v>2098985</v>
+        <v>777100</v>
       </c>
       <c r="I38" t="n">
-        <v>24.99</v>
+        <v>2.841</v>
       </c>
       <c r="J38" t="n">
-        <v>25194</v>
+        <v>14143</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3</v>
+        <v>0.052</v>
       </c>
       <c r="L38" t="n">
-        <v>25212</v>
+        <v>13328</v>
       </c>
       <c r="M38" t="n">
-        <v>0.3</v>
+        <v>0.049</v>
       </c>
       <c r="N38" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="O38" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P38" t="s">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="Q38" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44030</v>
+        <v>44036</v>
       </c>
       <c r="D39" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H39" t="n">
-        <v>550728</v>
+        <v>2278384</v>
       </c>
       <c r="I39" t="n">
-        <v>111.533</v>
+        <v>27.126</v>
       </c>
       <c r="J39" t="n">
-        <v>9154</v>
+        <v>24261</v>
       </c>
       <c r="K39" t="n">
-        <v>1.854</v>
+        <v>0.289</v>
       </c>
       <c r="L39" t="n">
-        <v>7164</v>
+        <v>25628</v>
       </c>
       <c r="M39" t="n">
-        <v>1.451</v>
+        <v>0.305</v>
       </c>
       <c r="N39" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O39" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q39" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D40" t="s">
+        <v>258</v>
+      </c>
+      <c r="E40" t="s">
         <v>259</v>
-      </c>
-      <c r="B40" t="s">
-        <v>260</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>44023</v>
-      </c>
-      <c r="D40" t="s">
-        <v>261</v>
-      </c>
-      <c r="E40" t="s">
-        <v>262</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="H40" t="n">
-        <v>1266627</v>
+        <v>592202</v>
       </c>
       <c r="I40" t="n">
-        <v>146.337</v>
+        <v>119.932</v>
       </c>
       <c r="J40" t="n">
-        <v>20377</v>
+        <v>8980</v>
       </c>
       <c r="K40" t="n">
-        <v>2.354</v>
+        <v>1.819</v>
       </c>
       <c r="L40" t="n">
-        <v>25835</v>
+        <v>7233</v>
       </c>
       <c r="M40" t="n">
-        <v>2.985</v>
+        <v>1.465</v>
       </c>
       <c r="N40" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="O40" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P40" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q40" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>44029</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E41" t="s">
-        <v>268</v>
-      </c>
-      <c r="F41" t="s">
-        <v>269</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="F41"/>
       <c r="G41" t="n">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="H41" t="n">
-        <v>3692257</v>
+        <v>1436994</v>
       </c>
       <c r="I41" t="n">
-        <v>61.068</v>
+        <v>166.02</v>
       </c>
       <c r="J41" t="n">
-        <v>28661</v>
+        <v>25706</v>
       </c>
       <c r="K41" t="n">
-        <v>0.474</v>
+        <v>2.97</v>
       </c>
       <c r="L41" t="n">
-        <v>24554</v>
+        <v>27234</v>
       </c>
       <c r="M41" t="n">
-        <v>0.406</v>
+        <v>3.146</v>
       </c>
       <c r="N41" t="s">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c r="O41" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P41" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="Q41" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B42" t="s">
+        <v>268</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D42" t="s">
+        <v>269</v>
+      </c>
+      <c r="E42" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" t="s">
+        <v>271</v>
+      </c>
+      <c r="G42" t="n">
+        <v>97</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3869759</v>
+      </c>
+      <c r="I42" t="n">
+        <v>64.003</v>
+      </c>
+      <c r="J42" t="n">
+        <v>28970</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="L42" t="n">
+        <v>25357</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="N42" t="s">
+        <v>272</v>
+      </c>
+      <c r="O42" t="s">
         <v>273</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D42" t="s">
-        <v>267</v>
-      </c>
-      <c r="E42" t="s">
-        <v>268</v>
-      </c>
-      <c r="F42" t="s">
-        <v>269</v>
-      </c>
-      <c r="G42" t="n">
-        <v>145</v>
-      </c>
-      <c r="H42" t="n">
-        <v>6154259</v>
-      </c>
-      <c r="I42" t="n">
-        <v>101.788</v>
-      </c>
-      <c r="J42" t="n">
-        <v>50767</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="L42" t="n">
-        <v>42805</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.708</v>
-      </c>
-      <c r="N42" t="s">
-        <v>270</v>
-      </c>
-      <c r="O42" t="s">
-        <v>271</v>
-      </c>
       <c r="P42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q42" t="s">
         <v>274</v>
@@ -4658,1682 +4658,1680 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" t="s">
         <v>275</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D43" t="s">
+        <v>269</v>
+      </c>
+      <c r="E43" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" t="s">
+        <v>271</v>
+      </c>
+      <c r="G43" t="n">
+        <v>152</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6468375</v>
+      </c>
+      <c r="I43" t="n">
+        <v>106.983</v>
+      </c>
+      <c r="J43" t="n">
+        <v>53334</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.882</v>
+      </c>
+      <c r="L43" t="n">
+        <v>44874</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="N43" t="s">
+        <v>272</v>
+      </c>
+      <c r="O43" t="s">
+        <v>273</v>
+      </c>
+      <c r="P43" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" t="s">
         <v>276</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D43" t="s">
-        <v>277</v>
-      </c>
-      <c r="E43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F43" t="s">
-        <v>279</v>
-      </c>
-      <c r="G43" t="n">
-        <v>156</v>
-      </c>
-      <c r="H43" t="n">
-        <v>626149</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4.951</v>
-      </c>
-      <c r="J43" t="n">
-        <v>9100</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.072</v>
-      </c>
-      <c r="L43" t="n">
-        <v>10642</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="N43" t="s">
-        <v>280</v>
-      </c>
-      <c r="O43" t="s">
-        <v>281</v>
-      </c>
-      <c r="P43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B44" t="s">
+        <v>278</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D44" t="s">
+        <v>279</v>
+      </c>
+      <c r="E44" t="s">
+        <v>280</v>
+      </c>
+      <c r="F44" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" t="n">
+        <v>162</v>
+      </c>
+      <c r="H44" t="n">
+        <v>697512</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.515</v>
+      </c>
+      <c r="J44" t="n">
+        <v>9476</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="L44" t="n">
+        <v>11495</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="N44" t="s">
+        <v>282</v>
+      </c>
+      <c r="O44" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>44028</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="P44" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q44" t="s">
         <v>284</v>
-      </c>
-      <c r="E44" t="s">
-        <v>278</v>
-      </c>
-      <c r="F44" t="s">
-        <v>285</v>
-      </c>
-      <c r="G44" t="n">
-        <v>38</v>
-      </c>
-      <c r="H44" t="n">
-        <v>860512</v>
-      </c>
-      <c r="I44" t="n">
-        <v>6.804</v>
-      </c>
-      <c r="J44" t="n">
-        <v>13537</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="L44" t="n">
-        <v>12313</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="N44" t="s">
-        <v>280</v>
-      </c>
-      <c r="O44" t="s">
-        <v>281</v>
-      </c>
-      <c r="P44" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="D45" t="s">
+        <v>286</v>
+      </c>
+      <c r="E45" t="s">
+        <v>280</v>
+      </c>
+      <c r="F45" t="s">
         <v>287</v>
       </c>
-      <c r="B45" t="s">
+      <c r="G45" t="n">
+        <v>37</v>
+      </c>
+      <c r="H45" t="n">
+        <v>930432</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7.357</v>
+      </c>
+      <c r="J45" t="n">
+        <v>12734</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="L45" t="n">
+        <v>14302</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="N45" t="s">
+        <v>282</v>
+      </c>
+      <c r="O45" t="s">
+        <v>283</v>
+      </c>
+      <c r="P45" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" t="s">
         <v>288</v>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>44027</v>
-      </c>
-      <c r="D45" t="s">
-        <v>289</v>
-      </c>
-      <c r="E45" t="s">
-        <v>290</v>
-      </c>
-      <c r="F45"/>
-      <c r="G45" t="n">
-        <v>123</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1737546</v>
-      </c>
-      <c r="I45" t="n">
-        <v>92.537</v>
-      </c>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45" t="n">
-        <v>11143</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.593</v>
-      </c>
-      <c r="N45" t="s">
-        <v>290</v>
-      </c>
-      <c r="O45" t="s">
-        <v>289</v>
-      </c>
-      <c r="P45" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>289</v>
+      </c>
+      <c r="B46" t="s">
+        <v>290</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="D46" t="s">
+        <v>291</v>
+      </c>
+      <c r="E46" t="s">
         <v>292</v>
-      </c>
-      <c r="B46" t="s">
-        <v>293</v>
-      </c>
-      <c r="C46" s="1" t="n">
-        <v>44026</v>
-      </c>
-      <c r="D46" t="s">
-        <v>294</v>
-      </c>
-      <c r="E46" t="s">
-        <v>295</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="H46" t="n">
-        <v>221234</v>
+        <v>1823332</v>
       </c>
       <c r="I46" t="n">
-        <v>4.114</v>
+        <v>97.106</v>
       </c>
       <c r="J46" t="n">
-        <v>4992</v>
+        <v>17359</v>
       </c>
       <c r="K46" t="n">
-        <v>0.093</v>
+        <v>0.924</v>
       </c>
       <c r="L46" t="n">
-        <v>3968</v>
+        <v>12255</v>
       </c>
       <c r="M46" t="n">
-        <v>0.074</v>
+        <v>0.653</v>
       </c>
       <c r="N46" t="s">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="O46" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P46" t="s">
-        <v>297</v>
+        <v>25</v>
       </c>
       <c r="Q46" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44029</v>
+        <v>44035</v>
       </c>
       <c r="D47" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E47" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="H47" t="n">
-        <v>452970</v>
+        <v>261027</v>
       </c>
       <c r="I47" t="n">
-        <v>106.068</v>
+        <v>4.854</v>
       </c>
       <c r="J47" t="n">
-        <v>3445</v>
+        <v>6754</v>
       </c>
       <c r="K47" t="n">
-        <v>0.807</v>
+        <v>0.126</v>
       </c>
       <c r="L47" t="n">
-        <v>3709</v>
+        <v>4520</v>
       </c>
       <c r="M47" t="n">
-        <v>0.869</v>
+        <v>0.084</v>
       </c>
       <c r="N47" t="s">
-        <v>302</v>
+        <v>43</v>
       </c>
       <c r="O47" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P47" t="s">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="Q47" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>301</v>
+      </c>
+      <c r="B48" t="s">
+        <v>302</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D48" t="s">
+        <v>303</v>
+      </c>
+      <c r="E48" t="s">
+        <v>304</v>
+      </c>
+      <c r="F48"/>
+      <c r="G48" t="n">
+        <v>72</v>
+      </c>
+      <c r="H48" t="n">
+        <v>474808</v>
+      </c>
+      <c r="I48" t="n">
+        <v>111.182</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3808</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3612</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="N48" t="s">
+        <v>304</v>
+      </c>
+      <c r="O48" t="s">
         <v>305</v>
       </c>
-      <c r="B48" t="s">
+      <c r="P48" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q48" t="s">
         <v>306</v>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D48" t="s">
-        <v>307</v>
-      </c>
-      <c r="E48" t="s">
-        <v>308</v>
-      </c>
-      <c r="F48" t="s">
-        <v>309</v>
-      </c>
-      <c r="G48" t="n">
-        <v>141</v>
-      </c>
-      <c r="H48" t="n">
-        <v>179636</v>
-      </c>
-      <c r="I48" t="n">
-        <v>95.237</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1751</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.928</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1737</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.921</v>
-      </c>
-      <c r="N48" t="s">
-        <v>308</v>
-      </c>
-      <c r="O48" t="s">
-        <v>307</v>
-      </c>
-      <c r="P48" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>307</v>
+      </c>
+      <c r="B49" t="s">
+        <v>308</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D49" t="s">
+        <v>309</v>
+      </c>
+      <c r="E49" t="s">
+        <v>310</v>
+      </c>
+      <c r="F49" t="s">
         <v>311</v>
       </c>
-      <c r="B49" t="s">
+      <c r="G49" t="n">
+        <v>147</v>
+      </c>
+      <c r="H49" t="n">
+        <v>188485</v>
+      </c>
+      <c r="I49" t="n">
+        <v>99.928</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1510</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.801</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1514</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="N49" t="s">
+        <v>310</v>
+      </c>
+      <c r="O49" t="s">
+        <v>309</v>
+      </c>
+      <c r="P49" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" t="s">
         <v>312</v>
-      </c>
-      <c r="C49" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D49" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49"/>
-      <c r="G49" t="n">
-        <v>106</v>
-      </c>
-      <c r="H49" t="n">
-        <v>476121</v>
-      </c>
-      <c r="I49" t="n">
-        <v>174.897</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3317</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1.218</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2898</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.065</v>
-      </c>
-      <c r="N49" t="s">
-        <v>40</v>
-      </c>
-      <c r="O49" t="s">
-        <v>313</v>
-      </c>
-      <c r="P49" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>313</v>
+      </c>
+      <c r="B50" t="s">
+        <v>314</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D50" t="s">
         <v>315</v>
       </c>
-      <c r="B50" t="s">
-        <v>316</v>
-      </c>
-      <c r="C50" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D50" t="s">
-        <v>32</v>
-      </c>
       <c r="E50" t="s">
-        <v>317</v>
+        <v>43</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="H50" t="n">
-        <v>325741</v>
+        <v>497245</v>
       </c>
       <c r="I50" t="n">
-        <v>520.373</v>
+        <v>182.657</v>
       </c>
       <c r="J50" t="n">
-        <v>10785</v>
+        <v>3380</v>
       </c>
       <c r="K50" t="n">
-        <v>17.229</v>
+        <v>1.242</v>
       </c>
       <c r="L50" t="n">
-        <v>8472</v>
+        <v>3018</v>
       </c>
       <c r="M50" t="n">
-        <v>13.534</v>
+        <v>1.109</v>
       </c>
       <c r="N50" t="s">
-        <v>317</v>
+        <v>43</v>
       </c>
       <c r="O50" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="P50" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Q50" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>317</v>
+      </c>
+      <c r="B51" t="s">
+        <v>318</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D51" t="s">
+        <v>319</v>
+      </c>
+      <c r="E51" t="s">
         <v>320</v>
       </c>
-      <c r="B51" t="s">
+      <c r="F51"/>
+      <c r="G51" t="n">
+        <v>109</v>
+      </c>
+      <c r="H51" t="n">
+        <v>387437</v>
+      </c>
+      <c r="I51" t="n">
+        <v>618.933</v>
+      </c>
+      <c r="J51" t="n">
+        <v>12181</v>
+      </c>
+      <c r="K51" t="n">
+        <v>19.459</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8814</v>
+      </c>
+      <c r="M51" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="N51" t="s">
+        <v>320</v>
+      </c>
+      <c r="O51" t="s">
         <v>321</v>
       </c>
-      <c r="C51" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="P51" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" t="s">
         <v>322</v>
-      </c>
-      <c r="E51" t="s">
-        <v>323</v>
-      </c>
-      <c r="F51" t="s">
-        <v>324</v>
-      </c>
-      <c r="G51" t="n">
-        <v>130</v>
-      </c>
-      <c r="H51" t="n">
-        <v>884170</v>
-      </c>
-      <c r="I51" t="n">
-        <v>27.318</v>
-      </c>
-      <c r="J51" t="n">
-        <v>7948</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="L51" t="n">
-        <v>5956</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="N51" t="s">
-        <v>40</v>
-      </c>
-      <c r="O51" t="s">
-        <v>325</v>
-      </c>
-      <c r="P51" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>323</v>
+      </c>
+      <c r="B52" t="s">
+        <v>324</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D52" t="s">
+        <v>325</v>
+      </c>
+      <c r="E52" t="s">
+        <v>326</v>
+      </c>
+      <c r="F52" t="s">
         <v>327</v>
       </c>
-      <c r="B52" t="s">
+      <c r="G52" t="n">
+        <v>136</v>
+      </c>
+      <c r="H52" t="n">
+        <v>925188</v>
+      </c>
+      <c r="I52" t="n">
+        <v>28.585</v>
+      </c>
+      <c r="J52" t="n">
+        <v>8848</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6995</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="N52" t="s">
+        <v>43</v>
+      </c>
+      <c r="O52" t="s">
         <v>328</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="P52" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q52" t="s">
         <v>329</v>
-      </c>
-      <c r="E52" t="s">
-        <v>330</v>
-      </c>
-      <c r="F52"/>
-      <c r="G52" t="n">
-        <v>107</v>
-      </c>
-      <c r="H52" t="n">
-        <v>65799</v>
-      </c>
-      <c r="I52" t="n">
-        <v>121.728</v>
-      </c>
-      <c r="J52" t="n">
-        <v>623</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1.153</v>
-      </c>
-      <c r="L52" t="n">
-        <v>831</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.537</v>
-      </c>
-      <c r="N52" t="s">
-        <v>331</v>
-      </c>
-      <c r="O52" t="s">
-        <v>332</v>
-      </c>
-      <c r="P52" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44025</v>
+        <v>44034</v>
       </c>
       <c r="D53" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E53" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="H53" t="n">
-        <v>108553</v>
+        <v>69370</v>
       </c>
       <c r="I53" t="n">
-        <v>245.851</v>
+        <v>128.334</v>
       </c>
       <c r="J53" t="n">
-        <v>931</v>
+        <v>674</v>
       </c>
       <c r="K53" t="n">
-        <v>2.109</v>
+        <v>1.247</v>
       </c>
       <c r="L53" t="n">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="M53" t="n">
-        <v>1.692</v>
+        <v>1.356</v>
       </c>
       <c r="N53" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P53" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Q53" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B54" t="s">
+        <v>338</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>44030</v>
+      </c>
+      <c r="D54" t="s">
+        <v>339</v>
+      </c>
+      <c r="E54" t="s">
         <v>340</v>
-      </c>
-      <c r="B54" t="s">
-        <v>341</v>
-      </c>
-      <c r="C54" s="1" t="n">
-        <v>44025</v>
-      </c>
-      <c r="D54" t="s">
-        <v>342</v>
-      </c>
-      <c r="E54" t="s">
-        <v>343</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="H54" t="n">
-        <v>703791</v>
+        <v>113237</v>
       </c>
       <c r="I54" t="n">
-        <v>5.459</v>
+        <v>256.46</v>
       </c>
       <c r="J54" t="n">
-        <v>9575</v>
+        <v>834</v>
       </c>
       <c r="K54" t="n">
-        <v>0.074</v>
+        <v>1.889</v>
       </c>
       <c r="L54" t="n">
-        <v>9490</v>
+        <v>867</v>
       </c>
       <c r="M54" t="n">
-        <v>0.074</v>
+        <v>1.964</v>
       </c>
       <c r="N54" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="O54" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P54" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="Q54" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B55" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44029</v>
+        <v>44031</v>
       </c>
       <c r="D55" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E55" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="H55" t="n">
-        <v>973404</v>
+        <v>779142</v>
       </c>
       <c r="I55" t="n">
-        <v>26.372</v>
+        <v>6.043</v>
       </c>
       <c r="J55" t="n">
-        <v>19689</v>
+        <v>2927</v>
       </c>
       <c r="K55" t="n">
-        <v>0.533</v>
+        <v>0.023</v>
       </c>
       <c r="L55" t="n">
-        <v>17758</v>
+        <v>10463</v>
       </c>
       <c r="M55" t="n">
-        <v>0.481</v>
+        <v>0.081</v>
       </c>
       <c r="N55" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="O55" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P55" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q55" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>350</v>
+      </c>
+      <c r="B56" t="s">
+        <v>351</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="D56" t="s">
+        <v>352</v>
+      </c>
+      <c r="E56" t="s">
         <v>353</v>
-      </c>
-      <c r="B56" t="s">
-        <v>354</v>
-      </c>
-      <c r="C56" s="1" t="n">
-        <v>44025</v>
-      </c>
-      <c r="D56" t="s">
-        <v>355</v>
-      </c>
-      <c r="E56" t="s">
-        <v>356</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="H56" t="n">
-        <v>94872</v>
+        <v>1065833</v>
       </c>
       <c r="I56" t="n">
-        <v>1.744</v>
+        <v>28.876</v>
       </c>
       <c r="J56" t="n">
-        <v>704</v>
+        <v>19027</v>
       </c>
       <c r="K56" t="n">
-        <v>0.013</v>
+        <v>0.515</v>
       </c>
       <c r="L56" t="n">
-        <v>1318</v>
+        <v>18826</v>
       </c>
       <c r="M56" t="n">
-        <v>0.024</v>
+        <v>0.51</v>
       </c>
       <c r="N56" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O56" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="P56" t="s">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="Q56" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>356</v>
+      </c>
+      <c r="B57" t="s">
+        <v>357</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="D57" t="s">
+        <v>358</v>
+      </c>
+      <c r="E57" t="s">
         <v>359</v>
-      </c>
-      <c r="B57" t="s">
-        <v>360</v>
-      </c>
-      <c r="C57" s="1" t="n">
-        <v>44028</v>
-      </c>
-      <c r="D57" t="s">
-        <v>361</v>
-      </c>
-      <c r="E57" t="s">
-        <v>362</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="H57" t="n">
-        <v>303810</v>
+        <v>106673</v>
       </c>
       <c r="I57" t="n">
-        <v>10.427</v>
+        <v>1.961</v>
       </c>
       <c r="J57" t="n">
-        <v>4981</v>
+        <v>1038</v>
       </c>
       <c r="K57" t="n">
-        <v>0.171</v>
+        <v>0.019</v>
       </c>
       <c r="L57" t="n">
-        <v>4666</v>
+        <v>1289</v>
       </c>
       <c r="M57" t="n">
-        <v>0.16</v>
+        <v>0.024</v>
       </c>
       <c r="N57" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O57" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P57" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Q57" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>362</v>
+      </c>
+      <c r="B58" t="s">
+        <v>363</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D58" t="s">
+        <v>364</v>
+      </c>
+      <c r="E58" t="s">
         <v>365</v>
-      </c>
-      <c r="B58" t="s">
-        <v>366</v>
-      </c>
-      <c r="C58" s="1" t="n">
-        <v>44025</v>
-      </c>
-      <c r="D58" t="s">
-        <v>367</v>
-      </c>
-      <c r="E58" t="s">
-        <v>368</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="H58" t="n">
-        <v>764079</v>
+        <v>331095</v>
       </c>
       <c r="I58" t="n">
-        <v>44.592</v>
+        <v>11.363</v>
       </c>
       <c r="J58" t="n">
-        <v>5361</v>
+        <v>3481</v>
       </c>
       <c r="K58" t="n">
-        <v>0.313</v>
+        <v>0.119</v>
       </c>
       <c r="L58" t="n">
-        <v>9990</v>
+        <v>3898</v>
       </c>
       <c r="M58" t="n">
-        <v>0.583</v>
+        <v>0.134</v>
       </c>
       <c r="N58" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="O58" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P58" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="Q58" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B59" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44029</v>
+        <v>44032</v>
       </c>
       <c r="D59" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>371</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="H59" t="n">
-        <v>441123</v>
+        <v>851885</v>
       </c>
       <c r="I59" t="n">
-        <v>91.477</v>
+        <v>49.716</v>
       </c>
       <c r="J59" t="n">
-        <v>2403</v>
+        <v>8029</v>
       </c>
       <c r="K59" t="n">
-        <v>0.498</v>
+        <v>0.469</v>
       </c>
       <c r="L59" t="n">
-        <v>2050</v>
+        <v>11033</v>
       </c>
       <c r="M59" t="n">
-        <v>0.425</v>
+        <v>0.644</v>
       </c>
       <c r="N59" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="O59" t="s">
+        <v>373</v>
+      </c>
+      <c r="P59" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q59" t="s">
         <v>374</v>
-      </c>
-      <c r="P59" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>375</v>
+      </c>
+      <c r="B60" t="s">
+        <v>376</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D60" t="s">
         <v>377</v>
       </c>
-      <c r="B60" t="s">
-        <v>378</v>
-      </c>
-      <c r="C60" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D60" t="s">
-        <v>32</v>
-      </c>
       <c r="E60" t="s">
-        <v>379</v>
+        <v>43</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="H60" t="n">
-        <v>206422</v>
+        <v>451616</v>
       </c>
       <c r="I60" t="n">
-        <v>1.001</v>
+        <v>93.653</v>
       </c>
       <c r="J60" t="n">
-        <v>4325</v>
+        <v>2830</v>
       </c>
       <c r="K60" t="n">
-        <v>0.021</v>
+        <v>0.587</v>
       </c>
       <c r="L60" t="n">
-        <v>4395</v>
+        <v>1842</v>
       </c>
       <c r="M60" t="n">
-        <v>0.021</v>
+        <v>0.382</v>
       </c>
       <c r="N60" t="s">
+        <v>378</v>
+      </c>
+      <c r="O60" t="s">
+        <v>377</v>
+      </c>
+      <c r="P60" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q60" t="s">
         <v>379</v>
-      </c>
-      <c r="O60" t="s">
-        <v>380</v>
-      </c>
-      <c r="P60" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>380</v>
+      </c>
+      <c r="B61" t="s">
+        <v>381</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D61" t="s">
         <v>382</v>
       </c>
-      <c r="B61" t="s">
+      <c r="E61" t="s">
         <v>383</v>
-      </c>
-      <c r="C61" s="1" t="n">
-        <v>44026</v>
-      </c>
-      <c r="D61" t="s">
-        <v>384</v>
-      </c>
-      <c r="E61" t="s">
-        <v>385</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="H61" t="n">
-        <v>371767</v>
+        <v>256038</v>
       </c>
       <c r="I61" t="n">
-        <v>68.576</v>
+        <v>1.242</v>
       </c>
       <c r="J61" t="n">
-        <v>3791</v>
+        <v>4145</v>
       </c>
       <c r="K61" t="n">
-        <v>0.699</v>
+        <v>0.02</v>
       </c>
       <c r="L61" t="n">
-        <v>3381</v>
+        <v>7088</v>
       </c>
       <c r="M61" t="n">
-        <v>0.624</v>
+        <v>0.034</v>
       </c>
       <c r="N61" t="s">
+        <v>383</v>
+      </c>
+      <c r="O61" t="s">
+        <v>384</v>
+      </c>
+      <c r="P61" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q61" t="s">
         <v>385</v>
-      </c>
-      <c r="O61" t="s">
-        <v>386</v>
-      </c>
-      <c r="P61" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>386</v>
+      </c>
+      <c r="B62" t="s">
+        <v>387</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="D62" t="s">
+        <v>388</v>
+      </c>
+      <c r="E62" t="s">
         <v>389</v>
-      </c>
-      <c r="B62" t="s">
-        <v>390</v>
-      </c>
-      <c r="C62" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D62" t="s">
-        <v>391</v>
-      </c>
-      <c r="E62" t="s">
-        <v>392</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>45</v>
-      </c>
-      <c r="H62"/>
-      <c r="I62"/>
+        <v>149</v>
+      </c>
+      <c r="H62" t="n">
+        <v>395235</v>
+      </c>
+      <c r="I62" t="n">
+        <v>72.905</v>
+      </c>
       <c r="J62" t="n">
-        <v>3976</v>
+        <v>3478</v>
       </c>
       <c r="K62" t="n">
-        <v>0.779</v>
+        <v>0.642</v>
       </c>
       <c r="L62" t="n">
-        <v>4543</v>
+        <v>3236</v>
       </c>
       <c r="M62" t="n">
-        <v>0.89</v>
+        <v>0.597</v>
       </c>
       <c r="N62" t="s">
+        <v>389</v>
+      </c>
+      <c r="O62" t="s">
+        <v>390</v>
+      </c>
+      <c r="P62" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q62" t="s">
         <v>392</v>
-      </c>
-      <c r="O62" t="s">
-        <v>393</v>
-      </c>
-      <c r="P62" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>393</v>
+      </c>
+      <c r="B63" t="s">
+        <v>394</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D63" t="s">
+        <v>395</v>
+      </c>
+      <c r="E63" t="s">
         <v>396</v>
-      </c>
-      <c r="B63" t="s">
-        <v>397</v>
-      </c>
-      <c r="C63" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D63" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" t="s">
-        <v>398</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>129</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1699101</v>
-      </c>
-      <c r="I63" t="n">
-        <v>7.692</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63"/>
       <c r="J63" t="n">
-        <v>23011</v>
+        <v>3138</v>
       </c>
       <c r="K63" t="n">
-        <v>0.104</v>
+        <v>0.614</v>
       </c>
       <c r="L63" t="n">
-        <v>22953</v>
+        <v>3980</v>
       </c>
       <c r="M63" t="n">
-        <v>0.104</v>
+        <v>0.779</v>
       </c>
       <c r="N63" t="s">
+        <v>396</v>
+      </c>
+      <c r="O63" t="s">
+        <v>397</v>
+      </c>
+      <c r="P63" t="s">
         <v>398</v>
       </c>
-      <c r="O63" t="s">
+      <c r="Q63" t="s">
         <v>399</v>
-      </c>
-      <c r="P63" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>400</v>
+      </c>
+      <c r="B64" t="s">
         <v>401</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D64" t="s">
         <v>402</v>
       </c>
-      <c r="C64" s="1" t="n">
-        <v>44028</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>403</v>
-      </c>
-      <c r="E64" t="s">
-        <v>404</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H64" t="n">
-        <v>174877</v>
+        <v>1821296</v>
       </c>
       <c r="I64" t="n">
-        <v>40.53</v>
+        <v>8.245</v>
       </c>
       <c r="J64" t="n">
-        <v>3435</v>
+        <v>22006</v>
       </c>
       <c r="K64" t="n">
-        <v>0.796</v>
+        <v>0.1</v>
       </c>
       <c r="L64" t="n">
-        <v>3176</v>
+        <v>20744</v>
       </c>
       <c r="M64" t="n">
-        <v>0.736</v>
+        <v>0.094</v>
       </c>
       <c r="N64" t="s">
+        <v>403</v>
+      </c>
+      <c r="O64" t="s">
+        <v>402</v>
+      </c>
+      <c r="P64" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q64" t="s">
         <v>404</v>
-      </c>
-      <c r="O64" t="s">
-        <v>403</v>
-      </c>
-      <c r="P64" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>405</v>
+      </c>
+      <c r="B65" t="s">
         <v>406</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="n">
+        <v>44033</v>
+      </c>
+      <c r="D65" t="s">
         <v>407</v>
       </c>
-      <c r="C65" s="1" t="n">
-        <v>44025</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>408</v>
-      </c>
-      <c r="E65" t="s">
-        <v>409</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="H65" t="n">
-        <v>92442</v>
+        <v>189199</v>
       </c>
       <c r="I65" t="n">
-        <v>12.961</v>
+        <v>43.849</v>
       </c>
       <c r="J65" t="n">
-        <v>1161</v>
+        <v>2213</v>
       </c>
       <c r="K65" t="n">
-        <v>0.163</v>
+        <v>0.513</v>
       </c>
       <c r="L65" t="n">
-        <v>1868</v>
+        <v>3005</v>
       </c>
       <c r="M65" t="n">
-        <v>0.262</v>
+        <v>0.696</v>
       </c>
       <c r="N65" t="s">
+        <v>408</v>
+      </c>
+      <c r="O65" t="s">
+        <v>407</v>
+      </c>
+      <c r="P65" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q65" t="s">
         <v>409</v>
-      </c>
-      <c r="O65" t="s">
-        <v>410</v>
-      </c>
-      <c r="P65" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>410</v>
+      </c>
+      <c r="B66" t="s">
+        <v>411</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="D66" t="s">
+        <v>412</v>
+      </c>
+      <c r="E66" t="s">
         <v>413</v>
-      </c>
-      <c r="B66" t="s">
-        <v>414</v>
-      </c>
-      <c r="C66" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D66" t="s">
-        <v>415</v>
-      </c>
-      <c r="E66" t="s">
-        <v>40</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="H66" t="n">
-        <v>315846</v>
+        <v>109874</v>
       </c>
       <c r="I66" t="n">
-        <v>9.579</v>
+        <v>15.405</v>
       </c>
       <c r="J66" t="n">
-        <v>6100</v>
+        <v>1841</v>
       </c>
       <c r="K66" t="n">
-        <v>0.185</v>
+        <v>0.258</v>
       </c>
       <c r="L66" t="n">
-        <v>4566</v>
+        <v>1973</v>
       </c>
       <c r="M66" t="n">
-        <v>0.138</v>
+        <v>0.277</v>
       </c>
       <c r="N66" t="s">
+        <v>413</v>
+      </c>
+      <c r="O66" t="s">
+        <v>414</v>
+      </c>
+      <c r="P66" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q66" t="s">
         <v>416</v>
-      </c>
-      <c r="O66" t="s">
-        <v>417</v>
-      </c>
-      <c r="P66" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>417</v>
+      </c>
+      <c r="B67" t="s">
+        <v>418</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D67" t="s">
         <v>419</v>
       </c>
-      <c r="B67" t="s">
-        <v>420</v>
-      </c>
-      <c r="C67" s="1" t="n">
-        <v>44028</v>
-      </c>
-      <c r="D67" t="s">
-        <v>421</v>
-      </c>
       <c r="E67" t="s">
-        <v>422</v>
+        <v>43</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H67" t="n">
-        <v>1014149</v>
+        <v>344528</v>
       </c>
       <c r="I67" t="n">
-        <v>9.255</v>
-      </c>
-      <c r="J67" t="n">
-        <v>26772</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.244</v>
-      </c>
+        <v>10.449</v>
+      </c>
+      <c r="J67"/>
+      <c r="K67"/>
       <c r="L67" t="n">
-        <v>20570</v>
+        <v>5743</v>
       </c>
       <c r="M67" t="n">
-        <v>0.188</v>
+        <v>0.174</v>
       </c>
       <c r="N67" t="s">
-        <v>217</v>
+        <v>420</v>
       </c>
       <c r="O67" t="s">
         <v>421</v>
       </c>
       <c r="P67" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="Q67" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>423</v>
+      </c>
+      <c r="B68" t="s">
         <v>424</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="D68" t="s">
         <v>425</v>
       </c>
-      <c r="C68" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>426</v>
-      </c>
-      <c r="E68" t="s">
-        <v>427</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="H68" t="n">
-        <v>1701400</v>
+        <v>1157991</v>
       </c>
       <c r="I68" t="n">
-        <v>44.955</v>
-      </c>
-      <c r="J68" t="n">
-        <v>18927</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.5</v>
-      </c>
+        <v>10.567</v>
+      </c>
+      <c r="J68"/>
+      <c r="K68"/>
       <c r="L68" t="n">
-        <v>17137</v>
+        <v>24373</v>
       </c>
       <c r="M68" t="n">
-        <v>0.453</v>
+        <v>0.222</v>
       </c>
       <c r="N68" t="s">
+        <v>219</v>
+      </c>
+      <c r="O68" t="s">
+        <v>425</v>
+      </c>
+      <c r="P68" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q68" t="s">
         <v>427</v>
-      </c>
-      <c r="O68" t="s">
-        <v>428</v>
-      </c>
-      <c r="P68" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B69" t="s">
+        <v>429</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D69" t="s">
         <v>430</v>
       </c>
-      <c r="C69" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D69" t="s">
-        <v>426</v>
-      </c>
       <c r="E69" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="H69" t="n">
-        <v>1936889</v>
+        <v>1800348</v>
       </c>
       <c r="I69" t="n">
-        <v>51.177</v>
+        <v>47.57</v>
       </c>
       <c r="J69" t="n">
-        <v>24546</v>
+        <v>18098</v>
       </c>
       <c r="K69" t="n">
-        <v>0.649</v>
+        <v>0.478</v>
       </c>
       <c r="L69" t="n">
-        <v>22464</v>
+        <v>16839</v>
       </c>
       <c r="M69" t="n">
-        <v>0.594</v>
+        <v>0.445</v>
       </c>
       <c r="N69" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="O69" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P69" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q69" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B70" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44023</v>
+        <v>44036</v>
       </c>
       <c r="D70" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>431</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H70" t="n">
-        <v>1360164</v>
+        <v>2068983</v>
       </c>
       <c r="I70" t="n">
-        <v>133.392</v>
+        <v>54.668</v>
       </c>
       <c r="J70" t="n">
-        <v>11992</v>
+        <v>24280</v>
       </c>
       <c r="K70" t="n">
-        <v>1.176</v>
+        <v>0.642</v>
       </c>
       <c r="L70" t="n">
-        <v>13593</v>
+        <v>22377</v>
       </c>
       <c r="M70" t="n">
-        <v>1.333</v>
+        <v>0.591</v>
       </c>
       <c r="N70" t="s">
+        <v>431</v>
+      </c>
+      <c r="O70" t="s">
+        <v>432</v>
+      </c>
+      <c r="P70" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q70" t="s">
         <v>435</v>
-      </c>
-      <c r="O70" t="s">
-        <v>434</v>
-      </c>
-      <c r="P70" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>436</v>
+      </c>
+      <c r="B71" t="s">
+        <v>437</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="D71" t="s">
         <v>438</v>
       </c>
-      <c r="B71" t="s">
-        <v>439</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D71" t="s">
-        <v>440</v>
-      </c>
       <c r="E71" t="s">
-        <v>441</v>
+        <v>43</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="H71" t="n">
-        <v>438990</v>
+        <v>1480458</v>
       </c>
       <c r="I71" t="n">
-        <v>152.371</v>
+        <v>145.19</v>
       </c>
       <c r="J71" t="n">
-        <v>3406</v>
+        <v>13413</v>
       </c>
       <c r="K71" t="n">
-        <v>1.182</v>
+        <v>1.315</v>
       </c>
       <c r="L71" t="n">
-        <v>4256</v>
+        <v>14124</v>
       </c>
       <c r="M71" t="n">
-        <v>1.477</v>
+        <v>1.385</v>
       </c>
       <c r="N71" t="s">
+        <v>439</v>
+      </c>
+      <c r="O71" t="s">
+        <v>438</v>
+      </c>
+      <c r="P71" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q71" t="s">
         <v>441</v>
-      </c>
-      <c r="O71" t="s">
-        <v>442</v>
-      </c>
-      <c r="P71" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>442</v>
+      </c>
+      <c r="B72" t="s">
+        <v>443</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D72" t="s">
         <v>444</v>
       </c>
-      <c r="B72" t="s">
+      <c r="E72" t="s">
         <v>445</v>
-      </c>
-      <c r="C72" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D72" t="s">
-        <v>446</v>
-      </c>
-      <c r="E72" t="s">
-        <v>447</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H72" t="n">
-        <v>943733</v>
+        <v>464674</v>
       </c>
       <c r="I72" t="n">
-        <v>49.056</v>
+        <v>161.286</v>
       </c>
       <c r="J72" t="n">
-        <v>18732</v>
+        <v>5351</v>
       </c>
       <c r="K72" t="n">
-        <v>0.974</v>
+        <v>1.857</v>
       </c>
       <c r="L72" t="n">
-        <v>14969</v>
+        <v>4156</v>
       </c>
       <c r="M72" t="n">
-        <v>0.778</v>
+        <v>1.443</v>
       </c>
       <c r="N72" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="O72" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q72" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>448</v>
+      </c>
+      <c r="B73" t="s">
+        <v>449</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D73" t="s">
+        <v>450</v>
+      </c>
+      <c r="E73" t="s">
         <v>451</v>
-      </c>
-      <c r="B73" t="s">
-        <v>452</v>
-      </c>
-      <c r="C73" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D73" t="s">
-        <v>453</v>
-      </c>
-      <c r="E73" t="s">
-        <v>454</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H73" t="n">
-        <v>24676930</v>
+        <v>1053656</v>
       </c>
       <c r="I73" t="n">
-        <v>169.096</v>
+        <v>54.77</v>
       </c>
       <c r="J73" t="n">
-        <v>312362</v>
+        <v>22964</v>
       </c>
       <c r="K73" t="n">
-        <v>2.14</v>
+        <v>1.194</v>
       </c>
       <c r="L73" t="n">
-        <v>281216</v>
+        <v>18379</v>
       </c>
       <c r="M73" t="n">
-        <v>1.927</v>
+        <v>0.955</v>
       </c>
       <c r="N73" t="s">
+        <v>452</v>
+      </c>
+      <c r="O73" t="s">
+        <v>453</v>
+      </c>
+      <c r="P73" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q73" t="s">
         <v>454</v>
-      </c>
-      <c r="O73" t="s">
-        <v>455</v>
-      </c>
-      <c r="P73" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>455</v>
+      </c>
+      <c r="B74" t="s">
+        <v>456</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D74" t="s">
         <v>457</v>
       </c>
-      <c r="B74" t="s">
+      <c r="E74" t="s">
         <v>458</v>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>44025</v>
-      </c>
-      <c r="D74" t="s">
-        <v>459</v>
-      </c>
-      <c r="E74" t="s">
-        <v>460</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="H74" t="n">
-        <v>186674</v>
+        <v>26300652</v>
       </c>
       <c r="I74" t="n">
-        <v>14.413</v>
+        <v>180.222</v>
       </c>
       <c r="J74" t="n">
-        <v>3333</v>
+        <v>299744</v>
       </c>
       <c r="K74" t="n">
-        <v>0.257</v>
+        <v>2.054</v>
       </c>
       <c r="L74" t="n">
-        <v>3327</v>
+        <v>276583</v>
       </c>
       <c r="M74" t="n">
-        <v>0.257</v>
+        <v>1.895</v>
       </c>
       <c r="N74" t="s">
+        <v>458</v>
+      </c>
+      <c r="O74" t="s">
+        <v>459</v>
+      </c>
+      <c r="P74" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q74" t="s">
         <v>460</v>
-      </c>
-      <c r="O74" t="s">
-        <v>461</v>
-      </c>
-      <c r="P74" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>461</v>
+      </c>
+      <c r="B75" t="s">
+        <v>462</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="D75" t="s">
         <v>463</v>
       </c>
-      <c r="B75" t="s">
+      <c r="E75" t="s">
         <v>464</v>
-      </c>
-      <c r="C75" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D75" t="s">
-        <v>465</v>
-      </c>
-      <c r="E75" t="s">
-        <v>40</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H75" t="n">
-        <v>2613498</v>
+        <v>225652</v>
       </c>
       <c r="I75" t="n">
-        <v>75.071</v>
+        <v>17.422</v>
       </c>
       <c r="J75" t="n">
-        <v>62364</v>
+        <v>4613</v>
       </c>
       <c r="K75" t="n">
-        <v>1.791</v>
+        <v>0.356</v>
       </c>
       <c r="L75" t="n">
-        <v>56642</v>
+        <v>4407</v>
       </c>
       <c r="M75" t="n">
-        <v>1.627</v>
+        <v>0.34</v>
       </c>
       <c r="N75" t="s">
-        <v>40</v>
+        <v>464</v>
       </c>
       <c r="O75" t="s">
         <v>465</v>
       </c>
       <c r="P75" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="Q75" t="s">
         <v>466</v>
@@ -6347,146 +6345,150 @@
         <v>468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44029</v>
+        <v>44036</v>
       </c>
       <c r="D76" t="s">
         <v>469</v>
       </c>
       <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76" t="n">
+        <v>78</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2937640</v>
+      </c>
+      <c r="I76" t="n">
+        <v>84.381</v>
+      </c>
+      <c r="J76" t="n">
+        <v>52502</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.508</v>
+      </c>
+      <c r="L76" t="n">
+        <v>55215</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.586</v>
+      </c>
+      <c r="N76" t="s">
+        <v>43</v>
+      </c>
+      <c r="O76" t="s">
+        <v>469</v>
+      </c>
+      <c r="P76" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q76" t="s">
         <v>470</v>
-      </c>
-      <c r="F76" t="s">
-        <v>471</v>
-      </c>
-      <c r="G76" t="n">
-        <v>137</v>
-      </c>
-      <c r="H76" t="n">
-        <v>94862</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5.665</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1074</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="L76" t="n">
-        <v>905</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="N76" t="s">
-        <v>472</v>
-      </c>
-      <c r="O76" t="s">
-        <v>473</v>
-      </c>
-      <c r="P76" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>471</v>
+      </c>
+      <c r="B77" t="s">
+        <v>472</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D77" t="s">
+        <v>473</v>
+      </c>
+      <c r="E77" t="s">
+        <v>474</v>
+      </c>
+      <c r="F77" t="s">
+        <v>475</v>
+      </c>
+      <c r="G77" t="n">
+        <v>143</v>
+      </c>
+      <c r="H77" t="n">
+        <v>99786</v>
+      </c>
+      <c r="I77" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1170</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="L77" t="n">
+        <v>857</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="N77" t="s">
         <v>476</v>
       </c>
-      <c r="B77" t="s">
+      <c r="O77" t="s">
         <v>477</v>
       </c>
-      <c r="C77" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="P77" t="s">
         <v>478</v>
       </c>
-      <c r="E77" t="s">
-        <v>40</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="Q77" t="s">
         <v>479</v>
-      </c>
-      <c r="G77" t="n">
-        <v>142</v>
-      </c>
-      <c r="H77" t="n">
-        <v>534488</v>
-      </c>
-      <c r="I77" t="n">
-        <v>78.548</v>
-      </c>
-      <c r="J77" t="n">
-        <v>9910</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1.456</v>
-      </c>
-      <c r="L77" t="n">
-        <v>7735</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.137</v>
-      </c>
-      <c r="N77" t="s">
-        <v>40</v>
-      </c>
-      <c r="O77" t="s">
-        <v>480</v>
-      </c>
-      <c r="P77" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>480</v>
+      </c>
+      <c r="B78" t="s">
+        <v>481</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D78" t="s">
         <v>482</v>
       </c>
-      <c r="B78" t="s">
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
         <v>483</v>
       </c>
-      <c r="C78" s="1" t="n">
-        <v>44025</v>
-      </c>
-      <c r="D78" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" t="s">
-        <v>40</v>
-      </c>
-      <c r="F78"/>
       <c r="G78" t="n">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="H78" t="n">
-        <v>519911</v>
+        <v>601984</v>
       </c>
       <c r="I78" t="n">
-        <v>88.868</v>
-      </c>
-      <c r="J78"/>
-      <c r="K78"/>
+        <v>88.467</v>
+      </c>
+      <c r="J78" t="n">
+        <v>10634</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1.563</v>
+      </c>
       <c r="L78" t="n">
-        <v>7558</v>
+        <v>9642</v>
       </c>
       <c r="M78" t="n">
-        <v>1.292</v>
+        <v>1.417</v>
       </c>
       <c r="N78" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O78" t="s">
         <v>484</v>
       </c>
       <c r="P78" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="Q78" t="s">
         <v>485</v>
@@ -6494,1000 +6496,1000 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B79" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44025</v>
+        <v>44032</v>
       </c>
       <c r="D79" t="s">
-        <v>32</v>
+        <v>488</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H79" t="n">
-        <v>1009532</v>
+        <v>571496</v>
       </c>
       <c r="I79" t="n">
-        <v>172.559</v>
+        <v>97.686</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
       <c r="L79" t="n">
-        <v>20445</v>
+        <v>7369</v>
       </c>
       <c r="M79" t="n">
-        <v>3.495</v>
+        <v>1.26</v>
       </c>
       <c r="N79" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O79" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="P79" t="s">
-        <v>487</v>
+        <v>21</v>
       </c>
       <c r="Q79" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>486</v>
+      </c>
+      <c r="B80" t="s">
+        <v>490</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>44032</v>
+      </c>
+      <c r="D80" t="s">
         <v>488</v>
       </c>
-      <c r="B80" t="s">
-        <v>489</v>
-      </c>
-      <c r="C80" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D80" t="s">
-        <v>32</v>
-      </c>
       <c r="E80" t="s">
-        <v>490</v>
+        <v>43</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="H80" t="n">
-        <v>239795</v>
+        <v>1170049</v>
       </c>
       <c r="I80" t="n">
-        <v>43.921</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2161</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.396</v>
-      </c>
+        <v>199.997</v>
+      </c>
+      <c r="J80"/>
+      <c r="K80"/>
       <c r="L80" t="n">
-        <v>1567</v>
+        <v>22931</v>
       </c>
       <c r="M80" t="n">
-        <v>0.287</v>
+        <v>3.92</v>
       </c>
       <c r="N80" t="s">
+        <v>43</v>
+      </c>
+      <c r="O80" t="s">
+        <v>488</v>
+      </c>
+      <c r="P80" t="s">
         <v>491</v>
       </c>
-      <c r="O80" t="s">
-        <v>492</v>
-      </c>
-      <c r="P80" t="s">
-        <v>493</v>
-      </c>
       <c r="Q80" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>492</v>
+      </c>
+      <c r="B81" t="s">
+        <v>493</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D81" t="s">
+        <v>494</v>
+      </c>
+      <c r="E81" t="s">
         <v>495</v>
-      </c>
-      <c r="B81" t="s">
-        <v>496</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D81" t="s">
-        <v>497</v>
-      </c>
-      <c r="E81" t="s">
-        <v>498</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="H81" t="n">
-        <v>120056</v>
+        <v>250433</v>
       </c>
       <c r="I81" t="n">
-        <v>57.749</v>
+        <v>45.87</v>
       </c>
       <c r="J81" t="n">
-        <v>1027</v>
+        <v>2049</v>
       </c>
       <c r="K81" t="n">
-        <v>0.494</v>
+        <v>0.375</v>
       </c>
       <c r="L81" t="n">
-        <v>913</v>
+        <v>1828</v>
       </c>
       <c r="M81" t="n">
-        <v>0.439</v>
+        <v>0.335</v>
       </c>
       <c r="N81" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O81" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="P81" t="s">
-        <v>22</v>
+        <v>497</v>
       </c>
       <c r="Q81" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>499</v>
+      </c>
+      <c r="B82" t="s">
+        <v>500</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D82" t="s">
+        <v>501</v>
+      </c>
+      <c r="E82" t="s">
         <v>502</v>
       </c>
-      <c r="B82" t="s">
+      <c r="F82"/>
+      <c r="G82" t="n">
+        <v>134</v>
+      </c>
+      <c r="H82" t="n">
+        <v>124754</v>
+      </c>
+      <c r="I82" t="n">
+        <v>60.009</v>
+      </c>
+      <c r="J82" t="n">
+        <v>848</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="L82" t="n">
+        <v>818</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="N82" t="s">
         <v>503</v>
       </c>
-      <c r="C82" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="O82" t="s">
         <v>504</v>
       </c>
-      <c r="E82" t="s">
+      <c r="P82" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q82" t="s">
         <v>505</v>
-      </c>
-      <c r="F82" t="s">
-        <v>506</v>
-      </c>
-      <c r="G82" t="n">
-        <v>139</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2373053</v>
-      </c>
-      <c r="I82" t="n">
-        <v>40.012</v>
-      </c>
-      <c r="J82" t="n">
-        <v>48130</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.812</v>
-      </c>
-      <c r="L82" t="n">
-        <v>45117</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.761</v>
-      </c>
-      <c r="N82" t="s">
-        <v>505</v>
-      </c>
-      <c r="O82" t="s">
-        <v>507</v>
-      </c>
-      <c r="P82" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>506</v>
+      </c>
+      <c r="B83" t="s">
+        <v>507</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D83" t="s">
+        <v>508</v>
+      </c>
+      <c r="E83" t="s">
         <v>509</v>
       </c>
-      <c r="B83" t="s">
+      <c r="F83" t="s">
         <v>510</v>
       </c>
-      <c r="C83" s="1" t="n">
-        <v>44030</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="G83" t="n">
+        <v>145</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2632106</v>
+      </c>
+      <c r="I83" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="J83" t="n">
+        <v>46632</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="L83" t="n">
+        <v>43883</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="N83" t="s">
+        <v>509</v>
+      </c>
+      <c r="O83" t="s">
         <v>511</v>
       </c>
-      <c r="E83" t="s">
+      <c r="P83" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q83" t="s">
         <v>512</v>
-      </c>
-      <c r="F83"/>
-      <c r="G83" t="n">
-        <v>159</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1437281</v>
-      </c>
-      <c r="I83" t="n">
-        <v>28.034</v>
-      </c>
-      <c r="J83" t="n">
-        <v>9374</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.183</v>
-      </c>
-      <c r="L83" t="n">
-        <v>9492</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.185</v>
-      </c>
-      <c r="N83" t="s">
-        <v>512</v>
-      </c>
-      <c r="O83" t="s">
-        <v>513</v>
-      </c>
-      <c r="P83" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>513</v>
+      </c>
+      <c r="B84" t="s">
+        <v>514</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D84" t="s">
         <v>515</v>
       </c>
-      <c r="B84" t="s">
+      <c r="E84" t="s">
         <v>516</v>
-      </c>
-      <c r="C84" s="1" t="n">
-        <v>44021</v>
-      </c>
-      <c r="D84" t="s">
-        <v>517</v>
-      </c>
-      <c r="E84" t="s">
-        <v>518</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>13</v>
+        <v>165</v>
       </c>
       <c r="H84" t="n">
-        <v>3849701</v>
+        <v>1489768</v>
       </c>
       <c r="I84" t="n">
-        <v>82.338</v>
-      </c>
-      <c r="J84"/>
-      <c r="K84"/>
+        <v>29.058</v>
+      </c>
+      <c r="J84" t="n">
+        <v>10332</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.202</v>
+      </c>
       <c r="L84" t="n">
-        <v>29320</v>
+        <v>8837</v>
       </c>
       <c r="M84" t="n">
-        <v>0.627</v>
+        <v>0.172</v>
       </c>
       <c r="N84" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="O84" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="P84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q84" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>519</v>
+      </c>
+      <c r="B85" t="s">
+        <v>520</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>44028</v>
+      </c>
+      <c r="D85" t="s">
+        <v>521</v>
+      </c>
+      <c r="E85" t="s">
         <v>522</v>
-      </c>
-      <c r="B85" t="s">
-        <v>523</v>
-      </c>
-      <c r="C85" s="1" t="n">
-        <v>44017</v>
-      </c>
-      <c r="D85" t="s">
-        <v>524</v>
-      </c>
-      <c r="E85" t="s">
-        <v>525</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H85" t="n">
-        <v>597850</v>
+        <v>4073664</v>
       </c>
       <c r="I85" t="n">
-        <v>59.197</v>
+        <v>87.128</v>
       </c>
       <c r="J85"/>
       <c r="K85"/>
       <c r="L85" t="n">
-        <v>11092</v>
+        <v>31995</v>
       </c>
       <c r="M85" t="n">
-        <v>1.098</v>
+        <v>0.684</v>
       </c>
       <c r="N85" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="O85" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="P85" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="Q85" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B86" t="s">
+        <v>527</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>44017</v>
+      </c>
+      <c r="D86" t="s">
+        <v>528</v>
+      </c>
+      <c r="E86" t="s">
         <v>529</v>
-      </c>
-      <c r="C86" s="1" t="n">
-        <v>44024</v>
-      </c>
-      <c r="D86" t="s">
-        <v>530</v>
-      </c>
-      <c r="E86" t="s">
-        <v>525</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>14</v>
-      </c>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86" t="n">
-        <v>11686</v>
-      </c>
-      <c r="K86" t="n">
-        <v>1.157</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H86" t="n">
+        <v>597850</v>
+      </c>
+      <c r="I86" t="n">
+        <v>59.197</v>
+      </c>
+      <c r="J86"/>
+      <c r="K86"/>
       <c r="L86" t="n">
-        <v>11686</v>
+        <v>11092</v>
       </c>
       <c r="M86" t="n">
-        <v>1.157</v>
+        <v>1.098</v>
       </c>
       <c r="N86" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="O86" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P86" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q86" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B87" t="s">
         <v>533</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44029</v>
+        <v>44031</v>
       </c>
       <c r="D87" t="s">
         <v>534</v>
       </c>
       <c r="E87" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>174</v>
-      </c>
-      <c r="H87" t="n">
-        <v>722116</v>
-      </c>
-      <c r="I87" t="n">
-        <v>83.437</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H87"/>
+      <c r="I87"/>
       <c r="J87" t="n">
-        <v>4677</v>
+        <v>9913</v>
       </c>
       <c r="K87" t="n">
-        <v>0.54</v>
+        <v>0.982</v>
       </c>
       <c r="L87" t="n">
-        <v>5931</v>
+        <v>9913</v>
       </c>
       <c r="M87" t="n">
-        <v>0.685</v>
+        <v>0.982</v>
       </c>
       <c r="N87" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="O87" t="s">
         <v>534</v>
       </c>
       <c r="P87" t="s">
-        <v>536</v>
+        <v>52</v>
       </c>
       <c r="Q87" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>536</v>
+      </c>
+      <c r="B88" t="s">
+        <v>537</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>44035</v>
+      </c>
+      <c r="D88" t="s">
         <v>538</v>
       </c>
-      <c r="B88" t="s">
+      <c r="E88" t="s">
         <v>539</v>
-      </c>
-      <c r="C88" s="1" t="n">
-        <v>44028</v>
-      </c>
-      <c r="D88" t="s">
-        <v>540</v>
-      </c>
-      <c r="E88" t="s">
-        <v>541</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="H88" t="n">
-        <v>79256</v>
+        <v>753333</v>
       </c>
       <c r="I88" t="n">
-        <v>3.328</v>
+        <v>87.044</v>
       </c>
       <c r="J88" t="n">
-        <v>191</v>
+        <v>4088</v>
       </c>
       <c r="K88" t="n">
-        <v>0.008</v>
+        <v>0.472</v>
       </c>
       <c r="L88" t="n">
-        <v>155</v>
+        <v>5014</v>
       </c>
       <c r="M88" t="n">
-        <v>0.007</v>
+        <v>0.579</v>
       </c>
       <c r="N88" t="s">
+        <v>539</v>
+      </c>
+      <c r="O88" t="s">
+        <v>538</v>
+      </c>
+      <c r="P88" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q88" t="s">
         <v>541</v>
-      </c>
-      <c r="O88" t="s">
-        <v>542</v>
-      </c>
-      <c r="P88" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>542</v>
+      </c>
+      <c r="B89" t="s">
+        <v>543</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>44036</v>
+      </c>
+      <c r="D89" t="s">
+        <v>544</v>
+      </c>
+      <c r="E89" t="s">
         <v>545</v>
-      </c>
-      <c r="B89" t="s">
-        <v>546</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E89" t="s">
-        <v>547</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="H89" t="n">
-        <v>342698</v>
+        <v>80405</v>
       </c>
       <c r="I89" t="n">
-        <v>4.91</v>
+        <v>3.376</v>
       </c>
       <c r="J89" t="n">
-        <v>4738</v>
+        <v>135</v>
       </c>
       <c r="K89" t="n">
-        <v>0.068</v>
+        <v>0.006</v>
       </c>
       <c r="L89" t="n">
-        <v>2036</v>
+        <v>144</v>
       </c>
       <c r="M89" t="n">
-        <v>0.029</v>
+        <v>0.006</v>
       </c>
       <c r="N89" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="O89" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="P89" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="Q89" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B90" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44008</v>
+        <v>44036</v>
       </c>
       <c r="D90" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E90" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="H90" t="n">
-        <v>603657</v>
+        <v>361862</v>
       </c>
       <c r="I90" t="n">
-        <v>8.648</v>
-      </c>
-      <c r="J90"/>
-      <c r="K90"/>
+        <v>5.184</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2702</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.039</v>
+      </c>
       <c r="L90" t="n">
-        <v>5052</v>
+        <v>2738</v>
       </c>
       <c r="M90" t="n">
-        <v>0.072</v>
+        <v>0.039</v>
       </c>
       <c r="N90" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="O90" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="P90" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="Q90" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B91" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44029</v>
-      </c>
-      <c r="D91"/>
+        <v>44036</v>
+      </c>
+      <c r="D91" t="s">
+        <v>549</v>
+      </c>
       <c r="E91" t="s">
-        <v>558</v>
-      </c>
-      <c r="F91" t="s">
-        <v>559</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="F91"/>
       <c r="G91" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="H91" t="n">
-        <v>37404</v>
+        <v>696656</v>
       </c>
       <c r="I91" t="n">
-        <v>4.518</v>
+        <v>9.981</v>
       </c>
       <c r="J91" t="n">
-        <v>302</v>
+        <v>2702</v>
       </c>
       <c r="K91" t="n">
-        <v>0.036</v>
+        <v>0.039</v>
       </c>
       <c r="L91" t="n">
-        <v>397</v>
+        <v>8525</v>
       </c>
       <c r="M91" t="n">
-        <v>0.048</v>
+        <v>0.122</v>
       </c>
       <c r="N91" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="O91" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="P91" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q91" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="B92" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44004</v>
-      </c>
-      <c r="D92" t="s">
-        <v>564</v>
-      </c>
+        <v>44031</v>
+      </c>
+      <c r="D92"/>
       <c r="E92" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F92" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G92" t="n">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="H92" t="n">
-        <v>68104</v>
+        <v>38063</v>
       </c>
       <c r="I92" t="n">
-        <v>5.762</v>
+        <v>4.598</v>
       </c>
       <c r="J92" t="n">
-        <v>648</v>
+        <v>319</v>
       </c>
       <c r="K92" t="n">
-        <v>0.055</v>
+        <v>0.039</v>
       </c>
       <c r="L92" t="n">
-        <v>740</v>
+        <v>370</v>
       </c>
       <c r="M92" t="n">
-        <v>0.063</v>
+        <v>0.045</v>
       </c>
       <c r="N92" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="O92" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="P92" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Q92" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B93" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44030</v>
+        <v>44004</v>
       </c>
       <c r="D93" t="s">
-        <v>32</v>
+        <v>563</v>
       </c>
       <c r="E93" t="s">
-        <v>571</v>
-      </c>
-      <c r="F93"/>
+        <v>564</v>
+      </c>
+      <c r="F93" t="s">
+        <v>565</v>
+      </c>
       <c r="G93" t="n">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="H93" t="n">
-        <v>4191124</v>
+        <v>68104</v>
       </c>
       <c r="I93" t="n">
-        <v>49.694</v>
+        <v>5.762</v>
       </c>
       <c r="J93" t="n">
-        <v>41215</v>
+        <v>648</v>
       </c>
       <c r="K93" t="n">
-        <v>0.489</v>
+        <v>0.055</v>
       </c>
       <c r="L93" t="n">
-        <v>37272</v>
+        <v>740</v>
       </c>
       <c r="M93" t="n">
-        <v>0.442</v>
+        <v>0.063</v>
       </c>
       <c r="N93" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="O93" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="P93" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q93" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B94" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44029</v>
+        <v>44036</v>
       </c>
       <c r="D94" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="E94" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>100</v>
-      </c>
-      <c r="H94"/>
-      <c r="I94"/>
+        <v>120</v>
+      </c>
+      <c r="H94" t="n">
+        <v>4489360</v>
+      </c>
+      <c r="I94" t="n">
+        <v>53.23</v>
+      </c>
       <c r="J94" t="n">
-        <v>3696</v>
+        <v>42986</v>
       </c>
       <c r="K94" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="L94"/>
-      <c r="M94"/>
+        <v>0.51</v>
+      </c>
+      <c r="L94" t="n">
+        <v>48493</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.575</v>
+      </c>
       <c r="N94" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="O94" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="P94" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q94" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B95" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44030</v>
+        <v>44035</v>
       </c>
       <c r="D95" t="s">
-        <v>32</v>
+        <v>575</v>
       </c>
       <c r="E95" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>86</v>
-      </c>
-      <c r="H95" t="n">
-        <v>864596</v>
-      </c>
-      <c r="I95" t="n">
-        <v>19.77</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="H95"/>
+      <c r="I95"/>
       <c r="J95" t="n">
-        <v>10532</v>
+        <v>1785</v>
       </c>
       <c r="K95" t="n">
-        <v>0.241</v>
-      </c>
-      <c r="L95" t="n">
-        <v>11108</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.254</v>
-      </c>
+        <v>0.039</v>
+      </c>
+      <c r="L95"/>
+      <c r="M95"/>
       <c r="N95" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="O95" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="P95" t="s">
-        <v>584</v>
+        <v>52</v>
       </c>
       <c r="Q95" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B96" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44030</v>
+        <v>44036</v>
       </c>
       <c r="D96" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E96" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="H96" t="n">
-        <v>4461205</v>
+        <v>937006</v>
       </c>
       <c r="I96" t="n">
-        <v>451.064</v>
+        <v>21.425</v>
       </c>
       <c r="J96" t="n">
-        <v>46950</v>
+        <v>15148</v>
       </c>
       <c r="K96" t="n">
-        <v>4.747</v>
+        <v>0.346</v>
       </c>
       <c r="L96" t="n">
-        <v>47223</v>
+        <v>11849</v>
       </c>
       <c r="M96" t="n">
-        <v>4.775</v>
+        <v>0.271</v>
       </c>
       <c r="N96" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="O96" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="P96" t="s">
-        <v>50</v>
+        <v>584</v>
       </c>
       <c r="Q96" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B97" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44028</v>
+        <v>44036</v>
       </c>
       <c r="D97" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="E97" t="s">
-        <v>595</v>
-      </c>
-      <c r="F97" t="s">
-        <v>596</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="F97"/>
       <c r="G97" t="n">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="H97" t="n">
-        <v>7658207</v>
+        <v>4724277</v>
       </c>
       <c r="I97" t="n">
-        <v>112.81</v>
+        <v>477.663</v>
       </c>
       <c r="J97" t="n">
-        <v>149215</v>
+        <v>46965</v>
       </c>
       <c r="K97" t="n">
-        <v>2.198</v>
+        <v>4.749</v>
       </c>
       <c r="L97" t="n">
-        <v>115528</v>
+        <v>44289</v>
       </c>
       <c r="M97" t="n">
-        <v>1.702</v>
+        <v>4.478</v>
       </c>
       <c r="N97" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="O97" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="P97" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="Q97" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B98" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44029</v>
+        <v>44035</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>594</v>
       </c>
       <c r="E98" t="s">
-        <v>601</v>
-      </c>
-      <c r="F98"/>
+        <v>595</v>
+      </c>
+      <c r="F98" t="s">
+        <v>596</v>
+      </c>
       <c r="G98" t="n">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="H98" t="n">
-        <v>47313367</v>
+        <v>8522679</v>
       </c>
       <c r="I98" t="n">
-        <v>142.94</v>
+        <v>125.544</v>
       </c>
       <c r="J98" t="n">
-        <v>761762</v>
+        <v>134293</v>
       </c>
       <c r="K98" t="n">
-        <v>2.301</v>
+        <v>1.978</v>
       </c>
       <c r="L98" t="n">
-        <v>932216</v>
+        <v>123496</v>
       </c>
       <c r="M98" t="n">
-        <v>2.816</v>
+        <v>1.819</v>
       </c>
       <c r="N98" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="O98" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P98" t="s">
-        <v>603</v>
+        <v>25</v>
       </c>
       <c r="Q98" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="99">
@@ -7495,194 +7497,249 @@
         <v>599</v>
       </c>
       <c r="B99" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44029</v>
+        <v>44035</v>
       </c>
       <c r="D99" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="E99" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="H99" t="n">
-        <v>44203733</v>
+        <v>52942145</v>
       </c>
       <c r="I99" t="n">
-        <v>133.545</v>
+        <v>159.945</v>
       </c>
       <c r="J99" t="n">
-        <v>851788</v>
+        <v>1262123</v>
       </c>
       <c r="K99" t="n">
-        <v>2.573</v>
+        <v>3.813</v>
       </c>
       <c r="L99" t="n">
-        <v>754902</v>
+        <v>912934</v>
       </c>
       <c r="M99" t="n">
-        <v>2.281</v>
+        <v>2.758</v>
       </c>
       <c r="N99" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="O99" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="P99" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="Q99" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B100" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44028</v>
+        <v>44035</v>
       </c>
       <c r="D100" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E100" t="s">
-        <v>120</v>
+        <v>607</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="H100" t="n">
-        <v>82772</v>
+        <v>48794970</v>
       </c>
       <c r="I100" t="n">
-        <v>23.828</v>
-      </c>
-      <c r="J100"/>
-      <c r="K100"/>
+        <v>147.416</v>
+      </c>
+      <c r="J100" t="n">
+        <v>774193</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2.339</v>
+      </c>
       <c r="L100" t="n">
-        <v>962</v>
+        <v>775499</v>
       </c>
       <c r="M100" t="n">
-        <v>0.277</v>
+        <v>2.343</v>
       </c>
       <c r="N100" t="s">
-        <v>120</v>
+        <v>607</v>
       </c>
       <c r="O100" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="P100" t="s">
-        <v>22</v>
+        <v>609</v>
       </c>
       <c r="Q100" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B101" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>43950</v>
+        <v>44035</v>
       </c>
       <c r="D101" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E101" t="s">
-        <v>619</v>
+        <v>122</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="H101" t="n">
-        <v>261004</v>
+        <v>97472</v>
       </c>
       <c r="I101" t="n">
-        <v>2.681</v>
-      </c>
-      <c r="J101"/>
-      <c r="K101"/>
+        <v>28.06</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2316</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.667</v>
+      </c>
       <c r="L101" t="n">
-        <v>10906</v>
+        <v>2100</v>
       </c>
       <c r="M101" t="n">
-        <v>0.112</v>
+        <v>0.605</v>
       </c>
       <c r="N101" t="s">
-        <v>619</v>
+        <v>122</v>
       </c>
       <c r="O101" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="P101" t="s">
-        <v>621</v>
+        <v>25</v>
       </c>
       <c r="Q101" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B102" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44025</v>
+        <v>43950</v>
       </c>
       <c r="D102" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E102" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H102" t="n">
-        <v>37328</v>
+        <v>261004</v>
       </c>
       <c r="I102" t="n">
-        <v>2.511</v>
-      </c>
-      <c r="J102" t="n">
-        <v>412</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.028</v>
-      </c>
+        <v>2.681</v>
+      </c>
+      <c r="J102"/>
+      <c r="K102"/>
       <c r="L102" t="n">
-        <v>537</v>
+        <v>10906</v>
       </c>
       <c r="M102" t="n">
-        <v>0.036</v>
+        <v>0.112</v>
       </c>
       <c r="N102" t="s">
+        <v>619</v>
+      </c>
+      <c r="O102" t="s">
+        <v>620</v>
+      </c>
+      <c r="P102" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>623</v>
+      </c>
+      <c r="B103" t="s">
+        <v>624</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>44034</v>
+      </c>
+      <c r="D103" t="s">
+        <v>625</v>
+      </c>
+      <c r="E103" t="s">
         <v>626</v>
       </c>
-      <c r="O102" t="s">
+      <c r="F103"/>
+      <c r="G103" t="n">
+        <v>76</v>
+      </c>
+      <c r="H103" t="n">
+        <v>43608</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2.934</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1076</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="L103" t="n">
+        <v>712</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="N103" t="s">
+        <v>626</v>
+      </c>
+      <c r="O103" t="s">
         <v>627</v>
       </c>
-      <c r="P102" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q102" t="s">
+      <c r="P103" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q103" t="s">
         <v>628</v>
       </c>
     </row>

--- a/testing/covid-testing-latest-data-source-details.xlsx
+++ b/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="620">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t xml:space="preserve">7-day smoothed daily change per thousand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short-term positive rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short-term tests per case</t>
   </si>
   <si>
     <t xml:space="preserve">General source label</t>
@@ -104,7 +110,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/07/coronavirus-covid-19-at-a-glance-22-july-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/08/coronavirus-covid-19-at-a-glance-13-august-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -114,8 +120,8 @@
   </si>
   <si>
     <t xml:space="preserve">We construct a time series of the cumulative number of tests performed to date using data provided by the Australian Government Department of Health through [daily health alerts](https://www.health.gov.au/news/health-alerts/novel-coronavirus-2019-ncov-health-alert/coronavirus-covid-19-current-situation-and-case-numbers) and [weekly epidemiological reports](https://www1.health.gov.au/internet/main/publishing.nsf/Content/novel_coronavirus_2019_ncov_weekly_epidemiology_reports_australia_2020.htm).
-The weekly epidemiological reports make it clear that the figures relate to diagnostic testing. It is unclear whether the reported figures include pending test results. It is also unclear when the first test was conducted, since we have not been able to find official data prior to March 22nd 2020 (at which point 143,056 tests had been performed).
-The daily health alerts have provided testing figures since April 5th 2020, whereas the weekly epidemiological reports have provided testing figures since March 22nd 2020. In the daily health alerts, testing figures are reported within the "Coronavirus (COVID-19) at a glance" infographic. [View the entire collection of these infographics](https://www.health.gov.au/resources/collections/coronavirus-covid-19-at-a-glance-infographic-collection) dating back to April 5th 2020.
+The weekly epidemiological reports make it clear that the figures relate to diagnostic testing. It is unclear whether the reported figures include pending test results. It is also unclear when the first test was conducted, since we have not been able to find official data prior to 22 March 2020 (at which point 143,056 tests had been performed).
+The daily health alerts have provided testing figures since 5 April 2020, whereas the weekly epidemiological reports have provided testing figures since 22 March 2020. In the daily health alerts, testing figures are reported within the "Coronavirus (COVID-19) at a glance" infographic. [View the entire collection of these infographics](https://www.health.gov.au/resources/collections/coronavirus-covid-19-at-a-glance-infographic-collection) dating back to 5 April 2020.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -164,7 +170,7 @@
   <si>
     <t xml:space="preserve">The Bahrainian Ministry of Health publishes frequent updates on the number of confirmed cases, status of existing cases and number of assessments conducted.
 These figures represent the cumulative tests to that given date. It is not clear whether this refers to the total number of tests conducted, or the number of people tested.
-Using web archives we can construct a time-series of tests conducted over time based on these frequent updates. It is not clear when testing first began; data is only available from 5th March where it was reported that 5334 tests had been conducted.
+Using web archives we can construct a time-series of tests conducted over time based on these frequent updates. It is not clear when testing first began; data is only available from 5 March 2020 where it was reported that 5,334 tests had been conducted.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -186,7 +192,7 @@
     <t xml:space="preserve">The number of samples tested.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government of Bangladesh provides data on the total number of samples tested ("মোট পরিক্ষাকৃত নমুনার সংখ্যা") to date in [this official dashboard](https://corona.gov.bd/). The full time series of samples tested can be downloaded in the [detailed dashboard](https://covid19.cramstack.com/), which dates back to March 4th 2020.
+    <t xml:space="preserve">The Government of Bangladesh provides data on the total number of samples tested ("মোট পরিক্ষাকৃত নমুনার সংখ্যা") to date in [this official dashboard](https://corona.gov.bd/). The full time series of samples tested can be downloaded in the [detailed dashboard](https://covid19.cramstack.com/), which dates back to 4 March 2020.
 It is not clear whether the reported figures include samples in which the test results are pending.</t>
   </si>
   <si>
@@ -196,7 +202,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/v-belarusi-vyzdoroveli-i-vypisany-59-755-patsientov/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/u-belarusi-na-12-zhni-nya-vypisanyya-65-tys-893-patsyenta/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -206,15 +212,15 @@
   </si>
   <si>
     <t xml:space="preserve">The Belarus Ministry of Health provides daily press releases that report the cumulative number of tests conducted to date. It is unclear whether the reported figures include pending tests.
-Prior to April 14th 2020, the Ministry reported imprecise testing figures (e.g. "...more than 64 thousand tests..."). We include these imprecise figures so that our time series extends back to March 3rd 2020.
-The earliest reported figure that we have been able to find is from March 3rd 2020, at which point approximately 5,000 cumulative tests were reported. The number of tests are cumulative since late January 2020, but the press releases do not specify the exact date on which the first test was conducted.
+Prior to 14 April 2020, the Ministry reported imprecise testing figures (e.g. "...more than 64 thousand tests..."). We include these imprecise figures so that our time series extends back to 3 March 2020.
+The earliest reported figure that we have been able to find is from 3 March 2020, at which point approximately 5,000 cumulative tests were reported. The number of tests are cumulative since late January 2020, but the press releases do not specify the exact date on which the first test was conducted.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">BEL</t>
   </si>
   <si>
-    <t xml:space="preserve">Belgium - units unclear</t>
+    <t xml:space="preserve">Belgium - tests performed</t>
   </si>
   <si>
     <t xml:space="preserve">https://epistat.sciensano.be/Data/COVID19BE_tests.csv</t>
@@ -224,36 +230,30 @@
   </si>
   <si>
     <t xml:space="preserve">https://epistat.wiv-isp.be/covid/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The data is described both as the number of tests performed and as the number of tested patients.</t>
   </si>
   <si>
     <t xml:space="preserve">Sciensano provides a daily time series of the number of tests conducted per day, which is updated retrospectively as new data becomes available each day.
 According to the [dataset codebook](https://epistat.sciensano.be/COVID19BE_codebook.pdf), dates for new testing figures correspond to the date of laboratory diagnosis (or when not available, date of sampling). 
-It appears that the reported testing figures represent the number of people tested, but this is not entirely clear. The official website describes the testing dataset as the "Dataset of total number of tests performed by date", yet the [dataset codebook](https://epistat.sciensano.be/COVID19BE_codebook.pdf) defines the "tests" variable as the "number of tested patients".
-It is also unclear whether the testing figures include technologies other than PCR tests. In a communication on April 3rd 2020, Sciensano indicates that an antigen test made by Coris Bioconcept may now be used for COVID-19 detection. The communication states that positive antigen test results do not have to be confirmed by a PCR test, but that negative or doubtful cases must be confirmed by a PCR test.
-Official figures reported in Sciensano's daily epidemiological bulletins do not help to clarify these ambiguities. For example, as of May 10th 2020, the [official time series dataset](https://epistat.sciensano.be/covid/covid19_historicaldata.html) reported a cumulative total of 465,201 tests performed between March 1st and May 9th. However, the epidemiological bulletin for [May 10th 2020](https://covid-19.sciensano.be/sites/default/files/Covid19/COVID-19_Daily%20report_20200510%20-%20FR.pdf) states that 325,796 cumulative tests had been performed by laboratories between the beginning of March and May 9th, while an additional 240,305 tests had been performed through the national testing platform (566,101 total tests).
-The bulletin indicates that these figures include both PCR and antigen tests, suggesting that the large discrepancy between the 465,201 figure and the 566,101 figure may be solely due to the fact that the official time series data only includes PCR tests, whereas the official bulletin figures include both PCR and antigen tests. However, it is also possible that the discrepancy is due solely to the fact that the official time series data is reported in terms of "people tested", whereas the bulletin figures represent "tests performed". We have been unable to find official documentation from Sciensano that resolves these ambiguities.</t>
+It is unclear whether the testing figures include technologies other than PCR tests. In a communication on 3 April 2020, Sciensano indicates that an antigen test made by Coris Bioconcept may now be used for COVID-19 detection. The communication states that positive antigen test results do not have to be confirmed by a PCR test, but that negative or doubtful cases must be confirmed by a PCR test.
+Official figures reported in Sciensano's daily epidemiological bulletins do not help to clarify whether non-PCR tests are included in the daily time series figures. For example, as of 10 May 2020, the [official time series dataset](https://epistat.sciensano.be/covid/covid19_historicaldata.html) reported a cumulative total of 465,201 tests performed between 1 March and 9 May 2020. However, the epidemiological bulletin for [10 May 2020](https://covid-19.sciensano.be/sites/default/files/Covid19/COVID-19_Daily%20report_20200510%20-%20FR.pdf) states that 325,796 cumulative tests had been performed by laboratories between the beginning of March and 9 May 2020, while an additional 240,305 tests had been performed through the national testing platform (566,101 total tests).
+The bulletin indicates that these figures include both PCR and antigen tests, suggesting that the large discrepancy between the 465,201 figure and the combined 566,101 figure may be due to the fact that the official time series data only includes PCR tests, whereas the official bulletin figures include both PCR and antigen tests. However, we have been unable to find official documentation from Sciensano that resolves this ambiguity.</t>
   </si>
   <si>
     <t xml:space="preserve">BOL</t>
   </si>
   <si>
-    <t xml:space="preserve">Bolivia - units unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/4418-bolivia-registra-1-778-contagios-nuevos-de-coronavirus-y-la-cifra-de-recuperados-asciende-a-19-721</t>
+    <t xml:space="preserve">Bolivia - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://minsalud.gob.bo/4504-coronavirus-se-reportan-1-743-contagios-nuevos-y-el-numero-de-pacientes-recuperados-llega-a-32-830</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
   </si>
   <si>
-    <t xml:space="preserve">Units unclear.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Official testing data from the Bolivian Ministry of Health is reported in daily briefs [on their website](https://www.minsalud.gob.bo/). The briefs often (but do not always) provide a breakdown of the cumulative number of confirmed, suspected, and negative (also called discarded) tests to date. We measure the total number of tests to date as the sum of the number of confirmed and negative tests.
-The units for the testing numbers are unclear. They are variously referred to as tests (“pruebas”), samples (“muestras”), or people who have undergone tests (”personas, que fueron sometidas a pruebas”).
+    <t xml:space="preserve">Official testing data from the Bolivian Ministry of Health is reported in daily briefs [on their website](https://www.minsalud.gob.bo/). The briefs often (but do not always) provide a breakdown of the cumulative number of confirmed, suspected, and negative (also called discarded) tests to date. We measure the total number of tests performed to date as the sum of the number of confirmed and negative tests.
+Because of the way the daily briefs report the number of negative tests ("pruebas negativas") alongside the number of positive cases ("casos positivos"), it may be the case that the number of tests performed is equivalent to the number of people tested.
+As of 5 August 2020, the most recent daily briefs consistently report testing figures in terms of the cumulative number of tests ("pruebas") performed. However, in the initial months of the COVID-19 outbreak, the daily briefs previously reported testing figures using inconsistent terminology such as samples (“muestras”) tested, people who have undergone tests (”personas, que fueron sometidas a pruebas”), and tests ("pruebas") performed. It does not appear that this inconsistent use of terminology reflects a substantive change in the reported figures, since there are no corresponding large breaks in the time series.
 In 10 briefs the number of negative tests was not reported, preventing us from calculating a total for that date. For these dates with missing official data, we use data provided in this [unofficial GitHub repository](https://github.com/mauforonda/covid19-bolivia), which we have cross-referenced against the official data for all dates.
 Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
@@ -280,8 +280,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Ministry of Health press releases published on its website intermittently include figures for the number of PCR tests carried out for COVID-19.
-The most recent figures explicitly relate to the number of PCR tests carried out in public laboratories. Two earlier press releases – for [20 April](https://www.saude.gov.br/noticias/agencia-saude/46768-chega-ao-pais-mais-500-mil-testes-de-biologia-molecular) and [7 April](https://www.saude.gov.br/noticias/agencia-saude/46707-saude-ja-distribuiu-quase-1-milhao-de-testes-para-coronavirus) are not explicit as to whether the figures they provide include or excluded private laboratories. The two April releases imply that the figure provided relates to the cumulative since February 16, stating that 'Tests for coronavirus began to be carried out from February 16 in public and private laboratories'.
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+The most recent figures explicitly relate to the number of PCR tests carried out in public laboratories. Two earlier press releases – for [20 April 2020](https://www.saude.gov.br/noticias/agencia-saude/46768-chega-ao-pais-mais-500-mil-testes-de-biologia-molecular) and [7 April 2020](https://www.saude.gov.br/noticias/agencia-saude/46707-saude-ja-distribuiu-quase-1-milhao-de-testes-para-coronavirus) are not explicit as to whether the figures they provide include or excluded private laboratories. The two April releases imply that the figure provided relates to the cumulative since 16 February 2020, stating that 'Tests for coronavirus began to be carried out from February 16 in public and private laboratories'.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).
+Brazil includes positive antibody tests in their figures for confirmed cases. Our testing figures—which exclude antibody tests—are not an appropriate comparison in these instances: on this basis there could be more cases than tests, which is not possible. For this reason, we do not calculate the positive rate or number of tests per confirmed case for Brazil.</t>
   </si>
   <si>
     <t xml:space="preserve">BGR</t>
@@ -300,7 +301,7 @@
   </si>
   <si>
     <t xml:space="preserve">Bulgaria's official COVID-19 information portal provides irregular updates of the cumulative number of 'PCR tests done'.
-Using web archives we reconstruct the testing time series starting from 11th April.  We cannot say with certainty when testing began, only that the earliest observation available to us begins from the 11th April. For 19th April, we take the figure provided in Bulgaria's [COVID-19 dashboard](https://coronavirus.bg/arcgis/apps/opsdashboard/index.html#/ecacd239ee7e4fba956f7948f586af93) as no snapshot was available using web archives. The test figures provided in the dashboard match the figures provided by the information portal for all other dates available.
+Using web archives we reconstruct the testing time series starting from 11 April 2020. We cannot say with certainty when testing began, only that the earliest observation available to us begins from 11 April 2020. For 19 April 2020, we take the figure provided in Bulgaria's [COVID-19 dashboard](https://coronavirus.bg/arcgis/apps/opsdashboard/index.html#/ecacd239ee7e4fba956f7948f586af93) as no snapshot was available using web archives. The test figures provided in the dashboard match the figures provided by the information portal for all other dates available.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -319,7 +320,7 @@
     <t xml:space="preserve">The Government of Canada provides daily updates of the COVID-19 outbreak [here](https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html), which report the cumulative number of people tested to date. 
 We construct a daily time series of the cumulative number of people tested to date using [Web Archive snapshots](http://web.archive.org/web/*/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html) of these daily updates. The figures include positive and negative test results, while excluding pending test results.
 The figures relate to diagnostic testing completed in laboratories.
-We only report data since March 18th 2020 due to a large jump in the time series that occurred between March 17th ([1,018 people tested](http://web.archive.org/web/20200318193441/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html)) and March 18th ([53,975 people tested](http://web.archive.org/web/20200319151005/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html)). We suspect this jump was the result of a backlog in tests waiting to be processed, but the Government of Canada website does not provide an explanation. For comparability over time, we therefore exclude data prior to March 18th 2020.
+We only report data since 18 March 2020 due to a large jump in the time series that occurred between 17 March 2020 ([1,018 people tested](http://web.archive.org/web/20200318193441/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html)) and 18 March 2020 ([53,975 people tested](http://web.archive.org/web/20200319151005/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html)). We suspect this jump was the result of a backlog in tests waiting to be processed, but the Government of Canada website does not provide an explanation. For comparability over time, we therefore exclude data prior to 18 March 2020.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -358,9 +359,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ins.gov.co/Noticias/Paginas/Coronavirus.aspx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of samples processed.</t>
   </si>
   <si>
     <t xml:space="preserve">The Colombian National Institute of Health publishes a dashboard on COVID-19, updated daily. Page 4 of the embedded report includes a graph on "histórico de muestras" (sample history), with a cumulative number of "muestras procesadas" (samples processed).
@@ -385,10 +383,31 @@
   <si>
     <t xml:space="preserve">The Costa Rican Ministry of Health produce daily update reports of confirmed cases, deaths and test results.
 These daily reports state the daily number of people who have been tested – given as the number of confirmed cases (‘Confirma contagio’) and number of people with negative results (‘Descarta contagio’) (thus the figures do not include pending tests). We can use these daily updates to construct a full time-series. This figures have been collected and are made available for download by the news website [El Observador](https://observador.cr/covid19-estadisticas/), from which we take our data.
-Daily reports with figures on testing are only available dating back to 11th March. We therefore do not know the first date of testing, or daily figures prior to this date.
+Daily reports with figures on testing are only available dating back to 11 March 2020. We therefore do not know the first date of testing, or daily figures prior to this date.
+For the number of new tests reported on 25 March 2020, we noticed a discrepancy between data published by El Observador and the official data from the Ministry of Health. We there replaced the number of discarded tests for that day (5) with the official number (65) (official reports: [24 March 2020](https://www.ministeriodesalud.go.cr/sobre_ministerio/prensa/img_cvd/img_datos_marzo_2020_14.jpeg), [25 March 2020](https://www.ministeriodesalud.go.cr/sobre_ministerio/prensa/img_cvd/img_datos_marzo_2020_15.jpeg)).
 Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
+    <t xml:space="preserve">CIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/Mshpci/posts/1666768260155528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/Mshpci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since 13 April 2020, the Ministry of Health and Public Hygiene publishes the cumulative total of samples taken in a daily post on its official Facebook page. For a small number of daily updates, only the daily change is stated; in these cases, we derive the cumulative total based on the previous day's cumulative total + daily change.
+The updates use the words "samples taken" to describe these figures, which likely indicates that they include tests whose results are still pending.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+  </si>
+  <si>
     <t xml:space="preserve">HRV</t>
   </si>
   <si>
@@ -404,12 +423,9 @@
     <t xml:space="preserve">https://vlada.gov.hr</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing figures were reported as "samples tested" prior to 24 March 2020, then as "tests performed", then as "people tested" from 6 May 2020.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Government of Croatia provides daily updates of confirmed cases, deaths, and testing figures [here](https://www.koronavirus.hr). We construct a time series based on the cumulative figures reported in [web archives of the latest koronavirus.hr press release](https://web.archive.org/web/20200706160835/https://www.koronavirus.hr/najnovije/ukupno-dosad-382-zarazene-osobe-u-hrvatskoj/35). It is unclear whether the reported figures include tests for which the results are pending.
-Data may not be fully comparable over time. Prior to March 24th, testing figures were reported in terms of "samples tested" (e.g. "Ukupno je 317 testiranih uzoraka..."). From March 24th to May 6th, testing figures were reported in terms of "tests performed" (e.g. "Dosad je obavljeno ukupno 3.159 testiranja"). Since May 6th they have been reported in terms of "people tested" (e.g. "Dosad je testirano ukupno 41.053 osoba") It is unclear whether this change in wording reflects an actual change in which figures are reported.
-We have found testing data dating back to March 3rd 2020, at which point 247 samples had been tested to date. It is not clear when the first sample was tested.
+Prior to 24 March 2020, testing figures were reported in terms of "samples tested" (e.g. "Ukupno je 317 testiranih uzoraka..."). From 24 March to 6 May 2020, testing figures were reported in terms of "tests performed" (e.g. "Dosad je obavljeno ukupno 3.159 testiranja"). Since 6 May 2020 they have been reported in terms of "people tested" (e.g. "Dosad je testirano ukupno 41.053 osoba"). It does not appear that this change in terminology reflects a substantive change in the figures that are reported, since there are no large breaks in the time series around these changes in terminology.
+We have found testing data dating back to 3 March 2020, at which point 247 samples had been tested to date.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -431,11 +447,8 @@
     <t xml:space="preserve">https://salud.msp.gob.cu</t>
   </si>
   <si>
-    <t xml:space="preserve">Units are unclear, and could refer to the number of tests performed, or people tested.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Ministry of Public Health publishes data on [its official website](https://salud.msp.gob.cu), which is collected and republished by the COVID-19 Cuba Data project [in a dashboard](https://covid19cubadata.github.io/#cuba) and [on GitHub](https://github.com/covid19cubadata/covid19cubadata.github.io/). It includes a time series for the number of tests.
-However the context in which the figures are published suggests that these numbers may actually refer to the number of individuals tested. A breakdown into positive and negative results is given, along with a positive test rate. It is also unclear whether the reported figures include tests for which the results are pending.
+The context in which the figures are published suggests that the number of tests performed may be equivalent to the number of individuals tested. A breakdown into positive and negative results is given, along with a positive test rate. It is also unclear whether the reported figures include tests for which the results are pending.
 Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels.</t>
   </si>
   <si>
@@ -460,7 +473,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/CMR_Covid19_RDC/status/1285933536210325509/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/CMR_Covid19_RDC/status/1293864579861291008/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -478,7 +491,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/Data-Epidemiologiske-Rapport-24072020-ks34</t>
+    <t xml:space="preserve">https://www.ssi.dk/-/media/arkiv/dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/covid19/13_08_2020_zp09/data-epidemiologiske-rapport-13082020-13yt.zip?la=da</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -487,16 +500,16 @@
     <t xml:space="preserve">https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning/arkiv-med-overvaagningsdata-for-covid19</t>
   </si>
   <si>
-    <t xml:space="preserve">The Danish Statum Serum Institute provides epidemiological update reports on confirmed cases, deaths, testing and demographic details. An archive of .zip files is available [on its website](https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning/arkiv-med-overvaagningsdata-for-covid19). Each contains a .csv file (Test_pos_over_time.csv) with the time series of daily ("Tested") and cumulative ("Tested_kumulativ") tests performed, going back to 27 January.</t>
+    <t xml:space="preserve">The Danish Statum Serum Institute provides epidemiological update reports on confirmed cases, deaths, testing and demographic details. An archive of .zip files is available [on its website](https://www.ssi.dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/c/covid19-overvaagning/arkiv-med-overvaagningsdata-for-covid19). Each contains a .csv file (Test_pos_over_time.csv) with the time series of daily ("Tested") and cumulative ("Tested_kumulativ") tests performed, going back to 27 January 2020.</t>
   </si>
   <si>
     <t xml:space="preserve">ECU</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecuador - units unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/07/INFOGRAFIA-NACIONALCOVID-19-147-COE-NACIONAL-08h00-23072020-ALM.pdf</t>
+    <t xml:space="preserve">Ecuador - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/08/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-08h00-13082020.xlsm.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -508,81 +521,82 @@
     <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/informes-de-situacion-covid-19-desde-el-13-de-marzo-del-2020/</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government of Ecuador publish daily updates in the form of situation reports and summary infographics. These report the number and status of confirmed cases, deaths and number of samples tested. This data is available daily from 18th March; reports and infographics prior to this date do not include the number of samples tested. But all figures are dated cumulative since 29th February.
+    <t xml:space="preserve">The Government of Ecuador publish daily updates in the form of situation reports and summary infographics. These report the number and status of confirmed cases, deaths and number of samples tested. This data is available daily from 18 March 2020; reports and infographics prior to this date do not include the number of samples tested. But all figures are dated cumulative since 29 February 2020.
 The source reports the number of confirmed ('confirmados') and negative ('descartados') cases, which we sum to get the number of cases tested.
-On 24 April 2020, the number of tests suddenly jumped from 23,383 to 45,857, because of what we assume to be the inclusion of rapid tests ("pruebas rápidas"), as made clear by the subsequent infographic published on 27 April. We therefore do not include the 24 April infographic in our time series; and from 27 April onwards, we include only PCR tests.
+On 24 April 2020, the number of tests suddenly jumped from 23,383 to 45,857, because of what we assume to be the inclusion of rapid tests ("pruebas rápidas"), as made clear by the subsequent infographic published on 27 April 2020. We therefore do not include the 24 April 2020 infographic in our time series; and from 27 April 2020 onwards, we include only PCR tests.
 On 11 May 2020, the Government of Ecuador published a [report](https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/05/BP-VARIACIONES-INFOGRAFIA-No.-074-11052020.pdf) detailing "a reclassification of the records by identity card of the persons and not by the number of tests that have been carried out". This suggests the government is moving towards reporting figures on the number of people tested, where previously they reported the number of cases tested. The reclassification partially explains the fall in the cumulative total after 4 May 2020.
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).
+Ecuador includes positive antibody tests in their figures for confirmed cases. Our testing figures—which exclude antibody tests—are not an appropriate comparison in these instances: on this basis there could be more cases than tests, which is not possible. For this reason, we do not calculate the positive rate or number of tests per confirmed case for Ecuador.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.facebook.com/nayibbukele/posts/3138372252915611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government of El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://covid19.gob.sv/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The government of El Salvador publishes an online dashboard that reports the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.
+The official dashboard only provides a daily snapshot of the number of tests performed today, making it difficult to construct a historical time series. We construct a daily time series dating back to 10 April 2020 of the cumulative number of tests performed using data posted on President Nayib Bukele's [official Facebook page](https://www.facebook.com/nayibbukele), which match the daily snapshot figures reported in the official dashboard.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
-    <t xml:space="preserve">SLV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/nayibbukele/posts/3083199355099568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government of El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://covid19.gob.sv/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The government of El Salvador publishes an online dashboard that reports the number of tests performed ("pruebas COVID19 realizadas hasta hoy"). No information is given on the geographical scope and number of labs included.
-The official dashboard only provides a daily snapshot of the number of tests performed today, making it difficult to construct a historical time series. We construct a daily time series dating back to April 10th 2020 of the cumulative number of tests performed using data posted on President Nayib Bukele's [official Facebook page](https://www.facebook.com/nayibbukele), which match the daily snapshot figures reported in the official dashboard.
+    <t xml:space="preserve">EST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.koroonakaart.ee/en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Health Information System and Patient Portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonian Health Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.terviseamet.ee/et/koroonaviirus/koroonakaart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of tests performed ("Testide koguarv")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The [Estonian Health Board (“Terviseamet”)](https://www.terviseamet.ee/en) is the source of and links to testing data visualized by Open Data Estonia on the [Koroonakaart dashboard](https://www.koroonakaart.ee/en). The dashboard contains a time series of tests per day and cumulative tests dating back to 25 February 2020, among other data. The Health Board provides [further description of the data](https://www.terviseamet.ee/et/koroonaviirus/avaandmed), including noting that past data may be revised if test results are retroactively corrected or new results are received.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/EPHI_-PHEOC_COVID-19_Weekly--bulletin_14_English_08032020.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopian Public Health Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ephi.gov.et</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The [Ethiopian Public Health Institute](https://www.ephi.gov.et) in collaboration with the [Ethiopian Ministry of Health](http://www.moh.gov.et) provides daily press releases of the number of tests performed to date. It is unclear whether the reported figures include tests for which the results are pending.
+The earliest record we have found is for 17 March 2020, at which point 79 tests had been performed to date. It is unclear when the first test was performed.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
-    <t xml:space="preserve">EST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.koroonakaart.ee/en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Health Information System and Patient Portal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonian Health Board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.terviseamet.ee/et/koroonaviirus/koroonakaart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of tests performed ("Testide koguarv")</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The [Estonian Health Board (“Terviseamet”)](https://www.terviseamet.ee/en) is the source of and links to testing data visualized by Open Data Estonia on the [Koroonakaart dashboard](https://www.koroonakaart.ee/en). The dashboard contains a time series of tests per day and cumulative tests dating back to 25 February 2020, among other data. The Health Board provides [further description of the data](https://www.terviseamet.ee/et/koroonaviirus/avaandmed), including noting that past data may be revised if test results are retroactively corrected or new results are received.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/confirmed-case-Press-release_June-29-Eng_V2-1.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopian Public Health Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ephi.gov.et</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The [Ethiopian Public Health Institute](https://www.ephi.gov.et) in collaboration with the [Ethiopian Ministry of Health](http://www.moh.gov.et) provides daily press releases of the number of tests performed to date. It is not clear whether these figures refer to the number of samples tested or the number of people tested. It is also unclear whether the reported figures include tests for which the results are pending.
-The earliest record we have found is for March 17th 2020, at which point 79 tests had been performed to date. It is unclear when the first test was performed.
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
-  </si>
-  <si>
     <t xml:space="preserve">FJI</t>
   </si>
   <si>
-    <t xml:space="preserve">Fiji - samples tested</t>
+    <t xml:space="preserve">Fiji - tests performed</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.health.gov.fj/covid-19-updates/</t>
@@ -591,7 +605,7 @@
     <t xml:space="preserve">Fiji Ministry of Health &amp; Medical Services</t>
   </si>
   <si>
-    <t xml:space="preserve">The Fiji Ministry of Health &amp; Medical Services provides a series for the number of tests per day, the number of tests per week, and the cumulative number of tests.
+    <t xml:space="preserve">The Fiji Ministry of Health &amp; Medical Services provides a series for the number of tests per day, the number of tests per week, and the cumulative number of tests conducted to date.
 The source notes "Laboratory testing for COVID-19 in Fiji began on 28 January 2020 with samples shipped to the WHO collaborating center reference laboratory – the Victorian Infectious Disease Reference Laboratory (VIDRL) at the Peter Doherty Institute for Infection and Immunity in Melbourne, Australia. Local testing for COVID-19 started at the Fiji Centre for Disease Control (Fiji CDC) on 11 March 2020 using the gold standard method for COVID-19 testing – realtime RT-PCR. Samples are sent from health facilities around the country to Fiji CDC for testing."</t>
   </si>
   <si>
@@ -625,35 +639,31 @@
     <t xml:space="preserve">France - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.santepubliquefrance.fr/content/download/269451/2684823</t>
+    <t xml:space="preserve">https://www.data.gouv.fr/fr/datasets/donnees-relatives-aux-resultats-des-tests-virologiques-covid-19/</t>
   </si>
   <si>
     <t xml:space="preserve">National Public Health Agency</t>
   </si>
   <si>
-    <t xml:space="preserve">Dividing 360,956 (weekly total) by 7</t>
+    <t xml:space="preserve">Since 13 May 2020, the National Public Health Agency has replaced its previous weekly updates of the number of tests performed with a daily-updated file with the count of people tested, available on the French government's open data portal.
+The data covers all results of test laboratories (RT-PCR) carried out by all city laboratories and hospitals concerning SARS-COV2. The source notes that "the time to report back tests can exceed 9 days in some cases. The indicators are adjusted daily according to the reception of the results."
+This data does not allow us to publish any cumulative total, since no information is available on how many people had been tested prior to the first day of reporting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.santepubliquefrance.fr/content/download/250807/2596023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding up hospital and laboratory tests.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.santepubliquefrance.fr/recherche/#search=COVID-19%20:%20point%20epidemiologique&amp;sort=dat</t>
   </si>
   <si>
-    <t xml:space="preserve">Since 29 May 2020, the National Public Health Agency has replaced its previous weekly updates of the number of tests performed (not updated since 5 May) with the weekly count of people tested.
-This data does not allow us to publish any cumulative total, since no data is available on how many people had been tested prior to the first week of reporting. However, we integrate this data into our "daily tests" time series by dividing each weekly total by 7, thereby estimating the average daily number of people tested.
-The [4 June situation report](https://www.santepubliquefrance.fr/content/download/257630/2628879) reports 236,098 people were tested from 24 to 30 May. As the two periods overlap for 24 May, we use the more recent average testing figure for this date. 
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.santepubliquefrance.fr/content/download/250807/2596023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adding up hospital and laboratory tests.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The National Public Health Agency published updates for the number of tests performed until early May. The figures in the time series relate to tests performed since 24 February. Since the 24 March update, in addition to the previously reported hospital tests, laboratory tests are also reported. Only the total number of laboratory tests performed between 24 February and 24 March is presented, without a time series. Our figure for 24 March adds the cumulative number of laboratory tests since 24 February (6,500) to the hospital tests figure (101,046). As such 24 March represents a break in the series.
-The report [dated 21 May](https://www.santepubliquefrance.fr/content/download/254170/2609369) specified a new screening information system (SI-DEP) had been deployed from week 20 (11-17 May) and that epidemiological trends and test positivity rates would be available from 28 May. The report published in late May reported the number of people tested instead of the number of tests performed, we therefore created a second time series for France.</t>
+    <t xml:space="preserve">The National Public Health Agency published updates for the number of tests performed until early May 2020. The figures in the time series relate to tests performed since 24 February 2020. Since the 24 March 2020 update, in addition to the previously reported hospital tests, laboratory tests are also reported. Only the total number of laboratory tests performed between 24 February and 24 March 2020 is presented, without a time series. Our figure for 24 March 2020 adds the cumulative number of laboratory tests since 24 February 2020 (6,500) to the hospital tests figure (101,046). As such 24 March 2020 represents a break in the series.
+The report [dated 21 May 2020](https://www.santepubliquefrance.fr/content/download/254170/2609369) specified a new screening information system (SI-DEP) had been deployed from week 20 (11-17 May 2020) and that epidemiological trends and test positivity rates would be available from 28 May 2020. The report published in late May reported the number of people tested instead of the number of tests performed, we therefore created a second time series for France.</t>
   </si>
   <si>
     <t xml:space="preserve">DEU</t>
@@ -662,7 +672,7 @@
     <t xml:space="preserve">Germany - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-07-22-de.pdf?__blob=publicationFile</t>
+    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-08-12-de.pdf?__blob=publicationFile</t>
   </si>
   <si>
     <t xml:space="preserve">Robert Koch Institut</t>
@@ -678,14 +688,17 @@
   </si>
   <si>
     <t xml:space="preserve">To determine how many laboratory tests regarding SARS-CoV-2 are carried out per calendar week in Germany and how many tests are positive or negative, the RKI has started a Germany-wide laboratory query. However, the number of laboratories reporting data seems to vary from week to week.
-The report published on 22nd July states that “from the beginning of the collection up to and including calendar week 29/2020”:
-– The cumulative total of samples tested was 7,418,812;
-- For calendar week 29 (which ends 19th July), 168 labs reported 531,571 samples tested;
-- For calendar week 28 (which ends 12th July), 175 labs reported 504,596 samples tested;
-- For calendar week 27 (which ends 5th July), 148 labs reported 500,122 samples tested;
-- For calendar week 26 (which ends 28 June), 177 labs reported 462,942 samples tested;
-- For calendar week 25 (which ends 21 June), 173 labs reported 384,311 samples tested;
-- For calendar week 24 (which ends 14 June), 171 labs reported 325,575 samples tested;
+The report published on 12 August 2020 states that “from the beginning of the collection up to and including calendar week 32/2020”:
+– The cumulative total of samples tested was 9,265,361;
+- For calendar week 32 (which ends 9 August), 139 labs reported 672,171 samples tested;
+- For calendar week 31 (which ends 2 August), 165 labs reported 577,916 samples tested;
+- For calendar week 30 (which ends 26 July), 179 labs reported 570,681 samples tested;
+- For calendar week 29 (which ends 19 July), 175 labs reported 538,144 samples tested;
+- For calendar week 28 (which ends 12 July), 178 labs reported 510,103 samples tested;
+- For calendar week 27 (which ends 5 July), 150 labs reported 505,518 samples tested;
+- For calendar week 26 (which ends 28 June), 180 labs reported 467,004 samples tested;
+- For calendar week 25 (which ends 21 June), 175 labs reported 387,484 samples tested;
+- For calendar week 24 (which ends 14 June), 172 labs reported 326,645 samples tested;
 - For calendar week 23 (which ends 7 June), 176 labs reported 340,986 samples tested;
 - For calendar week 22 (which ends 31 May), 178 labs reported 405,269 samples tested;
 - For calendar week 21( which ends 24 May), 179 labs reported 353,467 samples tested;
@@ -707,7 +720,7 @@
     <t xml:space="preserve">GHA</t>
   </si>
   <si>
-    <t xml:space="preserve">Ghana - units unclear</t>
+    <t xml:space="preserve">Ghana - samples tested</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.ghanahealthservice.org/covid19/archive.php</t>
@@ -722,13 +735,10 @@
     <t xml:space="preserve">https://www.ghanahealthservice.org/covid19/</t>
   </si>
   <si>
-    <t xml:space="preserve">The units are unclear. Some press releases mention "people tested", while others give figures for "samples tested".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana's Outbreak Response Management provides [daily situation updates](https://www.ghanahealthservice.org/covid19/archive.php) on the total number of people *or* total samples tested for the coronavirus. 
-Between 10 and 26 May 2020, the reports explicitly include figures for both the number of samples tested and the number of persons tested. Over this period the two figures presented are very close to each other, with the number of persons tested around 0.5% lower than the number of samples tested.
-Prior to this period, a single testing figure was provided in each report labeled variously as the number of persons tested, suspected cases tested, samples tested, or without a clear label either way. It is not clear whether this reflects only an inconsistent labelling of a consistent unit of measurement, or whether the reported units were varying in accordance with the provided labels. In either case, the similarity between the number of persons tested and samples tested apparent between 10 and 26 May suggests this issue is unlikely to have a meaningful impact on the series.
-For this reason we include all observations prior to 10 May in this series, regardless of the label applied in the report. From the 10 May onwards we use the figures that have been consistently labeled as the number of samples tested.</t>
+    <t xml:space="preserve">Ghana's Outbreak Response Management provides [daily situation updates](https://www.ghanahealthservice.org/covid19/archive.php) on the total number of samples tested, often provided with a breakdown of the number of samples tested through routine surveillance, contact tracing, and mandatory quarantine. 
+Between 10 and 26 May 2020, the daily situation updates provide figures for both the number of samples tested and the number of persons tested. Over this period the two figures differ from one another by exactly 981 tests on each day, which is due to the fact that many of the 1,041 cumulative persons tested under mandatory quarantine were tested multiple times (2,022 samples tested on 1,041 persons). This discrepancy of 981 tests is small, representing less than 1% of cumulative samples tested at the time. In contrast, the cumulative number of samples tested through routine surveillance and contact tracing are exactly equal to the cumulative number of persons tested on each day in these respective categories.
+Prior to 10 May 2020, the daily situation updates provide testing figures using inconsistent terminology, varying between "samples tested", "persons tested", "suspected cases tested", and similar language. Nevertheless, we choose to include all of these figures within our constructed time series, since the variation in terminology does not appear to correspond to large breaks in the time series. In addition, based on the fact that the number of samples tested differs only slightly from the number of persons tested over the 10 May to 26 May 2020 period, we have no reason to believe that the variation in terminology prior to 10 May has any serious ramifications for the interpretation of the time series as the cumulative number of samples tested.
+From 10 May 2020 onwards, the daily situation updates consistently report the cumulative number of samples tested.</t>
   </si>
   <si>
     <t xml:space="preserve">GRC</t>
@@ -737,7 +747,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200724/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200813</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -750,9 +760,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Greek National Organization of Public Health publishes daily COVID-19 press releases detailing the number of confirmed cases, deaths and samples tested. 
-The report refers to the number of clinical samples that have been tested to date since 1st January 2020. This includes the number of samples that tested either positive or negative. Reports are also explicit that the figures relate to samples tested and not the number of people, with figures "including more than one sample per person tested" ("συμπεριλαμβάνονται και περισσότερα από ένα δείγματα ανά άτομο που ελέγχθηκε").
+The report refers to the number of clinical samples that have been tested to date since 1 January 2020. This includes the number of samples that tested either positive or negative. Reports are also explicit that the figures relate to samples tested and not the number of people, with figures "including more than one sample per person tested" ("συμπεριλαμβάνονται και περισσότερα από ένα δείγματα ανά άτομο που ελέγχθηκε").
 It is not clear whether the data covers all testing in Greece as the source report notes these are "Samples that have been tested in the laboratories cooperating with EODY" ("Δείγματα που έχουν ελεγχθεί στα συνεργαζόμενα με τον ΕΟΔΥ εργαστήρια").
-The archived official website provides a [list of daily reports](http://web.archive.org/web/20200531055629/https://eody.gov.gr/epidimiologika-statistika-dedomena/imerisies-ektheseis-covid-19/). The earliest archived report available is from 20th March when 7172 clinical samples had been tested since 1st January 2020 with the most recent dated 30th May. From 3rd April, daily reports are available via the Greek National Organization of Public Health's [COVID-19 Announcements and press releases](https://eody.gov.gr/category/covid-19).
+The archived official website provides a [list of daily reports](http://web.archive.org/web/20200531055629/https://eody.gov.gr/epidimiologika-statistika-dedomena/imerisies-ektheseis-covid-19/). The earliest archived report available is from 20 March 2020 when 7,172 clinical samples had been tested since 1 January 2020 with the most recent dated 30 May 2020. From 3 April 2020, daily reports are available via the Greek National Organization of Public Health's [COVID-19 Announcements and press releases](https://eody.gov.gr/category/covid-19).
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -774,9 +784,9 @@
     <t xml:space="preserve">https://www2.chp.gov.hk/search/en/chp_search_result.php?q=Statistics+on+Testing+for+COVID-19+in+Hong+Kong&amp;fq_yr=&amp;fq_ct=&amp;fq_ft=&amp;pq%5B%5D=COVID-19+Virus&amp;sort=&amp;csrf=f41b48912ee32b344b9d9ee98f793d5c&amp;page=1</t>
   </si>
   <si>
-    <t xml:space="preserve">The Hong Kong Centre for Health Protection, Department of Health provides monthly numbers of the COVID-19 viral tests performed. We calculate the cumulative number of tests performed each month in our series. The last update with provisional data is up until 14th April 2020, this information is updated once a week by the Centre for Health Protection. 
+    <t xml:space="preserve">The Hong Kong Centre for Health Protection, Department of Health provides monthly numbers of the COVID-19 viral tests performed. We calculate the cumulative number of tests performed each month in our series. The last update with provisional data is up until 14 April 2020, this information is updated once a week by the Centre for Health Protection. 
 Tests performed are conducted by the Public Health Laboratory Services Branch of the Department of Health and Hospital Authority.
-The cumulative total begins from 01/01/2020.
+The cumulative total begins from 1 January 2020.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -840,7 +850,7 @@
     <t xml:space="preserve">The ICMR reports separate figures for both “samples tested” and “people tested” at press conferences and in press releases (shown separately in the charts above). No other details are provided.
 The press releases from ICMR do not always stay online for very long. The reason for this is unknown, but the releases are being backed up at this [GitHub repository](https://github.com/datameet/covid19).
 On some occasions there appear to have been more than one update released per day. Where we are aware of multiple observations for the day, we show the number for the earlier release.
-The ICMR website does not explicitly state whether the reported figures refer to PCR tests only. From contextual information, it appears that the reported figures may also include samples that were tested using a TrueNat non-PCR test. ICMR communications on [May 21st 2020](https://www.icmr.gov.in/pdf/press_realease_files/ICMR_Press_Release_TruNat_21052020.pdf) and [April 19th 2020](https://www.icmr.gov.in/pdf/covid/labs/Additional_guidance_on_TrueNat_based_COVID19_testing.pdf) indicate that TrueNat tests are being used in diagnostic testing. These TrueNat tests likely account for a small minority of all samples tested.
+The ICMR website does not explicitly state whether the reported figures refer to PCR tests only. From contextual information, it appears that the reported figures may also include samples that were tested using a TrueNat non-PCR test. ICMR communications on [21 May 2020](https://www.icmr.gov.in/pdf/press_realease_files/ICMR_Press_Release_TruNat_21052020.pdf) and [19 April 2020](https://www.icmr.gov.in/pdf/covid/labs/Additional_guidance_on_TrueNat_based_COVID19_testing.pdf) indicate that TrueNat tests are being used in diagnostic testing. These TrueNat tests likely account for a small minority of all samples tested.
 Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -862,15 +872,11 @@
     <t xml:space="preserve">https://covid19.kemkes.go.id/</t>
   </si>
   <si>
-    <t xml:space="preserve">The number of cases tested.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Indonesian Ministry of Health updates its COVID-19 dashboard twice a day but doesn't keep time series of past data. The two URLs ([1](https://infeksiemerging.kemkes.go.id/), [2](https://covid19.kemkes.go.id/)) seem to lead to the exact same dashboard.
+    <t xml:space="preserve">The Indonesian Ministry of Health updates its COVID-19 dashboard twice a day but doesn't keep time series of past data. We found past values using Internet Archive's Wayback Machine. The two dashboard URLs ([1](https://infeksiemerging.kemkes.go.id/), [2](https://covid19.kemkes.go.id/)) seem to lead to the exact same dashboard.
 The dashboard shows the latest number of "Kasus dg Spesimen Diperiksa", which translates to "Cases with Specimens Checked".
-We found past values using Internet Archive's Wayback Machine.
-There is some reason to believe that non-PCR tests are included in the cumulative number of specimens checked to date. [Official COVID-19 diagnostic guidelines](https://covid19.kemkes.go.id/download/Pedoman_Penanganan_Cepat_Medis_dan_Kesehatan_Masyarakat_COVID-19_di_Indonesia.pdf.pdf) published on March 23rd 2020 state that: 
+[Official diagnostic guidelines](https://covid19.kemkes.go.id/download/Pedoman_Penanganan_Cepat_Medis_dan_Kesehatan_Masyarakat_COVID-19_di_Indonesia.pdf.pdf) published on 23 March 2020 provide some reason to be concerned that serological (antibody) tests are included in the cumulative testing figures, stating that:
 "Handling of COVID-19 in Indonesia uses antibodies and / or antigen Rapid Tests (RT) in case of contact from a positive patient. RT antibodies are also used for case detection...in areas that do not have facilities for RT-PCR inspection. RT antibody examination results are confirmed using RT-PCR." (translated)
-We cannot find explicit confirmation of whether the reported testing figures include or exclude non-PCR tests.
+However, testing figures provided by the [National Agency for Disaster Countermeasure (BNPB)](https://www.bnpb.go.id/) via [twitter](https://twitter.com/bnpb_indonesia?lang=en) explicitly report the number of PCR tests conducted to date, which match the cumulative testing figures provided in the Ministry of Health dashboard. The PCR testing figures reported by the BNPB include a small number of "rapid molecular tests" ("Test Cepat Molekular"), which are diagnostic tests not to be confused with serological (antibody) tests. Of 998,406 cumulative people tested as of 11 August 2020, 26,184 (2.6%) were tested via rapid molecular testing ([source](https://twitter.com/BNPB_Indonesia/status/1293105682791542784)). These rapid molecular testing figures are included in the time series we construct.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -880,7 +886,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/343812</t>
+    <t xml:space="preserve">http://irangov.ir/detail/345030</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -889,8 +895,8 @@
     <t xml:space="preserve">http://irangov.ir/</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government of Iran provides daily press releases of the cumulative number of tests performed to date. It is not clear whether the reported figures refer to the number of samples tested or number of people tested. It is also unclear whether the reported figures include tests for which the results are pending.
-We have found testing data dating back to April 5th 2020, at which point 189,790 tests had been conducted to date. It is not clear when the first test was conducted.
+    <t xml:space="preserve">The Government of Iran provides daily press releases of the cumulative number of tests performed to date. It is unclear whether the reported figures include tests for which the results are pending.
+We have found testing data dating back to 5 April 2020, at which point 189,790 tests had been conducted to date. It is not clear when the first test was conducted.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -917,7 +923,7 @@
     <t xml:space="preserve">Israel - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://govextra.gov.il/media/23021/covid19-data-israel-17072020.csv</t>
+    <t xml:space="preserve">https://govextra.gov.il/media/24300/covid19-data-israel-06082020.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Israel Ministry of Health</t>
@@ -927,9 +933,9 @@
   </si>
   <si>
     <t xml:space="preserve">The Israel Ministry of Health publishes a coronavirus dashboard on its [website](https://govextra.gov.il/ministry-of-health/corona/corona-virus/). It includes a downloadable data file which includes the cumulative number of coronavirus detection tests conducted. This data file is updated daily and includes data up to one week before publication. 
-The first observation in the time series is from 26th January which covers most, if not all, of the relevant period. 
+The first observation in the time series is from 26 January 2020 which covers most, if not all, of the relevant period. 
 No further information on the geographical scope, number of labs, or types of test included are known.
-The MOH also publishes COVID-19 updates on its official channel on Telegram. However, this data is published in a format that is extremely challenging to collect. We previously relied on the data collected and made available [on GitHub](https://github.com/idandrd/israel-covid19-data/blob/master/Corona-Tests.csv). On 19 April 2020, the person who maintains the GitHub repository confirmed to us that the units refer to the number of tests performed, after checking the information with the Ministry of Health. However, on 29 May we became aware of the easily accessible Israel MOH series which we now report.</t>
+The MOH also publishes COVID-19 updates on its official channel on Telegram. However, this data is published in a format that is extremely challenging to collect. We previously relied on the data collected and made available [on GitHub](https://github.com/idandrd/israel-covid19-data/blob/master/Corona-Tests.csv). On 19 April 2020, the person who maintains the GitHub repository confirmed to us that the units refer to the number of tests performed, after checking the information with the Ministry of Health. However, on 29 May 2020 we became aware of the easily accessible Israel MOH series which we now report.</t>
   </si>
   <si>
     <t xml:space="preserve">ITA</t>
@@ -976,7 +982,7 @@
     <t xml:space="preserve">Japan - people tested (incl. non-PCR)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_12616.html</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_12978.html</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Labor and Welfare Press Release</t>
@@ -991,25 +997,25 @@
     <t xml:space="preserve">https://www.mhlw.go.jp/stf/houdou/houdou_list_202004.html</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Health, Labor and Welfare issues daily reports for the total number of people tested. Daily changes in the number of people tested are included in parentheses. For the 3rd and 21st April, the daily changes do not reconcile with the cumulative totals. Moreover, it is clear that revisions to past data are simply added to the new cumulative total, making the time series of 'daily tests' very erratic.
-This includes three cases where the cumulative number of people tested falls: (1) 19/03; (2) 25/03; and (3) 15/05. For case (1) see footnote 4 which indicates a past mistake has been noticed and the cumulative figure revised on the date to adjust for this. For case (2), we could not find the associated footnote. For case (3), see footnote 3 of the press release which indicates a past mistake has been noticed and the cumulative figure revised on the date to adjust for this.
-It isn't clear what exact date these cumulative tests date back to, but it is earlier than 10 Feb when the source reports 938 people had been tested. Prior to the 10 Feb, the press releases provide reports of coronavirus infections for the Diamond Princess cruise ship quarantined in Yokohama port. We do not report these numbers in the time series as it is unclear how they relate to the cumulative totals.
-The MOH's press release dated 10/07 notes "The Tokyo Metropolitan Government has retroactively changed the number of people who perform tests after July 9, and the number of people after May 13 includes the number of antigen tests in addition to PCR tests. (4,000 or more) is increasing" via google translate. The MOH's 15/07 press release, see footnote 3 which also notes "For some local governments, the number of antigen testers is included." via google translate.
+    <t xml:space="preserve">The Ministry of Health, Labor and Welfare issues daily reports for the total number of people tested. Daily changes in the number of people tested are included in parentheses. For 3 April and 21 April 2020, the daily changes do not reconcile with the cumulative totals. Moreover, it is clear that revisions to past data are simply added to the new cumulative total, making the time series of 'daily tests' very erratic.
+This includes three cases where the cumulative number of people tested falls: (1) 19 March 2020; (2) 25 March 2020; and (3) 15 May 2020. For case (1) see footnote 4 which indicates a past mistake has been noticed and the cumulative figure revised on the date to adjust for this. For case (2), we could not find the associated footnote. For case (3), see footnote 3 of the press release which indicates a past mistake has been noticed and the cumulative figure revised on the date to adjust for this.
+It isn't clear what exact date these cumulative tests date back to, but it is earlier than 10 February 2020 when the source reports 938 people had been tested. Prior to 10 February 2020, the press releases provide reports of coronavirus infections for the Diamond Princess cruise ship quarantined in Yokohama port. We do not report these numbers in the time series as it is unclear how they relate to the cumulative totals.
+The MOH's press release dated 10 July 2020 notes "The Tokyo Metropolitan Government has retroactively changed the number of people who perform tests after July 9, and the number of people after May 13 includes the number of antigen tests in addition to PCR tests. (4,000 or more) is increasing" (translated). In the MOH's 15 July 2020 press release, footnote 3 mentions that "For some local governments, the number of antigen testers is included." (translated).
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000651927.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cumulative total reported in the press release (943,692) does not sum to the cumulative total calculated from the weekly and daily figures reported by the MOH. See: https://www.mhlw.go.jp/content/10906000/000651927.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On 11th April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the date on which results were determined" (via Google translate). 
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000659117.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cumulative total reported in the press release matches the cumulative total calculated from the weekly and daily figures reported by the MOH.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On 11 April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the date on which results were determined" (via Google translate). 
 With each update, some daily totals are revised from earlier releases of the time series. 
-From 20th May, the MOH changed how it reports the number of tests performed. From 18th February to 25th March (as of 20/05/2020), the MOH reports the number of tests implemented each week, and the daily totals thereafter. We calculate the cumulative total from the weekly and daily figures. There are instances where the cumulative totals reported in the press releases do not sum to the cumulative total calculated from the weekly and daily figures. This includes the series released on 20/21 and 24/25 May. The source does not provide additional details about this discrepancy.</t>
+From 20 May 2020, the MOH changed how it reports the number of tests performed. From 18 February to 25 March 2020 (as of 20 May 2020), the MOH reports the number of tests implemented each week, and the daily totals thereafter. We calculate the cumulative total from the weekly and daily figures. There are instances where the cumulative totals reported in the press releases do not sum to the cumulative total calculated from the weekly and daily figures. This includes the series released on 20/21 May and 24/25 May 2020. The source does not provide additional details about this discrepancy.</t>
   </si>
   <si>
     <t xml:space="preserve">KAZ</t>
@@ -1026,16 +1032,16 @@
   <si>
     <t xml:space="preserve">The Kazakhstan National Center for Public Health provides an official time series of the total number of tests performed to date. It is unclear whether the reported figures include tests for which the results are pending.
 The website explicitly states that "one person could be tested several times", indicating that the number of tests performed ("Проведено тестов") is not equivalent to the number of people tested. The reported number of tests performed may include non-PCR tests. [Official COVID-19 prevention guidelines](https://hls.kz/uploads/covid/%D0%9F%D0%93%D0%93%D0%A1%D0%92%20%E2%84%9636%20%D0%BA%D0%B0%D0%B7.docx) indicate that antibody (non-PCR) tests are an important aspect of the country's screening and diagnostic process (see pages 48-54). But the source does not explicitly state whether these non-PCR tests are included in the reported cumulative number of tests performed to date.
-The earliest reported figure is from March 13th 2020, at which point 126 tests had been conducted. It is unclear whether March 13th was the first date on which tests were conducted.</t>
+The earliest reported figure is from 13 March 2020, at which point 126 tests had been conducted.</t>
   </si>
   <si>
     <t xml:space="preserve">KEN</t>
   </si>
   <si>
-    <t xml:space="preserve">Kenya - units unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1286301199650762752</t>
+    <t xml:space="preserve">Kenya - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1293167082423672835</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -1044,12 +1050,10 @@
     <t xml:space="preserve">http://www.health.go.ke</t>
   </si>
   <si>
-    <t xml:space="preserve">Units are unclear, and could refer to the number of samples tested, or people tested.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Kenya Ministry of Health provides daily press releases and tweets ([@MOH_Kenya](https://twitter.com/MOH_Kenya)), sometimes reporting the number of tests conducted in the past 24 hours and sometimes reporting the total number of tests conducted to date.
-It is not clear whether the reported figures refer to the number of samples tested or number of people tested, since the press releases and tweets variably use the terminology "samples tested", "tests conducted", and "people tested" at different points in time. It is also unclear whether the reported figures include tests for which the results are pending.
-We have found testing data dating back to March 6th 2020, at which point 31 tests had been conducted to date. It is not clear when the first test was conducted.
+    <t xml:space="preserve">The Kenya Ministry of Health provides daily press releases and tweets ([@MOH_Kenya](https://twitter.com/MOH_Kenya)), sometimes reporting the number of samples tested in the past 24 hours and sometimes reporting the cumulative number of samples tested to date.
+The tweets and press releases usually report testing figures in terms of the number of "samples tested". However, the wording used in some tweets and press releases makes it unclear whether the figures relate to the number of samples tested or the number of people tested. For example, the relevant tweet on [4 June 2020](https://twitter.com/MOH_Kenya/status/1268563481235787776) says "2,640 samples tested in the last 24 hours", while the relevant tweet on [1 August 2020](https://twitter.com/MOH_Kenya/status/1289552051916009475) states that "727 people are the latest to test positive for Covid-19 from a sample of 6,371 tested in the last 24 hrs". It does not appear that this inconsistency in terminology reflects a substantive change in the figures that are reported, since there are no large breaks in the time series that correspond to the use of "samples tested" versus "people tested" terminology. Instead, the wording of the tweets and press releases suggests that the reported number of samples tested may be equivalent to the number of people tested.
+It is unclear whether the reported figures include tests for which the results are pending.
+We have found testing data dating back to 6 March 2020, at which point 31 tests had been conducted to date.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1059,7 +1063,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1286269952035639296/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1293849840422715392/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1068,7 +1072,7 @@
     <t xml:space="preserve">https://twitter.com/KUWAIT_MOH</t>
   </si>
   <si>
-    <t xml:space="preserve">The Kuwait Ministry of Health provides daily reports of the daily ("NEW TESTS") and cumulative ("Total") number of tests performed on [their official Twitter account](https://twitter.com/KUWAIT_MOH). COVID-19 reports date back to early March 2020 but did not begin including testing numbers until 13 May; the cumulative total then was already 227,000. From 13 to 29 May, the daily number was termed "NP swab last 24 h" and the cumulative number "Total Investigations."
+    <t xml:space="preserve">The Kuwait Ministry of Health provides daily reports of the daily ("NEW TESTS") and cumulative ("Total") number of tests performed on [their official Twitter account](https://twitter.com/KUWAIT_MOH). COVID-19 reports date back to early March 2020 but did not begin including testing numbers until 13 May 2020; the cumulative total then was already 227,000. From 13–29 May 2020, the daily number was termed "NP swab last 24 h" and the cumulative number "Total Investigations."
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1099,7 +1103,7 @@
     <t xml:space="preserve">http://sam.lrv.lt/lt/naujienos/koronavirusas</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Health provides fairly regular updates of the number of samples that have been analyzed/tested for suspected coronavirus, to date ("Iki šiol iš viso ištirta ėminių dėl įtariamo koronaviruso"). It is not clear the exact date these cumulative figures date back to. Using web archives, we construct a time series by looking at earlier snapshots of the website.
+    <t xml:space="preserve">The Ministry of Health provides fairly regular updates of the number of samples that have been analyzed/tested for suspected coronavirus to date ("Iki šiol iš viso ištirta ėminių dėl įtariamo koronaviruso"). It is not clear the exact date these cumulative figures date back to. Using web archives, we construct a time series by looking at earlier snapshots of the website.
 The figures exclude samples that remain untested (i.e. tests pending results).
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
@@ -1110,54 +1114,48 @@
     <t xml:space="preserve">Luxembourg - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html</t>
+    <t xml:space="preserve">https://msan.gouvernement.lu/fr/graphiques-evolution.html</t>
   </si>
   <si>
     <t xml:space="preserve">Luxembourg Government situation update</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gouvernement.lu/en/dossiers.gouv_msan%2Ben%2Bdossiers%2B2020%2Bcorona-virus.html#bloub-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Luxembourg government provides a daily situation update listing the 'number of persons tested since the beginning of the crisis'.
-Using web archives, we construct a time series by looking at earlier snapshots of the website. Gaps in the series are due to the lack of archived pages for those particular dates. Archives dating back to April 1st are available.
-Earlier updates listed their figures as 'tests carried out'. Given that there is no visible break in the series, we assume that the figures have always related to the number of people tested and the change in label reflects only a clarification of this.
+    <t xml:space="preserve">The Luxembourg government provides a complete time series of the cumulative number of people tested since 25 February 2020.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/082020/situasi-terkini-13-ogos-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumlah individu disampel' via google translate is interpreted to be the number of individuals sampled. See the 'Taburan Kes' tab at the very bottom of the update.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Malaysian Ministry of Health provides daily [situation updates](http://covid-19.moh.gov.my/terkini), including the cumulative number of individuals sampled, available from 19 May 2020. This figure can be found in the infographic titled 'Jumlah Keseluruhan Taburan Kes COVID-19 di Malaysia' labelled as 'Jumlah Individu Disampel'. Since 19 April 2020, we are not aware of this source reporting positive, negative, and pending test figures separately, as was the case before. 
+The situation updates for 27/28 May 2020 and 2 June 2020 onwards do not include the infographic detailing the total number of people tested. In these instances, we rely on the MOH daily press conference livestreams uploaded to the official facebook page. The sum of positive and negative tests reported in the livestream match the total people tested figures reported in the situation updates.
+For 14/15 May 2020, we use the Director General of Health, [daily press statement figures](https://kpkesihatan.com/2020/05/15/kenyataan-akhbar-kpk-15-mei-2020-situasi-semasa-jangkitan-penyakit-coronavirus-2019-covid-19-di-malaysia/). It details the jump in people tested from 14th to 15th May was due to data consolidation efforts and an improved data collection system.
+Prior to 19 May 2020, we relied on MOH web archives to reconstruct the time series. The MOH provided daily updates to the total number of cases tested. It is not clear the exact date these cumulative figures date back to. The earliest release we have been able to find begins from the 14 February 2020. This MOH web archive provides a breakdown of the number of positive, negative, and still pending tests. We report total tests as the sum of positive and negative tests, excluding pending tests. The title of the table indicates that these figures relate to cases. As far as we are aware, cases are equivalent to individuals tested.
+In a previous version of this page, we reported total tests as the sum of positive, negative, and pending tests. However, since 7 April 2020, the source has not reported the number of pending tests each day. For this reason, we have updated the time series so that total tests is equal to the sum of positive and negative tests (excluding pending tests) for all days on which we report data.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
-    <t xml:space="preserve">MYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/072020/situasi-terkini-24-julai-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Health Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumlah individu disampel' via google translate is interpreted to be the number of individuals sampled. See the 'Taburan Kes' tab at the very bottom of the update.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Malaysian Ministry of Health provides daily [situation updates](http://covid-19.moh.gov.my/terkini), including the cumulative number of individuals sampled, available from 19th May. This figure can be found in the infographic titled 'Jumlah Keseluruhan Taburan Kes COVID-19 di Malaysia' labelled as 'Jumlah Individu Disampel'. Since 19th April 2020, we are not aware of this source reporting positive, negative, and pending test figures separately, as was the case before. 
-The situation updates for 27/28 May and 2 June onwards do not include the infographic detailing the total number of people tested. In these instances, we rely on the MOH daily press conference livestreams uploaded to the official facebook page. The sum of positive and negative tests reported in the livestream match the total people tested figures reported in the situation updates. 
-For 14/15 May, we use the Director General of Health, [daily press statement figures](https://kpkesihatan.com/2020/05/15/kenyataan-akhbar-kpk-15-mei-2020-situasi-semasa-jangkitan-penyakit-coronavirus-2019-covid-19-di-malaysia/). It details the jump in people tested from 14th to 15th May was due to data consolidation efforts and an improved data collection system.
-Prior to 19th May, we relied on MOH web archives to reconstruct the time series. The MOH provided daily updates to the total number of cases tested. It is not clear the exact date these cumulative figures date back to. The earliest release we have been able to find begins from the 14th February. This MOH web archive provides a breakdown of the number of positive, negative, and still pending tests. We report total tests as the sum of positive and negative tests, excluding pending tests. The title of the table indicates that these figures relate to cases. As far as we are aware, cases are equivalent to individuals tested.
-In a previous version of this page, we reported total tests as the sum of positive, negative, and pending tests. However, since April 7th 2020, the source has not reported the number of pending tests each day. For this reason, we have updated the time series so that total tests is equal to the sum of positive and negative tests (excluding pending tests) for all days on which we report data.
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
-  </si>
-  <si>
     <t xml:space="preserve">MDV</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1285984866354573312/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1293962737379409927/photo/11</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1170,8 +1168,8 @@
   </si>
   <si>
     <t xml:space="preserve">The Maldives Health Protection Agency, part of the Ministry of Health, provides daily updates on their official Twitter page ([@HPA_MV](https://twitter.com/HPA_MV)) with the cumulative total of samples tested. They note that the total includes “repeated samples,” and likely also includes pending tests. This is our source starting 26 June 2020.
-Before the 26th, our source was daily update videos posted to the Maldives Ministry of Health [official Facebook page](https://www.facebook.com/MinistryOfHealthMV). Toward the end of these videos they report the number of positive, pending, and total “Laboratory Sample[s]” tested; before 16 June the number of negative samples was also reported. The positive, negative, and total numbers are cumulative, while the pending numbers are current as of that day.
-From 16-25 June, we used the reported total, which likely includes pending tests. Before the 16th when negative numbers were reported, we used the total of positive and negative numbers rather than the reported total, since the latter generally included pending values and occasionally contained discrepant numbers that did not match any combination of the positive, negative, or pending numbers. It is not clear when testing first began; data is only available from 16 March where it was reported that 221 tests had been conducted.
+Before the 26 June 2020, our source was daily update videos posted to the Maldives Ministry of Health [official Facebook page](https://www.facebook.com/MinistryOfHealthMV). Toward the end of these videos they report the number of positive, pending, and total “Laboratory Sample[s]” tested; before 16 June 2020 the number of negative samples was also reported. The positive, negative, and total numbers are cumulative, while the pending numbers are current as of that day.
+From 16–25 June 2020, we used the reported total, which likely includes pending tests. Before the 16th when negative numbers were reported, we used the total of positive and negative numbers rather than the reported total, since the latter generally included pending values and occasionally contained discrepant numbers that did not match any combination of the positive, negative, or pending numbers. It is not clear when testing first began; data is only available from 16 March 2020 where it was reported that 221 tests had been conducted.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1224,7 +1222,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1285986731226005507/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1293960058716422146/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1234,7 +1232,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Morocco Ministry of Health [provides daily updates](http://www.covidmaroc.ma/pages/Accueil.aspx) of the cumulative number of both confirmed cases (“Cas confirmés”) and cases excluded following a negative laboratory result (“Cas exclus suite à un résultat négatif du laboratoire”); we add these two numbers together to derive a cumulative total. We construct a time series of the cumulative total number of cases tested to date using updates from the Ministry of Health's official Twitter page, ([@Ministere_Sante](https://twitter.com/Ministere_Sante)). There are usually two updates per day, and we use the later one. The earliest reported numbers are from 7 February 2020, at which point 9 cases had been tested.
-From 2 March to 18 May we used data stored in [this unofficial GitHub repository](https://github.com/RedaElmar/COVID-19_Morocco) instead of the official source to automate data collection. We have cross-checked a sample of the figures reported in the unofficial source against official data reported by the Ministry of Health to ensure accuracy.
+From 2 March to 18 May 2020 we used data stored in [this unofficial GitHub repository](https://github.com/RedaElmar/COVID-19_Morocco) instead of the official source to automate data collection. We have cross-checked a sample of the figures reported in the unofficial source against official data reported by the Ministry of Health to ensure accuracy.
 Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1253,8 +1251,8 @@
     <t xml:space="preserve">https://mohs.gov.mm/Home</t>
   </si>
   <si>
-    <t xml:space="preserve">The Myanmar Ministry of Health and Sports provides a daily snapshot of the total number of specimens tested to date. These figures include positive and negative test results, but exclude pending results.
-The earliest reported figure that we have been able to find on the ministry website is from April 3rd 2020, at which point 1183 specimens had been tested.
+    <t xml:space="preserve">The Myanmar Ministry of Health and Sports provides [daily situation reports](https://mohs.gov.mm/page/9575) of the total number of samples tested to date. These figures include positive and negative test results, but exclude pending results.
+The earliest reported figure we have been able to find on the ministry website is from 3 April 2020, at which point 1,183 samples had been tested.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1264,7 +1262,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1G0cbyBZzwdwg1ANtRlOq_2Z0r5UbVwcf</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1hNjlpuQLYfn8PocMYmHBp1zXFvTDfyVX</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1274,7 +1272,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Nepal Ministry of Health and Population publishes daily reports on COVID-19, including the number of RT-PCR tests performed nationally and in different labs.
-Before 11 May 2020, the reports differentiated between positive, negative, and pending tests, allowing removal of pending tests from the total. Since 11 May the number of pending tests is no longer reported and thus it is unclear if they are included in the reported total.
+Before 11 May 2020, the reports differentiated between positive, negative, and pending tests, allowing removal of pending tests from the total. Since 11 May 2020 the number of pending tests is no longer reported and thus it is unclear if they are included in the reported total.
 Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1284,7 +1282,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-07/COVID-19_WebSite_rapport_wekelijks_20200721_1135.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-08/COVID-19_WebSite_rapport_wekelijks_20200811_1158_0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1296,9 +1294,9 @@
     <t xml:space="preserve">https://www.rivm.nl/coronavirus-covid-19/grafieken</t>
   </si>
   <si>
-    <t xml:space="preserve">The Dutch National Institute for Public Health and the Environment releases daily epidemiological reports of the COVID-19 situation. The reports contain a weekly time series of the number of persons tested per week since March 9th 2020. The reports also include the number of persons tested per day in the current week.
+    <t xml:space="preserve">The Dutch National Institute for Public Health and the Environment releases daily epidemiological reports of the COVID-19 situation. The reports contain a weekly time series of the number of persons tested per week since 9 March 2020. The reports also include the number of persons tested per day in the current week.
 There appear to be reporting lags, such that the number of labs reporting for days in the current week tend to be lower than for the previous week. As a result, the reported figures are updated retrospectively as additional labs report their results. The figures we display are based on the latest available epidemiological report.
-The epidemiological reports state that 'all laboratories in the Netherlands that perform diagnostics for SARS-CoV-2 have been asked from 9 March to report these data daily.' However, the number of labs reporting in a given weekly figure has varied over the course of the reports, which may affect the consistency of the time series we present.</t>
+The epidemiological reports state that 'all laboratories in the Netherlands that perform diagnostics for SARS-CoV-2 have been asked from 9 March 2020 to report these data daily.' However, the number of labs reporting in a given weekly figure has varied over the course of the reports, which may affect the consistency of the time series we present.</t>
   </si>
   <si>
     <t xml:space="preserve">NZL</t>
@@ -1313,7 +1311,7 @@
     <t xml:space="preserve">New Zealand Ministry of Health</t>
   </si>
   <si>
-    <t xml:space="preserve">The New Zealand Ministry of Health provide a time series for tests per day and cumulative tests. The daily figures begin on 9 March, and the cumulative figures date back to 22 January when testing began.
+    <t xml:space="preserve">The New Zealand Ministry of Health provide a time series for tests per day and cumulative tests. The daily figures begin on 9 March 2020, and the cumulative figures date back to 22 January 2020 when testing began.
 A note to the data states that "The total number of tests conducted is greater than the number of people tested, because some people are tested more than once."</t>
   </si>
   <si>
@@ -1333,7 +1331,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Nigeria Centre for Disease Control, on the homepage of the website dedicated to COVID-19, publishes a number of samples tested.
-This table often displays figures in a format such as "&gt; 7153". When this is the case, we have taken the raw number (in our example 7153) as the cumulative total for that day.
+This table often displays figures in a format such as "&gt; 7153". When this is the case, we have taken the raw number (in our example 7,153) as the cumulative total for that day.
 No information is given on the geographical scope and number of labs included. It is also unclear whether the reported figures include tests for which the results are pending.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
@@ -1359,7 +1357,7 @@
     <t xml:space="preserve">The Norwegian Institute of Public Health produce daily update reports of confirmed cases, deaths and test results. This information includes demographic information of confirmed cases.
 These daily reports state the cumulative number of people who have been tested – including the number and share who tested positive. We can use these daily updates to construct a full time-series. Note that the source states that "Data for the last few days is incomplete and will be updated in upcoming daily reports", that the "Number of tested and proportion of positive findings among the tested is affected by changes in test criteria". It also notes that "Laboratory data is now retrieved from the new national laboratory database, which gives us [a] more complete data set with regard to sampling date". Earlier reports noted that "The figure contains only numbers from laboratories that have reports that include the sampling date" [all via Google Translate]. As such, this seems to imply an increase in coverage across laboratories over time.
 In addition to the aggregate number of people tested, the source provides a regional breakdown, in which it is noted that tests in 'private labs that analyze tests across the country' are excluded. The sum of this breakdown is lower than the aggregate figure provided. We take this as an indication that the main aggregate figure we report includes all private testing.
-Daily reports with figures on testing are only available dating back to 16th March. We therefore do not know the first date of testing, only that as of 16th March, 18062 people had been tested.
+Daily reports with figures on testing are only available dating back to 16 March 2020. We therefore do not know the first date of testing, only that as of 16 March 2020, 18,062 people had been tested.
 The time of day to which the testing figures relate appears to have changed. Earlier daily reports refers to those tested up until 3pm (local time) of the previous day. More recent reports relate to those tested up until midnight (local time) of the previous day.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
@@ -1370,7 +1368,7 @@
     <t xml:space="preserve">Oman - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/OmanVSCovid19/status/1286587083197485056</t>
+    <t xml:space="preserve">https://twitter.com/OmanVSCovid19/status/1291041843514310657</t>
   </si>
   <si>
     <t xml:space="preserve">Oman Ministry of Health</t>
@@ -1383,7 +1381,8 @@
   </si>
   <si>
     <t xml:space="preserve">The Oman Ministry of Health provides daily statements, including the total number of tests within the last 24 hours. It is unclear whether tests refer to samples or individuals tested. 
-The earliest observation on testing figures begins from 4 June. No cumulative total is provided by the source, therefore this time series is only visible on our graphs for daily tests.
+The earliest observation on testing figures begins from 4 June 2020. No cumulative total is provided by the source, therefore this time series is only visible on our graphs for daily tests.
+The daily statements issued by the MOH do not provide test figures after 6 August 2020. 
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1434,12 +1433,9 @@
     <t xml:space="preserve">https://www.mspbs.gov.py</t>
   </si>
   <si>
-    <t xml:space="preserve">The figures are labelled as the number of tests performed ("pruebas realizadas") but may equate to the number of people tested.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Paraguay Ministry of Public Health and Social Welfare maintains an [official dashboard](https://www.mspbs.gov.py/reporte-covid19.html) that reports the weekly and daily number of PCR tests conducted, alongside the percentage of postive tests ('confirmados'). Weekly figures are provided in the chart titled "Cantidad de pruebas vs confirmados". Daily figures are available by clicking on the "+" symbol that appears when hovering over the bottom-left corner of this chart.
-The fact that the percentage shown equates to the number of confirmed case suggests that the testing figures equate to the number of people tested and do not include tests pending results.
-The reported figures are cumulative from March 7th 2020, when the first case in Paraguay was confirmed.</t>
+The fact that the percentage shown equates to the number of confirmed cases suggests that the testing figures equate to the number of people tested and do not include tests pending results.
+The reported figures are cumulative from 7 March 2020, when the first case in Paraguay was confirmed.</t>
   </si>
   <si>
     <t xml:space="preserve">PER</t>
@@ -1448,7 +1444,7 @@
     <t xml:space="preserve">Peru - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/215539-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-371-096-en-el-peru-comunicado-n-181</t>
+    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/218573-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-407-492-en-el-peru-comunicado-n-191</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Government of Peru</t>
@@ -1457,103 +1453,109 @@
     <t xml:space="preserve">https://www.gob.pe/minsa</t>
   </si>
   <si>
-    <t xml:space="preserve">The Peruvian Ministry of Health provides daily press releases of the cumulative number of positively and negatively tested people to date ('Personas muestreadas'). As such, the series will not include tests pending results.
-Note that earlier releases, such as that on the [6 March](https://www.gob.pe/institucion/minsa/noticias/108937-minsa-proceso-155-muestras-por-coronavirus-covid-19-y-una-resulto-positivo), referred to the figures as the number of samples processed ('se han procesado 155 muestras por coronavirus COVID-19'). Given the continuity observed in the series however, it seems likely that this change in the description reflects only a clarification, rather than actual change in methodology.
-The date from which the cumulative number of tests is counted is not mentioned in the press releases. The earliest press release we are able to find is for March 4th, 2020, which reported 107 cumulative test results since an unmentioned date.
+    <t xml:space="preserve">The Peruvian Ministry of Health provides daily press releases of the cumulative number of positively and negatively tested people to date ('Personas muestreadas'). As such, the series does not include tests pending results.
+Note that earlier releases, such as that on [6 March 2020](https://www.gob.pe/institucion/minsa/noticias/108937-minsa-proceso-155-muestras-por-coronavirus-covid-19-y-una-resulto-positivo), referred to the figures as the number of samples processed ('se han procesado 155 muestras por coronavirus COVID-19'). Given the continuity observed in the series however, it seems likely that this change in the description reflects only a clarification, rather than actual change in methodology.
+The date from which the cumulative number of tests is counted is not mentioned in the press releases. The earliest press release we are able to find is for 4 March 2020, which reported 107 cumulative test results since an unmentioned date.
 The releases provide figures for serology tests ("Pruebas serológicas rápidas") as well as PCR tests ("Pruebas moleculares"). In order to provide the data that is most comparable to the other countries in our database, we only include PCR tests ("Pruebas moleculares").
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).
+Peru includes positive antibody tests in their figures for confirmed cases. Our testing figures—which exclude antibody tests—are not an appropriate comparison in these instances: on this basis there could be more cases than tests, which is not possible. For this reason, we do not calculate the positive rate or number of tests per confirmed case for Peru.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1e_Hv_hquoc8v0M5WZNNes3QnDwkFqaGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines Department of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.doh.gov.ph/covid19tracker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As part of its COVID-19 dashboard, the Philippines Department of Health provides a 'COVID-19 DOH Data Drop' as a series of CSV files shared on Google Drive.
+Among these files, the 'Testing Aggregates' file includes a time series of cumulative unique individuals tested since 3 April 2020.
+The source provides a breakdown by laboratory. Data for recent days may be incomplete due to delays in reporting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1293834678718234624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland Ministry of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Polish Ministry of Health provides a daily diagnostics reports on their official Twitter account that gives the cumulative number of samples tested and people tested.
+The earliest observation on figures for people tested is from 28 April 2020.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
-    <t xml:space="preserve">PHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.doh.gov.ph/covid19tracker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Health (DOH) Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Department of Health (DOH) [dashboard](http://www.doh.gov.ph/covid19tracker) provides a time series of both individuals tested and samples tested dating back to 3rd April.
-The source provides a breakdown by laboratory. Data for recent days may be incomplete due to delays in reporting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1286586924854120451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland Ministry of Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL</t>
+    <t xml:space="preserve">Poland - samples tested</t>
   </si>
   <si>
     <t xml:space="preserve">The Polish Ministry of Health provides a daily diagnostics reports on their official Twitter account that gives the cumulative number of samples tested and people tested.
-The earliest observation on figures for people tested is from the 28 April.
+The earliest observation for the number of samples tested begins from 6 March 2020. Between 12 and 27 April 2020, the number of samples tested is split into the number of positive and negative results. There are some dates for which we could not find the MOH tweets and these gaps are filled in using observations taken from this [unoffical repository](https://github.com/anuszka/COVID-19-MZ_GOV_PL) of the MOH figures.
+There is a fall in the cumulative total on 8 August 2020 due to a past mistake has been noticed and the cumulative figure revised on the date to adjust for this.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland - samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Polish Ministry of Health provides a daily diagnostics reports on their official Twitter account that gives the cumulative number of samples tested and people tested.
-The earliest observation for the number of samples tested begins from 6 March. Between 12 and 27 April, the number of samples tested is split into the number of positive and negative results. There are some dates for which we could not find the MOH tweets and these gaps are filled in using observations taken from this [unoffical repository](https://github.com/anuszka/COVID-19-MZ_GOV_PL) of the MOH figures.
+    <t xml:space="preserve">PRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://covid19.min-saude.pt/ponto-de-situacao-atual-em-portugal/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal Ministry of Health dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of samples processed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dashboard provides figures for the number of samples processed, both as daily figures and as cumulative figure since 1 March 2020.
+Up until 29 April 2020 we had reported a figure of the number of people tested, obtained as the sum of confirmed and unconfirmed cases in the Portugal Ministry of Health (MOH) [daily updates](https://covid19.min-saude.pt/relatorio-de-situacao/). We were alerted by a Technical Advisor within the Cabinet of the Secretary of Health to the fact that these figures only captures people who were reported through the National System of Epidemiological Surveillance which does not include many of the people that get tested but are never entered into the surveillance system (because they do not meet the criteria and go on to test negatively). For this reason we have now switched to the current series. The advisor confirmed to us that this series: includes all the public, private and university labs performing SARS-CoV-2 diagnosis in Portugal; does not include tests pending results; includes only PCR tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar - people tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://covid19.moph.gov.qa/EN/Pages/default.aspx#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar Ministry of Public Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moph.gov.qa/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Qatar Ministry of Public Health provides daily updates on its website of the cumulative number of people tested to date. It is not clear whether these figures include people for which test results are pending.
+The earliest reported figure that we have been able to find is from 14 March 2020, at which point 6,788 tests had been conducted.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
-    <t xml:space="preserve">PRT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal - samples tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://covid19.min-saude.pt/ponto-de-situacao-atual-em-portugal/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal Ministry of Health dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of samples processed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The dashboard provides figures for the number of samples processed, both as daily figures and as cumulative figure since the 1 March.
-Up until 29 April we had reported a figure of the number of people tested, obtained as the sum of confirmed and unconfirmed cases in the Portugal Ministry of Health (MOH) [daily updates](https://covid19.min-saude.pt/relatorio-de-situacao/). We were alerted by a Technical Advisor within the Cabinet of the Secretary of Health to the fact that these figures only captures people who were reported through the National System of Epidemiological Surveillance which does not include many of the people that get tested but are never entered into the surveillance system (because they do not meet the criteria and go on to test negatively). For this reason we have now switched to the current series. The advisor confirmed to us that this series: includes all the public, private and university labs performing SARS-CoV-2 diagnosis in Portugal; does not include tests pending results; includes only PCR tests.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://covid19.moph.gov.qa/EN/Pages/default.aspx#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar Ministry of Public Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.moph.gov.qa/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Qatar Ministry of Public Health provides daily updates on its website of the cumulative number of people tested to date. It is not clear whether these figures include people for which test results are pending.
-The earliest reported figure that we have been able to find is from March 14th 2020, at which point 6,788 tests had been conducted.
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROU</t>
   </si>
   <si>
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/ro/media/comunicate/buletin-de-presa-24-iulie-2020-ora-13-00&amp;page=1</t>
+    <t xml:space="preserve">https://gov.ro/ro/media/comunicate/buletin-de-presa-13-august-2020-ora-13-00&amp;page=1</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -1576,7 +1578,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=14998</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=15169</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1586,17 +1588,17 @@
   </si>
   <si>
     <t xml:space="preserve">The [Federal Service for Supervision of Consumer Rights Protection and Human Well-Being](https://www.rospotrebnadzor.ru/about/info/news/) publishes a daily report giving the cumulative total of tests performed in Russia. No information is given on the geographical scope and number of labs included.
-We do not include cumulative totals reported on 30th March and 31st March, as they seemed inconsistent with numbers given on 29th March and 1st April.
+We do not include cumulative totals reported on 30 March 2020 and 31 March 2020, as they seemed inconsistent with numbers given on 29 March 2020 and 1 April 2020.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">RWA</t>
   </si>
   <si>
-    <t xml:space="preserve">Rwanda - units unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1286017266593734657</t>
+    <t xml:space="preserve">Rwanda - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1292893993995575296</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1606,24 +1608,25 @@
   </si>
   <si>
     <t xml:space="preserve">The Rwanda Ministry of Health ([@RwandaHealth](https://twitter.com/RwandaHealth)) tweets press releases in English, French, and Kinyarwanda that report the number of samples tested each day. 
-The earliest press release we have found containing testing figures is from April 7th 2020. Between April 7th 2020 and May 1st 2020 (inclusive), the press releases reported the number of samples tested today, but not the cumulative number of samples tested to date. Since May 2nd 2020, the press releases have reported the cumulative number of samples tested to date as well as the number of samples tested today. We construct a daily time series since April 6th 2020 of the cumulative number of samples tested to date by subtracting daily tests between April 7th - May 2nd from the May 2nd 2020 cumulative total.
-As of April 6th 2020, 5,701 samples had been tested to date. It is unclear when the first samples were tested.
+The earliest press release we have found containing testing figures is from 7 April 2020. Between 7 April 2020 and 1 May 2020 (inclusive), the press releases reported the number of samples tested today, but not the cumulative number of samples tested to date. Since 2 May 2020, the press releases have reported the cumulative number of samples tested to date as well as the number of samples tested today. We construct a daily time series since 6 April 2020 of the cumulative number of samples tested to date by subtracting daily tests between 7 April 2020 and 2 May 2020 from the 2 May 2020 cumulative total.
+As of 6 April 2020, 5,701 samples had been tested to date. It is unclear when the first samples were tested.
 It is unclear whether the reported figures include tests for which the results are pending.
-Prior to April 17th 2020, the press releases reported testing figures using the language "samples tested". From April 17th onwards, the press releases have used the ambiguous language "tests today". We assume that "tests today" still refers to the number of samples tested.
+Prior to 17 April 2020, the press releases reported testing figures using the language "samples tested". From 17 April 2020 onwards, the press releases have used the ambiguous language "tests today". We assume that "tests today" still refers to the number of samples tested.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">SAU</t>
   </si>
   <si>
-    <t xml:space="preserve">Saudi Arabia - units unclear</t>
+    <t xml:space="preserve">Saudi Arabia - tests performed</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.moh.gov.sa/en/</t>
   </si>
   <si>
-    <t xml:space="preserve">The Saudi Arabian Ministry of Health provides a dashboard detailing the total number of tests. Whether units refer to people or tests conducted is unclear.
-The exact date these cumulative figures date back to is also unknown.
+    <t xml:space="preserve">The Saudi Arabian Ministry of Health provides a dashboard detailing the total number of tests performed. 
+The dashboard reports testing figures as "total tests", making it unclear whether the figures refer to the number of samples tested, tests performed, or people tested. Nevertheless, corresponding press releases from [the Ministry of Health](https://www.moh.gov.sa/en/Ministry/MediaCenter/News/Pages/default.aspx) imply that the figures refer to the total number of tests performed. For example, the [26 July 2020 press release](https://www.moh.gov.sa/en/Ministry/MediaCenter/News/Pages/News-2020-07-26-004.aspx) states that "...57,216 new Polymerase Chain Reaction (PCR) tests for Novel Coronavirus (COVID-19) have been conducted in the Kingdom’s laboratories, bringing the total number to 3,056,956 lab tests". This 3,056,956 figure differs slightly from the figure of 3,047,668 tests reported on the official dashboard on 26 July 2020, but we assume this small discrepancy is due to differences in reporting time rather than a substantive difference in units (e.g. tests performed vs. people tested).
+The exact date these cumulative figures date back to is unknown.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1648,11 +1651,8 @@
     <t xml:space="preserve">http://www.sante.gouv.sn/actualites</t>
   </si>
   <si>
-    <t xml:space="preserve">The figures are labelled as the number of 'tests performed', but this appears to equate to the number of people tested.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Senegalese Ministry for Health and Social Action publishes daily press releases detailing the number of tests performed (tests réalisés) and the number of positive confirmed cases (cas positifs). The fact that the number of tests with positive results (son revenus positifs) equals the number ofn confirmed cases implies that the testing figures equal the number of people tested.
-The daily press releases date back to February 28th 2020. We construct a daily time series of the number of tests performed using data contained in [this unofficial github repository](https://github.com/senegalouvert/COVID-19), which we have cross-checked against official data for a sample of dates.
+    <t xml:space="preserve">The Senegalese Ministry for Health and Social Action publishes daily press releases detailing the number of tests performed ("tests réalisés") and the number of positive confirmed cases ("cas positifs"). The fact that the number of tests with positive results ("son revenus positifs") equals the number of confirmed cases implies that the testing figures equal the number of people tested.
+The daily press releases date back to 28 February 2020. We construct a daily time series of the number of tests performed using data contained in [this unofficial github repository](https://github.com/senegalouvert/COVID-19), which we have cross-checked against official data for a sample of dates.
 Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1684,7 +1684,7 @@
     <t xml:space="preserve">https://www.moh.gov.sg/covid-19</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Health dashboard gives a cumulative total of swabs tested, and unique persons tested.
+    <t xml:space="preserve">The Ministry of Health dashboard gives a cumulative total of swabs tested and unique persons tested.
 No other information is provided.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
@@ -1710,13 +1710,10 @@
     <t xml:space="preserve">National Center of Health Information and the Slovak Republic Government coronavirus information website</t>
   </si>
   <si>
-    <t xml:space="preserve">The number of completed laboratory tests.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Slovakia's National Center of Health Information provides a dashboard with figures for 'all tests performed' ("Všetkých vykonaných testov").
-Using web archives, we construct a daily time series of total samples by looking at earlier snapshots of the website. These archives begin from the 15th March. We are unable to determine when testing began, only that on the 15th March a total of 1545 tests had been conducted. Earlier archives make it clear that the figures relate to the sum of positive and negative tests (i.e. tests pending results are not included).
-We found the total number of negative and positive samples was identical for the 26/03 and 27/03. The reason for this is not clear. We include only the former date as an observation. From the 29/03 - 01/04 and  05/04 - 07/04 no web archives could be retreived.
-From the 14th April, we became aware of a [short term dashboard](https://covid-19.nczisk.sk/en/) by the National Centre of Health and Information providing the same figures over the last 6 days. We have used this source to supplement testing data for the 10th April where web archives were not available. The notes to this dashboard provide further elaboration. They state that the figures relate to the "number of completed laboratory tests... The number contains all positive and negative results also retests of previously tested positive patients" (via Google translate).
+Using web archives, we construct a daily time series of total samples by looking at earlier snapshots of the website. These archives begin from 15 March 2020. We are unable to determine when testing began, only that on 15 March 2020 a total of 1,545 tests had been conducted. Earlier archives make it clear that the figures relate to the sum of positive and negative tests (i.e. tests pending results are not included).
+We found the total number of negative and positive samples was identical for 26 March 2020 and 27 March 2020. The reason for this is not clear. We include only the former date as an observation. From 29 March - 1 April 2020 and 5 April - 7 April 2020 no web archives could be retreived.
+From 14 April 2020, we became aware of a [short-term dashboard](https://covid-19.nczisk.sk/en/) by the National Centre of Health and Information providing the same figures over the last 6 days. We use this source to supplement testing data for 10 April 2020 where web archives are not available. The notes to this dashboard provide further elaboration. They state that the figures relate to the "number of completed laboratory tests... The number contains all positive and negative results also retests of previously tested positive patients" (via Google translate).
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1738,7 +1735,7 @@
     <t xml:space="preserve">https://www.gov.si/teme/koronavirus</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government information website provides figures for the number of tests completed ("Opravljeni testi"). A time series of both cumulative and daily tests is available to download. This dates back to the 12 March, where 3863 tests are reported to have already been performed (it is not known from which date this first cumulative figure dates back to).
+    <t xml:space="preserve">The Government information website provides figures for the number of tests completed ("Opravljeni testi"). A time series of both cumulative and daily tests is available to download. This dates back to 12 March 2020, where 3,863 tests are reported to have already been performed (it is not known from which date this first cumulative figure dates back to).
 The same cumulative figure is published each day by the [National Insitute for Public Health (NIJZ)](https://www.nijz.si/sl/dnevno-spremljanje-okuzb-s-sars-cov-2-covid-19). Here they clarify that figures relate to the number of tests – including those for people who were tested several times.
 A footnote states that the figures relate to "Laboratory tests performed as part of routine testing and the COVID-19 National Survey are included." The later appears to refer to the prevalence study described on this [Government page](https://www.gov.si/en/news/2020-04-24-national-covid-19-prevalence-survey/). The description of the study states that "The survey is being conducted on a random sample of 3,000 persons" and that people will be tested with both a PCR and a serological test. For this reason, the reported testing figures may include serological tests in addition to PCR tests.
 The volunteer-led [Sledilnik.org project](https://covid-19.sledilnik.org/#/) also presents the official data in a helpful website.</t>
@@ -1763,8 +1760,8 @@
   </si>
   <si>
     <t xml:space="preserve">The South African National Institute for Communicable Diseases (NICD) publishes daily updates on the number of confirmed cases, deaths and tests conducted nationally and by province. These updates are published on its [website](https://www.nicd.ac.za/media/alerts/) and on its offical Twitter account ([@nicd_sa](https://twitter.com/nicd_sa)).
-The NICD reports the number of 'tests processed', which is also labelled as 'total tested'. On April 18th, the official twitter account for the [Department for Health](https://twitter.com/HealthZA/status/1251605326681575427) clarified that repeat tests for COVID-19 are not counted and that the testing figures refer to the number of people tested.
-The NICD began publishing daily updates on 7th February 2020, allowing us to develop a time series from this date forward. We do not know the first date of testing. As of 7th February, 42 people had been tested.
+The NICD reports the number of 'tests processed', which is also labelled as 'total tested'. On 18 April 2020, the official twitter account for the [Department for Health](https://twitter.com/HealthZA/status/1251605326681575427) clarified that repeat tests for COVID-19 are not counted and that the testing figures refer to the number of people tested.
+The NICD began publishing daily updates on 7 February 2020, allowing us to develop a time series from this date forward. We do not know the first date of testing. As of 7 February 2020, 42 people had been tested.
 We source this data from the [Data Repository for South Africa](https://github.com/dsfsi/covid19za) repo – created, maintained and hosted by Data Science for Social Impact research group, led by Dr. Vukosi Marivate, at the University of Pretoria.
 Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
@@ -1775,7 +1772,7 @@
     <t xml:space="preserve">South Korea - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=367894&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=368119&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1784,8 +1781,8 @@
     <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030</t>
   </si>
   <si>
-    <t xml:space="preserve">KCDC have provided daily updates in English since 21 January.
-The daily updates show the change each day and the current total. These form a consistent chain all the way back to 21 January. The daily test figures we provide relate to the daily change in the number of tests with results (the figures do not include those cases pending test results).
+    <t xml:space="preserve">KCDC have provided daily updates in English since 21 January 2020.
+The daily updates show the change each day and the current total. These form a consistent chain all the way back to 21 January 2020. The daily test figures we provide relate to the daily change in the number of tests with results (the figures do not include those cases pending test results).
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1795,7 +1792,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/en/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas_16_07_2020.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas_06_08_2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -1809,11 +1806,18 @@
   <si>
     <t xml:space="preserve">Official data covering the whole of Spain was only published sporadically until the end of April 2020.
 The first estimate in our time series comes from a Ministry of Health press release, quoting Salvador Illa, Minister of Health: "From the beginning of the crisis and until April 13, the total number of PCR carried out in Spain is 930,230." The press release is [here](https://www.mscbs.gob.es/gabinete/notasPrensa.do?metodo=detalle&amp;id=4864).
-The second is another Ministry of Health press release published on 27 April and relating to testing conducted up to 23 April. It provides a breakdown across Autonomous Communities (regions), with a total for Spain of 1,035,522 PCR tests. The same release provides a figure of 310,038 antibody tests conducted nationwide. These are different to the PCR tests, as we discuss [here](https://ourworldindata.org/covid-testing#different-types-of-tests-for-covid-19). Our database aims to not include antibody tests. So in order to provide the data that is most comparable to the other countries in our database, we include only the PCR tests count for this observation.
-One aspect of the 27 April press release that is not totally clear is whether the figures provided for each Autonomous Community relate to the 23 April. Comparing the regional breakdowns provided in the Ministry of Health release to those collected from official sources by CIVIO (as of 28 April) suggests that the figure of 203,892 provided for Madrid in the Ministry of Health update—ostensibly dating to the 23 April—may date back to 14 April.
+The second is another Ministry of Health press release published on 27 April 2020 and relating to testing conducted up to 23 April 2020. It provides a breakdown across Autonomous Communities (regions), with a total for Spain of 1,035,522 PCR tests. The same release provides a figure of 310,038 antibody tests conducted nationwide. These are different to the PCR tests, as we discuss [here](https://ourworldindata.org/covid-testing#different-types-of-tests-for-covid-19). Our database aims to not include antibody tests. So in order to provide the data that is most comparable to the other countries in our database, we include only the PCR tests count for this observation.
+One aspect of the 27 April 2020 press release that is not totally clear is whether the figures provided for each Autonomous Community relate to the 23 April 2020. Comparing the regional breakdowns provided in the Ministry of Health release to those collected from official sources by CIVIO (as of 28 April 2020) suggests that the figure of 203,892 provided for Madrid in the Ministry of Health update—ostensibly dating to the 23 April 2020—may date back to 14 April 2020.
 Further data points are collected from the [Ministry of Health's press releases](https://www.mscbs.gob.es/gabinete/notasPrensa.do?metodo=verHistorico) or [its Twitter account](https://twitter.com/sanidadgob).
 [CIVIO](https://datos.civio.es/dataset/pcr-coronavirus-covid19-espana-comunidades-autonomas/) is a non-profit investigative data journalism organisation who are collating information on tests performed within each Autonomous Community, as released through official channels (communication offices, web pages, press releases and social networks of the different regions).
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).
+---
+Daily case reports (e.g. [5 August 2020](https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/Actualizacion_178_COVID-19.pdf)) published by the Ministry of Health note that "total cases [are] confirmed by PCR until 10 May, and by PCR and IgM (only if compatible symptoms) according to the new surveillance strategy from 11 May".
+This could have indicated that Spain included positive antibody tests in their figures for confirmed cases. As we explain in [this FAQ](https://ourworldindata.org/coronavirus-testing#why-do-you-not-report-the-positive-rate-or-tests-per-case-for-all-countries-in-the-dataset), we do not present figures for the positive rate or number of tests per confirmed case for countries where we believe this to be the case.
+However, this footnote importantly says that positive IgM results are only counted if they have "compatible symptoms", i.e. if patients are actively infected by the virus.
+[This report](https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID19_Estrategia_vigilancia_y_control_e_indicadores.pdf) published on 9 July 2020 also makes clear on page 4 that IgM tests included in new confirmed cases do not correspond to massive serology testing for past infections, but rather to active, symptomatic infections with a negative PCR result but for which further IgM testing came back positive.
+In the same way, the documentation published by the Carlos III Health Institute on [its COVID-19 website](https://cnecovid.isciii.es/covid19/#documentaci%C3%B3n-y-datos) states that "as of May 11, the Ministry of Health is counting the confirmed cases diagnosed by PCR (and in some specific cases those diagnosed by IgM by ELISA)", i.e. the inclusion of IgM does not mean the inclusion of massive antibody testing results, but rather specific instances where current infections are confirmed via IgM instead of PCR.
+Pending new information that would prove otherwise, we therefore do not exclude Spain from the calculation of the positive rate and number of tests per case, as IgM tests for active cases represent a very small number and therefore should not affect these ratios.</t>
   </si>
   <si>
     <t xml:space="preserve">SWE</t>
@@ -1834,8 +1838,8 @@
     <t xml:space="preserve">https://www.folkhalsomyndigheten.se/folkhalsorapportering-statistik/statistik-a-o/sjukdomsstatistik/covid-19-veckorapporter/</t>
   </si>
   <si>
-    <t xml:space="preserve">From the start of the pandemic up until July 2020, the Swedish Public Health Agency provided weekly reports on COVID-19 on the number of people tested. 
-The first observation in the series is the total people tested from week 4 (calendar week: 20 - 26 January) to week 8 (calendar week: 17 - 23 February).</t>
+    <t xml:space="preserve">From the start of the pandemic up until July 2020, the Swedish Public Health Agency provided weekly COVID-19 reports that provide information on the number of people tested. 
+The first observation in the series is the total people tested from week 4 (calendar week: 20 - 26 January 2020) to week 8 (calendar week: 17 - 23 February 2020).</t>
   </si>
   <si>
     <t xml:space="preserve">Sweden - samples tested</t>
@@ -1890,7 +1894,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ddc.moph.go.th/viralpneumonia/file/situation/situation-no203-240763.pdf</t>
+    <t xml:space="preserve">https://ddc.moph.go.th/viralpneumonia/file/situation/situation-no223-130863.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1900,7 +1904,7 @@
   </si>
   <si>
     <t xml:space="preserve">The Thailand Department of Disease Control (DDC) issues daily situation reports which detail the status of confirmed cases, deaths and people being assessed.
-We provide the figures reported as "persons under investigation" (PUI). PUI is the sum of confirmed cases, the number of people who tested negative, and the number of people for whom results are still pending. All three figures are reported individually from 3rd March until 31st March. From 1st April onwards, the number of people who tested negative and the number for whom results are still pending are no longer reported separately.
+We provide the figures reported as "persons under investigation" (PUI). PUI is the sum of confirmed cases, the number of people who tested negative, and the number of people for whom results are still pending. All three figures are reported individually from 3 March until 31 March 2020. From 1 April 2020 onwards, the number of people who tested negative and the number for whom results are still pending are no longer reported separately.
 We have received communication from Thailand's Ministry of Public Health (MOPH) that individuals who did not meet PUI criteria can pay out of pocket to have their samples tested, referred to as the "non-PUI" group. This "non-PUI" group is large in the context of Thailand. This "non-PUI" group is not reflected in our current figures.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
@@ -1910,7 +1914,7 @@
   <si>
     <t xml:space="preserve">The Thailand Department of Disease Control (DDC) issues daily situation reports which detail the status of confirmed cases, deaths and people being assessed.
 We provide the figures reported as "number of laboratory examinations". The reported figures include PCR tests only. It is unclear whether pending test results are included. 
-Prior to 1 July 2020, we collected data from the [World Health Organization Country Office for Thailand](https://www.who.int/thailand), which provides COVID-19 situation reports that periodically report the cumulative number of samples tested to date. The reported figures include samples tested in both public and private labs. However, reporting delays appear to affect the figures. For example, [the figures for May 1st 2020](https://www.who.int/docs/default-source/searo/thailand/2020-05-04-tha-sitrep-71-covid19-final.pdf) reflect only 121 of 142 public and private laboratories certified for PCR testing. The earliest figure we have found is for April 10th 2020, at which point 100,498 samples had been tested. The reported figures are cumulative, but the situation reports do not state an exact date.
+Prior to 1 July 2020, we collected data from the [World Health Organization Country Office for Thailand](https://www.who.int/thailand), which provides COVID-19 situation reports that periodically report the cumulative number of samples tested to date. The reported figures include samples tested in both public and private labs. However, reporting delays appear to affect the figures. For example, [the figures for 1 May 2020](https://www.who.int/docs/default-source/searo/thailand/2020-05-04-tha-sitrep-71-covid19-final.pdf) reflect only 121 of 142 public and private laboratories certified for PCR testing. The earliest figure we have found is for 10 April 2020, at which point 100,498 samples had been tested. The reported figures are cumulative, but the situation reports do not state an exact reference date.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -1941,21 +1945,16 @@
     <t xml:space="preserve">Tunisia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/kik00/TnCovid-19/blob/master/data/daily.json</t>
+    <t xml:space="preserve">https://covid-19.tn/fr/tableau-de-bord/</t>
   </si>
   <si>
     <t xml:space="preserve">Tunisian Ministry of Health</t>
   </si>
   <si>
-    <t xml:space="preserve">Made available by Kiko on GitHub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://covid-19.tn/fr/tableau-de-bord/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Tunisian Ministry of Health dashboard provides daily figures of the total number of cases tested ('Cas testés'). They also provide a time series for the number of tests per day ('Nombre de tests journaliers'). The figures we provide relate to the latter.
-The time series figures sum up to a number slightly higher than the cumulative figure provided for cases tested. We understand this to be equivalent to the number of individuals tested. It is unclear whether the difference between the numbers relates to a genuine distinction in the two figures between the number of individuals tested and the number of tests performed, or if the differences are due instead to reporting delays or other unintended discrepancies. 
-Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels.</t>
+    <t xml:space="preserve">The Tunisian Ministry of Health dashboard provides daily figures of the total number of cases tested ('Nombre de cas journaliers'). They also provide a time series for the number of tests per day ('Nombre de tests journaliers'). The figures we provide relate to the latter. 
+The earliest observation is available from 10 March 2020. However, it is unclear whether this is also when testing first began. 
+The MOH does not report the number of tests performed on 5 May 2020. 
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
     <t xml:space="preserve">TUR</t>
@@ -1971,8 +1970,8 @@
   </si>
   <si>
     <t xml:space="preserve">The Turkish Ministry of Health now publishes a daily chart of Coronavirus confirmed cases, deaths, recoveries, total tests ("TOPLAM TEST SAYISI"), and tests today ("BUGÜNKÜ TEST SAYISI").
-These daily charts are published on the Turkish Ministry of Health's website – previous versions can be found on Web Archive. This only extends back to 27th March. Prior to this date, we rely on figures reported by the Turkish Minister for Health at daily press conferences. In these reports they detail the latest update of confirmed cases, deaths and tests conducted.
-We are not aware of the date that testing began: only that as of 18th March – the first data point in our series – 10,018 tests had been conducted.
+These daily charts are published on the Turkish Ministry of Health's website – previous versions can be found on Web Archive. This only extends back to 27 March 2020. Prior to this date, we rely on figures reported by the Turkish Minister for Health at daily press conferences. In these reports they detail the latest update of confirmed cases, deaths and tests conducted.
+We are not aware of the date that testing began: only that as of 18 March 2020 – the first data point in our series – 10,018 tests had been conducted.
 No other information concerning the figures is known.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
@@ -1983,7 +1982,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1286602491161976834</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1293840039407910914/photo/2</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -1992,48 +1991,44 @@
     <t xml:space="preserve">https://twitter.com/MinofHealthUG</t>
   </si>
   <si>
-    <t xml:space="preserve">The Uganda Ministry of Health publishes a daily press release detailing the number of cumulative and daily samples tested. As a result of missing daily testing figures (for 17/05, 03/06, 14/07) and retrospective revisions by the MOH to cumulative totals, we report only the daily number of samples tested.  
-From 12 June, the press releases regularly include the official cumulative number of samples tested. Prior to this date, only daily testing figures were reported - with the exception of reports from 06-14/04. 
-The earliest press release we could find that lists the cumulative and daily figures is for 1st April. However, we cannot say with certainty when testing began and the precise date from which cumulative totals begin.
+    <t xml:space="preserve">The Uganda Ministry of Health publishes a daily press release detailing the number of cumulative and daily samples tested. As a result of changes in the way the data is published, we only report the cumulative total of samples tested when it is published by the official source.
+From late June 2020, the press releases regularly include the official cumulative number of samples tested. Prior to this date, only daily testing figures were reported - with the exception of reports from 6–14 April 2020.
+The earliest press release we could find that lists the cumulative and daily figures is for 1 April 2020. However, we cannot say with certainty when testing began and the precise date from which cumulative totals begin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://covid19.gov.ua/en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kmu.gov.ua/en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cabinet of Ministers of Ukraine provides [daily snapshots](https://covid19.gov.ua) that report the cumulative number of tests performed to date. 
+It is unclear whether the reported figures include tests pending results.
+In the daily snapshots, the wording used to report the cumulative testing figures does not make it clear as to whether the reported figures relate to the number of tests performed or the number of persons tested. For example, the cumulative testing figure reported on 6 August 2020 is "1,116,641 tested" (translated from "протестовано"). The [english version](https://covid19.gov.ua/en) of the same page reports the same figure as "total of tests", which is also unclear. [A more detailed dashboard](https://covid19.gov.ua/analitichni-paneli-dashbordy) on the same web domain provides testing figures in downloadable csv files dating back to 1 June 2020, where each csv file contains separate columns for the cumulative number of PCR tests and non-PCR tests. The cumulative PCR testing figures reported in these csv files are described as "The number of laboratory tests performed by PCR on COVID-19" ("Кількість проведених лабораторних досліджень методом ПЛР на COVID-19"), making it clear that the figures refer to the number of tests performed (which may or may not be equivalent to the number of people tested).
+The cumulative PCR testing figures provided in the csv files tend to be approximately 2% smaller than the testing figures provided in the daily snapshots. Nevertheless, we assume that this discrepancy is due to small differences in the reference date, reporting laboratories included, or other minor details, rather than the possibility that the daily snapshot figures include non-PCR tests or refer to a metric other than the number of tests performed. The cumulative number of non-PCR tests reported in the csv files are much larger than the size of this discrepancy.
+The earliest reported figure that we have been able to find is from 9 April 2020, at which point 20,608 cumulative tests were reported.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
-    <t xml:space="preserve">UKR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine - units unclear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://covid19.gov.ua/en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabinet of Ministers of Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.kmu.gov.ua/en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is unclear whether the reported figures relate to the number of people tested or the number of tests performed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Cabinet of Ministers of Ukraine reports daily snapshots [here](https://covid19.gov.ua) that include the cumulative number "tested" (протестовано). As such it is unclear whether this refers to the number of people tested or the number of tests performed. Similarly, it is unclear whether this includes tests pending results.
-The earliest reported figure that we have been able to find is from April 9th 2020, at which point 20,608 cumulative tests were reported.
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
-  </si>
-  <si>
     <t xml:space="preserve">ARE</t>
   </si>
   <si>
-    <t xml:space="preserve">United Arab Emirates - samples tested</t>
+    <t xml:space="preserve">United Arab Emirates - tests performed</t>
   </si>
   <si>
     <t xml:space="preserve">https://fcsa.gov.ae/en-us/Pages/Covid19/UAE-Covid-19-Updates.aspx</t>
   </si>
   <si>
     <t xml:space="preserve">UAE Federal Competitiveness and Statistics Authority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.doh.gov.ae/en/covid-19/Media%20Center/news/News%20Listing</t>
   </si>
   <si>
     <t xml:space="preserve">The UAE Federal Competitiveness and Statistics Authority provides a time series dataset (available to download), including the number of daily tests conducted from 29 January 2020 to today.
@@ -2047,7 +2042,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/903777/2020-07-24-COVID-19-UK-testing-time-series.csv</t>
+    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/909375/2020-08-13_COVID-19_UK_testing_time_series.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -2086,10 +2081,10 @@
   <si>
     <t xml:space="preserve">On 13 May 2020, the United States CDC's testing data was modified to include tests performed by commercial, hospital, public health, and CDC laboratories. This new data is available on the [Testing Data in the US](https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html) page and [CDC COVID Data Tracker](https://www.cdc.gov/covid-data-tracker/index.html).
 Initially, this data was explicitly described by the CDC as only including viral tests and excluding antibody tests. As recently as [18 May](https://web.archive.org/web/20200518050707/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html) the site stated that 'These data only represent viral tests. Antibody tests are not currently captured in these data.'
-However, as of 26 May, there have been a number of media reports noting that the testing figures released by some states – which are aggregated by the CDC – include antibody tests in addition to PCR tests, as discussed in [this article](https://www.theatlantic.com/health/archive/2020/05/cdc-and-states-are-misreporting-covid-19-test-data-pennsylvania-georgia-texas/611935/) in The Atlantic. 
-Within this time, the CDC have also changed the way it described the data to be ambiguous as to whether anitbody tests may be included in their figures (see [26 May update](http://web.archive.org/web/20200526082029/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html)). Our dataset aims to report only PCR tests. But because any antibody tests in the CDC data are not disaggregated, we are unable to exclude them.
+However, as of 26 May 2020, there have been a number of media reports noting that the testing figures released by some states – which are aggregated by the CDC – include antibody tests in addition to PCR tests, as discussed in [this article](https://www.theatlantic.com/health/archive/2020/05/cdc-and-states-are-misreporting-covid-19-test-data-pennsylvania-georgia-texas/611935/) in The Atlantic. 
+Within this time, the CDC have also changed the way it described the data to be ambiguous as to whether anitbody tests may be included in their figures (see [26 May 2020 update](http://web.archive.org/web/20200526082029/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html)). Our dataset aims to report only PCR tests. But because any antibody tests in the CDC data are not disaggregated, we are unable to exclude them.
 No time series is published for this new version of the data. We therefore started collecting on 13 May 2020 the cumulative total of viral tests reported, which is updated daily.
-As of [26 May](http://web.archive.org/web/20200526082029/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html), the notes to the data provided by the CDC are limited. They state:
+As of [26 May 2020](http://web.archive.org/web/20200526082029/https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/testing-in-us.html), the notes to the data provided by the CDC are limited. They state:
 - These data are compiled from a number of sources. Not all tests are reported to CDC.
 - The number of positive tests in a state is not equal to the number of cases, as one person may be tested more than once.
 The CDC previously published a time series that only covered public health labs and did not include private lab tests, which were occurring in significant numbers. Daily figures were provided since 18 January. This data is still visible on [this page of the CDC website](https://www.cdc.gov/coronavirus/2019-ncov/cases-updates/previous-testing-in-us.html).
@@ -2113,7 +2108,7 @@
   <si>
     <t xml:space="preserve">This is a collaborative project launched in order to fill some of the important gaps in the testing figures being collated by the CDC.
 Testing data is gathered from individual states, as reported in state health department websites, data dashboards and press releases from officials.
-As of 26 May, there have been a number of media reports noting that the testing figures released by some states include antibody tests in addition to PCR tests – as discussed in [this article](https://www.theatlantic.com/health/archive/2020/05/cdc-and-states-are-misreporting-covid-19-test-data-pennsylvania-georgia-texas/611935/) in The Atlantic. Our dataset aims to report only PCR tests. But because some states do not disaggregate these types of tests we are not currently able to exclude the antibody tests.
+As of 26 May 2020, there have been a number of media reports noting that the testing figures released by some states include antibody tests in addition to PCR tests – as discussed in [this article](https://www.theatlantic.com/health/archive/2020/05/cdc-and-states-are-misreporting-covid-19-test-data-pennsylvania-georgia-texas/611935/) in The Atlantic. Our dataset aims to report only PCR tests. But because some states do not disaggregate these types of tests we are not currently able to exclude the antibody tests.
 Other differences across states include: some report the number of tests performed, others the number of people tested; some include private labs, others not; some report negative test results, others only positive test results; some include pending tests, others do not (below we show figures that exclude explicitly pending results).
 Moreover, many states do not explicitly provide details about these important factors needed to interpret the data they provide. 
 There are issues in comparing the figures over time. The totals given for early on in the outbreak do not include all states. One significant uncertainty is the extent to which the rapid rise in tests seen from the mid-March in part reflects states beginning to report private lab tests.
@@ -2127,13 +2122,13 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-interes-actualizada-sobre-coronavirus-covid-19-uruguay-33</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informe-situacion-sobre-coronavirus-covid-19-uruguay-13-agosto</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Public Health in Uruguay publishes daily reports providing the cumulative total of tests performed. These figures are also made available on the [Sistema Nacional de Emergencias dashboard](https://www.gub.uy/sistema-nacional-emergencias/pagina-embebida/visualizador-casos-coronavirus-covid-19-uruguay), in which the figures are presented as the number of tests processed since 13 March ("Desde el 13 de marzo se han procesado: [N] test").
+    <t xml:space="preserve">The Ministry of Public Health in Uruguay publishes daily reports providing the cumulative total of tests performed. These figures are also made available on the [Sistema Nacional de Emergencias dashboard](https://www.gub.uy/sistema-nacional-emergencias/pagina-embebida/visualizador-casos-coronavirus-covid-19-uruguay), in which the figures are presented as the number of tests processed since 13 March 2020 ("Desde el 13 de marzo se han procesado: [N] test").
 We previously reported testing data from a [dashboard maintained by El Observador](https://observador.cr/covid19-estadisticas/), but on 20 April 2020 we replaced the entire time series based on the reports from the Ministry of Health.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
@@ -2141,7 +2136,7 @@
     <t xml:space="preserve">VNM</t>
   </si>
   <si>
-    <t xml:space="preserve">Vietnam - units unclear</t>
+    <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
     <t xml:space="preserve">http://web.archive.org/web/20200429184537/https://ncov.moh.gov.vn/documents/20182/6848000/infographicVN1120.jpg/b42a0731-f951-4e69-9cda-8b38ecb3d9cb</t>
@@ -2153,12 +2148,9 @@
     <t xml:space="preserve">https://ncov.moh.gov.vn/</t>
   </si>
   <si>
-    <t xml:space="preserve">The source reports this as the 'number of samples tested'. However, based on the context, it is unclear whether this refers to the total number of tests conducted, or number of people who have been tested.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Until the end of April, the Vietnamese Ministry of Health were updating a figure for tests on its disease situation statistics page daily. 
-The dashboard referred to its testing data as 'samples tested'. This figure generally matched up to the sum of confirmed cases and negative samples (though there are occasionally some small discrepancies – we report the sum of positive and negative in this case). However, it's unclear whether 'negative samples' includes some instances of resampling for the same person. We therefore cannot say with certainty that these figures are equivalent to the numebr of people tested.
-Using web archives we can reconstruct a daily time-series of total samples. These daily updates extend back to 2nd March. We cannot say with certainty when testing began, only that as of 2nd March 1753 samples had been tested. More recently the website stopped updating its testing data, and finally stopped reporting the figures altogether. The last date we were able to collect testing data was on the 29th April.
+    <t xml:space="preserve">Until the end of April 2020, the Vietnamese Ministry of Health were updating a figure for tests on its disease situation statistics page daily. 
+The dashboard referred to its testing data as 'samples tested'. This figure generally matches the sum of confirmed cases and negative samples, suggesting that the total number of samples tested may be equivalent to the number of people tested  (there are occasionally small discrepancies – we report the sum of positive and negative in these cases). However, it is unclear whether 'negative samples' includes instances of resampling for the same person.
+Using web archives we can reconstruct a daily time-series of total samples tested. These daily updates extend back to 2 March 2020. We cannot say with certainty when testing began, only that 1,753 samples had been tested as of 2 March 2020. More recently the website stopped updating its testing data, and finally stopped reporting the figures altogether. The last date we were able to collect testing data was on the 29 April 2020.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -2168,7 +2160,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1285999775872098304</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1292530449500319744</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2178,8 +2170,8 @@
   </si>
   <si>
     <t xml:space="preserve">The Zimbabwe Ministry of Health and Child Care provides daily press releases on its website and Twitter account ([@MoHCCZim](https://twitter.com/MoHCCZim)) that report the cumulative number of tests performed to date. The reported figures include positive, negative, and pending test results.
-The press release for May 6th 2020 reported that 7,808 PCR and 8,244 "rapid screening" tests had been conducted to date. We exclude rapid screening tests from the daily time series that we construct, since we assume that these are antibody tests.
-Prior to May 6th 2020, the press releases either: (a) reported a combined cumulative total of PCR and rapid screening tests without providing a breakdown between the two types of tests; or (b) did not clearly specify whether the reported cumulative total was in reference to PCR tests, antibody tests, or both. For this reason, the daily time series we construct begins on May 6th 2020, at which point the press releases began to clearly indicate that the reported cumulative totals only include PCR tests.
+The press release for 6 May 2020 reported that 7,808 PCR and 8,244 "rapid screening" tests had been conducted to date. We exclude rapid screening tests from the daily time series that we construct, since we assume that these are antibody tests.
+Prior to 6 May 2020, the press releases either: (a) reported a combined cumulative total of PCR and rapid screening tests without providing a breakdown between the two types of tests; or (b) did not clearly specify whether the reported cumulative total was in reference to PCR tests, antibody tests, or both. For this reason, the daily time series we construct begins on 6 May 2020, at which point the press releases began to clearly indicate that the reported cumulative totals only include PCR tests.
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
 </sst>
@@ -2570,301 +2562,333 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44034</v>
+        <v>44056</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="H2" t="n">
-        <v>503860</v>
+        <v>793114</v>
       </c>
       <c r="I2" t="n">
-        <v>11.148</v>
+        <v>17.548</v>
       </c>
       <c r="J2" t="n">
-        <v>10122</v>
+        <v>4563</v>
       </c>
       <c r="K2" t="n">
-        <v>0.224</v>
+        <v>0.101</v>
       </c>
       <c r="L2" t="n">
-        <v>9798</v>
+        <v>11808</v>
       </c>
       <c r="M2" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
+        <v>0.261</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.745</v>
       </c>
       <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" t="s">
-        <v>22</v>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44034</v>
+        <v>44056</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="H3" t="n">
-        <v>618415</v>
+        <v>966220</v>
       </c>
       <c r="I3" t="n">
-        <v>13.683</v>
+        <v>21.379</v>
       </c>
       <c r="J3" t="n">
-        <v>12078</v>
+        <v>5449</v>
       </c>
       <c r="K3" t="n">
-        <v>0.267</v>
+        <v>0.121</v>
       </c>
       <c r="L3" t="n">
-        <v>11735</v>
+        <v>13871</v>
       </c>
       <c r="M3" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
+        <v>0.307</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.049</v>
       </c>
       <c r="P3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
         <v>26</v>
       </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44034</v>
+        <v>44056</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="H4" t="n">
-        <v>3650529</v>
+        <v>5109785</v>
       </c>
       <c r="I4" t="n">
-        <v>143.159</v>
-      </c>
-      <c r="J4" t="n">
-        <v>59794</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.345</v>
-      </c>
+        <v>200.385</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
       <c r="L4" t="n">
-        <v>61198</v>
+        <v>68242</v>
       </c>
       <c r="M4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" t="s">
-        <v>31</v>
+        <v>2.676</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O4" t="n">
+        <v>178.045</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44036</v>
+        <v>44056</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H5" t="n">
-        <v>833841</v>
+        <v>991508</v>
       </c>
       <c r="I5" t="n">
-        <v>92.583</v>
+        <v>110.089</v>
       </c>
       <c r="J5" t="n">
-        <v>7810</v>
+        <v>8490</v>
       </c>
       <c r="K5" t="n">
-        <v>0.867</v>
+        <v>0.943</v>
       </c>
       <c r="L5" t="n">
-        <v>14204</v>
+        <v>7748</v>
       </c>
       <c r="M5" t="n">
-        <v>1.577</v>
-      </c>
-      <c r="N5" t="s">
+        <v>0.86</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="O5" t="n">
+        <v>58.57</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" t="s">
         <v>37</v>
       </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>39</v>
+      <c r="R5" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44035</v>
+        <v>44057</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="H6" t="n">
-        <v>760733</v>
+        <v>944798</v>
       </c>
       <c r="I6" t="n">
-        <v>447.074</v>
+        <v>555.246</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>9599</v>
+        <v>9728</v>
       </c>
       <c r="M6" t="n">
-        <v>5.641</v>
-      </c>
-      <c r="N6" t="s">
+        <v>5.717</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="O6" t="n">
+        <v>24.003</v>
+      </c>
+      <c r="P6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" t="s">
         <v>44</v>
       </c>
-      <c r="O6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>46</v>
+      <c r="R6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44035</v>
+        <v>44053</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="H7" t="n">
-        <v>1079007</v>
+        <v>1273168</v>
       </c>
       <c r="I7" t="n">
-        <v>6.552</v>
+        <v>7.731</v>
       </c>
       <c r="J7" t="n">
-        <v>12398</v>
+        <v>12849</v>
       </c>
       <c r="K7" t="n">
-        <v>0.075</v>
+        <v>0.078</v>
       </c>
       <c r="L7" t="n">
-        <v>12254</v>
+        <v>11375</v>
       </c>
       <c r="M7" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="N7" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" t="s">
-        <v>51</v>
+        <v>0.069</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.724</v>
       </c>
       <c r="P7" t="s">
         <v>52</v>
@@ -2872,101 +2896,113 @@
       <c r="Q7" t="s">
         <v>53</v>
       </c>
+      <c r="R7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44036</v>
+        <v>44055</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H8" t="n">
-        <v>1230684</v>
+        <v>1384026</v>
       </c>
       <c r="I8" t="n">
-        <v>130.24</v>
+        <v>146.468</v>
       </c>
       <c r="J8" t="n">
-        <v>10979</v>
+        <v>6486</v>
       </c>
       <c r="K8" t="n">
-        <v>1.162</v>
+        <v>0.686</v>
       </c>
       <c r="L8" t="n">
-        <v>8258</v>
+        <v>6998</v>
       </c>
       <c r="M8" t="n">
-        <v>0.874</v>
-      </c>
-      <c r="N8" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" t="s">
-        <v>58</v>
+        <v>0.741</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O8" t="n">
+        <v>64.882</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="Q8" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44034</v>
+        <v>44055</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="H9" t="n">
-        <v>1158585</v>
+        <v>1923861</v>
       </c>
       <c r="I9" t="n">
-        <v>99.968</v>
+        <v>165.999</v>
       </c>
       <c r="J9" t="n">
-        <v>7136</v>
+        <v>18728</v>
       </c>
       <c r="K9" t="n">
-        <v>0.616</v>
+        <v>1.616</v>
       </c>
       <c r="L9" t="n">
-        <v>7793</v>
+        <v>18676</v>
       </c>
       <c r="M9" t="n">
-        <v>0.672</v>
-      </c>
-      <c r="N9" t="s">
-        <v>63</v>
-      </c>
-      <c r="O9" t="s">
-        <v>64</v>
+        <v>1.611</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O9" t="n">
+        <v>32.98</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -2974,55 +3010,67 @@
       <c r="Q9" t="s">
         <v>66</v>
       </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44034</v>
+        <v>44055</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="H10" t="n">
-        <v>127167</v>
+        <v>186964</v>
       </c>
       <c r="I10" t="n">
-        <v>10.894</v>
+        <v>16.017</v>
       </c>
       <c r="J10" t="n">
-        <v>2832</v>
+        <v>3652</v>
       </c>
       <c r="K10" t="n">
-        <v>0.243</v>
+        <v>0.313</v>
       </c>
       <c r="L10" t="n">
-        <v>2704</v>
+        <v>2980</v>
       </c>
       <c r="M10" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="N10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" t="s">
-        <v>70</v>
+        <v>0.255</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.093</v>
       </c>
       <c r="P10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3062,16 +3110,18 @@
       <c r="M11" t="n">
         <v>0.237</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11" t="s">
         <v>78</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>79</v>
       </c>
-      <c r="P11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3083,7 +3133,7 @@
         <v>82</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44036</v>
+        <v>44057</v>
       </c>
       <c r="D12" t="s">
         <v>83</v>
@@ -3093,36 +3143,42 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
+        <v>102</v>
+      </c>
+      <c r="H12" t="n">
+        <v>324851</v>
+      </c>
+      <c r="I12" t="n">
+        <v>46.752</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5877</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4395</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.633</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="O12" t="n">
+        <v>22.755</v>
+      </c>
+      <c r="P12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" t="s">
         <v>83</v>
       </c>
-      <c r="H12" t="n">
-        <v>227668</v>
-      </c>
-      <c r="I12" t="n">
-        <v>32.765</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5913</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.851</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4456</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.641</v>
-      </c>
-      <c r="N12" t="s">
-        <v>85</v>
-      </c>
-      <c r="O12" t="s">
-        <v>83</v>
-      </c>
-      <c r="P12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3134,7 +3190,7 @@
         <v>88</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44036</v>
+        <v>44057</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
@@ -3144,36 +3200,42 @@
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="H13" t="n">
-        <v>3697322</v>
+        <v>4635105</v>
       </c>
       <c r="I13" t="n">
-        <v>97.963</v>
+        <v>122.81</v>
       </c>
       <c r="J13" t="n">
-        <v>37544</v>
+        <v>54022</v>
       </c>
       <c r="K13" t="n">
-        <v>0.995</v>
+        <v>1.431</v>
       </c>
       <c r="L13" t="n">
-        <v>44235</v>
+        <v>45133</v>
       </c>
       <c r="M13" t="n">
-        <v>1.172</v>
-      </c>
-      <c r="N13" t="s">
+        <v>1.196</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="O13" t="n">
+        <v>117.534</v>
+      </c>
+      <c r="P13" t="s">
         <v>90</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>89</v>
       </c>
-      <c r="P13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3185,48 +3247,54 @@
         <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44035</v>
+        <v>44056</v>
       </c>
       <c r="D14" t="s">
         <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
       </c>
       <c r="G14" t="n">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="H14" t="n">
-        <v>1464640</v>
+        <v>1932592</v>
       </c>
       <c r="I14" t="n">
-        <v>76.618</v>
+        <v>101.097</v>
       </c>
       <c r="J14" t="n">
-        <v>18867</v>
+        <v>23628</v>
       </c>
       <c r="K14" t="n">
-        <v>0.987</v>
+        <v>1.236</v>
       </c>
       <c r="L14" t="n">
-        <v>16105</v>
+        <v>24568</v>
       </c>
       <c r="M14" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="N14" t="s">
+        <v>1.285</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="O14" t="n">
+        <v>12.791</v>
+      </c>
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>97</v>
       </c>
-      <c r="P14" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
+        <v>40</v>
+      </c>
+      <c r="S14" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3238,7 +3306,7 @@
         <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44034</v>
+        <v>44055</v>
       </c>
       <c r="D15" t="s">
         <v>101</v>
@@ -3248,1412 +3316,1562 @@
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="H15" t="n">
-        <v>1292501</v>
+        <v>2023256</v>
       </c>
       <c r="I15" t="n">
-        <v>25.401</v>
+        <v>39.763</v>
       </c>
       <c r="J15" t="n">
-        <v>28801</v>
+        <v>40425</v>
       </c>
       <c r="K15" t="n">
-        <v>0.566</v>
+        <v>0.794</v>
       </c>
       <c r="L15" t="n">
-        <v>26336</v>
+        <v>37355</v>
       </c>
       <c r="M15" t="n">
-        <v>0.518</v>
-      </c>
-      <c r="N15" t="s">
+        <v>0.734</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.465</v>
+      </c>
+      <c r="P15" t="s">
         <v>102</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>103</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" t="s">
         <v>104</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
         <v>106</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="n">
+        <v>44055</v>
+      </c>
+      <c r="D16" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>44034</v>
-      </c>
-      <c r="D16" t="s">
-        <v>108</v>
-      </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="H16" t="n">
-        <v>61481</v>
+        <v>97283</v>
       </c>
       <c r="I16" t="n">
-        <v>12.069</v>
+        <v>19.097</v>
       </c>
       <c r="J16" t="n">
-        <v>1228</v>
+        <v>1721</v>
       </c>
       <c r="K16" t="n">
-        <v>0.241</v>
+        <v>0.338</v>
       </c>
       <c r="L16" t="n">
-        <v>1309</v>
+        <v>1706</v>
       </c>
       <c r="M16" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="N16" t="s">
+        <v>0.335</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.557</v>
+      </c>
+      <c r="P16" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" t="s">
         <v>109</v>
       </c>
-      <c r="O16" t="s">
+      <c r="R16" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" t="s">
         <v>110</v>
-      </c>
-      <c r="P16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
         <v>112</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="n">
+        <v>44054</v>
+      </c>
+      <c r="D17" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>44036</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>114</v>
-      </c>
-      <c r="E17" t="s">
-        <v>115</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="H17" t="n">
-        <v>109358</v>
+        <v>110359</v>
       </c>
       <c r="I17" t="n">
-        <v>26.638</v>
+        <v>4.184</v>
       </c>
       <c r="J17" t="n">
-        <v>1136</v>
+        <v>682</v>
       </c>
       <c r="K17" t="n">
-        <v>0.277</v>
+        <v>0.026</v>
       </c>
       <c r="L17" t="n">
-        <v>1215</v>
+        <v>962</v>
       </c>
       <c r="M17" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="N17" t="s">
+        <v>0.036</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="O17" t="n">
+        <v>11.651</v>
+      </c>
+      <c r="P17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17" t="s">
         <v>115</v>
       </c>
-      <c r="O17" t="s">
+      <c r="R17" t="s">
+        <v>54</v>
+      </c>
+      <c r="S17" t="s">
         <v>116</v>
-      </c>
-      <c r="P17" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>44056</v>
+      </c>
+      <c r="D18" t="s">
         <v>119</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>44035</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18"/>
+      <c r="G18" t="n">
+        <v>155</v>
+      </c>
+      <c r="H18" t="n">
+        <v>133493</v>
+      </c>
+      <c r="I18" t="n">
+        <v>32.517</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1201</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O18" t="n">
+        <v>16.551</v>
+      </c>
+      <c r="P18" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q18" t="s">
         <v>121</v>
       </c>
-      <c r="E18" t="s">
+      <c r="R18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S18" t="s">
         <v>122</v>
-      </c>
-      <c r="F18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" t="n">
-        <v>124</v>
-      </c>
-      <c r="H18" t="n">
-        <v>240894</v>
-      </c>
-      <c r="I18" t="n">
-        <v>21.268</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3075</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.271</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2879</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="N18" t="s">
-        <v>122</v>
-      </c>
-      <c r="O18" t="s">
-        <v>124</v>
-      </c>
-      <c r="P18" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>44055</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" t="s">
         <v>127</v>
       </c>
-      <c r="B19" t="s">
+      <c r="G19" t="n">
+        <v>144</v>
+      </c>
+      <c r="H19" t="n">
+        <v>314499</v>
+      </c>
+      <c r="I19" t="n">
+        <v>27.766</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4591</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4147</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O19" t="n">
+        <v>74.054</v>
+      </c>
+      <c r="P19" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q19" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>44035</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="R19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" t="s">
         <v>129</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19" t="n">
-        <v>173</v>
-      </c>
-      <c r="H19" t="n">
-        <v>650650</v>
-      </c>
-      <c r="I19" t="n">
-        <v>60.757</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5557</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.519</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4704</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="N19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O19" t="s">
-        <v>130</v>
-      </c>
-      <c r="P19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>44055</v>
+      </c>
+      <c r="D20" t="s">
         <v>132</v>
       </c>
-      <c r="B20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>44033</v>
-      </c>
-      <c r="D20" t="s">
-        <v>134</v>
-      </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>83</v>
-      </c>
-      <c r="H20"/>
-      <c r="I20"/>
+        <v>193</v>
+      </c>
+      <c r="H20" t="n">
+        <v>775991</v>
+      </c>
+      <c r="I20" t="n">
+        <v>72.462</v>
+      </c>
       <c r="J20" t="n">
-        <v>741</v>
+        <v>7507</v>
       </c>
       <c r="K20" t="n">
-        <v>0.008</v>
+        <v>0.701</v>
       </c>
       <c r="L20" t="n">
-        <v>582</v>
+        <v>6649</v>
       </c>
       <c r="M20" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="N20" t="s">
-        <v>135</v>
-      </c>
-      <c r="O20" t="s">
-        <v>136</v>
+        <v>0.621</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="O20" t="n">
+        <v>31.091</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q20" t="s">
-        <v>137</v>
+        <v>133</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>44055</v>
+      </c>
+      <c r="D21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" t="s">
         <v>138</v>
-      </c>
-      <c r="B21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>44035</v>
-      </c>
-      <c r="D21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" t="s">
-        <v>141</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>166</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1386501</v>
-      </c>
-      <c r="I21" t="n">
-        <v>239.374</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
       <c r="J21" t="n">
-        <v>4024</v>
+        <v>413</v>
       </c>
       <c r="K21" t="n">
-        <v>0.695</v>
+        <v>0.005</v>
       </c>
       <c r="L21" t="n">
-        <v>13018</v>
+        <v>365</v>
       </c>
       <c r="M21" t="n">
-        <v>2.248</v>
-      </c>
-      <c r="N21" t="s">
-        <v>141</v>
-      </c>
-      <c r="O21" t="s">
-        <v>142</v>
+        <v>0.004</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="O21" t="n">
+        <v>7.96</v>
       </c>
       <c r="P21" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="Q21" t="s">
-        <v>143</v>
+        <v>139</v>
+      </c>
+      <c r="R21" t="s">
+        <v>54</v>
+      </c>
+      <c r="S21" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>44055</v>
+      </c>
+      <c r="D22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" t="s">
         <v>144</v>
       </c>
-      <c r="B22" t="s">
+      <c r="F22"/>
+      <c r="G22" t="n">
+        <v>186</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1800366</v>
+      </c>
+      <c r="I22" t="n">
+        <v>310.826</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5975</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="L22" t="n">
+        <v>22307</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O22" t="n">
+        <v>176.24</v>
+      </c>
+      <c r="P22" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q22" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>44035</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="R22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" t="s">
         <v>146</v>
-      </c>
-      <c r="E22" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" t="n">
-        <v>124</v>
-      </c>
-      <c r="H22" t="n">
-        <v>163598</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9.273</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2155</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2229</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="N22" t="s">
-        <v>147</v>
-      </c>
-      <c r="O22" t="s">
-        <v>149</v>
-      </c>
-      <c r="P22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>44056</v>
+      </c>
+      <c r="D23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" t="s">
         <v>151</v>
       </c>
-      <c r="B23" t="s">
+      <c r="G23" t="n">
+        <v>145</v>
+      </c>
+      <c r="H23" t="n">
+        <v>214477</v>
+      </c>
+      <c r="I23" t="n">
+        <v>12.156</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3285</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2875</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>44034</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="R23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S23" t="s">
         <v>153</v>
-      </c>
-      <c r="E23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F23"/>
-      <c r="G23" t="n">
-        <v>104</v>
-      </c>
-      <c r="H23" t="n">
-        <v>219391</v>
-      </c>
-      <c r="I23" t="n">
-        <v>33.824</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2475</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2466</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="N23" t="s">
-        <v>154</v>
-      </c>
-      <c r="O23" t="s">
-        <v>155</v>
-      </c>
-      <c r="P23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>44053</v>
+      </c>
+      <c r="D24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
         <v>157</v>
-      </c>
-      <c r="B24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>44035</v>
-      </c>
-      <c r="D24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" t="s">
-        <v>160</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="H24" t="n">
-        <v>116333</v>
+        <v>266079</v>
       </c>
       <c r="I24" t="n">
-        <v>87.697</v>
+        <v>41.022</v>
       </c>
       <c r="J24" t="n">
-        <v>383</v>
+        <v>2492</v>
       </c>
       <c r="K24" t="n">
-        <v>0.289</v>
+        <v>0.384</v>
       </c>
       <c r="L24" t="n">
-        <v>336</v>
+        <v>2470</v>
       </c>
       <c r="M24" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="N24" t="s">
-        <v>161</v>
-      </c>
-      <c r="O24" t="s">
-        <v>162</v>
+        <v>0.381</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="O24" t="n">
+        <v>5.812</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Q24" t="s">
-        <v>164</v>
+        <v>158</v>
+      </c>
+      <c r="R24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44011</v>
+        <v>44056</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="H25" t="n">
-        <v>250604</v>
+        <v>132270</v>
       </c>
       <c r="I25" t="n">
-        <v>2.18</v>
+        <v>99.711</v>
       </c>
       <c r="J25" t="n">
-        <v>3693</v>
+        <v>1451</v>
       </c>
       <c r="K25" t="n">
-        <v>0.032</v>
+        <v>1.094</v>
       </c>
       <c r="L25" t="n">
-        <v>4434</v>
+        <v>1207</v>
       </c>
       <c r="M25" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="N25" t="s">
-        <v>168</v>
-      </c>
-      <c r="O25" t="s">
-        <v>169</v>
+        <v>0.91</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O25" t="n">
+        <v>138.508</v>
       </c>
       <c r="P25" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="Q25" t="s">
-        <v>170</v>
+        <v>165</v>
+      </c>
+      <c r="R25" t="s">
+        <v>166</v>
+      </c>
+      <c r="S25" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>44045</v>
+      </c>
+      <c r="D26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" t="s">
         <v>171</v>
-      </c>
-      <c r="B26" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>44031</v>
-      </c>
-      <c r="D26" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" t="s">
-        <v>174</v>
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="H26" t="n">
-        <v>6414</v>
+        <v>437319</v>
       </c>
       <c r="I26" t="n">
-        <v>7.155</v>
-      </c>
-      <c r="J26" t="n">
-        <v>13</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.015</v>
-      </c>
+        <v>3.804</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26"/>
       <c r="L26" t="n">
-        <v>68</v>
+        <v>7575</v>
       </c>
       <c r="M26" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="N26" t="s">
-        <v>174</v>
-      </c>
-      <c r="O26" t="s">
+        <v>0.066</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>9.993</v>
+      </c>
+      <c r="P26" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>172</v>
+      </c>
+      <c r="R26" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" t="s">
         <v>173</v>
-      </c>
-      <c r="P26" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>44051</v>
+      </c>
+      <c r="D27" t="s">
         <v>176</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E27" t="s">
         <v>177</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>44034</v>
-      </c>
-      <c r="D27" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" t="s">
-        <v>179</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H27" t="n">
-        <v>330094</v>
+        <v>7334</v>
       </c>
       <c r="I27" t="n">
-        <v>59.576</v>
+        <v>8.181</v>
       </c>
       <c r="J27" t="n">
-        <v>4305</v>
+        <v>16</v>
       </c>
       <c r="K27" t="n">
-        <v>0.777</v>
+        <v>0.018</v>
       </c>
       <c r="L27" t="n">
-        <v>3900</v>
+        <v>57</v>
       </c>
       <c r="M27" t="n">
-        <v>0.704</v>
-      </c>
-      <c r="N27" t="s">
-        <v>180</v>
-      </c>
-      <c r="O27" t="s">
+        <v>0.064</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27"/>
+      <c r="P27" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>176</v>
+      </c>
+      <c r="R27" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" t="s">
         <v>178</v>
-      </c>
-      <c r="P27" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>44054</v>
+      </c>
+      <c r="D28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" t="s">
         <v>182</v>
       </c>
-      <c r="B28" t="s">
+      <c r="F28"/>
+      <c r="G28" t="n">
+        <v>169</v>
+      </c>
+      <c r="H28" t="n">
+        <v>440037</v>
+      </c>
+      <c r="I28" t="n">
+        <v>79.419</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6996</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.263</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6616</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.194</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O28" t="n">
+        <v>343.052</v>
+      </c>
+      <c r="P28" t="s">
         <v>183</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>44031</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="Q28" t="s">
+        <v>181</v>
+      </c>
+      <c r="R28" t="s">
+        <v>54</v>
+      </c>
+      <c r="S28" t="s">
         <v>184</v>
-      </c>
-      <c r="E28" t="s">
-        <v>185</v>
-      </c>
-      <c r="F28" t="s">
-        <v>186</v>
-      </c>
-      <c r="G28" t="n">
-        <v>63</v>
-      </c>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28" t="n">
-        <v>51565</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="L28" t="n">
-        <v>51565</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="N28" t="s">
-        <v>185</v>
-      </c>
-      <c r="O28" t="s">
-        <v>187</v>
-      </c>
-      <c r="P28" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>44053</v>
+      </c>
+      <c r="D29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" t="n">
+        <v>90</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29" t="n">
+        <v>97453</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.493</v>
+      </c>
+      <c r="L29" t="n">
+        <v>77189</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.183</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O29" t="n">
+        <v>54.021</v>
+      </c>
+      <c r="P29" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>187</v>
+      </c>
+      <c r="R29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S29" t="s">
         <v>189</v>
-      </c>
-      <c r="C29" s="1" t="n">
-        <v>43956</v>
-      </c>
-      <c r="D29" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" t="s">
-        <v>185</v>
-      </c>
-      <c r="F29" t="s">
-        <v>191</v>
-      </c>
-      <c r="G29" t="n">
-        <v>24</v>
-      </c>
-      <c r="H29" t="n">
-        <v>831174</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12.734</v>
-      </c>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29" t="n">
-        <v>15229</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="N29" t="s">
-        <v>185</v>
-      </c>
-      <c r="O29" t="s">
-        <v>187</v>
-      </c>
-      <c r="P29" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44031</v>
+        <v>43956</v>
       </c>
       <c r="D30" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F30" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G30" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H30" t="n">
-        <v>7418812</v>
+        <v>831174</v>
       </c>
       <c r="I30" t="n">
-        <v>88.547</v>
+        <v>12.734</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30" t="n">
-        <v>75939</v>
+        <v>15229</v>
       </c>
       <c r="M30" t="n">
-        <v>0.906</v>
-      </c>
-      <c r="N30" t="s">
-        <v>196</v>
-      </c>
-      <c r="O30" t="s">
-        <v>198</v>
+        <v>0.233</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="O30" t="n">
+        <v>17.496</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="Q30" t="s">
-        <v>200</v>
+        <v>193</v>
+      </c>
+      <c r="R30" t="s">
+        <v>27</v>
+      </c>
+      <c r="S30" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>44052</v>
+      </c>
+      <c r="D31" t="s">
+        <v>197</v>
+      </c>
+      <c r="E31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" t="n">
+        <v>23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>9265361</v>
+      </c>
+      <c r="I31" t="n">
+        <v>110.586</v>
+      </c>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31" t="n">
+        <v>96024</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="O31" t="n">
+        <v>112.065</v>
+      </c>
+      <c r="P31" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>200</v>
+      </c>
+      <c r="R31" t="s">
         <v>201</v>
       </c>
-      <c r="B31" t="s">
+      <c r="S31" t="s">
         <v>202</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>44032</v>
-      </c>
-      <c r="D31" t="s">
-        <v>203</v>
-      </c>
-      <c r="E31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31" t="n">
-        <v>89</v>
-      </c>
-      <c r="H31" t="n">
-        <v>361542</v>
-      </c>
-      <c r="I31" t="n">
-        <v>11.635</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4322</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.139</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3150</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="N31" t="s">
-        <v>205</v>
-      </c>
-      <c r="O31" t="s">
-        <v>206</v>
-      </c>
-      <c r="P31" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44036</v>
+        <v>44054</v>
       </c>
       <c r="D32" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E32" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="H32" t="n">
-        <v>436510</v>
+        <v>421588</v>
       </c>
       <c r="I32" t="n">
-        <v>41.879</v>
+        <v>13.568</v>
       </c>
       <c r="J32" t="n">
-        <v>5646</v>
+        <v>1998</v>
       </c>
       <c r="K32" t="n">
-        <v>0.542</v>
+        <v>0.064</v>
       </c>
       <c r="L32" t="n">
-        <v>4834</v>
+        <v>1745</v>
       </c>
       <c r="M32" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="N32" t="s">
-        <v>213</v>
-      </c>
-      <c r="O32" t="s">
-        <v>214</v>
+        <v>0.056</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3.593</v>
       </c>
       <c r="P32" t="s">
-        <v>52</v>
+        <v>207</v>
       </c>
       <c r="Q32" t="s">
-        <v>215</v>
+        <v>208</v>
+      </c>
+      <c r="R32" t="s">
+        <v>54</v>
+      </c>
+      <c r="S32" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44033</v>
+        <v>44056</v>
       </c>
       <c r="D33" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E33" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="H33" t="n">
-        <v>524969</v>
+        <v>687338</v>
       </c>
       <c r="I33" t="n">
-        <v>70.024</v>
-      </c>
-      <c r="J33"/>
-      <c r="K33"/>
+        <v>65.944</v>
+      </c>
+      <c r="J33" t="n">
+        <v>7553</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.725</v>
+      </c>
       <c r="L33" t="n">
-        <v>8454</v>
+        <v>9706</v>
       </c>
       <c r="M33" t="n">
-        <v>1.128</v>
-      </c>
-      <c r="N33" t="s">
-        <v>220</v>
-      </c>
-      <c r="O33" t="s">
-        <v>221</v>
+        <v>0.931</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="O33" t="n">
+        <v>56.43</v>
       </c>
       <c r="P33" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="Q33" t="s">
-        <v>222</v>
+        <v>215</v>
+      </c>
+      <c r="R33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S33" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>44054</v>
+      </c>
+      <c r="D34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" t="s">
+        <v>220</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34" t="n">
+        <v>8</v>
+      </c>
+      <c r="H34" t="n">
+        <v>780410</v>
+      </c>
+      <c r="I34" t="n">
+        <v>104.096</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34" t="n">
+        <v>12322</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.644</v>
+      </c>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>222</v>
+      </c>
+      <c r="R34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S34" t="s">
         <v>223</v>
-      </c>
-      <c r="B34" t="s">
-        <v>224</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>44033</v>
-      </c>
-      <c r="D34" t="s">
-        <v>225</v>
-      </c>
-      <c r="E34" t="s">
-        <v>226</v>
-      </c>
-      <c r="F34" t="s">
-        <v>227</v>
-      </c>
-      <c r="G34" t="n">
-        <v>138</v>
-      </c>
-      <c r="H34" t="n">
-        <v>310830</v>
-      </c>
-      <c r="I34" t="n">
-        <v>32.176</v>
-      </c>
-      <c r="J34" t="n">
-        <v>760</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2067</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="N34" t="s">
-        <v>226</v>
-      </c>
-      <c r="O34" t="s">
-        <v>228</v>
-      </c>
-      <c r="P34" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>44053</v>
+      </c>
+      <c r="D35" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" t="n">
+        <v>158</v>
+      </c>
+      <c r="H35" t="n">
+        <v>362660</v>
+      </c>
+      <c r="I35" t="n">
+        <v>37.541</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1888</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2243</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O35" t="n">
+        <v>97.522</v>
+      </c>
+      <c r="P35" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>229</v>
+      </c>
+      <c r="R35" t="s">
+        <v>230</v>
+      </c>
+      <c r="S35" t="s">
         <v>231</v>
-      </c>
-      <c r="B35" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>44035</v>
-      </c>
-      <c r="D35" t="s">
-        <v>233</v>
-      </c>
-      <c r="E35" t="s">
-        <v>234</v>
-      </c>
-      <c r="F35"/>
-      <c r="G35" t="n">
-        <v>148</v>
-      </c>
-      <c r="H35" t="n">
-        <v>68808</v>
-      </c>
-      <c r="I35" t="n">
-        <v>201.635</v>
-      </c>
-      <c r="J35" t="n">
-        <v>53</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="L35" t="n">
-        <v>69</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.202</v>
-      </c>
-      <c r="N35" t="s">
-        <v>234</v>
-      </c>
-      <c r="O35" t="s">
-        <v>233</v>
-      </c>
-      <c r="P35" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B36" t="s">
+        <v>233</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>44055</v>
+      </c>
+      <c r="D36" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" t="s">
+        <v>235</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36" t="n">
+        <v>168</v>
+      </c>
+      <c r="H36" t="n">
+        <v>80724</v>
+      </c>
+      <c r="I36" t="n">
+        <v>236.554</v>
+      </c>
+      <c r="J36" t="n">
+        <v>722</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.116</v>
+      </c>
+      <c r="L36" t="n">
+        <v>651</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="O36" t="n">
+        <v>91.14</v>
+      </c>
+      <c r="P36" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>234</v>
+      </c>
+      <c r="R36" t="s">
+        <v>27</v>
+      </c>
+      <c r="S36" t="s">
         <v>236</v>
-      </c>
-      <c r="B36" t="s">
-        <v>237</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>43945</v>
-      </c>
-      <c r="D36" t="s">
-        <v>238</v>
-      </c>
-      <c r="E36" t="s">
-        <v>239</v>
-      </c>
-      <c r="F36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G36" t="n">
-        <v>24</v>
-      </c>
-      <c r="H36" t="n">
-        <v>525667</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="J36" t="n">
-        <v>40495</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="L36" t="n">
-        <v>29603</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="N36" t="s">
-        <v>239</v>
-      </c>
-      <c r="O36" t="s">
-        <v>238</v>
-      </c>
-      <c r="P36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>43944</v>
+      </c>
+      <c r="D37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" t="n">
+        <v>24</v>
+      </c>
+      <c r="H37" t="n">
+        <v>525667</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="J37" t="n">
+        <v>40495</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="L37" t="n">
+        <v>29603</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="O37" t="n">
+        <v>22.991</v>
+      </c>
+      <c r="P37" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>239</v>
+      </c>
+      <c r="R37" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37" t="s">
         <v>242</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>44036</v>
-      </c>
-      <c r="D37" t="s">
-        <v>238</v>
-      </c>
-      <c r="E37" t="s">
-        <v>239</v>
-      </c>
-      <c r="F37" t="s">
-        <v>240</v>
-      </c>
-      <c r="G37" t="n">
-        <v>122</v>
-      </c>
-      <c r="H37" t="n">
-        <v>15428170</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="J37" t="n">
-        <v>352801</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.256</v>
-      </c>
-      <c r="L37" t="n">
-        <v>336493</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.244</v>
-      </c>
-      <c r="N37" t="s">
-        <v>239</v>
-      </c>
-      <c r="O37" t="s">
-        <v>238</v>
-      </c>
-      <c r="P37" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" t="s">
         <v>243</v>
       </c>
-      <c r="B38" t="s">
-        <v>244</v>
-      </c>
       <c r="C38" s="1" t="n">
-        <v>44036</v>
+        <v>44056</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
-      </c>
-      <c r="F38"/>
+        <v>240</v>
+      </c>
+      <c r="F38" t="s">
+        <v>241</v>
+      </c>
       <c r="G38" t="n">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="H38" t="n">
-        <v>777100</v>
+        <v>27694416</v>
       </c>
       <c r="I38" t="n">
-        <v>2.841</v>
+        <v>20.068</v>
       </c>
       <c r="J38" t="n">
-        <v>14143</v>
+        <v>848728</v>
       </c>
       <c r="K38" t="n">
-        <v>0.052</v>
+        <v>0.615</v>
       </c>
       <c r="L38" t="n">
-        <v>13328</v>
+        <v>700860</v>
       </c>
       <c r="M38" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="N38" t="s">
-        <v>246</v>
-      </c>
-      <c r="O38" t="s">
-        <v>247</v>
+        <v>0.508</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="O38" t="n">
+        <v>11.354</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q38" t="s">
-        <v>249</v>
+        <v>239</v>
+      </c>
+      <c r="R38" t="s">
+        <v>54</v>
+      </c>
+      <c r="S38" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44036</v>
+        <v>44056</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E39" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="H39" t="n">
-        <v>2278384</v>
+        <v>1026954</v>
       </c>
       <c r="I39" t="n">
-        <v>27.126</v>
+        <v>3.755</v>
       </c>
       <c r="J39" t="n">
-        <v>24261</v>
+        <v>14850</v>
       </c>
       <c r="K39" t="n">
-        <v>0.289</v>
+        <v>0.054</v>
       </c>
       <c r="L39" t="n">
-        <v>25628</v>
+        <v>12949</v>
       </c>
       <c r="M39" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="N39" t="s">
-        <v>253</v>
-      </c>
-      <c r="O39" t="s">
-        <v>254</v>
+        <v>0.047</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6.546</v>
       </c>
       <c r="P39" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="Q39" t="s">
-        <v>255</v>
+        <v>248</v>
+      </c>
+      <c r="R39" t="s">
+        <v>23</v>
+      </c>
+      <c r="S39" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44036</v>
+        <v>44055</v>
       </c>
       <c r="D40" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E40" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H40" t="n">
-        <v>592202</v>
+        <v>2763225</v>
       </c>
       <c r="I40" t="n">
-        <v>119.932</v>
+        <v>32.898</v>
       </c>
       <c r="J40" t="n">
-        <v>8980</v>
+        <v>26711</v>
       </c>
       <c r="K40" t="n">
-        <v>1.819</v>
+        <v>0.318</v>
       </c>
       <c r="L40" t="n">
-        <v>7233</v>
+        <v>25163</v>
       </c>
       <c r="M40" t="n">
-        <v>1.465</v>
-      </c>
-      <c r="N40" t="s">
-        <v>259</v>
-      </c>
-      <c r="O40" t="s">
-        <v>258</v>
+        <v>0.3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="O40" t="n">
+        <v>10.738</v>
       </c>
       <c r="P40" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="Q40" t="s">
-        <v>260</v>
+        <v>254</v>
+      </c>
+      <c r="R40" t="s">
+        <v>27</v>
+      </c>
+      <c r="S40" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44029</v>
+        <v>44056</v>
       </c>
       <c r="D41" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E41" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="H41" t="n">
-        <v>1436994</v>
+        <v>687699</v>
       </c>
       <c r="I41" t="n">
-        <v>166.02</v>
+        <v>139.272</v>
       </c>
       <c r="J41" t="n">
-        <v>25706</v>
+        <v>7072</v>
       </c>
       <c r="K41" t="n">
-        <v>2.97</v>
+        <v>1.432</v>
       </c>
       <c r="L41" t="n">
-        <v>27234</v>
+        <v>4969</v>
       </c>
       <c r="M41" t="n">
-        <v>3.146</v>
-      </c>
-      <c r="N41" t="s">
-        <v>43</v>
-      </c>
-      <c r="O41" t="s">
-        <v>265</v>
+        <v>1.006</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="O41" t="n">
+        <v>65.015</v>
       </c>
       <c r="P41" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
       <c r="Q41" t="s">
-        <v>266</v>
+        <v>258</v>
+      </c>
+      <c r="R41" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44036</v>
+        <v>44049</v>
       </c>
       <c r="D42" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E42" t="s">
-        <v>270</v>
-      </c>
-      <c r="F42" t="s">
-        <v>271</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="F42"/>
       <c r="G42" t="n">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="H42" t="n">
-        <v>3869759</v>
+        <v>1896525</v>
       </c>
       <c r="I42" t="n">
-        <v>64.003</v>
+        <v>219.111</v>
       </c>
       <c r="J42" t="n">
-        <v>28970</v>
+        <v>28799</v>
       </c>
       <c r="K42" t="n">
-        <v>0.479</v>
+        <v>3.327</v>
       </c>
       <c r="L42" t="n">
-        <v>25357</v>
+        <v>20704</v>
       </c>
       <c r="M42" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="N42" t="s">
-        <v>272</v>
-      </c>
-      <c r="O42" t="s">
-        <v>273</v>
+        <v>2.392</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="O42" t="n">
+        <v>14.837</v>
       </c>
       <c r="P42" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="Q42" t="s">
-        <v>274</v>
+        <v>265</v>
+      </c>
+      <c r="R42" t="s">
+        <v>27</v>
+      </c>
+      <c r="S42" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="43">
@@ -4661,10 +4879,10 @@
         <v>267</v>
       </c>
       <c r="B43" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44036</v>
+        <v>44056</v>
       </c>
       <c r="D43" t="s">
         <v>269</v>
@@ -4676,90 +4894,102 @@
         <v>271</v>
       </c>
       <c r="G43" t="n">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="H43" t="n">
-        <v>6468375</v>
+        <v>4382656</v>
       </c>
       <c r="I43" t="n">
-        <v>106.983</v>
+        <v>72.486</v>
       </c>
       <c r="J43" t="n">
-        <v>53334</v>
+        <v>25629</v>
       </c>
       <c r="K43" t="n">
-        <v>0.882</v>
+        <v>0.424</v>
       </c>
       <c r="L43" t="n">
-        <v>44874</v>
+        <v>23675</v>
       </c>
       <c r="M43" t="n">
-        <v>0.742</v>
-      </c>
-      <c r="N43" t="s">
+        <v>0.392</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="O43" t="n">
+        <v>56.95</v>
+      </c>
+      <c r="P43" t="s">
         <v>272</v>
       </c>
-      <c r="O43" t="s">
+      <c r="Q43" t="s">
         <v>273</v>
       </c>
-      <c r="P43" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>276</v>
+      <c r="R43" t="s">
+        <v>23</v>
+      </c>
+      <c r="S43" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B44" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44036</v>
+        <v>44056</v>
       </c>
       <c r="D44" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="E44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F44" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G44" t="n">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="H44" t="n">
-        <v>697512</v>
+        <v>7420764</v>
       </c>
       <c r="I44" t="n">
-        <v>5.515</v>
+        <v>122.735</v>
       </c>
       <c r="J44" t="n">
-        <v>9476</v>
+        <v>51188</v>
       </c>
       <c r="K44" t="n">
-        <v>0.075</v>
+        <v>0.847</v>
       </c>
       <c r="L44" t="n">
-        <v>11495</v>
+        <v>45864</v>
       </c>
       <c r="M44" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="N44" t="s">
-        <v>282</v>
-      </c>
-      <c r="O44" t="s">
-        <v>283</v>
+        <v>0.759</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="O44" t="n">
+        <v>110.326</v>
       </c>
       <c r="P44" t="s">
-        <v>21</v>
+        <v>272</v>
       </c>
       <c r="Q44" t="s">
-        <v>284</v>
+        <v>273</v>
+      </c>
+      <c r="R44" t="s">
+        <v>27</v>
+      </c>
+      <c r="S44" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="45">
@@ -4767,2980 +4997,3379 @@
         <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44033</v>
+        <v>44056</v>
       </c>
       <c r="D45" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E45" t="s">
         <v>280</v>
       </c>
       <c r="F45" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G45" t="n">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="H45" t="n">
-        <v>930432</v>
+        <v>1085322</v>
       </c>
       <c r="I45" t="n">
-        <v>7.357</v>
+        <v>8.581</v>
       </c>
       <c r="J45" t="n">
-        <v>12734</v>
+        <v>27158</v>
       </c>
       <c r="K45" t="n">
-        <v>0.101</v>
+        <v>0.215</v>
       </c>
       <c r="L45" t="n">
-        <v>14302</v>
+        <v>20940</v>
       </c>
       <c r="M45" t="n">
-        <v>0.113</v>
-      </c>
-      <c r="N45" t="s">
+        <v>0.166</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="O45" t="n">
+        <v>17.917</v>
+      </c>
+      <c r="P45" t="s">
         <v>282</v>
       </c>
-      <c r="O45" t="s">
+      <c r="Q45" t="s">
         <v>283</v>
       </c>
-      <c r="P45" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>288</v>
+      <c r="R45" t="s">
+        <v>23</v>
+      </c>
+      <c r="S45" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B46" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44033</v>
+        <v>44054</v>
       </c>
       <c r="D46" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
-      </c>
-      <c r="F46"/>
+        <v>280</v>
+      </c>
+      <c r="F46" t="s">
+        <v>287</v>
+      </c>
       <c r="G46" t="n">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="H46" t="n">
-        <v>1823332</v>
+        <v>1405649</v>
       </c>
       <c r="I46" t="n">
-        <v>97.106</v>
+        <v>11.114</v>
       </c>
       <c r="J46" t="n">
-        <v>17359</v>
+        <v>22672</v>
       </c>
       <c r="K46" t="n">
-        <v>0.924</v>
+        <v>0.179</v>
       </c>
       <c r="L46" t="n">
-        <v>12255</v>
+        <v>24256</v>
       </c>
       <c r="M46" t="n">
-        <v>0.653</v>
-      </c>
-      <c r="N46" t="s">
-        <v>292</v>
-      </c>
-      <c r="O46" t="s">
-        <v>291</v>
+        <v>0.192</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="O46" t="n">
+        <v>20.262</v>
       </c>
       <c r="P46" t="s">
-        <v>25</v>
+        <v>282</v>
       </c>
       <c r="Q46" t="s">
-        <v>293</v>
+        <v>283</v>
+      </c>
+      <c r="R46" t="s">
+        <v>27</v>
+      </c>
+      <c r="S46" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B47" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44035</v>
+        <v>44054</v>
       </c>
       <c r="D47" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E47" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="H47" t="n">
-        <v>261027</v>
+        <v>2236924</v>
       </c>
       <c r="I47" t="n">
-        <v>4.854</v>
+        <v>119.133</v>
       </c>
       <c r="J47" t="n">
-        <v>6754</v>
+        <v>10055</v>
       </c>
       <c r="K47" t="n">
-        <v>0.126</v>
+        <v>0.536</v>
       </c>
       <c r="L47" t="n">
-        <v>4520</v>
+        <v>15795</v>
       </c>
       <c r="M47" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="N47" t="s">
-        <v>43</v>
-      </c>
-      <c r="O47" t="s">
-        <v>298</v>
+        <v>0.841</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="O47" t="n">
+        <v>17.428</v>
       </c>
       <c r="P47" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Q47" t="s">
-        <v>300</v>
+        <v>291</v>
+      </c>
+      <c r="R47" t="s">
+        <v>27</v>
+      </c>
+      <c r="S47" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44035</v>
+        <v>44054</v>
       </c>
       <c r="D48" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="E48" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="H48" t="n">
-        <v>474808</v>
+        <v>362501</v>
       </c>
       <c r="I48" t="n">
-        <v>111.182</v>
+        <v>6.742</v>
       </c>
       <c r="J48" t="n">
-        <v>3808</v>
+        <v>4171</v>
       </c>
       <c r="K48" t="n">
-        <v>0.892</v>
+        <v>0.078</v>
       </c>
       <c r="L48" t="n">
-        <v>3612</v>
+        <v>5654</v>
       </c>
       <c r="M48" t="n">
-        <v>0.846</v>
-      </c>
-      <c r="N48" t="s">
-        <v>304</v>
-      </c>
-      <c r="O48" t="s">
-        <v>305</v>
+        <v>0.105</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="O48" t="n">
+        <v>9.138</v>
       </c>
       <c r="P48" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Q48" t="s">
-        <v>306</v>
+        <v>298</v>
+      </c>
+      <c r="R48" t="s">
+        <v>54</v>
+      </c>
+      <c r="S48" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44036</v>
+        <v>44056</v>
       </c>
       <c r="D49" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E49" t="s">
-        <v>310</v>
-      </c>
-      <c r="F49" t="s">
-        <v>311</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="F49"/>
       <c r="G49" t="n">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="H49" t="n">
-        <v>188485</v>
+        <v>548005</v>
       </c>
       <c r="I49" t="n">
-        <v>99.928</v>
+        <v>128.321</v>
       </c>
       <c r="J49" t="n">
-        <v>1510</v>
+        <v>4147</v>
       </c>
       <c r="K49" t="n">
-        <v>0.801</v>
+        <v>0.971</v>
       </c>
       <c r="L49" t="n">
-        <v>1514</v>
+        <v>3686</v>
       </c>
       <c r="M49" t="n">
-        <v>0.803</v>
-      </c>
-      <c r="N49" t="s">
-        <v>310</v>
-      </c>
-      <c r="O49" t="s">
-        <v>309</v>
+        <v>0.863</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="O49" t="n">
+        <v>5.918</v>
       </c>
       <c r="P49" t="s">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="Q49" t="s">
-        <v>312</v>
+        <v>304</v>
+      </c>
+      <c r="R49" t="s">
+        <v>27</v>
+      </c>
+      <c r="S49" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B50" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44036</v>
+        <v>44057</v>
       </c>
       <c r="D50" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
-      </c>
-      <c r="F50"/>
+        <v>309</v>
+      </c>
+      <c r="F50" t="s">
+        <v>310</v>
+      </c>
       <c r="G50" t="n">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="H50" t="n">
-        <v>497245</v>
+        <v>222531</v>
       </c>
       <c r="I50" t="n">
-        <v>182.657</v>
+        <v>117.978</v>
       </c>
       <c r="J50" t="n">
-        <v>3380</v>
+        <v>1704</v>
       </c>
       <c r="K50" t="n">
-        <v>1.242</v>
+        <v>0.903</v>
       </c>
       <c r="L50" t="n">
-        <v>3018</v>
+        <v>1784</v>
       </c>
       <c r="M50" t="n">
-        <v>1.109</v>
-      </c>
-      <c r="N50" t="s">
-        <v>43</v>
-      </c>
-      <c r="O50" t="s">
-        <v>315</v>
+        <v>0.946</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O50" t="n">
+        <v>390.25</v>
       </c>
       <c r="P50" t="s">
-        <v>52</v>
+        <v>309</v>
       </c>
       <c r="Q50" t="s">
-        <v>316</v>
+        <v>308</v>
+      </c>
+      <c r="R50" t="s">
+        <v>27</v>
+      </c>
+      <c r="S50" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44036</v>
+        <v>44057</v>
       </c>
       <c r="D51" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E51" t="s">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="F51"/>
       <c r="G51" t="n">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="H51" t="n">
-        <v>387437</v>
+        <v>570657</v>
       </c>
       <c r="I51" t="n">
-        <v>618.933</v>
+        <v>209.624</v>
       </c>
       <c r="J51" t="n">
-        <v>12181</v>
+        <v>4875</v>
       </c>
       <c r="K51" t="n">
-        <v>19.459</v>
+        <v>1.791</v>
       </c>
       <c r="L51" t="n">
-        <v>8814</v>
+        <v>3614</v>
       </c>
       <c r="M51" t="n">
-        <v>14.08</v>
-      </c>
-      <c r="N51" t="s">
-        <v>320</v>
-      </c>
-      <c r="O51" t="s">
-        <v>321</v>
+        <v>1.328</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O51" t="n">
+        <v>159.107</v>
       </c>
       <c r="P51" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Q51" t="s">
-        <v>322</v>
+        <v>314</v>
+      </c>
+      <c r="R51" t="s">
+        <v>54</v>
+      </c>
+      <c r="S51" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B52" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44036</v>
+        <v>44055</v>
       </c>
       <c r="D52" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E52" t="s">
-        <v>326</v>
-      </c>
-      <c r="F52" t="s">
-        <v>327</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="F52"/>
       <c r="G52" t="n">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="H52" t="n">
-        <v>925188</v>
+        <v>455347</v>
       </c>
       <c r="I52" t="n">
-        <v>28.585</v>
+        <v>727.419</v>
       </c>
       <c r="J52" t="n">
-        <v>8848</v>
+        <v>1649</v>
       </c>
       <c r="K52" t="n">
-        <v>0.273</v>
+        <v>2.634</v>
       </c>
       <c r="L52" t="n">
-        <v>6995</v>
+        <v>1740</v>
       </c>
       <c r="M52" t="n">
-        <v>0.216</v>
-      </c>
-      <c r="N52" t="s">
-        <v>43</v>
-      </c>
-      <c r="O52" t="s">
-        <v>328</v>
+        <v>2.78</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="O52" t="n">
+        <v>37.477</v>
       </c>
       <c r="P52" t="s">
-        <v>21</v>
+        <v>319</v>
       </c>
       <c r="Q52" t="s">
-        <v>329</v>
+        <v>318</v>
+      </c>
+      <c r="R52" t="s">
+        <v>23</v>
+      </c>
+      <c r="S52" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B53" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44034</v>
+        <v>44056</v>
       </c>
       <c r="D53" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E53" t="s">
-        <v>333</v>
-      </c>
-      <c r="F53"/>
+        <v>324</v>
+      </c>
+      <c r="F53" t="s">
+        <v>325</v>
+      </c>
       <c r="G53" t="n">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="H53" t="n">
-        <v>69370</v>
+        <v>1085040</v>
       </c>
       <c r="I53" t="n">
-        <v>128.334</v>
+        <v>33.524</v>
       </c>
       <c r="J53" t="n">
-        <v>674</v>
+        <v>11020</v>
       </c>
       <c r="K53" t="n">
-        <v>1.247</v>
+        <v>0.34</v>
       </c>
       <c r="L53" t="n">
-        <v>733</v>
+        <v>10340</v>
       </c>
       <c r="M53" t="n">
-        <v>1.356</v>
-      </c>
-      <c r="N53" t="s">
-        <v>334</v>
-      </c>
-      <c r="O53" t="s">
-        <v>335</v>
+        <v>0.319</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O53" t="n">
+        <v>795.385</v>
       </c>
       <c r="P53" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Q53" t="s">
-        <v>336</v>
+        <v>326</v>
+      </c>
+      <c r="R53" t="s">
+        <v>23</v>
+      </c>
+      <c r="S53" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B54" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44030</v>
+        <v>44056</v>
       </c>
       <c r="D54" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E54" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H54" t="n">
-        <v>113237</v>
+        <v>93098</v>
       </c>
       <c r="I54" t="n">
-        <v>256.46</v>
+        <v>172.231</v>
       </c>
       <c r="J54" t="n">
-        <v>834</v>
+        <v>1195</v>
       </c>
       <c r="K54" t="n">
-        <v>1.889</v>
+        <v>2.211</v>
       </c>
       <c r="L54" t="n">
-        <v>867</v>
+        <v>1073</v>
       </c>
       <c r="M54" t="n">
-        <v>1.964</v>
-      </c>
-      <c r="N54" t="s">
-        <v>340</v>
-      </c>
-      <c r="O54" t="s">
-        <v>341</v>
+        <v>1.985</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="O54" t="n">
+        <v>9.729</v>
       </c>
       <c r="P54" t="s">
-        <v>25</v>
+        <v>332</v>
       </c>
       <c r="Q54" t="s">
-        <v>342</v>
+        <v>333</v>
+      </c>
+      <c r="R54" t="s">
+        <v>54</v>
+      </c>
+      <c r="S54" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B55" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44031</v>
+        <v>44049</v>
       </c>
       <c r="D55" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E55" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="H55" t="n">
-        <v>779142</v>
+        <v>138427</v>
       </c>
       <c r="I55" t="n">
-        <v>6.043</v>
+        <v>313.51</v>
       </c>
       <c r="J55" t="n">
-        <v>2927</v>
+        <v>1717</v>
       </c>
       <c r="K55" t="n">
-        <v>0.023</v>
+        <v>3.889</v>
       </c>
       <c r="L55" t="n">
-        <v>10463</v>
+        <v>1633</v>
       </c>
       <c r="M55" t="n">
-        <v>0.081</v>
-      </c>
-      <c r="N55" t="s">
-        <v>347</v>
-      </c>
-      <c r="O55" t="s">
-        <v>348</v>
+        <v>3.698</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="O55" t="n">
+        <v>94.471</v>
       </c>
       <c r="P55" t="s">
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="Q55" t="s">
-        <v>349</v>
+        <v>339</v>
+      </c>
+      <c r="R55" t="s">
+        <v>27</v>
+      </c>
+      <c r="S55" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B56" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44034</v>
+        <v>44053</v>
       </c>
       <c r="D56" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E56" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="H56" t="n">
-        <v>1065833</v>
+        <v>1054609</v>
       </c>
       <c r="I56" t="n">
-        <v>28.876</v>
+        <v>8.18</v>
       </c>
       <c r="J56" t="n">
-        <v>19027</v>
+        <v>7727</v>
       </c>
       <c r="K56" t="n">
-        <v>0.515</v>
+        <v>0.06</v>
       </c>
       <c r="L56" t="n">
-        <v>18826</v>
+        <v>9383</v>
       </c>
       <c r="M56" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="N56" t="s">
-        <v>353</v>
-      </c>
-      <c r="O56" t="s">
-        <v>354</v>
+        <v>0.073</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.593</v>
       </c>
       <c r="P56" t="s">
-        <v>248</v>
+        <v>345</v>
       </c>
       <c r="Q56" t="s">
-        <v>355</v>
+        <v>346</v>
+      </c>
+      <c r="R56" t="s">
+        <v>23</v>
+      </c>
+      <c r="S56" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44034</v>
+        <v>44056</v>
       </c>
       <c r="D57" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="E57" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="H57" t="n">
-        <v>106673</v>
+        <v>1538520</v>
       </c>
       <c r="I57" t="n">
-        <v>1.961</v>
+        <v>41.682</v>
       </c>
       <c r="J57" t="n">
-        <v>1038</v>
+        <v>22118</v>
       </c>
       <c r="K57" t="n">
-        <v>0.019</v>
+        <v>0.599</v>
       </c>
       <c r="L57" t="n">
-        <v>1289</v>
+        <v>22101</v>
       </c>
       <c r="M57" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="N57" t="s">
-        <v>359</v>
-      </c>
-      <c r="O57" t="s">
-        <v>360</v>
+        <v>0.599</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="O57" t="n">
+        <v>18.881</v>
       </c>
       <c r="P57" t="s">
-        <v>52</v>
+        <v>351</v>
       </c>
       <c r="Q57" t="s">
-        <v>361</v>
+        <v>352</v>
+      </c>
+      <c r="R57" t="s">
+        <v>23</v>
+      </c>
+      <c r="S57" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B58" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44035</v>
+        <v>44052</v>
       </c>
       <c r="D58" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E58" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="H58" t="n">
-        <v>331095</v>
+        <v>126828</v>
       </c>
       <c r="I58" t="n">
-        <v>11.363</v>
+        <v>2.331</v>
       </c>
       <c r="J58" t="n">
-        <v>3481</v>
+        <v>1001</v>
       </c>
       <c r="K58" t="n">
-        <v>0.119</v>
+        <v>0.018</v>
       </c>
       <c r="L58" t="n">
-        <v>3898</v>
+        <v>1098</v>
       </c>
       <c r="M58" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="N58" t="s">
-        <v>365</v>
-      </c>
-      <c r="O58" t="s">
-        <v>366</v>
+        <v>0.02</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1281</v>
       </c>
       <c r="P58" t="s">
-        <v>25</v>
+        <v>357</v>
       </c>
       <c r="Q58" t="s">
-        <v>367</v>
+        <v>358</v>
+      </c>
+      <c r="R58" t="s">
+        <v>54</v>
+      </c>
+      <c r="S58" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44032</v>
+        <v>44056</v>
       </c>
       <c r="D59" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="E59" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="H59" t="n">
-        <v>851885</v>
+        <v>483038</v>
       </c>
       <c r="I59" t="n">
-        <v>49.716</v>
+        <v>16.578</v>
       </c>
       <c r="J59" t="n">
-        <v>8029</v>
+        <v>9859</v>
       </c>
       <c r="K59" t="n">
-        <v>0.469</v>
+        <v>0.338</v>
       </c>
       <c r="L59" t="n">
-        <v>11033</v>
+        <v>9066</v>
       </c>
       <c r="M59" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="N59" t="s">
-        <v>372</v>
-      </c>
-      <c r="O59" t="s">
-        <v>373</v>
+        <v>0.311</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="O59" t="n">
+        <v>20.862</v>
       </c>
       <c r="P59" t="s">
-        <v>21</v>
+        <v>363</v>
       </c>
       <c r="Q59" t="s">
-        <v>374</v>
+        <v>364</v>
+      </c>
+      <c r="R59" t="s">
+        <v>27</v>
+      </c>
+      <c r="S59" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B60" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44035</v>
+        <v>44052</v>
       </c>
       <c r="D60" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>369</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="H60" t="n">
-        <v>451616</v>
+        <v>1195475</v>
       </c>
       <c r="I60" t="n">
-        <v>93.653</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2830</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.587</v>
-      </c>
+        <v>69.769</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60"/>
       <c r="L60" t="n">
-        <v>1842</v>
+        <v>15822</v>
       </c>
       <c r="M60" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="N60" t="s">
-        <v>378</v>
-      </c>
-      <c r="O60" t="s">
-        <v>377</v>
+        <v>0.923</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="O60" t="n">
+        <v>34.026</v>
       </c>
       <c r="P60" t="s">
-        <v>25</v>
+        <v>370</v>
       </c>
       <c r="Q60" t="s">
-        <v>379</v>
+        <v>371</v>
+      </c>
+      <c r="R60" t="s">
+        <v>23</v>
+      </c>
+      <c r="S60" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B61" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44036</v>
+        <v>44056</v>
       </c>
       <c r="D61" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E61" t="s">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="H61" t="n">
-        <v>256038</v>
+        <v>524414</v>
       </c>
       <c r="I61" t="n">
-        <v>1.242</v>
+        <v>108.749</v>
       </c>
       <c r="J61" t="n">
-        <v>4145</v>
+        <v>15703</v>
       </c>
       <c r="K61" t="n">
-        <v>0.02</v>
+        <v>3.256</v>
       </c>
       <c r="L61" t="n">
-        <v>7088</v>
+        <v>5353</v>
       </c>
       <c r="M61" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="N61" t="s">
-        <v>383</v>
-      </c>
-      <c r="O61" t="s">
-        <v>384</v>
+        <v>1.11</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1972.158</v>
       </c>
       <c r="P61" t="s">
-        <v>52</v>
+        <v>376</v>
       </c>
       <c r="Q61" t="s">
-        <v>385</v>
+        <v>375</v>
+      </c>
+      <c r="R61" t="s">
+        <v>27</v>
+      </c>
+      <c r="S61" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B62" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44033</v>
+        <v>44056</v>
       </c>
       <c r="D62" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E62" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="H62" t="n">
-        <v>395235</v>
+        <v>341421</v>
       </c>
       <c r="I62" t="n">
-        <v>72.905</v>
+        <v>1.656</v>
       </c>
       <c r="J62" t="n">
-        <v>3478</v>
+        <v>3337</v>
       </c>
       <c r="K62" t="n">
-        <v>0.642</v>
+        <v>0.016</v>
       </c>
       <c r="L62" t="n">
-        <v>3236</v>
+        <v>4932</v>
       </c>
       <c r="M62" t="n">
-        <v>0.597</v>
-      </c>
-      <c r="N62" t="s">
-        <v>389</v>
-      </c>
-      <c r="O62" t="s">
-        <v>390</v>
+        <v>0.024</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="O62" t="n">
+        <v>12.101</v>
       </c>
       <c r="P62" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="Q62" t="s">
-        <v>392</v>
+        <v>382</v>
+      </c>
+      <c r="R62" t="s">
+        <v>54</v>
+      </c>
+      <c r="S62" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B63" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44036</v>
+        <v>44053</v>
       </c>
       <c r="D63" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E63" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>51</v>
-      </c>
-      <c r="H63"/>
-      <c r="I63"/>
+        <v>169</v>
+      </c>
+      <c r="H63" t="n">
+        <v>480209</v>
+      </c>
+      <c r="I63" t="n">
+        <v>88.579</v>
+      </c>
       <c r="J63" t="n">
-        <v>3138</v>
+        <v>1796</v>
       </c>
       <c r="K63" t="n">
-        <v>0.614</v>
+        <v>0.331</v>
       </c>
       <c r="L63" t="n">
-        <v>3980</v>
+        <v>4973</v>
       </c>
       <c r="M63" t="n">
-        <v>0.779</v>
-      </c>
-      <c r="N63" t="s">
-        <v>396</v>
-      </c>
-      <c r="O63" t="s">
-        <v>397</v>
+        <v>0.917</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O63" t="n">
+        <v>133.888</v>
       </c>
       <c r="P63" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="Q63" t="s">
-        <v>399</v>
+        <v>388</v>
+      </c>
+      <c r="R63" t="s">
+        <v>389</v>
+      </c>
+      <c r="S63" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B64" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44036</v>
+        <v>44048</v>
       </c>
       <c r="D64" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E64" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>135</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1821296</v>
-      </c>
-      <c r="I64" t="n">
-        <v>8.245</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H64"/>
+      <c r="I64"/>
       <c r="J64" t="n">
-        <v>22006</v>
+        <v>2682</v>
       </c>
       <c r="K64" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="L64" t="n">
-        <v>20744</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="N64" t="s">
-        <v>403</v>
-      </c>
-      <c r="O64" t="s">
-        <v>402</v>
-      </c>
+        <v>0.525</v>
+      </c>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
       <c r="P64" t="s">
-        <v>25</v>
+        <v>394</v>
       </c>
       <c r="Q64" t="s">
-        <v>404</v>
+        <v>395</v>
+      </c>
+      <c r="R64" t="s">
+        <v>396</v>
+      </c>
+      <c r="S64" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44033</v>
+        <v>44057</v>
       </c>
       <c r="D65" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E65" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="H65" t="n">
-        <v>189199</v>
+        <v>2229409</v>
       </c>
       <c r="I65" t="n">
-        <v>43.849</v>
+        <v>10.093</v>
       </c>
       <c r="J65" t="n">
-        <v>2213</v>
+        <v>23745</v>
       </c>
       <c r="K65" t="n">
-        <v>0.513</v>
+        <v>0.107</v>
       </c>
       <c r="L65" t="n">
-        <v>3005</v>
+        <v>21439</v>
       </c>
       <c r="M65" t="n">
-        <v>0.696</v>
-      </c>
-      <c r="N65" t="s">
-        <v>408</v>
-      </c>
-      <c r="O65" t="s">
-        <v>407</v>
+        <v>0.097</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="O65" t="n">
+        <v>32.239</v>
       </c>
       <c r="P65" t="s">
-        <v>25</v>
+        <v>401</v>
       </c>
       <c r="Q65" t="s">
-        <v>409</v>
+        <v>400</v>
+      </c>
+      <c r="R65" t="s">
+        <v>27</v>
+      </c>
+      <c r="S65" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44034</v>
+        <v>44052</v>
       </c>
       <c r="D66" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E66" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="H66" t="n">
-        <v>109874</v>
+        <v>248090</v>
       </c>
       <c r="I66" t="n">
-        <v>15.405</v>
+        <v>57.498</v>
       </c>
       <c r="J66" t="n">
-        <v>1841</v>
+        <v>2861</v>
       </c>
       <c r="K66" t="n">
-        <v>0.258</v>
+        <v>0.663</v>
       </c>
       <c r="L66" t="n">
-        <v>1973</v>
+        <v>2969</v>
       </c>
       <c r="M66" t="n">
-        <v>0.277</v>
-      </c>
-      <c r="N66" t="s">
-        <v>413</v>
-      </c>
-      <c r="O66" t="s">
-        <v>414</v>
+        <v>0.688</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2.86</v>
       </c>
       <c r="P66" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="Q66" t="s">
-        <v>416</v>
+        <v>405</v>
+      </c>
+      <c r="R66" t="s">
+        <v>27</v>
+      </c>
+      <c r="S66" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B67" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44035</v>
+        <v>44053</v>
       </c>
       <c r="D67" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>411</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="H67" t="n">
-        <v>344528</v>
+        <v>140236</v>
       </c>
       <c r="I67" t="n">
-        <v>10.449</v>
-      </c>
-      <c r="J67"/>
-      <c r="K67"/>
+        <v>19.661</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1821</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.255</v>
+      </c>
       <c r="L67" t="n">
-        <v>5743</v>
+        <v>1350</v>
       </c>
       <c r="M67" t="n">
-        <v>0.174</v>
-      </c>
-      <c r="N67" t="s">
-        <v>420</v>
-      </c>
-      <c r="O67" t="s">
-        <v>421</v>
+        <v>0.189</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="O67" t="n">
+        <v>7.482</v>
       </c>
       <c r="P67" t="s">
-        <v>21</v>
+        <v>411</v>
       </c>
       <c r="Q67" t="s">
-        <v>422</v>
+        <v>412</v>
+      </c>
+      <c r="R67" t="s">
+        <v>27</v>
+      </c>
+      <c r="S67" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B68" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44034</v>
+        <v>44042</v>
       </c>
       <c r="D68" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E68" t="s">
-        <v>426</v>
+        <v>45</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="H68" t="n">
-        <v>1157991</v>
+        <v>376749</v>
       </c>
       <c r="I68" t="n">
-        <v>10.567</v>
-      </c>
-      <c r="J68"/>
-      <c r="K68"/>
+        <v>11.426</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3870</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.117</v>
+      </c>
       <c r="L68" t="n">
-        <v>24373</v>
+        <v>4603</v>
       </c>
       <c r="M68" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="N68" t="s">
-        <v>219</v>
-      </c>
-      <c r="O68" t="s">
-        <v>425</v>
-      </c>
+        <v>0.14</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68"/>
       <c r="P68" t="s">
-        <v>21</v>
+        <v>417</v>
       </c>
       <c r="Q68" t="s">
-        <v>427</v>
+        <v>418</v>
+      </c>
+      <c r="R68" t="s">
+        <v>23</v>
+      </c>
+      <c r="S68" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B69" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44036</v>
+        <v>44049</v>
       </c>
       <c r="D69" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E69" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="H69" t="n">
-        <v>1800348</v>
+        <v>1591000</v>
       </c>
       <c r="I69" t="n">
-        <v>47.57</v>
+        <v>14.519</v>
       </c>
       <c r="J69" t="n">
-        <v>18098</v>
+        <v>27732</v>
       </c>
       <c r="K69" t="n">
-        <v>0.478</v>
+        <v>0.253</v>
       </c>
       <c r="L69" t="n">
-        <v>16839</v>
+        <v>25521</v>
       </c>
       <c r="M69" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="N69" t="s">
-        <v>431</v>
-      </c>
-      <c r="O69" t="s">
-        <v>432</v>
+        <v>0.233</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="O69" t="n">
+        <v>5.858</v>
       </c>
       <c r="P69" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="Q69" t="s">
-        <v>433</v>
+        <v>424</v>
+      </c>
+      <c r="R69" t="s">
+        <v>23</v>
+      </c>
+      <c r="S69" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>426</v>
+      </c>
+      <c r="B70" t="s">
+        <v>427</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>44056</v>
+      </c>
+      <c r="D70" t="s">
         <v>428</v>
       </c>
-      <c r="B70" t="s">
-        <v>434</v>
-      </c>
-      <c r="C70" s="1" t="n">
-        <v>44036</v>
-      </c>
-      <c r="D70" t="s">
-        <v>430</v>
-      </c>
       <c r="E70" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="H70" t="n">
-        <v>2068983</v>
+        <v>2207204</v>
       </c>
       <c r="I70" t="n">
-        <v>54.668</v>
+        <v>58.32</v>
       </c>
       <c r="J70" t="n">
-        <v>24280</v>
+        <v>25177</v>
       </c>
       <c r="K70" t="n">
-        <v>0.642</v>
+        <v>0.665</v>
       </c>
       <c r="L70" t="n">
-        <v>22377</v>
+        <v>22568</v>
       </c>
       <c r="M70" t="n">
-        <v>0.591</v>
-      </c>
-      <c r="N70" t="s">
+        <v>0.596</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="O70" t="n">
+        <v>32.326</v>
+      </c>
+      <c r="P70" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>430</v>
+      </c>
+      <c r="R70" t="s">
+        <v>23</v>
+      </c>
+      <c r="S70" t="s">
         <v>431</v>
-      </c>
-      <c r="O70" t="s">
-        <v>432</v>
-      </c>
-      <c r="P70" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B71" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44032</v>
+        <v>44056</v>
       </c>
       <c r="D71" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>429</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="H71" t="n">
-        <v>1480458</v>
+        <v>2307735</v>
       </c>
       <c r="I71" t="n">
-        <v>145.19</v>
+        <v>60.976</v>
       </c>
       <c r="J71" t="n">
-        <v>13413</v>
+        <v>26131</v>
       </c>
       <c r="K71" t="n">
-        <v>1.315</v>
-      </c>
-      <c r="L71" t="n">
-        <v>14124</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1.385</v>
-      </c>
-      <c r="N71" t="s">
-        <v>439</v>
-      </c>
-      <c r="O71" t="s">
-        <v>438</v>
-      </c>
+        <v>0.69</v>
+      </c>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
       <c r="P71" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="Q71" t="s">
-        <v>441</v>
+        <v>430</v>
+      </c>
+      <c r="R71" t="s">
+        <v>54</v>
+      </c>
+      <c r="S71" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B72" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44036</v>
+        <v>44055</v>
       </c>
       <c r="D72" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E72" t="s">
-        <v>445</v>
+        <v>45</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="H72" t="n">
-        <v>464674</v>
+        <v>1799226</v>
       </c>
       <c r="I72" t="n">
-        <v>161.286</v>
+        <v>176.452</v>
       </c>
       <c r="J72" t="n">
-        <v>5351</v>
+        <v>15899</v>
       </c>
       <c r="K72" t="n">
-        <v>1.857</v>
+        <v>1.559</v>
       </c>
       <c r="L72" t="n">
-        <v>4156</v>
+        <v>13380</v>
       </c>
       <c r="M72" t="n">
-        <v>1.443</v>
-      </c>
-      <c r="N72" t="s">
-        <v>445</v>
-      </c>
-      <c r="O72" t="s">
-        <v>446</v>
+        <v>1.312</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O72" t="n">
+        <v>74.098</v>
       </c>
       <c r="P72" t="s">
-        <v>21</v>
+        <v>437</v>
       </c>
       <c r="Q72" t="s">
-        <v>447</v>
+        <v>436</v>
+      </c>
+      <c r="R72" t="s">
+        <v>438</v>
+      </c>
+      <c r="S72" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B73" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44036</v>
+        <v>44056</v>
       </c>
       <c r="D73" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="E73" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="H73" t="n">
-        <v>1053656</v>
+        <v>538602</v>
       </c>
       <c r="I73" t="n">
-        <v>54.77</v>
+        <v>186.946</v>
       </c>
       <c r="J73" t="n">
-        <v>22964</v>
+        <v>4607</v>
       </c>
       <c r="K73" t="n">
-        <v>1.194</v>
+        <v>1.599</v>
       </c>
       <c r="L73" t="n">
-        <v>18379</v>
+        <v>3943</v>
       </c>
       <c r="M73" t="n">
-        <v>0.955</v>
-      </c>
-      <c r="N73" t="s">
-        <v>452</v>
-      </c>
-      <c r="O73" t="s">
-        <v>453</v>
+        <v>1.369</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="O73" t="n">
+        <v>12.94</v>
       </c>
       <c r="P73" t="s">
-        <v>25</v>
+        <v>443</v>
       </c>
       <c r="Q73" t="s">
-        <v>454</v>
+        <v>444</v>
+      </c>
+      <c r="R73" t="s">
+        <v>23</v>
+      </c>
+      <c r="S73" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B74" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44035</v>
+        <v>44056</v>
       </c>
       <c r="D74" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="E74" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="H74" t="n">
-        <v>26300652</v>
+        <v>1450269</v>
       </c>
       <c r="I74" t="n">
-        <v>180.222</v>
+        <v>75.387</v>
       </c>
       <c r="J74" t="n">
-        <v>299744</v>
+        <v>22643</v>
       </c>
       <c r="K74" t="n">
-        <v>2.054</v>
+        <v>1.177</v>
       </c>
       <c r="L74" t="n">
-        <v>276583</v>
+        <v>18700</v>
       </c>
       <c r="M74" t="n">
-        <v>1.895</v>
-      </c>
-      <c r="N74" t="s">
-        <v>458</v>
-      </c>
-      <c r="O74" t="s">
-        <v>459</v>
+        <v>0.972</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="O74" t="n">
+        <v>15.173</v>
       </c>
       <c r="P74" t="s">
-        <v>25</v>
+        <v>450</v>
       </c>
       <c r="Q74" t="s">
-        <v>460</v>
+        <v>451</v>
+      </c>
+      <c r="R74" t="s">
+        <v>27</v>
+      </c>
+      <c r="S74" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B75" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44034</v>
+        <v>44056</v>
       </c>
       <c r="D75" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E75" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="H75" t="n">
-        <v>225652</v>
+        <v>31903055</v>
       </c>
       <c r="I75" t="n">
-        <v>17.422</v>
+        <v>218.612</v>
       </c>
       <c r="J75" t="n">
-        <v>4613</v>
+        <v>304753</v>
       </c>
       <c r="K75" t="n">
-        <v>0.356</v>
+        <v>2.088</v>
       </c>
       <c r="L75" t="n">
-        <v>4407</v>
+        <v>266419</v>
       </c>
       <c r="M75" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="N75" t="s">
-        <v>464</v>
-      </c>
-      <c r="O75" t="s">
-        <v>465</v>
+        <v>1.826</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O75" t="n">
+        <v>52.744</v>
       </c>
       <c r="P75" t="s">
-        <v>52</v>
+        <v>456</v>
       </c>
       <c r="Q75" t="s">
-        <v>466</v>
+        <v>457</v>
+      </c>
+      <c r="R75" t="s">
+        <v>27</v>
+      </c>
+      <c r="S75" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B76" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44036</v>
+        <v>44053</v>
       </c>
       <c r="D76" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>462</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="H76" t="n">
-        <v>2937640</v>
+        <v>304500</v>
       </c>
       <c r="I76" t="n">
-        <v>84.381</v>
+        <v>23.51</v>
       </c>
       <c r="J76" t="n">
-        <v>52502</v>
+        <v>5720</v>
       </c>
       <c r="K76" t="n">
-        <v>1.508</v>
+        <v>0.442</v>
       </c>
       <c r="L76" t="n">
-        <v>55215</v>
+        <v>4159</v>
       </c>
       <c r="M76" t="n">
-        <v>1.586</v>
-      </c>
-      <c r="N76" t="s">
-        <v>43</v>
-      </c>
-      <c r="O76" t="s">
-        <v>469</v>
+        <v>0.321</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O76" t="n">
+        <v>373.244</v>
       </c>
       <c r="P76" t="s">
-        <v>125</v>
+        <v>462</v>
       </c>
       <c r="Q76" t="s">
-        <v>470</v>
+        <v>463</v>
+      </c>
+      <c r="R76" t="s">
+        <v>54</v>
+      </c>
+      <c r="S76" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B77" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44035</v>
+        <v>44056</v>
       </c>
       <c r="D77" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="E77" t="s">
-        <v>474</v>
-      </c>
-      <c r="F77" t="s">
-        <v>475</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F77"/>
       <c r="G77" t="n">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="H77" t="n">
-        <v>99786</v>
+        <v>4071857</v>
       </c>
       <c r="I77" t="n">
-        <v>5.96</v>
+        <v>116.961</v>
       </c>
       <c r="J77" t="n">
-        <v>1170</v>
+        <v>70754</v>
       </c>
       <c r="K77" t="n">
-        <v>0.07</v>
+        <v>2.032</v>
       </c>
       <c r="L77" t="n">
-        <v>857</v>
+        <v>63634</v>
       </c>
       <c r="M77" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="N77" t="s">
-        <v>476</v>
-      </c>
-      <c r="O77" t="s">
-        <v>477</v>
+        <v>1.828</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O77" t="n">
+        <v>43.615</v>
       </c>
       <c r="P77" t="s">
-        <v>478</v>
+        <v>45</v>
       </c>
       <c r="Q77" t="s">
-        <v>479</v>
+        <v>467</v>
+      </c>
+      <c r="R77" t="s">
+        <v>27</v>
+      </c>
+      <c r="S77" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B78" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44036</v>
+        <v>44056</v>
       </c>
       <c r="D78" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>472</v>
       </c>
       <c r="F78" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="G78" t="n">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H78" t="n">
-        <v>601984</v>
+        <v>128601</v>
       </c>
       <c r="I78" t="n">
-        <v>88.467</v>
+        <v>7.68</v>
       </c>
       <c r="J78" t="n">
-        <v>10634</v>
+        <v>1730</v>
       </c>
       <c r="K78" t="n">
-        <v>1.563</v>
+        <v>0.103</v>
       </c>
       <c r="L78" t="n">
-        <v>9642</v>
+        <v>1542</v>
       </c>
       <c r="M78" t="n">
-        <v>1.417</v>
-      </c>
-      <c r="N78" t="s">
-        <v>43</v>
-      </c>
-      <c r="O78" t="s">
-        <v>484</v>
+        <v>0.092</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="O78" t="n">
+        <v>10.29</v>
       </c>
       <c r="P78" t="s">
-        <v>21</v>
+        <v>474</v>
       </c>
       <c r="Q78" t="s">
-        <v>485</v>
+        <v>475</v>
+      </c>
+      <c r="R78" t="s">
+        <v>27</v>
+      </c>
+      <c r="S78" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B79" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44032</v>
+        <v>44055</v>
       </c>
       <c r="D79" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
-      </c>
-      <c r="F79"/>
+        <v>45</v>
+      </c>
+      <c r="F79" t="s">
+        <v>480</v>
+      </c>
       <c r="G79" t="n">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="H79" t="n">
-        <v>571496</v>
+        <v>770997</v>
       </c>
       <c r="I79" t="n">
-        <v>97.686</v>
-      </c>
-      <c r="J79"/>
-      <c r="K79"/>
+        <v>113.305</v>
+      </c>
+      <c r="J79" t="n">
+        <v>8768</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.289</v>
+      </c>
       <c r="L79" t="n">
-        <v>7369</v>
+        <v>8270</v>
       </c>
       <c r="M79" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="N79" t="s">
-        <v>43</v>
-      </c>
-      <c r="O79" t="s">
-        <v>488</v>
+        <v>1.215</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O79" t="n">
+        <v>32.911</v>
       </c>
       <c r="P79" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="Q79" t="s">
-        <v>489</v>
+        <v>481</v>
+      </c>
+      <c r="R79" t="s">
+        <v>23</v>
+      </c>
+      <c r="S79" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B80" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44032</v>
+        <v>44054</v>
       </c>
       <c r="D80" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H80" t="n">
-        <v>1170049</v>
+        <v>686738</v>
       </c>
       <c r="I80" t="n">
-        <v>199.997</v>
+        <v>117.384</v>
       </c>
       <c r="J80"/>
       <c r="K80"/>
       <c r="L80" t="n">
-        <v>22931</v>
+        <v>4504</v>
       </c>
       <c r="M80" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="N80" t="s">
-        <v>43</v>
-      </c>
-      <c r="O80" t="s">
-        <v>488</v>
+        <v>0.77</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="O80" t="n">
+        <v>14.069</v>
       </c>
       <c r="P80" t="s">
-        <v>491</v>
+        <v>45</v>
       </c>
       <c r="Q80" t="s">
-        <v>489</v>
+        <v>485</v>
+      </c>
+      <c r="R80" t="s">
+        <v>23</v>
+      </c>
+      <c r="S80" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="B81" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44036</v>
+        <v>44054</v>
       </c>
       <c r="D81" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E81" t="s">
-        <v>495</v>
+        <v>45</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="H81" t="n">
-        <v>250433</v>
+        <v>1610906</v>
       </c>
       <c r="I81" t="n">
-        <v>45.87</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2049</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.375</v>
-      </c>
+        <v>275.352</v>
+      </c>
+      <c r="J81"/>
+      <c r="K81"/>
       <c r="L81" t="n">
-        <v>1828</v>
+        <v>17067</v>
       </c>
       <c r="M81" t="n">
-        <v>0.335</v>
-      </c>
-      <c r="N81" t="s">
-        <v>496</v>
-      </c>
-      <c r="O81" t="s">
-        <v>494</v>
+        <v>2.917</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O81" t="n">
+        <v>53.311</v>
       </c>
       <c r="P81" t="s">
-        <v>497</v>
+        <v>45</v>
       </c>
       <c r="Q81" t="s">
-        <v>498</v>
+        <v>485</v>
+      </c>
+      <c r="R81" t="s">
+        <v>488</v>
+      </c>
+      <c r="S81" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B82" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44035</v>
+        <v>44057</v>
       </c>
       <c r="D82" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="E82" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H82" t="n">
-        <v>124754</v>
+        <v>289590</v>
       </c>
       <c r="I82" t="n">
-        <v>60.009</v>
+        <v>53.042</v>
       </c>
       <c r="J82" t="n">
-        <v>848</v>
+        <v>2738</v>
       </c>
       <c r="K82" t="n">
-        <v>0.408</v>
+        <v>0.501</v>
       </c>
       <c r="L82" t="n">
-        <v>818</v>
+        <v>2114</v>
       </c>
       <c r="M82" t="n">
-        <v>0.393</v>
-      </c>
-      <c r="N82" t="s">
-        <v>503</v>
-      </c>
-      <c r="O82" t="s">
-        <v>504</v>
+        <v>0.387</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="O82" t="n">
+        <v>57.135</v>
       </c>
       <c r="P82" t="s">
-        <v>25</v>
+        <v>493</v>
       </c>
       <c r="Q82" t="s">
-        <v>505</v>
+        <v>491</v>
+      </c>
+      <c r="R82" t="s">
+        <v>27</v>
+      </c>
+      <c r="S82" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B83" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44035</v>
+        <v>44055</v>
       </c>
       <c r="D83" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="E83" t="s">
-        <v>509</v>
-      </c>
-      <c r="F83" t="s">
-        <v>510</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="F83"/>
       <c r="G83" t="n">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="H83" t="n">
-        <v>2632106</v>
+        <v>139574</v>
       </c>
       <c r="I83" t="n">
-        <v>44.38</v>
+        <v>67.137</v>
       </c>
       <c r="J83" t="n">
-        <v>46632</v>
+        <v>856</v>
       </c>
       <c r="K83" t="n">
-        <v>0.786</v>
+        <v>0.412</v>
       </c>
       <c r="L83" t="n">
-        <v>43883</v>
+        <v>749</v>
       </c>
       <c r="M83" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N83" t="s">
-        <v>509</v>
-      </c>
-      <c r="O83" t="s">
-        <v>511</v>
+        <v>0.36</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="O83" t="n">
+        <v>63.939</v>
       </c>
       <c r="P83" t="s">
-        <v>21</v>
+        <v>499</v>
       </c>
       <c r="Q83" t="s">
-        <v>512</v>
+        <v>500</v>
+      </c>
+      <c r="R83" t="s">
+        <v>27</v>
+      </c>
+      <c r="S83" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B84" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44036</v>
+        <v>44056</v>
       </c>
       <c r="D84" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="E84" t="s">
-        <v>516</v>
-      </c>
-      <c r="F84"/>
+        <v>505</v>
+      </c>
+      <c r="F84" t="s">
+        <v>506</v>
+      </c>
       <c r="G84" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H84" t="n">
-        <v>1489768</v>
+        <v>3315497</v>
       </c>
       <c r="I84" t="n">
-        <v>29.058</v>
+        <v>55.902</v>
       </c>
       <c r="J84" t="n">
-        <v>10332</v>
+        <v>20063</v>
       </c>
       <c r="K84" t="n">
-        <v>0.202</v>
+        <v>0.338</v>
       </c>
       <c r="L84" t="n">
-        <v>8837</v>
+        <v>23670</v>
       </c>
       <c r="M84" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="N84" t="s">
-        <v>516</v>
-      </c>
-      <c r="O84" t="s">
-        <v>517</v>
+        <v>0.399</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="O84" t="n">
+        <v>4.244</v>
       </c>
       <c r="P84" t="s">
-        <v>21</v>
+        <v>505</v>
       </c>
       <c r="Q84" t="s">
-        <v>518</v>
+        <v>507</v>
+      </c>
+      <c r="R84" t="s">
+        <v>23</v>
+      </c>
+      <c r="S84" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B85" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44028</v>
+        <v>44056</v>
       </c>
       <c r="D85" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="E85" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="H85" t="n">
-        <v>4073664</v>
+        <v>1637100</v>
       </c>
       <c r="I85" t="n">
-        <v>87.128</v>
-      </c>
-      <c r="J85"/>
-      <c r="K85"/>
+        <v>31.931</v>
+      </c>
+      <c r="J85" t="n">
+        <v>7823</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.153</v>
+      </c>
       <c r="L85" t="n">
-        <v>31995</v>
+        <v>6949</v>
       </c>
       <c r="M85" t="n">
-        <v>0.684</v>
-      </c>
-      <c r="N85" t="s">
-        <v>523</v>
-      </c>
-      <c r="O85" t="s">
-        <v>524</v>
+        <v>0.136</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O85" t="n">
+        <v>179.494</v>
       </c>
       <c r="P85" t="s">
-        <v>25</v>
+        <v>512</v>
       </c>
       <c r="Q85" t="s">
-        <v>525</v>
+        <v>513</v>
+      </c>
+      <c r="R85" t="s">
+        <v>23</v>
+      </c>
+      <c r="S85" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B86" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44017</v>
+        <v>44049</v>
       </c>
       <c r="D86" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="E86" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H86" t="n">
-        <v>597850</v>
+        <v>4983935</v>
       </c>
       <c r="I86" t="n">
-        <v>59.197</v>
+        <v>106.597</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
       <c r="L86" t="n">
-        <v>11092</v>
+        <v>47349</v>
       </c>
       <c r="M86" t="n">
-        <v>1.098</v>
-      </c>
-      <c r="N86" t="s">
-        <v>530</v>
-      </c>
-      <c r="O86" t="s">
-        <v>531</v>
+        <v>1.013</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="O86" t="n">
+        <v>13.57</v>
       </c>
       <c r="P86" t="s">
-        <v>21</v>
+        <v>519</v>
       </c>
       <c r="Q86" t="s">
-        <v>532</v>
+        <v>520</v>
+      </c>
+      <c r="R86" t="s">
+        <v>27</v>
+      </c>
+      <c r="S86" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B87" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44031</v>
+        <v>44017</v>
       </c>
       <c r="D87" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="E87" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>21</v>
-      </c>
-      <c r="H87"/>
-      <c r="I87"/>
-      <c r="J87" t="n">
-        <v>9913</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.982</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H87" t="n">
+        <v>597850</v>
+      </c>
+      <c r="I87" t="n">
+        <v>59.197</v>
+      </c>
+      <c r="J87"/>
+      <c r="K87"/>
       <c r="L87" t="n">
-        <v>9913</v>
+        <v>11092</v>
       </c>
       <c r="M87" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="N87" t="s">
-        <v>530</v>
-      </c>
-      <c r="O87" t="s">
-        <v>534</v>
+        <v>1.098</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="O87" t="n">
+        <v>12.36</v>
       </c>
       <c r="P87" t="s">
-        <v>52</v>
+        <v>526</v>
       </c>
       <c r="Q87" t="s">
-        <v>535</v>
+        <v>527</v>
+      </c>
+      <c r="R87" t="s">
+        <v>23</v>
+      </c>
+      <c r="S87" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B88" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44035</v>
+        <v>44052</v>
       </c>
       <c r="D88" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="E88" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>180</v>
-      </c>
-      <c r="H88" t="n">
-        <v>753333</v>
-      </c>
-      <c r="I88" t="n">
-        <v>87.044</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H88"/>
+      <c r="I88"/>
       <c r="J88" t="n">
-        <v>4088</v>
+        <v>7674</v>
       </c>
       <c r="K88" t="n">
-        <v>0.472</v>
+        <v>0.76</v>
       </c>
       <c r="L88" t="n">
-        <v>5014</v>
+        <v>7674</v>
       </c>
       <c r="M88" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="N88" t="s">
-        <v>539</v>
-      </c>
-      <c r="O88" t="s">
-        <v>538</v>
+        <v>0.76</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="O88" t="n">
+        <v>28.258</v>
       </c>
       <c r="P88" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="Q88" t="s">
-        <v>541</v>
+        <v>530</v>
+      </c>
+      <c r="R88" t="s">
+        <v>54</v>
+      </c>
+      <c r="S88" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B89" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44036</v>
+        <v>44055</v>
       </c>
       <c r="D89" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="E89" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H89" t="n">
-        <v>80405</v>
+        <v>861555</v>
       </c>
       <c r="I89" t="n">
-        <v>3.376</v>
+        <v>99.549</v>
       </c>
       <c r="J89" t="n">
-        <v>135</v>
+        <v>4806</v>
       </c>
       <c r="K89" t="n">
-        <v>0.006</v>
+        <v>0.555</v>
       </c>
       <c r="L89" t="n">
-        <v>144</v>
+        <v>5228</v>
       </c>
       <c r="M89" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="N89" t="s">
-        <v>545</v>
-      </c>
-      <c r="O89" t="s">
-        <v>544</v>
+        <v>0.604</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="O89" t="n">
+        <v>31.85</v>
       </c>
       <c r="P89" t="s">
-        <v>21</v>
+        <v>535</v>
       </c>
       <c r="Q89" t="s">
-        <v>546</v>
+        <v>534</v>
+      </c>
+      <c r="R89" t="s">
+        <v>536</v>
+      </c>
+      <c r="S89" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B90" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44036</v>
+        <v>44056</v>
       </c>
       <c r="D90" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="E90" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="H90" t="n">
-        <v>361862</v>
+        <v>84249</v>
       </c>
       <c r="I90" t="n">
-        <v>5.184</v>
+        <v>3.537</v>
       </c>
       <c r="J90" t="n">
-        <v>2702</v>
+        <v>230</v>
       </c>
       <c r="K90" t="n">
-        <v>0.039</v>
+        <v>0.01</v>
       </c>
       <c r="L90" t="n">
-        <v>2738</v>
+        <v>185</v>
       </c>
       <c r="M90" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="N90" t="s">
-        <v>550</v>
-      </c>
-      <c r="O90" t="s">
-        <v>551</v>
+        <v>0.008</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O90" t="n">
+        <v>323.75</v>
       </c>
       <c r="P90" t="s">
-        <v>21</v>
+        <v>541</v>
       </c>
       <c r="Q90" t="s">
-        <v>552</v>
+        <v>540</v>
+      </c>
+      <c r="R90" t="s">
+        <v>23</v>
+      </c>
+      <c r="S90" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B91" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44036</v>
+        <v>44056</v>
       </c>
       <c r="D91" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E91" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="H91" t="n">
-        <v>696656</v>
+        <v>391136</v>
       </c>
       <c r="I91" t="n">
-        <v>9.981</v>
+        <v>5.604</v>
       </c>
       <c r="J91" t="n">
-        <v>2702</v>
+        <v>1384</v>
       </c>
       <c r="K91" t="n">
-        <v>0.039</v>
+        <v>0.02</v>
       </c>
       <c r="L91" t="n">
-        <v>8525</v>
+        <v>1131</v>
       </c>
       <c r="M91" t="n">
-        <v>0.122</v>
-      </c>
-      <c r="N91" t="s">
-        <v>550</v>
-      </c>
-      <c r="O91" t="s">
-        <v>551</v>
+        <v>0.016</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="O91" t="n">
+        <v>304.5</v>
       </c>
       <c r="P91" t="s">
-        <v>25</v>
+        <v>546</v>
       </c>
       <c r="Q91" t="s">
-        <v>554</v>
+        <v>547</v>
+      </c>
+      <c r="R91" t="s">
+        <v>23</v>
+      </c>
+      <c r="S91" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B92" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44031</v>
-      </c>
-      <c r="D92"/>
+        <v>44056</v>
+      </c>
+      <c r="D92" t="s">
+        <v>545</v>
+      </c>
       <c r="E92" t="s">
-        <v>557</v>
-      </c>
-      <c r="F92" t="s">
-        <v>558</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="F92"/>
       <c r="G92" t="n">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="H92" t="n">
-        <v>38063</v>
+        <v>779407</v>
       </c>
       <c r="I92" t="n">
-        <v>4.598</v>
+        <v>11.166</v>
       </c>
       <c r="J92" t="n">
-        <v>319</v>
+        <v>1384</v>
       </c>
       <c r="K92" t="n">
-        <v>0.039</v>
+        <v>0.02</v>
       </c>
       <c r="L92" t="n">
-        <v>370</v>
+        <v>3522</v>
       </c>
       <c r="M92" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="N92" t="s">
-        <v>557</v>
-      </c>
-      <c r="O92" t="s">
-        <v>559</v>
+        <v>0.05</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O92" t="n">
+        <v>948.231</v>
       </c>
       <c r="P92" t="s">
-        <v>52</v>
+        <v>546</v>
       </c>
       <c r="Q92" t="s">
-        <v>560</v>
+        <v>547</v>
+      </c>
+      <c r="R92" t="s">
+        <v>27</v>
+      </c>
+      <c r="S92" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B93" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44004</v>
-      </c>
-      <c r="D93" t="s">
-        <v>563</v>
-      </c>
+        <v>44052</v>
+      </c>
+      <c r="D93"/>
       <c r="E93" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="F93" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="G93" t="n">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="H93" t="n">
-        <v>68104</v>
+        <v>47661</v>
       </c>
       <c r="I93" t="n">
-        <v>5.762</v>
+        <v>5.757</v>
       </c>
       <c r="J93" t="n">
-        <v>648</v>
+        <v>583</v>
       </c>
       <c r="K93" t="n">
-        <v>0.055</v>
+        <v>0.07</v>
       </c>
       <c r="L93" t="n">
-        <v>740</v>
+        <v>614</v>
       </c>
       <c r="M93" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="N93" t="s">
-        <v>564</v>
-      </c>
-      <c r="O93" t="s">
-        <v>566</v>
+        <v>0.074</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O93" t="n">
+        <v>48.841</v>
       </c>
       <c r="P93" t="s">
-        <v>25</v>
+        <v>553</v>
       </c>
       <c r="Q93" t="s">
-        <v>567</v>
+        <v>555</v>
+      </c>
+      <c r="R93" t="s">
+        <v>54</v>
+      </c>
+      <c r="S93" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="B94" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44036</v>
+        <v>44053</v>
       </c>
       <c r="D94" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="E94" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="H94" t="n">
-        <v>4489360</v>
+        <v>104206</v>
       </c>
       <c r="I94" t="n">
-        <v>53.23</v>
+        <v>8.817</v>
       </c>
       <c r="J94" t="n">
-        <v>42986</v>
+        <v>1202</v>
       </c>
       <c r="K94" t="n">
-        <v>0.51</v>
+        <v>0.102</v>
       </c>
       <c r="L94" t="n">
-        <v>48493</v>
+        <v>1244</v>
       </c>
       <c r="M94" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="N94" t="s">
-        <v>571</v>
-      </c>
-      <c r="O94" t="s">
-        <v>570</v>
+        <v>0.105</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="O94" t="n">
+        <v>64.029</v>
       </c>
       <c r="P94" t="s">
-        <v>25</v>
+        <v>560</v>
       </c>
       <c r="Q94" t="s">
-        <v>572</v>
+        <v>559</v>
+      </c>
+      <c r="R94" t="s">
+        <v>27</v>
+      </c>
+      <c r="S94" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="B95" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44035</v>
+        <v>44056</v>
       </c>
       <c r="D95" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="E95" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>105</v>
-      </c>
-      <c r="H95"/>
-      <c r="I95"/>
+        <v>136</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5521880</v>
+      </c>
+      <c r="I95" t="n">
+        <v>65.472</v>
+      </c>
       <c r="J95" t="n">
-        <v>1785</v>
+        <v>66892</v>
       </c>
       <c r="K95" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95" t="s">
-        <v>576</v>
-      </c>
-      <c r="O95" t="s">
-        <v>577</v>
+        <v>0.793</v>
+      </c>
+      <c r="L95" t="n">
+        <v>62868</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O95" t="n">
+        <v>53.149</v>
       </c>
       <c r="P95" t="s">
-        <v>52</v>
+        <v>565</v>
       </c>
       <c r="Q95" t="s">
-        <v>578</v>
+        <v>564</v>
+      </c>
+      <c r="R95" t="s">
+        <v>27</v>
+      </c>
+      <c r="S95" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B96" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44036</v>
+        <v>44055</v>
       </c>
       <c r="D96" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="E96" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="H96" t="n">
-        <v>937006</v>
+        <v>308503</v>
       </c>
       <c r="I96" t="n">
-        <v>21.425</v>
+        <v>6.745</v>
       </c>
       <c r="J96" t="n">
-        <v>15148</v>
+        <v>4108</v>
       </c>
       <c r="K96" t="n">
-        <v>0.346</v>
+        <v>0.09</v>
       </c>
       <c r="L96" t="n">
-        <v>11849</v>
+        <v>2877</v>
       </c>
       <c r="M96" t="n">
-        <v>0.271</v>
-      </c>
-      <c r="N96" t="s">
-        <v>582</v>
-      </c>
-      <c r="O96" t="s">
-        <v>583</v>
+        <v>0.063</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O96" t="n">
+        <v>183.082</v>
       </c>
       <c r="P96" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="Q96" t="s">
-        <v>585</v>
+        <v>571</v>
+      </c>
+      <c r="R96" t="s">
+        <v>54</v>
+      </c>
+      <c r="S96" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="B97" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44036</v>
+        <v>44057</v>
       </c>
       <c r="D97" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="E97" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="H97" t="n">
-        <v>4724277</v>
+        <v>1252842</v>
       </c>
       <c r="I97" t="n">
-        <v>477.663</v>
+        <v>28.647</v>
       </c>
       <c r="J97" t="n">
-        <v>46965</v>
+        <v>18917</v>
       </c>
       <c r="K97" t="n">
-        <v>4.749</v>
+        <v>0.433</v>
       </c>
       <c r="L97" t="n">
-        <v>44289</v>
+        <v>16827</v>
       </c>
       <c r="M97" t="n">
-        <v>4.478</v>
-      </c>
-      <c r="N97" t="s">
-        <v>589</v>
-      </c>
-      <c r="O97" t="s">
-        <v>590</v>
+        <v>0.385</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="O97" t="n">
+        <v>10.646</v>
       </c>
       <c r="P97" t="s">
-        <v>52</v>
+        <v>576</v>
       </c>
       <c r="Q97" t="s">
-        <v>591</v>
+        <v>577</v>
+      </c>
+      <c r="R97" t="s">
+        <v>40</v>
+      </c>
+      <c r="S97" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="B98" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44035</v>
+        <v>44056</v>
       </c>
       <c r="D98" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="E98" t="s">
-        <v>595</v>
-      </c>
-      <c r="F98" t="s">
-        <v>596</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="F98"/>
       <c r="G98" t="n">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="H98" t="n">
-        <v>8522679</v>
+        <v>5765358</v>
       </c>
       <c r="I98" t="n">
-        <v>125.544</v>
+        <v>582.925</v>
       </c>
       <c r="J98" t="n">
-        <v>134293</v>
+        <v>68964</v>
       </c>
       <c r="K98" t="n">
-        <v>1.978</v>
+        <v>6.973</v>
       </c>
       <c r="L98" t="n">
-        <v>123496</v>
+        <v>64567</v>
       </c>
       <c r="M98" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="N98" t="s">
-        <v>595</v>
-      </c>
-      <c r="O98" t="s">
-        <v>597</v>
+        <v>6.528</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="O98" t="n">
+        <v>281.425</v>
       </c>
       <c r="P98" t="s">
-        <v>25</v>
+        <v>582</v>
       </c>
       <c r="Q98" t="s">
-        <v>598</v>
+        <v>581</v>
+      </c>
+      <c r="R98" t="s">
+        <v>27</v>
+      </c>
+      <c r="S98" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="B99" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44035</v>
+        <v>44055</v>
       </c>
       <c r="D99" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="E99" t="s">
-        <v>602</v>
-      </c>
-      <c r="F99"/>
+        <v>587</v>
+      </c>
+      <c r="F99" t="s">
+        <v>588</v>
+      </c>
       <c r="G99" t="n">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="H99" t="n">
-        <v>52942145</v>
+        <v>11310805</v>
       </c>
       <c r="I99" t="n">
-        <v>159.945</v>
+        <v>166.615</v>
       </c>
       <c r="J99" t="n">
-        <v>1262123</v>
+        <v>167983</v>
       </c>
       <c r="K99" t="n">
-        <v>3.813</v>
+        <v>2.474</v>
       </c>
       <c r="L99" t="n">
-        <v>912934</v>
+        <v>153405</v>
       </c>
       <c r="M99" t="n">
-        <v>2.758</v>
-      </c>
-      <c r="N99" t="s">
-        <v>602</v>
-      </c>
-      <c r="O99" t="s">
-        <v>601</v>
+        <v>2.26</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="O99" t="n">
+        <v>165.307</v>
       </c>
       <c r="P99" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="Q99" t="s">
-        <v>604</v>
+        <v>589</v>
+      </c>
+      <c r="R99" t="s">
+        <v>27</v>
+      </c>
+      <c r="S99" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="B100" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44035</v>
+        <v>44056</v>
       </c>
       <c r="D100" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E100" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="H100" t="n">
-        <v>48794970</v>
+        <v>69155988</v>
       </c>
       <c r="I100" t="n">
-        <v>147.416</v>
-      </c>
-      <c r="J100" t="n">
-        <v>774193</v>
-      </c>
-      <c r="K100" t="n">
-        <v>2.339</v>
-      </c>
+        <v>208.929</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100"/>
       <c r="L100" t="n">
-        <v>775499</v>
+        <v>605010</v>
       </c>
       <c r="M100" t="n">
-        <v>2.343</v>
-      </c>
-      <c r="N100" t="s">
-        <v>607</v>
-      </c>
-      <c r="O100" t="s">
-        <v>608</v>
+        <v>1.828</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="O100" t="n">
+        <v>11.346</v>
       </c>
       <c r="P100" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="Q100" t="s">
-        <v>610</v>
+        <v>593</v>
+      </c>
+      <c r="R100" t="s">
+        <v>595</v>
+      </c>
+      <c r="S100" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="B101" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44035</v>
+        <v>44056</v>
       </c>
       <c r="D101" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="E101" t="s">
-        <v>122</v>
+        <v>599</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="H101" t="n">
-        <v>97472</v>
+        <v>64612034</v>
       </c>
       <c r="I101" t="n">
-        <v>28.06</v>
+        <v>195.201</v>
       </c>
       <c r="J101" t="n">
-        <v>2316</v>
+        <v>880729</v>
       </c>
       <c r="K101" t="n">
-        <v>0.667</v>
+        <v>2.661</v>
       </c>
       <c r="L101" t="n">
-        <v>2100</v>
+        <v>708480</v>
       </c>
       <c r="M101" t="n">
-        <v>0.605</v>
-      </c>
-      <c r="N101" t="s">
-        <v>122</v>
-      </c>
-      <c r="O101" t="s">
-        <v>614</v>
+        <v>2.14</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="O101" t="n">
+        <v>13.287</v>
       </c>
       <c r="P101" t="s">
-        <v>25</v>
+        <v>599</v>
       </c>
       <c r="Q101" t="s">
-        <v>615</v>
+        <v>600</v>
+      </c>
+      <c r="R101" t="s">
+        <v>601</v>
+      </c>
+      <c r="S101" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="B102" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>43950</v>
+        <v>44056</v>
       </c>
       <c r="D102" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="E102" t="s">
-        <v>619</v>
+        <v>126</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="H102" t="n">
-        <v>261004</v>
+        <v>138700</v>
       </c>
       <c r="I102" t="n">
-        <v>2.681</v>
-      </c>
-      <c r="J102"/>
-      <c r="K102"/>
+        <v>39.928</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1514</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.436</v>
+      </c>
       <c r="L102" t="n">
-        <v>10906</v>
+        <v>1749</v>
       </c>
       <c r="M102" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="N102" t="s">
-        <v>619</v>
-      </c>
-      <c r="O102" t="s">
-        <v>620</v>
+        <v>0.503</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="O102" t="n">
+        <v>145.75</v>
       </c>
       <c r="P102" t="s">
-        <v>621</v>
+        <v>126</v>
       </c>
       <c r="Q102" t="s">
-        <v>622</v>
+        <v>606</v>
+      </c>
+      <c r="R102" t="s">
+        <v>27</v>
+      </c>
+      <c r="S102" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="B103" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44034</v>
+        <v>43950</v>
       </c>
       <c r="D103" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="E103" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="H103" t="n">
-        <v>43608</v>
+        <v>261004</v>
       </c>
       <c r="I103" t="n">
-        <v>2.934</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1076</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.072</v>
-      </c>
+        <v>2.681</v>
+      </c>
+      <c r="J103"/>
+      <c r="K103"/>
       <c r="L103" t="n">
-        <v>712</v>
+        <v>10906</v>
       </c>
       <c r="M103" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="N103" t="s">
-        <v>626</v>
-      </c>
-      <c r="O103" t="s">
-        <v>627</v>
+        <v>0.112</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>38171</v>
       </c>
       <c r="P103" t="s">
-        <v>25</v>
+        <v>611</v>
       </c>
       <c r="Q103" t="s">
-        <v>628</v>
+        <v>612</v>
+      </c>
+      <c r="R103" t="s">
+        <v>54</v>
+      </c>
+      <c r="S103" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>614</v>
+      </c>
+      <c r="B104" t="s">
+        <v>615</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>44052</v>
+      </c>
+      <c r="D104" t="s">
+        <v>616</v>
+      </c>
+      <c r="E104" t="s">
+        <v>617</v>
+      </c>
+      <c r="F104"/>
+      <c r="G104" t="n">
+        <v>94</v>
+      </c>
+      <c r="H104" t="n">
+        <v>71608</v>
+      </c>
+      <c r="I104" t="n">
+        <v>4.818</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1293</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.087</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1203</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="O104" t="n">
+        <v>9.193</v>
+      </c>
+      <c r="P104" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>618</v>
+      </c>
+      <c r="R104" t="s">
+        <v>27</v>
+      </c>
+      <c r="S104" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/testing/covid-testing-latest-data-source-details.xlsx
+++ b/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="627">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -110,7 +110,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/08/coronavirus-covid-19-at-a-glance-13-august-2020.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/08/coronavirus-covid-19-at-a-glance-25-august-2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/u-belarusi-na-12-zhni-nya-vypisanyya-65-tys-893-patsyenta/</t>
+    <t xml:space="preserve">http://minzdrav.gov.by/ru/sobytiya/u-belarusi-na-25-zhni-nya-vypisanyya-69-tys-097-patsyenta/</t>
   </si>
   <si>
     <t xml:space="preserve">Belarus Ministry of Health</t>
@@ -245,7 +245,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/4504-coronavirus-se-reportan-1-743-contagios-nuevos-y-el-numero-de-pacientes-recuperados-llega-a-32-830</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/4542-bolivia-suma-722-contagios-nuevos-de-coronavirus-y-el-total-sube-a-109-149</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -253,6 +253,7 @@
   <si>
     <t xml:space="preserve">Official testing data from the Bolivian Ministry of Health is reported in daily briefs [on their website](https://www.minsalud.gob.bo/). The briefs often (but do not always) provide a breakdown of the cumulative number of confirmed, suspected, and negative (also called discarded) tests to date. We measure the total number of tests performed to date as the sum of the number of confirmed and negative tests.
 Because of the way the daily briefs report the number of negative tests ("pruebas negativas") alongside the number of positive cases ("casos positivos"), it may be the case that the number of tests performed is equivalent to the number of people tested.
+The reported number of tests performed may include non-PCR tests. [Official protocol for COVID-19 laboratory diagnosis](https://www.minsalud.gob.bo/component/jdownloads/download/30-guias-manejo-covid/445-protocolo-para-el-diagnostico-de-laboratorio-en-el-marco-de-la-emergencia-sanitaria-por-covid-actualizado?Itemid=646) (updated in May 2020) indicate that antibody (non-PCR) tests are an important aspect of the country's screening and diagnostic process (e.g. see pages 24-27 and annex 2). But the source does not explicitly state whether these non-PCR tests are used to confirm or discard suspected cases without a corresponding PCR test result.
 As of 5 August 2020, the most recent daily briefs consistently report testing figures in terms of the cumulative number of tests ("pruebas") performed. However, in the initial months of the COVID-19 outbreak, the daily briefs previously reported testing figures using inconsistent terminology such as samples (“muestras”) tested, people who have undergone tests (”personas, que fueron sometidas a pruebas”), and tests ("pruebas") performed. It does not appear that this inconsistent use of terminology reflects a substantive change in the reported figures, since there are no corresponding large breaks in the time series.
 In 10 briefs the number of negative tests was not reported, preventing us from calculating a total for that date. For these dates with missing official data, we use data provided in this [unofficial GitHub repository](https://github.com/mauforonda/covid19-bolivia), which we have cross-referenced against the official data for all dates.
 Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
@@ -264,13 +265,10 @@
     <t xml:space="preserve">Brazil - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.saude.gov.br/noticias/agencia-saude/47230-portaria-torna-obrigatoria-notificacao-de-resultados-de-testes-da-covid-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Health press release</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Until July 21, 2,536,552 million RT-PCR exams were performed for Covid-19, with 1,406,132 in the national network of public health laboratories and 1,130,420 in the main private laboratories in the country.</t>
+    <t xml:space="preserve">https://static.poder360.com.br/2020/08/entrevista-coletiva-ms-19ago2020.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of PCR tests in private labs has not been updated</t>
   </si>
   <si>
     <t xml:space="preserve">Brazil Ministry of Health</t>
@@ -369,7 +367,7 @@
     <t xml:space="preserve">CRI</t>
   </si>
   <si>
-    <t xml:space="preserve">Costa Rica - people tested</t>
+    <t xml:space="preserve">Costa Rica - people tested (incl. non-PCR)</t>
   </si>
   <si>
     <t xml:space="preserve">https://observador.cr/covid19-estadisticas/</t>
@@ -381,10 +379,16 @@
     <t xml:space="preserve">https://www.ministeriodesalud.go.cr/index.php/centro-de-prensa/noticias/741-noticias-2020/1532-lineamientos-nacionales-para-la-vigilancia-de-la-infeccion-por-coronavirus-2019-ncov</t>
   </si>
   <si>
-    <t xml:space="preserve">The Costa Rican Ministry of Health produce daily update reports of confirmed cases, deaths and test results.
-These daily reports state the daily number of people who have been tested – given as the number of confirmed cases (‘Confirma contagio’) and number of people with negative results (‘Descarta contagio’) (thus the figures do not include pending tests). We can use these daily updates to construct a full time-series. This figures have been collected and are made available for download by the news website [El Observador](https://observador.cr/covid19-estadisticas/), from which we take our data.
-Daily reports with figures on testing are only available dating back to 11 March 2020. We therefore do not know the first date of testing, or daily figures prior to this date.
-For the number of new tests reported on 25 March 2020, we noticed a discrepancy between data published by El Observador and the official data from the Ministry of Health. We there replaced the number of discarded tests for that day (5) with the official number (65) (official reports: [24 March 2020](https://www.ministeriodesalud.go.cr/sobre_ministerio/prensa/img_cvd/img_datos_marzo_2020_14.jpeg), [25 March 2020](https://www.ministeriodesalud.go.cr/sobre_ministerio/prensa/img_cvd/img_datos_marzo_2020_15.jpeg)).
+    <t xml:space="preserve">The Costa Rican Ministry of Health provides daily updates that report confirmed cases, deaths and test results.
+These updates state the daily number of people who have been tested – given as the number of confirmed cases (‘Confirma contagio’) and number of people with negative results (‘Descarta contagio’) (thus the figures do not include pending tests). We use these daily updates to construct a full time series of the cumulative number of persons tested to date. These figures have been collected and are made available for download by the news website [El Observador](https://observador.cr/covid19-estadisticas/), from which we take our data.
+Daily testing figures are only available since 11 March 2020. We therefore do not know the first date of testing, or daily figures prior to this date.
+For the number of new tests reported on 25 March 2020, we noticed a discrepancy between data published by El Observador and the official data reported by the Ministry of Health. We therefore replaced the number of discarded tests for that day (5) with the official number (65) (official reports: [24 March 2020](https://www.ministeriodesalud.go.cr/sobre_ministerio/prensa/img_cvd/img_datos_marzo_2020_14.jpeg), [25 March 2020](https://www.ministeriodesalud.go.cr/sobre_ministerio/prensa/img_cvd/img_datos_marzo_2020_15.jpeg)).
+Prior to 24 July 2020, suspected COVID-19 cases in Costa Rica could only be confirmed via a positive PCR test result, as described in the [12 June 2020 national guidelines for COVID-19 surveillance](https://www.ministeriodesalud.go.cr/sobre_ministerio/prensa/docs/lineamientos_nacionales_vigilancia_infeccion_coronavirus_12062020_v14_vf.pdf). However, [revised guidelines published on 24 July 2020](https://www.ministeriodesalud.go.cr/sobre_ministerio/prensa/docs/lineamientos_nacionales_vigilancia_infeccion_coronavirus_v15_24072020.pdf) expand the definition of a confirmed COVID-19 case to allow for cases to be confirmed without a PCR test: 
+"Confirmed case refers to one of the following 2 options:
+Laboratory confirmed case: refers to a person who has had the virus that causes the COVID 19 disease regardless of its clinical signs and symptoms. This confirmation will be done by public and private laboratories that have RT-PCR capable of identifying SARS - CoV-2 and have an authorization from an external regulatory entity such as FDA or its equivalent duly authorized by the Ministry of Health as well as the National Center for Frankincense Virology.
+By epidemiological link: persons residing at the address of a laboratory confirmed case who develop respiratory symptoms within 21 days after the first day of isolation. (For these people, it will not be necessary to carry out the PCR-RT test)" (translated)
+For this reason, we do not know how many confirmed cases since 24 July 2020 have been confirmed via "epidemiological link" (i.e. without a PCR test). Hence, the time series we construct of the cumulative number of persons tested to date may include a number of confirmed cases that never received a PCR test.
+This also means that our testing figures are not an appropriate comparison with cases in these instance. For this reason, we do not calculate the positive rate or number of tests per confirmed case for Costa Rica.
 Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels. Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
@@ -394,7 +398,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/Mshpci/posts/1666768260155528</t>
+    <t xml:space="preserve">https://www.facebook.com/Mshpci/posts/1678490098983344</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -473,7 +477,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/CMR_Covid19_RDC/status/1293864579861291008/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/CMR_Covid19_RDC/status/1297508985793327105/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -491,7 +495,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ssi.dk/-/media/arkiv/dk/sygdomme-beredskab-og-forskning/sygdomsovervaagning/covid19/13_08_2020_zp09/data-epidemiologiske-rapport-13082020-13yt.zip?la=da</t>
+    <t xml:space="preserve">https://files.ssi.dk/Data-epidemiologisk-rapport-25082020-rg99</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -509,7 +513,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/08/INFOGRAFIA-NACIONALCOVI-19-COE-NACIONAL-08h00-13082020.xlsm.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/08/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-25082020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -535,7 +539,7 @@
     <t xml:space="preserve">El Salvador - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/nayibbukele/posts/3138372252915611</t>
+    <t xml:space="preserve">https://www.facebook.com/nayibbukele/posts/3173404349412401</t>
   </si>
   <si>
     <t xml:space="preserve">Government of El Salvador</t>
@@ -579,13 +583,13 @@
     <t xml:space="preserve">Ethiopia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et/images/novel_coronavirus/EPHI_-PHEOC_COVID-19_Weekly--bulletin_14_English_08032020.pdf</t>
+    <t xml:space="preserve">https://twitter.com/EPHIEthiopia/status/1297581159547834370</t>
   </si>
   <si>
     <t xml:space="preserve">Ethiopian Public Health Institute</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.ephi.gov.et</t>
+    <t xml:space="preserve">https://twitter.com/EPHIEthiopia</t>
   </si>
   <si>
     <t xml:space="preserve">The [Ethiopian Public Health Institute](https://www.ephi.gov.et) in collaboration with the [Ethiopian Ministry of Health](http://www.moh.gov.et) provides daily press releases of the number of tests performed to date. It is unclear whether the reported figures include tests for which the results are pending.
@@ -672,7 +676,7 @@
     <t xml:space="preserve">Germany - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-08-12-de.pdf?__blob=publicationFile</t>
+    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/2020-08-19-de.pdf?__blob=publicationFile</t>
   </si>
   <si>
     <t xml:space="preserve">Robert Koch Institut</t>
@@ -688,15 +692,16 @@
   </si>
   <si>
     <t xml:space="preserve">To determine how many laboratory tests regarding SARS-CoV-2 are carried out per calendar week in Germany and how many tests are positive or negative, the RKI has started a Germany-wide laboratory query. However, the number of laboratories reporting data seems to vary from week to week.
-The report published on 12 August 2020 states that “from the beginning of the collection up to and including calendar week 32/2020”:
-– The cumulative total of samples tested was 9,265,361;
-- For calendar week 32 (which ends 9 August), 139 labs reported 672,171 samples tested;
-- For calendar week 31 (which ends 2 August), 165 labs reported 577,916 samples tested;
-- For calendar week 30 (which ends 26 July), 179 labs reported 570,681 samples tested;
-- For calendar week 29 (which ends 19 July), 175 labs reported 538,144 samples tested;
+The report published on 19 August 2020 states that “from the beginning of the collection up to and including calendar week 33/2020”:
+– The cumulative total of samples tested was 10,197,366;
+- For calendar week 33 (which ends 16 August), 181 labs reported 875,524 samples tested;
+- For calendar week 32 (which ends 9 August), 165 labs reported 730,300 samples tested;
+- For calendar week 31 (which ends 2 August), 165 labs reported 578,099 samples tested;
+- For calendar week 30 (which ends 26 July), 180 labs reported 570,746 samples tested;
+- For calendar week 29 (which ends 19 July), 176 labs reported 538,229 samples tested;
 - For calendar week 28 (which ends 12 July), 178 labs reported 510,103 samples tested;
-- For calendar week 27 (which ends 5 July), 150 labs reported 505,518 samples tested;
-- For calendar week 26 (which ends 28 June), 180 labs reported 467,004 samples tested;
+- For calendar week 27 (which ends 5 July), 149 labs reported 504,082 samples tested;
+- For calendar week 26 (which ends 28 June), 179 labs reported 466,459 samples tested;
 - For calendar week 25 (which ends 21 June), 175 labs reported 387,484 samples tested;
 - For calendar week 24 (which ends 14 June), 172 labs reported 326,645 samples tested;
 - For calendar week 23 (which ends 7 June), 176 labs reported 340,986 samples tested;
@@ -747,7 +752,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20200813</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-25-08-2020/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -886,7 +891,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/345030</t>
+    <t xml:space="preserve">http://irangov.ir/detail/345900</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -900,6 +905,27 @@
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
+    <t xml:space="preserve">IRQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://moh.gov.iq/index.php?name=News&amp;file=article&amp;sid=16402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health and Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq Ministry of Health and Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://moh.gov.iq/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Iraq Ministry of Health and Environment provides daily COVID-19 reports on [their official website](https://moh.gov.iq/) that include the daily and cumulative number of samples tested. These reports date back to late March 2020 but did not begin including testing numbers until 7 April 2020; the cumulative total then was already 26,331. The testing numbers are described as being from "all the specialized laboratories in Iraq" (translated from Arabic). Other reports on the website suggest that these testing numbers are for PCR tests only, but we could not find definitive confirmation of this. No other information is provided.</t>
+  </si>
+  <si>
     <t xml:space="preserve">IRL</t>
   </si>
   <si>
@@ -923,7 +949,7 @@
     <t xml:space="preserve">Israel - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://govextra.gov.il/media/24300/covid19-data-israel-06082020.csv</t>
+    <t xml:space="preserve">https://govextra.gov.il/media/25556/covid19-data-israel-19082020.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Israel Ministry of Health</t>
@@ -982,7 +1008,7 @@
     <t xml:space="preserve">Japan - people tested (incl. non-PCR)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_12978.html</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_13172.html</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Labor and Welfare Press Release</t>
@@ -1007,10 +1033,10 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000659117.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cumulative total reported in the press release matches the cumulative total calculated from the weekly and daily figures reported by the MOH.</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000662290.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cumulative total reported in the press release (1,619,514) does not sum to the cumulative total calculated from the weekly and daily figures reported by the MOH. See: https://www.mhlw.go.jp/content/10906000/000662290.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">On 11 April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the date on which results were determined" (via Google translate). 
@@ -1041,7 +1067,7 @@
     <t xml:space="preserve">Kenya - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1293167082423672835</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1297506691454574593</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -1063,7 +1089,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1293849840422715392/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1297858722606309378/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1129,7 +1155,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/082020/situasi-terkini-13-ogos-2020</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/082020/situasi-terkini-25-ogos-2020</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1155,7 +1181,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1293962737379409927/photo/11</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1297944752265007110/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1210,10 +1236,9 @@
     <t xml:space="preserve">https://coronavirus.gob.mx/datos/#DownZCSV</t>
   </si>
   <si>
-    <t xml:space="preserve">The Government of Mexico makes a dataset available along with [its COVID-19 dashboard](https://coronavirus.gob.mx/datos/#DownZCSV).
-The file can be downloaded in CSV format, and gives detailed information on each case (1 row per case). The RESULTADO column gives the status of the case, with 1 = POSITIVE, 2 = NEGATIVE, 3 = PENDING. We do not include pending tests in our time series, and we remove recent days where the proportion of pending tests (RESULTADO = 3) is above 50%, to avoid publishing a time series that drops substantially in the last few days.
-Data starts on 1 January 2020; we do not know if this is because tests started on that date or because earlier data is not available.
-The notes to the data provide the following note "Information from the Epidemiological Surveillance System for Viral Respiratory Diseases, reported by the 475 viral respiratory disease monitoring units (USMER) throughout the country in the entire health sector (IMSS, ISSSTE, SEDENA, SEMAR, ETC).... Preliminary data subject to validation by the Ministry of Health through the General Directorate of Epidemiology. The information contained corresponds only to the data obtained from the epidemiological study of a suspected case of viral respiratory disease at the time it is identified in the medical units of the Health Sector".</t>
+    <t xml:space="preserve">The Government of Mexico makes several datasets available along with [its COVID-19 dashboard](https://coronavirus.gob.mx/datos/#DownZCSV). The files can be downloaded in CSV format.
+To arrive at the time series shown on our website, we use the CSV files for confirmed cases ("confirmados") and negative cases ("negativos"). For each file, we only keep the row that reports national data, merge the two files together, and add up confirmed and negative cases to find the number of people tested each day.
+Data starts on 1 January 2020; we do not know if this is because tests started on that date or because earlier data is not available.</t>
   </si>
   <si>
     <t xml:space="preserve">MAR</t>
@@ -1222,7 +1247,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1293960058716422146/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/Ministere_Sante/status/1297944286143623168/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1262,7 +1287,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1hNjlpuQLYfn8PocMYmHBp1zXFvTDfyVX</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1wbintzK9V_XDb6I2qqn5l1Blo2sVRMQ6</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1282,7 +1307,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-08/COVID-19_WebSite_rapport_wekelijks_20200811_1158_0.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-08/COVID-19_WebSite_rapport_wekelijks_20200825_1217_0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1409,13 +1434,17 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1297671113905000448/photo/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama Ministry of Health</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://minsa.gob.pa/covid-19</t>
   </si>
   <si>
-    <t xml:space="preserve">Panama Ministry of Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Panama Ministry of Health reports the cumulative number of tests performed ("pruebas realizadas") on [their official dashboard](http://minsa.gob.pa/covid-19) with a time series dating back to 9 March 2020. The page with testing numbers is not the first one shown but can be navigated to with the arrows at the bottom of the dashboard. The dashboard shows the cumulative number of total, positive, negative, and control tests ("prueba de control") performed. We report here the total of positive and negative numbers because: 1) the time series only includes positive and negative test numbers; and 2) the total they provide seems to include control tests, which we understand to be used for testing quality control.</t>
+    <t xml:space="preserve">The Panama Ministry of Health reports the cumulative number of tests performed ("pruebas realizadas") on [their official dashboard](http://minsa.gob.pa/covid-19) with a time series dating back to 9 March 2020. The page with testing numbers is not the first one shown but can be navigated to with the arrows at the bottom of the dashboard. The dashboard shows the cumulative number of total, positive ("positivas"), negative ("negativas"), and control tests ("prueba de control") performed. We report here the total of positive and negative numbers because: 1) the time series only includes positive and negative test numbers; and 2) the total they provide seems to include control tests, which we understand to be used for testing quality control.
+Starting 15 August 2020, the official dashboard is no longer being updated while it is being restructured. We now source the daily testing numbers from the [Ministry of Health's official Twitter page](https://twitter.com/MINSAPma). We continue to report the total of positive ("casos confirmados") and negative ("pruebas negativas") tests.</t>
   </si>
   <si>
     <t xml:space="preserve">PRY</t>
@@ -1444,21 +1473,19 @@
     <t xml:space="preserve">Peru - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gob.pe/institucion/minsa/noticias/218573-minsa-casos-confirmados-por-coronavirus-covid-19-ascienden-a-407-492-en-el-peru-comunicado-n-191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry of Health, Government of Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gob.pe/minsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Peruvian Ministry of Health provides daily press releases of the cumulative number of positively and negatively tested people to date ('Personas muestreadas'). As such, the series does not include tests pending results.
-Note that earlier releases, such as that on [6 March 2020](https://www.gob.pe/institucion/minsa/noticias/108937-minsa-proceso-155-muestras-por-coronavirus-covid-19-y-una-resulto-positivo), referred to the figures as the number of samples processed ('se han procesado 155 muestras por coronavirus COVID-19'). Given the continuity observed in the series however, it seems likely that this change in the description reflects only a clarification, rather than actual change in methodology.
-The date from which the cumulative number of tests is counted is not mentioned in the press releases. The earliest press release we are able to find is for 4 March 2020, which reported 107 cumulative test results since an unmentioned date.
-The releases provide figures for serology tests ("Pruebas serológicas rápidas") as well as PCR tests ("Pruebas moleculares"). In order to provide the data that is most comparable to the other countries in our database, we only include PCR tests ("Pruebas moleculares").
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).
-Peru includes positive antibody tests in their figures for confirmed cases. Our testing figures—which exclude antibody tests—are not an appropriate comparison in these instances: on this basis there could be more cases than tests, which is not possible. For this reason, we do not calculate the positive rate or number of tests per confirmed case for Peru.</t>
+    <t xml:space="preserve">https://www.dge.gob.pe/portal/docs/tools/coronavirus/coronavirus180820.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru Ministry of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dge.gob.pe/portal/index.php?option=com_content&amp;view=article&amp;id=678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Peruvian Ministry of Health publishes daily presentation slides on the number of people tested for the coronavirus, explicitly distinguishing between PCR and rapid tests. We only include PCR test figures in our series. 
+On dates where presentation slides are unavailable, we use the Ministry's [press releases](https://www.gob.pe/minsa#noticias) to supplement the series. Where the dates across the two sources overlap, the number of people tested in the presentation slides are consistently identical to the press release figures for the previous day. 
+For 22 March 2020, the press release quotes 7486 samples were tested, although adding the total number of positive (395) and negative (6269) tests totals to 6664 samples - consistent with neighbouring test figures. Hence, we use the summed total oof 6664 samples.
+Where multiple press releases have been issued in one day, 20 March 2020, we report the testing figures in the most recent release.</t>
   </si>
   <si>
     <t xml:space="preserve">PHL</t>
@@ -1467,7 +1494,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1e_Hv_hquoc8v0M5WZNNes3QnDwkFqaGO</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1QUIqtJtcgNfZRKIt0BpECegkx-z7IDhi?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -1487,7 +1514,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1293834678718234624</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1298183333340483584</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1555,7 +1582,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/ro/media/comunicate/buletin-de-presa-13-august-2020-ora-13-00&amp;page=1</t>
+    <t xml:space="preserve">https://gov.ro/ro/media/comunicate/buletin-de-presa-25-august-2020-ora-13-00&amp;page=1</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -1578,7 +1605,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=15169</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=15238</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1598,7 +1625,7 @@
     <t xml:space="preserve">Rwanda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1292893993995575296</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1297637879523561475</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1772,7 +1799,7 @@
     <t xml:space="preserve">South Korea - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=368119&amp;tag=&amp;nPage=1</t>
+    <t xml:space="preserve">https://www.cdc.go.kr/board/board.es?mid=&amp;bid=0030&amp;act=view&amp;list_no=368215&amp;tag=&amp;nPage=1</t>
   </si>
   <si>
     <t xml:space="preserve">South Korea CDC</t>
@@ -1792,7 +1819,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas_06_08_2020.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov-China/documentos/COVID-19_pruebas_diagnosticas_20_08_2020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -1894,7 +1921,7 @@
     <t xml:space="preserve">Thailand - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ddc.moph.go.th/viralpneumonia/file/situation/situation-no223-130863.pdf</t>
+    <t xml:space="preserve">https://ddc.moph.go.th/viralpneumonia/file/situation/situation-no235-250863.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Disease Control</t>
@@ -1982,7 +2009,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1293840039407910914/photo/2</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1298238895956664320/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2042,7 +2069,7 @@
     <t xml:space="preserve">United Kingdom - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/909375/2020-08-13_COVID-19_UK_testing_time_series.csv</t>
+    <t xml:space="preserve">https://assets.publishing.service.gov.uk/government/uploads/system/uploads/attachment_data/file/910857/2020-08-20_COVID-19_UK_testing_time_series.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health England/Department of Health and Social Care</t>
@@ -2122,7 +2149,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informe-situacion-sobre-coronavirus-covid-19-uruguay-13-agosto</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informe-situacion-sobre-coronavirus-covid-19-uruguay-25-agosto</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2160,7 +2187,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1292530449500319744</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1297591437534666756</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2577,7 +2604,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44056</v>
+        <v>44063</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2587,31 +2614,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H2" t="n">
-        <v>793114</v>
+        <v>901255</v>
       </c>
       <c r="I2" t="n">
-        <v>17.548</v>
+        <v>19.941</v>
       </c>
       <c r="J2" t="n">
-        <v>4563</v>
+        <v>4391</v>
       </c>
       <c r="K2" t="n">
-        <v>0.101</v>
+        <v>0.097</v>
       </c>
       <c r="L2" t="n">
-        <v>11808</v>
+        <v>11114</v>
       </c>
       <c r="M2" t="n">
-        <v>0.261</v>
+        <v>0.246</v>
       </c>
       <c r="N2" t="n">
-        <v>0.573</v>
+        <v>0.579</v>
       </c>
       <c r="O2" t="n">
-        <v>1.745</v>
+        <v>1.727</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -2634,7 +2661,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44056</v>
+        <v>44068</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -2644,31 +2671,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H3" t="n">
-        <v>966220</v>
+        <v>1195148</v>
       </c>
       <c r="I3" t="n">
-        <v>21.379</v>
+        <v>26.444</v>
       </c>
       <c r="J3" t="n">
-        <v>5449</v>
+        <v>6132</v>
       </c>
       <c r="K3" t="n">
-        <v>0.121</v>
+        <v>0.136</v>
       </c>
       <c r="L3" t="n">
-        <v>13871</v>
+        <v>14762</v>
       </c>
       <c r="M3" t="n">
-        <v>0.307</v>
+        <v>0.327</v>
       </c>
       <c r="N3" t="n">
-        <v>0.488</v>
+        <v>0.545</v>
       </c>
       <c r="O3" t="n">
-        <v>2.049</v>
+        <v>1.835</v>
       </c>
       <c r="P3" t="s">
         <v>22</v>
@@ -2691,7 +2718,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44056</v>
+        <v>44068</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
@@ -2701,27 +2728,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="H4" t="n">
-        <v>5109785</v>
+        <v>5814709</v>
       </c>
       <c r="I4" t="n">
-        <v>200.385</v>
-      </c>
-      <c r="J4"/>
-      <c r="K4"/>
+        <v>228.029</v>
+      </c>
+      <c r="J4" t="n">
+        <v>56675</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.223</v>
+      </c>
       <c r="L4" t="n">
-        <v>68242</v>
+        <v>62014</v>
       </c>
       <c r="M4" t="n">
-        <v>2.676</v>
+        <v>2.432</v>
       </c>
       <c r="N4" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="O4" t="n">
-        <v>178.045</v>
+        <v>329.611</v>
       </c>
       <c r="P4" t="s">
         <v>32</v>
@@ -2744,7 +2775,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44056</v>
+        <v>44068</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -2754,31 +2785,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H5" t="n">
-        <v>991508</v>
+        <v>1110089</v>
       </c>
       <c r="I5" t="n">
-        <v>110.089</v>
+        <v>123.256</v>
       </c>
       <c r="J5" t="n">
-        <v>8490</v>
+        <v>8883</v>
       </c>
       <c r="K5" t="n">
-        <v>0.943</v>
+        <v>0.986</v>
       </c>
       <c r="L5" t="n">
-        <v>7748</v>
+        <v>10314</v>
       </c>
       <c r="M5" t="n">
-        <v>0.86</v>
+        <v>1.145</v>
       </c>
       <c r="N5" t="n">
-        <v>0.017</v>
+        <v>0.025</v>
       </c>
       <c r="O5" t="n">
-        <v>58.57</v>
+        <v>39.452</v>
       </c>
       <c r="P5" t="s">
         <v>39</v>
@@ -2801,7 +2832,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44057</v>
+        <v>44069</v>
       </c>
       <c r="D6" t="s">
         <v>44</v>
@@ -2811,28 +2842,28 @@
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H6" t="n">
-        <v>944798</v>
+        <v>1058509</v>
       </c>
       <c r="I6" t="n">
-        <v>555.246</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6"/>
+        <v>622.073</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9574</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.627</v>
+      </c>
       <c r="L6" t="n">
-        <v>9728</v>
+        <v>8246</v>
       </c>
       <c r="M6" t="n">
-        <v>5.717</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="O6" t="n">
-        <v>24.003</v>
-      </c>
+        <v>4.846</v>
+      </c>
+      <c r="N6"/>
+      <c r="O6"/>
       <c r="P6" t="s">
         <v>46</v>
       </c>
@@ -2854,7 +2885,7 @@
         <v>50</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44053</v>
+        <v>44066</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
@@ -2864,31 +2895,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H7" t="n">
-        <v>1273168</v>
+        <v>1442656</v>
       </c>
       <c r="I7" t="n">
-        <v>7.731</v>
+        <v>8.76</v>
       </c>
       <c r="J7" t="n">
-        <v>12849</v>
+        <v>10801</v>
       </c>
       <c r="K7" t="n">
-        <v>0.078</v>
+        <v>0.066</v>
       </c>
       <c r="L7" t="n">
-        <v>11375</v>
+        <v>12999</v>
       </c>
       <c r="M7" t="n">
-        <v>0.069</v>
+        <v>0.079</v>
       </c>
       <c r="N7" t="n">
-        <v>0.212</v>
+        <v>0.199</v>
       </c>
       <c r="O7" t="n">
-        <v>4.724</v>
+        <v>5.027</v>
       </c>
       <c r="P7" t="s">
         <v>52</v>
@@ -2911,7 +2942,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44055</v>
+        <v>44068</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
@@ -2921,31 +2952,27 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H8" t="n">
-        <v>1384026</v>
+        <v>1480047</v>
       </c>
       <c r="I8" t="n">
-        <v>146.468</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6486</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.686</v>
-      </c>
+        <v>156.63</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
       <c r="L8" t="n">
-        <v>6998</v>
+        <v>6729</v>
       </c>
       <c r="M8" t="n">
-        <v>0.741</v>
+        <v>0.712</v>
       </c>
       <c r="N8" t="n">
-        <v>0.015</v>
+        <v>0.022</v>
       </c>
       <c r="O8" t="n">
-        <v>64.882</v>
+        <v>44.605</v>
       </c>
       <c r="P8" t="s">
         <v>59</v>
@@ -2968,7 +2995,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44055</v>
+        <v>44067</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
@@ -2978,31 +3005,31 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H9" t="n">
-        <v>1923861</v>
+        <v>2162146</v>
       </c>
       <c r="I9" t="n">
-        <v>165.999</v>
+        <v>186.559</v>
       </c>
       <c r="J9" t="n">
-        <v>18728</v>
+        <v>14342</v>
       </c>
       <c r="K9" t="n">
-        <v>1.616</v>
+        <v>1.237</v>
       </c>
       <c r="L9" t="n">
-        <v>18676</v>
+        <v>19016</v>
       </c>
       <c r="M9" t="n">
-        <v>1.611</v>
+        <v>1.641</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03</v>
+        <v>0.024</v>
       </c>
       <c r="O9" t="n">
-        <v>32.98</v>
+        <v>41.925</v>
       </c>
       <c r="P9" t="s">
         <v>65</v>
@@ -3025,7 +3052,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44055</v>
+        <v>44066</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3035,31 +3062,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H10" t="n">
-        <v>186964</v>
+        <v>218864</v>
       </c>
       <c r="I10" t="n">
-        <v>16.017</v>
+        <v>18.75</v>
       </c>
       <c r="J10" t="n">
-        <v>3652</v>
+        <v>2385</v>
       </c>
       <c r="K10" t="n">
-        <v>0.313</v>
+        <v>0.204</v>
       </c>
       <c r="L10" t="n">
-        <v>2980</v>
+        <v>2881</v>
       </c>
       <c r="M10" t="n">
-        <v>0.255</v>
+        <v>0.247</v>
       </c>
       <c r="N10" t="n">
-        <v>0.478</v>
+        <v>0.46</v>
       </c>
       <c r="O10" t="n">
-        <v>2.093</v>
+        <v>2.173</v>
       </c>
       <c r="P10" t="s">
         <v>45</v>
@@ -3082,1081 +3109,1075 @@
         <v>74</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44033</v>
+        <v>44058</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
       </c>
       <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
         <v>76</v>
       </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>2536552</v>
+        <v>4152652</v>
       </c>
       <c r="I11" t="n">
-        <v>11.933</v>
+        <v>19.536</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
       <c r="L11" t="n">
-        <v>50375</v>
+        <v>48904</v>
       </c>
       <c r="M11" t="n">
-        <v>0.237</v>
+        <v>0.23</v>
       </c>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>79</v>
       </c>
       <c r="R11" t="s">
         <v>27</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="1" t="n">
+        <v>44069</v>
+      </c>
+      <c r="D12" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>44057</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>83</v>
-      </c>
-      <c r="E12" t="s">
-        <v>84</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="H12" t="n">
-        <v>324851</v>
+        <v>380606</v>
       </c>
       <c r="I12" t="n">
-        <v>46.752</v>
+        <v>54.776</v>
       </c>
       <c r="J12" t="n">
-        <v>5877</v>
+        <v>6232</v>
       </c>
       <c r="K12" t="n">
-        <v>0.846</v>
+        <v>0.897</v>
       </c>
       <c r="L12" t="n">
-        <v>4395</v>
+        <v>5339</v>
       </c>
       <c r="M12" t="n">
-        <v>0.633</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="O12" t="n">
-        <v>22.755</v>
-      </c>
+        <v>0.768</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R12" t="s">
         <v>27</v>
       </c>
       <c r="S12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="1" t="n">
+        <v>44069</v>
+      </c>
+      <c r="D13" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>44057</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>90</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="H13" t="n">
-        <v>4635105</v>
+        <v>5205010</v>
       </c>
       <c r="I13" t="n">
-        <v>122.81</v>
+        <v>137.91</v>
       </c>
       <c r="J13" t="n">
-        <v>54022</v>
+        <v>35844</v>
       </c>
       <c r="K13" t="n">
-        <v>1.431</v>
+        <v>0.95</v>
       </c>
       <c r="L13" t="n">
-        <v>45133</v>
+        <v>46405</v>
       </c>
       <c r="M13" t="n">
-        <v>1.196</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="O13" t="n">
-        <v>117.534</v>
-      </c>
+        <v>1.23</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13"/>
       <c r="P13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R13" t="s">
         <v>23</v>
       </c>
       <c r="S13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
         <v>92</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D14" t="s">
         <v>93</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>44056</v>
-      </c>
-      <c r="D14" t="s">
-        <v>94</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
       </c>
       <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" t="n">
+        <v>147</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2255966</v>
+      </c>
+      <c r="I14" t="n">
+        <v>118.013</v>
+      </c>
+      <c r="J14" t="n">
+        <v>24503</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.282</v>
+      </c>
+      <c r="L14" t="n">
+        <v>26841</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.404</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="O14" t="n">
+        <v>15.572</v>
+      </c>
+      <c r="P14" t="s">
         <v>95</v>
       </c>
-      <c r="G14" t="n">
-        <v>135</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1932592</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101.097</v>
-      </c>
-      <c r="J14" t="n">
-        <v>23628</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.236</v>
-      </c>
-      <c r="L14" t="n">
-        <v>24568</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.285</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="O14" t="n">
-        <v>12.791</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>97</v>
       </c>
       <c r="R14" t="s">
         <v>40</v>
       </c>
       <c r="S14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
         <v>99</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D15" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>44055</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>101</v>
-      </c>
-      <c r="E15" t="s">
-        <v>102</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="H15" t="n">
-        <v>2023256</v>
+        <v>2458866</v>
       </c>
       <c r="I15" t="n">
-        <v>39.763</v>
+        <v>48.324</v>
       </c>
       <c r="J15" t="n">
-        <v>40425</v>
+        <v>30925</v>
       </c>
       <c r="K15" t="n">
-        <v>0.794</v>
+        <v>0.608</v>
       </c>
       <c r="L15" t="n">
-        <v>37355</v>
+        <v>30324</v>
       </c>
       <c r="M15" t="n">
-        <v>0.734</v>
+        <v>0.596</v>
       </c>
       <c r="N15" t="n">
-        <v>0.289</v>
+        <v>0.353</v>
       </c>
       <c r="O15" t="n">
-        <v>3.465</v>
+        <v>2.829</v>
       </c>
       <c r="P15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15" t="s">
         <v>102</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>103</v>
       </c>
       <c r="R15" t="s">
         <v>54</v>
       </c>
       <c r="S15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="1" t="n">
+        <v>44067</v>
+      </c>
+      <c r="D16" t="s">
         <v>106</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>44055</v>
-      </c>
-      <c r="D16" t="s">
-        <v>107</v>
       </c>
       <c r="E16" t="s">
         <v>45</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H16" t="n">
-        <v>97283</v>
+        <v>117997</v>
       </c>
       <c r="I16" t="n">
-        <v>19.097</v>
+        <v>23.163</v>
       </c>
       <c r="J16" t="n">
-        <v>1721</v>
+        <v>1533</v>
       </c>
       <c r="K16" t="n">
-        <v>0.338</v>
+        <v>0.301</v>
       </c>
       <c r="L16" t="n">
-        <v>1706</v>
+        <v>1626</v>
       </c>
       <c r="M16" t="n">
-        <v>0.335</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.391</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.557</v>
-      </c>
+        <v>0.319</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16"/>
       <c r="P16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16" t="s">
         <v>108</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>109</v>
       </c>
       <c r="R16" t="s">
         <v>23</v>
       </c>
       <c r="S16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" t="s">
         <v>111</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="n">
+        <v>44067</v>
+      </c>
+      <c r="D17" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>44054</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>113</v>
-      </c>
-      <c r="E17" t="s">
-        <v>114</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="H17" t="n">
-        <v>110359</v>
+        <v>121286</v>
       </c>
       <c r="I17" t="n">
-        <v>4.184</v>
+        <v>4.598</v>
       </c>
       <c r="J17" t="n">
-        <v>682</v>
+        <v>987</v>
       </c>
       <c r="K17" t="n">
-        <v>0.026</v>
+        <v>0.037</v>
       </c>
       <c r="L17" t="n">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="M17" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="N17" t="n">
-        <v>0.086</v>
+        <v>0.065</v>
       </c>
       <c r="O17" t="n">
-        <v>11.651</v>
+        <v>15.431</v>
       </c>
       <c r="P17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>115</v>
       </c>
       <c r="R17" t="s">
         <v>54</v>
       </c>
       <c r="S17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" t="s">
         <v>117</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D18" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>44056</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>119</v>
-      </c>
-      <c r="E18" t="s">
-        <v>120</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H18" t="n">
-        <v>133493</v>
+        <v>154159</v>
       </c>
       <c r="I18" t="n">
-        <v>32.517</v>
+        <v>37.552</v>
       </c>
       <c r="J18" t="n">
-        <v>1201</v>
+        <v>1335</v>
       </c>
       <c r="K18" t="n">
-        <v>0.293</v>
+        <v>0.325</v>
       </c>
       <c r="L18" t="n">
-        <v>1168</v>
+        <v>1955</v>
       </c>
       <c r="M18" t="n">
-        <v>0.285</v>
+        <v>0.476</v>
       </c>
       <c r="N18" t="n">
-        <v>0.06</v>
+        <v>0.121</v>
       </c>
       <c r="O18" t="n">
-        <v>16.551</v>
+        <v>8.269</v>
       </c>
       <c r="P18" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q18" t="s">
         <v>120</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>121</v>
       </c>
       <c r="R18" t="s">
         <v>23</v>
       </c>
       <c r="S18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
         <v>123</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="1" t="n">
+        <v>44067</v>
+      </c>
+      <c r="D19" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>44055</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>125</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>126</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="n">
+        <v>156</v>
+      </c>
+      <c r="H19" t="n">
+        <v>369889</v>
+      </c>
+      <c r="I19" t="n">
+        <v>32.657</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4536</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4794</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="O19" t="n">
+        <v>91.689</v>
+      </c>
+      <c r="P19" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" t="n">
-        <v>144</v>
-      </c>
-      <c r="H19" t="n">
-        <v>314499</v>
-      </c>
-      <c r="I19" t="n">
-        <v>27.766</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4591</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4147</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="O19" t="n">
-        <v>74.054</v>
-      </c>
-      <c r="P19" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>128</v>
       </c>
       <c r="R19" t="s">
         <v>27</v>
       </c>
       <c r="S19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s">
         <v>130</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="1" t="n">
+        <v>44067</v>
+      </c>
+      <c r="D20" t="s">
         <v>131</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>44055</v>
-      </c>
-      <c r="D20" t="s">
-        <v>132</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="H20" t="n">
-        <v>775991</v>
+        <v>852414</v>
       </c>
       <c r="I20" t="n">
-        <v>72.462</v>
+        <v>79.598</v>
       </c>
       <c r="J20" t="n">
-        <v>7507</v>
+        <v>6835</v>
       </c>
       <c r="K20" t="n">
-        <v>0.701</v>
+        <v>0.638</v>
       </c>
       <c r="L20" t="n">
-        <v>6649</v>
+        <v>6600</v>
       </c>
       <c r="M20" t="n">
-        <v>0.621</v>
+        <v>0.616</v>
       </c>
       <c r="N20" t="n">
-        <v>0.032</v>
+        <v>0.041</v>
       </c>
       <c r="O20" t="n">
-        <v>31.091</v>
+        <v>24.176</v>
       </c>
       <c r="P20" t="s">
         <v>45</v>
       </c>
       <c r="Q20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R20" t="s">
         <v>27</v>
       </c>
       <c r="S20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
         <v>135</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="1" t="n">
+        <v>44065</v>
+      </c>
+      <c r="D21" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>44055</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>137</v>
-      </c>
-      <c r="E21" t="s">
-        <v>138</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21" t="n">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="K21" t="n">
         <v>0.005</v>
       </c>
       <c r="L21" t="n">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="M21" t="n">
         <v>0.004</v>
       </c>
       <c r="N21" t="n">
-        <v>0.126</v>
+        <v>0.089</v>
       </c>
       <c r="O21" t="n">
-        <v>7.96</v>
+        <v>11.264</v>
       </c>
       <c r="P21" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q21" t="s">
         <v>138</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>139</v>
       </c>
       <c r="R21" t="s">
         <v>54</v>
       </c>
       <c r="S21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
         <v>141</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="n">
+        <v>44067</v>
+      </c>
+      <c r="D22" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>44055</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>143</v>
-      </c>
-      <c r="E22" t="s">
-        <v>144</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="H22" t="n">
-        <v>1800366</v>
+        <v>2201733</v>
       </c>
       <c r="I22" t="n">
-        <v>310.826</v>
+        <v>380.12</v>
       </c>
       <c r="J22" t="n">
-        <v>5975</v>
+        <v>7862</v>
       </c>
       <c r="K22" t="n">
-        <v>1.032</v>
+        <v>1.357</v>
       </c>
       <c r="L22" t="n">
-        <v>22307</v>
+        <v>29920</v>
       </c>
       <c r="M22" t="n">
-        <v>3.851</v>
+        <v>5.166</v>
       </c>
       <c r="N22" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="O22" t="n">
-        <v>176.24</v>
+        <v>410.667</v>
       </c>
       <c r="P22" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22" t="s">
         <v>144</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>145</v>
       </c>
       <c r="R22" t="s">
         <v>27</v>
       </c>
       <c r="S22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" t="s">
         <v>147</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D23" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <v>44056</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>149</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>150</v>
       </c>
-      <c r="F23" t="s">
-        <v>151</v>
-      </c>
       <c r="G23" t="n">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="H23" t="n">
-        <v>214477</v>
+        <v>245983</v>
       </c>
       <c r="I23" t="n">
-        <v>12.156</v>
+        <v>13.942</v>
       </c>
       <c r="J23" t="n">
-        <v>3285</v>
+        <v>2546</v>
       </c>
       <c r="K23" t="n">
-        <v>0.186</v>
+        <v>0.144</v>
       </c>
       <c r="L23" t="n">
-        <v>2875</v>
+        <v>2564</v>
       </c>
       <c r="M23" t="n">
-        <v>0.163</v>
+        <v>0.145</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q23" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R23" t="s">
         <v>23</v>
       </c>
       <c r="S23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" t="s">
         <v>154</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="n">
+        <v>44065</v>
+      </c>
+      <c r="D24" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>44053</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>156</v>
-      </c>
-      <c r="E24" t="s">
-        <v>157</v>
       </c>
       <c r="F24"/>
       <c r="G24" t="n">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="H24" t="n">
-        <v>266079</v>
+        <v>295665</v>
       </c>
       <c r="I24" t="n">
-        <v>41.022</v>
+        <v>45.584</v>
       </c>
       <c r="J24" t="n">
-        <v>2492</v>
+        <v>2447</v>
       </c>
       <c r="K24" t="n">
-        <v>0.384</v>
+        <v>0.377</v>
       </c>
       <c r="L24" t="n">
-        <v>2470</v>
+        <v>2460</v>
       </c>
       <c r="M24" t="n">
-        <v>0.381</v>
+        <v>0.379</v>
       </c>
       <c r="N24" t="n">
-        <v>0.172</v>
+        <v>0.122</v>
       </c>
       <c r="O24" t="n">
-        <v>5.812</v>
+        <v>8.177</v>
       </c>
       <c r="P24" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" t="s">
         <v>157</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>158</v>
       </c>
       <c r="R24" t="s">
         <v>27</v>
       </c>
       <c r="S24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
         <v>160</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="1" t="n">
+        <v>44067</v>
+      </c>
+      <c r="D25" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>44056</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>162</v>
-      </c>
-      <c r="E25" t="s">
-        <v>163</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="H25" t="n">
-        <v>132270</v>
+        <v>142160</v>
       </c>
       <c r="I25" t="n">
-        <v>99.711</v>
+        <v>107.166</v>
       </c>
       <c r="J25" t="n">
-        <v>1451</v>
+        <v>1186</v>
       </c>
       <c r="K25" t="n">
-        <v>1.094</v>
+        <v>0.894</v>
       </c>
       <c r="L25" t="n">
-        <v>1207</v>
+        <v>863</v>
       </c>
       <c r="M25" t="n">
-        <v>0.91</v>
+        <v>0.651</v>
       </c>
       <c r="N25" t="n">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
       <c r="O25" t="n">
-        <v>138.508</v>
+        <v>73.671</v>
       </c>
       <c r="P25" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q25" t="s">
         <v>164</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>165</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>166</v>
-      </c>
-      <c r="S25" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" t="s">
         <v>168</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="1" t="n">
+        <v>44066</v>
+      </c>
+      <c r="D26" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>44045</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>170</v>
-      </c>
-      <c r="E26" t="s">
-        <v>171</v>
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H26" t="n">
-        <v>437319</v>
+        <v>757057</v>
       </c>
       <c r="I26" t="n">
-        <v>3.804</v>
-      </c>
-      <c r="J26"/>
-      <c r="K26"/>
+        <v>6.585</v>
+      </c>
+      <c r="J26" t="n">
+        <v>20153</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.175</v>
+      </c>
       <c r="L26" t="n">
-        <v>7575</v>
+        <v>21085</v>
       </c>
       <c r="M26" t="n">
-        <v>0.066</v>
+        <v>0.183</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1</v>
+        <v>0.069</v>
       </c>
       <c r="O26" t="n">
-        <v>9.993</v>
+        <v>14.557</v>
       </c>
       <c r="P26" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q26" t="s">
         <v>171</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>172</v>
       </c>
       <c r="R26" t="s">
         <v>27</v>
       </c>
       <c r="S26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" t="s">
         <v>174</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="1" t="n">
+        <v>44066</v>
+      </c>
+      <c r="D27" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="1" t="n">
-        <v>44051</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>176</v>
-      </c>
-      <c r="E27" t="s">
-        <v>177</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="H27" t="n">
-        <v>7334</v>
+        <v>7979</v>
       </c>
       <c r="I27" t="n">
-        <v>8.181</v>
+        <v>8.901</v>
       </c>
       <c r="J27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K27" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="L27" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M27" t="n">
-        <v>0.064</v>
+        <v>0.057</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27"/>
+        <v>0.003</v>
+      </c>
+      <c r="O27" t="n">
+        <v>357</v>
+      </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R27" t="s">
         <v>27</v>
       </c>
       <c r="S27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" t="s">
         <v>179</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="1" t="n">
+        <v>44066</v>
+      </c>
+      <c r="D28" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>44054</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>181</v>
-      </c>
-      <c r="E28" t="s">
-        <v>182</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="H28" t="n">
-        <v>440037</v>
+        <v>571675</v>
       </c>
       <c r="I28" t="n">
-        <v>79.419</v>
+        <v>103.177</v>
       </c>
       <c r="J28" t="n">
-        <v>6996</v>
+        <v>6146</v>
       </c>
       <c r="K28" t="n">
-        <v>1.263</v>
+        <v>1.109</v>
       </c>
       <c r="L28" t="n">
-        <v>6616</v>
+        <v>10338</v>
       </c>
       <c r="M28" t="n">
-        <v>1.194</v>
+        <v>1.866</v>
       </c>
       <c r="N28" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="O28" t="n">
-        <v>343.052</v>
+        <v>479.245</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R28" t="s">
         <v>54</v>
       </c>
       <c r="S28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" t="s">
         <v>185</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="1" t="n">
+        <v>44064</v>
+      </c>
+      <c r="D29" t="s">
         <v>186</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>44053</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>187</v>
-      </c>
-      <c r="E29" t="s">
-        <v>188</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29" t="n">
-        <v>97453</v>
+        <v>127561</v>
       </c>
       <c r="K29" t="n">
-        <v>1.493</v>
+        <v>1.954</v>
       </c>
       <c r="L29" t="n">
-        <v>77189</v>
+        <v>97097</v>
       </c>
       <c r="M29" t="n">
-        <v>1.183</v>
+        <v>1.488</v>
       </c>
       <c r="N29" t="n">
-        <v>0.019</v>
+        <v>0.03</v>
       </c>
       <c r="O29" t="n">
-        <v>54.021</v>
+        <v>33.238</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R29" t="s">
         <v>23</v>
       </c>
       <c r="S29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C30" s="1" t="n">
         <v>43956</v>
       </c>
       <c r="D30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" t="s">
         <v>191</v>
-      </c>
-      <c r="E30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30" t="s">
-        <v>192</v>
       </c>
       <c r="G30" t="n">
         <v>24</v>
@@ -4182,202 +4203,202 @@
         <v>17.496</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R30" t="s">
         <v>27</v>
       </c>
       <c r="S30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" t="s">
         <v>195</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="1" t="n">
+        <v>44059</v>
+      </c>
+      <c r="D31" t="s">
         <v>196</v>
       </c>
-      <c r="C31" s="1" t="n">
-        <v>44052</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>197</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>198</v>
       </c>
-      <c r="F31" t="s">
-        <v>199</v>
-      </c>
       <c r="G31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H31" t="n">
-        <v>9265361</v>
+        <v>10197366</v>
       </c>
       <c r="I31" t="n">
-        <v>110.586</v>
+        <v>121.71</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31" t="n">
-        <v>96024</v>
+        <v>125075</v>
       </c>
       <c r="M31" t="n">
-        <v>1.146</v>
+        <v>1.493</v>
       </c>
       <c r="N31" t="n">
         <v>0.009</v>
       </c>
       <c r="O31" t="n">
-        <v>112.065</v>
+        <v>115.08</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q31" t="s">
+        <v>199</v>
+      </c>
+      <c r="R31" t="s">
         <v>200</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>201</v>
-      </c>
-      <c r="S31" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" t="s">
         <v>203</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="1" t="n">
+        <v>44064</v>
+      </c>
+      <c r="D32" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="1" t="n">
-        <v>44054</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>205</v>
-      </c>
-      <c r="E32" t="s">
-        <v>206</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H32" t="n">
-        <v>421588</v>
+        <v>435109</v>
       </c>
       <c r="I32" t="n">
-        <v>13.568</v>
+        <v>14.003</v>
       </c>
       <c r="J32" t="n">
-        <v>1998</v>
+        <v>1606</v>
       </c>
       <c r="K32" t="n">
-        <v>0.064</v>
+        <v>0.052</v>
       </c>
       <c r="L32" t="n">
-        <v>1745</v>
+        <v>1306</v>
       </c>
       <c r="M32" t="n">
-        <v>0.056</v>
+        <v>0.042</v>
       </c>
       <c r="N32" t="n">
-        <v>0.278</v>
+        <v>0.155</v>
       </c>
       <c r="O32" t="n">
-        <v>3.593</v>
+        <v>6.47</v>
       </c>
       <c r="P32" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q32" t="s">
         <v>207</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>208</v>
       </c>
       <c r="R32" t="s">
         <v>54</v>
       </c>
       <c r="S32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" t="s">
         <v>210</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D33" t="s">
         <v>211</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>44056</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>212</v>
-      </c>
-      <c r="E33" t="s">
-        <v>213</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="H33" t="n">
-        <v>687338</v>
+        <v>872550</v>
       </c>
       <c r="I33" t="n">
-        <v>65.944</v>
+        <v>83.713</v>
       </c>
       <c r="J33" t="n">
-        <v>7553</v>
+        <v>14412</v>
       </c>
       <c r="K33" t="n">
-        <v>0.725</v>
+        <v>1.383</v>
       </c>
       <c r="L33" t="n">
-        <v>9706</v>
+        <v>18811</v>
       </c>
       <c r="M33" t="n">
-        <v>0.931</v>
+        <v>1.805</v>
       </c>
       <c r="N33" t="n">
-        <v>0.018</v>
+        <v>0.012</v>
       </c>
       <c r="O33" t="n">
-        <v>56.43</v>
+        <v>82.453</v>
       </c>
       <c r="P33" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q33" t="s">
         <v>214</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>215</v>
       </c>
       <c r="R33" t="s">
         <v>54</v>
       </c>
       <c r="S33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34" t="s">
         <v>217</v>
-      </c>
-      <c r="B34" t="s">
-        <v>218</v>
       </c>
       <c r="C34" s="1" t="n">
         <v>44054</v>
       </c>
       <c r="D34" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" t="s">
         <v>219</v>
-      </c>
-      <c r="E34" t="s">
-        <v>220</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
@@ -4400,152 +4421,152 @@
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q34" t="s">
         <v>221</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>222</v>
       </c>
       <c r="R34" t="s">
         <v>27</v>
       </c>
       <c r="S34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" t="s">
         <v>224</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="n">
+        <v>44067</v>
+      </c>
+      <c r="D35" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>44053</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>226</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>227</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="n">
+        <v>172</v>
+      </c>
+      <c r="H35" t="n">
+        <v>398550</v>
+      </c>
+      <c r="I35" t="n">
+        <v>41.256</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1458</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2517</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="O35" t="n">
+        <v>73.72</v>
+      </c>
+      <c r="P35" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q35" t="s">
         <v>228</v>
       </c>
-      <c r="G35" t="n">
-        <v>158</v>
-      </c>
-      <c r="H35" t="n">
-        <v>362660</v>
-      </c>
-      <c r="I35" t="n">
-        <v>37.541</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1888</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2243</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.232</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O35" t="n">
-        <v>97.522</v>
-      </c>
-      <c r="P35" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>229</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>230</v>
-      </c>
-      <c r="S35" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B36" t="s">
         <v>232</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="n">
+        <v>44067</v>
+      </c>
+      <c r="D36" t="s">
         <v>233</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>44055</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>234</v>
-      </c>
-      <c r="E36" t="s">
-        <v>235</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="H36" t="n">
-        <v>80724</v>
+        <v>85805</v>
       </c>
       <c r="I36" t="n">
-        <v>236.554</v>
+        <v>251.443</v>
       </c>
       <c r="J36" t="n">
-        <v>722</v>
+        <v>602</v>
       </c>
       <c r="K36" t="n">
-        <v>2.116</v>
+        <v>1.764</v>
       </c>
       <c r="L36" t="n">
-        <v>651</v>
+        <v>472</v>
       </c>
       <c r="M36" t="n">
-        <v>1.908</v>
+        <v>1.383</v>
       </c>
       <c r="N36" t="n">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="O36" t="n">
-        <v>91.14</v>
+        <v>62.34</v>
       </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R36" t="s">
         <v>27</v>
       </c>
       <c r="S36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B37" t="s">
         <v>237</v>
-      </c>
-      <c r="B37" t="s">
-        <v>238</v>
       </c>
       <c r="C37" s="1" t="n">
         <v>43944</v>
       </c>
       <c r="D37" t="s">
+        <v>238</v>
+      </c>
+      <c r="E37" t="s">
         <v>239</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>240</v>
-      </c>
-      <c r="F37" t="s">
-        <v>241</v>
       </c>
       <c r="G37" t="n">
         <v>24</v>
@@ -4575,297 +4596,289 @@
         <v>22.991</v>
       </c>
       <c r="P37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R37" t="s">
         <v>23</v>
       </c>
       <c r="S37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44056</v>
+        <v>44067</v>
       </c>
       <c r="D38" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" t="s">
         <v>239</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>240</v>
       </c>
-      <c r="F38" t="s">
-        <v>241</v>
-      </c>
       <c r="G38" t="n">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="H38" t="n">
-        <v>27694416</v>
+        <v>36827520</v>
       </c>
       <c r="I38" t="n">
-        <v>20.068</v>
-      </c>
-      <c r="J38" t="n">
-        <v>848728</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.615</v>
-      </c>
+        <v>26.687</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38"/>
       <c r="L38" t="n">
-        <v>700860</v>
+        <v>840894</v>
       </c>
       <c r="M38" t="n">
-        <v>0.508</v>
+        <v>0.609</v>
       </c>
       <c r="N38" t="n">
-        <v>0.088</v>
+        <v>0.078</v>
       </c>
       <c r="O38" t="n">
-        <v>11.354</v>
+        <v>12.833</v>
       </c>
       <c r="P38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R38" t="s">
         <v>54</v>
       </c>
       <c r="S38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>243</v>
+      </c>
+      <c r="B39" t="s">
         <v>244</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D39" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="1" t="n">
-        <v>44056</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>246</v>
-      </c>
-      <c r="E39" t="s">
-        <v>247</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H39" t="n">
-        <v>1026954</v>
+        <v>1191948</v>
       </c>
       <c r="I39" t="n">
-        <v>3.755</v>
-      </c>
-      <c r="J39" t="n">
-        <v>14850</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.054</v>
-      </c>
+        <v>4.358</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
       <c r="L39" t="n">
-        <v>12949</v>
+        <v>15799</v>
       </c>
       <c r="M39" t="n">
-        <v>0.047</v>
+        <v>0.058</v>
       </c>
       <c r="N39" t="n">
-        <v>0.153</v>
+        <v>0.127</v>
       </c>
       <c r="O39" t="n">
-        <v>6.546</v>
+        <v>7.876</v>
       </c>
       <c r="P39" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q39" t="s">
         <v>247</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>248</v>
       </c>
       <c r="R39" t="s">
         <v>23</v>
       </c>
       <c r="S39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>249</v>
+      </c>
+      <c r="B40" t="s">
         <v>250</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D40" t="s">
         <v>251</v>
       </c>
-      <c r="C40" s="1" t="n">
-        <v>44055</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>252</v>
-      </c>
-      <c r="E40" t="s">
-        <v>253</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="H40" t="n">
-        <v>2763225</v>
+        <v>3088313</v>
       </c>
       <c r="I40" t="n">
-        <v>32.898</v>
+        <v>36.769</v>
       </c>
       <c r="J40" t="n">
-        <v>26711</v>
+        <v>25891</v>
       </c>
       <c r="K40" t="n">
-        <v>0.318</v>
+        <v>0.308</v>
       </c>
       <c r="L40" t="n">
-        <v>25163</v>
+        <v>24895</v>
       </c>
       <c r="M40" t="n">
-        <v>0.3</v>
+        <v>0.296</v>
       </c>
       <c r="N40" t="n">
-        <v>0.093</v>
+        <v>0.077</v>
       </c>
       <c r="O40" t="n">
-        <v>10.738</v>
+        <v>12.952</v>
       </c>
       <c r="P40" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q40" t="s">
         <v>253</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>254</v>
       </c>
       <c r="R40" t="s">
         <v>27</v>
       </c>
       <c r="S40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" t="s">
         <v>256</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="n">
+        <v>44066</v>
+      </c>
+      <c r="D41" t="s">
         <v>257</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>44056</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>258</v>
-      </c>
-      <c r="E41" t="s">
-        <v>259</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="H41" t="n">
-        <v>687699</v>
+        <v>1433626</v>
       </c>
       <c r="I41" t="n">
-        <v>139.272</v>
+        <v>35.642</v>
       </c>
       <c r="J41" t="n">
-        <v>7072</v>
+        <v>19679</v>
       </c>
       <c r="K41" t="n">
-        <v>1.432</v>
+        <v>0.489</v>
       </c>
       <c r="L41" t="n">
-        <v>4969</v>
+        <v>21528</v>
       </c>
       <c r="M41" t="n">
-        <v>1.006</v>
+        <v>0.535</v>
       </c>
       <c r="N41" t="n">
-        <v>0.015</v>
+        <v>0.189</v>
       </c>
       <c r="O41" t="n">
-        <v>65.015</v>
+        <v>5.294</v>
       </c>
       <c r="P41" t="s">
         <v>259</v>
       </c>
       <c r="Q41" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="R41" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="S41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44049</v>
+        <v>44068</v>
       </c>
       <c r="D42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="H42" t="n">
-        <v>1896525</v>
+        <v>782633</v>
       </c>
       <c r="I42" t="n">
-        <v>219.111</v>
+        <v>158.498</v>
       </c>
       <c r="J42" t="n">
-        <v>28799</v>
+        <v>4998</v>
       </c>
       <c r="K42" t="n">
-        <v>3.327</v>
+        <v>1.012</v>
       </c>
       <c r="L42" t="n">
-        <v>20704</v>
+        <v>7531</v>
       </c>
       <c r="M42" t="n">
-        <v>2.392</v>
+        <v>1.525</v>
       </c>
       <c r="N42" t="n">
-        <v>0.067</v>
+        <v>0.015</v>
       </c>
       <c r="O42" t="n">
-        <v>14.837</v>
+        <v>65.65</v>
       </c>
       <c r="P42" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="Q42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R42" t="s">
         <v>27</v>
@@ -4882,7 +4895,7 @@
         <v>268</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44056</v>
+        <v>44062</v>
       </c>
       <c r="D43" t="s">
         <v>269</v>
@@ -4890,335 +4903,335 @@
       <c r="E43" t="s">
         <v>270</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43"/>
+      <c r="G43" t="n">
+        <v>200</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2175060</v>
+      </c>
+      <c r="I43" t="n">
+        <v>251.291</v>
+      </c>
+      <c r="J43" t="n">
+        <v>28401</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.281</v>
+      </c>
+      <c r="L43" t="n">
+        <v>21993</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.541</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="O43" t="n">
+        <v>16.291</v>
+      </c>
+      <c r="P43" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q43" t="s">
         <v>271</v>
       </c>
-      <c r="G43" t="n">
-        <v>117</v>
-      </c>
-      <c r="H43" t="n">
-        <v>4382656</v>
-      </c>
-      <c r="I43" t="n">
-        <v>72.486</v>
-      </c>
-      <c r="J43" t="n">
-        <v>25629</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.424</v>
-      </c>
-      <c r="L43" t="n">
-        <v>23675</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.392</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="O43" t="n">
-        <v>56.95</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="R43" t="s">
+        <v>27</v>
+      </c>
+      <c r="S43" t="s">
         <v>272</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>273</v>
-      </c>
-      <c r="R43" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D44" t="s">
         <v>275</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>44056</v>
-      </c>
-      <c r="D44" t="s">
-        <v>269</v>
-      </c>
       <c r="E44" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F44" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G44" t="n">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="H44" t="n">
-        <v>7420764</v>
+        <v>4819124</v>
       </c>
       <c r="I44" t="n">
-        <v>122.735</v>
+        <v>79.705</v>
       </c>
       <c r="J44" t="n">
-        <v>51188</v>
+        <v>45798</v>
       </c>
       <c r="K44" t="n">
-        <v>0.847</v>
+        <v>0.757</v>
       </c>
       <c r="L44" t="n">
-        <v>45864</v>
+        <v>44161</v>
       </c>
       <c r="M44" t="n">
-        <v>0.759</v>
+        <v>0.73</v>
       </c>
       <c r="N44" t="n">
-        <v>0.009</v>
+        <v>0.02</v>
       </c>
       <c r="O44" t="n">
-        <v>110.326</v>
+        <v>50.986</v>
       </c>
       <c r="P44" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q44" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="R44" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S44" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45" t="s">
+        <v>281</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D45" t="s">
+        <v>275</v>
+      </c>
+      <c r="E45" t="s">
+        <v>276</v>
+      </c>
+      <c r="F45" t="s">
         <v>277</v>
       </c>
-      <c r="B45" t="s">
+      <c r="G45" t="n">
+        <v>184</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8125892</v>
+      </c>
+      <c r="I45" t="n">
+        <v>134.397</v>
+      </c>
+      <c r="J45" t="n">
+        <v>72341</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.196</v>
+      </c>
+      <c r="L45" t="n">
+        <v>69119</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="O45" t="n">
+        <v>79.801</v>
+      </c>
+      <c r="P45" t="s">
         <v>278</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>44056</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="Q45" t="s">
         <v>279</v>
       </c>
-      <c r="E45" t="s">
-        <v>280</v>
-      </c>
-      <c r="F45" t="s">
-        <v>281</v>
-      </c>
-      <c r="G45" t="n">
-        <v>182</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1085322</v>
-      </c>
-      <c r="I45" t="n">
-        <v>8.581</v>
-      </c>
-      <c r="J45" t="n">
-        <v>27158</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.215</v>
-      </c>
-      <c r="L45" t="n">
-        <v>20940</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.166</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="O45" t="n">
-        <v>17.917</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="R45" t="s">
+        <v>27</v>
+      </c>
+      <c r="S45" t="s">
         <v>282</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>283</v>
-      </c>
-      <c r="R45" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D46" t="s">
         <v>285</v>
       </c>
-      <c r="C46" s="1" t="n">
-        <v>44054</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>286</v>
-      </c>
-      <c r="E46" t="s">
-        <v>280</v>
       </c>
       <c r="F46" t="s">
         <v>287</v>
       </c>
       <c r="G46" t="n">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="H46" t="n">
-        <v>1405649</v>
+        <v>1357628</v>
       </c>
       <c r="I46" t="n">
-        <v>11.114</v>
+        <v>10.734</v>
       </c>
       <c r="J46" t="n">
-        <v>22672</v>
+        <v>23744</v>
       </c>
       <c r="K46" t="n">
-        <v>0.179</v>
+        <v>0.188</v>
       </c>
       <c r="L46" t="n">
-        <v>24256</v>
+        <v>20498</v>
       </c>
       <c r="M46" t="n">
-        <v>0.192</v>
+        <v>0.162</v>
       </c>
       <c r="N46" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
       <c r="O46" t="n">
-        <v>20.262</v>
+        <v>20.032</v>
       </c>
       <c r="P46" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="Q46" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="R46" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S46" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" t="s">
+        <v>291</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>44065</v>
+      </c>
+      <c r="D47" t="s">
+        <v>292</v>
+      </c>
+      <c r="E47" t="s">
+        <v>286</v>
+      </c>
+      <c r="F47" t="s">
+        <v>293</v>
+      </c>
+      <c r="G47" t="n">
+        <v>45</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1661966</v>
+      </c>
+      <c r="I47" t="n">
+        <v>13.141</v>
+      </c>
+      <c r="J47" t="n">
+        <v>20461</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.162</v>
+      </c>
+      <c r="L47" t="n">
+        <v>22585</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="O47" t="n">
+        <v>22.093</v>
+      </c>
+      <c r="P47" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q47" t="s">
         <v>289</v>
-      </c>
-      <c r="B47" t="s">
-        <v>290</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>44054</v>
-      </c>
-      <c r="D47" t="s">
-        <v>291</v>
-      </c>
-      <c r="E47" t="s">
-        <v>292</v>
-      </c>
-      <c r="F47"/>
-      <c r="G47" t="n">
-        <v>149</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2236924</v>
-      </c>
-      <c r="I47" t="n">
-        <v>119.133</v>
-      </c>
-      <c r="J47" t="n">
-        <v>10055</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.536</v>
-      </c>
-      <c r="L47" t="n">
-        <v>15795</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.841</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="O47" t="n">
-        <v>17.428</v>
-      </c>
-      <c r="P47" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>291</v>
       </c>
       <c r="R47" t="s">
         <v>27</v>
       </c>
       <c r="S47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44054</v>
+        <v>44057</v>
       </c>
       <c r="D48" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E48" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="H48" t="n">
-        <v>362501</v>
+        <v>2291327</v>
       </c>
       <c r="I48" t="n">
-        <v>6.742</v>
+        <v>122.03</v>
       </c>
       <c r="J48" t="n">
-        <v>4171</v>
+        <v>19573</v>
       </c>
       <c r="K48" t="n">
-        <v>0.078</v>
+        <v>1.042</v>
       </c>
       <c r="L48" t="n">
-        <v>5654</v>
+        <v>15431</v>
       </c>
       <c r="M48" t="n">
-        <v>0.105</v>
+        <v>0.822</v>
       </c>
       <c r="N48" t="n">
-        <v>0.109</v>
+        <v>0.098</v>
       </c>
       <c r="O48" t="n">
-        <v>9.138</v>
+        <v>10.206</v>
       </c>
       <c r="P48" t="s">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="Q48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="R48" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="S48" t="s">
         <v>299</v>
@@ -5232,7 +5245,7 @@
         <v>301</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44056</v>
+        <v>44066</v>
       </c>
       <c r="D49" t="s">
         <v>302</v>
@@ -5242,40 +5255,40 @@
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="H49" t="n">
-        <v>548005</v>
+        <v>421983</v>
       </c>
       <c r="I49" t="n">
-        <v>128.321</v>
+        <v>7.848</v>
       </c>
       <c r="J49" t="n">
-        <v>4147</v>
+        <v>4179</v>
       </c>
       <c r="K49" t="n">
-        <v>0.971</v>
+        <v>0.078</v>
       </c>
       <c r="L49" t="n">
-        <v>3686</v>
+        <v>4367</v>
       </c>
       <c r="M49" t="n">
-        <v>0.863</v>
+        <v>0.081</v>
       </c>
       <c r="N49" t="n">
-        <v>0.169</v>
+        <v>0.074</v>
       </c>
       <c r="O49" t="n">
-        <v>5.918</v>
+        <v>13.472</v>
       </c>
       <c r="P49" t="s">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="Q49" t="s">
         <v>304</v>
       </c>
       <c r="R49" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="S49" t="s">
         <v>305</v>
@@ -5289,7 +5302,7 @@
         <v>307</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44057</v>
+        <v>44067</v>
       </c>
       <c r="D50" t="s">
         <v>308</v>
@@ -5297,41 +5310,39 @@
       <c r="E50" t="s">
         <v>309</v>
       </c>
-      <c r="F50" t="s">
-        <v>310</v>
-      </c>
+      <c r="F50"/>
       <c r="G50" t="n">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="H50" t="n">
-        <v>222531</v>
+        <v>590623</v>
       </c>
       <c r="I50" t="n">
-        <v>117.978</v>
+        <v>138.301</v>
       </c>
       <c r="J50" t="n">
-        <v>1704</v>
+        <v>3056</v>
       </c>
       <c r="K50" t="n">
-        <v>0.903</v>
+        <v>0.716</v>
       </c>
       <c r="L50" t="n">
-        <v>1784</v>
+        <v>3927</v>
       </c>
       <c r="M50" t="n">
-        <v>0.946</v>
+        <v>0.92</v>
       </c>
       <c r="N50" t="n">
-        <v>0.003</v>
+        <v>0.157</v>
       </c>
       <c r="O50" t="n">
-        <v>390.25</v>
+        <v>6.359</v>
       </c>
       <c r="P50" t="s">
         <v>309</v>
       </c>
       <c r="Q50" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="R50" t="s">
         <v>27</v>
@@ -5348,271 +5359,269 @@
         <v>313</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44057</v>
+        <v>44069</v>
       </c>
       <c r="D51" t="s">
         <v>314</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51"/>
+        <v>315</v>
+      </c>
+      <c r="F51" t="s">
+        <v>316</v>
+      </c>
       <c r="G51" t="n">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c r="H51" t="n">
-        <v>570657</v>
+        <v>242823</v>
       </c>
       <c r="I51" t="n">
-        <v>209.624</v>
+        <v>128.736</v>
       </c>
       <c r="J51" t="n">
-        <v>4875</v>
+        <v>2290</v>
       </c>
       <c r="K51" t="n">
-        <v>1.791</v>
+        <v>1.214</v>
       </c>
       <c r="L51" t="n">
-        <v>3614</v>
+        <v>1700</v>
       </c>
       <c r="M51" t="n">
-        <v>1.328</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="O51" t="n">
-        <v>159.107</v>
-      </c>
+        <v>0.901</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51"/>
       <c r="P51" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="Q51" t="s">
         <v>314</v>
       </c>
       <c r="R51" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="S51" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44055</v>
+        <v>44068</v>
       </c>
       <c r="D52" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E52" t="s">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="H52" t="n">
-        <v>455347</v>
+        <v>613324</v>
       </c>
       <c r="I52" t="n">
-        <v>727.419</v>
+        <v>225.297</v>
       </c>
       <c r="J52" t="n">
-        <v>1649</v>
+        <v>4557</v>
       </c>
       <c r="K52" t="n">
-        <v>2.634</v>
+        <v>1.674</v>
       </c>
       <c r="L52" t="n">
-        <v>1740</v>
+        <v>4098</v>
       </c>
       <c r="M52" t="n">
-        <v>2.78</v>
+        <v>1.505</v>
       </c>
       <c r="N52" t="n">
-        <v>0.027</v>
+        <v>0.008</v>
       </c>
       <c r="O52" t="n">
-        <v>37.477</v>
+        <v>121.038</v>
       </c>
       <c r="P52" t="s">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="Q52" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="R52" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="S52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B53" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44056</v>
+        <v>44067</v>
       </c>
       <c r="D53" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E53" t="s">
+        <v>325</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53" t="n">
+        <v>180</v>
+      </c>
+      <c r="H53" t="n">
+        <v>474282</v>
+      </c>
+      <c r="I53" t="n">
+        <v>757.668</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1025</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.637</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1725</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2.756</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="O53" t="n">
+        <v>45.566</v>
+      </c>
+      <c r="P53" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q53" t="s">
         <v>324</v>
-      </c>
-      <c r="F53" t="s">
-        <v>325</v>
-      </c>
-      <c r="G53" t="n">
-        <v>156</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1085040</v>
-      </c>
-      <c r="I53" t="n">
-        <v>33.524</v>
-      </c>
-      <c r="J53" t="n">
-        <v>11020</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="L53" t="n">
-        <v>10340</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.319</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="O53" t="n">
-        <v>795.385</v>
-      </c>
-      <c r="P53" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>326</v>
       </c>
       <c r="R53" t="s">
         <v>23</v>
       </c>
       <c r="S53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>327</v>
+      </c>
+      <c r="B54" t="s">
         <v>328</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D54" t="s">
         <v>329</v>
       </c>
-      <c r="C54" s="1" t="n">
-        <v>44056</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>330</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>331</v>
       </c>
-      <c r="F54"/>
       <c r="G54" t="n">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="H54" t="n">
-        <v>93098</v>
+        <v>1191500</v>
       </c>
       <c r="I54" t="n">
-        <v>172.231</v>
+        <v>36.813</v>
       </c>
       <c r="J54" t="n">
-        <v>1195</v>
+        <v>8655</v>
       </c>
       <c r="K54" t="n">
-        <v>2.211</v>
+        <v>0.267</v>
       </c>
       <c r="L54" t="n">
-        <v>1073</v>
+        <v>8916</v>
       </c>
       <c r="M54" t="n">
-        <v>1.985</v>
+        <v>0.275</v>
       </c>
       <c r="N54" t="n">
-        <v>0.103</v>
+        <v>0.001</v>
       </c>
       <c r="O54" t="n">
-        <v>9.729</v>
+        <v>1006.645</v>
       </c>
       <c r="P54" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q54" t="s">
         <v>332</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="R54" t="s">
+        <v>23</v>
+      </c>
+      <c r="S54" t="s">
         <v>333</v>
-      </c>
-      <c r="R54" t="s">
-        <v>54</v>
-      </c>
-      <c r="S54" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>334</v>
+      </c>
+      <c r="B55" t="s">
         <v>335</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="1" t="n">
+        <v>44067</v>
+      </c>
+      <c r="D55" t="s">
         <v>336</v>
       </c>
-      <c r="C55" s="1" t="n">
-        <v>44049</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>337</v>
-      </c>
-      <c r="E55" t="s">
-        <v>338</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="H55" t="n">
-        <v>138427</v>
+        <v>104631</v>
       </c>
       <c r="I55" t="n">
-        <v>313.51</v>
+        <v>193.567</v>
       </c>
       <c r="J55" t="n">
-        <v>1717</v>
+        <v>977</v>
       </c>
       <c r="K55" t="n">
-        <v>3.889</v>
+        <v>1.807</v>
       </c>
       <c r="L55" t="n">
-        <v>1633</v>
+        <v>1060</v>
       </c>
       <c r="M55" t="n">
-        <v>3.698</v>
+        <v>1.961</v>
       </c>
       <c r="N55" t="n">
-        <v>0.011</v>
+        <v>0.134</v>
       </c>
       <c r="O55" t="n">
-        <v>94.471</v>
+        <v>7.465</v>
       </c>
       <c r="P55" t="s">
         <v>338</v>
@@ -5621,7 +5630,7 @@
         <v>339</v>
       </c>
       <c r="R55" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="S55" t="s">
         <v>340</v>
@@ -5635,7 +5644,7 @@
         <v>342</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44053</v>
+        <v>44065</v>
       </c>
       <c r="D56" t="s">
         <v>343</v>
@@ -5645,88 +5654,88 @@
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="H56" t="n">
-        <v>1054609</v>
+        <v>173263</v>
       </c>
       <c r="I56" t="n">
-        <v>8.18</v>
+        <v>392.407</v>
       </c>
       <c r="J56" t="n">
-        <v>7727</v>
+        <v>2173</v>
       </c>
       <c r="K56" t="n">
-        <v>0.06</v>
+        <v>4.921</v>
       </c>
       <c r="L56" t="n">
-        <v>9383</v>
+        <v>2373</v>
       </c>
       <c r="M56" t="n">
-        <v>0.073</v>
+        <v>5.374</v>
       </c>
       <c r="N56" t="n">
-        <v>0.628</v>
+        <v>0.016</v>
       </c>
       <c r="O56" t="n">
-        <v>1.593</v>
+        <v>61.981</v>
       </c>
       <c r="P56" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q56" t="s">
         <v>345</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="R56" t="s">
+        <v>27</v>
+      </c>
+      <c r="S56" t="s">
         <v>346</v>
-      </c>
-      <c r="R56" t="s">
-        <v>23</v>
-      </c>
-      <c r="S56" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>347</v>
+      </c>
+      <c r="B57" t="s">
         <v>348</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" s="1" t="n">
+        <v>44064</v>
+      </c>
+      <c r="D57" t="s">
         <v>349</v>
       </c>
-      <c r="C57" s="1" t="n">
-        <v>44056</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>350</v>
-      </c>
-      <c r="E57" t="s">
-        <v>351</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>173</v>
+        <v>234</v>
       </c>
       <c r="H57" t="n">
-        <v>1538520</v>
+        <v>1193262</v>
       </c>
       <c r="I57" t="n">
-        <v>41.682</v>
+        <v>9.255</v>
       </c>
       <c r="J57" t="n">
-        <v>22118</v>
+        <v>6833</v>
       </c>
       <c r="K57" t="n">
-        <v>0.599</v>
+        <v>0.053</v>
       </c>
       <c r="L57" t="n">
-        <v>22101</v>
+        <v>9035</v>
       </c>
       <c r="M57" t="n">
-        <v>0.599</v>
+        <v>0.07</v>
       </c>
       <c r="N57" t="n">
-        <v>0.053</v>
+        <v>0.602</v>
       </c>
       <c r="O57" t="n">
-        <v>18.881</v>
+        <v>1.662</v>
       </c>
       <c r="P57" t="s">
         <v>351</v>
@@ -5749,7 +5758,7 @@
         <v>355</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44052</v>
+        <v>44067</v>
       </c>
       <c r="D58" t="s">
         <v>356</v>
@@ -5759,31 +5768,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="H58" t="n">
-        <v>126828</v>
+        <v>1779980</v>
       </c>
       <c r="I58" t="n">
-        <v>2.331</v>
+        <v>48.224</v>
       </c>
       <c r="J58" t="n">
-        <v>1001</v>
+        <v>21110</v>
       </c>
       <c r="K58" t="n">
-        <v>0.018</v>
+        <v>0.572</v>
       </c>
       <c r="L58" t="n">
-        <v>1098</v>
+        <v>21881</v>
       </c>
       <c r="M58" t="n">
-        <v>0.02</v>
+        <v>0.593</v>
       </c>
       <c r="N58" t="n">
-        <v>0.001</v>
+        <v>0.054</v>
       </c>
       <c r="O58" t="n">
-        <v>1281</v>
+        <v>18.403</v>
       </c>
       <c r="P58" t="s">
         <v>357</v>
@@ -5792,7 +5801,7 @@
         <v>358</v>
       </c>
       <c r="R58" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="S58" t="s">
         <v>359</v>
@@ -5806,7 +5815,7 @@
         <v>361</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44056</v>
+        <v>44065</v>
       </c>
       <c r="D59" t="s">
         <v>362</v>
@@ -5816,31 +5825,31 @@
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="H59" t="n">
-        <v>483038</v>
+        <v>145167</v>
       </c>
       <c r="I59" t="n">
-        <v>16.578</v>
+        <v>2.668</v>
       </c>
       <c r="J59" t="n">
-        <v>9859</v>
+        <v>1113</v>
       </c>
       <c r="K59" t="n">
-        <v>0.338</v>
+        <v>0.02</v>
       </c>
       <c r="L59" t="n">
-        <v>9066</v>
+        <v>1395</v>
       </c>
       <c r="M59" t="n">
-        <v>0.311</v>
+        <v>0.026</v>
       </c>
       <c r="N59" t="n">
-        <v>0.048</v>
+        <v>0.006</v>
       </c>
       <c r="O59" t="n">
-        <v>20.862</v>
+        <v>160.082</v>
       </c>
       <c r="P59" t="s">
         <v>363</v>
@@ -5849,7 +5858,7 @@
         <v>364</v>
       </c>
       <c r="R59" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="S59" t="s">
         <v>365</v>
@@ -5863,7 +5872,7 @@
         <v>367</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44052</v>
+        <v>44062</v>
       </c>
       <c r="D60" t="s">
         <v>368</v>
@@ -5873,150 +5882,150 @@
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="H60" t="n">
-        <v>1195475</v>
+        <v>554388</v>
       </c>
       <c r="I60" t="n">
-        <v>69.769</v>
-      </c>
-      <c r="J60"/>
-      <c r="K60"/>
+        <v>19.027</v>
+      </c>
+      <c r="J60" t="n">
+        <v>11522</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.395</v>
+      </c>
       <c r="L60" t="n">
-        <v>15822</v>
+        <v>11601</v>
       </c>
       <c r="M60" t="n">
-        <v>0.923</v>
+        <v>0.398</v>
       </c>
       <c r="N60" t="n">
-        <v>0.029</v>
+        <v>0.053</v>
       </c>
       <c r="O60" t="n">
-        <v>34.026</v>
+        <v>18.846</v>
       </c>
       <c r="P60" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q60" t="s">
         <v>370</v>
       </c>
-      <c r="Q60" t="s">
+      <c r="R60" t="s">
+        <v>27</v>
+      </c>
+      <c r="S60" t="s">
         <v>371</v>
-      </c>
-      <c r="R60" t="s">
-        <v>23</v>
-      </c>
-      <c r="S60" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>372</v>
+      </c>
+      <c r="B61" t="s">
         <v>373</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" s="1" t="n">
+        <v>44066</v>
+      </c>
+      <c r="D61" t="s">
         <v>374</v>
       </c>
-      <c r="C61" s="1" t="n">
-        <v>44056</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>375</v>
-      </c>
-      <c r="E61" t="s">
-        <v>45</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="n">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="H61" t="n">
-        <v>524414</v>
+        <v>1464715</v>
       </c>
       <c r="I61" t="n">
-        <v>108.749</v>
-      </c>
-      <c r="J61" t="n">
-        <v>15703</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3.256</v>
-      </c>
+        <v>85.482</v>
+      </c>
+      <c r="J61"/>
+      <c r="K61"/>
       <c r="L61" t="n">
-        <v>5353</v>
+        <v>20079</v>
       </c>
       <c r="M61" t="n">
-        <v>1.11</v>
+        <v>1.172</v>
       </c>
       <c r="N61" t="n">
-        <v>0.001</v>
+        <v>0.026</v>
       </c>
       <c r="O61" t="n">
-        <v>1972.158</v>
+        <v>39.075</v>
       </c>
       <c r="P61" t="s">
         <v>376</v>
       </c>
       <c r="Q61" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="R61" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S61" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B62" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44056</v>
+        <v>44068</v>
       </c>
       <c r="D62" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E62" t="s">
-        <v>381</v>
+        <v>45</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="H62" t="n">
-        <v>341421</v>
+        <v>710063</v>
       </c>
       <c r="I62" t="n">
-        <v>1.656</v>
+        <v>147.248</v>
       </c>
       <c r="J62" t="n">
-        <v>3337</v>
+        <v>8559</v>
       </c>
       <c r="K62" t="n">
-        <v>0.016</v>
+        <v>1.775</v>
       </c>
       <c r="L62" t="n">
-        <v>4932</v>
+        <v>10093</v>
       </c>
       <c r="M62" t="n">
-        <v>0.024</v>
+        <v>2.093</v>
       </c>
       <c r="N62" t="n">
-        <v>0.083</v>
+        <v>0.001</v>
       </c>
       <c r="O62" t="n">
-        <v>12.101</v>
+        <v>1535.891</v>
       </c>
       <c r="P62" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q62" t="s">
         <v>381</v>
       </c>
-      <c r="Q62" t="s">
-        <v>382</v>
-      </c>
       <c r="R62" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="S62" t="s">
         <v>383</v>
@@ -6030,7 +6039,7 @@
         <v>385</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44053</v>
+        <v>44068</v>
       </c>
       <c r="D63" t="s">
         <v>386</v>
@@ -6040,31 +6049,31 @@
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="H63" t="n">
-        <v>480209</v>
+        <v>383130</v>
       </c>
       <c r="I63" t="n">
-        <v>88.579</v>
+        <v>1.859</v>
       </c>
       <c r="J63" t="n">
-        <v>1796</v>
+        <v>3588</v>
       </c>
       <c r="K63" t="n">
-        <v>0.331</v>
+        <v>0.017</v>
       </c>
       <c r="L63" t="n">
-        <v>4973</v>
+        <v>3991</v>
       </c>
       <c r="M63" t="n">
-        <v>0.917</v>
+        <v>0.019</v>
       </c>
       <c r="N63" t="n">
-        <v>0.007</v>
+        <v>0.11</v>
       </c>
       <c r="O63" t="n">
-        <v>133.888</v>
+        <v>9.121</v>
       </c>
       <c r="P63" t="s">
         <v>387</v>
@@ -6073,601 +6082,605 @@
         <v>388</v>
       </c>
       <c r="R63" t="s">
+        <v>54</v>
+      </c>
+      <c r="S63" t="s">
         <v>389</v>
-      </c>
-      <c r="S63" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>390</v>
+      </c>
+      <c r="B64" t="s">
         <v>391</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" s="1" t="n">
+        <v>44066</v>
+      </c>
+      <c r="D64" t="s">
         <v>392</v>
       </c>
-      <c r="C64" s="1" t="n">
-        <v>44048</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>393</v>
-      </c>
-      <c r="E64" t="s">
-        <v>394</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>58</v>
-      </c>
-      <c r="H64"/>
-      <c r="I64"/>
+        <v>182</v>
+      </c>
+      <c r="H64" t="n">
+        <v>619288</v>
+      </c>
+      <c r="I64" t="n">
+        <v>114.234</v>
+      </c>
       <c r="J64" t="n">
-        <v>2682</v>
+        <v>3353</v>
       </c>
       <c r="K64" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
+        <v>0.618</v>
+      </c>
+      <c r="L64" t="n">
+        <v>10743</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.982</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O64" t="n">
+        <v>216.718</v>
+      </c>
       <c r="P64" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q64" t="s">
         <v>394</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="R64" t="s">
         <v>395</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>396</v>
-      </c>
-      <c r="S64" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>397</v>
+      </c>
+      <c r="B65" t="s">
         <v>398</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" s="1" t="n">
+        <v>44048</v>
+      </c>
+      <c r="D65" t="s">
         <v>399</v>
       </c>
-      <c r="C65" s="1" t="n">
-        <v>44057</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>400</v>
-      </c>
-      <c r="E65" t="s">
-        <v>401</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>154</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2229409</v>
-      </c>
-      <c r="I65" t="n">
-        <v>10.093</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H65"/>
+      <c r="I65"/>
       <c r="J65" t="n">
-        <v>23745</v>
+        <v>2682</v>
       </c>
       <c r="K65" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="L65" t="n">
-        <v>21439</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="O65" t="n">
-        <v>32.239</v>
-      </c>
+        <v>0.525</v>
+      </c>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
       <c r="P65" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q65" t="s">
         <v>401</v>
       </c>
-      <c r="Q65" t="s">
-        <v>400</v>
-      </c>
       <c r="R65" t="s">
-        <v>27</v>
+        <v>402</v>
       </c>
       <c r="S65" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B66" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44052</v>
+        <v>44069</v>
       </c>
       <c r="D66" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E66" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="H66" t="n">
-        <v>248090</v>
+        <v>2512337</v>
       </c>
       <c r="I66" t="n">
-        <v>57.498</v>
+        <v>11.374</v>
       </c>
       <c r="J66" t="n">
-        <v>2861</v>
+        <v>24593</v>
       </c>
       <c r="K66" t="n">
-        <v>0.663</v>
+        <v>0.111</v>
       </c>
       <c r="L66" t="n">
-        <v>2969</v>
+        <v>24609</v>
       </c>
       <c r="M66" t="n">
-        <v>0.688</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O66" t="n">
-        <v>2.86</v>
-      </c>
+        <v>0.111</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66"/>
       <c r="P66" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q66" t="s">
         <v>406</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>405</v>
       </c>
       <c r="R66" t="s">
         <v>27</v>
       </c>
       <c r="S66" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B67" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44053</v>
+        <v>44066</v>
       </c>
       <c r="D67" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E67" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="H67" t="n">
-        <v>140236</v>
+        <v>301561</v>
       </c>
       <c r="I67" t="n">
-        <v>19.661</v>
+        <v>69.89</v>
       </c>
       <c r="J67" t="n">
-        <v>1821</v>
+        <v>7584</v>
       </c>
       <c r="K67" t="n">
-        <v>0.255</v>
+        <v>1.758</v>
       </c>
       <c r="L67" t="n">
-        <v>1350</v>
+        <v>4552</v>
       </c>
       <c r="M67" t="n">
-        <v>0.189</v>
+        <v>1.055</v>
       </c>
       <c r="N67" t="n">
-        <v>0.134</v>
+        <v>0.151</v>
       </c>
       <c r="O67" t="n">
-        <v>7.482</v>
+        <v>6.618</v>
       </c>
       <c r="P67" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q67" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R67" t="s">
         <v>27</v>
       </c>
       <c r="S67" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B68" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44042</v>
+        <v>44065</v>
       </c>
       <c r="D68" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>418</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="H68" t="n">
-        <v>376749</v>
+        <v>171552</v>
       </c>
       <c r="I68" t="n">
-        <v>11.426</v>
+        <v>24.052</v>
       </c>
       <c r="J68" t="n">
-        <v>3870</v>
+        <v>2292</v>
       </c>
       <c r="K68" t="n">
-        <v>0.117</v>
+        <v>0.321</v>
       </c>
       <c r="L68" t="n">
-        <v>4603</v>
+        <v>2875</v>
       </c>
       <c r="M68" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N68"/>
-      <c r="O68"/>
+        <v>0.403</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="O68" t="n">
+        <v>5.818</v>
+      </c>
       <c r="P68" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q68" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R68" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="S68" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B69" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44049</v>
+        <v>44061</v>
       </c>
       <c r="D69" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E69" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="H69" t="n">
-        <v>1591000</v>
+        <v>506901</v>
       </c>
       <c r="I69" t="n">
-        <v>14.519</v>
+        <v>15.374</v>
       </c>
       <c r="J69" t="n">
-        <v>27732</v>
+        <v>9044</v>
       </c>
       <c r="K69" t="n">
-        <v>0.253</v>
+        <v>0.274</v>
       </c>
       <c r="L69" t="n">
-        <v>25521</v>
+        <v>8538</v>
       </c>
       <c r="M69" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="O69" t="n">
-        <v>5.858</v>
-      </c>
+        <v>0.259</v>
+      </c>
+      <c r="N69"/>
+      <c r="O69"/>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>424</v>
       </c>
       <c r="Q69" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="R69" t="s">
         <v>23</v>
       </c>
       <c r="S69" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B70" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44056</v>
+        <v>44065</v>
       </c>
       <c r="D70" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E70" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="H70" t="n">
-        <v>2207204</v>
+        <v>2158493</v>
       </c>
       <c r="I70" t="n">
-        <v>58.32</v>
+        <v>19.698</v>
       </c>
       <c r="J70" t="n">
-        <v>25177</v>
+        <v>26333</v>
       </c>
       <c r="K70" t="n">
-        <v>0.665</v>
+        <v>0.24</v>
       </c>
       <c r="L70" t="n">
-        <v>22568</v>
+        <v>31469</v>
       </c>
       <c r="M70" t="n">
-        <v>0.596</v>
+        <v>0.287</v>
       </c>
       <c r="N70" t="n">
-        <v>0.031</v>
+        <v>0.13</v>
       </c>
       <c r="O70" t="n">
-        <v>32.326</v>
+        <v>7.674</v>
       </c>
       <c r="P70" t="s">
-        <v>429</v>
+        <v>219</v>
       </c>
       <c r="Q70" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="R70" t="s">
         <v>23</v>
       </c>
       <c r="S70" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B71" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44056</v>
+        <v>44068</v>
       </c>
       <c r="D71" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E71" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="H71" t="n">
-        <v>2307735</v>
+        <v>2467528</v>
       </c>
       <c r="I71" t="n">
-        <v>60.976</v>
+        <v>65.198</v>
       </c>
       <c r="J71" t="n">
-        <v>26131</v>
+        <v>21982</v>
       </c>
       <c r="K71" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
+        <v>0.581</v>
+      </c>
+      <c r="L71" t="n">
+        <v>23162</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="O71" t="n">
+        <v>32.227</v>
+      </c>
       <c r="P71" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="Q71" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="R71" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="S71" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B72" t="s">
+        <v>439</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D72" t="s">
         <v>435</v>
       </c>
-      <c r="C72" s="1" t="n">
-        <v>44055</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>436</v>
-      </c>
-      <c r="E72" t="s">
-        <v>45</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H72" t="n">
-        <v>1799226</v>
+        <v>2577726</v>
       </c>
       <c r="I72" t="n">
-        <v>176.452</v>
+        <v>68.11</v>
       </c>
       <c r="J72" t="n">
-        <v>15899</v>
+        <v>22211</v>
       </c>
       <c r="K72" t="n">
-        <v>1.559</v>
+        <v>0.587</v>
       </c>
       <c r="L72" t="n">
-        <v>13380</v>
+        <v>24047</v>
       </c>
       <c r="M72" t="n">
-        <v>1.312</v>
+        <v>0.635</v>
       </c>
       <c r="N72" t="n">
-        <v>0.013</v>
+        <v>0.03</v>
       </c>
       <c r="O72" t="n">
-        <v>74.098</v>
+        <v>33.458</v>
       </c>
       <c r="P72" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q72" t="s">
         <v>437</v>
       </c>
-      <c r="Q72" t="s">
-        <v>436</v>
-      </c>
       <c r="R72" t="s">
-        <v>438</v>
+        <v>54</v>
       </c>
       <c r="S72" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B73" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="D73" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E73" t="s">
-        <v>443</v>
+        <v>45</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H73" t="n">
-        <v>538602</v>
+        <v>1799226</v>
       </c>
       <c r="I73" t="n">
-        <v>186.946</v>
+        <v>176.452</v>
       </c>
       <c r="J73" t="n">
-        <v>4607</v>
+        <v>15899</v>
       </c>
       <c r="K73" t="n">
-        <v>1.599</v>
+        <v>1.559</v>
       </c>
       <c r="L73" t="n">
-        <v>3943</v>
+        <v>13380</v>
       </c>
       <c r="M73" t="n">
-        <v>1.369</v>
+        <v>1.312</v>
       </c>
       <c r="N73" t="n">
-        <v>0.077</v>
+        <v>0.013</v>
       </c>
       <c r="O73" t="n">
-        <v>12.94</v>
+        <v>74.098</v>
       </c>
       <c r="P73" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q73" t="s">
         <v>443</v>
       </c>
-      <c r="Q73" t="s">
-        <v>444</v>
-      </c>
       <c r="R73" t="s">
-        <v>23</v>
+        <v>445</v>
       </c>
       <c r="S73" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B74" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44056</v>
+        <v>44067</v>
       </c>
       <c r="D74" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E74" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H74" t="n">
-        <v>1450269</v>
+        <v>594215</v>
       </c>
       <c r="I74" t="n">
-        <v>75.387</v>
+        <v>206.249</v>
       </c>
       <c r="J74" t="n">
-        <v>22643</v>
+        <v>4295</v>
       </c>
       <c r="K74" t="n">
-        <v>1.177</v>
+        <v>1.491</v>
       </c>
       <c r="L74" t="n">
-        <v>18700</v>
+        <v>5464</v>
       </c>
       <c r="M74" t="n">
-        <v>0.972</v>
+        <v>1.897</v>
       </c>
       <c r="N74" t="n">
-        <v>0.066</v>
+        <v>0.05</v>
       </c>
       <c r="O74" t="n">
-        <v>15.173</v>
+        <v>19.838</v>
       </c>
       <c r="P74" t="s">
         <v>450</v>
@@ -6676,7 +6689,7 @@
         <v>451</v>
       </c>
       <c r="R74" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S74" t="s">
         <v>452</v>
@@ -6690,7 +6703,7 @@
         <v>454</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44056</v>
+        <v>44068</v>
       </c>
       <c r="D75" t="s">
         <v>455</v>
@@ -6700,489 +6713,485 @@
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H75" t="n">
-        <v>31903055</v>
+        <v>1679614</v>
       </c>
       <c r="I75" t="n">
-        <v>218.612</v>
+        <v>87.309</v>
       </c>
       <c r="J75" t="n">
-        <v>304753</v>
+        <v>20479</v>
       </c>
       <c r="K75" t="n">
-        <v>2.088</v>
+        <v>1.065</v>
       </c>
       <c r="L75" t="n">
-        <v>266419</v>
+        <v>19646</v>
       </c>
       <c r="M75" t="n">
-        <v>1.826</v>
+        <v>1.021</v>
       </c>
       <c r="N75" t="n">
-        <v>0.019</v>
+        <v>0.059</v>
       </c>
       <c r="O75" t="n">
-        <v>52.744</v>
+        <v>16.903</v>
       </c>
       <c r="P75" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q75" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="R75" t="s">
         <v>27</v>
       </c>
       <c r="S75" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B76" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44053</v>
+        <v>44068</v>
       </c>
       <c r="D76" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E76" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="H76" t="n">
-        <v>304500</v>
+        <v>35128661</v>
       </c>
       <c r="I76" t="n">
-        <v>23.51</v>
+        <v>240.715</v>
       </c>
       <c r="J76" t="n">
-        <v>5720</v>
+        <v>245441</v>
       </c>
       <c r="K76" t="n">
-        <v>0.442</v>
+        <v>1.682</v>
       </c>
       <c r="L76" t="n">
-        <v>4159</v>
+        <v>273028</v>
       </c>
       <c r="M76" t="n">
-        <v>0.321</v>
+        <v>1.871</v>
       </c>
       <c r="N76" t="n">
-        <v>0.003</v>
+        <v>0.018</v>
       </c>
       <c r="O76" t="n">
-        <v>373.244</v>
+        <v>56.631</v>
       </c>
       <c r="P76" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q76" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="R76" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="S76" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B77" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44056</v>
+        <v>44066</v>
       </c>
       <c r="D77" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>469</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="H77" t="n">
-        <v>4071857</v>
+        <v>368244</v>
       </c>
       <c r="I77" t="n">
-        <v>116.961</v>
+        <v>28.431</v>
       </c>
       <c r="J77" t="n">
-        <v>70754</v>
+        <v>6402</v>
       </c>
       <c r="K77" t="n">
-        <v>2.032</v>
+        <v>0.494</v>
       </c>
       <c r="L77" t="n">
-        <v>63634</v>
+        <v>4853</v>
       </c>
       <c r="M77" t="n">
-        <v>1.828</v>
+        <v>0.375</v>
       </c>
       <c r="N77" t="n">
-        <v>0.023</v>
+        <v>0.016</v>
       </c>
       <c r="O77" t="n">
-        <v>43.615</v>
+        <v>63.261</v>
       </c>
       <c r="P77" t="s">
-        <v>45</v>
+        <v>469</v>
       </c>
       <c r="Q77" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="R77" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="S77" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B78" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44056</v>
+        <v>44068</v>
       </c>
       <c r="D78" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E78" t="s">
-        <v>472</v>
-      </c>
-      <c r="F78" t="s">
-        <v>473</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F78"/>
       <c r="G78" t="n">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="H78" t="n">
-        <v>128601</v>
+        <v>4792192</v>
       </c>
       <c r="I78" t="n">
-        <v>7.68</v>
+        <v>137.652</v>
       </c>
       <c r="J78" t="n">
-        <v>1730</v>
+        <v>58707</v>
       </c>
       <c r="K78" t="n">
-        <v>0.103</v>
+        <v>1.686</v>
       </c>
       <c r="L78" t="n">
-        <v>1542</v>
+        <v>59111</v>
       </c>
       <c r="M78" t="n">
-        <v>0.092</v>
+        <v>1.698</v>
       </c>
       <c r="N78" t="n">
-        <v>0.097</v>
+        <v>0.021</v>
       </c>
       <c r="O78" t="n">
-        <v>10.29</v>
+        <v>47.343</v>
       </c>
       <c r="P78" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q78" t="s">
         <v>474</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>475</v>
       </c>
       <c r="R78" t="s">
         <v>27</v>
       </c>
       <c r="S78" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>476</v>
+      </c>
+      <c r="B79" t="s">
         <v>477</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D79" t="s">
         <v>478</v>
       </c>
-      <c r="C79" s="1" t="n">
-        <v>44055</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>479</v>
-      </c>
-      <c r="E79" t="s">
-        <v>45</v>
       </c>
       <c r="F79" t="s">
         <v>480</v>
       </c>
       <c r="G79" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="H79" t="n">
-        <v>770997</v>
+        <v>144564</v>
       </c>
       <c r="I79" t="n">
-        <v>113.305</v>
+        <v>8.634</v>
       </c>
       <c r="J79" t="n">
-        <v>8768</v>
+        <v>816</v>
       </c>
       <c r="K79" t="n">
-        <v>1.289</v>
+        <v>0.049</v>
       </c>
       <c r="L79" t="n">
-        <v>8270</v>
+        <v>1262</v>
       </c>
       <c r="M79" t="n">
-        <v>1.215</v>
+        <v>0.075</v>
       </c>
       <c r="N79" t="n">
-        <v>0.03</v>
+        <v>0.088</v>
       </c>
       <c r="O79" t="n">
-        <v>32.911</v>
+        <v>11.384</v>
       </c>
       <c r="P79" t="s">
-        <v>45</v>
+        <v>481</v>
       </c>
       <c r="Q79" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="R79" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="S79" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B80" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44054</v>
+        <v>44068</v>
       </c>
       <c r="D80" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E80" t="s">
         <v>45</v>
       </c>
-      <c r="F80"/>
+      <c r="F80" t="s">
+        <v>487</v>
+      </c>
       <c r="G80" t="n">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="H80" t="n">
-        <v>686738</v>
+        <v>885575</v>
       </c>
       <c r="I80" t="n">
-        <v>117.384</v>
-      </c>
-      <c r="J80"/>
-      <c r="K80"/>
+        <v>130.144</v>
+      </c>
+      <c r="J80" t="n">
+        <v>8646</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1.271</v>
+      </c>
       <c r="L80" t="n">
-        <v>4504</v>
+        <v>9210</v>
       </c>
       <c r="M80" t="n">
-        <v>0.77</v>
+        <v>1.353</v>
       </c>
       <c r="N80" t="n">
-        <v>0.071</v>
+        <v>0.014</v>
       </c>
       <c r="O80" t="n">
-        <v>14.069</v>
+        <v>69.174</v>
       </c>
       <c r="P80" t="s">
         <v>45</v>
       </c>
       <c r="Q80" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="R80" t="s">
         <v>23</v>
       </c>
       <c r="S80" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B81" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44054</v>
+        <v>44061</v>
       </c>
       <c r="D81" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="E81" t="s">
         <v>45</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H81" t="n">
-        <v>1610906</v>
+        <v>731313</v>
       </c>
       <c r="I81" t="n">
-        <v>275.352</v>
+        <v>125.003</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
       <c r="L81" t="n">
-        <v>17067</v>
+        <v>6368</v>
       </c>
       <c r="M81" t="n">
-        <v>2.917</v>
+        <v>1.088</v>
       </c>
       <c r="N81" t="n">
-        <v>0.019</v>
+        <v>0.012</v>
       </c>
       <c r="O81" t="n">
-        <v>53.311</v>
+        <v>81.641</v>
       </c>
       <c r="P81" t="s">
         <v>45</v>
       </c>
       <c r="Q81" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="R81" t="s">
-        <v>488</v>
+        <v>23</v>
       </c>
       <c r="S81" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B82" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44057</v>
+        <v>44061</v>
       </c>
       <c r="D82" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E82" t="s">
-        <v>492</v>
+        <v>45</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="H82" t="n">
-        <v>289590</v>
+        <v>1745928</v>
       </c>
       <c r="I82" t="n">
-        <v>53.042</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2738</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.501</v>
-      </c>
+        <v>298.432</v>
+      </c>
+      <c r="J82"/>
+      <c r="K82"/>
       <c r="L82" t="n">
-        <v>2114</v>
+        <v>19289</v>
       </c>
       <c r="M82" t="n">
-        <v>0.387</v>
+        <v>3.297</v>
       </c>
       <c r="N82" t="n">
-        <v>0.018</v>
+        <v>0.004</v>
       </c>
       <c r="O82" t="n">
-        <v>57.135</v>
+        <v>247.295</v>
       </c>
       <c r="P82" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>492</v>
+      </c>
+      <c r="R82" t="s">
+        <v>495</v>
+      </c>
+      <c r="S82" t="s">
         <v>493</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>491</v>
-      </c>
-      <c r="R82" t="s">
-        <v>27</v>
-      </c>
-      <c r="S82" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B83" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44055</v>
+        <v>44068</v>
       </c>
       <c r="D83" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E83" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H83" t="n">
-        <v>139574</v>
+        <v>315854</v>
       </c>
       <c r="I83" t="n">
-        <v>67.137</v>
-      </c>
-      <c r="J83" t="n">
-        <v>856</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.412</v>
-      </c>
+        <v>57.853</v>
+      </c>
+      <c r="J83"/>
+      <c r="K83"/>
       <c r="L83" t="n">
-        <v>749</v>
+        <v>2707</v>
       </c>
       <c r="M83" t="n">
-        <v>0.36</v>
+        <v>0.496</v>
       </c>
       <c r="N83" t="n">
-        <v>0.016</v>
+        <v>0.027</v>
       </c>
       <c r="O83" t="n">
-        <v>63.939</v>
+        <v>36.652</v>
       </c>
       <c r="P83" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q83" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="R83" t="s">
         <v>27</v>
@@ -7199,7 +7208,7 @@
         <v>503</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44056</v>
+        <v>44067</v>
       </c>
       <c r="D84" t="s">
         <v>504</v>
@@ -7207,44 +7216,42 @@
       <c r="E84" t="s">
         <v>505</v>
       </c>
-      <c r="F84" t="s">
-        <v>506</v>
-      </c>
+      <c r="F84"/>
       <c r="G84" t="n">
         <v>166</v>
       </c>
       <c r="H84" t="n">
-        <v>3315497</v>
+        <v>150695</v>
       </c>
       <c r="I84" t="n">
-        <v>55.902</v>
+        <v>72.487</v>
       </c>
       <c r="J84" t="n">
-        <v>20063</v>
+        <v>1460</v>
       </c>
       <c r="K84" t="n">
-        <v>0.338</v>
+        <v>0.702</v>
       </c>
       <c r="L84" t="n">
-        <v>23670</v>
+        <v>1033</v>
       </c>
       <c r="M84" t="n">
-        <v>0.399</v>
+        <v>0.497</v>
       </c>
       <c r="N84" t="n">
-        <v>0.236</v>
+        <v>0.032</v>
       </c>
       <c r="O84" t="n">
-        <v>4.244</v>
+        <v>30.77</v>
       </c>
       <c r="P84" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q84" t="s">
         <v>507</v>
       </c>
       <c r="R84" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="S84" t="s">
         <v>508</v>
@@ -7258,7 +7265,7 @@
         <v>510</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44056</v>
+        <v>44067</v>
       </c>
       <c r="D85" t="s">
         <v>511</v>
@@ -7266,86 +7273,92 @@
       <c r="E85" t="s">
         <v>512</v>
       </c>
-      <c r="F85"/>
+      <c r="F85" t="s">
+        <v>513</v>
+      </c>
       <c r="G85" t="n">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H85" t="n">
-        <v>1637100</v>
+        <v>3564065</v>
       </c>
       <c r="I85" t="n">
-        <v>31.931</v>
+        <v>60.093</v>
       </c>
       <c r="J85" t="n">
-        <v>7823</v>
+        <v>10640</v>
       </c>
       <c r="K85" t="n">
-        <v>0.153</v>
+        <v>0.179</v>
       </c>
       <c r="L85" t="n">
-        <v>6949</v>
+        <v>21199</v>
       </c>
       <c r="M85" t="n">
-        <v>0.136</v>
+        <v>0.357</v>
       </c>
       <c r="N85" t="n">
-        <v>0.006</v>
+        <v>0.151</v>
       </c>
       <c r="O85" t="n">
-        <v>179.494</v>
+        <v>6.616</v>
       </c>
       <c r="P85" t="s">
         <v>512</v>
       </c>
       <c r="Q85" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="R85" t="s">
         <v>23</v>
       </c>
       <c r="S85" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B86" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44049</v>
+        <v>44068</v>
       </c>
       <c r="D86" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E86" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="H86" t="n">
-        <v>4983935</v>
+        <v>1775475</v>
       </c>
       <c r="I86" t="n">
-        <v>106.597</v>
-      </c>
-      <c r="J86"/>
-      <c r="K86"/>
+        <v>34.63</v>
+      </c>
+      <c r="J86" t="n">
+        <v>19048</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.372</v>
+      </c>
       <c r="L86" t="n">
-        <v>47349</v>
+        <v>14807</v>
       </c>
       <c r="M86" t="n">
-        <v>1.013</v>
+        <v>0.289</v>
       </c>
       <c r="N86" t="n">
-        <v>0.074</v>
+        <v>0.021</v>
       </c>
       <c r="O86" t="n">
-        <v>13.57</v>
+        <v>47.458</v>
       </c>
       <c r="P86" t="s">
         <v>519</v>
@@ -7354,7 +7367,7 @@
         <v>520</v>
       </c>
       <c r="R86" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S86" t="s">
         <v>521</v>
@@ -7368,7 +7381,7 @@
         <v>523</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44017</v>
+        <v>44063</v>
       </c>
       <c r="D87" t="s">
         <v>524</v>
@@ -7378,27 +7391,27 @@
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H87" t="n">
-        <v>597850</v>
+        <v>5849939</v>
       </c>
       <c r="I87" t="n">
-        <v>59.197</v>
+        <v>125.12</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87" t="n">
-        <v>11092</v>
+        <v>68947</v>
       </c>
       <c r="M87" t="n">
-        <v>1.098</v>
+        <v>1.475</v>
       </c>
       <c r="N87" t="n">
-        <v>0.081</v>
+        <v>0.084</v>
       </c>
       <c r="O87" t="n">
-        <v>12.36</v>
+        <v>11.896</v>
       </c>
       <c r="P87" t="s">
         <v>526</v>
@@ -7407,7 +7420,7 @@
         <v>527</v>
       </c>
       <c r="R87" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="S87" t="s">
         <v>528</v>
@@ -7415,217 +7428,213 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B88" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44052</v>
+        <v>44017</v>
       </c>
       <c r="D88" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E88" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>42</v>
-      </c>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88" t="n">
-        <v>7674</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.76</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H88" t="n">
+        <v>597850</v>
+      </c>
+      <c r="I88" t="n">
+        <v>59.197</v>
+      </c>
+      <c r="J88"/>
+      <c r="K88"/>
       <c r="L88" t="n">
-        <v>7674</v>
+        <v>11092</v>
       </c>
       <c r="M88" t="n">
-        <v>0.76</v>
+        <v>1.098</v>
       </c>
       <c r="N88" t="n">
-        <v>0.035</v>
+        <v>0.081</v>
       </c>
       <c r="O88" t="n">
-        <v>28.258</v>
+        <v>12.36</v>
       </c>
       <c r="P88" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="Q88" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="R88" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="S88" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>529</v>
+      </c>
+      <c r="B89" t="s">
+        <v>536</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>44066</v>
+      </c>
+      <c r="D89" t="s">
+        <v>537</v>
+      </c>
+      <c r="E89" t="s">
         <v>532</v>
-      </c>
-      <c r="B89" t="s">
-        <v>533</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>44055</v>
-      </c>
-      <c r="D89" t="s">
-        <v>534</v>
-      </c>
-      <c r="E89" t="s">
-        <v>535</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>200</v>
-      </c>
-      <c r="H89" t="n">
-        <v>861555</v>
-      </c>
-      <c r="I89" t="n">
-        <v>99.549</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H89"/>
+      <c r="I89"/>
       <c r="J89" t="n">
-        <v>4806</v>
+        <v>9264</v>
       </c>
       <c r="K89" t="n">
-        <v>0.555</v>
+        <v>0.917</v>
       </c>
       <c r="L89" t="n">
-        <v>5228</v>
+        <v>9264</v>
       </c>
       <c r="M89" t="n">
-        <v>0.604</v>
+        <v>0.917</v>
       </c>
       <c r="N89" t="n">
-        <v>0.031</v>
+        <v>0.027</v>
       </c>
       <c r="O89" t="n">
-        <v>31.85</v>
+        <v>36.555</v>
       </c>
       <c r="P89" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Q89" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="R89" t="s">
-        <v>536</v>
+        <v>54</v>
       </c>
       <c r="S89" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B90" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44056</v>
+        <v>44067</v>
       </c>
       <c r="D90" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E90" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H90" t="n">
-        <v>84249</v>
+        <v>948439</v>
       </c>
       <c r="I90" t="n">
-        <v>3.537</v>
+        <v>109.588</v>
       </c>
       <c r="J90" t="n">
-        <v>230</v>
+        <v>5651</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01</v>
+        <v>0.653</v>
       </c>
       <c r="L90" t="n">
-        <v>185</v>
+        <v>7787</v>
       </c>
       <c r="M90" t="n">
-        <v>0.008</v>
+        <v>0.9</v>
       </c>
       <c r="N90" t="n">
-        <v>0.003</v>
+        <v>0.032</v>
       </c>
       <c r="O90" t="n">
-        <v>323.75</v>
+        <v>30.779</v>
       </c>
       <c r="P90" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q90" t="s">
         <v>541</v>
       </c>
-      <c r="Q90" t="s">
-        <v>540</v>
-      </c>
       <c r="R90" t="s">
-        <v>23</v>
+        <v>543</v>
       </c>
       <c r="S90" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B91" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44056</v>
+        <v>44068</v>
       </c>
       <c r="D91" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E91" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="n">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="H91" t="n">
-        <v>391136</v>
+        <v>86419</v>
       </c>
       <c r="I91" t="n">
-        <v>5.604</v>
+        <v>3.628</v>
       </c>
       <c r="J91" t="n">
-        <v>1384</v>
+        <v>155</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02</v>
+        <v>0.007</v>
       </c>
       <c r="L91" t="n">
-        <v>1131</v>
+        <v>185</v>
       </c>
       <c r="M91" t="n">
-        <v>0.016</v>
+        <v>0.008</v>
       </c>
       <c r="N91" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="O91" t="n">
-        <v>304.5</v>
+        <v>647.5</v>
       </c>
       <c r="P91" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Q91" t="s">
         <v>547</v>
@@ -7634,459 +7643,453 @@
         <v>23</v>
       </c>
       <c r="S91" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="B92" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44056</v>
+        <v>44068</v>
       </c>
       <c r="D92" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="E92" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="H92" t="n">
-        <v>779407</v>
+        <v>409632</v>
       </c>
       <c r="I92" t="n">
-        <v>11.166</v>
+        <v>5.869</v>
       </c>
       <c r="J92" t="n">
-        <v>1384</v>
+        <v>2220</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02</v>
+        <v>0.032</v>
       </c>
       <c r="L92" t="n">
-        <v>3522</v>
+        <v>1765</v>
       </c>
       <c r="M92" t="n">
-        <v>0.05</v>
+        <v>0.025</v>
       </c>
       <c r="N92" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="O92" t="n">
-        <v>948.231</v>
+        <v>514.792</v>
       </c>
       <c r="P92" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="Q92" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="R92" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S92" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B93" t="s">
+        <v>556</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>44068</v>
+      </c>
+      <c r="D93" t="s">
         <v>552</v>
       </c>
-      <c r="C93" s="1" t="n">
-        <v>44052</v>
-      </c>
-      <c r="D93"/>
       <c r="E93" t="s">
         <v>553</v>
       </c>
-      <c r="F93" t="s">
-        <v>554</v>
-      </c>
+      <c r="F93"/>
       <c r="G93" t="n">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="H93" t="n">
-        <v>47661</v>
+        <v>797903</v>
       </c>
       <c r="I93" t="n">
-        <v>5.757</v>
+        <v>11.431</v>
       </c>
       <c r="J93" t="n">
-        <v>583</v>
+        <v>2220</v>
       </c>
       <c r="K93" t="n">
-        <v>0.07</v>
+        <v>0.032</v>
       </c>
       <c r="L93" t="n">
-        <v>614</v>
+        <v>1765</v>
       </c>
       <c r="M93" t="n">
-        <v>0.074</v>
+        <v>0.025</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
       <c r="O93" t="n">
-        <v>48.841</v>
+        <v>514.792</v>
       </c>
       <c r="P93" t="s">
         <v>553</v>
       </c>
       <c r="Q93" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="R93" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="S93" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B94" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44053</v>
-      </c>
-      <c r="D94" t="s">
-        <v>559</v>
-      </c>
+        <v>44062</v>
+      </c>
+      <c r="D94"/>
       <c r="E94" t="s">
         <v>560</v>
       </c>
-      <c r="F94"/>
+      <c r="F94" t="s">
+        <v>561</v>
+      </c>
       <c r="G94" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="H94" t="n">
-        <v>104206</v>
+        <v>54709</v>
       </c>
       <c r="I94" t="n">
-        <v>8.817</v>
+        <v>6.608</v>
       </c>
       <c r="J94" t="n">
-        <v>1202</v>
+        <v>862</v>
       </c>
       <c r="K94" t="n">
-        <v>0.102</v>
+        <v>0.104</v>
       </c>
       <c r="L94" t="n">
-        <v>1244</v>
+        <v>698</v>
       </c>
       <c r="M94" t="n">
-        <v>0.105</v>
+        <v>0.084</v>
       </c>
       <c r="N94" t="n">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
       <c r="O94" t="n">
-        <v>64.029</v>
+        <v>47.437</v>
       </c>
       <c r="P94" t="s">
         <v>560</v>
       </c>
       <c r="Q94" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="R94" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="S94" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B95" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44056</v>
+        <v>44065</v>
       </c>
       <c r="D95" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E95" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="H95" t="n">
-        <v>5521880</v>
+        <v>123268</v>
       </c>
       <c r="I95" t="n">
-        <v>65.472</v>
+        <v>10.43</v>
       </c>
       <c r="J95" t="n">
-        <v>66892</v>
+        <v>1461</v>
       </c>
       <c r="K95" t="n">
-        <v>0.793</v>
+        <v>0.124</v>
       </c>
       <c r="L95" t="n">
-        <v>62868</v>
+        <v>1803</v>
       </c>
       <c r="M95" t="n">
-        <v>0.745</v>
+        <v>0.153</v>
       </c>
       <c r="N95" t="n">
-        <v>0.019</v>
+        <v>0.056</v>
       </c>
       <c r="O95" t="n">
-        <v>53.149</v>
+        <v>17.928</v>
       </c>
       <c r="P95" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="Q95" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="R95" t="s">
         <v>27</v>
       </c>
       <c r="S95" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B96" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44055</v>
+        <v>44068</v>
       </c>
       <c r="D96" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E96" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="n">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="H96" t="n">
-        <v>308503</v>
+        <v>6521640</v>
       </c>
       <c r="I96" t="n">
-        <v>6.745</v>
+        <v>77.326</v>
       </c>
       <c r="J96" t="n">
-        <v>4108</v>
+        <v>98231</v>
       </c>
       <c r="K96" t="n">
-        <v>0.09</v>
+        <v>1.165</v>
       </c>
       <c r="L96" t="n">
-        <v>2877</v>
+        <v>91319</v>
       </c>
       <c r="M96" t="n">
-        <v>0.063</v>
+        <v>1.083</v>
       </c>
       <c r="N96" t="n">
-        <v>0.005</v>
+        <v>0.014</v>
       </c>
       <c r="O96" t="n">
-        <v>183.082</v>
+        <v>69.862</v>
       </c>
       <c r="P96" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="Q96" t="s">
         <v>571</v>
       </c>
       <c r="R96" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="S96" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B97" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44057</v>
+        <v>44067</v>
       </c>
       <c r="D97" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E97" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="H97" t="n">
-        <v>1252842</v>
+        <v>355057</v>
       </c>
       <c r="I97" t="n">
-        <v>28.647</v>
+        <v>7.762</v>
       </c>
       <c r="J97" t="n">
-        <v>18917</v>
+        <v>3212</v>
       </c>
       <c r="K97" t="n">
-        <v>0.433</v>
+        <v>0.07</v>
       </c>
       <c r="L97" t="n">
-        <v>16827</v>
+        <v>3645</v>
       </c>
       <c r="M97" t="n">
-        <v>0.385</v>
+        <v>0.08</v>
       </c>
       <c r="N97" t="n">
-        <v>0.094</v>
+        <v>0.03</v>
       </c>
       <c r="O97" t="n">
-        <v>10.646</v>
+        <v>33.44</v>
       </c>
       <c r="P97" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="Q97" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="R97" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="S97" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B98" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44056</v>
+        <v>44069</v>
       </c>
       <c r="D98" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E98" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="H98" t="n">
-        <v>5765358</v>
+        <v>1452006</v>
       </c>
       <c r="I98" t="n">
-        <v>582.925</v>
+        <v>33.201</v>
       </c>
       <c r="J98" t="n">
-        <v>68964</v>
+        <v>15800</v>
       </c>
       <c r="K98" t="n">
-        <v>6.973</v>
+        <v>0.361</v>
       </c>
       <c r="L98" t="n">
-        <v>64567</v>
+        <v>16715</v>
       </c>
       <c r="M98" t="n">
-        <v>6.528</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="O98" t="n">
-        <v>281.425</v>
-      </c>
+        <v>0.382</v>
+      </c>
+      <c r="N98"/>
+      <c r="O98"/>
       <c r="P98" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="Q98" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="R98" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="S98" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B99" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44055</v>
+        <v>44067</v>
       </c>
       <c r="D99" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E99" t="s">
-        <v>587</v>
-      </c>
-      <c r="F99" t="s">
+        <v>589</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99" t="n">
+        <v>178</v>
+      </c>
+      <c r="H99" t="n">
+        <v>6560686</v>
+      </c>
+      <c r="I99" t="n">
+        <v>663.339</v>
+      </c>
+      <c r="J99" t="n">
+        <v>71282</v>
+      </c>
+      <c r="K99" t="n">
+        <v>7.207</v>
+      </c>
+      <c r="L99" t="n">
+        <v>71262</v>
+      </c>
+      <c r="M99" t="n">
+        <v>7.205</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O99" t="n">
+        <v>185.096</v>
+      </c>
+      <c r="P99" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q99" t="s">
         <v>588</v>
-      </c>
-      <c r="G99" t="n">
-        <v>135</v>
-      </c>
-      <c r="H99" t="n">
-        <v>11310805</v>
-      </c>
-      <c r="I99" t="n">
-        <v>166.615</v>
-      </c>
-      <c r="J99" t="n">
-        <v>167983</v>
-      </c>
-      <c r="K99" t="n">
-        <v>2.474</v>
-      </c>
-      <c r="L99" t="n">
-        <v>153405</v>
-      </c>
-      <c r="M99" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="O99" t="n">
-        <v>165.307</v>
-      </c>
-      <c r="P99" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>589</v>
       </c>
       <c r="R99" t="s">
         <v>27</v>
@@ -8103,7 +8106,7 @@
         <v>592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44056</v>
+        <v>44062</v>
       </c>
       <c r="D100" t="s">
         <v>593</v>
@@ -8111,265 +8114,320 @@
       <c r="E100" t="s">
         <v>594</v>
       </c>
-      <c r="F100"/>
+      <c r="F100" t="s">
+        <v>595</v>
+      </c>
       <c r="G100" t="n">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="H100" t="n">
-        <v>69155988</v>
+        <v>12446595</v>
       </c>
       <c r="I100" t="n">
-        <v>208.929</v>
-      </c>
-      <c r="J100"/>
-      <c r="K100"/>
+        <v>183.346</v>
+      </c>
+      <c r="J100" t="n">
+        <v>175916</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2.591</v>
+      </c>
       <c r="L100" t="n">
-        <v>605010</v>
+        <v>162256</v>
       </c>
       <c r="M100" t="n">
-        <v>1.828</v>
+        <v>2.39</v>
       </c>
       <c r="N100" t="n">
-        <v>0.088</v>
+        <v>0.007</v>
       </c>
       <c r="O100" t="n">
-        <v>11.346</v>
+        <v>151.5</v>
       </c>
       <c r="P100" t="s">
         <v>594</v>
       </c>
       <c r="Q100" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="R100" t="s">
-        <v>595</v>
+        <v>27</v>
       </c>
       <c r="S100" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="B101" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>44056</v>
+        <v>44062</v>
       </c>
       <c r="D101" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E101" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>160</v>
+        <v>54</v>
       </c>
       <c r="H101" t="n">
-        <v>64612034</v>
+        <v>74830464</v>
       </c>
       <c r="I101" t="n">
-        <v>195.201</v>
-      </c>
-      <c r="J101" t="n">
-        <v>880729</v>
-      </c>
-      <c r="K101" t="n">
-        <v>2.661</v>
-      </c>
+        <v>226.072</v>
+      </c>
+      <c r="J101"/>
+      <c r="K101"/>
       <c r="L101" t="n">
-        <v>708480</v>
+        <v>891584</v>
       </c>
       <c r="M101" t="n">
-        <v>2.14</v>
+        <v>2.694</v>
       </c>
       <c r="N101" t="n">
-        <v>0.075</v>
+        <v>0.055</v>
       </c>
       <c r="O101" t="n">
-        <v>13.287</v>
+        <v>18.291</v>
       </c>
       <c r="P101" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="Q101" t="s">
         <v>600</v>
       </c>
       <c r="R101" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="S101" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B102" t="s">
         <v>604</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44056</v>
+        <v>44068</v>
       </c>
       <c r="D102" t="s">
         <v>605</v>
       </c>
       <c r="E102" t="s">
-        <v>126</v>
+        <v>606</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="H102" t="n">
-        <v>138700</v>
+        <v>73016779</v>
       </c>
       <c r="I102" t="n">
-        <v>39.928</v>
+        <v>220.593</v>
       </c>
       <c r="J102" t="n">
-        <v>1514</v>
+        <v>634461</v>
       </c>
       <c r="K102" t="n">
-        <v>0.436</v>
+        <v>1.917</v>
       </c>
       <c r="L102" t="n">
-        <v>1749</v>
+        <v>678978</v>
       </c>
       <c r="M102" t="n">
-        <v>0.503</v>
+        <v>2.051</v>
       </c>
       <c r="N102" t="n">
-        <v>0.007</v>
+        <v>0.064</v>
       </c>
       <c r="O102" t="n">
-        <v>145.75</v>
+        <v>15.708</v>
       </c>
       <c r="P102" t="s">
-        <v>126</v>
+        <v>606</v>
       </c>
       <c r="Q102" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="R102" t="s">
-        <v>27</v>
+        <v>608</v>
       </c>
       <c r="S102" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B103" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>43950</v>
+        <v>44068</v>
       </c>
       <c r="D103" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E103" t="s">
-        <v>611</v>
+        <v>125</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="H103" t="n">
-        <v>261004</v>
+        <v>163129</v>
       </c>
       <c r="I103" t="n">
-        <v>2.681</v>
+        <v>46.961</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
       <c r="L103" t="n">
-        <v>10906</v>
+        <v>2219</v>
       </c>
       <c r="M103" t="n">
-        <v>0.112</v>
+        <v>0.639</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O103" t="n">
-        <v>38171</v>
+        <v>204.382</v>
       </c>
       <c r="P103" t="s">
-        <v>611</v>
+        <v>125</v>
       </c>
       <c r="Q103" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="R103" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="S103" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B104" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44052</v>
+        <v>43950</v>
       </c>
       <c r="D104" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E104" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="H104" t="n">
-        <v>71608</v>
+        <v>261004</v>
       </c>
       <c r="I104" t="n">
-        <v>4.818</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1293</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.087</v>
-      </c>
+        <v>2.681</v>
+      </c>
+      <c r="J104"/>
+      <c r="K104"/>
       <c r="L104" t="n">
-        <v>1203</v>
+        <v>10906</v>
       </c>
       <c r="M104" t="n">
-        <v>0.081</v>
+        <v>0.112</v>
       </c>
       <c r="N104" t="n">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>9.193</v>
+        <v>38171</v>
       </c>
       <c r="P104" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Q104" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="R104" t="s">
+        <v>54</v>
+      </c>
+      <c r="S104" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>621</v>
+      </c>
+      <c r="B105" t="s">
+        <v>622</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>44066</v>
+      </c>
+      <c r="D105" t="s">
+        <v>623</v>
+      </c>
+      <c r="E105" t="s">
+        <v>624</v>
+      </c>
+      <c r="F105"/>
+      <c r="G105" t="n">
+        <v>108</v>
+      </c>
+      <c r="H105" t="n">
+        <v>91548</v>
+      </c>
+      <c r="I105" t="n">
+        <v>6.159</v>
+      </c>
+      <c r="J105" t="n">
+        <v>852</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1238</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="O105" t="n">
+        <v>12.086</v>
+      </c>
+      <c r="P105" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>625</v>
+      </c>
+      <c r="R105" t="s">
         <v>27</v>
       </c>
-      <c r="S104" t="s">
-        <v>619</v>
+      <c r="S105" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/testing/covid-testing-latest-data-source-details.xlsx
+++ b/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="701">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -71,53 +71,22 @@
     <t xml:space="preserve">Detailed description</t>
   </si>
   <si>
-    <t xml:space="preserve">ARG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.gob.ar/dataset/salud-covid-19-casos-registrados-republica-argentina/archivo/salud_fd657d02-a33a-498b-a91b-2ef1a68b8d16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government of Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of people tested.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The government of Argentina publishes a complete time series of people tested on its open data portal: "Information updated daily at 8:00 p.m. notifying COVID-19 CASES registered in the country with a cut of the day at 5:45 p.m.".
-The dataset contains one row per person. We only keep rows with a non-empty diagnosis date ("fecha_diagnostico"), thereby filtering out people who were not tested. We then create a daily time series by calculating the number of rows for each date.
-It is unclear from the source whether or not the cumulative figure repeatedly counts people that have gone through more than one round of testing over the course of the pandemic. Since we derive a count of the daily number of people tested from the change in this cumulative number, if people undergoing multiple rounds of testing are not counted repeatedly in the cumulative, repeat testers will not appear in our daily testing figures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://datos.gob.ar/dataset/salud-covid-19-determinaciones-registradas-republica-argentina/archivo/salud_0de942d4-d106-4c74-b6b2-3654b0c53a3a</t>
+    <t xml:space="preserve">AUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/10/coronavirus-covid-19-at-a-glance-19-october-2020_1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australian Government Department of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.health.gov.au/news/health-alerts/novel-coronavirus-2019-ncov-health-alert/coronavirus-covid-19-current-situation-and-case-numbers</t>
   </si>
   <si>
     <t xml:space="preserve">The number of tests performed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The government of Argentina publishes a complete time series of tests performed on its open data portal: "Information updated daily at 8:00 p.m. notifying COVID-19 [tests] registered in the country at 17:45."
-The dataset is split by geographical location. We therefore create a daily time series by calculating the total number of tests ("total") for each date ("fecha").
-It is unclear whether the reported figures include pending test results.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia - tests performed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/10/coronavirus-covid-19-at-a-glance-8-october-2020.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australian Government Department of Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.health.gov.au/news/health-alerts/novel-coronavirus-2019-ncov-health-alert/coronavirus-covid-19-current-situation-and-case-numbers</t>
   </si>
   <si>
     <t xml:space="preserve">We construct a time series of the cumulative number of tests performed to date using data provided by the Australian Government Department of Health through [daily health alerts](https://www.health.gov.au/news/health-alerts/novel-coronavirus-2019-ncov-health-alert/coronavirus-covid-19-current-situation-and-case-numbers) and [weekly epidemiological reports](https://www1.health.gov.au/internet/main/publishing.nsf/Content/novel_coronavirus_2019_ncov_weekly_epidemiology_reports_australia_2020.htm).
@@ -241,7 +210,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/4756-bolivia-acumula-137-706-casos-positivos-de-covid-19-y-los-pacientes-recuperados-llegan-a-99-268</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/4830-sube-a-104-202-el-numero-de-pacientes-recuperados-de-coronavirus-en-una-jornada-con-148-nuevos-contagios</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -308,6 +277,9 @@
     <t xml:space="preserve">Government of Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">The number of people tested.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Government of Canada provides daily updates of the COVID-19 outbreak [here](https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html), which report the cumulative number of people tested to date. 
 We construct a daily time series of the cumulative number of people tested to date using [Web Archive snapshots](http://web.archive.org/web/*/https://www.canada.ca/en/public-health/services/diseases/2019-novel-coronavirus-infection.html) of these daily updates. The figures include positive and negative test results, while excluding pending test results.
 It is unclear from the source whether or not the cumulative figure repeatedly counts people that have gone through more than one round of testing over the course of the pandemic. Since we derive a count of the daily number of people tested from the change in this cumulative number, if people undergoing multiple rounds of testing are not counted repeatedly in the cumulative, repeat testers will not appear in our daily testing figures.
@@ -329,6 +301,27 @@
   </si>
   <si>
     <t xml:space="preserve">The Government of Chile publishes testing data for private and public medical establishments on its live COVID-19 dashboard. We collect our data from the graph "Número de exámenes PCR realizado diariamente" that displays the number of PCR tests performed daily.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.gov.cn/xinwen/2020-08/06/content_5532720.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Health Commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Health Commission of the People's Republic of China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://en.nhc.gov.cn/news.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The National Health Commission of the People's Republic of China has only mentioned the number of nucleic acid tests performed in entire country in two occasions. We therefore include these data points in our time series, but no data is available since 8 August 2020, and no daily number of tests can be derived.</t>
   </si>
   <si>
     <t xml:space="preserve">COL</t>
@@ -390,7 +383,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/Mshpci/posts/1719872928178394</t>
+    <t xml:space="preserve">https://www.facebook.com/Mshpci/posts/1730195423812811</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -449,6 +442,22 @@
 Our data for this series is sourced from a non-official repository of official data. As explained in our [FAQ here](https://ourworldindata.org/coronavirus-testing#do-you-rely-on-any-non-official-sources) we regularly audit the accuracy of this repository against direct official channels.</t>
   </si>
   <si>
+    <t xml:space="preserve">CYP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyprus - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.data.gov.cy/sites/default/files/CY%20Covid19%20Open%20Data_46.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.data.gov.cy/node/4617?language=en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data for Cyprus is collected and posted by the Open Data Group, based on daily statistical data on the spread of COVID-19 disease in Cyprus, as announced on a daily basis by the Epidemiological Surveillance Unit of the Ministry of Health.
+The dataset includes the date, daily numbers of tests performed, and total number of tests performed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">CZE</t>
   </si>
   <si>
@@ -470,7 +479,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/CMR_Covid19_RDC/status/1314182636554858497</t>
+    <t xml:space="preserve">https://twitter.com/CMR_Covid19_RDC/status/1314639055435554817</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -488,7 +497,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/Data-Epidemiologiske-Rapport-09102020-21gk</t>
+    <t xml:space="preserve">https://files.ssi.dk/Data-Epidemiologiske-Rapport-19102020-ht67</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -506,7 +515,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2020/10/Boletin-COVID-19-no.202.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2020/10/Boletin-COVID-19-no.213.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -525,7 +534,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/10/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-07102020.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/10/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-18102020-v2.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -660,6 +669,10 @@
   </si>
   <si>
     <t xml:space="preserve">Since 13 May 2020, the National Public Health Agency has replaced its previous weekly updates of the number of tests performed with a daily-updated file with the count of people tested, available on the French government's open data portal.
+The source specifies that if several samples are reported for the same patient:
+- The first date is selected for PCR tests with the same result (for example several negative tests);
+- The first positive PCR test date is kept in case of discordant PCR tests.
+This means that many people undergoing multiple rounds of testing are not counted repeatedly in this data. We therefore present the more accurate "tests performed" series as the main time series for France.
 The data covers all results of test laboratories (RT-PCR) carried out by all city laboratories and hospitals concerning SARS-COV2. The source notes that "the time to report back tests can exceed 9 days in some cases. The indicators are adjusted daily according to the reception of the results."
 This data does not allow us to publish any cumulative total, since no information is available on how many people had been tested prior to the first day of reporting.</t>
   </si>
@@ -667,17 +680,13 @@
     <t xml:space="preserve">France - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.santepubliquefrance.fr/content/download/250807/2596023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adding up hospital and laboratory tests.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.santepubliquefrance.fr/recherche/#search=COVID-19%20:%20point%20epidemiologique&amp;sort=dat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The National Public Health Agency published updates for the number of tests performed until early May 2020. The figures in the time series relate to tests performed since 24 February 2020. Since the 24 March 2020 update, in addition to the previously reported hospital tests, laboratory tests are also reported. Only the total number of laboratory tests performed between 24 February and 24 March 2020 is presented, without a time series. Our figure for 24 March 2020 adds the cumulative number of laboratory tests since 24 February 2020 (6,500) to the hospital tests figure (101,046). As such 24 March 2020 represents a break in the series.
-The report [dated 21 May 2020](https://www.santepubliquefrance.fr/content/download/254170/2609369) specified a new screening information system (SI-DEP) had been deployed from week 20 (11-17 May 2020) and that epidemiological trends and test positivity rates would be available from 28 May 2020. The report published in late May reported the number of people tested instead of the number of tests performed, we therefore created a second time series for France.</t>
+    <t xml:space="preserve">https://geodes.santepubliquefrance.fr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since 13 May 2020, the National Public Health Agency publishes the number of tests in a daily-updated file, available on the French portal for public health data (Géodes).
+The virological surveillance indicators come from the screening information system which feeds back data from PCR tests carried out by all city laboratories and hospitals concerning SARS-COV2.
+These data exclude uninterpretable results and count the number of tests, not the number of patients tested. The time taken to report back tests may exceed 9 days in some cases. The indicators are adjusted daily according to the reception of the results.
+This data does not allow us to publish any cumulative total, since no information is available on how many people had been tested prior to the first day of reporting.</t>
   </si>
   <si>
     <t xml:space="preserve">DEU</t>
@@ -686,7 +695,7 @@
     <t xml:space="preserve">Germany - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/Okt_2020/2020-10-07-de.pdf?__blob=publicationFile</t>
+    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/Okt_2020/2020-10-14-de.pdf?__blob=publicationFile</t>
   </si>
   <si>
     <t xml:space="preserve">Robert Koch Institut</t>
@@ -769,7 +778,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20201008/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20201018/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -786,6 +795,24 @@
 It is not clear whether the data covers all testing in Greece as the source report notes these are "Samples that have been tested in the laboratories cooperating with EODY" ("Δείγματα που έχουν ελεγχθεί στα συνεργαζόμενα με τον ΕΟΔΥ εργαστήρια").
 The archived official website provides a [list of daily reports](http://web.archive.org/web/20200531055629/https://eody.gov.gr/epidimiologika-statistika-dedomena/imerisies-ektheseis-covid-19/). The earliest archived report available is from 20 March 2020 when 7,172 clinical samples had been tested since 1 January 2020 with the most recent dated 30 May 2020. From 3 April 2020, daily reports are available via the Greek National Organization of Public Health's [COVID-19 Announcements and press releases](https://eody.gov.gr/category/covid-19).
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala - people tested (incl. non-PCR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tablerocovid.mspas.gob.gt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministry of Health and Social Assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala Ministry of Health and Social Assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Guatemalan Ministry of Public Health and Social Welfare publishes daily updates on their offical dashboard (https://tablerocovid.mspas.gob.gt/) reporting the daily and cumulative number of people tested, which we use to construct a daily time series. The figures for "screened cases" [casos tamizados] refer to the number of "cases with any antigen or PCR test result for SARS-CoV2" [caso con cualquier resultado de prueba antígeno o PCR para la detección de SARS-CoV2]. Antigen tests are performed initially upon observation of symptoms, then negative results are verified with a PCR test, so figures include antigen and PCR tests. Pending results are excluded. The time series goes back to February 13 2020.</t>
   </si>
   <si>
     <t xml:space="preserve">HKG</t>
@@ -917,7 +944,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/348694</t>
+    <t xml:space="preserve">http://irangov.ir/detail/349371</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -937,7 +964,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1313905719297662979/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1317809909765971968/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -979,7 +1006,7 @@
     <t xml:space="preserve">Israel - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://govextra.gov.il/media/27444/covid19-data-israel-02102020.csv</t>
+    <t xml:space="preserve">https://govextra.gov.il/media/27726/covid19-data-israel-13102020.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Israel Ministry of Health</t>
@@ -1033,13 +1060,33 @@
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
+    <t xml:space="preserve">JAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica - samples tested</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-october-18-2020/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.moh.gov.jm/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Jamaican Ministry of Health and Wellness publishes daily press releases on [their official website](https://www.moh.gov.jm/updates/press-releases/) reporting the daily and cumulative number of samples tested, which we use to construct a daily time series. The press releases disaggregate the testing numbers into positive, negative, and pending tests, allowing us to exclude pending tests. It is not clear when testing first began; data is only available from 24 March 2020 when it was reported that 148 samples had been tested.
+The press releases refer to “the health departments across the island” and classify new cases by parish, suggesting that all laboratories are included in the testing numbers.
+A [press release from 20 September 2020](https://www.moh.gov.jm/jamaica-to-offer-antigen-testing-for-covid-19/) suggests that only PCR tests are in use, but that there are plans to implement non-PCR antigen tests in the near future. We will monitor for the introduction of these non-PCR tests.</t>
+  </si>
+  <si>
     <t xml:space="preserve">JPN</t>
   </si>
   <si>
     <t xml:space="preserve">Japan - people tested (incl. non-PCR)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_14018.html</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_14193.html</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Labor and Welfare Press Release</t>
@@ -1065,10 +1112,10 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000680692.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cumulative total reported in the press release (2,598,437) does not sum to the cumulative total calculated from the weekly and daily figures reported by the MOH. See: https://www.mhlw.go.jp/content/10906000/000680692.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000683950.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cumulative total reported in the press release (2,793,720) does not sum to the cumulative total calculated from the weekly and daily figures reported by the MOH. See: https://www.mhlw.go.jp/content/10906000/000683950.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">On 11 April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the date on which results were determined" (via Google translate). 
@@ -1122,7 +1169,7 @@
     <t xml:space="preserve">Kenya - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1314192491537666049</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1317437382887604225</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -1144,7 +1191,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1314188895576301571/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1318152441637048320</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1231,7 +1278,7 @@
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/a.359862397411684/3531196830278209/?__cft__[0]=AZWZLm5bdZW_1mvAKea4T8FuYANuZEwQ5b4vadIG0FZTltLcToX2Xax6ednWHxDaE6XJQ4egydMPJxeX4IQi7MyW5yP67I3U12UdbJgX08ndY1jHFWV5gI1pHQhZrkCAT6Qhjd-rc_8lleLmBJyx6QYRAe4FtxqTLrNnKRUnb_2Z2rnI33Vylj_ORnxtDJKNS_w&amp;__tn__=EH-R</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/a.1083283431736240/3558282060903019/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1251,7 +1298,7 @@
     <t xml:space="preserve">Malawi - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://malawipublichealth.org/index.php/resources/COVID-19%20SitRep%20Updates/October%202020/20201007_Malawi%20COVID-19%20situation%20report.pdf/download</t>
+    <t xml:space="preserve">https://malawipublichealth.org/index.php/resources/COVID-19%20SitRep%20Updates/October%202020/20201018_Malawi%20COVID-19%20situation%20report.pdf/download</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health Institute of Malawi</t>
@@ -1270,7 +1317,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/102020/situasi-terkini-08-oktober-2020</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/102020/situasi-terkini-18-oktober-2020</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1297,7 +1344,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1313889801553293312/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1317873301360881665</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1334,6 +1381,25 @@
 Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
   </si>
   <si>
+    <t xml:space="preserve">MRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sante.gov.mr/wp-content/uploads/2020/10/111020-Mauritanie-Sitrep-COVID-19_FR-.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania Ministry of Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.sante.gov.mr/?cat=4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mauritania Ministry of Health publishes daily situation reports that state the cumulative number of tests performed to date, as well as the number of tests performed in the past 24 hours.
+Since 7 July 2020, the daily situation reports have differentiated between the number of tests performed in the past 24 hours and the number of "diagnostic" tests performed in the past 24 hours. For example, the [11 October 2020 situation report](http://www.sante.gov.mr/wp-content/uploads/2020/10/111020-Mauritanie-Sitrep-COVID-19_FR-.pdf) states: "91 tests performed today including 83 diagnostic tests" (translated). This wording implies that the 91 tests conducted on 11 October 2020 includes non-diagnostic tests (e.g. antibody tests), which we aim to exclude from our dataset. For this reason, our daily time series of tests conducted in Mauritania begins on 7 July 2020 and only includes the reported number of "diagnostic" tests from this date onwards.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MEX</t>
   </si>
   <si>
@@ -1364,7 +1430,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/BQ_COVID.OCTOB.7.20.pdf</t>
+    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/BQ_COVID.OCTOB_18-20.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1385,7 +1451,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=646:boletim-diario-covid-n-204</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=659:boletim-diario-covid-19-n-215</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1429,7 +1495,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.620094868663520/620094808663526</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.628509257822081/628509194488754</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1451,7 +1517,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1fbsvv1eS4o70A58wiHyUgPLjdHaNP5DU</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1kfgy3orCVaqxrLbeuLX7Z8x5jJroDu1h</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1471,7 +1537,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-10/COVID-19_WebSite_rapport_wekelijks_20201006_1159_metRt_0.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-10/COVID-19_WebSite_rapport_wekelijks_20201013_1159_0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1495,10 +1561,13 @@
     <t xml:space="preserve">New Zealand - tests performed</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.health.govt.nz/our-work/diseases-and-conditions/covid-19-novel-coronavirus/covid-19-data-and-statistics/covid-19-testing-data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand Ministry of Health</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.health.govt.nz/our-work/diseases-and-conditions/covid-19-novel-coronavirus/covid-19-current-situation/covid-19-current-cases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand Ministry of Health</t>
   </si>
   <si>
     <t xml:space="preserve">The New Zealand Ministry of Health provide a time series for tests per day and cumulative tests. The daily figures begin on 9 March 2020, and the cumulative figures date back to 22 January 2020 when testing began.
@@ -1590,7 +1659,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3219223478203508</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3247099785415877</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1610,7 +1679,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1313982631000838144/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1317956540322775041</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -1634,9 +1703,6 @@
   </si>
   <si>
     <t xml:space="preserve">Paraguay Ministry of Public Health and Social Welfare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.mspbs.gov.py</t>
   </si>
   <si>
     <t xml:space="preserve">The Paraguay Ministry of Public Health and Social Welfare maintains an [official dashboard](https://www.mspbs.gov.py/reporte-covid19.html) that reports the weekly and daily number of PCR tests conducted, alongside the percentage of postive tests ('confirmados'). Weekly figures are provided in the chart titled "Cantidad de pruebas vs confirmados". Daily figures are available by clicking on the "+" symbol that appears when hovering over the bottom-left corner of this chart.
@@ -1672,7 +1738,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1E5vQwV0PRLPpGtPq7Ji67tuXmYZedC7n?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/170NbqREW5lEeTI5a0BOlEuoUwN7GvH5f?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -1693,7 +1759,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1314124623844274176</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1317748502475214848</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1764,7 +1830,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/ro/media/comunicate/buletin-de-presa-9-octombrie-2020-ora-13-00&amp;page=1</t>
+    <t xml:space="preserve">https://gov.ro/ro/media/comunicate/buletin-de-presa-18-octombrie-2020-ora-13-00&amp;page=1</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -1787,7 +1853,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=15610</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=15707</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1807,7 +1873,7 @@
     <t xml:space="preserve">Rwanda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1313177091949690880</t>
+    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1317534361923801088</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1902,20 +1968,17 @@
     <t xml:space="preserve">Slovakia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.korona.gov.sk/</t>
+    <t xml:space="preserve">https://www.korona.gov.sk</t>
   </si>
   <si>
     <t xml:space="preserve">National Health Information Centre</t>
   </si>
   <si>
-    <t xml:space="preserve">National Center of Health Information and the Slovak Republic Government coronavirus information website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia's National Center of Health Information provides a dashboard with figures for 'all tests performed' ("Všetkých vykonaných testov").
-Using web archives, we construct a daily time series of total samples by looking at earlier snapshots of the website. These archives begin from 15 March 2020. We are unable to determine when testing began, only that on 15 March 2020 a total of 1,545 tests had been conducted. Earlier archives make it clear that the figures relate to the sum of positive and negative tests (i.e. tests pending results are not included).
-We found the total number of negative and positive samples was identical for 26 March 2020 and 27 March 2020. The reason for this is not clear. We include only the former date as an observation. From 29 March - 1 April 2020 and 5 April - 7 April 2020 no web archives could be retreived.
-From 14 April 2020, we became aware of a [short-term dashboard](https://covid-19.nczisk.sk/en/) by the National Centre of Health and Information providing the same figures over the last 6 days. We use this source to supplement testing data for 10 April 2020 where web archives are not available. The notes to this dashboard provide further elaboration. They state that the figures relate to the "number of completed laboratory tests... The number contains all positive and negative results also retests of previously tested positive patients" (via Google translate).
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+    <t xml:space="preserve">Government of Slovakia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Government of Slovakia provides a website with figures for the number of tests performed.
+We fetch data from the official dashboard [mapa.covid.chat](https://mapa.covid.chat), which publishes an endpoint that includes testing data at [mapa.covid.chat/map_data](https://mapa.covid.chat/map_data).</t>
   </si>
   <si>
     <t xml:space="preserve">SVN</t>
@@ -1993,7 +2056,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Actualizacion_224_COVID-19.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Actualizacion_231_COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2113,32 +2176,17 @@
     <t xml:space="preserve">THA</t>
   </si>
   <si>
-    <t xml:space="preserve">Thailand - people tested</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ddc.moph.go.th/viralpneumonia/file/situation/situation-no279-081063.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Department of Disease Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ddc.moph.go.th/viralpneumonia/situation.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Thailand Department of Disease Control (DDC) issues daily situation reports which detail the status of confirmed cases, deaths and people being assessed.
-We provide the figures reported as "persons under investigation" (PUI). PUI is the sum of confirmed cases, the number of people who tested negative, and the number of people for whom results are still pending. All three figures are reported individually from 3 March until 31 March 2020. From 1 April 2020 onwards, the number of people who tested negative and the number for whom results are still pending are no longer reported separately.
-We have received communication from Thailand's Ministry of Public Health (MOPH) that individuals who did not meet PUI criteria can pay out of pocket to have their samples tested, referred to as the "non-PUI" group. This "non-PUI" group is large in the context of Thailand. This "non-PUI" group is not reflected in our current figures.
-The source provides data on both the cumulative number of PUI tested to date and the number of new PUI. The daily change in the cumulative number of PUI to date equals the number of new PUI tested. This suggests the cumulative total will repeatedly count people that have undergone more than one round of testing over the course of the pandemic. However, no further details are provided by the source.
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thailand - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">The Thailand Department of Disease Control (DDC) issues daily situation reports which detail the status of confirmed cases, deaths and people being assessed.
-We provide the figures reported as "number of laboratory examinations". The reported figures include PCR tests only. It is unclear whether pending test results are included. 
-Prior to 1 July 2020, we collected data from the [World Health Organization Country Office for Thailand](https://www.who.int/thailand), which provides COVID-19 situation reports that periodically report the cumulative number of samples tested to date. The reported figures include samples tested in both public and private labs. However, reporting delays appear to affect the figures. For example, [the figures for 1 May 2020](https://www.who.int/docs/default-source/searo/thailand/2020-05-04-tha-sitrep-71-covid19-final.pdf) reflect only 121 of 142 public and private laboratories certified for PCR testing. The earliest figure we have found is for 10 April 2020, at which point 100,498 samples had been tested. The reported figures are cumulative, but the situation reports do not state an exact reference date.
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+    <t xml:space="preserve">https://www3.dmsc.moph.go.th/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department of Medical Sciences, Ministry of Public Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ministry of Public Health's Department of Medical Sciences publishes a complete time series of tests performed in Thailand since early January 2020.
+This new time series includes individuals who do not meet the "persons under investigation" (PUI) criteria, and who paid out of pocket to get a PCR test. According to the Ministry of Health, this "non-PUI" group is large in proportion.</t>
   </si>
   <si>
     <t xml:space="preserve">TGO</t>
@@ -2208,7 +2256,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1314141395620331530</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1317771390712500224</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2295,7 +2343,7 @@
     <t xml:space="preserve">United States - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://healthdata.gov/sites/default/files/covid-19_diagnostic_lab_testing_20201008_0045.csv</t>
+    <t xml:space="preserve">https://healthdata.gov/sites/default/files/covid-19_diagnostic_lab_testing_20201019_2310.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Health &amp; Human Services</t>
@@ -2347,7 +2395,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-22</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-17</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2364,7 +2412,7 @@
     <t xml:space="preserve">Vietnam - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://vncdc.gov.vn/vi/phong-chong-dich-benh-viem-phoi-cap-ncov/14086/ban-tin-cap-nhat-dich-benh-covid-19-ngay-4-10-2020</t>
+    <t xml:space="preserve">http://vncdc.gov.vn/vi/phong-chong-dich-benh-viem-phoi-cap-ncov/14099/ban-tin-cap-nhat-dich-benh-covid-19-ngay-15-10-2020</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnam General Department of Preventive Medicine</t>
@@ -2408,7 +2456,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1314256728226234368</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1317522885297262593</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2825,7 +2873,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44108</v>
+        <v>44123</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2835,1930 +2883,1922 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="H2" t="n">
-        <v>1839759</v>
+        <v>8303374</v>
       </c>
       <c r="I2" t="n">
-        <v>40.706</v>
+        <v>325.624</v>
       </c>
       <c r="J2" t="n">
-        <v>9587</v>
+        <v>27338</v>
       </c>
       <c r="K2" t="n">
-        <v>0.212</v>
+        <v>1.072</v>
       </c>
       <c r="L2" t="n">
-        <v>19347</v>
+        <v>38259</v>
       </c>
       <c r="M2" t="n">
-        <v>0.428</v>
+        <v>1.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.652</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.533</v>
+        <v>2125.5</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44108</v>
+        <v>44124</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H3" t="n">
-        <v>2181096</v>
+        <v>1972047</v>
       </c>
       <c r="I3" t="n">
-        <v>48.259</v>
+        <v>218.961</v>
       </c>
       <c r="J3" t="n">
-        <v>10654</v>
+        <v>19469</v>
       </c>
       <c r="K3" t="n">
-        <v>0.236</v>
+        <v>2.162</v>
       </c>
       <c r="L3" t="n">
-        <v>21887</v>
+        <v>18201</v>
       </c>
       <c r="M3" t="n">
-        <v>0.484</v>
+        <v>2.021</v>
       </c>
       <c r="N3" t="n">
-        <v>0.577</v>
+        <v>0.079</v>
       </c>
       <c r="O3" t="n">
-        <v>1.734</v>
+        <v>12.715</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44112</v>
+        <v>44124</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="H4" t="n">
-        <v>7895078</v>
+        <v>1628076</v>
       </c>
       <c r="I4" t="n">
-        <v>309.612</v>
+        <v>956.801</v>
       </c>
       <c r="J4" t="n">
-        <v>42837</v>
+        <v>10444</v>
       </c>
       <c r="K4" t="n">
-        <v>1.68</v>
+        <v>6.138</v>
       </c>
       <c r="L4" t="n">
-        <v>30775</v>
+        <v>10063</v>
       </c>
       <c r="M4" t="n">
-        <v>1.207</v>
+        <v>5.914</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001</v>
+        <v>0.032</v>
       </c>
       <c r="O4" t="n">
-        <v>1810.294</v>
+        <v>30.949</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44113</v>
+        <v>44123</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="H5" t="n">
-        <v>1775431</v>
+        <v>2181677</v>
       </c>
       <c r="I5" t="n">
-        <v>197.13</v>
+        <v>13.247</v>
       </c>
       <c r="J5" t="n">
-        <v>18575</v>
+        <v>15146</v>
       </c>
       <c r="K5" t="n">
-        <v>2.062</v>
+        <v>0.092</v>
       </c>
       <c r="L5" t="n">
-        <v>16717</v>
+        <v>13499</v>
       </c>
       <c r="M5" t="n">
-        <v>1.856</v>
+        <v>0.082</v>
       </c>
       <c r="N5" t="n">
-        <v>0.054</v>
+        <v>0.109</v>
       </c>
       <c r="O5" t="n">
-        <v>18.616</v>
+        <v>9.171</v>
       </c>
       <c r="P5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>44113</v>
+        <v>44103</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="H6" t="n">
-        <v>1519596</v>
+        <v>1841704</v>
       </c>
       <c r="I6" t="n">
-        <v>893.048</v>
+        <v>194.903</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="n">
-        <v>9920</v>
+        <v>13860</v>
       </c>
       <c r="M6" t="n">
-        <v>5.83</v>
+        <v>1.467</v>
       </c>
       <c r="N6" t="n">
-        <v>0.044</v>
+        <v>0.021</v>
       </c>
       <c r="O6" t="n">
-        <v>22.782</v>
+        <v>47.373</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R6" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="H7" t="n">
-        <v>2042376</v>
+        <v>4152520</v>
       </c>
       <c r="I7" t="n">
-        <v>12.401</v>
+        <v>358.297</v>
       </c>
       <c r="J7" t="n">
-        <v>12605</v>
+        <v>43669</v>
       </c>
       <c r="K7" t="n">
-        <v>0.077</v>
+        <v>3.768</v>
       </c>
       <c r="L7" t="n">
-        <v>11477</v>
+        <v>59034</v>
       </c>
       <c r="M7" t="n">
-        <v>0.07</v>
+        <v>5.094</v>
       </c>
       <c r="N7" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="O7" t="n">
-        <v>8.306</v>
+        <v>7.136</v>
       </c>
       <c r="P7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="R7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44103</v>
+        <v>44121</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>98</v>
+        <v>215</v>
       </c>
       <c r="H8" t="n">
-        <v>1841704</v>
+        <v>318535</v>
       </c>
       <c r="I8" t="n">
-        <v>194.903</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
+        <v>27.288</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1002</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.086</v>
+      </c>
       <c r="L8" t="n">
-        <v>13860</v>
+        <v>971</v>
       </c>
       <c r="M8" t="n">
-        <v>1.467</v>
+        <v>0.083</v>
       </c>
       <c r="N8" t="n">
-        <v>0.021</v>
+        <v>0.197</v>
       </c>
       <c r="O8" t="n">
-        <v>47.373</v>
+        <v>5.088</v>
       </c>
       <c r="P8" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="Q8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="R8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44111</v>
+        <v>44093</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="H9" t="n">
-        <v>3543590</v>
+        <v>6421441</v>
       </c>
       <c r="I9" t="n">
-        <v>305.756</v>
-      </c>
-      <c r="J9" t="n">
-        <v>41795</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.606</v>
-      </c>
+        <v>30.21</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9"/>
       <c r="L9" t="n">
-        <v>35518</v>
+        <v>74492</v>
       </c>
       <c r="M9" t="n">
-        <v>3.065</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="O9" t="n">
-        <v>11.978</v>
-      </c>
+        <v>0.35</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="R9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44111</v>
+        <v>44124</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="H10" t="n">
-        <v>308370</v>
+        <v>613396</v>
       </c>
       <c r="I10" t="n">
-        <v>26.417</v>
+        <v>88.278</v>
       </c>
       <c r="J10" t="n">
-        <v>1425</v>
+        <v>4406</v>
       </c>
       <c r="K10" t="n">
-        <v>0.122</v>
+        <v>0.634</v>
       </c>
       <c r="L10" t="n">
-        <v>1339</v>
+        <v>5153</v>
       </c>
       <c r="M10" t="n">
-        <v>0.115</v>
+        <v>0.742</v>
       </c>
       <c r="N10" t="n">
-        <v>0.302</v>
+        <v>0.154</v>
       </c>
       <c r="O10" t="n">
-        <v>3.316</v>
+        <v>6.513</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="Q10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="R10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="H11" t="n">
-        <v>6421441</v>
+        <v>8748075</v>
       </c>
       <c r="I11" t="n">
-        <v>30.21</v>
-      </c>
-      <c r="J11"/>
-      <c r="K11"/>
+        <v>231.785</v>
+      </c>
+      <c r="J11" t="n">
+        <v>49371</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.308</v>
+      </c>
       <c r="L11" t="n">
-        <v>74492</v>
+        <v>79498</v>
       </c>
       <c r="M11" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="N11"/>
-      <c r="O11"/>
+        <v>2.106</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="O11" t="n">
+        <v>29.922</v>
+      </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R11" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44113</v>
+        <v>44123</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="H12" t="n">
-        <v>561970</v>
+        <v>3921589</v>
       </c>
       <c r="I12" t="n">
-        <v>80.877</v>
+        <v>205.145</v>
       </c>
       <c r="J12" t="n">
-        <v>5209</v>
+        <v>34671</v>
       </c>
       <c r="K12" t="n">
-        <v>0.75</v>
+        <v>1.814</v>
       </c>
       <c r="L12" t="n">
-        <v>3976</v>
+        <v>28636</v>
       </c>
       <c r="M12" t="n">
-        <v>0.572</v>
+        <v>1.498</v>
       </c>
       <c r="N12" t="n">
-        <v>0.078</v>
+        <v>0.052</v>
       </c>
       <c r="O12" t="n">
-        <v>12.867</v>
+        <v>19.295</v>
       </c>
       <c r="P12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>44113</v>
+        <v>44049</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
-        <v>198</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>7974857</v>
+        <v>160000000</v>
       </c>
       <c r="I13" t="n">
-        <v>211.298</v>
-      </c>
-      <c r="J13" t="n">
-        <v>149255</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.955</v>
-      </c>
-      <c r="L13" t="n">
-        <v>78829</v>
-      </c>
-      <c r="M13" t="n">
-        <v>2.089</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="O13" t="n">
-        <v>36.728</v>
-      </c>
+        <v>111.163</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
       <c r="P13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="R13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>44112</v>
+        <v>44116</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="n">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="H14" t="n">
-        <v>3573704</v>
+        <v>3661140</v>
       </c>
       <c r="I14" t="n">
-        <v>186.946</v>
+        <v>71.952</v>
       </c>
       <c r="J14" t="n">
-        <v>32954</v>
+        <v>22162</v>
       </c>
       <c r="K14" t="n">
-        <v>1.724</v>
+        <v>0.436</v>
       </c>
       <c r="L14" t="n">
-        <v>32268</v>
+        <v>26203</v>
       </c>
       <c r="M14" t="n">
-        <v>1.688</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="O14" t="n">
-        <v>19.729</v>
-      </c>
+        <v>0.515</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14"/>
       <c r="P14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q14" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="R14" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="S14" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44108</v>
+        <v>44119</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H15" t="n">
-        <v>3454160</v>
+        <v>242306</v>
       </c>
       <c r="I15" t="n">
-        <v>67.885</v>
+        <v>47.566</v>
       </c>
       <c r="J15" t="n">
-        <v>28094</v>
+        <v>3092</v>
       </c>
       <c r="K15" t="n">
-        <v>0.552</v>
+        <v>0.607</v>
       </c>
       <c r="L15" t="n">
-        <v>25222</v>
+        <v>2589</v>
       </c>
       <c r="M15" t="n">
-        <v>0.496</v>
+        <v>0.508</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="R15" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44109</v>
+        <v>44122</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="H16" t="n">
-        <v>217051</v>
+        <v>180040</v>
       </c>
       <c r="I16" t="n">
-        <v>42.608</v>
+        <v>6.825</v>
       </c>
       <c r="J16" t="n">
-        <v>2299</v>
+        <v>1239</v>
       </c>
       <c r="K16" t="n">
-        <v>0.451</v>
+        <v>0.047</v>
       </c>
       <c r="L16" t="n">
-        <v>2436</v>
+        <v>975</v>
       </c>
       <c r="M16" t="n">
-        <v>0.478</v>
-      </c>
-      <c r="N16"/>
-      <c r="O16"/>
+        <v>0.037</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="O16" t="n">
+        <v>39.451</v>
+      </c>
       <c r="P16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="R16" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="S16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44111</v>
+        <v>44124</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="H17" t="n">
-        <v>168309</v>
+        <v>406519</v>
       </c>
       <c r="I17" t="n">
-        <v>6.381</v>
+        <v>99.024</v>
       </c>
       <c r="J17" t="n">
-        <v>1226</v>
+        <v>5883</v>
       </c>
       <c r="K17" t="n">
-        <v>0.046</v>
+        <v>1.433</v>
       </c>
       <c r="L17" t="n">
-        <v>790</v>
+        <v>5755</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03</v>
+        <v>1.402</v>
       </c>
       <c r="N17" t="n">
-        <v>0.042</v>
+        <v>0.133</v>
       </c>
       <c r="O17" t="n">
-        <v>23.632</v>
+        <v>7.527</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q17" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="R17" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44113</v>
+        <v>44122</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18"/>
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
+        <v>121</v>
+      </c>
       <c r="G18" t="n">
         <v>211</v>
       </c>
       <c r="H18" t="n">
-        <v>348950</v>
+        <v>749924</v>
       </c>
       <c r="I18" t="n">
-        <v>85.001</v>
+        <v>66.209</v>
       </c>
       <c r="J18" t="n">
-        <v>4417</v>
+        <v>6508</v>
       </c>
       <c r="K18" t="n">
-        <v>1.076</v>
+        <v>0.575</v>
       </c>
       <c r="L18" t="n">
-        <v>4536</v>
+        <v>7183</v>
       </c>
       <c r="M18" t="n">
-        <v>1.105</v>
+        <v>0.634</v>
       </c>
       <c r="N18" t="n">
-        <v>0.068</v>
+        <v>0.004</v>
       </c>
       <c r="O18" t="n">
-        <v>14.686</v>
+        <v>226.491</v>
       </c>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="R18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S18" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44112</v>
+        <v>44123</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" t="s">
-        <v>122</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F19"/>
       <c r="G19" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H19" t="n">
-        <v>677952</v>
+        <v>443348</v>
       </c>
       <c r="I19" t="n">
-        <v>59.855</v>
+        <v>506.163</v>
       </c>
       <c r="J19" t="n">
-        <v>7208</v>
+        <v>2558</v>
       </c>
       <c r="K19" t="n">
-        <v>0.636</v>
+        <v>2.92</v>
       </c>
       <c r="L19" t="n">
-        <v>7032</v>
+        <v>3444</v>
       </c>
       <c r="M19" t="n">
-        <v>0.621</v>
+        <v>3.932</v>
       </c>
       <c r="N19" t="n">
-        <v>0.006</v>
+        <v>0.027</v>
       </c>
       <c r="O19" t="n">
-        <v>163.535</v>
+        <v>36.638</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="R19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S19" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44111</v>
+        <v>44122</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="H20" t="n">
-        <v>1515912</v>
+        <v>1814002</v>
       </c>
       <c r="I20" t="n">
-        <v>141.555</v>
+        <v>169.391</v>
       </c>
       <c r="J20" t="n">
-        <v>17063</v>
+        <v>17113</v>
       </c>
       <c r="K20" t="n">
-        <v>1.593</v>
+        <v>1.598</v>
       </c>
       <c r="L20" t="n">
-        <v>18266</v>
+        <v>29742</v>
       </c>
       <c r="M20" t="n">
-        <v>1.706</v>
+        <v>2.777</v>
       </c>
       <c r="N20" t="n">
-        <v>0.173</v>
+        <v>0.263</v>
       </c>
       <c r="O20" t="n">
-        <v>5.765</v>
+        <v>3.798</v>
       </c>
       <c r="P20" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q20" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="R20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>44111</v>
+        <v>44112</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F21"/>
       <c r="G21" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21" t="n">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="K21" t="n">
         <v>0.002</v>
       </c>
       <c r="L21" t="n">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="M21" t="n">
         <v>0.002</v>
       </c>
       <c r="N21" t="n">
-        <v>0.112</v>
+        <v>0.119</v>
       </c>
       <c r="O21" t="n">
-        <v>8.939</v>
+        <v>8.4</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q21" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="R21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="H22" t="n">
-        <v>4204136</v>
+        <v>4557157</v>
       </c>
       <c r="I22" t="n">
-        <v>725.827</v>
+        <v>786.774</v>
       </c>
       <c r="J22" t="n">
-        <v>7659</v>
+        <v>9817</v>
       </c>
       <c r="K22" t="n">
-        <v>1.322</v>
+        <v>1.695</v>
       </c>
       <c r="L22" t="n">
-        <v>39055</v>
+        <v>31198</v>
       </c>
       <c r="M22" t="n">
-        <v>6.743</v>
+        <v>5.386</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="O22" t="n">
-        <v>100.806</v>
+        <v>76.385</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q22" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="R22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S22" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44110</v>
+        <v>44121</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H23" t="n">
-        <v>502680</v>
+        <v>542227</v>
       </c>
       <c r="I23" t="n">
-        <v>46.339</v>
+        <v>49.984</v>
       </c>
       <c r="J23" t="n">
-        <v>4599</v>
+        <v>3174</v>
       </c>
       <c r="K23" t="n">
-        <v>0.424</v>
+        <v>0.293</v>
       </c>
       <c r="L23" t="n">
-        <v>3610</v>
+        <v>3266</v>
       </c>
       <c r="M23" t="n">
-        <v>0.333</v>
+        <v>0.301</v>
       </c>
       <c r="N23" t="n">
-        <v>0.134</v>
+        <v>0.131</v>
       </c>
       <c r="O23" t="n">
-        <v>7.459</v>
+        <v>7.638</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q23" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="R23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S23" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44111</v>
+        <v>44122</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G24" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="H24" t="n">
-        <v>384086</v>
+        <v>424875</v>
       </c>
       <c r="I24" t="n">
-        <v>21.77</v>
+        <v>24.082</v>
       </c>
       <c r="J24" t="n">
-        <v>5215</v>
+        <v>4357</v>
       </c>
       <c r="K24" t="n">
-        <v>0.296</v>
+        <v>0.247</v>
       </c>
       <c r="L24" t="n">
-        <v>3453</v>
+        <v>3608</v>
       </c>
       <c r="M24" t="n">
-        <v>0.196</v>
+        <v>0.204</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q24" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="R24" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44111</v>
+        <v>44121</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="H25" t="n">
-        <v>415439</v>
+        <v>443923</v>
       </c>
       <c r="I25" t="n">
-        <v>64.05</v>
+        <v>68.441</v>
       </c>
       <c r="J25" t="n">
-        <v>2403</v>
+        <v>2433</v>
       </c>
       <c r="K25" t="n">
-        <v>0.37</v>
+        <v>0.375</v>
       </c>
       <c r="L25" t="n">
-        <v>2434</v>
+        <v>3009</v>
       </c>
       <c r="M25" t="n">
-        <v>0.375</v>
+        <v>0.464</v>
       </c>
       <c r="N25" t="n">
-        <v>0.044</v>
+        <v>0.062</v>
       </c>
       <c r="O25" t="n">
-        <v>22.537</v>
+        <v>16.03</v>
       </c>
       <c r="P25" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q25" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="R25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44112</v>
+        <v>44123</v>
       </c>
       <c r="D26" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H26" t="n">
-        <v>229601</v>
+        <v>245036</v>
       </c>
       <c r="I26" t="n">
-        <v>173.083</v>
+        <v>184.718</v>
       </c>
       <c r="J26" t="n">
-        <v>1686</v>
+        <v>1706</v>
       </c>
       <c r="K26" t="n">
-        <v>1.271</v>
+        <v>1.286</v>
       </c>
       <c r="L26" t="n">
-        <v>1701</v>
+        <v>1406</v>
       </c>
       <c r="M26" t="n">
-        <v>1.282</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>0.029</v>
+        <v>0.022</v>
       </c>
       <c r="O26" t="n">
-        <v>34.613</v>
+        <v>46.207</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="R26" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="S26" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44112</v>
+        <v>44123</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="H27" t="n">
-        <v>1327832</v>
+        <v>1403894</v>
       </c>
       <c r="I27" t="n">
-        <v>11.55</v>
+        <v>12.212</v>
       </c>
       <c r="J27" t="n">
-        <v>6668</v>
+        <v>6546</v>
       </c>
       <c r="K27" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="L27" t="n">
-        <v>7001</v>
+        <v>6752</v>
       </c>
       <c r="M27" t="n">
-        <v>0.061</v>
+        <v>0.059</v>
       </c>
       <c r="N27" t="n">
-        <v>0.113</v>
+        <v>0.102</v>
       </c>
       <c r="O27" t="n">
-        <v>8.867</v>
+        <v>9.761</v>
       </c>
       <c r="P27" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q27" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="R27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44112</v>
+        <v>44118</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E28" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H28" t="n">
-        <v>11318</v>
+        <v>11771</v>
       </c>
       <c r="I28" t="n">
-        <v>12.625</v>
-      </c>
-      <c r="J28"/>
-      <c r="K28"/>
+        <v>13.131</v>
+      </c>
+      <c r="J28" t="n">
+        <v>178</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.199</v>
+      </c>
       <c r="L28" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="M28" t="n">
-        <v>0.078</v>
+        <v>0.095</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28"/>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q28" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="R28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44111</v>
+        <v>44122</v>
       </c>
       <c r="D29" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E29" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="H29" t="n">
-        <v>1159468</v>
+        <v>1324800</v>
       </c>
       <c r="I29" t="n">
-        <v>209.263</v>
+        <v>239.103</v>
       </c>
       <c r="J29" t="n">
-        <v>13514</v>
+        <v>7231</v>
       </c>
       <c r="K29" t="n">
-        <v>2.439</v>
+        <v>1.305</v>
       </c>
       <c r="L29" t="n">
-        <v>11289</v>
+        <v>12523</v>
       </c>
       <c r="M29" t="n">
-        <v>2.037</v>
+        <v>2.26</v>
       </c>
       <c r="N29" t="n">
-        <v>0.013</v>
+        <v>0.018</v>
       </c>
       <c r="O29" t="n">
-        <v>76.203</v>
+        <v>56.446</v>
       </c>
       <c r="P29" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q29" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="R29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S29" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44109</v>
+        <v>44120</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E30" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30" t="n">
-        <v>176097</v>
+        <v>208330</v>
       </c>
       <c r="K30" t="n">
-        <v>2.698</v>
+        <v>3.192</v>
       </c>
       <c r="L30" t="n">
-        <v>124277</v>
+        <v>168219</v>
       </c>
       <c r="M30" t="n">
-        <v>1.904</v>
+        <v>2.577</v>
       </c>
       <c r="N30" t="n">
-        <v>0.093</v>
+        <v>0.117</v>
       </c>
       <c r="O30" t="n">
-        <v>10.793</v>
+        <v>8.53</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q30" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="R30" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>43956</v>
+        <v>44119</v>
       </c>
       <c r="D31" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E31" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" t="s">
         <v>192</v>
       </c>
+      <c r="F31"/>
       <c r="G31" t="n">
+        <v>156</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31" t="n">
+        <v>280009</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="L31" t="n">
+        <v>217186</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.327</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="O31" t="n">
+        <v>12.109</v>
+      </c>
+      <c r="P31" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>195</v>
+      </c>
+      <c r="R31" t="s">
         <v>24</v>
       </c>
-      <c r="H31" t="n">
-        <v>831174</v>
-      </c>
-      <c r="I31" t="n">
-        <v>12.734</v>
-      </c>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31" t="n">
-        <v>15229</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.233</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="O31" t="n">
-        <v>17.496</v>
-      </c>
-      <c r="P31" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>193</v>
-      </c>
-      <c r="R31" t="s">
-        <v>27</v>
-      </c>
       <c r="S31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44108</v>
+        <v>44115</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G32" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H32" t="n">
-        <v>18129900</v>
+        <v>19276507</v>
       </c>
       <c r="I32" t="n">
-        <v>216.389</v>
+        <v>230.074</v>
       </c>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" t="n">
-        <v>156551</v>
+        <v>166775</v>
       </c>
       <c r="M32" t="n">
-        <v>1.869</v>
+        <v>1.991</v>
       </c>
       <c r="N32" t="n">
-        <v>0.014</v>
+        <v>0.02</v>
       </c>
       <c r="O32" t="n">
-        <v>72.588</v>
+        <v>49.411</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="R32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="S32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44105</v>
+        <v>44118</v>
       </c>
       <c r="D33" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="H33" t="n">
-        <v>488427</v>
+        <v>506606</v>
       </c>
       <c r="I33" t="n">
-        <v>15.719</v>
+        <v>16.304</v>
       </c>
       <c r="J33" t="n">
-        <v>755</v>
+        <v>2048</v>
       </c>
       <c r="K33" t="n">
-        <v>0.024</v>
+        <v>0.066</v>
       </c>
       <c r="L33" t="n">
-        <v>1332</v>
+        <v>1261</v>
       </c>
       <c r="M33" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="N33" t="n">
-        <v>0.054</v>
+        <v>0.034</v>
       </c>
       <c r="O33" t="n">
-        <v>18.537</v>
+        <v>29.721</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="R33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="D34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E34" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H34" t="n">
-        <v>1390270</v>
+        <v>1542156</v>
       </c>
       <c r="I34" t="n">
-        <v>133.384</v>
+        <v>147.956</v>
       </c>
       <c r="J34" t="n">
-        <v>11234</v>
+        <v>14898</v>
       </c>
       <c r="K34" t="n">
-        <v>1.078</v>
+        <v>1.429</v>
       </c>
       <c r="L34" t="n">
-        <v>10276</v>
+        <v>17022</v>
       </c>
       <c r="M34" t="n">
-        <v>0.986</v>
+        <v>1.633</v>
       </c>
       <c r="N34" t="n">
-        <v>0.034</v>
+        <v>0.024</v>
       </c>
       <c r="O34" t="n">
-        <v>29.099</v>
+        <v>41.75</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q34" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="R34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S34" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44089</v>
+        <v>44122</v>
       </c>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E35" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>9</v>
+        <v>231</v>
       </c>
       <c r="H35" t="n">
-        <v>1029305</v>
+        <v>386561</v>
       </c>
       <c r="I35" t="n">
-        <v>137.296</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35"/>
+        <v>21.577</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1538</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.086</v>
+      </c>
       <c r="L35" t="n">
-        <v>6160</v>
+        <v>3774</v>
       </c>
       <c r="M35" t="n">
-        <v>0.822</v>
-      </c>
-      <c r="N35"/>
-      <c r="O35"/>
+        <v>0.211</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="O35" t="n">
+        <v>7.583</v>
+      </c>
       <c r="P35" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q35" t="s">
         <v>221</v>
       </c>
-      <c r="Q35" t="s">
-        <v>222</v>
-      </c>
       <c r="R35" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44113</v>
+        <v>44117</v>
       </c>
       <c r="D36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E36" t="s">
-        <v>227</v>
-      </c>
-      <c r="F36" t="s">
         <v>228</v>
       </c>
+      <c r="F36"/>
       <c r="G36" t="n">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="H36" t="n">
-        <v>803648</v>
+        <v>1293389</v>
       </c>
       <c r="I36" t="n">
-        <v>83.19</v>
-      </c>
-      <c r="J36" t="n">
-        <v>11163</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1.156</v>
-      </c>
+        <v>172.521</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
       <c r="L36" t="n">
-        <v>9086</v>
+        <v>6112</v>
       </c>
       <c r="M36" t="n">
-        <v>0.941</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="O36" t="n">
-        <v>9.65</v>
-      </c>
+        <v>0.815</v>
+      </c>
+      <c r="N36"/>
+      <c r="O36"/>
       <c r="P36" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q36" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R36" t="s">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="S36" t="s">
         <v>231</v>
@@ -4772,7 +4812,7 @@
         <v>233</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44112</v>
+        <v>44124</v>
       </c>
       <c r="D37" t="s">
         <v>234</v>
@@ -4780,163 +4820,163 @@
       <c r="E37" t="s">
         <v>235</v>
       </c>
-      <c r="F37"/>
+      <c r="F37" t="s">
+        <v>236</v>
+      </c>
       <c r="G37" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H37" t="n">
-        <v>145816</v>
+        <v>910368</v>
       </c>
       <c r="I37" t="n">
-        <v>427.3</v>
+        <v>94.238</v>
       </c>
       <c r="J37" t="n">
-        <v>3479</v>
+        <v>6332</v>
       </c>
       <c r="K37" t="n">
-        <v>10.195</v>
+        <v>0.655</v>
       </c>
       <c r="L37" t="n">
-        <v>2095</v>
+        <v>9878</v>
       </c>
       <c r="M37" t="n">
-        <v>6.139</v>
+        <v>1.023</v>
       </c>
       <c r="N37" t="n">
-        <v>0.03</v>
+        <v>0.129</v>
       </c>
       <c r="O37" t="n">
-        <v>33.029</v>
+        <v>7.774</v>
       </c>
       <c r="P37" t="s">
         <v>235</v>
       </c>
       <c r="Q37" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="R37" t="s">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="S37" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>43945</v>
+        <v>44122</v>
       </c>
       <c r="D38" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E38" t="s">
-        <v>240</v>
-      </c>
-      <c r="F38" t="s">
-        <v>241</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="F38"/>
       <c r="G38" t="n">
+        <v>235</v>
+      </c>
+      <c r="H38" t="n">
+        <v>164945</v>
+      </c>
+      <c r="I38" t="n">
+        <v>483.355</v>
+      </c>
+      <c r="J38" t="n">
+        <v>823</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.412</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1893</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5.547</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="O38" t="n">
+        <v>24.63</v>
+      </c>
+      <c r="P38" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>242</v>
+      </c>
+      <c r="R38" t="s">
         <v>24</v>
       </c>
-      <c r="H38" t="n">
-        <v>525667</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="J38" t="n">
-        <v>40495</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="L38" t="n">
-        <v>29603</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="O38" t="n">
-        <v>21.385</v>
-      </c>
-      <c r="P38" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>239</v>
-      </c>
-      <c r="R38" t="s">
-        <v>23</v>
-      </c>
       <c r="S38" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44113</v>
+        <v>43945</v>
       </c>
       <c r="D39" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="E39" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F39" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="G39" t="n">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="H39" t="n">
-        <v>84634680</v>
+        <v>525667</v>
       </c>
       <c r="I39" t="n">
-        <v>61.329</v>
+        <v>0.381</v>
       </c>
       <c r="J39" t="n">
-        <v>1168705</v>
+        <v>40495</v>
       </c>
       <c r="K39" t="n">
-        <v>0.847</v>
+        <v>0.029</v>
       </c>
       <c r="L39" t="n">
-        <v>1130993</v>
+        <v>29603</v>
       </c>
       <c r="M39" t="n">
-        <v>0.82</v>
+        <v>0.021</v>
       </c>
       <c r="N39" t="n">
-        <v>0.065</v>
+        <v>0.047</v>
       </c>
       <c r="O39" t="n">
-        <v>15.46</v>
+        <v>21.385</v>
       </c>
       <c r="P39" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q39" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="R39" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40">
@@ -4944,10 +4984,10 @@
         <v>245</v>
       </c>
       <c r="B40" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44113</v>
+        <v>44124</v>
       </c>
       <c r="D40" t="s">
         <v>247</v>
@@ -4955,329 +4995,329 @@
       <c r="E40" t="s">
         <v>248</v>
       </c>
-      <c r="F40"/>
+      <c r="F40" t="s">
+        <v>249</v>
+      </c>
       <c r="G40" t="n">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="H40" t="n">
-        <v>2249694</v>
+        <v>96116771</v>
       </c>
       <c r="I40" t="n">
-        <v>8.225</v>
+        <v>69.65</v>
       </c>
       <c r="J40" t="n">
-        <v>39118</v>
+        <v>1032795</v>
       </c>
       <c r="K40" t="n">
-        <v>0.143</v>
+        <v>0.748</v>
       </c>
       <c r="L40" t="n">
-        <v>28410</v>
+        <v>1024523</v>
       </c>
       <c r="M40" t="n">
-        <v>0.104</v>
+        <v>0.742</v>
       </c>
       <c r="N40" t="n">
-        <v>0.148</v>
+        <v>0.059</v>
       </c>
       <c r="O40" t="n">
-        <v>6.768</v>
+        <v>17.027</v>
       </c>
       <c r="P40" t="s">
         <v>248</v>
       </c>
       <c r="Q40" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="R40" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="S40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>44111</v>
+        <v>44124</v>
       </c>
       <c r="D41" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E41" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="H41" t="n">
-        <v>4207631</v>
+        <v>2583085</v>
       </c>
       <c r="I41" t="n">
-        <v>50.095</v>
+        <v>9.444</v>
       </c>
       <c r="J41" t="n">
-        <v>92186</v>
+        <v>29564</v>
       </c>
       <c r="K41" t="n">
-        <v>1.098</v>
+        <v>0.108</v>
       </c>
       <c r="L41" t="n">
-        <v>27544</v>
+        <v>29218</v>
       </c>
       <c r="M41" t="n">
-        <v>0.328</v>
+        <v>0.107</v>
       </c>
       <c r="N41" t="n">
-        <v>0.136</v>
+        <v>0.139</v>
       </c>
       <c r="O41" t="n">
-        <v>7.362</v>
+        <v>7.17</v>
       </c>
       <c r="P41" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q41" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="R41" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44111</v>
+        <v>44123</v>
       </c>
       <c r="D42" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E42" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
         <v>159</v>
       </c>
       <c r="H42" t="n">
-        <v>2419252</v>
+        <v>4540455</v>
       </c>
       <c r="I42" t="n">
-        <v>60.147</v>
+        <v>54.058</v>
       </c>
       <c r="J42" t="n">
-        <v>23865</v>
+        <v>29301</v>
       </c>
       <c r="K42" t="n">
-        <v>0.593</v>
+        <v>0.349</v>
       </c>
       <c r="L42" t="n">
-        <v>21842</v>
+        <v>28518</v>
       </c>
       <c r="M42" t="n">
-        <v>0.543</v>
+        <v>0.34</v>
       </c>
       <c r="N42" t="n">
-        <v>0.189</v>
+        <v>0.152</v>
       </c>
       <c r="O42" t="n">
-        <v>5.303</v>
+        <v>6.587</v>
       </c>
       <c r="P42" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q42" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R42" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="S42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44113</v>
+        <v>44122</v>
       </c>
       <c r="D43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="H43" t="n">
-        <v>1303854</v>
+        <v>2624351</v>
       </c>
       <c r="I43" t="n">
-        <v>264.056</v>
+        <v>65.246</v>
       </c>
       <c r="J43" t="n">
-        <v>16522</v>
+        <v>18885</v>
       </c>
       <c r="K43" t="n">
-        <v>3.346</v>
+        <v>0.47</v>
       </c>
       <c r="L43" t="n">
-        <v>13667</v>
+        <v>19595</v>
       </c>
       <c r="M43" t="n">
-        <v>2.768</v>
+        <v>0.487</v>
       </c>
       <c r="N43" t="n">
-        <v>0.036</v>
+        <v>0.171</v>
       </c>
       <c r="O43" t="n">
-        <v>27.42</v>
+        <v>5.862</v>
       </c>
       <c r="P43" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q43" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="R43" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="S43" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>44106</v>
+        <v>44123</v>
       </c>
       <c r="D44" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E44" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="H44" t="n">
-        <v>3868810</v>
+        <v>1453608</v>
       </c>
       <c r="I44" t="n">
-        <v>446.975</v>
+        <v>294.384</v>
       </c>
       <c r="J44" t="n">
-        <v>62161</v>
+        <v>14391</v>
       </c>
       <c r="K44" t="n">
-        <v>7.182</v>
+        <v>2.914</v>
       </c>
       <c r="L44" t="n">
-        <v>44666</v>
+        <v>16019</v>
       </c>
       <c r="M44" t="n">
-        <v>5.16</v>
+        <v>3.244</v>
       </c>
       <c r="N44" t="n">
-        <v>0.132</v>
+        <v>0.066</v>
       </c>
       <c r="O44" t="n">
-        <v>7.568</v>
+        <v>15.084</v>
       </c>
       <c r="P44" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="Q44" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="R44" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S44" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B45" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="D45" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E45" t="s">
-        <v>279</v>
-      </c>
-      <c r="F45" t="s">
-        <v>280</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="F45"/>
       <c r="G45" t="n">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="H45" t="n">
-        <v>7365751</v>
+        <v>4285282</v>
       </c>
       <c r="I45" t="n">
-        <v>121.825</v>
+        <v>495.091</v>
       </c>
       <c r="J45" t="n">
-        <v>68985</v>
+        <v>45266</v>
       </c>
       <c r="K45" t="n">
-        <v>1.141</v>
+        <v>5.23</v>
       </c>
       <c r="L45" t="n">
-        <v>64166</v>
+        <v>37925</v>
       </c>
       <c r="M45" t="n">
-        <v>1.061</v>
+        <v>4.382</v>
       </c>
       <c r="N45" t="n">
-        <v>0.042</v>
+        <v>0.086</v>
       </c>
       <c r="O45" t="n">
-        <v>23.542</v>
+        <v>11.681</v>
       </c>
       <c r="P45" t="s">
-        <v>281</v>
+        <v>36</v>
       </c>
       <c r="Q45" t="s">
         <v>282</v>
       </c>
       <c r="R45" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S45" t="s">
         <v>283</v>
@@ -5285,117 +5325,117 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B46" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44112</v>
+        <v>44123</v>
       </c>
       <c r="D46" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E46" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F46" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G46" t="n">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="H46" t="n">
-        <v>12197500</v>
+        <v>8265568</v>
       </c>
       <c r="I46" t="n">
-        <v>201.739</v>
+        <v>136.707</v>
       </c>
       <c r="J46" t="n">
-        <v>128098</v>
+        <v>65824</v>
       </c>
       <c r="K46" t="n">
-        <v>2.119</v>
+        <v>1.089</v>
       </c>
       <c r="L46" t="n">
-        <v>106477</v>
+        <v>87644</v>
       </c>
       <c r="M46" t="n">
-        <v>1.761</v>
+        <v>1.45</v>
       </c>
       <c r="N46" t="n">
-        <v>0.026</v>
+        <v>0.097</v>
       </c>
       <c r="O46" t="n">
-        <v>39.066</v>
+        <v>10.347</v>
       </c>
       <c r="P46" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="Q46" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="R46" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>284</v>
+      </c>
+      <c r="B47" t="s">
+        <v>292</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="D47" t="s">
         <v>286</v>
       </c>
-      <c r="B47" t="s">
+      <c r="E47" t="s">
         <v>287</v>
       </c>
-      <c r="C47" s="1" t="n">
-        <v>44112</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>288</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="n">
+        <v>239</v>
+      </c>
+      <c r="H47" t="n">
+        <v>13639444</v>
+      </c>
+      <c r="I47" t="n">
+        <v>225.588</v>
+      </c>
+      <c r="J47" t="n">
+        <v>98862</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="L47" t="n">
+        <v>141327</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O47" t="n">
+        <v>16.685</v>
+      </c>
+      <c r="P47" t="s">
         <v>289</v>
       </c>
-      <c r="F47" t="s">
+      <c r="Q47" t="s">
         <v>290</v>
       </c>
-      <c r="G47" t="n">
-        <v>238</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2241629</v>
-      </c>
-      <c r="I47" t="n">
-        <v>17.724</v>
-      </c>
-      <c r="J47" t="n">
-        <v>22976</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="L47" t="n">
-        <v>19381</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.153</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O47" t="n">
-        <v>33.832</v>
-      </c>
-      <c r="P47" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>292</v>
-      </c>
       <c r="R47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S47" t="s">
         <v>293</v>
@@ -5403,723 +5443,719 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>44110</v>
+        <v>44122</v>
       </c>
       <c r="D48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E48" t="s">
-        <v>289</v>
-      </c>
-      <c r="F48" t="s">
-        <v>296</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="F48"/>
       <c r="G48" t="n">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="H48" t="n">
-        <v>2606984</v>
+        <v>88828</v>
       </c>
       <c r="I48" t="n">
-        <v>20.612</v>
+        <v>29.998</v>
       </c>
       <c r="J48" t="n">
-        <v>17266</v>
+        <v>555</v>
       </c>
       <c r="K48" t="n">
-        <v>0.137</v>
+        <v>0.187</v>
       </c>
       <c r="L48" t="n">
-        <v>19373</v>
+        <v>510</v>
       </c>
       <c r="M48" t="n">
-        <v>0.153</v>
+        <v>0.172</v>
       </c>
       <c r="N48" t="n">
-        <v>0.026</v>
+        <v>0.178</v>
       </c>
       <c r="O48" t="n">
-        <v>38.168</v>
+        <v>5.613</v>
       </c>
       <c r="P48" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q48" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="R48" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="S48" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>43952</v>
+        <v>44122</v>
       </c>
       <c r="D49" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E49" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F49" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="H49" t="n">
-        <v>78885</v>
+        <v>2433665</v>
       </c>
       <c r="I49" t="n">
-        <v>7.731</v>
-      </c>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
+        <v>19.242</v>
+      </c>
+      <c r="J49" t="n">
+        <v>12622</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>19231</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="O49" t="n">
+        <v>35.955</v>
+      </c>
       <c r="P49" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q49" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="R49" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" t="s">
+        <v>308</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>44119</v>
+      </c>
+      <c r="D50" t="s">
+        <v>309</v>
+      </c>
+      <c r="E50" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" t="s">
+        <v>310</v>
+      </c>
+      <c r="G50" t="n">
+        <v>45</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2793621</v>
+      </c>
+      <c r="I50" t="n">
+        <v>22.088</v>
+      </c>
+      <c r="J50" t="n">
+        <v>19310</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="L50" t="n">
+        <v>18796</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="O50" t="n">
+        <v>35.656</v>
+      </c>
+      <c r="P50" t="s">
         <v>305</v>
       </c>
-      <c r="B50" t="s">
+      <c r="Q50" t="s">
         <v>306</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>44110</v>
-      </c>
-      <c r="D50" t="s">
-        <v>307</v>
-      </c>
-      <c r="E50" t="s">
-        <v>308</v>
-      </c>
-      <c r="F50"/>
-      <c r="G50" t="n">
-        <v>204</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3045439</v>
-      </c>
-      <c r="I50" t="n">
-        <v>162.192</v>
-      </c>
-      <c r="J50" t="n">
-        <v>7218</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="L50" t="n">
-        <v>14192</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="O50" t="n">
-        <v>63.236</v>
-      </c>
-      <c r="P50" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>307</v>
-      </c>
       <c r="R50" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S50" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B51" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44112</v>
+        <v>43952</v>
       </c>
       <c r="D51" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E51" t="s">
-        <v>313</v>
-      </c>
-      <c r="F51"/>
+        <v>315</v>
+      </c>
+      <c r="F51" t="s">
+        <v>316</v>
+      </c>
       <c r="G51" t="n">
-        <v>174</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>574712</v>
+        <v>78885</v>
       </c>
       <c r="I51" t="n">
-        <v>10.688</v>
-      </c>
-      <c r="J51" t="n">
-        <v>5034</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.094</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3152</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="N51" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="O51" t="n">
-        <v>16.012</v>
-      </c>
+        <v>7.731</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
       <c r="P51" t="s">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="Q51" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="R51" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="S51" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="D52" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E52" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>149</v>
+        <v>211</v>
       </c>
       <c r="H52" t="n">
-        <v>772811</v>
+        <v>3175675</v>
       </c>
       <c r="I52" t="n">
-        <v>180.962</v>
+        <v>169.128</v>
       </c>
       <c r="J52" t="n">
-        <v>4120</v>
+        <v>10906</v>
       </c>
       <c r="K52" t="n">
-        <v>0.965</v>
+        <v>0.581</v>
       </c>
       <c r="L52" t="n">
-        <v>3093</v>
+        <v>18605</v>
       </c>
       <c r="M52" t="n">
-        <v>0.724</v>
+        <v>0.991</v>
       </c>
       <c r="N52" t="n">
-        <v>0.164</v>
+        <v>0.015</v>
       </c>
       <c r="O52" t="n">
-        <v>6.08</v>
+        <v>68.186</v>
       </c>
       <c r="P52" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R52" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S52" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B53" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44113</v>
+        <v>44121</v>
       </c>
       <c r="D53" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E53" t="s">
-        <v>325</v>
-      </c>
-      <c r="F53" t="s">
-        <v>326</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="F53"/>
       <c r="G53" t="n">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="H53" t="n">
-        <v>353788</v>
+        <v>617064</v>
       </c>
       <c r="I53" t="n">
-        <v>187.566</v>
-      </c>
-      <c r="J53" t="n">
-        <v>4551</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2.413</v>
-      </c>
+        <v>11.476</v>
+      </c>
+      <c r="J53"/>
+      <c r="K53"/>
       <c r="L53" t="n">
-        <v>3594</v>
+        <v>4308</v>
       </c>
       <c r="M53" t="n">
-        <v>1.905</v>
+        <v>0.08</v>
       </c>
       <c r="N53" t="n">
-        <v>0.02</v>
+        <v>0.098</v>
       </c>
       <c r="O53" t="n">
-        <v>50.116</v>
+        <v>10.188</v>
       </c>
       <c r="P53" t="s">
-        <v>325</v>
+        <v>36</v>
       </c>
       <c r="Q53" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="R53" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="S53" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B54" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44093</v>
+        <v>44123</v>
       </c>
       <c r="D54" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E54" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="H54" t="n">
-        <v>197575</v>
+        <v>834167</v>
       </c>
       <c r="I54" t="n">
-        <v>28.754</v>
+        <v>195.33</v>
       </c>
       <c r="J54" t="n">
-        <v>3461</v>
+        <v>6002</v>
       </c>
       <c r="K54" t="n">
-        <v>0.504</v>
+        <v>1.405</v>
       </c>
       <c r="L54" t="n">
-        <v>3669</v>
+        <v>6495</v>
       </c>
       <c r="M54" t="n">
-        <v>0.534</v>
+        <v>1.521</v>
       </c>
       <c r="N54" t="n">
-        <v>0.176</v>
+        <v>0.111</v>
       </c>
       <c r="O54" t="n">
-        <v>5.67</v>
+        <v>9.039</v>
       </c>
       <c r="P54" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q54" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="R54" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="S54" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44113</v>
+        <v>44124</v>
       </c>
       <c r="D55" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55"/>
+        <v>339</v>
+      </c>
+      <c r="F55" t="s">
+        <v>340</v>
+      </c>
       <c r="G55" t="n">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="H55" t="n">
-        <v>830674</v>
+        <v>397357</v>
       </c>
       <c r="I55" t="n">
-        <v>305.138</v>
+        <v>210.665</v>
       </c>
       <c r="J55" t="n">
-        <v>7499</v>
+        <v>4171</v>
       </c>
       <c r="K55" t="n">
-        <v>2.755</v>
+        <v>2.211</v>
       </c>
       <c r="L55" t="n">
-        <v>6041</v>
+        <v>4130</v>
       </c>
       <c r="M55" t="n">
-        <v>2.219</v>
+        <v>2.19</v>
       </c>
       <c r="N55" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="O55" t="n">
-        <v>50.282</v>
+        <v>39.657</v>
       </c>
       <c r="P55" t="s">
-        <v>45</v>
+        <v>339</v>
       </c>
       <c r="Q55" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="R55" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="S55" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B56" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44110</v>
+        <v>44093</v>
       </c>
       <c r="D56" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E56" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="H56" t="n">
-        <v>869412</v>
+        <v>197575</v>
       </c>
       <c r="I56" t="n">
-        <v>1388.89</v>
+        <v>28.754</v>
       </c>
       <c r="J56" t="n">
-        <v>6601</v>
+        <v>3461</v>
       </c>
       <c r="K56" t="n">
-        <v>10.545</v>
+        <v>0.504</v>
       </c>
       <c r="L56" t="n">
-        <v>5423</v>
+        <v>3669</v>
       </c>
       <c r="M56" t="n">
-        <v>8.663</v>
+        <v>0.534</v>
       </c>
       <c r="N56" t="n">
-        <v>0.014</v>
+        <v>0.176</v>
       </c>
       <c r="O56" t="n">
-        <v>69.146</v>
+        <v>5.67</v>
       </c>
       <c r="P56" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q56" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="R56" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="S56" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B57" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44112</v>
+        <v>44124</v>
       </c>
       <c r="D57" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E57" t="s">
-        <v>345</v>
+        <v>36</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="H57" t="n">
-        <v>74020</v>
+        <v>905929</v>
       </c>
       <c r="I57" t="n">
-        <v>2.673</v>
-      </c>
-      <c r="J57"/>
-      <c r="K57"/>
+        <v>332.782</v>
+      </c>
+      <c r="J57" t="n">
+        <v>12915</v>
+      </c>
+      <c r="K57" t="n">
+        <v>4.744</v>
+      </c>
       <c r="L57" t="n">
-        <v>419</v>
+        <v>7703</v>
       </c>
       <c r="M57" t="n">
-        <v>0.015</v>
+        <v>2.83</v>
       </c>
       <c r="N57" t="n">
-        <v>0.077</v>
+        <v>0.027</v>
       </c>
       <c r="O57" t="n">
-        <v>13.036</v>
+        <v>36.482</v>
       </c>
       <c r="P57" t="s">
-        <v>345</v>
+        <v>36</v>
       </c>
       <c r="Q57" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="R57" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="S57" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B58" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44111</v>
+        <v>44121</v>
       </c>
       <c r="D58" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E58" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="H58" t="n">
-        <v>54727</v>
+        <v>944870</v>
       </c>
       <c r="I58" t="n">
-        <v>2.861</v>
+        <v>1509.435</v>
       </c>
       <c r="J58" t="n">
-        <v>161</v>
+        <v>8622</v>
       </c>
       <c r="K58" t="n">
-        <v>0.008</v>
+        <v>13.774</v>
       </c>
       <c r="L58" t="n">
-        <v>239</v>
+        <v>6745</v>
       </c>
       <c r="M58" t="n">
-        <v>0.012</v>
+        <v>10.775</v>
       </c>
       <c r="N58" t="n">
-        <v>0.014</v>
+        <v>0.024</v>
       </c>
       <c r="O58" t="n">
-        <v>69.708</v>
+        <v>42.498</v>
       </c>
       <c r="P58" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q58" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="R58" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="S58" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B59" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44112</v>
+        <v>44120</v>
       </c>
       <c r="D59" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E59" t="s">
-        <v>357</v>
-      </c>
-      <c r="F59" t="s">
-        <v>358</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="F59"/>
       <c r="G59" t="n">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="H59" t="n">
-        <v>1681809</v>
+        <v>85407</v>
       </c>
       <c r="I59" t="n">
-        <v>51.962</v>
-      </c>
-      <c r="J59" t="n">
-        <v>18013</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.557</v>
-      </c>
+        <v>3.084</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59"/>
       <c r="L59" t="n">
-        <v>16423</v>
+        <v>1598</v>
       </c>
       <c r="M59" t="n">
-        <v>0.507</v>
+        <v>0.058</v>
       </c>
       <c r="N59" t="n">
-        <v>0.025</v>
+        <v>0.009</v>
       </c>
       <c r="O59" t="n">
-        <v>40.224</v>
+        <v>111.86</v>
       </c>
       <c r="P59" t="s">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="Q59" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S59" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B60" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>44111</v>
+        <v>44122</v>
       </c>
       <c r="D60" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E60" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H60" t="n">
-        <v>164326</v>
+        <v>57905</v>
       </c>
       <c r="I60" t="n">
-        <v>304.002</v>
+        <v>3.027</v>
       </c>
       <c r="J60" t="n">
-        <v>1123</v>
+        <v>234</v>
       </c>
       <c r="K60" t="n">
-        <v>2.078</v>
+        <v>0.012</v>
       </c>
       <c r="L60" t="n">
-        <v>1501</v>
+        <v>253</v>
       </c>
       <c r="M60" t="n">
-        <v>2.777</v>
+        <v>0.013</v>
       </c>
       <c r="N60" t="n">
-        <v>0.041</v>
+        <v>0.018</v>
       </c>
       <c r="O60" t="n">
-        <v>24.607</v>
+        <v>57.129</v>
       </c>
       <c r="P60" t="s">
         <v>365</v>
@@ -6128,7 +6164,7 @@
         <v>366</v>
       </c>
       <c r="R60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S60" t="s">
         <v>367</v>
@@ -6142,7 +6178,7 @@
         <v>369</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>44102</v>
+        <v>44122</v>
       </c>
       <c r="D61" t="s">
         <v>370</v>
@@ -6150,213 +6186,203 @@
       <c r="E61" t="s">
         <v>371</v>
       </c>
-      <c r="F61"/>
+      <c r="F61" t="s">
+        <v>372</v>
+      </c>
       <c r="G61" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H61" t="n">
-        <v>251746</v>
+        <v>1885847</v>
       </c>
       <c r="I61" t="n">
-        <v>570.156</v>
+        <v>58.266</v>
       </c>
       <c r="J61" t="n">
-        <v>2116</v>
+        <v>22810</v>
       </c>
       <c r="K61" t="n">
-        <v>4.792</v>
+        <v>0.705</v>
       </c>
       <c r="L61" t="n">
-        <v>2304</v>
+        <v>20997</v>
       </c>
       <c r="M61" t="n">
-        <v>5.218</v>
+        <v>0.649</v>
       </c>
       <c r="N61" t="n">
-        <v>0.012</v>
+        <v>0.031</v>
       </c>
       <c r="O61" t="n">
-        <v>81.455</v>
+        <v>32.439</v>
       </c>
       <c r="P61" t="s">
-        <v>371</v>
+        <v>36</v>
       </c>
       <c r="Q61" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="R61" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="S61" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B62" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>44106</v>
+        <v>44122</v>
       </c>
       <c r="D62" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E62" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="n">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="H62" t="n">
-        <v>1693321</v>
+        <v>179171</v>
       </c>
       <c r="I62" t="n">
-        <v>13.133</v>
+        <v>331.465</v>
       </c>
       <c r="J62" t="n">
-        <v>9421</v>
+        <v>1252</v>
       </c>
       <c r="K62" t="n">
-        <v>0.073</v>
+        <v>2.316</v>
       </c>
       <c r="L62" t="n">
-        <v>10010</v>
+        <v>1377</v>
       </c>
       <c r="M62" t="n">
-        <v>0.078</v>
+        <v>2.547</v>
       </c>
       <c r="N62" t="n">
-        <v>0.469</v>
+        <v>0.033</v>
       </c>
       <c r="O62" t="n">
-        <v>2.133</v>
+        <v>30.216</v>
       </c>
       <c r="P62" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q62" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R62" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="S62" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B63" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>44111</v>
+        <v>44102</v>
       </c>
       <c r="D63" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E63" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H63" t="n">
-        <v>2778365</v>
+        <v>251746</v>
       </c>
       <c r="I63" t="n">
-        <v>75.273</v>
+        <v>570.156</v>
       </c>
       <c r="J63" t="n">
-        <v>24483</v>
+        <v>2116</v>
       </c>
       <c r="K63" t="n">
-        <v>0.663</v>
+        <v>4.792</v>
       </c>
       <c r="L63" t="n">
-        <v>22436</v>
+        <v>2304</v>
       </c>
       <c r="M63" t="n">
-        <v>0.608</v>
+        <v>5.218</v>
       </c>
       <c r="N63" t="n">
-        <v>0.102</v>
+        <v>0.012</v>
       </c>
       <c r="O63" t="n">
-        <v>9.776</v>
+        <v>81.455</v>
       </c>
       <c r="P63" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q63" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S63" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B64" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>44111</v>
+        <v>44115</v>
       </c>
       <c r="D64" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E64" t="s">
-        <v>390</v>
+        <v>36</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>193</v>
-      </c>
-      <c r="H64" t="n">
-        <v>148538</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4.752</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H64"/>
+      <c r="I64"/>
       <c r="J64" t="n">
-        <v>1080</v>
+        <v>83</v>
       </c>
       <c r="K64" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="L64" t="n">
-        <v>1450</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="O64" t="n">
-        <v>12.055</v>
-      </c>
+        <v>0.018</v>
+      </c>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
       <c r="P64" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q64" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R64" t="s">
-        <v>392</v>
+        <v>24</v>
       </c>
       <c r="S64" t="s">
         <v>393</v>
@@ -6370,7 +6396,7 @@
         <v>395</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="D65" t="s">
         <v>396</v>
@@ -6380,84 +6406,88 @@
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>182</v>
+        <v>288</v>
       </c>
       <c r="H65" t="n">
-        <v>317765</v>
+        <v>1865473</v>
       </c>
       <c r="I65" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J65"/>
-      <c r="K65"/>
+        <v>14.469</v>
+      </c>
+      <c r="J65" t="n">
+        <v>10523</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.082</v>
+      </c>
       <c r="L65" t="n">
-        <v>7210</v>
+        <v>10163</v>
       </c>
       <c r="M65" t="n">
-        <v>0.133</v>
+        <v>0.079</v>
       </c>
       <c r="N65" t="n">
-        <v>0.151</v>
+        <v>0.41</v>
       </c>
       <c r="O65" t="n">
-        <v>6.634</v>
+        <v>2.438</v>
       </c>
       <c r="P65" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q65" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="R65" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="S65" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B66" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>44111</v>
+        <v>44122</v>
       </c>
       <c r="D66" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E66" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="H66" t="n">
-        <v>105386</v>
+        <v>3040181</v>
       </c>
       <c r="I66" t="n">
-        <v>41.476</v>
+        <v>82.366</v>
       </c>
       <c r="J66" t="n">
-        <v>1077</v>
+        <v>22693</v>
       </c>
       <c r="K66" t="n">
-        <v>0.424</v>
+        <v>0.615</v>
       </c>
       <c r="L66" t="n">
-        <v>1062</v>
+        <v>23240</v>
       </c>
       <c r="M66" t="n">
-        <v>0.418</v>
+        <v>0.63</v>
       </c>
       <c r="N66" t="n">
-        <v>0.072</v>
+        <v>0.151</v>
       </c>
       <c r="O66" t="n">
-        <v>13.947</v>
+        <v>6.636</v>
       </c>
       <c r="P66" t="s">
         <v>404</v>
@@ -6466,7 +6496,7 @@
         <v>405</v>
       </c>
       <c r="R66" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="S66" t="s">
         <v>406</v>
@@ -6480,7 +6510,7 @@
         <v>408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="D67" t="s">
         <v>409</v>
@@ -6490,31 +6520,31 @@
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="H67" t="n">
-        <v>1131958</v>
+        <v>167051</v>
       </c>
       <c r="I67" t="n">
-        <v>38.85</v>
+        <v>5.345</v>
       </c>
       <c r="J67" t="n">
-        <v>18473</v>
+        <v>1380</v>
       </c>
       <c r="K67" t="n">
-        <v>0.634</v>
+        <v>0.044</v>
       </c>
       <c r="L67" t="n">
-        <v>14002</v>
+        <v>1877</v>
       </c>
       <c r="M67" t="n">
-        <v>0.481</v>
+        <v>0.06</v>
       </c>
       <c r="N67" t="n">
-        <v>0.168</v>
+        <v>0.066</v>
       </c>
       <c r="O67" t="n">
-        <v>5.963</v>
+        <v>15.225</v>
       </c>
       <c r="P67" t="s">
         <v>410</v>
@@ -6523,51 +6553,51 @@
         <v>411</v>
       </c>
       <c r="R67" t="s">
-        <v>27</v>
+        <v>412</v>
       </c>
       <c r="S67" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B68" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>44108</v>
+        <v>44111</v>
       </c>
       <c r="D68" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E68" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="H68" t="n">
-        <v>2656731</v>
+        <v>317765</v>
       </c>
       <c r="I68" t="n">
-        <v>155.048</v>
+        <v>5.84</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
       <c r="L68" t="n">
-        <v>26682</v>
+        <v>7210</v>
       </c>
       <c r="M68" t="n">
-        <v>1.557</v>
+        <v>0.133</v>
       </c>
       <c r="N68" t="n">
-        <v>0.124</v>
+        <v>0.151</v>
       </c>
       <c r="O68" t="n">
-        <v>8.041</v>
+        <v>6.634</v>
       </c>
       <c r="P68" t="s">
         <v>417</v>
@@ -6576,7 +6606,7 @@
         <v>418</v>
       </c>
       <c r="R68" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="S68" t="s">
         <v>419</v>
@@ -6590,772 +6620,764 @@
         <v>421</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>44112</v>
+        <v>44123</v>
       </c>
       <c r="D69" t="s">
         <v>422</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>423</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="H69" t="n">
-        <v>992141</v>
+        <v>117052</v>
       </c>
       <c r="I69" t="n">
-        <v>205.743</v>
+        <v>46.067</v>
       </c>
       <c r="J69" t="n">
-        <v>5597</v>
+        <v>947</v>
       </c>
       <c r="K69" t="n">
-        <v>1.161</v>
+        <v>0.373</v>
       </c>
       <c r="L69" t="n">
-        <v>3071</v>
+        <v>904</v>
       </c>
       <c r="M69" t="n">
-        <v>0.637</v>
+        <v>0.356</v>
       </c>
       <c r="N69" t="n">
-        <v>0.001</v>
+        <v>0.056</v>
       </c>
       <c r="O69" t="n">
-        <v>767.75</v>
+        <v>17.725</v>
       </c>
       <c r="P69" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q69" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="R69" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="S69" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B70" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>44112</v>
+        <v>44123</v>
       </c>
       <c r="D70" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E70" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="H70" t="n">
-        <v>545364</v>
+        <v>1300918</v>
       </c>
       <c r="I70" t="n">
-        <v>2.646</v>
+        <v>44.649</v>
       </c>
       <c r="J70" t="n">
-        <v>1949</v>
+        <v>17564</v>
       </c>
       <c r="K70" t="n">
-        <v>0.009</v>
+        <v>0.603</v>
       </c>
       <c r="L70" t="n">
-        <v>4313</v>
+        <v>15629</v>
       </c>
       <c r="M70" t="n">
-        <v>0.021</v>
+        <v>0.536</v>
       </c>
       <c r="N70" t="n">
-        <v>0.029</v>
+        <v>0.224</v>
       </c>
       <c r="O70" t="n">
-        <v>33.922</v>
+        <v>4.467</v>
       </c>
       <c r="P70" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q70" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="R70" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="S70" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B71" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>44111</v>
+        <v>44115</v>
       </c>
       <c r="D71" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E71" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="H71" t="n">
-        <v>1118162</v>
+        <v>2872935</v>
       </c>
       <c r="I71" t="n">
-        <v>206.256</v>
-      </c>
-      <c r="J71" t="n">
-        <v>8681</v>
-      </c>
-      <c r="K71" t="n">
-        <v>1.601</v>
-      </c>
+        <v>167.666</v>
+      </c>
+      <c r="J71"/>
+      <c r="K71"/>
       <c r="L71" t="n">
-        <v>8275</v>
+        <v>29944</v>
       </c>
       <c r="M71" t="n">
-        <v>1.526</v>
+        <v>1.748</v>
       </c>
       <c r="N71" t="n">
-        <v>0.014</v>
+        <v>0.173</v>
       </c>
       <c r="O71" t="n">
-        <v>70.987</v>
+        <v>5.769</v>
       </c>
       <c r="P71" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q71" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="R71" t="s">
-        <v>435</v>
+        <v>78</v>
       </c>
       <c r="S71" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B72" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>44048</v>
+        <v>44123</v>
       </c>
       <c r="D72" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E72" t="s">
-        <v>440</v>
+        <v>36</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>58</v>
-      </c>
-      <c r="H72"/>
-      <c r="I72"/>
+        <v>232</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1034603</v>
+      </c>
+      <c r="I72" t="n">
+        <v>214.549</v>
+      </c>
       <c r="J72" t="n">
-        <v>2682</v>
+        <v>2715</v>
       </c>
       <c r="K72" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
+        <v>0.563</v>
+      </c>
+      <c r="L72" t="n">
+        <v>4114</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1919.867</v>
+      </c>
       <c r="P72" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q72" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="R72" t="s">
-        <v>392</v>
+        <v>24</v>
       </c>
       <c r="S72" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B73" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>44113</v>
+        <v>44124</v>
       </c>
       <c r="D73" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E73" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="H73" t="n">
-        <v>3795287</v>
+        <v>590635</v>
       </c>
       <c r="I73" t="n">
-        <v>17.182</v>
-      </c>
-      <c r="J73" t="n">
-        <v>33898</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.153</v>
-      </c>
+        <v>2.865</v>
+      </c>
+      <c r="J73"/>
+      <c r="K73"/>
       <c r="L73" t="n">
-        <v>30731</v>
+        <v>4617</v>
       </c>
       <c r="M73" t="n">
-        <v>0.139</v>
+        <v>0.022</v>
       </c>
       <c r="N73" t="n">
-        <v>0.019</v>
+        <v>0.035</v>
       </c>
       <c r="O73" t="n">
-        <v>51.661</v>
+        <v>28.652</v>
       </c>
       <c r="P73" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q73" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="R73" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="S73" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B74" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>44112</v>
+        <v>44121</v>
       </c>
       <c r="D74" t="s">
-        <v>450</v>
-      </c>
-      <c r="E74"/>
+        <v>454</v>
+      </c>
+      <c r="E74" t="s">
+        <v>455</v>
+      </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>40</v>
-      </c>
-      <c r="H74"/>
-      <c r="I74"/>
+        <v>237</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1474887</v>
+      </c>
+      <c r="I74" t="n">
+        <v>272.057</v>
+      </c>
       <c r="J74" t="n">
-        <v>3488</v>
+        <v>4566</v>
       </c>
       <c r="K74" t="n">
-        <v>0.684</v>
+        <v>0.842</v>
       </c>
       <c r="L74" t="n">
-        <v>3915</v>
+        <v>12491</v>
       </c>
       <c r="M74" t="n">
-        <v>0.767</v>
+        <v>2.304</v>
       </c>
       <c r="N74" t="n">
-        <v>0.124</v>
+        <v>0.01</v>
       </c>
       <c r="O74" t="n">
-        <v>8.065</v>
+        <v>95.56</v>
       </c>
       <c r="P74" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="Q74" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="R74" t="s">
-        <v>27</v>
+        <v>456</v>
       </c>
       <c r="S74" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B75" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>44111</v>
+        <v>44048</v>
       </c>
       <c r="D75" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="E75" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>212</v>
-      </c>
-      <c r="H75" t="n">
-        <v>517032</v>
-      </c>
-      <c r="I75" t="n">
-        <v>119.828</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H75"/>
+      <c r="I75"/>
       <c r="J75" t="n">
-        <v>6215</v>
+        <v>2682</v>
       </c>
       <c r="K75" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="L75" t="n">
-        <v>5477</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.269</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="O75" t="n">
-        <v>8.073</v>
-      </c>
+        <v>0.525</v>
+      </c>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
       <c r="P75" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q75" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="R75" t="s">
-        <v>27</v>
+        <v>412</v>
       </c>
       <c r="S75" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B76" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>44111</v>
+        <v>44123</v>
       </c>
       <c r="D76" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E76" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H76" t="n">
-        <v>296536</v>
+        <v>4101115</v>
       </c>
       <c r="I76" t="n">
-        <v>41.575</v>
+        <v>18.566</v>
       </c>
       <c r="J76" t="n">
-        <v>3162</v>
+        <v>27091</v>
       </c>
       <c r="K76" t="n">
-        <v>0.443</v>
+        <v>0.123</v>
       </c>
       <c r="L76" t="n">
-        <v>2721</v>
+        <v>30903</v>
       </c>
       <c r="M76" t="n">
-        <v>0.381</v>
+        <v>0.14</v>
       </c>
       <c r="N76" t="n">
-        <v>0.291</v>
+        <v>0.021</v>
       </c>
       <c r="O76" t="n">
-        <v>3.434</v>
+        <v>47.859</v>
       </c>
       <c r="P76" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Q76" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="R76" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S76" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B77" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>44079</v>
+        <v>44122</v>
       </c>
       <c r="D77" t="s">
-        <v>468</v>
-      </c>
-      <c r="E77" t="s">
-        <v>469</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="E77"/>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>185</v>
-      </c>
-      <c r="H77" t="n">
-        <v>630521</v>
-      </c>
-      <c r="I77" t="n">
-        <v>19.123</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H77"/>
+      <c r="I77"/>
       <c r="J77" t="n">
-        <v>6525</v>
+        <v>3536</v>
       </c>
       <c r="K77" t="n">
-        <v>0.198</v>
+        <v>0.693</v>
       </c>
       <c r="L77" t="n">
-        <v>6613</v>
+        <v>3835</v>
       </c>
       <c r="M77" t="n">
-        <v>0.201</v>
-      </c>
-      <c r="N77"/>
-      <c r="O77"/>
+        <v>0.752</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="O77" t="n">
+        <v>8.901</v>
+      </c>
       <c r="P77" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="Q77" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="R77" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S77" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B78" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="D78" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E78" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="H78" t="n">
-        <v>3815438</v>
+        <v>579424</v>
       </c>
       <c r="I78" t="n">
-        <v>34.818</v>
+        <v>134.289</v>
       </c>
       <c r="J78" t="n">
-        <v>29877</v>
+        <v>4774</v>
       </c>
       <c r="K78" t="n">
-        <v>0.273</v>
+        <v>1.106</v>
       </c>
       <c r="L78" t="n">
-        <v>32275</v>
+        <v>5463</v>
       </c>
       <c r="M78" t="n">
-        <v>0.295</v>
+        <v>1.266</v>
       </c>
       <c r="N78" t="n">
-        <v>0.09</v>
+        <v>0.116</v>
       </c>
       <c r="O78" t="n">
-        <v>11.111</v>
+        <v>8.611</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>478</v>
       </c>
       <c r="Q78" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="R78" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S78" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B79" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>44112</v>
+        <v>44120</v>
       </c>
       <c r="D79" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E79" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="H79" t="n">
-        <v>3423975</v>
+        <v>322978</v>
       </c>
       <c r="I79" t="n">
-        <v>90.47</v>
+        <v>45.282</v>
       </c>
       <c r="J79" t="n">
-        <v>42748</v>
+        <v>2972</v>
       </c>
       <c r="K79" t="n">
-        <v>1.13</v>
+        <v>0.417</v>
       </c>
       <c r="L79" t="n">
-        <v>28197</v>
+        <v>2903</v>
       </c>
       <c r="M79" t="n">
-        <v>0.745</v>
+        <v>0.407</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08</v>
+        <v>0.26</v>
       </c>
       <c r="O79" t="n">
-        <v>12.488</v>
+        <v>3.849</v>
       </c>
       <c r="P79" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="Q79" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="R79" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S79" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B80" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>44112</v>
+        <v>44079</v>
       </c>
       <c r="D80" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E80" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="H80" t="n">
-        <v>3577810</v>
+        <v>630521</v>
       </c>
       <c r="I80" t="n">
-        <v>94.535</v>
+        <v>19.123</v>
       </c>
       <c r="J80" t="n">
-        <v>44113</v>
+        <v>6525</v>
       </c>
       <c r="K80" t="n">
-        <v>1.166</v>
+        <v>0.198</v>
       </c>
       <c r="L80" t="n">
-        <v>30821</v>
+        <v>6613</v>
       </c>
       <c r="M80" t="n">
-        <v>0.814</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="O80" t="n">
-        <v>13.651</v>
-      </c>
+        <v>0.201</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80"/>
       <c r="P80" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="Q80" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="R80" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="S80" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B81" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>44111</v>
+        <v>44122</v>
       </c>
       <c r="D81" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="E81" t="s">
-        <v>45</v>
+        <v>495</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="H81" t="n">
-        <v>2764867</v>
+        <v>4142195</v>
       </c>
       <c r="I81" t="n">
-        <v>271.153</v>
+        <v>37.8</v>
       </c>
       <c r="J81" t="n">
-        <v>28394</v>
+        <v>17200</v>
       </c>
       <c r="K81" t="n">
-        <v>2.785</v>
+        <v>0.157</v>
       </c>
       <c r="L81" t="n">
-        <v>19906</v>
+        <v>29658</v>
       </c>
       <c r="M81" t="n">
-        <v>1.952</v>
+        <v>0.271</v>
       </c>
       <c r="N81" t="n">
-        <v>0.04</v>
+        <v>0.084</v>
       </c>
       <c r="O81" t="n">
-        <v>24.905</v>
+        <v>11.923</v>
       </c>
       <c r="P81" t="s">
-        <v>489</v>
+        <v>228</v>
       </c>
       <c r="Q81" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="R81" t="s">
-        <v>490</v>
+        <v>78</v>
       </c>
       <c r="S81" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B82" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>44113</v>
+        <v>44122</v>
       </c>
       <c r="D82" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="E82" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="H82" t="n">
-        <v>820368</v>
+        <v>3814664</v>
       </c>
       <c r="I82" t="n">
-        <v>284.745</v>
+        <v>100.793</v>
       </c>
       <c r="J82" t="n">
-        <v>5347</v>
+        <v>34873</v>
       </c>
       <c r="K82" t="n">
-        <v>1.856</v>
+        <v>0.921</v>
       </c>
       <c r="L82" t="n">
-        <v>4878</v>
+        <v>41915</v>
       </c>
       <c r="M82" t="n">
-        <v>1.693</v>
+        <v>1.107</v>
       </c>
       <c r="N82" t="n">
-        <v>0.042</v>
+        <v>0.155</v>
       </c>
       <c r="O82" t="n">
-        <v>23.795</v>
+        <v>6.435</v>
       </c>
       <c r="P82" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="Q82" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="R82" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="S82" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="83">
@@ -7363,10 +7385,10 @@
         <v>498</v>
       </c>
       <c r="B83" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>44113</v>
+        <v>44122</v>
       </c>
       <c r="D83" t="s">
         <v>500</v>
@@ -7376,609 +7398,607 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="H83" t="n">
-        <v>2627544</v>
+        <v>3972432</v>
       </c>
       <c r="I83" t="n">
-        <v>136.583</v>
+        <v>104.961</v>
       </c>
       <c r="J83" t="n">
-        <v>29282</v>
+        <v>37289</v>
       </c>
       <c r="K83" t="n">
-        <v>1.522</v>
+        <v>0.985</v>
       </c>
       <c r="L83" t="n">
-        <v>22292</v>
+        <v>43486</v>
       </c>
       <c r="M83" t="n">
-        <v>1.159</v>
+        <v>1.149</v>
       </c>
       <c r="N83" t="n">
-        <v>0.103</v>
+        <v>0.15</v>
       </c>
       <c r="O83" t="n">
-        <v>9.727</v>
+        <v>6.677</v>
       </c>
       <c r="P83" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q83" t="s">
         <v>502</v>
       </c>
-      <c r="Q83" t="s">
-        <v>503</v>
-      </c>
       <c r="R83" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="S83" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B84" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44112</v>
+        <v>44117</v>
       </c>
       <c r="D84" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E84" t="s">
-        <v>508</v>
+        <v>36</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="H84" t="n">
-        <v>49656873</v>
+        <v>2906183</v>
       </c>
       <c r="I84" t="n">
-        <v>340.268</v>
+        <v>285.012</v>
       </c>
       <c r="J84" t="n">
-        <v>507919</v>
+        <v>30170</v>
       </c>
       <c r="K84" t="n">
-        <v>3.48</v>
+        <v>2.959</v>
       </c>
       <c r="L84" t="n">
-        <v>404713</v>
+        <v>24244</v>
       </c>
       <c r="M84" t="n">
-        <v>2.773</v>
+        <v>2.378</v>
       </c>
       <c r="N84" t="n">
-        <v>0.026</v>
+        <v>0.047</v>
       </c>
       <c r="O84" t="n">
-        <v>39.166</v>
+        <v>21.14</v>
       </c>
       <c r="P84" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q84" t="s">
         <v>508</v>
       </c>
-      <c r="Q84" t="s">
-        <v>509</v>
-      </c>
       <c r="R84" t="s">
-        <v>27</v>
+        <v>510</v>
       </c>
       <c r="S84" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B85" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>44109</v>
+        <v>44123</v>
       </c>
       <c r="D85" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E85" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="H85" t="n">
-        <v>506658</v>
+        <v>886186</v>
       </c>
       <c r="I85" t="n">
-        <v>39.117</v>
+        <v>307.59</v>
       </c>
       <c r="J85" t="n">
-        <v>1988</v>
+        <v>8844</v>
       </c>
       <c r="K85" t="n">
-        <v>0.153</v>
+        <v>3.07</v>
       </c>
       <c r="L85" t="n">
-        <v>2348</v>
+        <v>6957</v>
       </c>
       <c r="M85" t="n">
-        <v>0.181</v>
+        <v>2.415</v>
       </c>
       <c r="N85" t="n">
-        <v>0.003</v>
+        <v>0.03</v>
       </c>
       <c r="O85" t="n">
-        <v>357.304</v>
+        <v>33.678</v>
       </c>
       <c r="P85" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q85" t="s">
         <v>514</v>
       </c>
-      <c r="Q85" t="s">
-        <v>515</v>
-      </c>
       <c r="R85" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="S85" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B86" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="D86" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>521</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H86" t="n">
-        <v>6930352</v>
+        <v>2852186</v>
       </c>
       <c r="I86" t="n">
-        <v>199.069</v>
+        <v>148.26</v>
       </c>
       <c r="J86" t="n">
-        <v>53894</v>
+        <v>19507</v>
       </c>
       <c r="K86" t="n">
-        <v>1.548</v>
+        <v>1.014</v>
       </c>
       <c r="L86" t="n">
-        <v>48242</v>
+        <v>25664</v>
       </c>
       <c r="M86" t="n">
-        <v>1.386</v>
+        <v>1.334</v>
       </c>
       <c r="N86" t="n">
-        <v>0.009</v>
+        <v>0.134</v>
       </c>
       <c r="O86" t="n">
-        <v>108.723</v>
+        <v>7.465</v>
       </c>
       <c r="P86" t="s">
-        <v>45</v>
+        <v>522</v>
       </c>
       <c r="Q86" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="R86" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S86" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B87" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>44112</v>
+        <v>44123</v>
       </c>
       <c r="D87" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E87" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H87" t="n">
-        <v>194122</v>
+        <v>54675096</v>
       </c>
       <c r="I87" t="n">
-        <v>11.594</v>
+        <v>374.655</v>
       </c>
       <c r="J87" t="n">
-        <v>987</v>
+        <v>374888</v>
       </c>
       <c r="K87" t="n">
-        <v>0.059</v>
+        <v>2.569</v>
       </c>
       <c r="L87" t="n">
-        <v>1059</v>
+        <v>472975</v>
       </c>
       <c r="M87" t="n">
-        <v>0.063</v>
+        <v>3.241</v>
       </c>
       <c r="N87" t="n">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
       <c r="O87" t="n">
-        <v>38.609</v>
+        <v>32.906</v>
       </c>
       <c r="P87" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="Q87" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="R87" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S87" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B88" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>44111</v>
+        <v>44121</v>
       </c>
       <c r="D88" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
-      </c>
-      <c r="F88" t="s">
-        <v>529</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="F88"/>
       <c r="G88" t="n">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="H88" t="n">
-        <v>1173582</v>
+        <v>532528</v>
       </c>
       <c r="I88" t="n">
-        <v>172.469</v>
+        <v>41.115</v>
       </c>
       <c r="J88" t="n">
-        <v>6700</v>
+        <v>2224</v>
       </c>
       <c r="K88" t="n">
-        <v>0.985</v>
+        <v>0.172</v>
       </c>
       <c r="L88" t="n">
-        <v>5620</v>
+        <v>2254</v>
       </c>
       <c r="M88" t="n">
-        <v>0.826</v>
+        <v>0.174</v>
       </c>
       <c r="N88" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="O88" t="n">
-        <v>66.341</v>
+        <v>210.373</v>
       </c>
       <c r="P88" t="s">
-        <v>45</v>
+        <v>534</v>
       </c>
       <c r="Q88" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="R88" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="S88" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B89" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>44109</v>
+        <v>44122</v>
       </c>
       <c r="D89" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="E89" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="H89" t="n">
-        <v>987716</v>
+        <v>7403020</v>
       </c>
       <c r="I89" t="n">
-        <v>168.83</v>
-      </c>
-      <c r="J89"/>
-      <c r="K89"/>
+        <v>212.646</v>
+      </c>
+      <c r="J89" t="n">
+        <v>48884</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.404</v>
+      </c>
       <c r="L89" t="n">
-        <v>4278</v>
+        <v>48934</v>
       </c>
       <c r="M89" t="n">
-        <v>0.731</v>
+        <v>1.406</v>
       </c>
       <c r="N89" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="O89" t="n">
-        <v>267.375</v>
+        <v>117.711</v>
       </c>
       <c r="P89" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="Q89" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="R89" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S89" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="B90" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44109</v>
+        <v>44123</v>
       </c>
       <c r="D90" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>544</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="H90" t="n">
-        <v>3072368</v>
+        <v>205461</v>
       </c>
       <c r="I90" t="n">
-        <v>525.16</v>
-      </c>
-      <c r="J90"/>
-      <c r="K90"/>
+        <v>12.271</v>
+      </c>
+      <c r="J90" t="n">
+        <v>829</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.05</v>
+      </c>
       <c r="L90" t="n">
-        <v>26689</v>
+        <v>1053</v>
       </c>
       <c r="M90" t="n">
-        <v>4.562</v>
+        <v>0.063</v>
       </c>
       <c r="N90" t="n">
-        <v>0.001</v>
+        <v>0.02</v>
       </c>
       <c r="O90" t="n">
-        <v>1668.062</v>
+        <v>49.14</v>
       </c>
       <c r="P90" t="s">
-        <v>45</v>
+        <v>544</v>
       </c>
       <c r="Q90" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="R90" t="s">
-        <v>537</v>
+        <v>24</v>
       </c>
       <c r="S90" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B91" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>44113</v>
+        <v>44123</v>
       </c>
       <c r="D91" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="E91" t="s">
-        <v>541</v>
-      </c>
-      <c r="F91"/>
+        <v>36</v>
+      </c>
+      <c r="F91" t="s">
+        <v>549</v>
+      </c>
       <c r="G91" t="n">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="H91" t="n">
-        <v>528367</v>
+        <v>1241864</v>
       </c>
       <c r="I91" t="n">
-        <v>96.777</v>
+        <v>182.504</v>
       </c>
       <c r="J91" t="n">
-        <v>10136</v>
+        <v>5746</v>
       </c>
       <c r="K91" t="n">
-        <v>1.857</v>
+        <v>0.844</v>
       </c>
       <c r="L91" t="n">
-        <v>7646</v>
+        <v>6009</v>
       </c>
       <c r="M91" t="n">
-        <v>1.4</v>
+        <v>0.883</v>
       </c>
       <c r="N91" t="n">
-        <v>0.089</v>
+        <v>0.033</v>
       </c>
       <c r="O91" t="n">
-        <v>11.178</v>
+        <v>30.636</v>
       </c>
       <c r="P91" t="s">
-        <v>542</v>
+        <v>36</v>
       </c>
       <c r="Q91" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="R91" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="S91" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="B92" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>44112</v>
+        <v>44123</v>
       </c>
       <c r="D92" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="E92" t="s">
-        <v>547</v>
+        <v>36</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="n">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="H92" t="n">
-        <v>250021</v>
+        <v>1051451</v>
       </c>
       <c r="I92" t="n">
-        <v>120.264</v>
-      </c>
-      <c r="J92" t="n">
-        <v>3682</v>
-      </c>
-      <c r="K92" t="n">
-        <v>1.771</v>
-      </c>
+        <v>179.725</v>
+      </c>
+      <c r="J92"/>
+      <c r="K92"/>
       <c r="L92" t="n">
-        <v>2816</v>
+        <v>4601</v>
       </c>
       <c r="M92" t="n">
-        <v>1.355</v>
+        <v>0.786</v>
       </c>
       <c r="N92" t="n">
-        <v>0.073</v>
+        <v>0.001</v>
       </c>
       <c r="O92" t="n">
-        <v>13.746</v>
+        <v>920.2</v>
       </c>
       <c r="P92" t="s">
-        <v>548</v>
+        <v>36</v>
       </c>
       <c r="Q92" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="R92" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="S92" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B93" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>44112</v>
+        <v>44123</v>
       </c>
       <c r="D93" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93" t="n">
+        <v>29</v>
+      </c>
+      <c r="H93" t="n">
+        <v>3486260</v>
+      </c>
+      <c r="I93" t="n">
+        <v>595.907</v>
+      </c>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93" t="n">
+        <v>27996</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4.785</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>5599.2</v>
+      </c>
+      <c r="P93" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q93" t="s">
         <v>554</v>
       </c>
-      <c r="F93" t="s">
+      <c r="R93" t="s">
+        <v>557</v>
+      </c>
+      <c r="S93" t="s">
         <v>555</v>
-      </c>
-      <c r="G93" t="n">
-        <v>222</v>
-      </c>
-      <c r="H93" t="n">
-        <v>4339686</v>
-      </c>
-      <c r="I93" t="n">
-        <v>73.171</v>
-      </c>
-      <c r="J93" t="n">
-        <v>21172</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.357</v>
-      </c>
-      <c r="L93" t="n">
-        <v>18662</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="O93" t="n">
-        <v>12.078</v>
-      </c>
-      <c r="P93" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>556</v>
-      </c>
-      <c r="R93" t="s">
-        <v>23</v>
-      </c>
-      <c r="S93" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="94">
@@ -7989,7 +8009,7 @@
         <v>559</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>44113</v>
+        <v>44123</v>
       </c>
       <c r="D94" t="s">
         <v>560</v>
@@ -7999,1222 +8019,1342 @@
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="H94" t="n">
-        <v>2379534</v>
+        <v>627978</v>
       </c>
       <c r="I94" t="n">
-        <v>46.413</v>
+        <v>115.022</v>
       </c>
       <c r="J94" t="n">
-        <v>11668</v>
+        <v>5946</v>
       </c>
       <c r="K94" t="n">
-        <v>0.228</v>
+        <v>1.089</v>
       </c>
       <c r="L94" t="n">
-        <v>9393</v>
+        <v>10068</v>
       </c>
       <c r="M94" t="n">
-        <v>0.183</v>
+        <v>1.844</v>
       </c>
       <c r="N94" t="n">
-        <v>0.008</v>
+        <v>0.142</v>
       </c>
       <c r="O94" t="n">
-        <v>125.479</v>
+        <v>7.059</v>
       </c>
       <c r="P94" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Q94" t="s">
         <v>560</v>
       </c>
       <c r="R94" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S94" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B95" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>44109</v>
+        <v>44123</v>
       </c>
       <c r="D95" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E95" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="H95" t="n">
-        <v>10447379</v>
+        <v>293769</v>
       </c>
       <c r="I95" t="n">
-        <v>223.45</v>
+        <v>141.308</v>
       </c>
       <c r="J95" t="n">
-        <v>84989</v>
+        <v>4326</v>
       </c>
       <c r="K95" t="n">
-        <v>1.818</v>
+        <v>2.081</v>
       </c>
       <c r="L95" t="n">
-        <v>94911</v>
+        <v>4531</v>
       </c>
       <c r="M95" t="n">
-        <v>2.03</v>
+        <v>2.179</v>
       </c>
       <c r="N95" t="n">
-        <v>0.098</v>
+        <v>0.158</v>
       </c>
       <c r="O95" t="n">
-        <v>10.198</v>
+        <v>6.321</v>
       </c>
       <c r="P95" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q95" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="R95" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S95" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B96" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>44112</v>
+        <v>44122</v>
       </c>
       <c r="D96" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E96" t="s">
-        <v>573</v>
-      </c>
-      <c r="F96"/>
+        <v>574</v>
+      </c>
+      <c r="F96" t="s">
+        <v>575</v>
+      </c>
       <c r="G96" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H96" t="n">
-        <v>313813</v>
+        <v>4549478</v>
       </c>
       <c r="I96" t="n">
-        <v>14.655</v>
+        <v>76.708</v>
       </c>
       <c r="J96" t="n">
-        <v>4824</v>
+        <v>21337</v>
       </c>
       <c r="K96" t="n">
-        <v>0.225</v>
+        <v>0.36</v>
       </c>
       <c r="L96" t="n">
-        <v>3244</v>
+        <v>20291</v>
       </c>
       <c r="M96" t="n">
-        <v>0.151</v>
+        <v>0.342</v>
       </c>
       <c r="N96" t="n">
-        <v>0.048</v>
+        <v>0.079</v>
       </c>
       <c r="O96" t="n">
-        <v>21.045</v>
+        <v>12.642</v>
       </c>
       <c r="P96" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Q96" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="R96" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="S96" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B97" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>44017</v>
+        <v>44124</v>
       </c>
       <c r="D97" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E97" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F97"/>
       <c r="G97" t="n">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="H97" t="n">
-        <v>597850</v>
+        <v>2471932</v>
       </c>
       <c r="I97" t="n">
-        <v>59.197</v>
-      </c>
-      <c r="J97"/>
-      <c r="K97"/>
+        <v>48.215</v>
+      </c>
+      <c r="J97" t="n">
+        <v>9469</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.185</v>
+      </c>
       <c r="L97" t="n">
-        <v>11092</v>
+        <v>9041</v>
       </c>
       <c r="M97" t="n">
-        <v>1.098</v>
+        <v>0.176</v>
       </c>
       <c r="N97" t="n">
-        <v>0.056</v>
+        <v>0.008</v>
       </c>
       <c r="O97" t="n">
-        <v>17.751</v>
+        <v>119.862</v>
       </c>
       <c r="P97" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="Q97" t="s">
         <v>580</v>
       </c>
       <c r="R97" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="S97" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B98" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>44108</v>
+        <v>44120</v>
       </c>
       <c r="D98" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E98" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>84</v>
-      </c>
-      <c r="H98"/>
-      <c r="I98"/>
+        <v>28</v>
+      </c>
+      <c r="H98" t="n">
+        <v>11759454</v>
+      </c>
+      <c r="I98" t="n">
+        <v>251.513</v>
+      </c>
       <c r="J98" t="n">
-        <v>18580</v>
+        <v>123194</v>
       </c>
       <c r="K98" t="n">
-        <v>1.84</v>
+        <v>2.635</v>
       </c>
       <c r="L98" t="n">
-        <v>18580</v>
+        <v>104934</v>
       </c>
       <c r="M98" t="n">
-        <v>1.84</v>
+        <v>2.244</v>
       </c>
       <c r="N98" t="n">
-        <v>0.028</v>
+        <v>0.103</v>
       </c>
       <c r="O98" t="n">
-        <v>35.594</v>
+        <v>9.736</v>
       </c>
       <c r="P98" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="Q98" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="R98" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S98" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B99" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>44112</v>
+        <v>44123</v>
       </c>
       <c r="D99" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="E99" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="H99" t="n">
-        <v>1470894</v>
+        <v>398196</v>
       </c>
       <c r="I99" t="n">
-        <v>169.955</v>
+        <v>18.596</v>
       </c>
       <c r="J99" t="n">
-        <v>9809</v>
+        <v>7136</v>
       </c>
       <c r="K99" t="n">
-        <v>1.133</v>
+        <v>0.333</v>
       </c>
       <c r="L99" t="n">
-        <v>10599</v>
+        <v>7979</v>
       </c>
       <c r="M99" t="n">
-        <v>1.225</v>
+        <v>0.373</v>
       </c>
       <c r="N99" t="n">
-        <v>0.045</v>
+        <v>0.014</v>
       </c>
       <c r="O99" t="n">
-        <v>22.213</v>
+        <v>71.06</v>
       </c>
       <c r="P99" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="Q99" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="R99" t="s">
-        <v>591</v>
+        <v>24</v>
       </c>
       <c r="S99" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B100" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>44112</v>
+        <v>44017</v>
       </c>
       <c r="D100" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E100" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="H100" t="n">
-        <v>96280</v>
+        <v>597850</v>
       </c>
       <c r="I100" t="n">
-        <v>4.043</v>
-      </c>
-      <c r="J100" t="n">
-        <v>589</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.025</v>
-      </c>
+        <v>59.197</v>
+      </c>
+      <c r="J100"/>
+      <c r="K100"/>
       <c r="L100" t="n">
-        <v>317</v>
+        <v>11092</v>
       </c>
       <c r="M100" t="n">
-        <v>0.013</v>
+        <v>1.098</v>
       </c>
       <c r="N100" t="n">
-        <v>0.005</v>
+        <v>0.056</v>
       </c>
       <c r="O100" t="n">
-        <v>221.9</v>
+        <v>17.751</v>
       </c>
       <c r="P100" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="Q100" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="R100" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="S100" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>595</v>
+      </c>
+      <c r="B101" t="s">
+        <v>602</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>44115</v>
+      </c>
+      <c r="D101" t="s">
+        <v>603</v>
+      </c>
+      <c r="E101" t="s">
         <v>598</v>
-      </c>
-      <c r="B101" t="s">
-        <v>599</v>
-      </c>
-      <c r="C101" s="1" t="n">
-        <v>44112</v>
-      </c>
-      <c r="D101" t="s">
-        <v>600</v>
-      </c>
-      <c r="E101" t="s">
-        <v>601</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>204</v>
-      </c>
-      <c r="H101" t="n">
-        <v>458540</v>
-      </c>
-      <c r="I101" t="n">
-        <v>6.569</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="H101"/>
+      <c r="I101"/>
       <c r="J101" t="n">
-        <v>888</v>
+        <v>19852</v>
       </c>
       <c r="K101" t="n">
-        <v>0.013</v>
+        <v>1.966</v>
       </c>
       <c r="L101" t="n">
-        <v>874</v>
+        <v>19852</v>
       </c>
       <c r="M101" t="n">
-        <v>0.013</v>
+        <v>1.966</v>
       </c>
       <c r="N101" t="n">
-        <v>0.009</v>
+        <v>0.031</v>
       </c>
       <c r="O101" t="n">
-        <v>115.434</v>
+        <v>32.499</v>
       </c>
       <c r="P101" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Q101" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="R101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S101" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="B102" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>44112</v>
+        <v>44123</v>
       </c>
       <c r="D102" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="E102" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>108</v>
+        <v>268</v>
       </c>
       <c r="H102" t="n">
-        <v>885950</v>
+        <v>1646512</v>
       </c>
       <c r="I102" t="n">
-        <v>12.693</v>
+        <v>190.247</v>
       </c>
       <c r="J102" t="n">
-        <v>888</v>
+        <v>10396</v>
       </c>
       <c r="K102" t="n">
-        <v>0.013</v>
+        <v>1.201</v>
       </c>
       <c r="L102" t="n">
-        <v>874</v>
+        <v>17454</v>
       </c>
       <c r="M102" t="n">
-        <v>0.013</v>
+        <v>2.017</v>
       </c>
       <c r="N102" t="n">
-        <v>0.009</v>
+        <v>0.116</v>
       </c>
       <c r="O102" t="n">
-        <v>115.434</v>
+        <v>8.609</v>
       </c>
       <c r="P102" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="Q102" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="R102" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="S102" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="B103" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>44111</v>
-      </c>
-      <c r="D103"/>
+        <v>44123</v>
+      </c>
+      <c r="D103" t="s">
+        <v>615</v>
+      </c>
       <c r="E103" t="s">
-        <v>608</v>
-      </c>
-      <c r="F103" t="s">
-        <v>609</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="F103"/>
       <c r="G103" t="n">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="H103" t="n">
-        <v>98642</v>
+        <v>99367</v>
       </c>
       <c r="I103" t="n">
-        <v>11.915</v>
+        <v>4.172</v>
       </c>
       <c r="J103" t="n">
-        <v>938</v>
+        <v>316</v>
       </c>
       <c r="K103" t="n">
-        <v>0.113</v>
+        <v>0.013</v>
       </c>
       <c r="L103" t="n">
-        <v>1008</v>
+        <v>315</v>
       </c>
       <c r="M103" t="n">
-        <v>0.122</v>
+        <v>0.013</v>
       </c>
       <c r="N103" t="n">
-        <v>0.017</v>
+        <v>0.006</v>
       </c>
       <c r="O103" t="n">
-        <v>57.836</v>
+        <v>169.615</v>
       </c>
       <c r="P103" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="Q103" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="R103" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="S103" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B104" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>44099</v>
+        <v>44113</v>
       </c>
       <c r="D104" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="E104" t="s">
-        <v>615</v>
+        <v>120</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>190</v>
+        <v>279</v>
       </c>
       <c r="H104" t="n">
-        <v>225033</v>
+        <v>1090380</v>
       </c>
       <c r="I104" t="n">
-        <v>19.041</v>
-      </c>
-      <c r="J104"/>
-      <c r="K104"/>
+        <v>15.621</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5688</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.081</v>
+      </c>
       <c r="L104" t="n">
-        <v>2442</v>
+        <v>4082</v>
       </c>
       <c r="M104" t="n">
-        <v>0.207</v>
+        <v>0.058</v>
       </c>
       <c r="N104" t="n">
-        <v>0.277</v>
+        <v>0.002</v>
       </c>
       <c r="O104" t="n">
-        <v>3.61</v>
+        <v>539.132</v>
       </c>
       <c r="P104" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="Q104" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="R104" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S104" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B105" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>44112</v>
-      </c>
-      <c r="D105" t="s">
-        <v>619</v>
-      </c>
+        <v>44122</v>
+      </c>
+      <c r="D105"/>
       <c r="E105" t="s">
-        <v>620</v>
-      </c>
-      <c r="F105"/>
+        <v>625</v>
+      </c>
+      <c r="F105" t="s">
+        <v>626</v>
+      </c>
       <c r="G105" t="n">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="H105" t="n">
-        <v>11278047</v>
+        <v>108199</v>
       </c>
       <c r="I105" t="n">
-        <v>133.723</v>
+        <v>13.07</v>
       </c>
       <c r="J105" t="n">
-        <v>117101</v>
+        <v>692</v>
       </c>
       <c r="K105" t="n">
-        <v>1.388</v>
+        <v>0.084</v>
       </c>
       <c r="L105" t="n">
-        <v>112034</v>
+        <v>872</v>
       </c>
       <c r="M105" t="n">
-        <v>1.328</v>
+        <v>0.105</v>
       </c>
       <c r="N105" t="n">
-        <v>0.013</v>
+        <v>0.019</v>
       </c>
       <c r="O105" t="n">
-        <v>74.868</v>
+        <v>53.544</v>
       </c>
       <c r="P105" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="Q105" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="R105" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="S105" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B106" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>44111</v>
+        <v>44099</v>
       </c>
       <c r="D106" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="E106" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="F106"/>
       <c r="G106" t="n">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="H106" t="n">
-        <v>501040</v>
+        <v>225033</v>
       </c>
       <c r="I106" t="n">
-        <v>10.954</v>
+        <v>19.041</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
       <c r="L106" t="n">
-        <v>2626</v>
+        <v>2442</v>
       </c>
       <c r="M106" t="n">
-        <v>0.057</v>
+        <v>0.207</v>
       </c>
       <c r="N106" t="n">
-        <v>0.058</v>
+        <v>0.277</v>
       </c>
       <c r="O106" t="n">
-        <v>17.26</v>
+        <v>3.61</v>
       </c>
       <c r="P106" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="Q106" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="R106" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="S106" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B107" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>44113</v>
+        <v>44123</v>
       </c>
       <c r="D107" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="E107" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="H107" t="n">
-        <v>2522360</v>
+        <v>12524561</v>
       </c>
       <c r="I107" t="n">
-        <v>57.675</v>
+        <v>148.502</v>
       </c>
       <c r="J107" t="n">
-        <v>32658</v>
+        <v>116249</v>
       </c>
       <c r="K107" t="n">
-        <v>0.747</v>
+        <v>1.378</v>
       </c>
       <c r="L107" t="n">
-        <v>26345</v>
+        <v>113316</v>
       </c>
       <c r="M107" t="n">
-        <v>0.602</v>
+        <v>1.344</v>
       </c>
       <c r="N107" t="n">
-        <v>0.194</v>
+        <v>0.015</v>
       </c>
       <c r="O107" t="n">
-        <v>5.155</v>
+        <v>66.322</v>
       </c>
       <c r="P107" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="Q107" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="R107" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="S107" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B108" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>44113</v>
+        <v>44121</v>
       </c>
       <c r="D108" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="E108" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="H108" t="n">
-        <v>10670718</v>
+        <v>522286</v>
       </c>
       <c r="I108" t="n">
-        <v>1078.897</v>
+        <v>11.418</v>
       </c>
       <c r="J108" t="n">
-        <v>120665</v>
+        <v>1836</v>
       </c>
       <c r="K108" t="n">
-        <v>12.2</v>
+        <v>0.04</v>
       </c>
       <c r="L108" t="n">
-        <v>109224</v>
+        <v>2061</v>
       </c>
       <c r="M108" t="n">
-        <v>11.043</v>
+        <v>0.045</v>
       </c>
       <c r="N108" t="n">
-        <v>0.01</v>
+        <v>0.055</v>
       </c>
       <c r="O108" t="n">
-        <v>100.853</v>
+        <v>18.124</v>
       </c>
       <c r="P108" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="Q108" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="R108" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="S108" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B109" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>44112</v>
+        <v>44124</v>
       </c>
       <c r="D109" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="E109" t="s">
-        <v>643</v>
-      </c>
-      <c r="F109" t="s">
-        <v>644</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="F109"/>
       <c r="G109" t="n">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="H109" t="n">
-        <v>22649175</v>
+        <v>2847376</v>
       </c>
       <c r="I109" t="n">
-        <v>333.635</v>
+        <v>65.107</v>
       </c>
       <c r="J109" t="n">
-        <v>238461</v>
+        <v>31543</v>
       </c>
       <c r="K109" t="n">
-        <v>3.513</v>
+        <v>0.721</v>
       </c>
       <c r="L109" t="n">
-        <v>240678</v>
+        <v>30913</v>
       </c>
       <c r="M109" t="n">
-        <v>3.545</v>
+        <v>0.707</v>
       </c>
       <c r="N109" t="n">
-        <v>0.054</v>
+        <v>0.202</v>
       </c>
       <c r="O109" t="n">
-        <v>18.511</v>
+        <v>4.957</v>
       </c>
       <c r="P109" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="Q109" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="R109" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S109" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="B110" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>44109</v>
+        <v>44124</v>
       </c>
       <c r="D110" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="E110" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="H110" t="n">
-        <v>121593945</v>
+        <v>11882651</v>
       </c>
       <c r="I110" t="n">
-        <v>367.35</v>
+        <v>1201.433</v>
       </c>
       <c r="J110" t="n">
-        <v>697596</v>
+        <v>112196</v>
       </c>
       <c r="K110" t="n">
-        <v>2.108</v>
+        <v>11.344</v>
       </c>
       <c r="L110" t="n">
-        <v>948289</v>
+        <v>109871</v>
       </c>
       <c r="M110" t="n">
-        <v>2.865</v>
+        <v>11.109</v>
       </c>
       <c r="N110" t="n">
-        <v>0.046</v>
+        <v>0.012</v>
       </c>
       <c r="O110" t="n">
-        <v>21.922</v>
+        <v>83.38</v>
       </c>
       <c r="P110" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="Q110" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="R110" t="s">
-        <v>653</v>
+        <v>24</v>
       </c>
       <c r="S110" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="B111" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>44112</v>
+        <v>44123</v>
       </c>
       <c r="D111" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E111" t="s">
-        <v>657</v>
-      </c>
-      <c r="F111"/>
+        <v>660</v>
+      </c>
+      <c r="F111" t="s">
+        <v>661</v>
+      </c>
       <c r="G111" t="n">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="H111" t="n">
-        <v>112117737</v>
+        <v>25604836</v>
       </c>
       <c r="I111" t="n">
-        <v>338.722</v>
+        <v>377.174</v>
       </c>
       <c r="J111" t="n">
-        <v>1030766</v>
+        <v>280884</v>
       </c>
       <c r="K111" t="n">
-        <v>3.114</v>
+        <v>4.138</v>
       </c>
       <c r="L111" t="n">
-        <v>961623</v>
+        <v>270763</v>
       </c>
       <c r="M111" t="n">
-        <v>2.905</v>
+        <v>3.988</v>
       </c>
       <c r="N111" t="n">
-        <v>0.047</v>
+        <v>0.063</v>
       </c>
       <c r="O111" t="n">
-        <v>21.251</v>
+        <v>15.968</v>
       </c>
       <c r="P111" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="Q111" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="R111" t="s">
-        <v>659</v>
+        <v>24</v>
       </c>
       <c r="S111" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B112" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>44112</v>
+        <v>44121</v>
       </c>
       <c r="D112" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="E112" t="s">
-        <v>121</v>
+        <v>667</v>
       </c>
       <c r="F112"/>
       <c r="G112" t="n">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="H112" t="n">
-        <v>256777</v>
+        <v>134758489</v>
       </c>
       <c r="I112" t="n">
-        <v>73.92</v>
+        <v>407.122</v>
       </c>
       <c r="J112" t="n">
-        <v>2597</v>
+        <v>631457</v>
       </c>
       <c r="K112" t="n">
-        <v>0.748</v>
+        <v>1.908</v>
       </c>
       <c r="L112" t="n">
-        <v>2552</v>
+        <v>895532</v>
       </c>
       <c r="M112" t="n">
-        <v>0.735</v>
+        <v>2.706</v>
       </c>
       <c r="N112" t="n">
-        <v>0.009</v>
+        <v>0.061</v>
       </c>
       <c r="O112" t="n">
-        <v>111.65</v>
+        <v>16.263</v>
       </c>
       <c r="P112" t="s">
-        <v>121</v>
+        <v>668</v>
       </c>
       <c r="Q112" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="R112" t="s">
-        <v>27</v>
+        <v>670</v>
       </c>
       <c r="S112" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B113" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44108</v>
+        <v>44123</v>
       </c>
       <c r="D113" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="E113" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="H113" t="n">
-        <v>1234274</v>
+        <v>126033173</v>
       </c>
       <c r="I113" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="J113"/>
-      <c r="K113"/>
+        <v>380.762</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1200056</v>
+      </c>
+      <c r="K113" t="n">
+        <v>3.626</v>
+      </c>
       <c r="L113" t="n">
-        <v>3384</v>
+        <v>1071185</v>
       </c>
       <c r="M113" t="n">
-        <v>0.035</v>
+        <v>3.236</v>
       </c>
       <c r="N113" t="n">
-        <v>0.001</v>
+        <v>0.052</v>
       </c>
       <c r="O113" t="n">
-        <v>877.333</v>
+        <v>19.126</v>
       </c>
       <c r="P113" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="Q113" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="R113" t="s">
-        <v>98</v>
+        <v>676</v>
       </c>
       <c r="S113" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="B114" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>44112</v>
+        <v>44123</v>
       </c>
       <c r="D114" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="E114" t="s">
-        <v>675</v>
+        <v>120</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H114" t="n">
-        <v>175435</v>
+        <v>283904</v>
       </c>
       <c r="I114" t="n">
-        <v>9.543</v>
-      </c>
-      <c r="J114" t="n">
-        <v>3000</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.163</v>
-      </c>
+        <v>81.729</v>
+      </c>
+      <c r="J114"/>
+      <c r="K114"/>
       <c r="L114" t="n">
-        <v>2609</v>
+        <v>2497</v>
       </c>
       <c r="M114" t="n">
-        <v>0.142</v>
+        <v>0.719</v>
       </c>
       <c r="N114" t="n">
-        <v>0.025</v>
+        <v>0.014</v>
       </c>
       <c r="O114" t="n">
-        <v>39.275</v>
+        <v>73.751</v>
       </c>
       <c r="P114" t="s">
-        <v>676</v>
+        <v>120</v>
       </c>
       <c r="Q114" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="R114" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S114" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="B115" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>44112</v>
+        <v>44119</v>
       </c>
       <c r="D115" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="E115" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="H115" t="n">
-        <v>125376</v>
+        <v>1260799</v>
       </c>
       <c r="I115" t="n">
-        <v>8.435</v>
+        <v>12.953</v>
       </c>
       <c r="J115" t="n">
-        <v>929</v>
+        <v>3009</v>
       </c>
       <c r="K115" t="n">
-        <v>0.063</v>
+        <v>0.031</v>
       </c>
       <c r="L115" t="n">
+        <v>2394</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O115" t="n">
+        <v>728.609</v>
+      </c>
+      <c r="P115" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>687</v>
+      </c>
+      <c r="R115" t="s">
+        <v>97</v>
+      </c>
+      <c r="S115" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>689</v>
+      </c>
+      <c r="B116" t="s">
+        <v>690</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="D116" t="s">
+        <v>691</v>
+      </c>
+      <c r="E116" t="s">
         <v>692</v>
       </c>
-      <c r="M115" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="N115" t="n">
+      <c r="F116"/>
+      <c r="G116" t="n">
+        <v>193</v>
+      </c>
+      <c r="H116" t="n">
+        <v>212699</v>
+      </c>
+      <c r="I116" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2592</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3414</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="N116" t="n">
         <v>0.017</v>
       </c>
-      <c r="O115" t="n">
-        <v>59.802</v>
-      </c>
-      <c r="P115" t="s">
-        <v>681</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>682</v>
-      </c>
-      <c r="R115" t="s">
-        <v>27</v>
-      </c>
-      <c r="S115" t="s">
-        <v>683</v>
+      <c r="O116" t="n">
+        <v>60.501</v>
+      </c>
+      <c r="P116" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>691</v>
+      </c>
+      <c r="R116" t="s">
+        <v>24</v>
+      </c>
+      <c r="S116" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>695</v>
+      </c>
+      <c r="B117" t="s">
+        <v>696</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>44121</v>
+      </c>
+      <c r="D117" t="s">
+        <v>697</v>
+      </c>
+      <c r="E117" t="s">
+        <v>698</v>
+      </c>
+      <c r="F117"/>
+      <c r="G117" t="n">
+        <v>162</v>
+      </c>
+      <c r="H117" t="n">
+        <v>130621</v>
+      </c>
+      <c r="I117" t="n">
+        <v>8.788</v>
+      </c>
+      <c r="J117" t="n">
+        <v>804</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="L117" t="n">
+        <v>645</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="O117" t="n">
+        <v>43</v>
+      </c>
+      <c r="P117" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>699</v>
+      </c>
+      <c r="R117" t="s">
+        <v>24</v>
+      </c>
+      <c r="S117" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/testing/covid-testing-latest-data-source-details.xlsx
+++ b/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="705">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/10/coronavirus-covid-19-at-a-glance-19-october-2020_1.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2020/10/coronavirus-covid-19-at-a-glance-26-october-2020_0.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -210,7 +210,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/4830-sube-a-104-202-el-numero-de-pacientes-recuperados-de-coronavirus-en-una-jornada-con-148-nuevos-contagios</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/4852-sube-a-108-658-el-numero-de-pacientes-recuperados-de-coronavirus-en-una-jornada-con-74-nuevos-contagios</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/Mshpci/posts/1730195423812811</t>
+    <t xml:space="preserve">https://www.facebook.com/Mshpci/posts/1737269099772110</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -448,7 +448,7 @@
     <t xml:space="preserve">Cyprus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.data.gov.cy/sites/default/files/CY%20Covid19%20Open%20Data_46.csv</t>
+    <t xml:space="preserve">https://www.data.gov.cy/sites/default/files/CY%20Covid19%20Open%20Data_50.csv</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.data.gov.cy/node/4617?language=en</t>
@@ -497,7 +497,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/Data-Epidemiologiske-Rapport-19102020-ht67</t>
+    <t xml:space="preserve">https://files.ssi.dk/Data-epidemiologiske-rapport-26102020-cg13</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2020/10/Boletin-COVID-19-no.213.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2020/10/Boletin-especial-218-COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -534,7 +534,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/10/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-18102020-v2.pdf</t>
+    <t xml:space="preserve">https://www.gestionderiesgos.gob.ec/wp-content/uploads/2020/10/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-25102020.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -674,7 +674,8 @@
 - The first positive PCR test date is kept in case of discordant PCR tests.
 This means that many people undergoing multiple rounds of testing are not counted repeatedly in this data. We therefore present the more accurate "tests performed" series as the main time series for France.
 The data covers all results of test laboratories (RT-PCR) carried out by all city laboratories and hospitals concerning SARS-COV2. The source notes that "the time to report back tests can exceed 9 days in some cases. The indicators are adjusted daily according to the reception of the results."
-This data does not allow us to publish any cumulative total, since no information is available on how many people had been tested prior to the first day of reporting.</t>
+This data does not allow us to publish any cumulative total, since no information is available on how many people had been tested prior to the first day of reporting.
+Note that the positive rate published by the National Public Health Agency is calculated using a different method from our own estimate: it divides the number of positive cases by the number of people tested. Due to the issue of people undergoing multiple rounds of testing not being counted repeatedly in this number of people tested, we divide instead the number of positive cases by the number of tests performed. For this reason, the positive rate shown in our data will by definition be lower than the official estimate, but its trend over time will be the same.</t>
   </si>
   <si>
     <t xml:space="preserve">France - tests performed</t>
@@ -686,7 +687,8 @@
     <t xml:space="preserve">Since 13 May 2020, the National Public Health Agency publishes the number of tests in a daily-updated file, available on the French portal for public health data (Géodes).
 The virological surveillance indicators come from the screening information system which feeds back data from PCR tests carried out by all city laboratories and hospitals concerning SARS-COV2.
 These data exclude uninterpretable results and count the number of tests, not the number of patients tested. The time taken to report back tests may exceed 9 days in some cases. The indicators are adjusted daily according to the reception of the results.
-This data does not allow us to publish any cumulative total, since no information is available on how many people had been tested prior to the first day of reporting.</t>
+This data does not allow us to publish any cumulative total, since no information is available on how many people had been tested prior to the first day of reporting.
+Note that the positive rate published by the National Public Health Agency is calculated using a different method from our own estimate: it divides the number of positive cases by the number of people tested. Due to the issue of people undergoing multiple rounds of testing not being counted repeatedly in this number of people tested, we divide instead the number of positive cases by the number of tests performed. For this reason, the positive rate shown in our data will by definition be lower than the official estimate, but its trend over time will be the same.</t>
   </si>
   <si>
     <t xml:space="preserve">DEU</t>
@@ -695,7 +697,7 @@
     <t xml:space="preserve">Germany - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/Okt_2020/2020-10-14-de.pdf?__blob=publicationFile</t>
+    <t xml:space="preserve">https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Situationsberichte/Okt_2020/2020-10-21-de.pdf?__blob=publicationFile</t>
   </si>
   <si>
     <t xml:space="preserve">Robert Koch Institut</t>
@@ -707,43 +709,7 @@
     <t xml:space="preserve">https://www.rki.de/SiteGlobals/Forms/Suche/serviceSucheForm.html?nn=2725444&amp;input_=2375194&amp;gts=2725442_list%253DdateOfIssue_dt%252Bdesc&amp;resourceId=2390936&amp;submit.x=0&amp;submit.y=0&amp;searchEngineQueryString=T%C3%A4glicher+Lagebericht+des+RKI+zur+Coronavirus-Krankheit-2019&amp;pageLocale=de</t>
   </si>
   <si>
-    <t xml:space="preserve">The number of tests performed. Note that the number of laboratories reporting in the data seems to vary from week to week.</t>
-  </si>
-  <si>
     <t xml:space="preserve">To determine how many laboratory tests regarding SARS-CoV-2 are carried out per calendar week in Germany and how many tests are positive or negative, the RKI has started a Germany-wide laboratory query. However, the number of laboratories reporting data seems to vary from week to week.
-The report published on 8 October 2020 states that “from the beginning of the collection up to and including calendar week 40/2020”:
-– The cumulative total of samples tested was 18,129,900;
-- For calendar week 40 (which ends 4 October), 185 labs reported, 1,095,858 samples tested;
-- For calendar week 39 (which ends 27 September), 189 labs reported, 1,168,390 samples tested;
-- For calendar week 38 (which ends 20 September), 202 labs reported, 1,149,171 samples tested;
-- For calendar week 37 (which ends 13 September), 193 labs reported 1,162,133 samples tested;
-- For calendar week 36 (which ends 6 September), 192 labs reported 1,099,560 samples tested;
-- For calendar week 35 (which ends 30 August), 192 labs reported 1,121,214 samples tested;
-- For calendar week 34 (which ends 23 August), 199 labs reported 1,094,506 samples tested;
-- For calendar week 33 (which ends 16 August), 188 labs reported 891,988 samples tested;
-- For calendar week 32 (which ends 9 August), 169 labs reported 736,171 samples tested;
-- For calendar week 31 (which ends 2 August), 170 labs reported 586,620 samples tested;
-- For calendar week 30 (which ends 26 July), 183 labs reported 574,883 samples tested;
-- For calendar week 29 (which ends 19 July), 177 labs reported 538,701 samples tested;
-- For calendar week 28 (which ends 12 July), 179 labs reported 510,551 samples tested;
-- For calendar week 27 (which ends 5 July), 151 labs reported 506,490 samples tested;
-- For calendar week 26 (which ends 28 June), 180 labs reported 467,413 samples tested;
-- For calendar week 25 (which ends 21 June), 176 labs reported 388,187 samples tested;
-- For calendar week 24 (which ends 14 June), 173 labs reported 327,196 samples tested;
-- For calendar week 23 (which ends 7 June), 176 labs reported 340,986 samples tested;
-- For calendar week 22 (which ends 31 May), 178 labs reported 405,269 samples tested;
-- For calendar week 21( which ends 24 May), 179 labs reported 353,467 samples tested;
-- For calendar week 20 (which ends 17 May), 183 labs reported 432,666 samples tested;
-- For calendar week 19 (which ends 10 May), 182 labs reported 403,875 samples tested;
-- For calendar week 18 (which ends on 3 May), 175 labs reported 326,788 samples tested;
-- For calendar week 17 (which ends on 26 April), 178 labs reported 363,890 samples tested;
-- For calendar week 16 (which ends on 19 April), 168 labs reported 331,902 samples tested;
-- For calendar week 15 (which ends on 12 April), 164 labs reported 380,197 samples tested;
-– For calendar week 14 (which ends on 5 April), 154 labs reported 408,348 samples tested;
-– For calendar week 13 (which ends on 29 March), 151 labs reported 361,515 samples tested;
-– For calendar week 12 (which ends on 22 March), 152 labs reported 348,619 samples tested;
-– For calendar week 11 (which ends on 15 March), 114 labs reported 127,457 samples tested.
-– Up to and including calendar week 10 (which ends on 8 March), 90 labs reported 124,716 samples tested.
 By subtracting each weekly change from the cumulative total, we retrospectively work out the cumulative totals by the end of each week.
 Since laboratories can post-check the tests of past calendar weeks in the RKI test number query, previous figures may be revised upwards slightly in subsequent reports. The source is explicit that these figures refer to tests performed and that this will not equal the number of people tested, because of multiple tests per person.</t>
   </si>
@@ -778,7 +744,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20201018/</t>
+    <t xml:space="preserve">https://eody.gov.gr/covid-gr-daily-report-20201026/</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -944,7 +910,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/349371</t>
+    <t xml:space="preserve">http://irangov.ir/detail/349762</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -964,7 +930,7 @@
     <t xml:space="preserve">Iraq - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1317809909765971968/photo/1</t>
+    <t xml:space="preserve">https://twitter.com/MOHealth_Iraq/status/1320041460788563968/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Environment</t>
@@ -1006,7 +972,7 @@
     <t xml:space="preserve">Israel - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://govextra.gov.il/media/27726/covid19-data-israel-13102020.csv</t>
+    <t xml:space="preserve">https://govextra.gov.il/media/27815/covid19-data-israel-17102020.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Israel Ministry of Health</t>
@@ -1042,7 +1008,8 @@
     <t xml:space="preserve">http://www.salute.gov.it/portale/nuovocoronavirus/dettaglioContenutiNuovoCoronavirus.jsp?lingua=italiano&amp;id=5351&amp;area=nuovoCoronavirus&amp;menu=vuoto</t>
   </si>
   <si>
-    <t xml:space="preserve">The official data provided by the Ministry of Health is compiled by the Department of Civil Protection on [GitHub](https://github.com/pcm-dpc/COVID-19). Figures relate to the total number of cases tested. The mention of 'cases' here suggests that people undergoing multiple rounds of testing over the course of the pandemic may be repeatedly counted. However no further details about this were found at either source.
+    <t xml:space="preserve">The official data provided by the Ministry of Health is compiled by the Department of Civil Protection on [GitHub](https://github.com/pcm-dpc/COVID-19).
+A [conversation on the GitHub repository](https://github.com/pcm-dpc/COVID-19/issues/864) of the Department of Civil Protection leads us to strongly suspect that people undergoing multiple rounds of testing over the course of the pandemic are not repeatedly counted in these figures. For this reason, since 23 October 2020 we use the "tests performed" series as our series of reference for Italy's testing data.
 This figure is available for each individual region separately at the source indicated. However it appears that data is missing for individual regions for particular dates – we assume that these are also missing from the aggregate total for Italy that we provide. The list of missing data, in English, can be seen at the bottom of [this data dashboard built by Franco Mossotto](https://datastudio.google.com/u/0/reporting/91350339-2c97-49b5-92b8-965996530f00/page/RdlHB). 
 It is clear that there are delays in timeline running up to a test being reported – both in terms of the time it takes for a symptomatic person to receive a test, and in the time for that test to then get reported in the data. For one region, Lombardy, [an investigation](https://arxiv.org/ftp/arxiv/papers/2003/2003.09320.pdf) found the latter delay in the early period of the outbreak to be around 3-4 days.
 There is significant variation in testing practices – in terms of how many tests are conducted and how they are allocated across the population – across regions and these practices have also changed over time. The extent to which tests pending results are included appears to vary across regions.
@@ -1066,7 +1033,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-sunday-october-18-2020/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-friday-october-23-2020/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1086,7 +1053,7 @@
     <t xml:space="preserve">Japan - people tested (incl. non-PCR)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_14193.html</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/stf/newpage_14419.html</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Labor and Welfare Press Release</t>
@@ -1112,10 +1079,10 @@
     <t xml:space="preserve">Japan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000683950.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cumulative total reported in the press release (2,793,720) does not sum to the cumulative total calculated from the weekly and daily figures reported by the MOH. See: https://www.mhlw.go.jp/content/10906000/000683950.pdf</t>
+    <t xml:space="preserve">https://www.mhlw.go.jp/content/10906000/000687055.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cumulative total reported in the press release (2,950,228) does not sum to the cumulative total calculated from the weekly and daily figures reported by the MOH. See: https://www.mhlw.go.jp/content/10906000/000687076.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">On 11 April 2020, the MOH started providing a daily time series on the "Implementation status of PCR tests for new coronavirus in Japan (based on the date on which results were determined" (via Google translate). 
@@ -1169,7 +1136,7 @@
     <t xml:space="preserve">Kenya - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1317437382887604225</t>
+    <t xml:space="preserve">https://twitter.com/MOH_Kenya/status/1320009919148556288</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya Ministry of Health</t>
@@ -1182,7 +1149,8 @@
 The tweets and press releases usually report testing figures in terms of the number of "samples tested". However, the wording used in some tweets and press releases makes it unclear whether the figures relate to the number of samples tested or the number of people tested. For example, the relevant tweet on [4 June 2020](https://twitter.com/MOH_Kenya/status/1268563481235787776) says "2,640 samples tested in the last 24 hours", while the relevant tweet on [1 August 2020](https://twitter.com/MOH_Kenya/status/1289552051916009475) states that "727 people are the latest to test positive for Covid-19 from a sample of 6,371 tested in the last 24 hrs". It does not appear that this inconsistency in terminology reflects a substantive change in the figures that are reported, since there are no large breaks in the time series that correspond to the use of "samples tested" versus "people tested" terminology. Instead, the wording of the tweets and press releases suggests that the reported number of samples tested may be equivalent to the number of people tested.
 It is unclear whether the reported figures include tests for which the results are pending.
 We have found testing data dating back to 6 March 2020, at which point 31 tests had been conducted to date.
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).
+Since 26 October 2020, we collect this data automatically based on an [ArcGIS dashboard](https://services7.arcgis.com/1Cyg6S9yGgIqdFPO/ArcGIS/rest/services/cases_today/FeatureServer/0/query) that provides a daily snapshot of cumulative tests.</t>
   </si>
   <si>
     <t xml:space="preserve">KWT</t>
@@ -1191,7 +1159,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1318152441637048320</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1319971962354126848/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1228,18 +1196,19 @@
     <t xml:space="preserve">Libya - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ncdc.org.ly/Ar/libyan-covid-19-dashboard/</t>
+    <t xml:space="preserve">https://ncdc.org.ly/Ar</t>
   </si>
   <si>
     <t xml:space="preserve">Libya National Centre for Disease Control</t>
   </si>
   <si>
-    <t xml:space="preserve">The Libya National Centre for Disease Control (NCDC) maintains an official dashboard that reports the cumulative number of samples tested to date.
-The NCDC dashboard only displays a snapshot of the cumulative testing figure as of today, rather than a complete time series of the number of samples tested each day. Nevertheless, the daily time series is available via the dashboard at [this API endpoint](https://services3.arcgis.com/CoIPqtHxRZqBsYyb/arcgis/rest/services/%D9%86%D9%85%D9%88%D8%B0%D8%AC_%D8%A7%D9%84%D9%85%D9%86%D8%AD%D9%86%D9%89_2view2/FeatureServer/0/query?f=json&amp;where=1%3D1&amp;returnGeometry=false&amp;spatialRel=esriSpatialRelIntersects&amp;outFields=*&amp;orderByFields=field_2%20asc&amp;resultOffset=0&amp;resultRecordCount=32000&amp;resultType=standard&amp;cacheHint=true). The daily testing figures are stored in "field_3" of the resulting JSON data. Although "field_3" is defined as "suspected cases" ("الحالات المشتبهة"), the figures reported in this field align with the testing figures reported in daily situation reports published on the [NCDC Facebook page](https://www.facebook.com/NCDC.LY).
-The time series of daily testing figures that we construct from the NCDC dashboard is missing data for a small number of days, such that the time series slightly underestimates the true cumulative number of samples tested to date.
+    <t xml:space="preserve">https://ncdc.org.ly/Ar/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Libya National Centre for Disease Control (NCDC) used to maintain an official dashboard that reported the cumulative number of samples tested to date. Since late September 2020, this dashboard no longer reports the number of tests, and we only collect the daily number of samples tested from the main page of the NCDC website.
 It is unclear whether the reported figures include pending test results.
 Note that the testing figures reported in the NCDC dashboard do not match the cumulative testing figures reported in the [WHO Libya COVID-19 situation reports](https://www.humanitarianresponse.info/operations/libya/search?search=COVID-19+Situation+) that are published periodically. For example, the [2 September 2020 situation report](https://www.humanitarianresponse.info/sites/www.humanitarianresponse.info/files/documents/files/libya_covid_update_14_final.pdf) claims that a total of 134,027 samples were tested as of 2 September 2020, whereas the time series we construct from the NCDC dashboard yields a cumulative total of 138,487 samples tested as of 2 September 2020. We are unsure of the reasons for this discrepancy.
-The earliest reported figure in the official NCDC dashboard is from 4 March 2020 (3 samples tested). It is unclear how many samples were tested before this date.</t>
+The earliest reported figure in the official NCDC dashboard was from 4 March 2020 (3 samples tested). It is unclear how many samples were tested before this date. Because of this lack of historical data, we do not include any cumulative total for the testing data for Libya.</t>
   </si>
   <si>
     <t xml:space="preserve">LTU</t>
@@ -1272,13 +1241,25 @@
 The same source also provides a time series of the number of people tested, but it is unclear whether or not this cumulative figure repeatedly counts people that have gone through more than one round of testing over the course of the pandemic. Since we derive a count of the daily number of people tested from the change in this cumulative number, if people undergoing multiple rounds of testing are not counted repeatedly in the cumulative, repeat testers would not appear in our daily testing figures. We therefore do not collect this data on the number of people tested.</t>
   </si>
   <si>
+    <t xml:space="preserve">MKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macedonia - tests performed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://koronavirus.gov.mk/stat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Republic of North Macedonia's Ministry of Health publishes COVID-19 updates on [their website](https://koronavirus.gov.mk/stat) and [Google Data Studio](https://datastudio.google.com/embed/u/0/reporting/9f5104d0-12fd-4e16-9a11-993685cfd40f/page/1M), reporting the daily and cumulative number of tests performed, which we use to construct a daily time series. The time series goes back to 30 March 2020. The datasets currently lack descriptions and so many of the details are unclear; we will add further detail as it becomes available.</t>
+  </si>
+  <si>
     <t xml:space="preserve">MDG</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/a.1083283431736240/3558282060903019/</t>
+    <t xml:space="preserve">https://www.facebook.com/minsanp/photos/a.1083283431736240/3577279982336560/</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar Ministry of Public Health</t>
@@ -1298,7 +1279,7 @@
     <t xml:space="preserve">Malawi - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://malawipublichealth.org/index.php/resources/COVID-19%20SitRep%20Updates/October%202020/20201018_Malawi%20COVID-19%20situation%20report.pdf/download</t>
+    <t xml:space="preserve">https://malawipublichealth.org/index.php/resources/COVID-19%20SitRep%20Updates/October%202020/20201025_Malawi%20COVID-19%20situation%20report.pdf/download</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health Institute of Malawi</t>
@@ -1317,7 +1298,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/102020/situasi-terkini-18-oktober-2020</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/102020/situasi-terkini-25-oktober-2020</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1344,7 +1325,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1317873301360881665</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1320774663509843968</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1430,7 +1411,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/BQ_COVID.OCTOB_18-20.pdf</t>
+    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/BQ_COVID.OCTOB_26-20.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1451,7 +1432,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=659:boletim-diario-covid-19-n-215</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=672:boletim-diario-covid-19-n-222</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1495,7 +1476,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.628509257822081/628509194488754</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.632124940793846/632124650793875/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1517,7 +1498,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1kfgy3orCVaqxrLbeuLX7Z8x5jJroDu1h</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1go4E62c1bO3Q78YjI695si4vdDa37MSu</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1537,7 +1518,7 @@
     <t xml:space="preserve">Netherlands - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-10/COVID-19_WebSite_rapport_wekelijks_20201013_1159_0.pdf</t>
+    <t xml:space="preserve">https://www.rivm.nl/sites/default/files/2020-10/COVID-19_WebSite_rapport_wekelijks_20201020_1141.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Institute for Public Health and the Environment</t>
@@ -1551,7 +1532,7 @@
   <si>
     <t xml:space="preserve">The Dutch National Institute for Public Health and the Environment releases weekly epidemiological reports of the COVID-19 situation. The reports contain a time series of the number of persons tested per week since 9 March 2020.
 Since the source provides figures for the number of people tested per week, we take this to mean that people that have undergone more than one round of testing in different weeks over the course of the outbreak will be counted repeatedly. Our cumulative figures for testing are calculated by summing the weekly figures together. As such they will include duplicates for people undergoing multiple rounds of testing.
-There appear to be reporting lags, such that the number of labs reporting for days in the current week tend to be lower than for the previous week. As a result, the reported figures are updated retrospectively as additional labs report their results. The figures we display are based on the latest available epidemiological report.
+There appear to be large reporting lags, such that the number of labs reporting for days in the current week tend to be lower than for the previous week. As a result, the reported figures are updated retrospectively as additional labs report their results. The figures we display are based on the latest available epidemiological report, but we currently censor the last month of data to avoid showing an artificially low number of tests (and therefore an underestimate positive rate).
 The epidemiological reports state that 'all laboratories in the Netherlands that perform diagnostics for SARS-CoV-2 have been asked from 9 March 2020 to report these data daily.' However, the number of labs reporting in a given weekly figure has varied over the course of the reports, which may affect the consistency of the time series we present.</t>
   </si>
   <si>
@@ -1659,7 +1640,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3247099785415877</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3265430020249520</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1679,7 +1660,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1317956540322775041</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1319786151952207874/photo/1</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -1729,7 +1710,8 @@
 On dates where presentation slides are unavailable, we use the Ministry's [press releases](https://www.gob.pe/minsa#noticias) to supplement the series. Where the dates across the two sources overlap, the number of people tested in the presentation slides are consistently identical to the press release figures for the previous day.
 Since 29 July 2020, the source provides data for both the cumulative number of people tested to date and the number of people tested in the last 24 hours. The daily change in the cumulative number of people tested to date equals the number of people tested in the last 24 hours, suggesting that the cumulative total will repeatedly count people that have undergone more than one round of testing over the course of the pandemic. It is not clear if this was the case before 29 July. No further details were found.
 For 22 March 2020, the press release quotes 7486 samples were tested, although adding the total number of positive (395) and negative (6269) tests totals to 6664 samples – consistent with neighbouring test figures. Hence, we use the summed total of 6664 samples.
-Where multiple press releases have been issued in one day, 20 March 2020, we report the testing figures in the most recent release.</t>
+Where multiple press releases have been issued in one day, 20 March 2020, we report the testing figures in the most recent release.
+Peru includes positive antibody tests in their figures for confirmed cases. Our testing figures—which exclude antibody tests—are not an appropriate comparison in these instances: on this basis there could be more cases than tests, which is not possible. For this reason, we do not calculate the positive rate or number of tests per confirmed case for Peru.</t>
   </si>
   <si>
     <t xml:space="preserve">PHL</t>
@@ -1738,7 +1720,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/170NbqREW5lEeTI5a0BOlEuoUwN7GvH5f?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1xgvx7abDtRX8MOGumYYSfJQSrurLGTYa?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -1759,7 +1741,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1317748502475214848</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1320300317322350595</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1830,7 +1812,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gov.ro/ro/media/comunicate/buletin-de-presa-18-octombrie-2020-ora-13-00&amp;page=1</t>
+    <t xml:space="preserve">https://gov.ro/ro/media/comunicate/buletin-de-presa-26-octombrie-2020-ora-13-00&amp;page=1</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -1853,7 +1835,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=15707</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=15795</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -1873,7 +1855,7 @@
     <t xml:space="preserve">Rwanda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/RwandaHealth/status/1317534361923801088</t>
+    <t xml:space="preserve">https://gis.rbc.gov.rw/server/rest/services/Hosted/service_b580a3db9319449e82045881f1667b01/FeatureServer/0/query</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda Ministry of Health</t>
@@ -1887,7 +1869,8 @@
 As of 6 April 2020, 5,701 samples had been tested to date. It is unclear when the first samples were tested.
 It is unclear whether the reported figures include tests for which the results are pending.
 Prior to 17 April 2020, the press releases reported testing figures using the language "samples tested". From 17 April 2020 onwards, the press releases have used the ambiguous language "tests today". We assume that "tests today" still refers to the number of samples tested.
-Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).</t>
+Note that, due to the way the data is presented by the official source, the time series may be impacted by retrospective revisions made by the source – see our [FAQ here](https://ourworldindata.org/coronavirus-testing#does-your-data-reflect-retrospective-updates-made-by-the-source).
+Since 26 October 2020, we collect this data automatically based on an [ArcGIS dashboard](https://gis.rbc.gov.rw/server/rest/services/Hosted/service_b580a3db9319449e82045881f1667b01/FeatureServer/0/query) that provides a daily snapshot of cumulative tests.</t>
   </si>
   <si>
     <t xml:space="preserve">SAU</t>
@@ -2056,7 +2039,7 @@
     <t xml:space="preserve">Spain - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Actualizacion_231_COVID-19.pdf</t>
+    <t xml:space="preserve">https://www.mscbs.gob.es/profesionales/saludPublica/ccayes/alertasActual/nCov/documentos/Actualizacion_235_COVID-19.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health, Consumption and Social Welfare</t>
@@ -2256,7 +2239,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1317771390712500224</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1320276447873945600</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2343,7 +2326,7 @@
     <t xml:space="preserve">United States - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://healthdata.gov/sites/default/files/covid-19_diagnostic_lab_testing_20201019_2310.csv</t>
+    <t xml:space="preserve">https://healthdata.gov/sites/default/files/covid-19_diagnostic_lab_testing_20201026_0109.csv</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Health &amp; Human Services</t>
@@ -2395,7 +2378,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-17</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-35</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2456,7 +2439,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1317522885297262593</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1320058456209039361</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2873,7 +2856,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44123</v>
+        <v>44130</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2883,31 +2866,31 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H2" t="n">
-        <v>8303374</v>
+        <v>8567028</v>
       </c>
       <c r="I2" t="n">
-        <v>325.624</v>
+        <v>335.963</v>
       </c>
       <c r="J2" t="n">
-        <v>27338</v>
+        <v>31186</v>
       </c>
       <c r="K2" t="n">
-        <v>1.072</v>
+        <v>1.223</v>
       </c>
       <c r="L2" t="n">
-        <v>38259</v>
+        <v>37665</v>
       </c>
       <c r="M2" t="n">
-        <v>1.5</v>
+        <v>1.477</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2125.5</v>
+        <v>2028.115</v>
       </c>
       <c r="P2" t="s">
         <v>22</v>
@@ -2930,7 +2913,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44124</v>
+        <v>44130</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -2940,31 +2923,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H3" t="n">
-        <v>1972047</v>
+        <v>2111575</v>
       </c>
       <c r="I3" t="n">
-        <v>218.961</v>
+        <v>234.453</v>
       </c>
       <c r="J3" t="n">
-        <v>19469</v>
+        <v>23216</v>
       </c>
       <c r="K3" t="n">
-        <v>2.162</v>
+        <v>2.578</v>
       </c>
       <c r="L3" t="n">
-        <v>18201</v>
+        <v>22714</v>
       </c>
       <c r="M3" t="n">
-        <v>2.021</v>
+        <v>2.522</v>
       </c>
       <c r="N3" t="n">
-        <v>0.079</v>
+        <v>0.107</v>
       </c>
       <c r="O3" t="n">
-        <v>12.715</v>
+        <v>9.364</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
@@ -2987,7 +2970,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44124</v>
+        <v>44130</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -2997,31 +2980,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H4" t="n">
-        <v>1628076</v>
+        <v>1698489</v>
       </c>
       <c r="I4" t="n">
-        <v>956.801</v>
+        <v>998.182</v>
       </c>
       <c r="J4" t="n">
-        <v>10444</v>
+        <v>19642</v>
       </c>
       <c r="K4" t="n">
-        <v>6.138</v>
+        <v>11.543</v>
       </c>
       <c r="L4" t="n">
-        <v>10063</v>
+        <v>11551</v>
       </c>
       <c r="M4" t="n">
-        <v>5.914</v>
+        <v>6.788</v>
       </c>
       <c r="N4" t="n">
-        <v>0.032</v>
+        <v>0.029</v>
       </c>
       <c r="O4" t="n">
-        <v>30.949</v>
+        <v>34.363</v>
       </c>
       <c r="P4" t="s">
         <v>37</v>
@@ -3044,7 +3027,7 @@
         <v>41</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44123</v>
+        <v>44130</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -3054,31 +3037,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H5" t="n">
-        <v>2181677</v>
+        <v>2271550</v>
       </c>
       <c r="I5" t="n">
-        <v>13.247</v>
+        <v>13.793</v>
       </c>
       <c r="J5" t="n">
-        <v>15146</v>
+        <v>11103</v>
       </c>
       <c r="K5" t="n">
-        <v>0.092</v>
+        <v>0.067</v>
       </c>
       <c r="L5" t="n">
-        <v>13499</v>
+        <v>12839</v>
       </c>
       <c r="M5" t="n">
-        <v>0.082</v>
+        <v>0.078</v>
       </c>
       <c r="N5" t="n">
-        <v>0.109</v>
+        <v>0.114</v>
       </c>
       <c r="O5" t="n">
-        <v>9.171</v>
+        <v>8.772</v>
       </c>
       <c r="P5" t="s">
         <v>43</v>
@@ -3154,7 +3137,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44122</v>
+        <v>44129</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
@@ -3164,31 +3147,31 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H7" t="n">
-        <v>4152520</v>
+        <v>4619482</v>
       </c>
       <c r="I7" t="n">
-        <v>358.297</v>
+        <v>398.588</v>
       </c>
       <c r="J7" t="n">
-        <v>43669</v>
+        <v>37451</v>
       </c>
       <c r="K7" t="n">
-        <v>3.768</v>
+        <v>3.231</v>
       </c>
       <c r="L7" t="n">
-        <v>59034</v>
+        <v>65959</v>
       </c>
       <c r="M7" t="n">
-        <v>5.094</v>
+        <v>5.691</v>
       </c>
       <c r="N7" t="n">
-        <v>0.14</v>
+        <v>0.197</v>
       </c>
       <c r="O7" t="n">
-        <v>7.136</v>
+        <v>5.084</v>
       </c>
       <c r="P7" t="s">
         <v>54</v>
@@ -3211,7 +3194,7 @@
         <v>58</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44121</v>
+        <v>44129</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -3221,31 +3204,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H8" t="n">
-        <v>318535</v>
+        <v>325450</v>
       </c>
       <c r="I8" t="n">
-        <v>27.288</v>
+        <v>27.881</v>
       </c>
       <c r="J8" t="n">
-        <v>1002</v>
+        <v>354</v>
       </c>
       <c r="K8" t="n">
-        <v>0.086</v>
+        <v>0.03</v>
       </c>
       <c r="L8" t="n">
-        <v>971</v>
+        <v>932</v>
       </c>
       <c r="M8" t="n">
-        <v>0.083</v>
+        <v>0.08</v>
       </c>
       <c r="N8" t="n">
-        <v>0.197</v>
+        <v>0.164</v>
       </c>
       <c r="O8" t="n">
-        <v>5.088</v>
+        <v>6.103</v>
       </c>
       <c r="P8" t="s">
         <v>36</v>
@@ -3317,7 +3300,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44124</v>
+        <v>44131</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
@@ -3327,31 +3310,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H10" t="n">
-        <v>613396</v>
+        <v>669518</v>
       </c>
       <c r="I10" t="n">
-        <v>88.278</v>
+        <v>96.355</v>
       </c>
       <c r="J10" t="n">
-        <v>4406</v>
+        <v>7659</v>
       </c>
       <c r="K10" t="n">
-        <v>0.634</v>
+        <v>1.102</v>
       </c>
       <c r="L10" t="n">
-        <v>5153</v>
+        <v>8017</v>
       </c>
       <c r="M10" t="n">
-        <v>0.742</v>
+        <v>1.154</v>
       </c>
       <c r="N10" t="n">
-        <v>0.154</v>
+        <v>0.171</v>
       </c>
       <c r="O10" t="n">
-        <v>6.513</v>
+        <v>5.843</v>
       </c>
       <c r="P10" t="s">
         <v>72</v>
@@ -3374,7 +3357,7 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44124</v>
+        <v>44130</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
@@ -3384,31 +3367,27 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H11" t="n">
-        <v>8748075</v>
+        <v>9647416</v>
       </c>
       <c r="I11" t="n">
-        <v>231.785</v>
-      </c>
-      <c r="J11" t="n">
-        <v>49371</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.308</v>
-      </c>
+        <v>255.614</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11"/>
       <c r="L11" t="n">
-        <v>79498</v>
+        <v>135530</v>
       </c>
       <c r="M11" t="n">
-        <v>2.106</v>
+        <v>3.591</v>
       </c>
       <c r="N11" t="n">
-        <v>0.033</v>
+        <v>0.019</v>
       </c>
       <c r="O11" t="n">
-        <v>29.922</v>
+        <v>52.835</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
@@ -3431,7 +3410,7 @@
         <v>81</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44123</v>
+        <v>44130</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -3441,31 +3420,31 @@
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H12" t="n">
-        <v>3921589</v>
+        <v>4149360</v>
       </c>
       <c r="I12" t="n">
-        <v>205.145</v>
+        <v>217.06</v>
       </c>
       <c r="J12" t="n">
-        <v>34671</v>
+        <v>37832</v>
       </c>
       <c r="K12" t="n">
-        <v>1.814</v>
+        <v>1.979</v>
       </c>
       <c r="L12" t="n">
-        <v>28636</v>
+        <v>32539</v>
       </c>
       <c r="M12" t="n">
-        <v>1.498</v>
+        <v>1.702</v>
       </c>
       <c r="N12" t="n">
-        <v>0.052</v>
+        <v>0.045</v>
       </c>
       <c r="O12" t="n">
-        <v>19.295</v>
+        <v>22.107</v>
       </c>
       <c r="P12" t="s">
         <v>83</v>
@@ -3639,7 +3618,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44122</v>
+        <v>44129</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -3649,31 +3628,31 @@
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H16" t="n">
-        <v>180040</v>
+        <v>188017</v>
       </c>
       <c r="I16" t="n">
-        <v>6.825</v>
+        <v>7.128</v>
       </c>
       <c r="J16" t="n">
-        <v>1239</v>
+        <v>1613</v>
       </c>
       <c r="K16" t="n">
-        <v>0.047</v>
+        <v>0.061</v>
       </c>
       <c r="L16" t="n">
-        <v>975</v>
+        <v>1140</v>
       </c>
       <c r="M16" t="n">
-        <v>0.037</v>
+        <v>0.043</v>
       </c>
       <c r="N16" t="n">
-        <v>0.025</v>
+        <v>0.016</v>
       </c>
       <c r="O16" t="n">
-        <v>39.451</v>
+        <v>62.344</v>
       </c>
       <c r="P16" t="s">
         <v>108</v>
@@ -3696,7 +3675,7 @@
         <v>112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44124</v>
+        <v>44131</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -3706,31 +3685,31 @@
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H17" t="n">
-        <v>406519</v>
+        <v>457726</v>
       </c>
       <c r="I17" t="n">
-        <v>99.024</v>
+        <v>111.497</v>
       </c>
       <c r="J17" t="n">
-        <v>5883</v>
+        <v>8185</v>
       </c>
       <c r="K17" t="n">
-        <v>1.433</v>
+        <v>1.994</v>
       </c>
       <c r="L17" t="n">
-        <v>5755</v>
+        <v>7315</v>
       </c>
       <c r="M17" t="n">
-        <v>1.402</v>
+        <v>1.782</v>
       </c>
       <c r="N17" t="n">
-        <v>0.133</v>
+        <v>0.219</v>
       </c>
       <c r="O17" t="n">
-        <v>7.527</v>
+        <v>4.558</v>
       </c>
       <c r="P17" t="s">
         <v>114</v>
@@ -3753,7 +3732,7 @@
         <v>118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44122</v>
+        <v>44129</v>
       </c>
       <c r="D18" t="s">
         <v>119</v>
@@ -3765,31 +3744,31 @@
         <v>121</v>
       </c>
       <c r="G18" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H18" t="n">
-        <v>749924</v>
+        <v>800187</v>
       </c>
       <c r="I18" t="n">
-        <v>66.209</v>
+        <v>70.647</v>
       </c>
       <c r="J18" t="n">
-        <v>6508</v>
+        <v>7969</v>
       </c>
       <c r="K18" t="n">
-        <v>0.575</v>
+        <v>0.704</v>
       </c>
       <c r="L18" t="n">
-        <v>7183</v>
+        <v>7180</v>
       </c>
       <c r="M18" t="n">
         <v>0.634</v>
       </c>
       <c r="N18" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="O18" t="n">
-        <v>226.491</v>
+        <v>138.077</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -3812,7 +3791,7 @@
         <v>125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>44123</v>
+        <v>44129</v>
       </c>
       <c r="D19" t="s">
         <v>126</v>
@@ -3822,31 +3801,31 @@
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H19" t="n">
-        <v>443348</v>
+        <v>466763</v>
       </c>
       <c r="I19" t="n">
-        <v>506.163</v>
+        <v>532.896</v>
       </c>
       <c r="J19" t="n">
-        <v>2558</v>
+        <v>2781</v>
       </c>
       <c r="K19" t="n">
-        <v>2.92</v>
+        <v>3.175</v>
       </c>
       <c r="L19" t="n">
-        <v>3444</v>
+        <v>3710</v>
       </c>
       <c r="M19" t="n">
-        <v>3.932</v>
+        <v>4.236</v>
       </c>
       <c r="N19" t="n">
-        <v>0.027</v>
+        <v>0.041</v>
       </c>
       <c r="O19" t="n">
-        <v>36.638</v>
+        <v>24.385</v>
       </c>
       <c r="P19" t="s">
         <v>36</v>
@@ -3869,7 +3848,7 @@
         <v>130</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44122</v>
+        <v>44129</v>
       </c>
       <c r="D20" t="s">
         <v>131</v>
@@ -3879,31 +3858,31 @@
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H20" t="n">
-        <v>1814002</v>
+        <v>2082838</v>
       </c>
       <c r="I20" t="n">
-        <v>169.391</v>
+        <v>194.494</v>
       </c>
       <c r="J20" t="n">
-        <v>17113</v>
+        <v>21208</v>
       </c>
       <c r="K20" t="n">
-        <v>1.598</v>
+        <v>1.98</v>
       </c>
       <c r="L20" t="n">
-        <v>29742</v>
+        <v>38356</v>
       </c>
       <c r="M20" t="n">
-        <v>2.777</v>
+        <v>3.582</v>
       </c>
       <c r="N20" t="n">
-        <v>0.263</v>
+        <v>0.305</v>
       </c>
       <c r="O20" t="n">
-        <v>3.798</v>
+        <v>3.275</v>
       </c>
       <c r="P20" t="s">
         <v>36</v>
@@ -3979,7 +3958,7 @@
         <v>141</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44122</v>
+        <v>44129</v>
       </c>
       <c r="D22" t="s">
         <v>142</v>
@@ -3989,31 +3968,31 @@
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="H22" t="n">
-        <v>4557157</v>
+        <v>4882023</v>
       </c>
       <c r="I22" t="n">
-        <v>786.774</v>
+        <v>842.861</v>
       </c>
       <c r="J22" t="n">
-        <v>9817</v>
+        <v>19006</v>
       </c>
       <c r="K22" t="n">
-        <v>1.695</v>
+        <v>3.281</v>
       </c>
       <c r="L22" t="n">
-        <v>31198</v>
+        <v>43346</v>
       </c>
       <c r="M22" t="n">
-        <v>5.386</v>
+        <v>7.484</v>
       </c>
       <c r="N22" t="n">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="O22" t="n">
-        <v>76.385</v>
+        <v>67.88</v>
       </c>
       <c r="P22" t="s">
         <v>143</v>
@@ -4036,7 +4015,7 @@
         <v>147</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44121</v>
+        <v>44126</v>
       </c>
       <c r="D23" t="s">
         <v>148</v>
@@ -4046,31 +4025,27 @@
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H23" t="n">
-        <v>542227</v>
+        <v>558508</v>
       </c>
       <c r="I23" t="n">
-        <v>49.984</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3174</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.293</v>
-      </c>
+        <v>51.485</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
       <c r="L23" t="n">
-        <v>3266</v>
+        <v>3307</v>
       </c>
       <c r="M23" t="n">
-        <v>0.301</v>
+        <v>0.305</v>
       </c>
       <c r="N23" t="n">
-        <v>0.131</v>
+        <v>0.118</v>
       </c>
       <c r="O23" t="n">
-        <v>7.638</v>
+        <v>8.461</v>
       </c>
       <c r="P23" t="s">
         <v>149</v>
@@ -4093,7 +4068,7 @@
         <v>153</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44122</v>
+        <v>44129</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -4105,25 +4080,25 @@
         <v>156</v>
       </c>
       <c r="G24" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H24" t="n">
-        <v>424875</v>
+        <v>465301</v>
       </c>
       <c r="I24" t="n">
-        <v>24.082</v>
+        <v>26.373</v>
       </c>
       <c r="J24" t="n">
-        <v>4357</v>
+        <v>10124</v>
       </c>
       <c r="K24" t="n">
-        <v>0.247</v>
+        <v>0.574</v>
       </c>
       <c r="L24" t="n">
-        <v>3608</v>
+        <v>5775</v>
       </c>
       <c r="M24" t="n">
-        <v>0.204</v>
+        <v>0.327</v>
       </c>
       <c r="N24"/>
       <c r="O24"/>
@@ -4148,7 +4123,7 @@
         <v>160</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44121</v>
+        <v>44129</v>
       </c>
       <c r="D25" t="s">
         <v>161</v>
@@ -4158,31 +4133,31 @@
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H25" t="n">
-        <v>443923</v>
+        <v>463545</v>
       </c>
       <c r="I25" t="n">
-        <v>68.441</v>
+        <v>71.466</v>
       </c>
       <c r="J25" t="n">
-        <v>2433</v>
+        <v>2465</v>
       </c>
       <c r="K25" t="n">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="L25" t="n">
-        <v>3009</v>
+        <v>2457</v>
       </c>
       <c r="M25" t="n">
-        <v>0.464</v>
+        <v>0.379</v>
       </c>
       <c r="N25" t="n">
-        <v>0.062</v>
+        <v>0.066</v>
       </c>
       <c r="O25" t="n">
-        <v>16.03</v>
+        <v>15.234</v>
       </c>
       <c r="P25" t="s">
         <v>162</v>
@@ -4205,7 +4180,7 @@
         <v>166</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44123</v>
+        <v>44130</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -4215,31 +4190,31 @@
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="H26" t="n">
-        <v>245036</v>
+        <v>254549</v>
       </c>
       <c r="I26" t="n">
-        <v>184.718</v>
+        <v>191.89</v>
       </c>
       <c r="J26" t="n">
-        <v>1706</v>
+        <v>1604</v>
       </c>
       <c r="K26" t="n">
-        <v>1.286</v>
+        <v>1.209</v>
       </c>
       <c r="L26" t="n">
-        <v>1406</v>
+        <v>1363</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.027</v>
       </c>
       <c r="N26" t="n">
-        <v>0.022</v>
+        <v>0.035</v>
       </c>
       <c r="O26" t="n">
-        <v>46.207</v>
+        <v>28.652</v>
       </c>
       <c r="P26" t="s">
         <v>169</v>
@@ -4262,7 +4237,7 @@
         <v>174</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44123</v>
+        <v>44130</v>
       </c>
       <c r="D27" t="s">
         <v>175</v>
@@ -4272,31 +4247,31 @@
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="H27" t="n">
-        <v>1403894</v>
+        <v>1449170</v>
       </c>
       <c r="I27" t="n">
-        <v>12.212</v>
+        <v>12.605</v>
       </c>
       <c r="J27" t="n">
-        <v>6546</v>
+        <v>4628</v>
       </c>
       <c r="K27" t="n">
-        <v>0.057</v>
+        <v>0.04</v>
       </c>
       <c r="L27" t="n">
-        <v>6752</v>
+        <v>6468</v>
       </c>
       <c r="M27" t="n">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
       <c r="N27" t="n">
-        <v>0.102</v>
+        <v>0.093</v>
       </c>
       <c r="O27" t="n">
-        <v>9.761</v>
+        <v>10.765</v>
       </c>
       <c r="P27" t="s">
         <v>176</v>
@@ -4319,7 +4294,7 @@
         <v>179</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44118</v>
+        <v>44126</v>
       </c>
       <c r="D28" t="s">
         <v>180</v>
@@ -4329,30 +4304,32 @@
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H28" t="n">
-        <v>11771</v>
+        <v>12337</v>
       </c>
       <c r="I28" t="n">
-        <v>13.131</v>
+        <v>13.762</v>
       </c>
       <c r="J28" t="n">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="K28" t="n">
-        <v>0.199</v>
+        <v>0.093</v>
       </c>
       <c r="L28" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="M28" t="n">
-        <v>0.095</v>
+        <v>0.078</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28"/>
+        <v>0.002</v>
+      </c>
+      <c r="O28" t="n">
+        <v>490</v>
+      </c>
       <c r="P28" t="s">
         <v>181</v>
       </c>
@@ -4374,7 +4351,7 @@
         <v>184</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44122</v>
+        <v>44128</v>
       </c>
       <c r="D29" t="s">
         <v>185</v>
@@ -4384,31 +4361,31 @@
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H29" t="n">
-        <v>1324800</v>
+        <v>1404639</v>
       </c>
       <c r="I29" t="n">
-        <v>239.103</v>
+        <v>253.512</v>
       </c>
       <c r="J29" t="n">
-        <v>7231</v>
+        <v>2080</v>
       </c>
       <c r="K29" t="n">
-        <v>1.305</v>
+        <v>0.375</v>
       </c>
       <c r="L29" t="n">
-        <v>12523</v>
+        <v>8507</v>
       </c>
       <c r="M29" t="n">
-        <v>2.26</v>
+        <v>1.535</v>
       </c>
       <c r="N29" t="n">
-        <v>0.018</v>
+        <v>0.023</v>
       </c>
       <c r="O29" t="n">
-        <v>56.446</v>
+        <v>44.406</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -4431,7 +4408,7 @@
         <v>190</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44120</v>
+        <v>44126</v>
       </c>
       <c r="D30" t="s">
         <v>191</v>
@@ -4441,27 +4418,27 @@
       </c>
       <c r="F30"/>
       <c r="G30" t="n">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30" t="n">
-        <v>208330</v>
+        <v>235392</v>
       </c>
       <c r="K30" t="n">
-        <v>3.192</v>
+        <v>3.606</v>
       </c>
       <c r="L30" t="n">
-        <v>168219</v>
+        <v>192152</v>
       </c>
       <c r="M30" t="n">
-        <v>2.577</v>
+        <v>2.944</v>
       </c>
       <c r="N30" t="n">
-        <v>0.117</v>
+        <v>0.133</v>
       </c>
       <c r="O30" t="n">
-        <v>8.53</v>
+        <v>7.541</v>
       </c>
       <c r="P30" t="s">
         <v>192</v>
@@ -4484,7 +4461,7 @@
         <v>194</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>44119</v>
+        <v>44127</v>
       </c>
       <c r="D31" t="s">
         <v>195</v>
@@ -4494,27 +4471,27 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31" t="n">
-        <v>280009</v>
+        <v>318027</v>
       </c>
       <c r="K31" t="n">
-        <v>4.29</v>
+        <v>4.872</v>
       </c>
       <c r="L31" t="n">
-        <v>217186</v>
+        <v>259284</v>
       </c>
       <c r="M31" t="n">
-        <v>3.327</v>
+        <v>3.972</v>
       </c>
       <c r="N31" t="n">
-        <v>0.083</v>
+        <v>0.104</v>
       </c>
       <c r="O31" t="n">
-        <v>12.109</v>
+        <v>9.585</v>
       </c>
       <c r="P31" t="s">
         <v>192</v>
@@ -4537,7 +4514,7 @@
         <v>198</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44115</v>
+        <v>44122</v>
       </c>
       <c r="D32" t="s">
         <v>199</v>
@@ -4549,27 +4526,27 @@
         <v>201</v>
       </c>
       <c r="G32" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H32" t="n">
-        <v>19276507</v>
+        <v>20380376</v>
       </c>
       <c r="I32" t="n">
-        <v>230.074</v>
+        <v>243.249</v>
       </c>
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32" t="n">
-        <v>166775</v>
+        <v>170809</v>
       </c>
       <c r="M32" t="n">
-        <v>1.991</v>
+        <v>2.039</v>
       </c>
       <c r="N32" t="n">
-        <v>0.02</v>
+        <v>0.033</v>
       </c>
       <c r="O32" t="n">
-        <v>49.411</v>
+        <v>30.572</v>
       </c>
       <c r="P32" t="s">
         <v>200</v>
@@ -4578,366 +4555,366 @@
         <v>202</v>
       </c>
       <c r="R32" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" t="s">
         <v>203</v>
-      </c>
-      <c r="S32" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" t="s">
         <v>205</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="1" t="n">
+        <v>44125</v>
+      </c>
+      <c r="D33" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="1" t="n">
-        <v>44118</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>207</v>
-      </c>
-      <c r="E33" t="s">
-        <v>208</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H33" t="n">
-        <v>506606</v>
+        <v>518785</v>
       </c>
       <c r="I33" t="n">
-        <v>16.304</v>
+        <v>16.696</v>
       </c>
       <c r="J33" t="n">
-        <v>2048</v>
+        <v>1521</v>
       </c>
       <c r="K33" t="n">
-        <v>0.066</v>
+        <v>0.049</v>
       </c>
       <c r="L33" t="n">
-        <v>1261</v>
+        <v>1740</v>
       </c>
       <c r="M33" t="n">
-        <v>0.041</v>
+        <v>0.056</v>
       </c>
       <c r="N33" t="n">
-        <v>0.034</v>
+        <v>0.028</v>
       </c>
       <c r="O33" t="n">
-        <v>29.721</v>
+        <v>36.358</v>
       </c>
       <c r="P33" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q33" t="s">
         <v>209</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>210</v>
       </c>
       <c r="R33" t="s">
         <v>97</v>
       </c>
       <c r="S33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>211</v>
+      </c>
+      <c r="B34" t="s">
         <v>212</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D34" t="s">
         <v>213</v>
       </c>
-      <c r="C34" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>214</v>
-      </c>
-      <c r="E34" t="s">
-        <v>215</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H34" t="n">
-        <v>1542156</v>
+        <v>1678129</v>
       </c>
       <c r="I34" t="n">
-        <v>147.956</v>
+        <v>161.002</v>
       </c>
       <c r="J34" t="n">
-        <v>14898</v>
+        <v>11978</v>
       </c>
       <c r="K34" t="n">
-        <v>1.429</v>
+        <v>1.149</v>
       </c>
       <c r="L34" t="n">
-        <v>17022</v>
+        <v>18391</v>
       </c>
       <c r="M34" t="n">
-        <v>1.633</v>
+        <v>1.764</v>
       </c>
       <c r="N34" t="n">
-        <v>0.024</v>
+        <v>0.042</v>
       </c>
       <c r="O34" t="n">
-        <v>41.75</v>
+        <v>23.787</v>
       </c>
       <c r="P34" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q34" t="s">
         <v>216</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>217</v>
       </c>
       <c r="R34" t="s">
         <v>97</v>
       </c>
       <c r="S34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" t="s">
         <v>219</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D35" t="s">
         <v>220</v>
       </c>
-      <c r="C35" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>221</v>
-      </c>
-      <c r="E35" t="s">
-        <v>222</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H35" t="n">
-        <v>386561</v>
+        <v>407243</v>
       </c>
       <c r="I35" t="n">
-        <v>21.577</v>
+        <v>22.731</v>
       </c>
       <c r="J35" t="n">
-        <v>1538</v>
+        <v>898</v>
       </c>
       <c r="K35" t="n">
-        <v>0.086</v>
+        <v>0.05</v>
       </c>
       <c r="L35" t="n">
-        <v>3774</v>
+        <v>3016</v>
       </c>
       <c r="M35" t="n">
-        <v>0.211</v>
+        <v>0.168</v>
       </c>
       <c r="N35" t="n">
-        <v>0.132</v>
+        <v>0.171</v>
       </c>
       <c r="O35" t="n">
-        <v>7.583</v>
+        <v>5.858</v>
       </c>
       <c r="P35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="R35" t="s">
         <v>78</v>
       </c>
       <c r="S35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B36" t="s">
         <v>225</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="1" t="n">
+        <v>44124</v>
+      </c>
+      <c r="D36" t="s">
         <v>226</v>
       </c>
-      <c r="C36" s="1" t="n">
-        <v>44117</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>227</v>
-      </c>
-      <c r="E36" t="s">
-        <v>228</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
         <v>11</v>
       </c>
       <c r="H36" t="n">
-        <v>1293389</v>
+        <v>1346497</v>
       </c>
       <c r="I36" t="n">
-        <v>172.521</v>
+        <v>179.605</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
       <c r="L36" t="n">
-        <v>6112</v>
+        <v>6628</v>
       </c>
       <c r="M36" t="n">
-        <v>0.815</v>
+        <v>0.884</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q36" t="s">
         <v>229</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>230</v>
       </c>
       <c r="R36" t="s">
         <v>24</v>
       </c>
       <c r="S36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" t="s">
         <v>232</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="n">
+        <v>44131</v>
+      </c>
+      <c r="D37" t="s">
         <v>233</v>
       </c>
-      <c r="C37" s="1" t="n">
-        <v>44124</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>234</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>235</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="n">
         <v>236</v>
       </c>
-      <c r="G37" t="n">
-        <v>229</v>
-      </c>
       <c r="H37" t="n">
-        <v>910368</v>
+        <v>1002093</v>
       </c>
       <c r="I37" t="n">
-        <v>94.238</v>
+        <v>103.733</v>
       </c>
       <c r="J37" t="n">
-        <v>6332</v>
+        <v>11710</v>
       </c>
       <c r="K37" t="n">
-        <v>0.655</v>
+        <v>1.212</v>
       </c>
       <c r="L37" t="n">
-        <v>9878</v>
+        <v>13104</v>
       </c>
       <c r="M37" t="n">
-        <v>1.023</v>
+        <v>1.356</v>
       </c>
       <c r="N37" t="n">
-        <v>0.129</v>
+        <v>0.162</v>
       </c>
       <c r="O37" t="n">
-        <v>7.774</v>
+        <v>6.162</v>
       </c>
       <c r="P37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q37" t="s">
+        <v>236</v>
+      </c>
+      <c r="R37" t="s">
         <v>237</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>238</v>
-      </c>
-      <c r="S37" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" t="s">
         <v>240</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D38" t="s">
         <v>241</v>
       </c>
-      <c r="C38" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>242</v>
-      </c>
-      <c r="E38" t="s">
-        <v>243</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H38" t="n">
-        <v>164945</v>
+        <v>174681</v>
       </c>
       <c r="I38" t="n">
-        <v>483.355</v>
+        <v>511.886</v>
       </c>
       <c r="J38" t="n">
-        <v>823</v>
+        <v>712</v>
       </c>
       <c r="K38" t="n">
-        <v>2.412</v>
+        <v>2.086</v>
       </c>
       <c r="L38" t="n">
-        <v>1893</v>
+        <v>1391</v>
       </c>
       <c r="M38" t="n">
-        <v>5.547</v>
+        <v>4.076</v>
       </c>
       <c r="N38" t="n">
         <v>0.041</v>
       </c>
       <c r="O38" t="n">
-        <v>24.63</v>
+        <v>24.588</v>
       </c>
       <c r="P38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R38" t="s">
         <v>24</v>
       </c>
       <c r="S38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" t="s">
         <v>245</v>
-      </c>
-      <c r="B39" t="s">
-        <v>246</v>
       </c>
       <c r="C39" s="1" t="n">
         <v>43945</v>
       </c>
       <c r="D39" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" t="s">
         <v>247</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>248</v>
-      </c>
-      <c r="F39" t="s">
-        <v>249</v>
       </c>
       <c r="G39" t="n">
         <v>24</v>
@@ -4967,673 +4944,673 @@
         <v>21.385</v>
       </c>
       <c r="P39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R39" t="s">
         <v>78</v>
       </c>
       <c r="S39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44124</v>
+        <v>44131</v>
       </c>
       <c r="D40" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" t="s">
         <v>247</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>248</v>
       </c>
-      <c r="F40" t="s">
-        <v>249</v>
-      </c>
       <c r="G40" t="n">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H40" t="n">
-        <v>96116771</v>
+        <v>104420894</v>
       </c>
       <c r="I40" t="n">
-        <v>69.65</v>
+        <v>75.667</v>
       </c>
       <c r="J40" t="n">
-        <v>1032795</v>
+        <v>958116</v>
       </c>
       <c r="K40" t="n">
-        <v>0.748</v>
+        <v>0.694</v>
       </c>
       <c r="L40" t="n">
-        <v>1024523</v>
+        <v>1186303</v>
       </c>
       <c r="M40" t="n">
-        <v>0.742</v>
+        <v>0.86</v>
       </c>
       <c r="N40" t="n">
-        <v>0.059</v>
+        <v>0.042</v>
       </c>
       <c r="O40" t="n">
-        <v>17.027</v>
+        <v>23.769</v>
       </c>
       <c r="P40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Q40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R40" t="s">
         <v>97</v>
       </c>
       <c r="S40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s">
         <v>253</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="n">
+        <v>44131</v>
+      </c>
+      <c r="D41" t="s">
         <v>254</v>
       </c>
-      <c r="C41" s="1" t="n">
-        <v>44124</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>255</v>
-      </c>
-      <c r="E41" t="s">
-        <v>256</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H41" t="n">
-        <v>2583085</v>
+        <v>2777969</v>
       </c>
       <c r="I41" t="n">
-        <v>9.444</v>
+        <v>10.156</v>
       </c>
       <c r="J41" t="n">
-        <v>29564</v>
+        <v>47738</v>
       </c>
       <c r="K41" t="n">
-        <v>0.108</v>
+        <v>0.175</v>
       </c>
       <c r="L41" t="n">
-        <v>29218</v>
+        <v>27841</v>
       </c>
       <c r="M41" t="n">
-        <v>0.107</v>
+        <v>0.102</v>
       </c>
       <c r="N41" t="n">
-        <v>0.139</v>
+        <v>0.142</v>
       </c>
       <c r="O41" t="n">
-        <v>7.17</v>
+        <v>7.037</v>
       </c>
       <c r="P41" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q41" t="s">
         <v>256</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>257</v>
       </c>
       <c r="R41" t="s">
         <v>78</v>
       </c>
       <c r="S41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>258</v>
+      </c>
+      <c r="B42" t="s">
         <v>259</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="n">
+        <v>44131</v>
+      </c>
+      <c r="D42" t="s">
         <v>260</v>
       </c>
-      <c r="C42" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>261</v>
-      </c>
-      <c r="E42" t="s">
-        <v>262</v>
       </c>
       <c r="F42"/>
       <c r="G42" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H42" t="n">
-        <v>4540455</v>
+        <v>4753357</v>
       </c>
       <c r="I42" t="n">
-        <v>54.058</v>
+        <v>56.592</v>
       </c>
       <c r="J42" t="n">
-        <v>29301</v>
+        <v>33760</v>
       </c>
       <c r="K42" t="n">
-        <v>0.349</v>
+        <v>0.402</v>
       </c>
       <c r="L42" t="n">
-        <v>28518</v>
+        <v>26159</v>
       </c>
       <c r="M42" t="n">
-        <v>0.34</v>
+        <v>0.311</v>
       </c>
       <c r="N42" t="n">
-        <v>0.152</v>
+        <v>0.22</v>
       </c>
       <c r="O42" t="n">
-        <v>6.587</v>
+        <v>4.552</v>
       </c>
       <c r="P42" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q42" t="s">
         <v>262</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>263</v>
       </c>
       <c r="R42" t="s">
         <v>24</v>
       </c>
       <c r="S42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43" t="s">
         <v>265</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="n">
+        <v>44128</v>
+      </c>
+      <c r="D43" t="s">
         <v>266</v>
       </c>
-      <c r="C43" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>267</v>
-      </c>
-      <c r="E43" t="s">
-        <v>268</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H43" t="n">
-        <v>2624351</v>
+        <v>2739678</v>
       </c>
       <c r="I43" t="n">
-        <v>65.246</v>
+        <v>68.113</v>
       </c>
       <c r="J43" t="n">
-        <v>18885</v>
+        <v>15350</v>
       </c>
       <c r="K43" t="n">
-        <v>0.47</v>
+        <v>0.382</v>
       </c>
       <c r="L43" t="n">
-        <v>19595</v>
+        <v>19173</v>
       </c>
       <c r="M43" t="n">
-        <v>0.487</v>
+        <v>0.477</v>
       </c>
       <c r="N43" t="n">
-        <v>0.171</v>
+        <v>0.191</v>
       </c>
       <c r="O43" t="n">
-        <v>5.862</v>
+        <v>5.233</v>
       </c>
       <c r="P43" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q43" t="s">
         <v>269</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>270</v>
       </c>
       <c r="R43" t="s">
         <v>97</v>
       </c>
       <c r="S43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>271</v>
+      </c>
+      <c r="B44" t="s">
         <v>272</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="1" t="n">
+        <v>44128</v>
+      </c>
+      <c r="D44" t="s">
         <v>273</v>
       </c>
-      <c r="C44" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>274</v>
-      </c>
-      <c r="E44" t="s">
-        <v>275</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H44" t="n">
-        <v>1453608</v>
+        <v>1538215</v>
       </c>
       <c r="I44" t="n">
-        <v>294.384</v>
+        <v>311.519</v>
       </c>
       <c r="J44" t="n">
-        <v>14391</v>
+        <v>17572</v>
       </c>
       <c r="K44" t="n">
-        <v>2.914</v>
+        <v>3.559</v>
       </c>
       <c r="L44" t="n">
-        <v>16019</v>
+        <v>16448</v>
       </c>
       <c r="M44" t="n">
-        <v>3.244</v>
+        <v>3.331</v>
       </c>
       <c r="N44" t="n">
-        <v>0.066</v>
+        <v>0.068</v>
       </c>
       <c r="O44" t="n">
-        <v>15.084</v>
+        <v>14.697</v>
       </c>
       <c r="P44" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q44" t="s">
         <v>275</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>276</v>
       </c>
       <c r="R44" t="s">
         <v>24</v>
       </c>
       <c r="S44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" t="s">
         <v>278</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="1" t="n">
+        <v>44120</v>
+      </c>
+      <c r="D45" t="s">
         <v>279</v>
       </c>
-      <c r="C45" s="1" t="n">
-        <v>44117</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>280</v>
-      </c>
-      <c r="E45" t="s">
-        <v>281</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="n">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H45" t="n">
-        <v>4285282</v>
+        <v>4399046</v>
       </c>
       <c r="I45" t="n">
-        <v>495.091</v>
+        <v>508.235</v>
       </c>
       <c r="J45" t="n">
-        <v>45266</v>
+        <v>34722</v>
       </c>
       <c r="K45" t="n">
-        <v>5.23</v>
+        <v>4.012</v>
       </c>
       <c r="L45" t="n">
-        <v>37925</v>
+        <v>34689</v>
       </c>
       <c r="M45" t="n">
-        <v>4.382</v>
+        <v>4.008</v>
       </c>
       <c r="N45" t="n">
-        <v>0.086</v>
+        <v>0.057</v>
       </c>
       <c r="O45" t="n">
-        <v>11.681</v>
+        <v>17.586</v>
       </c>
       <c r="P45" t="s">
         <v>36</v>
       </c>
       <c r="Q45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="R45" t="s">
         <v>24</v>
       </c>
       <c r="S45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" t="s">
         <v>284</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D46" t="s">
         <v>285</v>
       </c>
-      <c r="C46" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>286</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>287</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="n">
+        <v>191</v>
+      </c>
+      <c r="H46" t="n">
+        <v>8969472</v>
+      </c>
+      <c r="I46" t="n">
+        <v>148.349</v>
+      </c>
+      <c r="J46" t="n">
+        <v>78816</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1.304</v>
+      </c>
+      <c r="L46" t="n">
+        <v>100558</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.663</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="O46" t="n">
+        <v>6.311</v>
+      </c>
+      <c r="P46" t="s">
         <v>288</v>
       </c>
-      <c r="G46" t="n">
-        <v>184</v>
-      </c>
-      <c r="H46" t="n">
-        <v>8265568</v>
-      </c>
-      <c r="I46" t="n">
-        <v>136.707</v>
-      </c>
-      <c r="J46" t="n">
-        <v>65824</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1.089</v>
-      </c>
-      <c r="L46" t="n">
-        <v>87644</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.097</v>
-      </c>
-      <c r="O46" t="n">
-        <v>10.347</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>289</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>290</v>
       </c>
       <c r="R46" t="s">
         <v>78</v>
       </c>
       <c r="S46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44123</v>
+        <v>44130</v>
       </c>
       <c r="D47" t="s">
+        <v>285</v>
+      </c>
+      <c r="E47" t="s">
         <v>286</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>287</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="n">
+        <v>246</v>
+      </c>
+      <c r="H47" t="n">
+        <v>14778688</v>
+      </c>
+      <c r="I47" t="n">
+        <v>244.43</v>
+      </c>
+      <c r="J47" t="n">
+        <v>124686</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="L47" t="n">
+        <v>162749</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.692</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="O47" t="n">
+        <v>10.214</v>
+      </c>
+      <c r="P47" t="s">
         <v>288</v>
       </c>
-      <c r="G47" t="n">
-        <v>239</v>
-      </c>
-      <c r="H47" t="n">
-        <v>13639444</v>
-      </c>
-      <c r="I47" t="n">
-        <v>225.588</v>
-      </c>
-      <c r="J47" t="n">
-        <v>98862</v>
-      </c>
-      <c r="K47" t="n">
-        <v>1.635</v>
-      </c>
-      <c r="L47" t="n">
-        <v>141327</v>
-      </c>
-      <c r="M47" t="n">
-        <v>2.337</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O47" t="n">
-        <v>16.685</v>
-      </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>289</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>290</v>
       </c>
       <c r="R47" t="s">
         <v>24</v>
       </c>
       <c r="S47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" t="s">
         <v>294</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="1" t="n">
+        <v>44127</v>
+      </c>
+      <c r="D48" t="s">
         <v>295</v>
       </c>
-      <c r="C48" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>296</v>
-      </c>
-      <c r="E48" t="s">
-        <v>297</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H48" t="n">
-        <v>88828</v>
+        <v>91980</v>
       </c>
       <c r="I48" t="n">
-        <v>29.998</v>
+        <v>31.062</v>
       </c>
       <c r="J48" t="n">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="K48" t="n">
-        <v>0.187</v>
+        <v>0.186</v>
       </c>
       <c r="L48" t="n">
-        <v>510</v>
+        <v>581</v>
       </c>
       <c r="M48" t="n">
-        <v>0.172</v>
+        <v>0.196</v>
       </c>
       <c r="N48" t="n">
-        <v>0.178</v>
+        <v>0.131</v>
       </c>
       <c r="O48" t="n">
-        <v>5.613</v>
+        <v>7.63</v>
       </c>
       <c r="P48" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q48" t="s">
         <v>297</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>298</v>
       </c>
       <c r="R48" t="s">
         <v>97</v>
       </c>
       <c r="S48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" t="s">
         <v>300</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D49" t="s">
         <v>301</v>
       </c>
-      <c r="C49" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>302</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>303</v>
       </c>
-      <c r="F49" t="s">
-        <v>304</v>
-      </c>
       <c r="G49" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H49" t="n">
-        <v>2433665</v>
+        <v>2573495</v>
       </c>
       <c r="I49" t="n">
-        <v>19.242</v>
+        <v>20.348</v>
       </c>
       <c r="J49" t="n">
-        <v>12622</v>
+        <v>16281</v>
       </c>
       <c r="K49" t="n">
-        <v>0.1</v>
+        <v>0.129</v>
       </c>
       <c r="L49" t="n">
-        <v>19231</v>
+        <v>19976</v>
       </c>
       <c r="M49" t="n">
-        <v>0.152</v>
+        <v>0.158</v>
       </c>
       <c r="N49" t="n">
         <v>0.028</v>
       </c>
       <c r="O49" t="n">
-        <v>35.955</v>
+        <v>36.058</v>
       </c>
       <c r="P49" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q49" t="s">
         <v>305</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>306</v>
       </c>
       <c r="R49" t="s">
         <v>78</v>
       </c>
       <c r="S49" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B50" t="s">
+        <v>307</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>44126</v>
+      </c>
+      <c r="D50" t="s">
         <v>308</v>
       </c>
-      <c r="C50" s="1" t="n">
-        <v>44119</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>302</v>
+      </c>
+      <c r="F50" t="s">
         <v>309</v>
       </c>
-      <c r="E50" t="s">
-        <v>303</v>
-      </c>
-      <c r="F50" t="s">
-        <v>310</v>
-      </c>
       <c r="G50" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="n">
-        <v>2793621</v>
+        <v>2950129</v>
       </c>
       <c r="I50" t="n">
-        <v>22.088</v>
+        <v>23.326</v>
       </c>
       <c r="J50" t="n">
-        <v>19310</v>
+        <v>21307</v>
       </c>
       <c r="K50" t="n">
-        <v>0.153</v>
+        <v>0.168</v>
       </c>
       <c r="L50" t="n">
-        <v>18796</v>
+        <v>19464</v>
       </c>
       <c r="M50" t="n">
-        <v>0.149</v>
+        <v>0.154</v>
       </c>
       <c r="N50" t="n">
         <v>0.028</v>
       </c>
       <c r="O50" t="n">
-        <v>35.656</v>
+        <v>35.723</v>
       </c>
       <c r="P50" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q50" t="s">
         <v>305</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>306</v>
       </c>
       <c r="R50" t="s">
         <v>24</v>
       </c>
       <c r="S50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>311</v>
+      </c>
+      <c r="B51" t="s">
         <v>312</v>
-      </c>
-      <c r="B51" t="s">
-        <v>313</v>
       </c>
       <c r="C51" s="1" t="n">
         <v>43952</v>
       </c>
       <c r="D51" t="s">
+        <v>313</v>
+      </c>
+      <c r="E51" t="s">
         <v>314</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>315</v>
-      </c>
-      <c r="F51" t="s">
-        <v>316</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -5651,293 +5628,293 @@
       <c r="N51"/>
       <c r="O51"/>
       <c r="P51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="R51" t="s">
         <v>24</v>
       </c>
       <c r="S51" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>318</v>
+      </c>
+      <c r="B52" t="s">
         <v>319</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="D52" t="s">
         <v>320</v>
       </c>
-      <c r="C52" s="1" t="n">
-        <v>44117</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>321</v>
-      </c>
-      <c r="E52" t="s">
-        <v>322</v>
       </c>
       <c r="F52"/>
       <c r="G52" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H52" t="n">
-        <v>3175675</v>
+        <v>3309626</v>
       </c>
       <c r="I52" t="n">
-        <v>169.128</v>
+        <v>176.262</v>
       </c>
       <c r="J52" t="n">
-        <v>10906</v>
+        <v>19823</v>
       </c>
       <c r="K52" t="n">
-        <v>0.581</v>
+        <v>1.056</v>
       </c>
       <c r="L52" t="n">
-        <v>18605</v>
+        <v>20694</v>
       </c>
       <c r="M52" t="n">
-        <v>0.991</v>
+        <v>1.102</v>
       </c>
       <c r="N52" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="O52" t="n">
-        <v>68.186</v>
+        <v>83.588</v>
       </c>
       <c r="P52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q52" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R52" t="s">
         <v>24</v>
       </c>
       <c r="S52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B53" t="s">
         <v>324</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="1" t="n">
+        <v>44128</v>
+      </c>
+      <c r="D53" t="s">
         <v>325</v>
       </c>
-      <c r="C53" s="1" t="n">
-        <v>44121</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>326</v>
-      </c>
-      <c r="E53" t="s">
-        <v>327</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H53" t="n">
-        <v>617064</v>
+        <v>653229</v>
       </c>
       <c r="I53" t="n">
-        <v>11.476</v>
-      </c>
-      <c r="J53"/>
-      <c r="K53"/>
+        <v>12.148</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6862</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.128</v>
+      </c>
       <c r="L53" t="n">
-        <v>4308</v>
+        <v>5166</v>
       </c>
       <c r="M53" t="n">
-        <v>0.08</v>
+        <v>0.096</v>
       </c>
       <c r="N53" t="n">
-        <v>0.098</v>
+        <v>0.118</v>
       </c>
       <c r="O53" t="n">
-        <v>10.188</v>
+        <v>8.483</v>
       </c>
       <c r="P53" t="s">
         <v>36</v>
       </c>
       <c r="Q53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="R53" t="s">
         <v>97</v>
       </c>
       <c r="S53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>329</v>
+      </c>
+      <c r="B54" t="s">
         <v>330</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="1" t="n">
+        <v>44128</v>
+      </c>
+      <c r="D54" t="s">
         <v>331</v>
       </c>
-      <c r="C54" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>332</v>
-      </c>
-      <c r="E54" t="s">
-        <v>333</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H54" t="n">
-        <v>834167</v>
+        <v>870754</v>
       </c>
       <c r="I54" t="n">
-        <v>195.33</v>
+        <v>203.897</v>
       </c>
       <c r="J54" t="n">
-        <v>6002</v>
+        <v>5194</v>
       </c>
       <c r="K54" t="n">
-        <v>1.405</v>
+        <v>1.216</v>
       </c>
       <c r="L54" t="n">
-        <v>6495</v>
+        <v>6793</v>
       </c>
       <c r="M54" t="n">
-        <v>1.521</v>
+        <v>1.591</v>
       </c>
       <c r="N54" t="n">
-        <v>0.111</v>
+        <v>0.115</v>
       </c>
       <c r="O54" t="n">
-        <v>9.039</v>
+        <v>8.665</v>
       </c>
       <c r="P54" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q54" t="s">
         <v>333</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>334</v>
       </c>
       <c r="R54" t="s">
         <v>24</v>
       </c>
       <c r="S54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>335</v>
+      </c>
+      <c r="B55" t="s">
         <v>336</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" s="1" t="n">
+        <v>44131</v>
+      </c>
+      <c r="D55" t="s">
         <v>337</v>
       </c>
-      <c r="C55" s="1" t="n">
-        <v>44124</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>338</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>339</v>
       </c>
-      <c r="F55" t="s">
-        <v>340</v>
-      </c>
       <c r="G55" t="n">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H55" t="n">
-        <v>397357</v>
+        <v>431325</v>
       </c>
       <c r="I55" t="n">
-        <v>210.665</v>
+        <v>228.674</v>
       </c>
       <c r="J55" t="n">
-        <v>4171</v>
+        <v>5093</v>
       </c>
       <c r="K55" t="n">
-        <v>2.211</v>
+        <v>2.7</v>
       </c>
       <c r="L55" t="n">
-        <v>4130</v>
+        <v>4853</v>
       </c>
       <c r="M55" t="n">
-        <v>2.19</v>
+        <v>2.573</v>
       </c>
       <c r="N55" t="n">
-        <v>0.025</v>
+        <v>0.037</v>
       </c>
       <c r="O55" t="n">
-        <v>39.657</v>
+        <v>26.897</v>
       </c>
       <c r="P55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R55" t="s">
         <v>24</v>
       </c>
       <c r="S55" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>341</v>
+      </c>
+      <c r="B56" t="s">
         <v>342</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D56" t="s">
         <v>343</v>
       </c>
-      <c r="C56" s="1" t="n">
-        <v>44093</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>344</v>
-      </c>
-      <c r="E56" t="s">
-        <v>345</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>183</v>
-      </c>
-      <c r="H56" t="n">
-        <v>197575</v>
-      </c>
-      <c r="I56" t="n">
-        <v>28.754</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="H56"/>
+      <c r="I56"/>
       <c r="J56" t="n">
-        <v>3461</v>
+        <v>3815</v>
       </c>
       <c r="K56" t="n">
-        <v>0.504</v>
+        <v>0.555</v>
       </c>
       <c r="L56" t="n">
-        <v>3669</v>
+        <v>4124</v>
       </c>
       <c r="M56" t="n">
-        <v>0.534</v>
+        <v>0.6</v>
       </c>
       <c r="N56" t="n">
-        <v>0.176</v>
+        <v>0.226</v>
       </c>
       <c r="O56" t="n">
-        <v>5.67</v>
+        <v>4.422</v>
       </c>
       <c r="P56" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q56" t="s">
         <v>345</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>344</v>
       </c>
       <c r="R56" t="s">
         <v>97</v>
@@ -5954,7 +5931,7 @@
         <v>348</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>44124</v>
+        <v>44131</v>
       </c>
       <c r="D57" t="s">
         <v>349</v>
@@ -5964,31 +5941,31 @@
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H57" t="n">
-        <v>905929</v>
+        <v>964352</v>
       </c>
       <c r="I57" t="n">
-        <v>332.782</v>
+        <v>354.243</v>
       </c>
       <c r="J57" t="n">
-        <v>12915</v>
+        <v>9390</v>
       </c>
       <c r="K57" t="n">
-        <v>4.744</v>
+        <v>3.449</v>
       </c>
       <c r="L57" t="n">
-        <v>7703</v>
+        <v>8346</v>
       </c>
       <c r="M57" t="n">
-        <v>2.83</v>
+        <v>3.066</v>
       </c>
       <c r="N57" t="n">
-        <v>0.027</v>
+        <v>0.055</v>
       </c>
       <c r="O57" t="n">
-        <v>36.482</v>
+        <v>18.127</v>
       </c>
       <c r="P57" t="s">
         <v>36</v>
@@ -6011,7 +5988,7 @@
         <v>352</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44121</v>
+        <v>44128</v>
       </c>
       <c r="D58" t="s">
         <v>353</v>
@@ -6021,31 +5998,31 @@
       </c>
       <c r="F58"/>
       <c r="G58" t="n">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="H58" t="n">
-        <v>944870</v>
+        <v>1006186</v>
       </c>
       <c r="I58" t="n">
-        <v>1509.435</v>
+        <v>1607.388</v>
       </c>
       <c r="J58" t="n">
-        <v>8622</v>
+        <v>10371</v>
       </c>
       <c r="K58" t="n">
-        <v>13.774</v>
+        <v>16.568</v>
       </c>
       <c r="L58" t="n">
-        <v>6745</v>
+        <v>8537</v>
       </c>
       <c r="M58" t="n">
-        <v>10.775</v>
+        <v>13.638</v>
       </c>
       <c r="N58" t="n">
-        <v>0.024</v>
+        <v>0.04</v>
       </c>
       <c r="O58" t="n">
-        <v>42.498</v>
+        <v>25.109</v>
       </c>
       <c r="P58" t="s">
         <v>354</v>
@@ -6068,1140 +6045,1132 @@
         <v>357</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>44120</v>
+        <v>44102</v>
       </c>
       <c r="D59" t="s">
         <v>358</v>
       </c>
       <c r="E59" t="s">
-        <v>359</v>
+        <v>36</v>
       </c>
       <c r="F59"/>
       <c r="G59" t="n">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="H59" t="n">
-        <v>85407</v>
+        <v>185708</v>
       </c>
       <c r="I59" t="n">
-        <v>3.084</v>
+        <v>89.138</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
-      <c r="L59" t="n">
-        <v>1598</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="O59" t="n">
-        <v>111.86</v>
-      </c>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
       <c r="P59" t="s">
-        <v>359</v>
+        <v>36</v>
       </c>
       <c r="Q59" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="R59" t="s">
         <v>24</v>
       </c>
       <c r="S59" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>360</v>
+      </c>
+      <c r="B60" t="s">
+        <v>361</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>44127</v>
+      </c>
+      <c r="D60" t="s">
         <v>362</v>
       </c>
-      <c r="B60" t="s">
+      <c r="E60" t="s">
         <v>363</v>
-      </c>
-      <c r="C60" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D60" t="s">
-        <v>364</v>
-      </c>
-      <c r="E60" t="s">
-        <v>365</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="n">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="H60" t="n">
-        <v>57905</v>
+        <v>87659</v>
       </c>
       <c r="I60" t="n">
-        <v>3.027</v>
-      </c>
-      <c r="J60" t="n">
-        <v>234</v>
-      </c>
-      <c r="K60" t="n">
+        <v>3.166</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60" t="n">
+        <v>322</v>
+      </c>
+      <c r="M60" t="n">
         <v>0.012</v>
       </c>
-      <c r="L60" t="n">
-        <v>253</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.013</v>
-      </c>
       <c r="N60" t="n">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
       <c r="O60" t="n">
-        <v>57.129</v>
+        <v>40.25</v>
       </c>
       <c r="P60" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>364</v>
+      </c>
+      <c r="R60" t="s">
+        <v>24</v>
+      </c>
+      <c r="S60" t="s">
         <v>365</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>366</v>
-      </c>
-      <c r="R60" t="s">
-        <v>97</v>
-      </c>
-      <c r="S60" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61" t="s">
+        <v>367</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D61" t="s">
         <v>368</v>
       </c>
-      <c r="B61" t="s">
+      <c r="E61" t="s">
         <v>369</v>
       </c>
-      <c r="C61" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="F61"/>
+      <c r="G61" t="n">
+        <v>187</v>
+      </c>
+      <c r="H61" t="n">
+        <v>60115</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="J61" t="n">
+        <v>514</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="L61" t="n">
+        <v>316</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="O61" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="P61" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q61" t="s">
         <v>370</v>
       </c>
-      <c r="E61" t="s">
+      <c r="R61" t="s">
+        <v>97</v>
+      </c>
+      <c r="S61" t="s">
         <v>371</v>
-      </c>
-      <c r="F61" t="s">
-        <v>372</v>
-      </c>
-      <c r="G61" t="n">
-        <v>221</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1885847</v>
-      </c>
-      <c r="I61" t="n">
-        <v>58.266</v>
-      </c>
-      <c r="J61" t="n">
-        <v>22810</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.705</v>
-      </c>
-      <c r="L61" t="n">
-        <v>20997</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.649</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="O61" t="n">
-        <v>32.439</v>
-      </c>
-      <c r="P61" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>373</v>
-      </c>
-      <c r="R61" t="s">
-        <v>78</v>
-      </c>
-      <c r="S61" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>372</v>
+      </c>
+      <c r="B62" t="s">
+        <v>373</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D62" t="s">
+        <v>374</v>
+      </c>
+      <c r="E62" t="s">
         <v>375</v>
       </c>
-      <c r="B62" t="s">
+      <c r="F62" t="s">
         <v>376</v>
       </c>
-      <c r="C62" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="G62" t="n">
+        <v>228</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2006716</v>
+      </c>
+      <c r="I62" t="n">
+        <v>62.001</v>
+      </c>
+      <c r="J62" t="n">
+        <v>17485</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L62" t="n">
+        <v>17267</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="O62" t="n">
+        <v>19.766</v>
+      </c>
+      <c r="P62" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q62" t="s">
         <v>377</v>
       </c>
-      <c r="E62" t="s">
+      <c r="R62" t="s">
+        <v>78</v>
+      </c>
+      <c r="S62" t="s">
         <v>378</v>
-      </c>
-      <c r="F62"/>
-      <c r="G62" t="n">
-        <v>200</v>
-      </c>
-      <c r="H62" t="n">
-        <v>179171</v>
-      </c>
-      <c r="I62" t="n">
-        <v>331.465</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1252</v>
-      </c>
-      <c r="K62" t="n">
-        <v>2.316</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1377</v>
-      </c>
-      <c r="M62" t="n">
-        <v>2.547</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="O62" t="n">
-        <v>30.216</v>
-      </c>
-      <c r="P62" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>380</v>
-      </c>
-      <c r="R62" t="s">
-        <v>97</v>
-      </c>
-      <c r="S62" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>379</v>
+      </c>
+      <c r="B63" t="s">
+        <v>380</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D63" t="s">
+        <v>381</v>
+      </c>
+      <c r="E63" t="s">
         <v>382</v>
-      </c>
-      <c r="B63" t="s">
-        <v>383</v>
-      </c>
-      <c r="C63" s="1" t="n">
-        <v>44102</v>
-      </c>
-      <c r="D63" t="s">
-        <v>384</v>
-      </c>
-      <c r="E63" t="s">
-        <v>385</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="n">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H63" t="n">
-        <v>251746</v>
+        <v>191659</v>
       </c>
       <c r="I63" t="n">
-        <v>570.156</v>
+        <v>354.568</v>
       </c>
       <c r="J63" t="n">
-        <v>2116</v>
+        <v>1301</v>
       </c>
       <c r="K63" t="n">
-        <v>4.792</v>
+        <v>2.407</v>
       </c>
       <c r="L63" t="n">
-        <v>2304</v>
+        <v>1593</v>
       </c>
       <c r="M63" t="n">
-        <v>5.218</v>
+        <v>2.947</v>
       </c>
       <c r="N63" t="n">
-        <v>0.012</v>
+        <v>0.026</v>
       </c>
       <c r="O63" t="n">
-        <v>81.455</v>
+        <v>37.8</v>
       </c>
       <c r="P63" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>384</v>
+      </c>
+      <c r="R63" t="s">
+        <v>97</v>
+      </c>
+      <c r="S63" t="s">
         <v>385</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>386</v>
-      </c>
-      <c r="R63" t="s">
-        <v>24</v>
-      </c>
-      <c r="S63" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>386</v>
+      </c>
+      <c r="B64" t="s">
+        <v>387</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>44102</v>
+      </c>
+      <c r="D64" t="s">
         <v>388</v>
       </c>
-      <c r="B64" t="s">
+      <c r="E64" t="s">
         <v>389</v>
-      </c>
-      <c r="C64" s="1" t="n">
-        <v>44115</v>
-      </c>
-      <c r="D64" t="s">
-        <v>390</v>
-      </c>
-      <c r="E64" t="s">
-        <v>36</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="n">
-        <v>54</v>
-      </c>
-      <c r="H64"/>
-      <c r="I64"/>
+        <v>220</v>
+      </c>
+      <c r="H64" t="n">
+        <v>251746</v>
+      </c>
+      <c r="I64" t="n">
+        <v>570.156</v>
+      </c>
       <c r="J64" t="n">
-        <v>83</v>
+        <v>2116</v>
       </c>
       <c r="K64" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
+        <v>4.792</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2304</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5.218</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O64" t="n">
+        <v>81.455</v>
+      </c>
       <c r="P64" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q64" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R64" t="s">
         <v>24</v>
       </c>
       <c r="S64" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>392</v>
+      </c>
+      <c r="B65" t="s">
+        <v>393</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>44115</v>
+      </c>
+      <c r="D65" t="s">
         <v>394</v>
       </c>
-      <c r="B65" t="s">
-        <v>395</v>
-      </c>
-      <c r="C65" s="1" t="n">
-        <v>44118</v>
-      </c>
-      <c r="D65" t="s">
-        <v>396</v>
-      </c>
       <c r="E65" t="s">
-        <v>397</v>
+        <v>36</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="n">
-        <v>288</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1865473</v>
-      </c>
-      <c r="I65" t="n">
-        <v>14.469</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="H65"/>
+      <c r="I65"/>
       <c r="J65" t="n">
-        <v>10523</v>
+        <v>83</v>
       </c>
       <c r="K65" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="L65" t="n">
-        <v>10163</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O65" t="n">
-        <v>2.438</v>
-      </c>
+        <v>0.018</v>
+      </c>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
       <c r="P65" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q65" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="R65" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="S65" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>398</v>
+      </c>
+      <c r="B66" t="s">
+        <v>399</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>44125</v>
+      </c>
+      <c r="D66" t="s">
+        <v>400</v>
+      </c>
+      <c r="E66" t="s">
         <v>401</v>
-      </c>
-      <c r="B66" t="s">
-        <v>402</v>
-      </c>
-      <c r="C66" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D66" t="s">
-        <v>403</v>
-      </c>
-      <c r="E66" t="s">
-        <v>404</v>
       </c>
       <c r="F66"/>
       <c r="G66" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
       <c r="H66" t="n">
-        <v>3040181</v>
+        <v>1959304</v>
       </c>
       <c r="I66" t="n">
-        <v>82.366</v>
+        <v>15.196</v>
       </c>
       <c r="J66" t="n">
-        <v>22693</v>
+        <v>11714</v>
       </c>
       <c r="K66" t="n">
-        <v>0.615</v>
+        <v>0.091</v>
       </c>
       <c r="L66" t="n">
-        <v>23240</v>
+        <v>11166</v>
       </c>
       <c r="M66" t="n">
-        <v>0.63</v>
+        <v>0.087</v>
       </c>
       <c r="N66" t="n">
-        <v>0.151</v>
+        <v>0.232</v>
       </c>
       <c r="O66" t="n">
-        <v>6.636</v>
+        <v>4.319</v>
       </c>
       <c r="P66" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q66" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="R66" t="s">
         <v>78</v>
       </c>
       <c r="S66" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>405</v>
+      </c>
+      <c r="B67" t="s">
+        <v>406</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D67" t="s">
         <v>407</v>
       </c>
-      <c r="B67" t="s">
+      <c r="E67" t="s">
         <v>408</v>
-      </c>
-      <c r="C67" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D67" t="s">
-        <v>409</v>
-      </c>
-      <c r="E67" t="s">
-        <v>410</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="n">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="H67" t="n">
-        <v>167051</v>
+        <v>3217978</v>
       </c>
       <c r="I67" t="n">
-        <v>5.345</v>
+        <v>87.183</v>
       </c>
       <c r="J67" t="n">
-        <v>1380</v>
+        <v>20361</v>
       </c>
       <c r="K67" t="n">
-        <v>0.044</v>
+        <v>0.552</v>
       </c>
       <c r="L67" t="n">
-        <v>1877</v>
+        <v>22394</v>
       </c>
       <c r="M67" t="n">
-        <v>0.06</v>
+        <v>0.607</v>
       </c>
       <c r="N67" t="n">
-        <v>0.066</v>
+        <v>0.152</v>
       </c>
       <c r="O67" t="n">
-        <v>15.225</v>
+        <v>6.573</v>
       </c>
       <c r="P67" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>409</v>
+      </c>
+      <c r="R67" t="s">
+        <v>78</v>
+      </c>
+      <c r="S67" t="s">
         <v>410</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>411</v>
-      </c>
-      <c r="R67" t="s">
-        <v>412</v>
-      </c>
-      <c r="S67" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>411</v>
+      </c>
+      <c r="B68" t="s">
+        <v>412</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D68" t="s">
+        <v>413</v>
+      </c>
+      <c r="E68" t="s">
         <v>414</v>
-      </c>
-      <c r="B68" t="s">
-        <v>415</v>
-      </c>
-      <c r="C68" s="1" t="n">
-        <v>44111</v>
-      </c>
-      <c r="D68" t="s">
-        <v>416</v>
-      </c>
-      <c r="E68" t="s">
-        <v>417</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="n">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="H68" t="n">
-        <v>317765</v>
+        <v>180557</v>
       </c>
       <c r="I68" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="J68"/>
-      <c r="K68"/>
+        <v>5.777</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1996</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.064</v>
+      </c>
       <c r="L68" t="n">
-        <v>7210</v>
+        <v>1929</v>
       </c>
       <c r="M68" t="n">
-        <v>0.133</v>
+        <v>0.062</v>
       </c>
       <c r="N68" t="n">
-        <v>0.151</v>
+        <v>0.088</v>
       </c>
       <c r="O68" t="n">
-        <v>6.634</v>
+        <v>11.366</v>
       </c>
       <c r="P68" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>415</v>
+      </c>
+      <c r="R68" t="s">
+        <v>416</v>
+      </c>
+      <c r="S68" t="s">
         <v>417</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>418</v>
-      </c>
-      <c r="R68" t="s">
-        <v>97</v>
-      </c>
-      <c r="S68" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>418</v>
+      </c>
+      <c r="B69" t="s">
+        <v>419</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>44111</v>
+      </c>
+      <c r="D69" t="s">
         <v>420</v>
       </c>
-      <c r="B69" t="s">
+      <c r="E69" t="s">
         <v>421</v>
-      </c>
-      <c r="C69" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D69" t="s">
-        <v>422</v>
-      </c>
-      <c r="E69" t="s">
-        <v>423</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="n">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="H69" t="n">
-        <v>117052</v>
+        <v>317765</v>
       </c>
       <c r="I69" t="n">
-        <v>46.067</v>
-      </c>
-      <c r="J69" t="n">
-        <v>947</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.373</v>
-      </c>
+        <v>5.84</v>
+      </c>
+      <c r="J69"/>
+      <c r="K69"/>
       <c r="L69" t="n">
-        <v>904</v>
+        <v>7210</v>
       </c>
       <c r="M69" t="n">
-        <v>0.356</v>
+        <v>0.133</v>
       </c>
       <c r="N69" t="n">
-        <v>0.056</v>
+        <v>0.151</v>
       </c>
       <c r="O69" t="n">
-        <v>17.725</v>
+        <v>6.634</v>
       </c>
       <c r="P69" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q69" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="R69" t="s">
         <v>97</v>
       </c>
       <c r="S69" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>424</v>
+      </c>
+      <c r="B70" t="s">
+        <v>425</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>44128</v>
+      </c>
+      <c r="D70" t="s">
+        <v>426</v>
+      </c>
+      <c r="E70" t="s">
         <v>427</v>
-      </c>
-      <c r="B70" t="s">
-        <v>428</v>
-      </c>
-      <c r="C70" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D70" t="s">
-        <v>429</v>
-      </c>
-      <c r="E70" t="s">
-        <v>430</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="n">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="H70" t="n">
-        <v>1300918</v>
+        <v>121708</v>
       </c>
       <c r="I70" t="n">
-        <v>44.649</v>
+        <v>47.899</v>
       </c>
       <c r="J70" t="n">
-        <v>17564</v>
+        <v>1150</v>
       </c>
       <c r="K70" t="n">
-        <v>0.603</v>
+        <v>0.453</v>
       </c>
       <c r="L70" t="n">
-        <v>15629</v>
+        <v>904</v>
       </c>
       <c r="M70" t="n">
-        <v>0.536</v>
+        <v>0.356</v>
       </c>
       <c r="N70" t="n">
-        <v>0.224</v>
+        <v>0.045</v>
       </c>
       <c r="O70" t="n">
-        <v>4.467</v>
+        <v>22.126</v>
       </c>
       <c r="P70" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>429</v>
+      </c>
+      <c r="R70" t="s">
+        <v>97</v>
+      </c>
+      <c r="S70" t="s">
         <v>430</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>431</v>
-      </c>
-      <c r="R70" t="s">
-        <v>24</v>
-      </c>
-      <c r="S70" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>431</v>
+      </c>
+      <c r="B71" t="s">
+        <v>432</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>44128</v>
+      </c>
+      <c r="D71" t="s">
         <v>433</v>
       </c>
-      <c r="B71" t="s">
+      <c r="E71" t="s">
         <v>434</v>
-      </c>
-      <c r="C71" s="1" t="n">
-        <v>44115</v>
-      </c>
-      <c r="D71" t="s">
-        <v>435</v>
-      </c>
-      <c r="E71" t="s">
-        <v>436</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="n">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="H71" t="n">
-        <v>2872935</v>
+        <v>1380862</v>
       </c>
       <c r="I71" t="n">
-        <v>167.666</v>
-      </c>
-      <c r="J71"/>
-      <c r="K71"/>
+        <v>47.392</v>
+      </c>
+      <c r="J71" t="n">
+        <v>13846</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.475</v>
+      </c>
       <c r="L71" t="n">
-        <v>29944</v>
+        <v>15894</v>
       </c>
       <c r="M71" t="n">
-        <v>1.748</v>
+        <v>0.545</v>
       </c>
       <c r="N71" t="n">
-        <v>0.173</v>
+        <v>0.242</v>
       </c>
       <c r="O71" t="n">
-        <v>5.769</v>
+        <v>4.14</v>
       </c>
       <c r="P71" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Q71" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="R71" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="S71" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>437</v>
+      </c>
+      <c r="B72" t="s">
+        <v>438</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>44101</v>
+      </c>
+      <c r="D72" t="s">
+        <v>439</v>
+      </c>
+      <c r="E72" t="s">
         <v>440</v>
-      </c>
-      <c r="B72" t="s">
-        <v>441</v>
-      </c>
-      <c r="C72" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D72" t="s">
-        <v>442</v>
-      </c>
-      <c r="E72" t="s">
-        <v>36</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="n">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="H72" t="n">
-        <v>1034603</v>
+        <v>2471194</v>
       </c>
       <c r="I72" t="n">
-        <v>214.549</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2715</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.563</v>
-      </c>
+        <v>144.22</v>
+      </c>
+      <c r="J72"/>
+      <c r="K72"/>
       <c r="L72" t="n">
-        <v>4114</v>
+        <v>30047</v>
       </c>
       <c r="M72" t="n">
-        <v>0.853</v>
+        <v>1.754</v>
       </c>
       <c r="N72" t="n">
-        <v>0.001</v>
+        <v>0.079</v>
       </c>
       <c r="O72" t="n">
-        <v>1919.867</v>
+        <v>12.61</v>
       </c>
       <c r="P72" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>442</v>
+      </c>
+      <c r="R72" t="s">
+        <v>78</v>
+      </c>
+      <c r="S72" t="s">
         <v>443</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>444</v>
-      </c>
-      <c r="R72" t="s">
-        <v>24</v>
-      </c>
-      <c r="S72" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>444</v>
+      </c>
+      <c r="B73" t="s">
+        <v>445</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D73" t="s">
         <v>446</v>
       </c>
-      <c r="B73" t="s">
-        <v>447</v>
-      </c>
-      <c r="C73" s="1" t="n">
-        <v>44124</v>
-      </c>
-      <c r="D73" t="s">
-        <v>448</v>
-      </c>
       <c r="E73" t="s">
-        <v>449</v>
+        <v>36</v>
       </c>
       <c r="F73"/>
       <c r="G73" t="n">
-        <v>149</v>
+        <v>239</v>
       </c>
       <c r="H73" t="n">
-        <v>590635</v>
+        <v>1072492</v>
       </c>
       <c r="I73" t="n">
-        <v>2.865</v>
-      </c>
-      <c r="J73"/>
-      <c r="K73"/>
+        <v>222.406</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2311</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.479</v>
+      </c>
       <c r="L73" t="n">
-        <v>4617</v>
+        <v>5413</v>
       </c>
       <c r="M73" t="n">
-        <v>0.022</v>
+        <v>1.123</v>
       </c>
       <c r="N73" t="n">
-        <v>0.035</v>
+        <v>0.001</v>
       </c>
       <c r="O73" t="n">
-        <v>28.652</v>
+        <v>701.685</v>
       </c>
       <c r="P73" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>448</v>
+      </c>
+      <c r="R73" t="s">
+        <v>24</v>
+      </c>
+      <c r="S73" t="s">
         <v>449</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>450</v>
-      </c>
-      <c r="R73" t="s">
-        <v>97</v>
-      </c>
-      <c r="S73" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>450</v>
+      </c>
+      <c r="B74" t="s">
+        <v>451</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D74" t="s">
         <v>452</v>
       </c>
-      <c r="B74" t="s">
+      <c r="E74" t="s">
         <v>453</v>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>44121</v>
-      </c>
-      <c r="D74" t="s">
-        <v>454</v>
-      </c>
-      <c r="E74" t="s">
-        <v>455</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="n">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="H74" t="n">
-        <v>1474887</v>
+        <v>612154</v>
       </c>
       <c r="I74" t="n">
-        <v>272.057</v>
+        <v>2.97</v>
       </c>
       <c r="J74" t="n">
-        <v>4566</v>
+        <v>8543</v>
       </c>
       <c r="K74" t="n">
-        <v>0.842</v>
+        <v>0.041</v>
       </c>
       <c r="L74" t="n">
-        <v>12491</v>
+        <v>3917</v>
       </c>
       <c r="M74" t="n">
-        <v>2.304</v>
+        <v>0.019</v>
       </c>
       <c r="N74" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="O74" t="n">
-        <v>95.56</v>
+        <v>49.672</v>
       </c>
       <c r="P74" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q74" t="s">
         <v>454</v>
       </c>
       <c r="R74" t="s">
-        <v>456</v>
+        <v>97</v>
       </c>
       <c r="S74" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>456</v>
+      </c>
+      <c r="B75" t="s">
+        <v>457</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>44128</v>
+      </c>
+      <c r="D75" t="s">
         <v>458</v>
       </c>
-      <c r="B75" t="s">
+      <c r="E75" t="s">
         <v>459</v>
-      </c>
-      <c r="C75" s="1" t="n">
-        <v>44048</v>
-      </c>
-      <c r="D75" t="s">
-        <v>460</v>
-      </c>
-      <c r="E75" t="s">
-        <v>461</v>
       </c>
       <c r="F75"/>
       <c r="G75" t="n">
-        <v>58</v>
-      </c>
-      <c r="H75"/>
-      <c r="I75"/>
+        <v>244</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1571568</v>
+      </c>
+      <c r="I75" t="n">
+        <v>289.891</v>
+      </c>
       <c r="J75" t="n">
-        <v>2682</v>
+        <v>5233</v>
       </c>
       <c r="K75" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
+        <v>0.965</v>
+      </c>
+      <c r="L75" t="n">
+        <v>13528</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2.495</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="O75" t="n">
+        <v>86.401</v>
+      </c>
       <c r="P75" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>458</v>
+      </c>
+      <c r="R75" t="s">
+        <v>460</v>
+      </c>
+      <c r="S75" t="s">
         <v>461</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>462</v>
-      </c>
-      <c r="R75" t="s">
-        <v>412</v>
-      </c>
-      <c r="S75" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>462</v>
+      </c>
+      <c r="B76" t="s">
+        <v>463</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>44048</v>
+      </c>
+      <c r="D76" t="s">
         <v>464</v>
       </c>
-      <c r="B76" t="s">
+      <c r="E76" t="s">
         <v>465</v>
-      </c>
-      <c r="C76" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D76" t="s">
-        <v>466</v>
-      </c>
-      <c r="E76" t="s">
-        <v>467</v>
       </c>
       <c r="F76"/>
       <c r="G76" t="n">
-        <v>220</v>
-      </c>
-      <c r="H76" t="n">
-        <v>4101115</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18.566</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H76"/>
+      <c r="I76"/>
       <c r="J76" t="n">
-        <v>27091</v>
+        <v>2682</v>
       </c>
       <c r="K76" t="n">
-        <v>0.123</v>
-      </c>
-      <c r="L76" t="n">
-        <v>30903</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="O76" t="n">
-        <v>47.859</v>
-      </c>
+        <v>0.525</v>
+      </c>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
       <c r="P76" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Q76" t="s">
         <v>466</v>
       </c>
       <c r="R76" t="s">
-        <v>24</v>
+        <v>416</v>
       </c>
       <c r="S76" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>468</v>
+      </c>
+      <c r="B77" t="s">
         <v>469</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" s="1" t="n">
+        <v>44131</v>
+      </c>
+      <c r="D77" t="s">
         <v>470</v>
       </c>
-      <c r="C77" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>471</v>
       </c>
-      <c r="E77"/>
       <c r="F77"/>
       <c r="G77" t="n">
-        <v>50</v>
-      </c>
-      <c r="H77"/>
-      <c r="I77"/>
+        <v>228</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4317678</v>
+      </c>
+      <c r="I77" t="n">
+        <v>19.547</v>
+      </c>
       <c r="J77" t="n">
-        <v>3536</v>
+        <v>27133</v>
       </c>
       <c r="K77" t="n">
-        <v>0.693</v>
+        <v>0.123</v>
       </c>
       <c r="L77" t="n">
-        <v>3835</v>
+        <v>27944</v>
       </c>
       <c r="M77" t="n">
-        <v>0.752</v>
+        <v>0.127</v>
       </c>
       <c r="N77" t="n">
-        <v>0.112</v>
+        <v>0.03</v>
       </c>
       <c r="O77" t="n">
-        <v>8.901</v>
+        <v>33.025</v>
       </c>
       <c r="P77" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q77" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="R77" t="s">
         <v>24</v>
       </c>
       <c r="S77" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>473</v>
+      </c>
+      <c r="B78" t="s">
+        <v>474</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D78" t="s">
         <v>475</v>
       </c>
-      <c r="B78" t="s">
-        <v>476</v>
-      </c>
-      <c r="C78" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D78" t="s">
-        <v>477</v>
-      </c>
-      <c r="E78" t="s">
-        <v>478</v>
-      </c>
+      <c r="E78"/>
       <c r="F78"/>
       <c r="G78" t="n">
-        <v>223</v>
-      </c>
-      <c r="H78" t="n">
-        <v>579424</v>
-      </c>
-      <c r="I78" t="n">
-        <v>134.289</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H78"/>
+      <c r="I78"/>
       <c r="J78" t="n">
-        <v>4774</v>
+        <v>4228</v>
       </c>
       <c r="K78" t="n">
-        <v>1.106</v>
+        <v>0.829</v>
       </c>
       <c r="L78" t="n">
-        <v>5463</v>
+        <v>3970</v>
       </c>
       <c r="M78" t="n">
-        <v>1.266</v>
+        <v>0.778</v>
       </c>
       <c r="N78" t="n">
-        <v>0.116</v>
+        <v>0.124</v>
       </c>
       <c r="O78" t="n">
-        <v>8.611</v>
+        <v>8.071</v>
       </c>
       <c r="P78" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="Q78" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="R78" t="s">
         <v>24</v>
       </c>
       <c r="S78" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>479</v>
+      </c>
+      <c r="B79" t="s">
+        <v>480</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>44127</v>
+      </c>
+      <c r="D79" t="s">
         <v>481</v>
       </c>
-      <c r="B79" t="s">
+      <c r="E79" t="s">
         <v>482</v>
-      </c>
-      <c r="C79" s="1" t="n">
-        <v>44120</v>
-      </c>
-      <c r="D79" t="s">
-        <v>483</v>
-      </c>
-      <c r="E79" t="s">
-        <v>484</v>
       </c>
       <c r="F79"/>
       <c r="G79" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H79" t="n">
-        <v>322978</v>
+        <v>611125</v>
       </c>
       <c r="I79" t="n">
-        <v>45.282</v>
+        <v>141.636</v>
       </c>
       <c r="J79" t="n">
-        <v>2972</v>
+        <v>6909</v>
       </c>
       <c r="K79" t="n">
-        <v>0.417</v>
+        <v>1.601</v>
       </c>
       <c r="L79" t="n">
-        <v>2903</v>
+        <v>5809</v>
       </c>
       <c r="M79" t="n">
-        <v>0.407</v>
+        <v>1.346</v>
       </c>
       <c r="N79" t="n">
-        <v>0.26</v>
+        <v>0.107</v>
       </c>
       <c r="O79" t="n">
-        <v>3.849</v>
+        <v>9.361</v>
       </c>
       <c r="P79" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q79" t="s">
         <v>483</v>
@@ -7210,570 +7179,566 @@
         <v>24</v>
       </c>
       <c r="S79" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>485</v>
+      </c>
+      <c r="B80" t="s">
         <v>486</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="1" t="n">
+        <v>44127</v>
+      </c>
+      <c r="D80" t="s">
         <v>487</v>
       </c>
-      <c r="C80" s="1" t="n">
-        <v>44079</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>488</v>
-      </c>
-      <c r="E80" t="s">
-        <v>489</v>
       </c>
       <c r="F80"/>
       <c r="G80" t="n">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="H80" t="n">
-        <v>630521</v>
+        <v>342331</v>
       </c>
       <c r="I80" t="n">
-        <v>19.123</v>
+        <v>47.996</v>
       </c>
       <c r="J80" t="n">
-        <v>6525</v>
+        <v>2854</v>
       </c>
       <c r="K80" t="n">
-        <v>0.198</v>
+        <v>0.4</v>
       </c>
       <c r="L80" t="n">
-        <v>6613</v>
+        <v>2765</v>
       </c>
       <c r="M80" t="n">
-        <v>0.201</v>
-      </c>
-      <c r="N80"/>
-      <c r="O80"/>
+        <v>0.388</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="O80" t="n">
+        <v>3.926</v>
+      </c>
       <c r="P80" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>487</v>
+      </c>
+      <c r="R80" t="s">
+        <v>24</v>
+      </c>
+      <c r="S80" t="s">
         <v>489</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>490</v>
-      </c>
-      <c r="R80" t="s">
-        <v>78</v>
-      </c>
-      <c r="S80" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>490</v>
+      </c>
+      <c r="B81" t="s">
+        <v>491</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>44079</v>
+      </c>
+      <c r="D81" t="s">
         <v>492</v>
       </c>
-      <c r="B81" t="s">
+      <c r="E81" t="s">
         <v>493</v>
-      </c>
-      <c r="C81" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D81" t="s">
-        <v>494</v>
-      </c>
-      <c r="E81" t="s">
-        <v>495</v>
       </c>
       <c r="F81"/>
       <c r="G81" t="n">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="H81" t="n">
-        <v>4142195</v>
+        <v>630521</v>
       </c>
       <c r="I81" t="n">
-        <v>37.8</v>
+        <v>19.123</v>
       </c>
       <c r="J81" t="n">
-        <v>17200</v>
+        <v>6525</v>
       </c>
       <c r="K81" t="n">
-        <v>0.157</v>
+        <v>0.198</v>
       </c>
       <c r="L81" t="n">
-        <v>29658</v>
+        <v>6613</v>
       </c>
       <c r="M81" t="n">
-        <v>0.271</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.084</v>
-      </c>
-      <c r="O81" t="n">
-        <v>11.923</v>
-      </c>
+        <v>0.201</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81"/>
       <c r="P81" t="s">
-        <v>228</v>
+        <v>493</v>
       </c>
       <c r="Q81" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="R81" t="s">
         <v>78</v>
       </c>
       <c r="S81" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>496</v>
+      </c>
+      <c r="B82" t="s">
+        <v>497</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D82" t="s">
         <v>498</v>
       </c>
-      <c r="B82" t="s">
+      <c r="E82" t="s">
         <v>499</v>
-      </c>
-      <c r="C82" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D82" t="s">
-        <v>500</v>
-      </c>
-      <c r="E82" t="s">
-        <v>501</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="n">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="H82" t="n">
-        <v>3814664</v>
+        <v>4357388</v>
       </c>
       <c r="I82" t="n">
-        <v>100.793</v>
+        <v>39.764</v>
       </c>
       <c r="J82" t="n">
-        <v>34873</v>
+        <v>22775</v>
       </c>
       <c r="K82" t="n">
-        <v>0.921</v>
+        <v>0.208</v>
       </c>
       <c r="L82" t="n">
-        <v>41915</v>
+        <v>29420</v>
       </c>
       <c r="M82" t="n">
-        <v>1.107</v>
+        <v>0.268</v>
       </c>
       <c r="N82" t="n">
-        <v>0.155</v>
+        <v>0.065</v>
       </c>
       <c r="O82" t="n">
-        <v>6.435</v>
+        <v>15.276</v>
       </c>
       <c r="P82" t="s">
-        <v>501</v>
+        <v>227</v>
       </c>
       <c r="Q82" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="R82" t="s">
         <v>78</v>
       </c>
       <c r="S82" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B83" t="s">
+        <v>503</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D83" t="s">
         <v>504</v>
       </c>
-      <c r="C83" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D83" t="s">
-        <v>500</v>
-      </c>
       <c r="E83" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="F83"/>
       <c r="G83" t="n">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="H83" t="n">
-        <v>3972432</v>
+        <v>4163105</v>
       </c>
       <c r="I83" t="n">
-        <v>104.961</v>
+        <v>109.999</v>
       </c>
       <c r="J83" t="n">
-        <v>37289</v>
+        <v>52630</v>
       </c>
       <c r="K83" t="n">
-        <v>0.985</v>
+        <v>1.391</v>
       </c>
       <c r="L83" t="n">
-        <v>43486</v>
+        <v>49777</v>
       </c>
       <c r="M83" t="n">
-        <v>1.149</v>
+        <v>1.315</v>
       </c>
       <c r="N83" t="n">
-        <v>0.15</v>
+        <v>0.214</v>
       </c>
       <c r="O83" t="n">
-        <v>6.677</v>
+        <v>4.664</v>
       </c>
       <c r="P83" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Q83" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="R83" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="S83" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B84" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>44117</v>
+        <v>44129</v>
       </c>
       <c r="D84" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>505</v>
       </c>
       <c r="F84"/>
       <c r="G84" t="n">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H84" t="n">
-        <v>2906183</v>
+        <v>4330602</v>
       </c>
       <c r="I84" t="n">
-        <v>285.012</v>
+        <v>114.425</v>
       </c>
       <c r="J84" t="n">
-        <v>30170</v>
+        <v>53539</v>
       </c>
       <c r="K84" t="n">
-        <v>2.959</v>
+        <v>1.415</v>
       </c>
       <c r="L84" t="n">
-        <v>24244</v>
+        <v>51167</v>
       </c>
       <c r="M84" t="n">
-        <v>2.378</v>
+        <v>1.352</v>
       </c>
       <c r="N84" t="n">
-        <v>0.047</v>
+        <v>0.209</v>
       </c>
       <c r="O84" t="n">
-        <v>21.14</v>
+        <v>4.794</v>
       </c>
       <c r="P84" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>506</v>
+      </c>
+      <c r="R84" t="s">
+        <v>97</v>
+      </c>
+      <c r="S84" t="s">
         <v>509</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>508</v>
-      </c>
-      <c r="R84" t="s">
-        <v>510</v>
-      </c>
-      <c r="S84" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>510</v>
+      </c>
+      <c r="B85" t="s">
+        <v>511</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>44125</v>
+      </c>
+      <c r="D85" t="s">
         <v>512</v>
       </c>
-      <c r="B85" t="s">
-        <v>513</v>
-      </c>
-      <c r="C85" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D85" t="s">
-        <v>514</v>
-      </c>
       <c r="E85" t="s">
-        <v>515</v>
+        <v>36</v>
       </c>
       <c r="F85"/>
       <c r="G85" t="n">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="H85" t="n">
-        <v>886186</v>
+        <v>3126050</v>
       </c>
       <c r="I85" t="n">
-        <v>307.59</v>
+        <v>306.574</v>
       </c>
       <c r="J85" t="n">
-        <v>8844</v>
+        <v>32282</v>
       </c>
       <c r="K85" t="n">
-        <v>3.07</v>
+        <v>3.166</v>
       </c>
       <c r="L85" t="n">
-        <v>6957</v>
+        <v>26983</v>
       </c>
       <c r="M85" t="n">
-        <v>2.415</v>
+        <v>2.646</v>
       </c>
       <c r="N85" t="n">
-        <v>0.03</v>
+        <v>0.077</v>
       </c>
       <c r="O85" t="n">
-        <v>33.678</v>
+        <v>12.924</v>
       </c>
       <c r="P85" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="Q85" t="s">
+        <v>512</v>
+      </c>
+      <c r="R85" t="s">
         <v>514</v>
       </c>
-      <c r="R85" t="s">
-        <v>78</v>
-      </c>
       <c r="S85" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>516</v>
+      </c>
+      <c r="B86" t="s">
+        <v>517</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>44126</v>
+      </c>
+      <c r="D86" t="s">
         <v>518</v>
       </c>
-      <c r="B86" t="s">
+      <c r="E86" t="s">
         <v>519</v>
-      </c>
-      <c r="C86" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D86" t="s">
-        <v>520</v>
-      </c>
-      <c r="E86" t="s">
-        <v>521</v>
       </c>
       <c r="F86"/>
       <c r="G86" t="n">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H86" t="n">
-        <v>2852186</v>
+        <v>908883</v>
       </c>
       <c r="I86" t="n">
-        <v>148.26</v>
+        <v>315.468</v>
       </c>
       <c r="J86" t="n">
-        <v>19507</v>
+        <v>9444</v>
       </c>
       <c r="K86" t="n">
-        <v>1.014</v>
+        <v>3.278</v>
       </c>
       <c r="L86" t="n">
-        <v>25664</v>
+        <v>7676</v>
       </c>
       <c r="M86" t="n">
-        <v>1.334</v>
+        <v>2.664</v>
       </c>
       <c r="N86" t="n">
-        <v>0.134</v>
+        <v>0.03</v>
       </c>
       <c r="O86" t="n">
-        <v>7.465</v>
+        <v>33.436</v>
       </c>
       <c r="P86" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Q86" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="R86" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="S86" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>522</v>
+      </c>
+      <c r="B87" t="s">
+        <v>523</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D87" t="s">
+        <v>524</v>
+      </c>
+      <c r="E87" t="s">
         <v>525</v>
-      </c>
-      <c r="B87" t="s">
-        <v>526</v>
-      </c>
-      <c r="C87" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D87" t="s">
-        <v>527</v>
-      </c>
-      <c r="E87" t="s">
-        <v>528</v>
       </c>
       <c r="F87"/>
       <c r="G87" t="n">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H87" t="n">
-        <v>54675096</v>
+        <v>3064698</v>
       </c>
       <c r="I87" t="n">
-        <v>374.655</v>
+        <v>159.307</v>
       </c>
       <c r="J87" t="n">
-        <v>374888</v>
+        <v>8709</v>
       </c>
       <c r="K87" t="n">
-        <v>2.569</v>
+        <v>0.453</v>
       </c>
       <c r="L87" t="n">
-        <v>472975</v>
+        <v>29210</v>
       </c>
       <c r="M87" t="n">
-        <v>3.241</v>
+        <v>1.518</v>
       </c>
       <c r="N87" t="n">
-        <v>0.03</v>
+        <v>0.143</v>
       </c>
       <c r="O87" t="n">
-        <v>32.906</v>
+        <v>6.988</v>
       </c>
       <c r="P87" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="Q87" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="R87" t="s">
         <v>24</v>
       </c>
       <c r="S87" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>529</v>
+      </c>
+      <c r="B88" t="s">
+        <v>530</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D88" t="s">
         <v>531</v>
       </c>
-      <c r="B88" t="s">
+      <c r="E88" t="s">
         <v>532</v>
-      </c>
-      <c r="C88" s="1" t="n">
-        <v>44121</v>
-      </c>
-      <c r="D88" t="s">
-        <v>533</v>
-      </c>
-      <c r="E88" t="s">
-        <v>534</v>
       </c>
       <c r="F88"/>
       <c r="G88" t="n">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="H88" t="n">
-        <v>532528</v>
+        <v>58223852</v>
       </c>
       <c r="I88" t="n">
-        <v>41.115</v>
+        <v>398.973</v>
       </c>
       <c r="J88" t="n">
-        <v>2224</v>
+        <v>402592</v>
       </c>
       <c r="K88" t="n">
-        <v>0.172</v>
+        <v>2.759</v>
       </c>
       <c r="L88" t="n">
-        <v>2254</v>
+        <v>506965</v>
       </c>
       <c r="M88" t="n">
-        <v>0.174</v>
+        <v>3.474</v>
       </c>
       <c r="N88" t="n">
-        <v>0.005</v>
+        <v>0.032</v>
       </c>
       <c r="O88" t="n">
-        <v>210.373</v>
+        <v>30.982</v>
       </c>
       <c r="P88" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>533</v>
+      </c>
+      <c r="R88" t="s">
+        <v>24</v>
+      </c>
+      <c r="S88" t="s">
         <v>534</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>535</v>
-      </c>
-      <c r="R88" t="s">
-        <v>97</v>
-      </c>
-      <c r="S88" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>535</v>
+      </c>
+      <c r="B89" t="s">
+        <v>536</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>44131</v>
+      </c>
+      <c r="D89" t="s">
         <v>537</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E89" t="s">
         <v>538</v>
-      </c>
-      <c r="C89" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D89" t="s">
-        <v>539</v>
-      </c>
-      <c r="E89" t="s">
-        <v>36</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="n">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="H89" t="n">
-        <v>7403020</v>
+        <v>548938</v>
       </c>
       <c r="I89" t="n">
-        <v>212.646</v>
-      </c>
-      <c r="J89" t="n">
-        <v>48884</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1.404</v>
-      </c>
+        <v>42.382</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89"/>
       <c r="L89" t="n">
-        <v>48934</v>
+        <v>1737</v>
       </c>
       <c r="M89" t="n">
-        <v>1.406</v>
+        <v>0.134</v>
       </c>
       <c r="N89" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="O89" t="n">
-        <v>117.711</v>
+        <v>150.111</v>
       </c>
       <c r="P89" t="s">
-        <v>36</v>
+        <v>538</v>
       </c>
       <c r="Q89" t="s">
         <v>539</v>
       </c>
       <c r="R89" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="S89" t="s">
         <v>540</v>
@@ -7787,44 +7752,44 @@
         <v>542</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>44123</v>
+        <v>44129</v>
       </c>
       <c r="D90" t="s">
         <v>543</v>
       </c>
       <c r="E90" t="s">
-        <v>544</v>
+        <v>36</v>
       </c>
       <c r="F90"/>
       <c r="G90" t="n">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H90" t="n">
-        <v>205461</v>
+        <v>7772683</v>
       </c>
       <c r="I90" t="n">
-        <v>12.271</v>
+        <v>223.264</v>
       </c>
       <c r="J90" t="n">
-        <v>829</v>
+        <v>52321</v>
       </c>
       <c r="K90" t="n">
-        <v>0.05</v>
+        <v>1.503</v>
       </c>
       <c r="L90" t="n">
-        <v>1053</v>
+        <v>52809</v>
       </c>
       <c r="M90" t="n">
-        <v>0.063</v>
+        <v>1.517</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02</v>
+        <v>0.007</v>
       </c>
       <c r="O90" t="n">
-        <v>49.14</v>
+        <v>137.014</v>
       </c>
       <c r="P90" t="s">
-        <v>544</v>
+        <v>36</v>
       </c>
       <c r="Q90" t="s">
         <v>543</v>
@@ -7833,107 +7798,111 @@
         <v>24</v>
       </c>
       <c r="S90" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>545</v>
+      </c>
+      <c r="B91" t="s">
         <v>546</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" s="1" t="n">
+        <v>44131</v>
+      </c>
+      <c r="D91" t="s">
         <v>547</v>
       </c>
-      <c r="C91" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>548</v>
       </c>
-      <c r="E91" t="s">
-        <v>36</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="F91"/>
+      <c r="G91" t="n">
+        <v>239</v>
+      </c>
+      <c r="H91" t="n">
+        <v>212548</v>
+      </c>
+      <c r="I91" t="n">
+        <v>12.694</v>
+      </c>
+      <c r="J91" t="n">
+        <v>453</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="L91" t="n">
+        <v>896</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="O91" t="n">
+        <v>47.158</v>
+      </c>
+      <c r="P91" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>547</v>
+      </c>
+      <c r="R91" t="s">
+        <v>24</v>
+      </c>
+      <c r="S91" t="s">
         <v>549</v>
-      </c>
-      <c r="G91" t="n">
-        <v>236</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1241864</v>
-      </c>
-      <c r="I91" t="n">
-        <v>182.504</v>
-      </c>
-      <c r="J91" t="n">
-        <v>5746</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.844</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6009</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.883</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="O91" t="n">
-        <v>30.636</v>
-      </c>
-      <c r="P91" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>550</v>
-      </c>
-      <c r="R91" t="s">
-        <v>78</v>
-      </c>
-      <c r="S91" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>550</v>
+      </c>
+      <c r="B92" t="s">
+        <v>551</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D92" t="s">
         <v>552</v>
-      </c>
-      <c r="B92" t="s">
-        <v>553</v>
-      </c>
-      <c r="C92" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D92" t="s">
-        <v>554</v>
       </c>
       <c r="E92" t="s">
         <v>36</v>
       </c>
-      <c r="F92"/>
+      <c r="F92" t="s">
+        <v>553</v>
+      </c>
       <c r="G92" t="n">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="H92" t="n">
-        <v>1051451</v>
+        <v>1289519</v>
       </c>
       <c r="I92" t="n">
-        <v>179.725</v>
-      </c>
-      <c r="J92"/>
-      <c r="K92"/>
+        <v>189.507</v>
+      </c>
+      <c r="J92" t="n">
+        <v>6503</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.956</v>
+      </c>
       <c r="L92" t="n">
-        <v>4601</v>
+        <v>6808</v>
       </c>
       <c r="M92" t="n">
-        <v>0.786</v>
+        <v>1.001</v>
       </c>
       <c r="N92" t="n">
-        <v>0.001</v>
+        <v>0.07</v>
       </c>
       <c r="O92" t="n">
-        <v>920.2</v>
+        <v>14.328</v>
       </c>
       <c r="P92" t="s">
         <v>36</v>
@@ -7950,16 +7919,16 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B93" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C93" s="1" t="n">
         <v>44123</v>
       </c>
       <c r="D93" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="E93" t="s">
         <v>36</v>
@@ -7969,257 +7938,253 @@
         <v>29</v>
       </c>
       <c r="H93" t="n">
-        <v>3486260</v>
+        <v>1051451</v>
       </c>
       <c r="I93" t="n">
-        <v>595.907</v>
+        <v>179.725</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
       <c r="L93" t="n">
-        <v>27996</v>
+        <v>4601</v>
       </c>
       <c r="M93" t="n">
-        <v>4.785</v>
+        <v>0.786</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O93" t="n">
-        <v>5599.2</v>
+        <v>920.2</v>
       </c>
       <c r="P93" t="s">
         <v>36</v>
       </c>
       <c r="Q93" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="R93" t="s">
-        <v>557</v>
+        <v>78</v>
       </c>
       <c r="S93" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B94" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C94" s="1" t="n">
         <v>44123</v>
       </c>
       <c r="D94" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E94" t="s">
-        <v>561</v>
+        <v>36</v>
       </c>
       <c r="F94"/>
       <c r="G94" t="n">
-        <v>228</v>
+        <v>29</v>
       </c>
       <c r="H94" t="n">
-        <v>627978</v>
+        <v>3486260</v>
       </c>
       <c r="I94" t="n">
-        <v>115.022</v>
-      </c>
-      <c r="J94" t="n">
-        <v>5946</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1.089</v>
-      </c>
+        <v>595.907</v>
+      </c>
+      <c r="J94"/>
+      <c r="K94"/>
       <c r="L94" t="n">
-        <v>10068</v>
+        <v>27996</v>
       </c>
       <c r="M94" t="n">
-        <v>1.844</v>
+        <v>4.785</v>
       </c>
       <c r="N94" t="n">
-        <v>0.142</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>7.059</v>
+        <v>5599.2</v>
       </c>
       <c r="P94" t="s">
-        <v>562</v>
+        <v>36</v>
       </c>
       <c r="Q94" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="R94" t="s">
-        <v>24</v>
+        <v>561</v>
       </c>
       <c r="S94" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>562</v>
+      </c>
+      <c r="B95" t="s">
+        <v>563</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D95" t="s">
         <v>564</v>
       </c>
-      <c r="B95" t="s">
+      <c r="E95" t="s">
         <v>565</v>
-      </c>
-      <c r="C95" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D95" t="s">
-        <v>566</v>
-      </c>
-      <c r="E95" t="s">
-        <v>567</v>
       </c>
       <c r="F95"/>
       <c r="G95" t="n">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="H95" t="n">
-        <v>293769</v>
+        <v>706191</v>
       </c>
       <c r="I95" t="n">
-        <v>141.308</v>
+        <v>129.347</v>
       </c>
       <c r="J95" t="n">
-        <v>4326</v>
+        <v>5899</v>
       </c>
       <c r="K95" t="n">
-        <v>2.081</v>
+        <v>1.08</v>
       </c>
       <c r="L95" t="n">
-        <v>4531</v>
+        <v>11173</v>
       </c>
       <c r="M95" t="n">
-        <v>2.179</v>
+        <v>2.046</v>
       </c>
       <c r="N95" t="n">
-        <v>0.158</v>
+        <v>0.179</v>
       </c>
       <c r="O95" t="n">
-        <v>6.321</v>
+        <v>5.583</v>
       </c>
       <c r="P95" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="Q95" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="R95" t="s">
         <v>24</v>
       </c>
       <c r="S95" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>568</v>
+      </c>
+      <c r="B96" t="s">
+        <v>569</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D96" t="s">
+        <v>570</v>
+      </c>
+      <c r="E96" t="s">
         <v>571</v>
       </c>
-      <c r="B96" t="s">
+      <c r="F96"/>
+      <c r="G96" t="n">
+        <v>227</v>
+      </c>
+      <c r="H96" t="n">
+        <v>329103</v>
+      </c>
+      <c r="I96" t="n">
+        <v>158.304</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3682</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L96" t="n">
+        <v>5666</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2.725</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="O96" t="n">
+        <v>4.476</v>
+      </c>
+      <c r="P96" t="s">
         <v>572</v>
       </c>
-      <c r="C96" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="Q96" t="s">
         <v>573</v>
       </c>
-      <c r="E96" t="s">
+      <c r="R96" t="s">
+        <v>24</v>
+      </c>
+      <c r="S96" t="s">
         <v>574</v>
-      </c>
-      <c r="F96" t="s">
-        <v>575</v>
-      </c>
-      <c r="G96" t="n">
-        <v>231</v>
-      </c>
-      <c r="H96" t="n">
-        <v>4549478</v>
-      </c>
-      <c r="I96" t="n">
-        <v>76.708</v>
-      </c>
-      <c r="J96" t="n">
-        <v>21337</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="L96" t="n">
-        <v>20291</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.342</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="O96" t="n">
-        <v>12.642</v>
-      </c>
-      <c r="P96" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>576</v>
-      </c>
-      <c r="R96" t="s">
-        <v>78</v>
-      </c>
-      <c r="S96" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>575</v>
+      </c>
+      <c r="B97" t="s">
+        <v>576</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D97" t="s">
+        <v>577</v>
+      </c>
+      <c r="E97" t="s">
         <v>578</v>
       </c>
-      <c r="B97" t="s">
+      <c r="F97" t="s">
         <v>579</v>
       </c>
-      <c r="C97" s="1" t="n">
-        <v>44124</v>
-      </c>
-      <c r="D97" t="s">
-        <v>580</v>
-      </c>
-      <c r="E97" t="s">
-        <v>581</v>
-      </c>
-      <c r="F97"/>
       <c r="G97" t="n">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="H97" t="n">
-        <v>2471932</v>
+        <v>4697939</v>
       </c>
       <c r="I97" t="n">
-        <v>48.215</v>
+        <v>79.212</v>
       </c>
       <c r="J97" t="n">
-        <v>9469</v>
+        <v>19997</v>
       </c>
       <c r="K97" t="n">
-        <v>0.185</v>
+        <v>0.337</v>
       </c>
       <c r="L97" t="n">
-        <v>9041</v>
+        <v>21209</v>
       </c>
       <c r="M97" t="n">
-        <v>0.176</v>
+        <v>0.358</v>
       </c>
       <c r="N97" t="n">
-        <v>0.008</v>
+        <v>0.082</v>
       </c>
       <c r="O97" t="n">
-        <v>119.862</v>
+        <v>12.254</v>
       </c>
       <c r="P97" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Q97" t="s">
         <v>580</v>
@@ -8228,112 +8193,112 @@
         <v>78</v>
       </c>
       <c r="S97" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>582</v>
+      </c>
+      <c r="B98" t="s">
         <v>583</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" s="1" t="n">
+        <v>44131</v>
+      </c>
+      <c r="D98" t="s">
         <v>584</v>
       </c>
-      <c r="C98" s="1" t="n">
-        <v>44120</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>585</v>
-      </c>
-      <c r="E98" t="s">
-        <v>586</v>
       </c>
       <c r="F98"/>
       <c r="G98" t="n">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="H98" t="n">
-        <v>11759454</v>
+        <v>2544584</v>
       </c>
       <c r="I98" t="n">
-        <v>251.513</v>
+        <v>49.632</v>
       </c>
       <c r="J98" t="n">
-        <v>123194</v>
+        <v>13083</v>
       </c>
       <c r="K98" t="n">
-        <v>2.635</v>
+        <v>0.255</v>
       </c>
       <c r="L98" t="n">
-        <v>104934</v>
+        <v>10379</v>
       </c>
       <c r="M98" t="n">
-        <v>2.244</v>
+        <v>0.202</v>
       </c>
       <c r="N98" t="n">
-        <v>0.103</v>
+        <v>0.01</v>
       </c>
       <c r="O98" t="n">
-        <v>9.736</v>
+        <v>102.328</v>
       </c>
       <c r="P98" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="Q98" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="R98" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="S98" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>587</v>
+      </c>
+      <c r="B99" t="s">
+        <v>588</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>44124</v>
+      </c>
+      <c r="D99" t="s">
+        <v>589</v>
+      </c>
+      <c r="E99" t="s">
         <v>590</v>
-      </c>
-      <c r="B99" t="s">
-        <v>591</v>
-      </c>
-      <c r="C99" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D99" t="s">
-        <v>592</v>
-      </c>
-      <c r="E99" t="s">
-        <v>593</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="n">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="H99" t="n">
-        <v>398196</v>
+        <v>12155871</v>
       </c>
       <c r="I99" t="n">
-        <v>18.596</v>
+        <v>259.992</v>
       </c>
       <c r="J99" t="n">
-        <v>7136</v>
+        <v>126287</v>
       </c>
       <c r="K99" t="n">
-        <v>0.333</v>
+        <v>2.701</v>
       </c>
       <c r="L99" t="n">
-        <v>7979</v>
+        <v>103342</v>
       </c>
       <c r="M99" t="n">
-        <v>0.373</v>
+        <v>2.21</v>
       </c>
       <c r="N99" t="n">
-        <v>0.014</v>
+        <v>0.128</v>
       </c>
       <c r="O99" t="n">
-        <v>71.06</v>
+        <v>7.843</v>
       </c>
       <c r="P99" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Q99" t="s">
         <v>592</v>
@@ -8342,110 +8307,114 @@
         <v>24</v>
       </c>
       <c r="S99" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>594</v>
+      </c>
+      <c r="B100" t="s">
         <v>595</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D100" t="s">
         <v>596</v>
       </c>
-      <c r="C100" s="1" t="n">
-        <v>44017</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>597</v>
-      </c>
-      <c r="E100" t="s">
-        <v>598</v>
       </c>
       <c r="F100"/>
       <c r="G100" t="n">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="H100" t="n">
-        <v>597850</v>
+        <v>460455</v>
       </c>
       <c r="I100" t="n">
-        <v>59.197</v>
-      </c>
-      <c r="J100"/>
-      <c r="K100"/>
+        <v>21.503</v>
+      </c>
+      <c r="J100" t="n">
+        <v>9619</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.449</v>
+      </c>
       <c r="L100" t="n">
-        <v>11092</v>
+        <v>8894</v>
       </c>
       <c r="M100" t="n">
-        <v>1.098</v>
+        <v>0.415</v>
       </c>
       <c r="N100" t="n">
-        <v>0.056</v>
+        <v>0.037</v>
       </c>
       <c r="O100" t="n">
-        <v>17.751</v>
+        <v>26.674</v>
       </c>
       <c r="P100" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="Q100" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="R100" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="S100" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B101" t="s">
+        <v>600</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>44017</v>
+      </c>
+      <c r="D101" t="s">
+        <v>601</v>
+      </c>
+      <c r="E101" t="s">
         <v>602</v>
-      </c>
-      <c r="C101" s="1" t="n">
-        <v>44115</v>
-      </c>
-      <c r="D101" t="s">
-        <v>603</v>
-      </c>
-      <c r="E101" t="s">
-        <v>598</v>
       </c>
       <c r="F101"/>
       <c r="G101" t="n">
-        <v>91</v>
-      </c>
-      <c r="H101"/>
-      <c r="I101"/>
-      <c r="J101" t="n">
-        <v>19852</v>
-      </c>
-      <c r="K101" t="n">
-        <v>1.966</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H101" t="n">
+        <v>597850</v>
+      </c>
+      <c r="I101" t="n">
+        <v>59.197</v>
+      </c>
+      <c r="J101"/>
+      <c r="K101"/>
       <c r="L101" t="n">
-        <v>19852</v>
+        <v>11092</v>
       </c>
       <c r="M101" t="n">
-        <v>1.966</v>
+        <v>1.098</v>
       </c>
       <c r="N101" t="n">
-        <v>0.031</v>
+        <v>0.056</v>
       </c>
       <c r="O101" t="n">
-        <v>32.499</v>
+        <v>17.751</v>
       </c>
       <c r="P101" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="Q101" t="s">
         <v>604</v>
       </c>
       <c r="R101" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="S101" t="s">
         <v>605</v>
@@ -8453,908 +8422,965 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>599</v>
+      </c>
+      <c r="B102" t="s">
         <v>606</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" s="1" t="n">
+        <v>44122</v>
+      </c>
+      <c r="D102" t="s">
         <v>607</v>
       </c>
-      <c r="C102" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D102" t="s">
-        <v>608</v>
-      </c>
       <c r="E102" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F102"/>
       <c r="G102" t="n">
-        <v>268</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1646512</v>
-      </c>
-      <c r="I102" t="n">
-        <v>190.247</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H102"/>
+      <c r="I102"/>
       <c r="J102" t="n">
-        <v>10396</v>
+        <v>21564</v>
       </c>
       <c r="K102" t="n">
-        <v>1.201</v>
+        <v>2.135</v>
       </c>
       <c r="L102" t="n">
-        <v>17454</v>
+        <v>21564</v>
       </c>
       <c r="M102" t="n">
-        <v>2.017</v>
+        <v>2.135</v>
       </c>
       <c r="N102" t="n">
-        <v>0.116</v>
+        <v>0.036</v>
       </c>
       <c r="O102" t="n">
-        <v>8.609</v>
+        <v>27.626</v>
       </c>
       <c r="P102" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>608</v>
+      </c>
+      <c r="R102" t="s">
+        <v>24</v>
+      </c>
+      <c r="S102" t="s">
         <v>609</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>610</v>
-      </c>
-      <c r="R102" t="s">
-        <v>611</v>
-      </c>
-      <c r="S102" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>610</v>
+      </c>
+      <c r="B103" t="s">
+        <v>611</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>44128</v>
+      </c>
+      <c r="D103" t="s">
+        <v>612</v>
+      </c>
+      <c r="E103" t="s">
         <v>613</v>
-      </c>
-      <c r="B103" t="s">
-        <v>614</v>
-      </c>
-      <c r="C103" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D103" t="s">
-        <v>615</v>
-      </c>
-      <c r="E103" t="s">
-        <v>616</v>
       </c>
       <c r="F103"/>
       <c r="G103" t="n">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H103" t="n">
-        <v>99367</v>
+        <v>1799278</v>
       </c>
       <c r="I103" t="n">
-        <v>4.172</v>
+        <v>207.898</v>
       </c>
       <c r="J103" t="n">
-        <v>316</v>
+        <v>21050</v>
       </c>
       <c r="K103" t="n">
-        <v>0.013</v>
+        <v>2.432</v>
       </c>
       <c r="L103" t="n">
-        <v>315</v>
+        <v>24485</v>
       </c>
       <c r="M103" t="n">
-        <v>0.013</v>
+        <v>2.829</v>
       </c>
       <c r="N103" t="n">
-        <v>0.006</v>
+        <v>0.17</v>
       </c>
       <c r="O103" t="n">
-        <v>169.615</v>
+        <v>5.891</v>
       </c>
       <c r="P103" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>614</v>
+      </c>
+      <c r="R103" t="s">
+        <v>615</v>
+      </c>
+      <c r="S103" t="s">
         <v>616</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>615</v>
-      </c>
-      <c r="R103" t="s">
-        <v>78</v>
-      </c>
-      <c r="S103" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>617</v>
+      </c>
+      <c r="B104" t="s">
         <v>618</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D104" t="s">
         <v>619</v>
       </c>
-      <c r="C104" s="1" t="n">
-        <v>44113</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>620</v>
-      </c>
-      <c r="E104" t="s">
-        <v>120</v>
       </c>
       <c r="F104"/>
       <c r="G104" t="n">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H104" t="n">
-        <v>1090380</v>
+        <v>100823</v>
       </c>
       <c r="I104" t="n">
-        <v>15.621</v>
+        <v>4.233</v>
       </c>
       <c r="J104" t="n">
-        <v>5688</v>
+        <v>293</v>
       </c>
       <c r="K104" t="n">
-        <v>0.081</v>
+        <v>0.012</v>
       </c>
       <c r="L104" t="n">
-        <v>4082</v>
+        <v>209</v>
       </c>
       <c r="M104" t="n">
-        <v>0.058</v>
+        <v>0.009</v>
       </c>
       <c r="N104" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="O104" t="n">
-        <v>539.132</v>
+        <v>146.3</v>
       </c>
       <c r="P104" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>619</v>
+      </c>
+      <c r="R104" t="s">
+        <v>78</v>
+      </c>
+      <c r="S104" t="s">
         <v>621</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>620</v>
-      </c>
-      <c r="R104" t="s">
-        <v>24</v>
-      </c>
-      <c r="S104" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>622</v>
+      </c>
+      <c r="B105" t="s">
         <v>623</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" s="1" t="n">
+        <v>44113</v>
+      </c>
+      <c r="D105" t="s">
         <v>624</v>
       </c>
-      <c r="C105" s="1" t="n">
-        <v>44122</v>
-      </c>
-      <c r="D105"/>
       <c r="E105" t="s">
-        <v>625</v>
-      </c>
-      <c r="F105" t="s">
-        <v>626</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F105"/>
       <c r="G105" t="n">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="H105" t="n">
-        <v>108199</v>
+        <v>1090380</v>
       </c>
       <c r="I105" t="n">
-        <v>13.07</v>
+        <v>15.621</v>
       </c>
       <c r="J105" t="n">
-        <v>692</v>
+        <v>5688</v>
       </c>
       <c r="K105" t="n">
-        <v>0.084</v>
+        <v>0.081</v>
       </c>
       <c r="L105" t="n">
-        <v>872</v>
+        <v>4082</v>
       </c>
       <c r="M105" t="n">
-        <v>0.105</v>
+        <v>0.058</v>
       </c>
       <c r="N105" t="n">
-        <v>0.019</v>
+        <v>0.002</v>
       </c>
       <c r="O105" t="n">
-        <v>53.544</v>
+        <v>539.132</v>
       </c>
       <c r="P105" t="s">
         <v>625</v>
       </c>
       <c r="Q105" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="R105" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="S105" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>627</v>
+      </c>
+      <c r="B106" t="s">
+        <v>628</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D106"/>
+      <c r="E106" t="s">
         <v>629</v>
       </c>
-      <c r="B106" t="s">
+      <c r="F106" t="s">
         <v>630</v>
       </c>
-      <c r="C106" s="1" t="n">
-        <v>44099</v>
-      </c>
-      <c r="D106" t="s">
-        <v>631</v>
-      </c>
-      <c r="E106" t="s">
-        <v>632</v>
-      </c>
-      <c r="F106"/>
       <c r="G106" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="H106" t="n">
-        <v>225033</v>
+        <v>114462</v>
       </c>
       <c r="I106" t="n">
-        <v>19.041</v>
-      </c>
-      <c r="J106"/>
-      <c r="K106"/>
+        <v>13.826</v>
+      </c>
+      <c r="J106" t="n">
+        <v>635</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.077</v>
+      </c>
       <c r="L106" t="n">
-        <v>2442</v>
+        <v>895</v>
       </c>
       <c r="M106" t="n">
-        <v>0.207</v>
+        <v>0.108</v>
       </c>
       <c r="N106" t="n">
-        <v>0.277</v>
+        <v>0.022</v>
       </c>
       <c r="O106" t="n">
-        <v>3.61</v>
+        <v>45.399</v>
       </c>
       <c r="P106" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Q106" t="s">
         <v>631</v>
       </c>
       <c r="R106" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="S106" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
+        <v>633</v>
+      </c>
+      <c r="B107" t="s">
         <v>634</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" s="1" t="n">
+        <v>44099</v>
+      </c>
+      <c r="D107" t="s">
         <v>635</v>
       </c>
-      <c r="C107" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>636</v>
-      </c>
-      <c r="E107" t="s">
-        <v>637</v>
       </c>
       <c r="F107"/>
       <c r="G107" t="n">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="H107" t="n">
-        <v>12524561</v>
+        <v>225033</v>
       </c>
       <c r="I107" t="n">
-        <v>148.502</v>
-      </c>
-      <c r="J107" t="n">
-        <v>116249</v>
-      </c>
-      <c r="K107" t="n">
-        <v>1.378</v>
-      </c>
+        <v>19.041</v>
+      </c>
+      <c r="J107"/>
+      <c r="K107"/>
       <c r="L107" t="n">
-        <v>113316</v>
+        <v>2442</v>
       </c>
       <c r="M107" t="n">
-        <v>1.344</v>
+        <v>0.207</v>
       </c>
       <c r="N107" t="n">
-        <v>0.015</v>
+        <v>0.277</v>
       </c>
       <c r="O107" t="n">
-        <v>66.322</v>
+        <v>3.61</v>
       </c>
       <c r="P107" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="Q107" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="R107" t="s">
         <v>24</v>
       </c>
       <c r="S107" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
+        <v>638</v>
+      </c>
+      <c r="B108" t="s">
+        <v>639</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D108" t="s">
         <v>640</v>
       </c>
-      <c r="B108" t="s">
+      <c r="E108" t="s">
         <v>641</v>
-      </c>
-      <c r="C108" s="1" t="n">
-        <v>44121</v>
-      </c>
-      <c r="D108" t="s">
-        <v>642</v>
-      </c>
-      <c r="E108" t="s">
-        <v>643</v>
       </c>
       <c r="F108"/>
       <c r="G108" t="n">
-        <v>96</v>
+        <v>214</v>
       </c>
       <c r="H108" t="n">
-        <v>522286</v>
+        <v>13350801</v>
       </c>
       <c r="I108" t="n">
-        <v>11.418</v>
+        <v>158.299</v>
       </c>
       <c r="J108" t="n">
-        <v>1836</v>
+        <v>132913</v>
       </c>
       <c r="K108" t="n">
-        <v>0.04</v>
+        <v>1.576</v>
       </c>
       <c r="L108" t="n">
-        <v>2061</v>
+        <v>118034</v>
       </c>
       <c r="M108" t="n">
-        <v>0.045</v>
+        <v>1.4</v>
       </c>
       <c r="N108" t="n">
-        <v>0.055</v>
+        <v>0.017</v>
       </c>
       <c r="O108" t="n">
-        <v>18.124</v>
+        <v>57.747</v>
       </c>
       <c r="P108" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>642</v>
+      </c>
+      <c r="R108" t="s">
+        <v>24</v>
+      </c>
+      <c r="S108" t="s">
         <v>643</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>644</v>
-      </c>
-      <c r="R108" t="s">
-        <v>97</v>
-      </c>
-      <c r="S108" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
+        <v>644</v>
+      </c>
+      <c r="B109" t="s">
+        <v>645</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>44128</v>
+      </c>
+      <c r="D109" t="s">
         <v>646</v>
       </c>
-      <c r="B109" t="s">
+      <c r="E109" t="s">
         <v>647</v>
-      </c>
-      <c r="C109" s="1" t="n">
-        <v>44124</v>
-      </c>
-      <c r="D109" t="s">
-        <v>648</v>
-      </c>
-      <c r="E109" t="s">
-        <v>649</v>
       </c>
       <c r="F109"/>
       <c r="G109" t="n">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="H109" t="n">
-        <v>2847376</v>
+        <v>536177</v>
       </c>
       <c r="I109" t="n">
-        <v>65.107</v>
+        <v>11.722</v>
       </c>
       <c r="J109" t="n">
-        <v>31543</v>
+        <v>2105</v>
       </c>
       <c r="K109" t="n">
-        <v>0.721</v>
+        <v>0.046</v>
       </c>
       <c r="L109" t="n">
-        <v>30913</v>
+        <v>1984</v>
       </c>
       <c r="M109" t="n">
-        <v>0.707</v>
+        <v>0.043</v>
       </c>
       <c r="N109" t="n">
-        <v>0.202</v>
+        <v>0.06</v>
       </c>
       <c r="O109" t="n">
-        <v>4.957</v>
+        <v>16.753</v>
       </c>
       <c r="P109" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>648</v>
+      </c>
+      <c r="R109" t="s">
+        <v>97</v>
+      </c>
+      <c r="S109" t="s">
         <v>649</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>650</v>
-      </c>
-      <c r="R109" t="s">
-        <v>31</v>
-      </c>
-      <c r="S109" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>650</v>
+      </c>
+      <c r="B110" t="s">
+        <v>651</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>44131</v>
+      </c>
+      <c r="D110" t="s">
         <v>652</v>
       </c>
-      <c r="B110" t="s">
+      <c r="E110" t="s">
         <v>653</v>
-      </c>
-      <c r="C110" s="1" t="n">
-        <v>44124</v>
-      </c>
-      <c r="D110" t="s">
-        <v>654</v>
-      </c>
-      <c r="E110" t="s">
-        <v>655</v>
       </c>
       <c r="F110"/>
       <c r="G110" t="n">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="H110" t="n">
-        <v>11882651</v>
+        <v>3087288</v>
       </c>
       <c r="I110" t="n">
-        <v>1201.433</v>
+        <v>70.593</v>
       </c>
       <c r="J110" t="n">
-        <v>112196</v>
+        <v>33361</v>
       </c>
       <c r="K110" t="n">
-        <v>11.344</v>
+        <v>0.763</v>
       </c>
       <c r="L110" t="n">
-        <v>109871</v>
+        <v>34273</v>
       </c>
       <c r="M110" t="n">
-        <v>11.109</v>
+        <v>0.784</v>
       </c>
       <c r="N110" t="n">
-        <v>0.012</v>
+        <v>0.166</v>
       </c>
       <c r="O110" t="n">
-        <v>83.38</v>
+        <v>6.025</v>
       </c>
       <c r="P110" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="Q110" t="s">
         <v>654</v>
       </c>
       <c r="R110" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="S110" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>656</v>
+      </c>
+      <c r="B111" t="s">
         <v>657</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" s="1" t="n">
+        <v>44131</v>
+      </c>
+      <c r="D111" t="s">
         <v>658</v>
       </c>
-      <c r="C111" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>659</v>
       </c>
-      <c r="E111" t="s">
-        <v>660</v>
-      </c>
-      <c r="F111" t="s">
-        <v>661</v>
-      </c>
+      <c r="F111"/>
       <c r="G111" t="n">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="H111" t="n">
-        <v>25604836</v>
+        <v>12661587</v>
       </c>
       <c r="I111" t="n">
-        <v>377.174</v>
+        <v>1280.19</v>
       </c>
       <c r="J111" t="n">
-        <v>280884</v>
+        <v>110807</v>
       </c>
       <c r="K111" t="n">
-        <v>4.138</v>
+        <v>11.203</v>
       </c>
       <c r="L111" t="n">
-        <v>270763</v>
+        <v>111277</v>
       </c>
       <c r="M111" t="n">
-        <v>3.988</v>
+        <v>11.251</v>
       </c>
       <c r="N111" t="n">
-        <v>0.063</v>
+        <v>0.012</v>
       </c>
       <c r="O111" t="n">
-        <v>15.968</v>
+        <v>80.162</v>
       </c>
       <c r="P111" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q111" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="R111" t="s">
         <v>24</v>
       </c>
       <c r="S111" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>661</v>
+      </c>
+      <c r="B112" t="s">
+        <v>662</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>44129</v>
+      </c>
+      <c r="D112" t="s">
+        <v>663</v>
+      </c>
+      <c r="E112" t="s">
         <v>664</v>
       </c>
-      <c r="B112" t="s">
+      <c r="F112" t="s">
         <v>665</v>
       </c>
-      <c r="C112" s="1" t="n">
-        <v>44121</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="G112" t="n">
+        <v>209</v>
+      </c>
+      <c r="H112" t="n">
+        <v>27599062</v>
+      </c>
+      <c r="I112" t="n">
+        <v>406.55</v>
+      </c>
+      <c r="J112" t="n">
+        <v>291225</v>
+      </c>
+      <c r="K112" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="L112" t="n">
+        <v>284889</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4.197</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="O112" t="n">
+        <v>13.422</v>
+      </c>
+      <c r="P112" t="s">
+        <v>664</v>
+      </c>
+      <c r="Q112" t="s">
         <v>666</v>
       </c>
-      <c r="E112" t="s">
+      <c r="R112" t="s">
+        <v>24</v>
+      </c>
+      <c r="S112" t="s">
         <v>667</v>
-      </c>
-      <c r="F112"/>
-      <c r="G112" t="n">
-        <v>231</v>
-      </c>
-      <c r="H112" t="n">
-        <v>134758489</v>
-      </c>
-      <c r="I112" t="n">
-        <v>407.122</v>
-      </c>
-      <c r="J112" t="n">
-        <v>631457</v>
-      </c>
-      <c r="K112" t="n">
-        <v>1.908</v>
-      </c>
-      <c r="L112" t="n">
-        <v>895532</v>
-      </c>
-      <c r="M112" t="n">
-        <v>2.706</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="O112" t="n">
-        <v>16.263</v>
-      </c>
-      <c r="P112" t="s">
-        <v>668</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>669</v>
-      </c>
-      <c r="R112" t="s">
-        <v>670</v>
-      </c>
-      <c r="S112" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B113" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>44123</v>
+        <v>44128</v>
       </c>
       <c r="D113" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E113" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F113"/>
       <c r="G113" t="n">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="H113" t="n">
-        <v>126033173</v>
+        <v>141802715</v>
       </c>
       <c r="I113" t="n">
-        <v>380.762</v>
+        <v>428.404</v>
       </c>
       <c r="J113" t="n">
-        <v>1200056</v>
+        <v>419926</v>
       </c>
       <c r="K113" t="n">
-        <v>3.626</v>
+        <v>1.269</v>
       </c>
       <c r="L113" t="n">
-        <v>1071185</v>
+        <v>868548</v>
       </c>
       <c r="M113" t="n">
-        <v>3.236</v>
+        <v>2.624</v>
       </c>
       <c r="N113" t="n">
-        <v>0.052</v>
+        <v>0.073</v>
       </c>
       <c r="O113" t="n">
-        <v>19.126</v>
+        <v>13.708</v>
       </c>
       <c r="P113" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>673</v>
+      </c>
+      <c r="R113" t="s">
         <v>674</v>
       </c>
-      <c r="Q113" t="s">
+      <c r="S113" t="s">
         <v>675</v>
-      </c>
-      <c r="R113" t="s">
-        <v>676</v>
-      </c>
-      <c r="S113" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>668</v>
+      </c>
+      <c r="B114" t="s">
+        <v>676</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D114" t="s">
+        <v>677</v>
+      </c>
+      <c r="E114" t="s">
         <v>678</v>
-      </c>
-      <c r="B114" t="s">
-        <v>679</v>
-      </c>
-      <c r="C114" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D114" t="s">
-        <v>680</v>
-      </c>
-      <c r="E114" t="s">
-        <v>120</v>
       </c>
       <c r="F114"/>
       <c r="G114" t="n">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="H114" t="n">
-        <v>283904</v>
+        <v>133750060</v>
       </c>
       <c r="I114" t="n">
-        <v>81.729</v>
-      </c>
-      <c r="J114"/>
-      <c r="K114"/>
+        <v>404.075</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1153040</v>
+      </c>
+      <c r="K114" t="n">
+        <v>3.483</v>
+      </c>
       <c r="L114" t="n">
-        <v>2497</v>
+        <v>1100662</v>
       </c>
       <c r="M114" t="n">
-        <v>0.719</v>
+        <v>3.325</v>
       </c>
       <c r="N114" t="n">
-        <v>0.014</v>
+        <v>0.063</v>
       </c>
       <c r="O114" t="n">
-        <v>73.751</v>
+        <v>15.999</v>
       </c>
       <c r="P114" t="s">
-        <v>120</v>
+        <v>678</v>
       </c>
       <c r="Q114" t="s">
+        <v>679</v>
+      </c>
+      <c r="R114" t="s">
+        <v>680</v>
+      </c>
+      <c r="S114" t="s">
         <v>681</v>
-      </c>
-      <c r="R114" t="s">
-        <v>24</v>
-      </c>
-      <c r="S114" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>682</v>
+      </c>
+      <c r="B115" t="s">
         <v>683</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D115" t="s">
         <v>684</v>
       </c>
-      <c r="C115" s="1" t="n">
-        <v>44119</v>
-      </c>
-      <c r="D115" t="s">
-        <v>685</v>
-      </c>
       <c r="E115" t="s">
-        <v>686</v>
+        <v>120</v>
       </c>
       <c r="F115"/>
       <c r="G115" t="n">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="H115" t="n">
-        <v>1260799</v>
+        <v>304815</v>
       </c>
       <c r="I115" t="n">
-        <v>12.953</v>
+        <v>87.749</v>
       </c>
       <c r="J115" t="n">
-        <v>3009</v>
+        <v>2481</v>
       </c>
       <c r="K115" t="n">
-        <v>0.031</v>
+        <v>0.714</v>
       </c>
       <c r="L115" t="n">
-        <v>2394</v>
+        <v>2987</v>
       </c>
       <c r="M115" t="n">
-        <v>0.025</v>
+        <v>0.86</v>
       </c>
       <c r="N115" t="n">
-        <v>0.001</v>
+        <v>0.015</v>
       </c>
       <c r="O115" t="n">
-        <v>728.609</v>
+        <v>65.341</v>
       </c>
       <c r="P115" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>685</v>
+      </c>
+      <c r="R115" t="s">
+        <v>24</v>
+      </c>
+      <c r="S115" t="s">
         <v>686</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>687</v>
-      </c>
-      <c r="R115" t="s">
-        <v>97</v>
-      </c>
-      <c r="S115" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>687</v>
+      </c>
+      <c r="B116" t="s">
+        <v>688</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>44119</v>
+      </c>
+      <c r="D116" t="s">
         <v>689</v>
       </c>
-      <c r="B116" t="s">
+      <c r="E116" t="s">
         <v>690</v>
-      </c>
-      <c r="C116" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="D116" t="s">
-        <v>691</v>
-      </c>
-      <c r="E116" t="s">
-        <v>692</v>
       </c>
       <c r="F116"/>
       <c r="G116" t="n">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="H116" t="n">
-        <v>212699</v>
+        <v>1260799</v>
       </c>
       <c r="I116" t="n">
-        <v>11.57</v>
+        <v>12.953</v>
       </c>
       <c r="J116" t="n">
-        <v>2592</v>
+        <v>3009</v>
       </c>
       <c r="K116" t="n">
-        <v>0.141</v>
+        <v>0.031</v>
       </c>
       <c r="L116" t="n">
-        <v>3414</v>
+        <v>2394</v>
       </c>
       <c r="M116" t="n">
-        <v>0.186</v>
+        <v>0.025</v>
       </c>
       <c r="N116" t="n">
-        <v>0.017</v>
+        <v>0.001</v>
       </c>
       <c r="O116" t="n">
-        <v>60.501</v>
+        <v>728.609</v>
       </c>
       <c r="P116" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="Q116" t="s">
         <v>691</v>
       </c>
       <c r="R116" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="S116" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>693</v>
+      </c>
+      <c r="B117" t="s">
+        <v>694</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>44130</v>
+      </c>
+      <c r="D117" t="s">
         <v>695</v>
       </c>
-      <c r="B117" t="s">
+      <c r="E117" t="s">
         <v>696</v>
-      </c>
-      <c r="C117" s="1" t="n">
-        <v>44121</v>
-      </c>
-      <c r="D117" t="s">
-        <v>697</v>
-      </c>
-      <c r="E117" t="s">
-        <v>698</v>
       </c>
       <c r="F117"/>
       <c r="G117" t="n">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="H117" t="n">
-        <v>130621</v>
+        <v>237710</v>
       </c>
       <c r="I117" t="n">
-        <v>8.788</v>
+        <v>12.93</v>
       </c>
       <c r="J117" t="n">
-        <v>804</v>
+        <v>4677</v>
       </c>
       <c r="K117" t="n">
-        <v>0.054</v>
+        <v>0.254</v>
       </c>
       <c r="L117" t="n">
-        <v>645</v>
+        <v>3573</v>
       </c>
       <c r="M117" t="n">
-        <v>0.043</v>
+        <v>0.194</v>
       </c>
       <c r="N117" t="n">
-        <v>0.023</v>
+        <v>0.011</v>
       </c>
       <c r="O117" t="n">
-        <v>43</v>
+        <v>94.739</v>
       </c>
       <c r="P117" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="Q117" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="R117" t="s">
         <v>24</v>
       </c>
       <c r="S117" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>699</v>
+      </c>
+      <c r="B118" t="s">
         <v>700</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>44128</v>
+      </c>
+      <c r="D118" t="s">
+        <v>701</v>
+      </c>
+      <c r="E118" t="s">
+        <v>702</v>
+      </c>
+      <c r="F118"/>
+      <c r="G118" t="n">
+        <v>169</v>
+      </c>
+      <c r="H118" t="n">
+        <v>135536</v>
+      </c>
+      <c r="I118" t="n">
+        <v>9.119</v>
+      </c>
+      <c r="J118" t="n">
+        <v>626</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="L118" t="n">
+        <v>702</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="O118" t="n">
+        <v>31.101</v>
+      </c>
+      <c r="P118" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>703</v>
+      </c>
+      <c r="R118" t="s">
+        <v>24</v>
+      </c>
+      <c r="S118" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>

--- a/testing/covid-testing-latest-data-source-details.xlsx
+++ b/testing/covid-testing-latest-data-source-details.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="728">
   <si>
     <t xml:space="preserve">ISO code</t>
   </si>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">Australia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/01/coronavirus-covid-19-at-a-glance-26-january-2021.pdf</t>
+    <t xml:space="preserve">https://www.health.gov.au/sites/default/files/documents/2021/01/coronavirus-covid-19-at-a-glance-28-january-2021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Australian Government Department of Health</t>
@@ -212,7 +212,7 @@
     <t xml:space="preserve">Belarus - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-latest-1651-new-cases-2143-recoveries_i_0000124598.html</t>
+    <t xml:space="preserve">https://www.belarus.by/en/press-center/press-release/belarus-covid-19-update-1867-new-cases-2200-recoveries_i_0000124720.html</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Belarus</t>
@@ -262,6 +262,9 @@
     <t xml:space="preserve">Bhutan - samples tested</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.facebook.com/MoHBhutan/photos/a.771480979580187/3850764994985088/</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.facebook.com/MoHBhutan/</t>
   </si>
   <si>
@@ -278,7 +281,7 @@
     <t xml:space="preserve">Bolivia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://minsalud.gob.bo/5212-covid-19-reporte-nacional-registra-1-781-casos-positivos-y-3-233-resultados-negativos</t>
+    <t xml:space="preserve">https://minsalud.gob.bo/5222-de-8-249-pruebas-2-866-son-casos-positivos-de-covid-19-y-5-383-resultados-negativos</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.minsalud.gob.bo/</t>
@@ -378,7 +381,7 @@
     <t xml:space="preserve">Cape Verde - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-26-de-janeiro-de-2021/</t>
+    <t xml:space="preserve">https://covid19.cv/boletim-epidemiologico-de-28-de-janeiro-de-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Cape Verde</t>
@@ -484,7 +487,7 @@
     <t xml:space="preserve">Cote d'Ivoire - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/Mshpci/posts/1817254015106951</t>
+    <t xml:space="preserve">https://www.facebook.com/Mshpci/posts/1818928801606139</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Public Hygiene</t>
@@ -578,7 +581,7 @@
     <t xml:space="preserve">Democratic Republic of Congo - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=0e10f73b57</t>
+    <t xml:space="preserve">https://us3.campaign-archive.com/?u=b34a30571d429859fb249533d&amp;id=360b723e28</t>
   </si>
   <si>
     <t xml:space="preserve">DRC COVID-19 Pandemic Response Multisectoral Committee</t>
@@ -596,7 +599,7 @@
     <t xml:space="preserve">Denmark - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/data-epidemiologiske-rapport-27012021-muj5</t>
+    <t xml:space="preserve">https://files.ssi.dk/covid19/overvagning/data/data-epidemiologiske-rapport-29012021-g71m</t>
   </si>
   <si>
     <t xml:space="preserve">Statens Serum Institut</t>
@@ -614,7 +617,7 @@
     <t xml:space="preserve">Dominican Republic - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/01/Boletin-COVID-19-no.311.pdf</t>
+    <t xml:space="preserve">https://www.msp.gob.do/web/wp-content/uploads/2021/01/Boletin-COVID-19-no.314.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Public Health and Social Assistance</t>
@@ -633,7 +636,7 @@
     <t xml:space="preserve">Ecuador - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/01/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-26012021.pdf</t>
+    <t xml:space="preserve">https://www.salud.gob.ec/wp-content/uploads/2021/01/INFOGRAFIA-NACIONALCOVID19-COE-NACIONAL-08h00-28012021.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Ecuador</t>
@@ -824,7 +827,7 @@
     <t xml:space="preserve">Greece - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/01/covid-gr-daily-report-20210126.pdf</t>
+    <t xml:space="preserve">https://eody.gov.gr/wp-content/uploads/2021/01/covid-gr-daily-report-20210128.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">National Organization of Public Health</t>
@@ -996,7 +999,7 @@
     <t xml:space="preserve">Iran - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">http://irangov.ir/detail/356560</t>
+    <t xml:space="preserve">http://irangov.ir/detail/356723</t>
   </si>
   <si>
     <t xml:space="preserve">Government of Iran</t>
@@ -1118,7 +1121,7 @@
     <t xml:space="preserve">Jamaica - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-monday-january-25-2021/</t>
+    <t xml:space="preserve">https://www.moh.gov.jm/covid-19-clinical-management-summary-for-wednesday-january-27-2021/</t>
   </si>
   <si>
     <t xml:space="preserve">Jamaica Ministry of Health and Wellness</t>
@@ -1155,7 +1158,7 @@
     <t xml:space="preserve">Jordan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/2574</t>
+    <t xml:space="preserve">https://corona.moh.gov.jo/ar/MediaCenter/2578</t>
   </si>
   <si>
     <t xml:space="preserve">Jordan Ministry of Health</t>
@@ -1215,7 +1218,7 @@
     <t xml:space="preserve">Kuwait - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1354048957958287361</t>
+    <t xml:space="preserve">https://twitter.com/KUWAIT_MOH/status/1354761232549601280</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait Ministry of Health</t>
@@ -1352,7 +1355,7 @@
     <t xml:space="preserve">Malaysia - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/01/situasi-terkini-covid-19-di-malaysia-26012021</t>
+    <t xml:space="preserve">http://covid-19.moh.gov.my/terkini/2021/01/situasi-terkini-covid-19-di-malaysia-28012021</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health Malaysia</t>
@@ -1377,7 +1380,7 @@
     <t xml:space="preserve">Maldives - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1354111774291845125</t>
+    <t xml:space="preserve">https://twitter.com/HPA_MV/status/1354847733044146189</t>
   </si>
   <si>
     <t xml:space="preserve">Maldives Health Protection Agency</t>
@@ -1461,7 +1464,7 @@
     <t xml:space="preserve">Mongolia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-01-%D0%B4%D2%AF%D0%B3%D1%8D%D1%8D%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-26-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1056/</t>
+    <t xml:space="preserve">https://covid19.mohs.mn/p/2021-%D0%BE%D0%BD%D1%8B-01-%D0%B4%D2%AF%D0%B3%D1%8D%D1%8D%D1%80-%D1%81%D0%B0%D1%80%D1%8B%D0%BD-28-%D3%A9%D0%B4%D1%80%D0%B8%D0%B9%D0%BD-%D0%BD%D3%A9%D1%85%D1%86%D3%A9%D0%BB-%D0%B1%D0%B0%D0%B9%D0%B4%D0%BB%D1%8B%D0%BD-%D0%BC%D1%8D%D0%B4%D1%8D%D1%8D/1058/</t>
   </si>
   <si>
     <t xml:space="preserve">https://covid19.mohs.mn/p/cat/post/57/</t>
@@ -1476,7 +1479,7 @@
     <t xml:space="preserve">Morocco - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/26.1.21.SARS-CoV-2.MA.pdf</t>
+    <t xml:space="preserve">http://www.covidmaroc.ma/Documents/BULLETIN/27.1.21.SARS-CoV-2.MA.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Morocco Ministry of Health</t>
@@ -1498,7 +1501,7 @@
     <t xml:space="preserve">Mozambique - units unclear</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=811:boletim-diario-covid-19-n-315</t>
+    <t xml:space="preserve">https://www.misau.gov.mz/index.php/covid-19-boletins-diarios?download=814:boletim-diario-covid-19-n-317</t>
   </si>
   <si>
     <t xml:space="preserve">Mozambique Ministry of Health</t>
@@ -1539,7 +1542,7 @@
     <t xml:space="preserve">Namibia - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.690201848319488/690201718319501/</t>
+    <t xml:space="preserve">https://www.facebook.com/MoHSSNamibia/photos/pcb.691287008210972/691286334877706/</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Social Services</t>
@@ -1561,7 +1564,7 @@
     <t xml:space="preserve">Nepal - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1C8g1xhvHst4KEvwXHx3T7XMsmXrJgG1_</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1Y7YI6FkHYH0g3yVjXK9nGaj0vD5XXGjc</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Health and Population</t>
@@ -1712,7 +1715,7 @@
     <t xml:space="preserve">Palestine - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3504679516324568</t>
+    <t xml:space="preserve">https://www.facebook.com/mohps/posts/3509914189134434</t>
   </si>
   <si>
     <t xml:space="preserve">Palestinian Ministry of Health</t>
@@ -1734,7 +1737,7 @@
     <t xml:space="preserve">Panama - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1354232549028098049</t>
+    <t xml:space="preserve">https://twitter.com/MINSAPma/status/1354943265418711042</t>
   </si>
   <si>
     <t xml:space="preserve">Panama Ministry of Health</t>
@@ -1784,7 +1787,7 @@
     <t xml:space="preserve">Philippines - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://drive.google.com/drive/folders/1pobqzn7r97K4HLdRbH5TPEIwxjqd1T7q?usp=sharing</t>
+    <t xml:space="preserve">https://drive.google.com/drive/folders/1RLZr0u-kftMaeyJVE37eM1FFKHHTWSWX?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Philippines Department of Health</t>
@@ -1805,7 +1808,7 @@
     <t xml:space="preserve">Poland - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1354002388718292992</t>
+    <t xml:space="preserve">https://twitter.com/MZ_GOV_PL/status/1354727164478939144</t>
   </si>
   <si>
     <t xml:space="preserve">Poland Ministry of Health</t>
@@ -1868,7 +1871,7 @@
     <t xml:space="preserve">Romania - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gov.ro/fisiere/comunicate_fisiere/27-01_BULETIN_DE_PRESA%CC%86__-_ora_13.00.pdf</t>
+    <t xml:space="preserve">https://www.gov.ro/fisiere/comunicate_fisiere/29-01_BULETIN_DE_PRESA%CC%86__-_ora_13.00.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Ministry of Internal Affairs</t>
@@ -1891,7 +1894,7 @@
     <t xml:space="preserve">Russia - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=16651</t>
+    <t xml:space="preserve">https://rospotrebnadzor.ru/about/info/news/news_details.php?ELEMENT_ID=16676</t>
   </si>
   <si>
     <t xml:space="preserve">Government of the Russian Federation</t>
@@ -2082,7 +2085,7 @@
     <t xml:space="preserve">South Sudan - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://moh.gov.ss/single_daily_report.php?report=January%2020th%20Update.pdf</t>
+    <t xml:space="preserve">https://moh.gov.ss/single_daily_report.php?report=January%2027th%20Update.pdf</t>
   </si>
   <si>
     <t xml:space="preserve">https://moh.gov.ss/daily_updates.php</t>
@@ -2159,7 +2162,7 @@
     <t xml:space="preserve">Switzerland - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210126-535uncyq/downloads/sources-csv.zip</t>
+    <t xml:space="preserve">https://www.covid19.admin.ch/api/data/20210129-fc0owu00/downloads/sources-csv.zip</t>
   </si>
   <si>
     <t xml:space="preserve">Federal Office of Public Health</t>
@@ -2204,8 +2207,11 @@
     <t xml:space="preserve">Department of Medical Sciences, Ministry of Public Health</t>
   </si>
   <si>
-    <t xml:space="preserve">The Ministry of Public Health's Department of Medical Sciences publishes a complete time series of tests performed in Thailand since early January 2020.
-This new time series includes individuals who do not meet the "persons under investigation" (PUI) criteria, and who paid out of pocket to get a PCR test. According to the Ministry of Health, this "non-PUI" group is large in proportion.</t>
+    <t xml:space="preserve">unclear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Ministry of Public Health's Department of Medical Sciences publishes a complete time series of tests performed in Thailand. Data is available since 1 March 2020 when 9,709 tests had been performed.
+On 1 Jan 2021, this dataset was temporarily removed by the Ministry while they change their reporting system; it is expected to return in February.</t>
   </si>
   <si>
     <t xml:space="preserve">TGO</t>
@@ -2235,7 +2241,7 @@
     <t xml:space="preserve">Trinidad and Tobago - people tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-616</t>
+    <t xml:space="preserve">https://www.covid19.gov.tt/trinidad-and-tobago-covid-19-novel-coronavirus-update-618</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.covid19.gov.tt/category/covid-19-updates/</t>
@@ -2292,7 +2298,7 @@
     <t xml:space="preserve">Uganda - samples tested</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1354055182473076737</t>
+    <t xml:space="preserve">https://twitter.com/MinofHealthUG/status/1354793094747709442</t>
   </si>
   <si>
     <t xml:space="preserve">Uganda Ministry of Health</t>
@@ -2426,7 +2432,7 @@
     <t xml:space="preserve">Uruguay - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-120</t>
+    <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias/informacion-situacion-sobre-coronavirus-covid-19-uruguay-121</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gub.uy/ministerio-salud-publica/comunicacion/noticias</t>
@@ -2487,7 +2493,7 @@
     <t xml:space="preserve">Zimbabwe - tests performed</t>
   </si>
   <si>
-    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1354151263634599936</t>
+    <t xml:space="preserve">https://twitter.com/MoHCCZim/status/1354886473552699401</t>
   </si>
   <si>
     <t xml:space="preserve">Zimbabwe Ministry of Health and Child Care</t>
@@ -2904,7 +2910,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>44214</v>
+        <v>44221</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -2914,27 +2920,27 @@
       </c>
       <c r="F2"/>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>134259</v>
+        <v>140701</v>
       </c>
       <c r="I2" t="n">
-        <v>1737.643</v>
+        <v>1821.019</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2" t="n">
-        <v>515</v>
+        <v>920</v>
       </c>
       <c r="M2" t="n">
-        <v>6.665</v>
+        <v>11.907</v>
       </c>
       <c r="N2" t="n">
-        <v>0.138</v>
+        <v>0.08</v>
       </c>
       <c r="O2" t="n">
-        <v>7.3</v>
+        <v>12.6</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
@@ -2957,7 +2963,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -2967,31 +2973,31 @@
       </c>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H3" t="n">
-        <v>4999544</v>
+        <v>5072503</v>
       </c>
       <c r="I3" t="n">
-        <v>110.62</v>
+        <v>112.234</v>
       </c>
       <c r="J3" t="n">
-        <v>38984</v>
+        <v>27963</v>
       </c>
       <c r="K3" t="n">
-        <v>0.863</v>
+        <v>0.619</v>
       </c>
       <c r="L3" t="n">
-        <v>39087</v>
+        <v>37325</v>
       </c>
       <c r="M3" t="n">
-        <v>0.865</v>
+        <v>0.826</v>
       </c>
       <c r="N3" t="n">
-        <v>0.264</v>
+        <v>0.269</v>
       </c>
       <c r="O3" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="P3" t="s">
         <v>29</v>
@@ -3014,7 +3020,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>44217</v>
+        <v>44219</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
@@ -3024,31 +3030,31 @@
       </c>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H4" t="n">
-        <v>5065906</v>
+        <v>5137986</v>
       </c>
       <c r="I4" t="n">
-        <v>112.088</v>
+        <v>113.683</v>
       </c>
       <c r="J4" t="n">
-        <v>36164</v>
+        <v>28298</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8</v>
+        <v>0.626</v>
       </c>
       <c r="L4" t="n">
-        <v>37834</v>
+        <v>36054</v>
       </c>
       <c r="M4" t="n">
-        <v>0.837</v>
+        <v>0.798</v>
       </c>
       <c r="N4" t="n">
-        <v>0.273</v>
+        <v>0.278</v>
       </c>
       <c r="O4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="P4" t="s">
         <v>29</v>
@@ -3071,7 +3077,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -3081,27 +3087,31 @@
       </c>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H5" t="n">
-        <v>12778139</v>
+        <v>12848213</v>
       </c>
       <c r="I5" t="n">
-        <v>501.106</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5"/>
+        <v>503.854</v>
+      </c>
+      <c r="J5" t="n">
+        <v>33864</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.328</v>
+      </c>
       <c r="L5" t="n">
-        <v>41312</v>
+        <v>36213</v>
       </c>
       <c r="M5" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>6287</v>
+        <v>5760.9</v>
       </c>
       <c r="P5" t="s">
         <v>38</v>
@@ -3177,7 +3187,7 @@
         <v>47</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>44223</v>
+        <v>44225</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -3187,25 +3197,25 @@
       </c>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H7" t="n">
-        <v>2647934</v>
+        <v>2673504</v>
       </c>
       <c r="I7" t="n">
-        <v>1556.159</v>
+        <v>1571.186</v>
       </c>
       <c r="J7" t="n">
-        <v>10055</v>
+        <v>13283</v>
       </c>
       <c r="K7" t="n">
-        <v>5.909</v>
+        <v>7.806</v>
       </c>
       <c r="L7" t="n">
-        <v>10580</v>
+        <v>10934</v>
       </c>
       <c r="M7" t="n">
-        <v>6.218</v>
+        <v>6.426</v>
       </c>
       <c r="N7"/>
       <c r="O7"/>
@@ -3230,7 +3240,7 @@
         <v>54</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D8" t="s">
         <v>55</v>
@@ -3240,31 +3250,31 @@
       </c>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H8" t="n">
-        <v>3582128</v>
+        <v>3612678</v>
       </c>
       <c r="I8" t="n">
-        <v>21.751</v>
+        <v>21.936</v>
       </c>
       <c r="J8" t="n">
-        <v>14401</v>
+        <v>14830</v>
       </c>
       <c r="K8" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14273</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.087</v>
       </c>
-      <c r="L8" t="n">
-        <v>14219</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.086</v>
-      </c>
       <c r="N8" t="n">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="O8" t="n">
-        <v>25.6</v>
+        <v>27.1</v>
       </c>
       <c r="P8" t="s">
         <v>56</v>
@@ -3287,7 +3297,7 @@
         <v>59</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>44223</v>
+        <v>44225</v>
       </c>
       <c r="D9" t="s">
         <v>60</v>
@@ -3297,21 +3307,21 @@
       </c>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H9" t="n">
-        <v>4399367</v>
+        <v>4435121</v>
       </c>
       <c r="I9" t="n">
-        <v>465.575</v>
+        <v>469.359</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9" t="n">
-        <v>14812</v>
+        <v>15372</v>
       </c>
       <c r="M9" t="n">
-        <v>1.568</v>
+        <v>1.627</v>
       </c>
       <c r="N9"/>
       <c r="O9"/>
@@ -3336,7 +3346,7 @@
         <v>66</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="D10" t="s">
         <v>67</v>
@@ -3346,31 +3356,31 @@
       </c>
       <c r="F10"/>
       <c r="G10" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H10" t="n">
-        <v>7971536</v>
+        <v>8095413</v>
       </c>
       <c r="I10" t="n">
-        <v>687.817</v>
+        <v>698.506</v>
       </c>
       <c r="J10" t="n">
-        <v>42126</v>
+        <v>58041</v>
       </c>
       <c r="K10" t="n">
-        <v>3.635</v>
+        <v>5.008</v>
       </c>
       <c r="L10" t="n">
-        <v>44708</v>
+        <v>45742</v>
       </c>
       <c r="M10" t="n">
-        <v>3.858</v>
+        <v>3.947</v>
       </c>
       <c r="N10" t="n">
-        <v>0.056</v>
+        <v>0.055</v>
       </c>
       <c r="O10" t="n">
-        <v>17.9</v>
+        <v>18.2</v>
       </c>
       <c r="P10" t="s">
         <v>69</v>
@@ -3393,7 +3403,7 @@
         <v>73</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D11" t="s">
         <v>74</v>
@@ -3403,117 +3413,117 @@
       </c>
       <c r="F11"/>
       <c r="G11" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H11" t="n">
-        <v>435073</v>
+        <v>454693</v>
       </c>
       <c r="I11" t="n">
-        <v>563.849</v>
+        <v>589.277</v>
       </c>
       <c r="J11" t="n">
-        <v>9772</v>
+        <v>11232</v>
       </c>
       <c r="K11" t="n">
-        <v>12.664</v>
+        <v>14.557</v>
       </c>
       <c r="L11" t="n">
-        <v>4349</v>
+        <v>6442</v>
       </c>
       <c r="M11" t="n">
-        <v>5.636</v>
+        <v>8.349</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3804.9</v>
+        <v>6442</v>
       </c>
       <c r="P11" t="s">
         <v>49</v>
       </c>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
         <v>49</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H12" t="n">
-        <v>518232</v>
+        <v>534058</v>
       </c>
       <c r="I12" t="n">
-        <v>44.396</v>
+        <v>45.751</v>
       </c>
       <c r="J12" t="n">
-        <v>5014</v>
+        <v>8249</v>
       </c>
       <c r="K12" t="n">
-        <v>0.43</v>
+        <v>0.707</v>
       </c>
       <c r="L12" t="n">
-        <v>5102</v>
+        <v>5748</v>
       </c>
       <c r="M12" t="n">
-        <v>0.437</v>
+        <v>0.492</v>
       </c>
       <c r="N12" t="n">
-        <v>0.394</v>
+        <v>0.356</v>
       </c>
       <c r="O12" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="P12" t="s">
         <v>49</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R12" t="s">
         <v>33</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="n">
         <v>44196</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="n">
@@ -3544,30 +3554,30 @@
         <v>6.5</v>
       </c>
       <c r="P13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R13" t="s">
         <v>33</v>
       </c>
       <c r="S13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>44093</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
         <v>49</v>
@@ -3593,241 +3603,241 @@
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R14" t="s">
         <v>33</v>
       </c>
       <c r="S14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>44223</v>
+        <v>44225</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H15" t="n">
-        <v>1345912</v>
+        <v>1371485</v>
       </c>
       <c r="I15" t="n">
-        <v>193.7</v>
+        <v>197.38</v>
       </c>
       <c r="J15" t="n">
-        <v>15651</v>
+        <v>12297</v>
       </c>
       <c r="K15" t="n">
-        <v>2.252</v>
+        <v>1.77</v>
       </c>
       <c r="L15" t="n">
-        <v>8627</v>
+        <v>10034</v>
       </c>
       <c r="M15" t="n">
-        <v>1.242</v>
+        <v>1.444</v>
       </c>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R15" t="s">
         <v>33</v>
       </c>
       <c r="S15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F16"/>
       <c r="G16" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H16" t="n">
-        <v>17120912</v>
+        <v>17290560</v>
       </c>
       <c r="I16" t="n">
-        <v>453.628</v>
+        <v>458.123</v>
       </c>
       <c r="J16" t="n">
-        <v>34572</v>
+        <v>92645</v>
       </c>
       <c r="K16" t="n">
-        <v>0.916</v>
+        <v>2.455</v>
       </c>
       <c r="L16" t="n">
-        <v>58663</v>
+        <v>56463</v>
       </c>
       <c r="M16" t="n">
-        <v>1.554</v>
+        <v>1.496</v>
       </c>
       <c r="N16" t="n">
-        <v>0.09</v>
+        <v>0.086</v>
       </c>
       <c r="O16" t="n">
-        <v>11.1</v>
+        <v>11.6</v>
       </c>
       <c r="P16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R16" t="s">
         <v>24</v>
       </c>
       <c r="S16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17" t="n">
-        <v>782</v>
+        <v>870</v>
       </c>
       <c r="K17" t="n">
-        <v>1.407</v>
+        <v>1.565</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R17" t="s">
         <v>33</v>
       </c>
       <c r="S17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>44222</v>
+        <v>44223</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18"/>
       <c r="G18" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H18" t="n">
-        <v>7750080</v>
+        <v>7789635</v>
       </c>
       <c r="I18" t="n">
-        <v>405.419</v>
+        <v>407.488</v>
       </c>
       <c r="J18" t="n">
-        <v>42995</v>
+        <v>39555</v>
       </c>
       <c r="K18" t="n">
-        <v>2.249</v>
+        <v>2.069</v>
       </c>
       <c r="L18" t="n">
-        <v>54729</v>
+        <v>54450</v>
       </c>
       <c r="M18" t="n">
-        <v>2.863</v>
+        <v>2.848</v>
       </c>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R18" t="s">
         <v>33</v>
       </c>
       <c r="S18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>44049</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="n">
@@ -3846,87 +3856,87 @@
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="R19" t="s">
         <v>33</v>
       </c>
       <c r="S19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F20"/>
       <c r="G20" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H20" t="n">
-        <v>7067265</v>
+        <v>7157643</v>
       </c>
       <c r="I20" t="n">
-        <v>138.893</v>
+        <v>140.669</v>
       </c>
       <c r="J20" t="n">
-        <v>46831</v>
+        <v>44079</v>
       </c>
       <c r="K20" t="n">
-        <v>0.92</v>
+        <v>0.866</v>
       </c>
       <c r="L20" t="n">
-        <v>46216</v>
+        <v>45452</v>
       </c>
       <c r="M20" t="n">
-        <v>0.908</v>
+        <v>0.893</v>
       </c>
       <c r="N20" t="n">
-        <v>0.247</v>
+        <v>0.226</v>
       </c>
       <c r="O20" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="P20" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" t="s">
         <v>128</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>127</v>
       </c>
       <c r="R20" t="s">
         <v>33</v>
       </c>
       <c r="S20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C21" s="1" t="n">
         <v>44119</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
         <v>49</v>
@@ -3956,534 +3966,530 @@
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R21" t="s">
         <v>24</v>
       </c>
       <c r="S21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F22"/>
       <c r="G22" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H22" t="n">
-        <v>323322</v>
+        <v>330173</v>
       </c>
       <c r="I22" t="n">
-        <v>12.257</v>
+        <v>12.517</v>
       </c>
       <c r="J22" t="n">
-        <v>2239</v>
+        <v>4301</v>
       </c>
       <c r="K22" t="n">
-        <v>0.085</v>
+        <v>0.163</v>
       </c>
       <c r="L22" t="n">
-        <v>2908</v>
+        <v>3363</v>
       </c>
       <c r="M22" t="n">
-        <v>0.11</v>
+        <v>0.127</v>
       </c>
       <c r="N22" t="n">
-        <v>0.091</v>
+        <v>0.083</v>
       </c>
       <c r="O22" t="n">
-        <v>11</v>
+        <v>12.1</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>44223</v>
+        <v>44225</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F23"/>
       <c r="G23" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H23" t="n">
-        <v>1169837</v>
+        <v>1180851</v>
       </c>
       <c r="I23" t="n">
-        <v>284.96</v>
+        <v>287.643</v>
       </c>
       <c r="J23" t="n">
-        <v>7173</v>
+        <v>5020</v>
       </c>
       <c r="K23" t="n">
-        <v>1.747</v>
+        <v>1.223</v>
       </c>
       <c r="L23" t="n">
-        <v>5088</v>
+        <v>5147</v>
       </c>
       <c r="M23" t="n">
-        <v>1.239</v>
+        <v>1.254</v>
       </c>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="R23" t="s">
         <v>24</v>
       </c>
       <c r="S23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" t="n">
+        <v>312</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1838047</v>
+      </c>
+      <c r="I24" t="n">
+        <v>162.277</v>
+      </c>
+      <c r="J24" t="n">
+        <v>14593</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="L24" t="n">
+        <v>14553</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.285</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="O24" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="P24" t="s">
         <v>152</v>
       </c>
-      <c r="G24" t="n">
-        <v>310</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1808927</v>
-      </c>
-      <c r="I24" t="n">
-        <v>159.706</v>
-      </c>
-      <c r="J24" t="n">
-        <v>15544</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.372</v>
-      </c>
-      <c r="L24" t="n">
-        <v>13588</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="O24" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="P24" t="s">
-        <v>151</v>
-      </c>
       <c r="Q24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="R24" t="s">
         <v>33</v>
       </c>
       <c r="S24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
         <v>49</v>
       </c>
       <c r="F25"/>
       <c r="G25" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H25" t="n">
-        <v>1311720</v>
+        <v>1337447</v>
       </c>
       <c r="I25" t="n">
-        <v>1497.57</v>
+        <v>1526.942</v>
       </c>
       <c r="J25" t="n">
-        <v>10992</v>
+        <v>13594</v>
       </c>
       <c r="K25" t="n">
-        <v>12.549</v>
+        <v>15.52</v>
       </c>
       <c r="L25" t="n">
-        <v>10054</v>
+        <v>10722</v>
       </c>
       <c r="M25" t="n">
-        <v>11.478</v>
+        <v>12.241</v>
       </c>
       <c r="N25" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="O25" t="n">
-        <v>73.5</v>
+        <v>83.2</v>
       </c>
       <c r="P25" t="s">
         <v>49</v>
       </c>
       <c r="Q25" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R25" t="s">
         <v>33</v>
       </c>
       <c r="S25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E26" t="s">
         <v>49</v>
       </c>
       <c r="F26"/>
       <c r="G26" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="n">
-        <v>49859</v>
+        <v>48222</v>
       </c>
       <c r="K26" t="n">
-        <v>4.656</v>
+        <v>4.503</v>
       </c>
       <c r="L26" t="n">
-        <v>43997</v>
+        <v>46650</v>
       </c>
       <c r="M26" t="n">
-        <v>4.108</v>
+        <v>4.356</v>
       </c>
       <c r="N26" t="n">
-        <v>0.152</v>
+        <v>0.146</v>
       </c>
       <c r="O26" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="P26" t="s">
         <v>49</v>
       </c>
       <c r="Q26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R26" t="s">
         <v>33</v>
       </c>
       <c r="S26" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F27"/>
       <c r="G27" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27" t="n">
-        <v>269</v>
+        <v>669</v>
       </c>
       <c r="K27" t="n">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="L27" t="n">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="M27" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="N27" t="n">
-        <v>0.267</v>
+        <v>0.242</v>
       </c>
       <c r="O27" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="R27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H28" t="n">
-        <v>12745107</v>
+        <v>12971317</v>
       </c>
       <c r="I28" t="n">
-        <v>2200.39</v>
+        <v>2239.444</v>
       </c>
       <c r="J28" t="n">
-        <v>23817</v>
+        <v>24336</v>
       </c>
       <c r="K28" t="n">
-        <v>4.112</v>
+        <v>4.202</v>
       </c>
       <c r="L28" t="n">
-        <v>93997</v>
+        <v>91585</v>
       </c>
       <c r="M28" t="n">
-        <v>16.228</v>
+        <v>15.812</v>
       </c>
       <c r="N28" t="n">
         <v>0.008</v>
       </c>
       <c r="O28" t="n">
-        <v>123.4</v>
+        <v>129.6</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="R28" t="s">
         <v>33</v>
       </c>
       <c r="S28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>44219</v>
+        <v>44222</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H29" t="n">
-        <v>1003477</v>
+        <v>1017664</v>
       </c>
       <c r="I29" t="n">
-        <v>92.504</v>
-      </c>
-      <c r="J29" t="n">
-        <v>7507</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.692</v>
-      </c>
+        <v>93.812</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29"/>
       <c r="L29" t="n">
-        <v>7052</v>
+        <v>6234</v>
       </c>
       <c r="M29" t="n">
-        <v>0.65</v>
+        <v>0.575</v>
       </c>
       <c r="N29" t="n">
-        <v>0.226</v>
+        <v>0.223</v>
       </c>
       <c r="O29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G30" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H30" t="n">
-        <v>803528</v>
+        <v>817762</v>
       </c>
       <c r="I30" t="n">
-        <v>45.544</v>
+        <v>46.35</v>
       </c>
       <c r="J30" t="n">
-        <v>2003</v>
+        <v>9590</v>
       </c>
       <c r="K30" t="n">
-        <v>0.114</v>
+        <v>0.544</v>
       </c>
       <c r="L30" t="n">
-        <v>4771</v>
+        <v>4972</v>
       </c>
       <c r="M30" t="n">
-        <v>0.27</v>
+        <v>0.282</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R30" t="s">
         <v>24</v>
       </c>
       <c r="S30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C31" s="1" t="n">
         <v>44220</v>
       </c>
       <c r="D31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="n">
@@ -4502,277 +4508,277 @@
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R31" t="s">
         <v>33</v>
       </c>
       <c r="S31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F32"/>
       <c r="G32" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H32" t="n">
-        <v>754948</v>
+        <v>766328</v>
       </c>
       <c r="I32" t="n">
-        <v>569.111</v>
+        <v>577.69</v>
       </c>
       <c r="J32" t="n">
-        <v>6010</v>
+        <v>6098</v>
       </c>
       <c r="K32" t="n">
-        <v>4.531</v>
+        <v>4.597</v>
       </c>
       <c r="L32" t="n">
-        <v>4753</v>
+        <v>4975</v>
       </c>
       <c r="M32" t="n">
-        <v>3.583</v>
+        <v>3.75</v>
       </c>
       <c r="N32" t="n">
-        <v>0.102</v>
+        <v>0.099</v>
       </c>
       <c r="O32" t="n">
-        <v>9.8</v>
+        <v>10.1</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q32" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R32" t="s">
         <v>33</v>
       </c>
       <c r="S32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F33"/>
       <c r="G33" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H33" t="n">
-        <v>1930478</v>
+        <v>1942333</v>
       </c>
       <c r="I33" t="n">
-        <v>16.792</v>
+        <v>16.895</v>
       </c>
       <c r="J33" t="n">
-        <v>6342</v>
+        <v>6003</v>
       </c>
       <c r="K33" t="n">
-        <v>0.055</v>
+        <v>0.052</v>
       </c>
       <c r="L33" t="n">
-        <v>4989</v>
+        <v>5536</v>
       </c>
       <c r="M33" t="n">
-        <v>0.043</v>
+        <v>0.048</v>
       </c>
       <c r="N33" t="n">
-        <v>0.081</v>
+        <v>0.084</v>
       </c>
       <c r="O33" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="P33" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q33" t="s">
         <v>205</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>204</v>
       </c>
       <c r="R33" t="s">
         <v>33</v>
       </c>
       <c r="S33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F34"/>
       <c r="G34" t="n">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H34" t="n">
-        <v>25433</v>
+        <v>25815</v>
       </c>
       <c r="I34" t="n">
-        <v>28.371</v>
+        <v>28.797</v>
       </c>
       <c r="J34" t="n">
-        <v>322</v>
+        <v>154</v>
       </c>
       <c r="K34" t="n">
-        <v>0.359</v>
+        <v>0.172</v>
       </c>
       <c r="L34" t="n">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="M34" t="n">
-        <v>0.224</v>
+        <v>0.202</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34"/>
       <c r="P34" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q34" t="s">
         <v>210</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>209</v>
       </c>
       <c r="R34" t="s">
         <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="D35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F35"/>
       <c r="G35" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H35" t="n">
-        <v>2773595</v>
+        <v>2788331</v>
       </c>
       <c r="I35" t="n">
-        <v>500.584</v>
+        <v>503.244</v>
       </c>
       <c r="J35" t="n">
-        <v>9743</v>
+        <v>4964</v>
       </c>
       <c r="K35" t="n">
-        <v>1.758</v>
+        <v>0.896</v>
       </c>
       <c r="L35" t="n">
-        <v>13239</v>
+        <v>10780</v>
       </c>
       <c r="M35" t="n">
-        <v>2.389</v>
+        <v>1.946</v>
       </c>
       <c r="N35" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="O35" t="n">
-        <v>40.9</v>
+        <v>30.8</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R35" t="s">
         <v>33</v>
       </c>
       <c r="S35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>44219</v>
+        <v>44221</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F36"/>
       <c r="G36" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36" t="n">
-        <v>199211</v>
+        <v>431892</v>
       </c>
       <c r="K36" t="n">
-        <v>3.052</v>
+        <v>6.617</v>
       </c>
       <c r="L36" t="n">
-        <v>289027</v>
+        <v>294621</v>
       </c>
       <c r="M36" t="n">
-        <v>4.428</v>
+        <v>4.514</v>
       </c>
       <c r="N36" t="n">
         <v>0.071</v>
@@ -4781,257 +4787,253 @@
         <v>14.1</v>
       </c>
       <c r="P36" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q36" t="s">
         <v>221</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>220</v>
       </c>
       <c r="R36" t="s">
         <v>24</v>
       </c>
       <c r="S36" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>44213</v>
+        <v>44220</v>
       </c>
       <c r="D37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F37"/>
       <c r="G37" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="n">
-        <v>37387669</v>
+        <v>38471483</v>
       </c>
       <c r="I37" t="n">
-        <v>446.239</v>
+        <v>459.175</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
       <c r="L37" t="n">
-        <v>163855</v>
+        <v>152618</v>
       </c>
       <c r="M37" t="n">
-        <v>1.956</v>
+        <v>1.822</v>
       </c>
       <c r="N37" t="n">
-        <v>0.105</v>
+        <v>0.1</v>
       </c>
       <c r="O37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="P37" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q37" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R37" t="s">
         <v>33</v>
       </c>
       <c r="S37" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>44218</v>
+        <v>44221</v>
       </c>
       <c r="D38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E38" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F38"/>
       <c r="G38" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H38" t="n">
-        <v>745095</v>
+        <v>757560</v>
       </c>
       <c r="I38" t="n">
-        <v>23.979</v>
-      </c>
-      <c r="J38" t="n">
-        <v>4878</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.157</v>
-      </c>
+        <v>24.38</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38"/>
       <c r="L38" t="n">
-        <v>4527</v>
+        <v>4464</v>
       </c>
       <c r="M38" t="n">
-        <v>0.146</v>
+        <v>0.144</v>
       </c>
       <c r="N38" t="n">
-        <v>0.079</v>
+        <v>0.13</v>
       </c>
       <c r="O38" t="n">
-        <v>12.7</v>
+        <v>7.7</v>
       </c>
       <c r="P38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F39"/>
       <c r="G39" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H39" t="n">
-        <v>4019134</v>
+        <v>4090873</v>
       </c>
       <c r="I39" t="n">
-        <v>385.6</v>
+        <v>392.483</v>
       </c>
       <c r="J39" t="n">
-        <v>36240</v>
+        <v>34044</v>
       </c>
       <c r="K39" t="n">
-        <v>3.477</v>
+        <v>3.266</v>
       </c>
       <c r="L39" t="n">
-        <v>25832</v>
+        <v>27526</v>
       </c>
       <c r="M39" t="n">
-        <v>2.478</v>
+        <v>2.641</v>
       </c>
       <c r="N39" t="n">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="O39" t="n">
-        <v>48</v>
+        <v>44.6</v>
       </c>
       <c r="P39" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F40"/>
       <c r="G40" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H40" t="n">
-        <v>745961</v>
+        <v>760395</v>
       </c>
       <c r="I40" t="n">
-        <v>41.638</v>
+        <v>42.443</v>
       </c>
       <c r="J40" t="n">
-        <v>7348</v>
+        <v>8541</v>
       </c>
       <c r="K40" t="n">
-        <v>0.41</v>
+        <v>0.477</v>
       </c>
       <c r="L40" t="n">
-        <v>5807</v>
+        <v>6374</v>
       </c>
       <c r="M40" t="n">
-        <v>0.324</v>
+        <v>0.356</v>
       </c>
       <c r="N40" t="n">
-        <v>0.13</v>
+        <v>0.116</v>
       </c>
       <c r="O40" t="n">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="P40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q40" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R40" t="s">
         <v>24</v>
       </c>
       <c r="S40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C41" s="1" t="n">
         <v>44215</v>
       </c>
       <c r="D41" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E41" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F41"/>
       <c r="G41" t="n">
@@ -5054,148 +5056,148 @@
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q41" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="R41" t="s">
         <v>33</v>
       </c>
       <c r="S41" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>44223</v>
+        <v>44225</v>
       </c>
       <c r="D42" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F42" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G42" t="n">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H42" t="n">
-        <v>2633880</v>
+        <v>2665948</v>
       </c>
       <c r="I42" t="n">
-        <v>272.649</v>
+        <v>275.968</v>
       </c>
       <c r="J42" t="n">
-        <v>17053</v>
+        <v>18975</v>
       </c>
       <c r="K42" t="n">
-        <v>1.765</v>
+        <v>1.964</v>
       </c>
       <c r="L42" t="n">
-        <v>14281</v>
+        <v>14056</v>
       </c>
       <c r="M42" t="n">
-        <v>1.478</v>
+        <v>1.455</v>
       </c>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q42" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F43"/>
       <c r="G43" t="n">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H43" t="n">
-        <v>259951</v>
+        <v>261859</v>
       </c>
       <c r="I43" t="n">
-        <v>761.761</v>
+        <v>767.352</v>
       </c>
       <c r="J43" t="n">
-        <v>1073</v>
+        <v>966</v>
       </c>
       <c r="K43" t="n">
-        <v>3.144</v>
+        <v>2.831</v>
       </c>
       <c r="L43" t="n">
-        <v>763</v>
+        <v>840</v>
       </c>
       <c r="M43" t="n">
-        <v>2.236</v>
+        <v>2.462</v>
       </c>
       <c r="N43" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="O43" t="n">
-        <v>242.8</v>
+        <v>294</v>
       </c>
       <c r="P43" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q43" t="s">
         <v>267</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>266</v>
       </c>
       <c r="R43" t="s">
         <v>33</v>
       </c>
       <c r="S43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B44" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C44" s="1" t="n">
         <v>43945</v>
       </c>
       <c r="D44" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G44" t="n">
         <v>24</v>
@@ -5225,206 +5227,194 @@
         <v>20.4</v>
       </c>
       <c r="P44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R44" t="s">
         <v>24</v>
       </c>
       <c r="S44" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>44221</v>
+        <v>44225</v>
       </c>
       <c r="D45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F45" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G45" t="n">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="H45" t="n">
-        <v>192337117</v>
+        <v>195081079</v>
       </c>
       <c r="I45" t="n">
-        <v>139.374</v>
+        <v>141.363</v>
       </c>
       <c r="J45" t="n">
-        <v>570246</v>
+        <v>742306</v>
       </c>
       <c r="K45" t="n">
-        <v>0.413</v>
+        <v>0.538</v>
       </c>
       <c r="L45" t="n">
-        <v>749154</v>
+        <v>704722</v>
       </c>
       <c r="M45" t="n">
-        <v>0.543</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="O45" t="n">
-        <v>55.2</v>
-      </c>
+        <v>0.511</v>
+      </c>
+      <c r="N45"/>
+      <c r="O45"/>
       <c r="P45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>44222</v>
+        <v>44225</v>
       </c>
       <c r="D46" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E46" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H46" t="n">
-        <v>5931637</v>
+        <v>6084661</v>
       </c>
       <c r="I46" t="n">
-        <v>21.686</v>
+        <v>22.245</v>
       </c>
       <c r="J46" t="n">
-        <v>48097</v>
+        <v>52419</v>
       </c>
       <c r="K46" t="n">
-        <v>0.176</v>
+        <v>0.192</v>
       </c>
       <c r="L46" t="n">
-        <v>42908</v>
+        <v>44878</v>
       </c>
       <c r="M46" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0.283</v>
-      </c>
-      <c r="O46" t="n">
-        <v>3.5</v>
-      </c>
+        <v>0.164</v>
+      </c>
+      <c r="N46"/>
+      <c r="O46"/>
       <c r="P46" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q46" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R46" t="s">
         <v>24</v>
       </c>
       <c r="S46" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B47" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D47" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E47" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H47" t="n">
-        <v>9015376</v>
+        <v>9125076</v>
       </c>
       <c r="I47" t="n">
-        <v>107.335</v>
-      </c>
-      <c r="J47" t="n">
-        <v>55190</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.657</v>
-      </c>
+        <v>108.641</v>
+      </c>
+      <c r="J47"/>
+      <c r="K47"/>
       <c r="L47" t="n">
-        <v>54403</v>
+        <v>54446</v>
       </c>
       <c r="M47" t="n">
         <v>0.648</v>
       </c>
       <c r="N47" t="n">
-        <v>0.114</v>
+        <v>0.116</v>
       </c>
       <c r="O47" t="n">
-        <v>8.7</v>
+        <v>8.6</v>
       </c>
       <c r="P47" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q47" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R47" t="s">
         <v>33</v>
       </c>
       <c r="S47" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C48" s="1" t="n">
         <v>44221</v>
       </c>
       <c r="D48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E48" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F48"/>
       <c r="G48" t="n">
@@ -5455,493 +5445,485 @@
         <v>40.2</v>
       </c>
       <c r="P48" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q48" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S48" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F49"/>
       <c r="G49" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H49" t="n">
-        <v>2973658</v>
+        <v>3017920</v>
       </c>
       <c r="I49" t="n">
-        <v>602.224</v>
+        <v>611.188</v>
       </c>
       <c r="J49" t="n">
-        <v>16520</v>
+        <v>21712</v>
       </c>
       <c r="K49" t="n">
-        <v>3.346</v>
+        <v>4.397</v>
       </c>
       <c r="L49" t="n">
-        <v>20542</v>
+        <v>20078</v>
       </c>
       <c r="M49" t="n">
-        <v>4.16</v>
+        <v>4.066</v>
       </c>
       <c r="N49" t="n">
-        <v>0.09</v>
+        <v>0.083</v>
       </c>
       <c r="O49" t="n">
-        <v>11.1</v>
+        <v>12</v>
       </c>
       <c r="P49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="R49" t="s">
         <v>33</v>
       </c>
       <c r="S49" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B50" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>44222</v>
+        <v>44225</v>
       </c>
       <c r="D50" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E50" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="n">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H50" t="n">
-        <v>10857373</v>
+        <v>11066234</v>
       </c>
       <c r="I50" t="n">
-        <v>1254.384</v>
+        <v>1278.514</v>
       </c>
       <c r="J50" t="n">
-        <v>83449</v>
+        <v>44324</v>
       </c>
       <c r="K50" t="n">
-        <v>9.641</v>
+        <v>5.121</v>
       </c>
       <c r="L50" t="n">
-        <v>74645</v>
+        <v>67033</v>
       </c>
       <c r="M50" t="n">
-        <v>8.624</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0.099</v>
-      </c>
-      <c r="O50" t="n">
-        <v>10.1</v>
-      </c>
+        <v>7.745</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50"/>
       <c r="P50" t="s">
         <v>49</v>
       </c>
       <c r="Q50" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R50" t="s">
         <v>33</v>
       </c>
       <c r="S50" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B51" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D51" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E51" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F51" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G51" t="n">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H51" t="n">
-        <v>16567955</v>
+        <v>16752985</v>
       </c>
       <c r="I51" t="n">
-        <v>274.023</v>
+        <v>277.084</v>
       </c>
       <c r="J51" t="n">
-        <v>73626</v>
+        <v>96755</v>
       </c>
       <c r="K51" t="n">
-        <v>1.218</v>
+        <v>1.6</v>
       </c>
       <c r="L51" t="n">
-        <v>79738</v>
+        <v>79370</v>
       </c>
       <c r="M51" t="n">
-        <v>1.319</v>
+        <v>1.313</v>
       </c>
       <c r="N51" t="n">
-        <v>0.153</v>
+        <v>0.157</v>
       </c>
       <c r="O51" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="P51" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R51" t="s">
         <v>24</v>
       </c>
       <c r="S51" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B52" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D52" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E52" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F52" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G52" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H52" t="n">
-        <v>31317253</v>
+        <v>31886202</v>
       </c>
       <c r="I52" t="n">
-        <v>517.967</v>
+        <v>527.377</v>
       </c>
       <c r="J52" t="n">
-        <v>240102</v>
+        <v>275179</v>
       </c>
       <c r="K52" t="n">
-        <v>3.971</v>
+        <v>4.551</v>
       </c>
       <c r="L52" t="n">
-        <v>242545</v>
+        <v>245634</v>
       </c>
       <c r="M52" t="n">
-        <v>4.012</v>
+        <v>4.063</v>
       </c>
       <c r="N52" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="O52" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="P52" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R52" t="s">
         <v>33</v>
       </c>
       <c r="S52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B53" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="D53" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E53" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H53" t="n">
-        <v>160627</v>
+        <v>163144</v>
       </c>
       <c r="I53" t="n">
-        <v>54.245</v>
-      </c>
-      <c r="J53" t="n">
-        <v>831</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.281</v>
-      </c>
+        <v>55.095</v>
+      </c>
+      <c r="J53"/>
+      <c r="K53"/>
       <c r="L53" t="n">
-        <v>995</v>
+        <v>1103</v>
       </c>
       <c r="M53" t="n">
-        <v>0.336</v>
+        <v>0.372</v>
       </c>
       <c r="N53" t="n">
-        <v>0.106</v>
+        <v>0.098</v>
       </c>
       <c r="O53" t="n">
-        <v>9.4</v>
+        <v>10.2</v>
       </c>
       <c r="P53" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q53" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="R53" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S53" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D54" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F54"/>
       <c r="G54" t="n">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H54" t="n">
-        <v>6074549</v>
+        <v>6229705</v>
       </c>
       <c r="I54" t="n">
-        <v>48.029</v>
+        <v>49.256</v>
       </c>
       <c r="J54" t="n">
-        <v>66335</v>
+        <v>64332</v>
       </c>
       <c r="K54" t="n">
-        <v>0.524</v>
+        <v>0.509</v>
       </c>
       <c r="L54" t="n">
-        <v>68289</v>
+        <v>65801</v>
       </c>
       <c r="M54" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="N54" t="n">
-        <v>0.066</v>
+        <v>0.062</v>
       </c>
       <c r="O54" t="n">
-        <v>15.1</v>
+        <v>16.2</v>
       </c>
       <c r="P54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R54" t="s">
         <v>24</v>
       </c>
       <c r="S54" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B55" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="D55" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E55" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H55" t="n">
-        <v>3735138</v>
+        <v>3784233</v>
       </c>
       <c r="I55" t="n">
-        <v>366.077</v>
+        <v>370.889</v>
       </c>
       <c r="J55" t="n">
-        <v>23980</v>
+        <v>24763</v>
       </c>
       <c r="K55" t="n">
-        <v>2.35</v>
+        <v>2.427</v>
       </c>
       <c r="L55" t="n">
-        <v>20119</v>
+        <v>20669</v>
       </c>
       <c r="M55" t="n">
-        <v>1.972</v>
+        <v>2.026</v>
       </c>
       <c r="N55" t="n">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="O55" t="n">
-        <v>24.5</v>
+        <v>25.4</v>
       </c>
       <c r="P55" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q55" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="R55" t="s">
         <v>33</v>
       </c>
       <c r="S55" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>44209</v>
+        <v>44221</v>
       </c>
       <c r="D56" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F56"/>
       <c r="G56" t="n">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="H56" t="n">
-        <v>5942556</v>
+        <v>6399596</v>
       </c>
       <c r="I56" t="n">
-        <v>316.486</v>
+        <v>340.826</v>
       </c>
       <c r="J56" t="n">
-        <v>38392</v>
+        <v>28915</v>
       </c>
       <c r="K56" t="n">
-        <v>2.045</v>
+        <v>1.54</v>
       </c>
       <c r="L56" t="n">
-        <v>39987</v>
+        <v>36157</v>
       </c>
       <c r="M56" t="n">
-        <v>2.13</v>
+        <v>1.926</v>
       </c>
       <c r="N56" t="n">
-        <v>0.021</v>
+        <v>0.04</v>
       </c>
       <c r="O56" t="n">
-        <v>46.9</v>
+        <v>24.8</v>
       </c>
       <c r="P56" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q56" t="s">
         <v>341</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>340</v>
       </c>
       <c r="R56" t="s">
         <v>33</v>
       </c>
       <c r="S56" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B57" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C57" s="1" t="n">
         <v>44214</v>
       </c>
       <c r="D57" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E57" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F57"/>
       <c r="G57" t="n">
@@ -5971,301 +5953,301 @@
         <v>49</v>
       </c>
       <c r="Q57" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="R57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S57" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B58" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>44222</v>
+        <v>44224</v>
       </c>
       <c r="D58" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <